--- a/eMIMO阵面数据帧格式.xlsx
+++ b/eMIMO阵面数据帧格式.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\202409_eMIMO\Software\202410\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\202409_eMIMO\Software\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0298FE1-9FC7-4772-BDAA-CBB66E664B11}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A90CDD6-2EB3-448A-B606-CF489AA42C36}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="57840" windowHeight="31920" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="57600" yWindow="0" windowWidth="57600" windowHeight="31680" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sub Array SPI 32bits Data Frame" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="304" uniqueCount="162">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="316" uniqueCount="169">
   <si>
     <t>D15</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -578,15 +578,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>选择2个RF Bank，控制其中一个或全部的TR方向或工作状态。该指令只有在PLUG_IN=1，即USB接头插入时有效。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Bank_ID表示UE RF_Bank的编号，一个UE板上有2个RF_Bank，从0计数。Bank_ID=2表示全选。TX=1且RX=0时为发射打开；TX=0且RX=1时为接收打开；TX与RX同时为1或0则为关闭。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>DSA_ID表示通道衰减器的编号，1个UE板上一共有32个DSA，每个RF_Bank有1T1R两个8通道，每个通道有1片DSA单独控制衰减。DSA_ID取值范围为0至15。其中编号0至7用于TX，编号8至15用于RX，每个DSA的控制字都是6位。ALL_DSA=1表示选中指定Bank_ID的全部8片DSA。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -624,6 +616,42 @@
   </si>
   <si>
     <t>由于每个Module只有8个Sub Array板，因此Board_ID只有0至7是有意义的，但Board_ID=8被保留，表示对所有Module的所有板子都有效的ID（用于广播）。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LNA_ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0xB</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ALL_LNA</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bypass</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>控制LNA旁路</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>选择2个RF_Bank中的LNA，控制LNA旁路是否使能。如果ALL_DSA=1，会对当前选中的RF Bank中的所有LNA应用Bypass（1个RF_Bank有8个LNA），无论LNA_ID的值。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DSA_ID表示通道衰减器的编号，1个UE板上一共有32个DSA，每个RF_Bank有1T1R两个8通道，每个通道有1片DSA单独控制衰减。DSA_ID取值范围为0至15。其中编号0至7用于TX，编号8至15用于RX，每个DSA的控制字都是6位。ALL_DSA=1表示选中指定Bank_ID的全部DSA。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LNA_ID表示LNA的编号。LNA_ID取值范围为0至7。ALL_LNA=1表示选中指定Bank_ID的全部LNA，只有ALL_LNA=0时，LNA_ID才有意义。Bypass=1表示开启LNA旁路。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>选择2个RF Bank，控制其中一个或全部的TR方向或工作状态。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -837,7 +865,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
@@ -899,6 +927,21 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -906,9 +949,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -920,8 +960,23 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="8" xfId="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="9" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -935,31 +990,13 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="8" xfId="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="9" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -6067,7 +6104,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="D17:AM44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E13" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="E13" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="AA22" sqref="AA22"/>
     </sheetView>
   </sheetViews>
@@ -6208,53 +6245,53 @@
       </c>
     </row>
     <row r="18" spans="4:39" ht="63" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D18" s="28" t="s">
+      <c r="D18" s="24" t="s">
         <v>25</v>
       </c>
-      <c r="E18" s="28" t="s">
+      <c r="E18" s="24" t="s">
         <v>44</v>
       </c>
-      <c r="F18" s="28"/>
-      <c r="G18" s="28"/>
-      <c r="H18" s="28"/>
-      <c r="I18" s="28" t="s">
+      <c r="F18" s="24"/>
+      <c r="G18" s="24"/>
+      <c r="H18" s="24"/>
+      <c r="I18" s="24" t="s">
         <v>24</v>
       </c>
-      <c r="J18" s="28"/>
-      <c r="K18" s="28"/>
-      <c r="L18" s="28"/>
-      <c r="M18" s="25" t="s">
+      <c r="J18" s="24"/>
+      <c r="K18" s="24"/>
+      <c r="L18" s="24"/>
+      <c r="M18" s="29" t="s">
         <v>16</v>
       </c>
-      <c r="N18" s="26"/>
-      <c r="O18" s="26"/>
-      <c r="P18" s="27"/>
-      <c r="Q18" s="24" t="s">
+      <c r="N18" s="30"/>
+      <c r="O18" s="30"/>
+      <c r="P18" s="31"/>
+      <c r="Q18" s="25" t="s">
         <v>46</v>
       </c>
-      <c r="R18" s="24"/>
-      <c r="S18" s="24"/>
-      <c r="T18" s="24"/>
-      <c r="U18" s="24" t="s">
+      <c r="R18" s="25"/>
+      <c r="S18" s="25"/>
+      <c r="T18" s="25"/>
+      <c r="U18" s="25" t="s">
         <v>56</v>
       </c>
-      <c r="V18" s="24"/>
-      <c r="W18" s="24"/>
-      <c r="X18" s="24"/>
-      <c r="Y18" s="24"/>
-      <c r="Z18" s="24"/>
-      <c r="AA18" s="24"/>
-      <c r="AB18" s="24"/>
-      <c r="AC18" s="24" t="s">
+      <c r="V18" s="25"/>
+      <c r="W18" s="25"/>
+      <c r="X18" s="25"/>
+      <c r="Y18" s="25"/>
+      <c r="Z18" s="25"/>
+      <c r="AA18" s="25"/>
+      <c r="AB18" s="25"/>
+      <c r="AC18" s="25" t="s">
         <v>57</v>
       </c>
-      <c r="AD18" s="24"/>
-      <c r="AE18" s="24"/>
-      <c r="AF18" s="24"/>
-      <c r="AG18" s="24"/>
-      <c r="AH18" s="24"/>
-      <c r="AI18" s="24"/>
-      <c r="AJ18" s="24"/>
+      <c r="AD18" s="25"/>
+      <c r="AE18" s="25"/>
+      <c r="AF18" s="25"/>
+      <c r="AG18" s="25"/>
+      <c r="AH18" s="25"/>
+      <c r="AI18" s="25"/>
+      <c r="AJ18" s="25"/>
       <c r="AK18" s="15" t="s">
         <v>64</v>
       </c>
@@ -6266,45 +6303,45 @@
       </c>
     </row>
     <row r="19" spans="4:39" ht="63" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D19" s="28"/>
-      <c r="E19" s="28"/>
-      <c r="F19" s="28"/>
-      <c r="G19" s="28"/>
-      <c r="H19" s="28"/>
-      <c r="I19" s="28"/>
-      <c r="J19" s="28"/>
-      <c r="K19" s="28"/>
-      <c r="L19" s="28"/>
-      <c r="M19" s="25" t="s">
+      <c r="D19" s="24"/>
+      <c r="E19" s="24"/>
+      <c r="F19" s="24"/>
+      <c r="G19" s="24"/>
+      <c r="H19" s="24"/>
+      <c r="I19" s="24"/>
+      <c r="J19" s="24"/>
+      <c r="K19" s="24"/>
+      <c r="L19" s="24"/>
+      <c r="M19" s="29" t="s">
         <v>16</v>
       </c>
-      <c r="N19" s="26"/>
-      <c r="O19" s="26"/>
-      <c r="P19" s="27"/>
-      <c r="Q19" s="24" t="s">
+      <c r="N19" s="30"/>
+      <c r="O19" s="30"/>
+      <c r="P19" s="31"/>
+      <c r="Q19" s="25" t="s">
         <v>47</v>
       </c>
-      <c r="R19" s="24"/>
-      <c r="S19" s="24"/>
-      <c r="T19" s="24"/>
-      <c r="U19" s="24" t="s">
+      <c r="R19" s="25"/>
+      <c r="S19" s="25"/>
+      <c r="T19" s="25"/>
+      <c r="U19" s="25" t="s">
         <v>16</v>
       </c>
-      <c r="V19" s="24"/>
-      <c r="W19" s="24"/>
-      <c r="X19" s="24"/>
-      <c r="Y19" s="24"/>
-      <c r="Z19" s="24"/>
-      <c r="AA19" s="24"/>
-      <c r="AB19" s="24"/>
-      <c r="AC19" s="24"/>
-      <c r="AD19" s="24"/>
-      <c r="AE19" s="24"/>
-      <c r="AF19" s="24"/>
-      <c r="AG19" s="24"/>
-      <c r="AH19" s="24"/>
-      <c r="AI19" s="24"/>
-      <c r="AJ19" s="24"/>
+      <c r="V19" s="25"/>
+      <c r="W19" s="25"/>
+      <c r="X19" s="25"/>
+      <c r="Y19" s="25"/>
+      <c r="Z19" s="25"/>
+      <c r="AA19" s="25"/>
+      <c r="AB19" s="25"/>
+      <c r="AC19" s="25"/>
+      <c r="AD19" s="25"/>
+      <c r="AE19" s="25"/>
+      <c r="AF19" s="25"/>
+      <c r="AG19" s="25"/>
+      <c r="AH19" s="25"/>
+      <c r="AI19" s="25"/>
+      <c r="AJ19" s="25"/>
       <c r="AK19" s="15" t="s">
         <v>65</v>
       </c>
@@ -6316,105 +6353,105 @@
       </c>
     </row>
     <row r="20" spans="4:39" ht="63" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D20" s="28"/>
-      <c r="E20" s="28"/>
-      <c r="F20" s="28"/>
-      <c r="G20" s="28"/>
-      <c r="H20" s="28"/>
-      <c r="I20" s="28"/>
-      <c r="J20" s="28"/>
-      <c r="K20" s="28"/>
-      <c r="L20" s="28"/>
-      <c r="M20" s="28" t="s">
-        <v>155</v>
-      </c>
-      <c r="N20" s="28"/>
-      <c r="O20" s="28"/>
-      <c r="P20" s="28"/>
-      <c r="Q20" s="24" t="s">
+      <c r="D20" s="24"/>
+      <c r="E20" s="24"/>
+      <c r="F20" s="24"/>
+      <c r="G20" s="24"/>
+      <c r="H20" s="24"/>
+      <c r="I20" s="24"/>
+      <c r="J20" s="24"/>
+      <c r="K20" s="24"/>
+      <c r="L20" s="24"/>
+      <c r="M20" s="24" t="s">
+        <v>153</v>
+      </c>
+      <c r="N20" s="24"/>
+      <c r="O20" s="24"/>
+      <c r="P20" s="24"/>
+      <c r="Q20" s="25" t="s">
         <v>48</v>
       </c>
-      <c r="R20" s="24"/>
-      <c r="S20" s="24"/>
-      <c r="T20" s="24"/>
-      <c r="U20" s="21" t="s">
+      <c r="R20" s="25"/>
+      <c r="S20" s="25"/>
+      <c r="T20" s="25"/>
+      <c r="U20" s="26" t="s">
         <v>16</v>
       </c>
-      <c r="V20" s="22"/>
-      <c r="W20" s="22"/>
-      <c r="X20" s="22"/>
-      <c r="Y20" s="22"/>
-      <c r="Z20" s="23"/>
+      <c r="V20" s="27"/>
+      <c r="W20" s="27"/>
+      <c r="X20" s="27"/>
+      <c r="Y20" s="27"/>
+      <c r="Z20" s="28"/>
       <c r="AA20" s="4" t="s">
         <v>18</v>
       </c>
       <c r="AB20" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="AC20" s="24" t="s">
+      <c r="AC20" s="25" t="s">
         <v>59</v>
       </c>
-      <c r="AD20" s="24"/>
-      <c r="AE20" s="24"/>
-      <c r="AF20" s="24"/>
-      <c r="AG20" s="24"/>
-      <c r="AH20" s="24"/>
-      <c r="AI20" s="24"/>
-      <c r="AJ20" s="24"/>
+      <c r="AD20" s="25"/>
+      <c r="AE20" s="25"/>
+      <c r="AF20" s="25"/>
+      <c r="AG20" s="25"/>
+      <c r="AH20" s="25"/>
+      <c r="AI20" s="25"/>
+      <c r="AJ20" s="25"/>
       <c r="AK20" s="15" t="s">
         <v>130</v>
       </c>
       <c r="AL20" s="16" t="s">
+        <v>155</v>
+      </c>
+      <c r="AM20" s="16" t="s">
         <v>157</v>
-      </c>
-      <c r="AM20" s="16" t="s">
-        <v>159</v>
       </c>
     </row>
     <row r="21" spans="4:39" ht="63" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D21" s="28"/>
-      <c r="E21" s="28"/>
-      <c r="F21" s="28"/>
-      <c r="G21" s="28"/>
-      <c r="H21" s="28"/>
-      <c r="I21" s="28"/>
-      <c r="J21" s="28"/>
-      <c r="K21" s="28"/>
-      <c r="L21" s="28"/>
-      <c r="M21" s="28"/>
-      <c r="N21" s="28"/>
-      <c r="O21" s="28"/>
-      <c r="P21" s="28"/>
-      <c r="Q21" s="24" t="s">
+      <c r="D21" s="24"/>
+      <c r="E21" s="24"/>
+      <c r="F21" s="24"/>
+      <c r="G21" s="24"/>
+      <c r="H21" s="24"/>
+      <c r="I21" s="24"/>
+      <c r="J21" s="24"/>
+      <c r="K21" s="24"/>
+      <c r="L21" s="24"/>
+      <c r="M21" s="24"/>
+      <c r="N21" s="24"/>
+      <c r="O21" s="24"/>
+      <c r="P21" s="24"/>
+      <c r="Q21" s="25" t="s">
         <v>49</v>
       </c>
-      <c r="R21" s="24"/>
-      <c r="S21" s="24"/>
-      <c r="T21" s="24"/>
-      <c r="U21" s="25" t="s">
+      <c r="R21" s="25"/>
+      <c r="S21" s="25"/>
+      <c r="T21" s="25"/>
+      <c r="U21" s="29" t="s">
         <v>16</v>
       </c>
-      <c r="V21" s="26"/>
-      <c r="W21" s="26"/>
-      <c r="X21" s="26"/>
-      <c r="Y21" s="26"/>
-      <c r="Z21" s="26"/>
-      <c r="AA21" s="27"/>
+      <c r="V21" s="30"/>
+      <c r="W21" s="30"/>
+      <c r="X21" s="30"/>
+      <c r="Y21" s="30"/>
+      <c r="Z21" s="30"/>
+      <c r="AA21" s="31"/>
       <c r="AB21" s="4" t="s">
         <v>17</v>
       </c>
       <c r="AC21" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="AD21" s="21" t="s">
+      <c r="AD21" s="26" t="s">
         <v>58</v>
       </c>
-      <c r="AE21" s="22"/>
-      <c r="AF21" s="22"/>
-      <c r="AG21" s="22"/>
-      <c r="AH21" s="22"/>
-      <c r="AI21" s="22"/>
-      <c r="AJ21" s="23"/>
+      <c r="AE21" s="27"/>
+      <c r="AF21" s="27"/>
+      <c r="AG21" s="27"/>
+      <c r="AH21" s="27"/>
+      <c r="AI21" s="27"/>
+      <c r="AJ21" s="28"/>
       <c r="AK21" s="17" t="s">
         <v>131</v>
       </c>
@@ -6422,55 +6459,55 @@
         <v>140</v>
       </c>
       <c r="AM21" s="16" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
     </row>
     <row r="22" spans="4:39" ht="63" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D22" s="28"/>
-      <c r="E22" s="28"/>
-      <c r="F22" s="28"/>
-      <c r="G22" s="28"/>
-      <c r="H22" s="28"/>
-      <c r="I22" s="28"/>
-      <c r="J22" s="28"/>
-      <c r="K22" s="28"/>
-      <c r="L22" s="28"/>
-      <c r="M22" s="28" t="s">
-        <v>156</v>
-      </c>
-      <c r="N22" s="28"/>
-      <c r="O22" s="28"/>
-      <c r="P22" s="28"/>
-      <c r="Q22" s="24" t="s">
+      <c r="D22" s="24"/>
+      <c r="E22" s="24"/>
+      <c r="F22" s="24"/>
+      <c r="G22" s="24"/>
+      <c r="H22" s="24"/>
+      <c r="I22" s="24"/>
+      <c r="J22" s="24"/>
+      <c r="K22" s="24"/>
+      <c r="L22" s="24"/>
+      <c r="M22" s="24" t="s">
+        <v>154</v>
+      </c>
+      <c r="N22" s="24"/>
+      <c r="O22" s="24"/>
+      <c r="P22" s="24"/>
+      <c r="Q22" s="25" t="s">
         <v>50</v>
       </c>
-      <c r="R22" s="24"/>
-      <c r="S22" s="24"/>
-      <c r="T22" s="24"/>
-      <c r="U22" s="21" t="s">
+      <c r="R22" s="25"/>
+      <c r="S22" s="25"/>
+      <c r="T22" s="25"/>
+      <c r="U22" s="26" t="s">
         <v>16</v>
       </c>
-      <c r="V22" s="22"/>
-      <c r="W22" s="22"/>
-      <c r="X22" s="22"/>
-      <c r="Y22" s="22"/>
-      <c r="Z22" s="23"/>
+      <c r="V22" s="27"/>
+      <c r="W22" s="27"/>
+      <c r="X22" s="27"/>
+      <c r="Y22" s="27"/>
+      <c r="Z22" s="28"/>
       <c r="AA22" s="4" t="s">
         <v>19</v>
       </c>
       <c r="AB22" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="AC22" s="21" t="s">
+      <c r="AC22" s="26" t="s">
         <v>16</v>
       </c>
-      <c r="AD22" s="22"/>
-      <c r="AE22" s="22"/>
-      <c r="AF22" s="22"/>
-      <c r="AG22" s="22"/>
-      <c r="AH22" s="22"/>
-      <c r="AI22" s="22"/>
-      <c r="AJ22" s="23"/>
+      <c r="AD22" s="27"/>
+      <c r="AE22" s="27"/>
+      <c r="AF22" s="27"/>
+      <c r="AG22" s="27"/>
+      <c r="AH22" s="27"/>
+      <c r="AI22" s="27"/>
+      <c r="AJ22" s="28"/>
       <c r="AK22" s="17" t="s">
         <v>66</v>
       </c>
@@ -6478,49 +6515,49 @@
         <v>132</v>
       </c>
       <c r="AM22" s="16" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
     </row>
     <row r="23" spans="4:39" ht="63" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D23" s="28"/>
-      <c r="E23" s="28"/>
-      <c r="F23" s="28"/>
-      <c r="G23" s="28"/>
-      <c r="H23" s="28"/>
-      <c r="I23" s="28"/>
-      <c r="J23" s="28"/>
-      <c r="K23" s="28"/>
-      <c r="L23" s="28"/>
-      <c r="M23" s="25" t="s">
+      <c r="D23" s="24"/>
+      <c r="E23" s="24"/>
+      <c r="F23" s="24"/>
+      <c r="G23" s="24"/>
+      <c r="H23" s="24"/>
+      <c r="I23" s="24"/>
+      <c r="J23" s="24"/>
+      <c r="K23" s="24"/>
+      <c r="L23" s="24"/>
+      <c r="M23" s="29" t="s">
         <v>16</v>
       </c>
-      <c r="N23" s="26"/>
-      <c r="O23" s="26"/>
-      <c r="P23" s="27"/>
-      <c r="Q23" s="24" t="s">
+      <c r="N23" s="30"/>
+      <c r="O23" s="30"/>
+      <c r="P23" s="31"/>
+      <c r="Q23" s="25" t="s">
         <v>51</v>
       </c>
-      <c r="R23" s="24"/>
-      <c r="S23" s="24"/>
-      <c r="T23" s="24"/>
-      <c r="U23" s="21" t="s">
+      <c r="R23" s="25"/>
+      <c r="S23" s="25"/>
+      <c r="T23" s="25"/>
+      <c r="U23" s="26" t="s">
         <v>16</v>
       </c>
-      <c r="V23" s="22"/>
-      <c r="W23" s="22"/>
-      <c r="X23" s="22"/>
-      <c r="Y23" s="22"/>
-      <c r="Z23" s="22"/>
-      <c r="AA23" s="22"/>
-      <c r="AB23" s="22"/>
-      <c r="AC23" s="22"/>
-      <c r="AD23" s="22"/>
-      <c r="AE23" s="22"/>
-      <c r="AF23" s="22"/>
-      <c r="AG23" s="22"/>
-      <c r="AH23" s="22"/>
-      <c r="AI23" s="22"/>
-      <c r="AJ23" s="23"/>
+      <c r="V23" s="27"/>
+      <c r="W23" s="27"/>
+      <c r="X23" s="27"/>
+      <c r="Y23" s="27"/>
+      <c r="Z23" s="27"/>
+      <c r="AA23" s="27"/>
+      <c r="AB23" s="27"/>
+      <c r="AC23" s="27"/>
+      <c r="AD23" s="27"/>
+      <c r="AE23" s="27"/>
+      <c r="AF23" s="27"/>
+      <c r="AG23" s="27"/>
+      <c r="AH23" s="27"/>
+      <c r="AI23" s="27"/>
+      <c r="AJ23" s="28"/>
       <c r="AK23" s="17" t="s">
         <v>133</v>
       </c>
@@ -6532,45 +6569,45 @@
       </c>
     </row>
     <row r="24" spans="4:39" ht="63" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D24" s="28"/>
-      <c r="E24" s="28"/>
-      <c r="F24" s="28"/>
-      <c r="G24" s="28"/>
-      <c r="H24" s="28"/>
-      <c r="I24" s="28"/>
-      <c r="J24" s="28"/>
-      <c r="K24" s="28"/>
-      <c r="L24" s="28"/>
-      <c r="M24" s="25" t="s">
+      <c r="D24" s="24"/>
+      <c r="E24" s="24"/>
+      <c r="F24" s="24"/>
+      <c r="G24" s="24"/>
+      <c r="H24" s="24"/>
+      <c r="I24" s="24"/>
+      <c r="J24" s="24"/>
+      <c r="K24" s="24"/>
+      <c r="L24" s="24"/>
+      <c r="M24" s="29" t="s">
         <v>16</v>
       </c>
-      <c r="N24" s="26"/>
-      <c r="O24" s="26"/>
-      <c r="P24" s="27"/>
-      <c r="Q24" s="24" t="s">
+      <c r="N24" s="30"/>
+      <c r="O24" s="30"/>
+      <c r="P24" s="31"/>
+      <c r="Q24" s="25" t="s">
         <v>52</v>
       </c>
-      <c r="R24" s="24"/>
-      <c r="S24" s="24"/>
-      <c r="T24" s="24"/>
-      <c r="U24" s="21" t="s">
+      <c r="R24" s="25"/>
+      <c r="S24" s="25"/>
+      <c r="T24" s="25"/>
+      <c r="U24" s="26" t="s">
         <v>16</v>
       </c>
-      <c r="V24" s="22"/>
-      <c r="W24" s="22"/>
-      <c r="X24" s="22"/>
-      <c r="Y24" s="22"/>
-      <c r="Z24" s="22"/>
-      <c r="AA24" s="22"/>
-      <c r="AB24" s="22"/>
-      <c r="AC24" s="22"/>
-      <c r="AD24" s="22"/>
-      <c r="AE24" s="22"/>
-      <c r="AF24" s="22"/>
-      <c r="AG24" s="22"/>
-      <c r="AH24" s="22"/>
-      <c r="AI24" s="22"/>
-      <c r="AJ24" s="23"/>
+      <c r="V24" s="27"/>
+      <c r="W24" s="27"/>
+      <c r="X24" s="27"/>
+      <c r="Y24" s="27"/>
+      <c r="Z24" s="27"/>
+      <c r="AA24" s="27"/>
+      <c r="AB24" s="27"/>
+      <c r="AC24" s="27"/>
+      <c r="AD24" s="27"/>
+      <c r="AE24" s="27"/>
+      <c r="AF24" s="27"/>
+      <c r="AG24" s="27"/>
+      <c r="AH24" s="27"/>
+      <c r="AI24" s="27"/>
+      <c r="AJ24" s="28"/>
       <c r="AK24" s="17" t="s">
         <v>67</v>
       </c>
@@ -6582,49 +6619,49 @@
       </c>
     </row>
     <row r="25" spans="4:39" ht="63" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D25" s="28"/>
-      <c r="E25" s="28"/>
-      <c r="F25" s="28"/>
-      <c r="G25" s="28"/>
-      <c r="H25" s="28"/>
-      <c r="I25" s="28"/>
-      <c r="J25" s="28"/>
-      <c r="K25" s="28"/>
-      <c r="L25" s="28"/>
-      <c r="M25" s="25" t="s">
+      <c r="D25" s="24"/>
+      <c r="E25" s="24"/>
+      <c r="F25" s="24"/>
+      <c r="G25" s="24"/>
+      <c r="H25" s="24"/>
+      <c r="I25" s="24"/>
+      <c r="J25" s="24"/>
+      <c r="K25" s="24"/>
+      <c r="L25" s="24"/>
+      <c r="M25" s="29" t="s">
         <v>16</v>
       </c>
-      <c r="N25" s="26"/>
-      <c r="O25" s="26"/>
-      <c r="P25" s="27"/>
-      <c r="Q25" s="24" t="s">
+      <c r="N25" s="30"/>
+      <c r="O25" s="30"/>
+      <c r="P25" s="31"/>
+      <c r="Q25" s="25" t="s">
         <v>53</v>
       </c>
-      <c r="R25" s="24"/>
-      <c r="S25" s="24"/>
-      <c r="T25" s="24"/>
-      <c r="U25" s="21" t="s">
+      <c r="R25" s="25"/>
+      <c r="S25" s="25"/>
+      <c r="T25" s="25"/>
+      <c r="U25" s="26" t="s">
         <v>16</v>
       </c>
-      <c r="V25" s="22"/>
-      <c r="W25" s="22"/>
-      <c r="X25" s="22"/>
-      <c r="Y25" s="22"/>
-      <c r="Z25" s="22"/>
-      <c r="AA25" s="22"/>
-      <c r="AB25" s="22"/>
-      <c r="AC25" s="24" t="s">
+      <c r="V25" s="27"/>
+      <c r="W25" s="27"/>
+      <c r="X25" s="27"/>
+      <c r="Y25" s="27"/>
+      <c r="Z25" s="27"/>
+      <c r="AA25" s="27"/>
+      <c r="AB25" s="27"/>
+      <c r="AC25" s="25" t="s">
         <v>44</v>
       </c>
-      <c r="AD25" s="24"/>
-      <c r="AE25" s="24"/>
-      <c r="AF25" s="24"/>
-      <c r="AG25" s="21" t="s">
+      <c r="AD25" s="25"/>
+      <c r="AE25" s="25"/>
+      <c r="AF25" s="25"/>
+      <c r="AG25" s="26" t="s">
         <v>24</v>
       </c>
-      <c r="AH25" s="22"/>
-      <c r="AI25" s="22"/>
-      <c r="AJ25" s="23"/>
+      <c r="AH25" s="27"/>
+      <c r="AI25" s="27"/>
+      <c r="AJ25" s="28"/>
       <c r="AK25" s="17" t="s">
         <v>68</v>
       </c>
@@ -6632,53 +6669,53 @@
         <v>60</v>
       </c>
       <c r="AM25" s="16" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
     </row>
     <row r="26" spans="4:39" ht="63" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D26" s="28"/>
-      <c r="E26" s="28"/>
-      <c r="F26" s="28"/>
-      <c r="G26" s="28"/>
-      <c r="H26" s="28"/>
-      <c r="I26" s="28"/>
-      <c r="J26" s="28"/>
-      <c r="K26" s="28"/>
-      <c r="L26" s="28"/>
-      <c r="M26" s="28" t="s">
-        <v>155</v>
-      </c>
-      <c r="N26" s="28"/>
-      <c r="O26" s="28"/>
-      <c r="P26" s="28"/>
-      <c r="Q26" s="24" t="s">
+      <c r="D26" s="24"/>
+      <c r="E26" s="24"/>
+      <c r="F26" s="24"/>
+      <c r="G26" s="24"/>
+      <c r="H26" s="24"/>
+      <c r="I26" s="24"/>
+      <c r="J26" s="24"/>
+      <c r="K26" s="24"/>
+      <c r="L26" s="24"/>
+      <c r="M26" s="24" t="s">
+        <v>153</v>
+      </c>
+      <c r="N26" s="24"/>
+      <c r="O26" s="24"/>
+      <c r="P26" s="24"/>
+      <c r="Q26" s="25" t="s">
         <v>54</v>
       </c>
-      <c r="R26" s="24"/>
-      <c r="S26" s="24"/>
-      <c r="T26" s="24"/>
-      <c r="U26" s="21" t="s">
+      <c r="R26" s="25"/>
+      <c r="S26" s="25"/>
+      <c r="T26" s="25"/>
+      <c r="U26" s="26" t="s">
         <v>16</v>
       </c>
-      <c r="V26" s="22"/>
-      <c r="W26" s="22"/>
-      <c r="X26" s="22"/>
-      <c r="Y26" s="22"/>
-      <c r="Z26" s="22"/>
-      <c r="AA26" s="23"/>
+      <c r="V26" s="27"/>
+      <c r="W26" s="27"/>
+      <c r="X26" s="27"/>
+      <c r="Y26" s="27"/>
+      <c r="Z26" s="27"/>
+      <c r="AA26" s="28"/>
       <c r="AB26" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="AC26" s="24" t="s">
+      <c r="AC26" s="25" t="s">
         <v>59</v>
       </c>
-      <c r="AD26" s="24"/>
-      <c r="AE26" s="24"/>
-      <c r="AF26" s="24"/>
-      <c r="AG26" s="24"/>
-      <c r="AH26" s="24"/>
-      <c r="AI26" s="24"/>
-      <c r="AJ26" s="24"/>
+      <c r="AD26" s="25"/>
+      <c r="AE26" s="25"/>
+      <c r="AF26" s="25"/>
+      <c r="AG26" s="25"/>
+      <c r="AH26" s="25"/>
+      <c r="AI26" s="25"/>
+      <c r="AJ26" s="25"/>
       <c r="AK26" s="15" t="s">
         <v>69</v>
       </c>
@@ -6690,49 +6727,49 @@
       </c>
     </row>
     <row r="27" spans="4:39" ht="63" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D27" s="28"/>
-      <c r="E27" s="28"/>
-      <c r="F27" s="28"/>
-      <c r="G27" s="28"/>
-      <c r="H27" s="28"/>
-      <c r="I27" s="28"/>
-      <c r="J27" s="28"/>
-      <c r="K27" s="28"/>
-      <c r="L27" s="28"/>
-      <c r="M27" s="28"/>
-      <c r="N27" s="28"/>
-      <c r="O27" s="28"/>
-      <c r="P27" s="28"/>
-      <c r="Q27" s="24" t="s">
+      <c r="D27" s="24"/>
+      <c r="E27" s="24"/>
+      <c r="F27" s="24"/>
+      <c r="G27" s="24"/>
+      <c r="H27" s="24"/>
+      <c r="I27" s="24"/>
+      <c r="J27" s="24"/>
+      <c r="K27" s="24"/>
+      <c r="L27" s="24"/>
+      <c r="M27" s="24"/>
+      <c r="N27" s="24"/>
+      <c r="O27" s="24"/>
+      <c r="P27" s="24"/>
+      <c r="Q27" s="25" t="s">
         <v>55</v>
       </c>
-      <c r="R27" s="24"/>
-      <c r="S27" s="24"/>
-      <c r="T27" s="24"/>
-      <c r="U27" s="21" t="s">
+      <c r="R27" s="25"/>
+      <c r="S27" s="25"/>
+      <c r="T27" s="25"/>
+      <c r="U27" s="26" t="s">
         <v>16</v>
       </c>
-      <c r="V27" s="22"/>
-      <c r="W27" s="22"/>
-      <c r="X27" s="22"/>
-      <c r="Y27" s="22"/>
-      <c r="Z27" s="22"/>
-      <c r="AA27" s="23"/>
+      <c r="V27" s="27"/>
+      <c r="W27" s="27"/>
+      <c r="X27" s="27"/>
+      <c r="Y27" s="27"/>
+      <c r="Z27" s="27"/>
+      <c r="AA27" s="28"/>
       <c r="AB27" s="4" t="s">
         <v>17</v>
       </c>
       <c r="AC27" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="AD27" s="21" t="s">
+      <c r="AD27" s="26" t="s">
         <v>58</v>
       </c>
-      <c r="AE27" s="22"/>
-      <c r="AF27" s="22"/>
-      <c r="AG27" s="22"/>
-      <c r="AH27" s="22"/>
-      <c r="AI27" s="22"/>
-      <c r="AJ27" s="23"/>
+      <c r="AE27" s="27"/>
+      <c r="AF27" s="27"/>
+      <c r="AG27" s="27"/>
+      <c r="AH27" s="27"/>
+      <c r="AI27" s="27"/>
+      <c r="AJ27" s="28"/>
       <c r="AK27" s="17" t="s">
         <v>70</v>
       </c>
@@ -6744,53 +6781,53 @@
       </c>
     </row>
     <row r="28" spans="4:39" ht="63" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D28" s="28"/>
-      <c r="E28" s="28"/>
-      <c r="F28" s="28"/>
-      <c r="G28" s="28"/>
-      <c r="H28" s="28"/>
-      <c r="I28" s="28"/>
-      <c r="J28" s="28"/>
-      <c r="K28" s="28"/>
-      <c r="L28" s="28"/>
-      <c r="M28" s="28" t="s">
+      <c r="D28" s="24"/>
+      <c r="E28" s="24"/>
+      <c r="F28" s="24"/>
+      <c r="G28" s="24"/>
+      <c r="H28" s="24"/>
+      <c r="I28" s="24"/>
+      <c r="J28" s="24"/>
+      <c r="K28" s="24"/>
+      <c r="L28" s="24"/>
+      <c r="M28" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="N28" s="28"/>
-      <c r="O28" s="28" t="s">
+      <c r="N28" s="24"/>
+      <c r="O28" s="24" t="s">
         <v>136</v>
       </c>
-      <c r="P28" s="28"/>
-      <c r="Q28" s="24" t="s">
+      <c r="P28" s="24"/>
+      <c r="Q28" s="25" t="s">
         <v>129</v>
       </c>
-      <c r="R28" s="24"/>
-      <c r="S28" s="24"/>
-      <c r="T28" s="24"/>
-      <c r="U28" s="21" t="s">
+      <c r="R28" s="25"/>
+      <c r="S28" s="25"/>
+      <c r="T28" s="25"/>
+      <c r="U28" s="26" t="s">
         <v>16</v>
       </c>
-      <c r="V28" s="22"/>
-      <c r="W28" s="22"/>
-      <c r="X28" s="22"/>
-      <c r="Y28" s="22"/>
-      <c r="Z28" s="22"/>
-      <c r="AA28" s="23"/>
+      <c r="V28" s="27"/>
+      <c r="W28" s="27"/>
+      <c r="X28" s="27"/>
+      <c r="Y28" s="27"/>
+      <c r="Z28" s="27"/>
+      <c r="AA28" s="28"/>
       <c r="AB28" s="13" t="s">
         <v>138</v>
       </c>
-      <c r="AC28" s="24" t="s">
+      <c r="AC28" s="25" t="s">
         <v>16</v>
       </c>
-      <c r="AD28" s="24"/>
-      <c r="AE28" s="21" t="s">
+      <c r="AD28" s="25"/>
+      <c r="AE28" s="26" t="s">
         <v>58</v>
       </c>
-      <c r="AF28" s="22"/>
-      <c r="AG28" s="22"/>
-      <c r="AH28" s="22"/>
-      <c r="AI28" s="22"/>
-      <c r="AJ28" s="23"/>
+      <c r="AF28" s="27"/>
+      <c r="AG28" s="27"/>
+      <c r="AH28" s="27"/>
+      <c r="AI28" s="27"/>
+      <c r="AJ28" s="28"/>
       <c r="AK28" s="17" t="s">
         <v>137</v>
       </c>
@@ -7395,21 +7432,19 @@
     </row>
   </sheetData>
   <mergeCells count="45">
-    <mergeCell ref="M28:N28"/>
-    <mergeCell ref="O28:P28"/>
-    <mergeCell ref="AC28:AD28"/>
-    <mergeCell ref="AE28:AJ28"/>
-    <mergeCell ref="M18:P18"/>
-    <mergeCell ref="M19:P19"/>
-    <mergeCell ref="M23:P23"/>
-    <mergeCell ref="M24:P24"/>
-    <mergeCell ref="M25:P25"/>
-    <mergeCell ref="U27:AA27"/>
-    <mergeCell ref="AD27:AJ27"/>
-    <mergeCell ref="Q26:T26"/>
-    <mergeCell ref="AC26:AJ26"/>
-    <mergeCell ref="M20:P21"/>
-    <mergeCell ref="M22:P22"/>
+    <mergeCell ref="Q27:T27"/>
+    <mergeCell ref="Q28:T28"/>
+    <mergeCell ref="AC22:AJ22"/>
+    <mergeCell ref="U21:AA21"/>
+    <mergeCell ref="U26:AA26"/>
+    <mergeCell ref="Q23:T23"/>
+    <mergeCell ref="Q24:T24"/>
+    <mergeCell ref="Q25:T25"/>
+    <mergeCell ref="Q18:T18"/>
+    <mergeCell ref="Q19:T19"/>
+    <mergeCell ref="Q20:T20"/>
+    <mergeCell ref="Q21:T21"/>
+    <mergeCell ref="Q22:T22"/>
     <mergeCell ref="E18:H28"/>
     <mergeCell ref="I18:L28"/>
     <mergeCell ref="D18:D28"/>
@@ -7426,20 +7461,22 @@
     <mergeCell ref="AC25:AF25"/>
     <mergeCell ref="U25:AB25"/>
     <mergeCell ref="U23:AJ23"/>
+    <mergeCell ref="M28:N28"/>
+    <mergeCell ref="O28:P28"/>
+    <mergeCell ref="AC28:AD28"/>
+    <mergeCell ref="AE28:AJ28"/>
+    <mergeCell ref="M18:P18"/>
+    <mergeCell ref="M19:P19"/>
+    <mergeCell ref="M23:P23"/>
+    <mergeCell ref="M24:P24"/>
+    <mergeCell ref="M25:P25"/>
+    <mergeCell ref="U27:AA27"/>
+    <mergeCell ref="AD27:AJ27"/>
+    <mergeCell ref="Q26:T26"/>
+    <mergeCell ref="AC26:AJ26"/>
+    <mergeCell ref="M20:P21"/>
+    <mergeCell ref="M22:P22"/>
     <mergeCell ref="U28:AA28"/>
-    <mergeCell ref="Q18:T18"/>
-    <mergeCell ref="Q19:T19"/>
-    <mergeCell ref="Q20:T20"/>
-    <mergeCell ref="Q21:T21"/>
-    <mergeCell ref="Q22:T22"/>
-    <mergeCell ref="Q27:T27"/>
-    <mergeCell ref="Q28:T28"/>
-    <mergeCell ref="AC22:AJ22"/>
-    <mergeCell ref="U21:AA21"/>
-    <mergeCell ref="U26:AA26"/>
-    <mergeCell ref="Q23:T23"/>
-    <mergeCell ref="Q24:T24"/>
-    <mergeCell ref="Q25:T25"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7475,63 +7512,63 @@
       <c r="F21" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="G21" s="29" t="s">
+      <c r="G21" s="38" t="s">
         <v>79</v>
       </c>
-      <c r="H21" s="30"/>
-      <c r="I21" s="30"/>
-      <c r="J21" s="30"/>
-      <c r="K21" s="30"/>
-      <c r="L21" s="30"/>
-      <c r="M21" s="30"/>
-      <c r="N21" s="31"/>
-      <c r="O21" s="29" t="s">
+      <c r="H21" s="39"/>
+      <c r="I21" s="39"/>
+      <c r="J21" s="39"/>
+      <c r="K21" s="39"/>
+      <c r="L21" s="39"/>
+      <c r="M21" s="39"/>
+      <c r="N21" s="40"/>
+      <c r="O21" s="38" t="s">
         <v>80</v>
       </c>
-      <c r="P21" s="30" t="s">
+      <c r="P21" s="39" t="s">
         <v>81</v>
       </c>
-      <c r="Q21" s="30" t="s">
+      <c r="Q21" s="39" t="s">
         <v>82</v>
       </c>
-      <c r="R21" s="30"/>
-      <c r="S21" s="30"/>
-      <c r="T21" s="30"/>
-      <c r="U21" s="30"/>
-      <c r="V21" s="31"/>
-      <c r="W21" s="29" t="s">
+      <c r="R21" s="39"/>
+      <c r="S21" s="39"/>
+      <c r="T21" s="39"/>
+      <c r="U21" s="39"/>
+      <c r="V21" s="40"/>
+      <c r="W21" s="38" t="s">
         <v>87</v>
       </c>
-      <c r="X21" s="30"/>
-      <c r="Y21" s="30"/>
-      <c r="Z21" s="30"/>
-      <c r="AA21" s="30"/>
-      <c r="AB21" s="30"/>
-      <c r="AC21" s="30"/>
-      <c r="AD21" s="31"/>
-      <c r="AE21" s="29" t="s">
+      <c r="X21" s="39"/>
+      <c r="Y21" s="39"/>
+      <c r="Z21" s="39"/>
+      <c r="AA21" s="39"/>
+      <c r="AB21" s="39"/>
+      <c r="AC21" s="39"/>
+      <c r="AD21" s="40"/>
+      <c r="AE21" s="38" t="s">
         <v>88</v>
       </c>
-      <c r="AF21" s="30"/>
-      <c r="AG21" s="30"/>
-      <c r="AH21" s="30"/>
-      <c r="AI21" s="30"/>
-      <c r="AJ21" s="30"/>
-      <c r="AK21" s="30"/>
-      <c r="AL21" s="31"/>
+      <c r="AF21" s="39"/>
+      <c r="AG21" s="39"/>
+      <c r="AH21" s="39"/>
+      <c r="AI21" s="39"/>
+      <c r="AJ21" s="39"/>
+      <c r="AK21" s="39"/>
+      <c r="AL21" s="40"/>
       <c r="AM21" s="2" t="s">
         <v>83</v>
       </c>
       <c r="AN21" s="11" t="s">
         <v>84</v>
       </c>
-      <c r="AO21" s="34" t="s">
+      <c r="AO21" s="32" t="s">
         <v>63</v>
       </c>
-      <c r="AP21" s="34" t="s">
+      <c r="AP21" s="32" t="s">
         <v>62</v>
       </c>
-      <c r="AQ21" s="34" t="s">
+      <c r="AQ21" s="32" t="s">
         <v>71</v>
       </c>
     </row>
@@ -7639,52 +7676,52 @@
       <c r="AM22" s="33" t="s">
         <v>112</v>
       </c>
-      <c r="AN22" s="38"/>
-      <c r="AO22" s="34"/>
-      <c r="AP22" s="34"/>
-      <c r="AQ22" s="34"/>
+      <c r="AN22" s="34"/>
+      <c r="AO22" s="32"/>
+      <c r="AP22" s="32"/>
+      <c r="AQ22" s="32"/>
     </row>
     <row r="23" spans="5:43" ht="64.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E23" s="32" t="s">
+      <c r="E23" s="41" t="s">
         <v>76</v>
       </c>
-      <c r="F23" s="32" t="s">
+      <c r="F23" s="41" t="s">
         <v>78</v>
       </c>
-      <c r="G23" s="23" t="s">
+      <c r="G23" s="28" t="s">
         <v>89</v>
       </c>
-      <c r="H23" s="24"/>
-      <c r="I23" s="24"/>
-      <c r="J23" s="24"/>
-      <c r="K23" s="24"/>
-      <c r="L23" s="24"/>
-      <c r="M23" s="24"/>
-      <c r="N23" s="24"/>
-      <c r="O23" s="24"/>
-      <c r="P23" s="24"/>
-      <c r="Q23" s="24"/>
-      <c r="R23" s="24"/>
-      <c r="S23" s="24"/>
-      <c r="T23" s="24"/>
-      <c r="U23" s="24"/>
-      <c r="V23" s="24"/>
-      <c r="W23" s="24"/>
-      <c r="X23" s="24"/>
-      <c r="Y23" s="24"/>
-      <c r="Z23" s="24"/>
-      <c r="AA23" s="24"/>
-      <c r="AB23" s="24"/>
-      <c r="AC23" s="24"/>
-      <c r="AD23" s="24"/>
-      <c r="AE23" s="24"/>
-      <c r="AF23" s="24"/>
-      <c r="AG23" s="24"/>
-      <c r="AH23" s="24"/>
-      <c r="AI23" s="24"/>
-      <c r="AJ23" s="24"/>
-      <c r="AK23" s="24"/>
-      <c r="AL23" s="24"/>
+      <c r="H23" s="25"/>
+      <c r="I23" s="25"/>
+      <c r="J23" s="25"/>
+      <c r="K23" s="25"/>
+      <c r="L23" s="25"/>
+      <c r="M23" s="25"/>
+      <c r="N23" s="25"/>
+      <c r="O23" s="25"/>
+      <c r="P23" s="25"/>
+      <c r="Q23" s="25"/>
+      <c r="R23" s="25"/>
+      <c r="S23" s="25"/>
+      <c r="T23" s="25"/>
+      <c r="U23" s="25"/>
+      <c r="V23" s="25"/>
+      <c r="W23" s="25"/>
+      <c r="X23" s="25"/>
+      <c r="Y23" s="25"/>
+      <c r="Z23" s="25"/>
+      <c r="AA23" s="25"/>
+      <c r="AB23" s="25"/>
+      <c r="AC23" s="25"/>
+      <c r="AD23" s="25"/>
+      <c r="AE23" s="25"/>
+      <c r="AF23" s="25"/>
+      <c r="AG23" s="25"/>
+      <c r="AH23" s="25"/>
+      <c r="AI23" s="25"/>
+      <c r="AJ23" s="25"/>
+      <c r="AK23" s="25"/>
+      <c r="AL23" s="25"/>
       <c r="AM23" s="3" t="s">
         <v>85</v>
       </c>
@@ -7702,46 +7739,46 @@
       </c>
     </row>
     <row r="24" spans="5:43" ht="64.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E24" s="32"/>
-      <c r="F24" s="32"/>
-      <c r="G24" s="22" t="s">
+      <c r="E24" s="41"/>
+      <c r="F24" s="41"/>
+      <c r="G24" s="27" t="s">
         <v>16</v>
       </c>
-      <c r="H24" s="22"/>
-      <c r="I24" s="22"/>
-      <c r="J24" s="22"/>
-      <c r="K24" s="22"/>
-      <c r="L24" s="22"/>
-      <c r="M24" s="22"/>
-      <c r="N24" s="22"/>
-      <c r="O24" s="22"/>
-      <c r="P24" s="22"/>
-      <c r="Q24" s="22"/>
-      <c r="R24" s="23"/>
-      <c r="S24" s="21" t="s">
+      <c r="H24" s="27"/>
+      <c r="I24" s="27"/>
+      <c r="J24" s="27"/>
+      <c r="K24" s="27"/>
+      <c r="L24" s="27"/>
+      <c r="M24" s="27"/>
+      <c r="N24" s="27"/>
+      <c r="O24" s="27"/>
+      <c r="P24" s="27"/>
+      <c r="Q24" s="27"/>
+      <c r="R24" s="28"/>
+      <c r="S24" s="26" t="s">
         <v>46</v>
       </c>
-      <c r="T24" s="22"/>
-      <c r="U24" s="22"/>
-      <c r="V24" s="23"/>
-      <c r="W24" s="24" t="s">
+      <c r="T24" s="27"/>
+      <c r="U24" s="27"/>
+      <c r="V24" s="28"/>
+      <c r="W24" s="25" t="s">
         <v>16</v>
       </c>
-      <c r="X24" s="24"/>
-      <c r="Y24" s="24"/>
-      <c r="Z24" s="24"/>
-      <c r="AA24" s="24"/>
-      <c r="AB24" s="24"/>
-      <c r="AC24" s="24"/>
-      <c r="AD24" s="24"/>
-      <c r="AE24" s="24"/>
-      <c r="AF24" s="24"/>
-      <c r="AG24" s="24"/>
-      <c r="AH24" s="24"/>
-      <c r="AI24" s="24"/>
-      <c r="AJ24" s="24"/>
-      <c r="AK24" s="24"/>
-      <c r="AL24" s="41" t="s">
+      <c r="X24" s="25"/>
+      <c r="Y24" s="25"/>
+      <c r="Z24" s="25"/>
+      <c r="AA24" s="25"/>
+      <c r="AB24" s="25"/>
+      <c r="AC24" s="25"/>
+      <c r="AD24" s="25"/>
+      <c r="AE24" s="25"/>
+      <c r="AF24" s="25"/>
+      <c r="AG24" s="25"/>
+      <c r="AH24" s="25"/>
+      <c r="AI24" s="25"/>
+      <c r="AJ24" s="25"/>
+      <c r="AK24" s="25"/>
+      <c r="AL24" s="23" t="s">
         <v>121</v>
       </c>
       <c r="AM24" s="35" t="s">
@@ -7761,103 +7798,103 @@
       </c>
     </row>
     <row r="25" spans="5:43" ht="64.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E25" s="32"/>
-      <c r="F25" s="32"/>
-      <c r="G25" s="22" t="s">
+      <c r="E25" s="41"/>
+      <c r="F25" s="41"/>
+      <c r="G25" s="27" t="s">
         <v>16</v>
       </c>
-      <c r="H25" s="22"/>
-      <c r="I25" s="22"/>
-      <c r="J25" s="22"/>
-      <c r="K25" s="22"/>
-      <c r="L25" s="22"/>
-      <c r="M25" s="22"/>
-      <c r="N25" s="22"/>
-      <c r="O25" s="22"/>
-      <c r="P25" s="22"/>
-      <c r="Q25" s="22"/>
-      <c r="R25" s="23"/>
-      <c r="S25" s="21" t="s">
+      <c r="H25" s="27"/>
+      <c r="I25" s="27"/>
+      <c r="J25" s="27"/>
+      <c r="K25" s="27"/>
+      <c r="L25" s="27"/>
+      <c r="M25" s="27"/>
+      <c r="N25" s="27"/>
+      <c r="O25" s="27"/>
+      <c r="P25" s="27"/>
+      <c r="Q25" s="27"/>
+      <c r="R25" s="28"/>
+      <c r="S25" s="26" t="s">
         <v>47</v>
       </c>
-      <c r="T25" s="22"/>
-      <c r="U25" s="22"/>
-      <c r="V25" s="23"/>
-      <c r="W25" s="21" t="s">
+      <c r="T25" s="27"/>
+      <c r="U25" s="27"/>
+      <c r="V25" s="28"/>
+      <c r="W25" s="26" t="s">
         <v>16</v>
       </c>
-      <c r="X25" s="22"/>
-      <c r="Y25" s="22"/>
-      <c r="Z25" s="22"/>
-      <c r="AA25" s="22"/>
-      <c r="AB25" s="22"/>
-      <c r="AC25" s="22"/>
-      <c r="AD25" s="22"/>
-      <c r="AE25" s="22"/>
-      <c r="AF25" s="22"/>
-      <c r="AG25" s="22"/>
-      <c r="AH25" s="22"/>
-      <c r="AI25" s="22"/>
-      <c r="AJ25" s="22"/>
-      <c r="AK25" s="22"/>
-      <c r="AL25" s="23"/>
+      <c r="X25" s="27"/>
+      <c r="Y25" s="27"/>
+      <c r="Z25" s="27"/>
+      <c r="AA25" s="27"/>
+      <c r="AB25" s="27"/>
+      <c r="AC25" s="27"/>
+      <c r="AD25" s="27"/>
+      <c r="AE25" s="27"/>
+      <c r="AF25" s="27"/>
+      <c r="AG25" s="27"/>
+      <c r="AH25" s="27"/>
+      <c r="AI25" s="27"/>
+      <c r="AJ25" s="27"/>
+      <c r="AK25" s="27"/>
+      <c r="AL25" s="28"/>
       <c r="AM25" s="36"/>
       <c r="AN25" s="36"/>
       <c r="AO25" s="15" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="AP25" s="16" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="AQ25" s="16" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="26" spans="5:43" ht="64.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E26" s="32"/>
-      <c r="F26" s="32"/>
-      <c r="G26" s="22" t="s">
+      <c r="E26" s="41"/>
+      <c r="F26" s="41"/>
+      <c r="G26" s="27" t="s">
         <v>16</v>
       </c>
-      <c r="H26" s="22"/>
-      <c r="I26" s="22"/>
-      <c r="J26" s="22"/>
-      <c r="K26" s="22"/>
-      <c r="L26" s="22"/>
-      <c r="M26" s="22"/>
-      <c r="N26" s="22"/>
-      <c r="O26" s="22"/>
-      <c r="P26" s="22"/>
-      <c r="Q26" s="22"/>
-      <c r="R26" s="23"/>
-      <c r="S26" s="21" t="s">
+      <c r="H26" s="27"/>
+      <c r="I26" s="27"/>
+      <c r="J26" s="27"/>
+      <c r="K26" s="27"/>
+      <c r="L26" s="27"/>
+      <c r="M26" s="27"/>
+      <c r="N26" s="27"/>
+      <c r="O26" s="27"/>
+      <c r="P26" s="27"/>
+      <c r="Q26" s="27"/>
+      <c r="R26" s="28"/>
+      <c r="S26" s="26" t="s">
         <v>116</v>
       </c>
-      <c r="T26" s="22"/>
-      <c r="U26" s="22"/>
-      <c r="V26" s="23"/>
-      <c r="W26" s="21" t="s">
+      <c r="T26" s="27"/>
+      <c r="U26" s="27"/>
+      <c r="V26" s="28"/>
+      <c r="W26" s="26" t="s">
         <v>16</v>
       </c>
-      <c r="X26" s="22"/>
-      <c r="Y26" s="22"/>
-      <c r="Z26" s="22"/>
-      <c r="AA26" s="22"/>
-      <c r="AB26" s="22"/>
-      <c r="AC26" s="22"/>
-      <c r="AD26" s="23"/>
-      <c r="AE26" s="24" t="s">
+      <c r="X26" s="27"/>
+      <c r="Y26" s="27"/>
+      <c r="Z26" s="27"/>
+      <c r="AA26" s="27"/>
+      <c r="AB26" s="27"/>
+      <c r="AC26" s="27"/>
+      <c r="AD26" s="28"/>
+      <c r="AE26" s="25" t="s">
         <v>44</v>
       </c>
-      <c r="AF26" s="24"/>
-      <c r="AG26" s="24"/>
-      <c r="AH26" s="24"/>
-      <c r="AI26" s="24" t="s">
+      <c r="AF26" s="25"/>
+      <c r="AG26" s="25"/>
+      <c r="AH26" s="25"/>
+      <c r="AI26" s="25" t="s">
         <v>24</v>
       </c>
-      <c r="AJ26" s="24"/>
-      <c r="AK26" s="24"/>
-      <c r="AL26" s="24"/>
+      <c r="AJ26" s="25"/>
+      <c r="AK26" s="25"/>
+      <c r="AL26" s="25"/>
       <c r="AM26" s="36"/>
       <c r="AN26" s="36"/>
       <c r="AO26" s="15" t="s">
@@ -7871,52 +7908,52 @@
       </c>
     </row>
     <row r="27" spans="5:43" ht="64.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E27" s="32"/>
-      <c r="F27" s="32"/>
-      <c r="G27" s="22" t="s">
+      <c r="E27" s="41"/>
+      <c r="F27" s="41"/>
+      <c r="G27" s="27" t="s">
         <v>16</v>
       </c>
-      <c r="H27" s="22"/>
-      <c r="I27" s="22"/>
-      <c r="J27" s="22"/>
-      <c r="K27" s="22"/>
-      <c r="L27" s="22"/>
-      <c r="M27" s="22"/>
-      <c r="N27" s="23"/>
-      <c r="O27" s="21" t="s">
+      <c r="H27" s="27"/>
+      <c r="I27" s="27"/>
+      <c r="J27" s="27"/>
+      <c r="K27" s="27"/>
+      <c r="L27" s="27"/>
+      <c r="M27" s="27"/>
+      <c r="N27" s="28"/>
+      <c r="O27" s="26" t="s">
         <v>45</v>
       </c>
-      <c r="P27" s="22"/>
-      <c r="Q27" s="22"/>
-      <c r="R27" s="23"/>
-      <c r="S27" s="21" t="s">
+      <c r="P27" s="27"/>
+      <c r="Q27" s="27"/>
+      <c r="R27" s="28"/>
+      <c r="S27" s="26" t="s">
         <v>114</v>
       </c>
-      <c r="T27" s="22"/>
-      <c r="U27" s="22"/>
-      <c r="V27" s="23"/>
-      <c r="W27" s="21" t="s">
+      <c r="T27" s="27"/>
+      <c r="U27" s="27"/>
+      <c r="V27" s="28"/>
+      <c r="W27" s="26" t="s">
         <v>16</v>
       </c>
-      <c r="X27" s="22"/>
-      <c r="Y27" s="22"/>
-      <c r="Z27" s="22"/>
-      <c r="AA27" s="22"/>
-      <c r="AB27" s="22"/>
-      <c r="AC27" s="23"/>
+      <c r="X27" s="27"/>
+      <c r="Y27" s="27"/>
+      <c r="Z27" s="27"/>
+      <c r="AA27" s="27"/>
+      <c r="AB27" s="27"/>
+      <c r="AC27" s="28"/>
       <c r="AD27" s="20" t="s">
         <v>113</v>
       </c>
-      <c r="AE27" s="21" t="s">
+      <c r="AE27" s="26" t="s">
         <v>59</v>
       </c>
-      <c r="AF27" s="22"/>
-      <c r="AG27" s="22"/>
-      <c r="AH27" s="22"/>
-      <c r="AI27" s="22"/>
-      <c r="AJ27" s="22"/>
-      <c r="AK27" s="22"/>
-      <c r="AL27" s="23"/>
+      <c r="AF27" s="27"/>
+      <c r="AG27" s="27"/>
+      <c r="AH27" s="27"/>
+      <c r="AI27" s="27"/>
+      <c r="AJ27" s="27"/>
+      <c r="AK27" s="27"/>
+      <c r="AL27" s="28"/>
       <c r="AM27" s="36"/>
       <c r="AN27" s="36"/>
       <c r="AO27" s="15" t="s">
@@ -7930,54 +7967,54 @@
       </c>
     </row>
     <row r="28" spans="5:43" ht="64.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E28" s="32"/>
-      <c r="F28" s="32"/>
-      <c r="G28" s="22" t="s">
+      <c r="E28" s="41"/>
+      <c r="F28" s="41"/>
+      <c r="G28" s="27" t="s">
         <v>16</v>
       </c>
-      <c r="H28" s="22"/>
-      <c r="I28" s="22"/>
-      <c r="J28" s="22"/>
-      <c r="K28" s="22"/>
-      <c r="L28" s="22"/>
-      <c r="M28" s="22"/>
-      <c r="N28" s="23"/>
-      <c r="O28" s="21" t="s">
+      <c r="H28" s="27"/>
+      <c r="I28" s="27"/>
+      <c r="J28" s="27"/>
+      <c r="K28" s="27"/>
+      <c r="L28" s="27"/>
+      <c r="M28" s="27"/>
+      <c r="N28" s="28"/>
+      <c r="O28" s="26" t="s">
         <v>45</v>
       </c>
-      <c r="P28" s="22"/>
-      <c r="Q28" s="22"/>
-      <c r="R28" s="23"/>
-      <c r="S28" s="21" t="s">
+      <c r="P28" s="27"/>
+      <c r="Q28" s="27"/>
+      <c r="R28" s="28"/>
+      <c r="S28" s="26" t="s">
         <v>115</v>
       </c>
-      <c r="T28" s="22"/>
-      <c r="U28" s="22"/>
-      <c r="V28" s="23"/>
-      <c r="W28" s="21" t="s">
+      <c r="T28" s="27"/>
+      <c r="U28" s="27"/>
+      <c r="V28" s="28"/>
+      <c r="W28" s="26" t="s">
         <v>16</v>
       </c>
-      <c r="X28" s="22"/>
-      <c r="Y28" s="22"/>
-      <c r="Z28" s="22"/>
-      <c r="AA28" s="22"/>
-      <c r="AB28" s="22"/>
-      <c r="AC28" s="23"/>
+      <c r="X28" s="27"/>
+      <c r="Y28" s="27"/>
+      <c r="Z28" s="27"/>
+      <c r="AA28" s="27"/>
+      <c r="AB28" s="27"/>
+      <c r="AC28" s="28"/>
       <c r="AD28" s="20" t="s">
         <v>113</v>
       </c>
       <c r="AE28" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="AF28" s="21" t="s">
+      <c r="AF28" s="26" t="s">
         <v>58</v>
       </c>
-      <c r="AG28" s="22"/>
-      <c r="AH28" s="22"/>
-      <c r="AI28" s="22"/>
-      <c r="AJ28" s="22"/>
-      <c r="AK28" s="22"/>
-      <c r="AL28" s="23"/>
+      <c r="AG28" s="27"/>
+      <c r="AH28" s="27"/>
+      <c r="AI28" s="27"/>
+      <c r="AJ28" s="27"/>
+      <c r="AK28" s="27"/>
+      <c r="AL28" s="28"/>
       <c r="AM28" s="37"/>
       <c r="AN28" s="37"/>
       <c r="AO28" s="15" t="s">
@@ -7992,12 +8029,18 @@
     </row>
   </sheetData>
   <mergeCells count="35">
-    <mergeCell ref="AQ21:AQ22"/>
-    <mergeCell ref="AP21:AP22"/>
-    <mergeCell ref="W28:AC28"/>
-    <mergeCell ref="AM22:AN22"/>
-    <mergeCell ref="O27:R27"/>
-    <mergeCell ref="AE27:AL27"/>
+    <mergeCell ref="E22:F22"/>
+    <mergeCell ref="G26:R26"/>
+    <mergeCell ref="G21:N21"/>
+    <mergeCell ref="O21:V21"/>
+    <mergeCell ref="W21:AD21"/>
+    <mergeCell ref="G24:R24"/>
+    <mergeCell ref="S24:V24"/>
+    <mergeCell ref="E23:E28"/>
+    <mergeCell ref="F23:F28"/>
+    <mergeCell ref="G25:R25"/>
+    <mergeCell ref="S25:V25"/>
+    <mergeCell ref="W27:AC27"/>
     <mergeCell ref="G27:N27"/>
     <mergeCell ref="O28:R28"/>
     <mergeCell ref="S28:V28"/>
@@ -8014,19 +8057,13 @@
     <mergeCell ref="G28:N28"/>
     <mergeCell ref="S27:V27"/>
     <mergeCell ref="AE21:AL21"/>
+    <mergeCell ref="AQ21:AQ22"/>
+    <mergeCell ref="AP21:AP22"/>
+    <mergeCell ref="W28:AC28"/>
+    <mergeCell ref="AM22:AN22"/>
+    <mergeCell ref="O27:R27"/>
+    <mergeCell ref="AE27:AL27"/>
     <mergeCell ref="G23:AL23"/>
-    <mergeCell ref="E22:F22"/>
-    <mergeCell ref="G26:R26"/>
-    <mergeCell ref="G21:N21"/>
-    <mergeCell ref="O21:V21"/>
-    <mergeCell ref="W21:AD21"/>
-    <mergeCell ref="G24:R24"/>
-    <mergeCell ref="S24:V24"/>
-    <mergeCell ref="E23:E28"/>
-    <mergeCell ref="F23:F28"/>
-    <mergeCell ref="G25:R25"/>
-    <mergeCell ref="S25:V25"/>
-    <mergeCell ref="W27:AC27"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -8036,10 +8073,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{468DA65A-B19B-48EC-A922-77726C590D11}">
-  <dimension ref="C13:AM18"/>
+  <dimension ref="C13:AM19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="R31" sqref="R31"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K15" sqref="K15:L15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -8060,57 +8097,57 @@
       <c r="D13" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="E13" s="29" t="s">
+      <c r="E13" s="38" t="s">
         <v>79</v>
       </c>
-      <c r="F13" s="30"/>
-      <c r="G13" s="30"/>
-      <c r="H13" s="30"/>
-      <c r="I13" s="30"/>
-      <c r="J13" s="30"/>
-      <c r="K13" s="30"/>
-      <c r="L13" s="31"/>
-      <c r="M13" s="29" t="s">
+      <c r="F13" s="39"/>
+      <c r="G13" s="39"/>
+      <c r="H13" s="39"/>
+      <c r="I13" s="39"/>
+      <c r="J13" s="39"/>
+      <c r="K13" s="39"/>
+      <c r="L13" s="40"/>
+      <c r="M13" s="38" t="s">
         <v>80</v>
       </c>
-      <c r="N13" s="30" t="s">
+      <c r="N13" s="39" t="s">
         <v>81</v>
       </c>
-      <c r="O13" s="30" t="s">
+      <c r="O13" s="39" t="s">
         <v>82</v>
       </c>
-      <c r="P13" s="30"/>
-      <c r="Q13" s="30"/>
-      <c r="R13" s="30"/>
-      <c r="S13" s="30"/>
-      <c r="T13" s="31"/>
-      <c r="U13" s="29" t="s">
+      <c r="P13" s="39"/>
+      <c r="Q13" s="39"/>
+      <c r="R13" s="39"/>
+      <c r="S13" s="39"/>
+      <c r="T13" s="40"/>
+      <c r="U13" s="38" t="s">
         <v>87</v>
       </c>
-      <c r="V13" s="30"/>
-      <c r="W13" s="30"/>
-      <c r="X13" s="30"/>
-      <c r="Y13" s="30"/>
-      <c r="Z13" s="30"/>
-      <c r="AA13" s="30"/>
-      <c r="AB13" s="31"/>
-      <c r="AC13" s="29" t="s">
+      <c r="V13" s="39"/>
+      <c r="W13" s="39"/>
+      <c r="X13" s="39"/>
+      <c r="Y13" s="39"/>
+      <c r="Z13" s="39"/>
+      <c r="AA13" s="39"/>
+      <c r="AB13" s="40"/>
+      <c r="AC13" s="38" t="s">
         <v>88</v>
       </c>
-      <c r="AD13" s="30"/>
-      <c r="AE13" s="30"/>
-      <c r="AF13" s="30"/>
-      <c r="AG13" s="30"/>
-      <c r="AH13" s="30"/>
-      <c r="AI13" s="30"/>
-      <c r="AJ13" s="31"/>
-      <c r="AK13" s="39" t="s">
+      <c r="AD13" s="39"/>
+      <c r="AE13" s="39"/>
+      <c r="AF13" s="39"/>
+      <c r="AG13" s="39"/>
+      <c r="AH13" s="39"/>
+      <c r="AI13" s="39"/>
+      <c r="AJ13" s="40"/>
+      <c r="AK13" s="42" t="s">
         <v>63</v>
       </c>
-      <c r="AL13" s="34" t="s">
+      <c r="AL13" s="32" t="s">
         <v>62</v>
       </c>
-      <c r="AM13" s="34" t="s">
+      <c r="AM13" s="32" t="s">
         <v>71</v>
       </c>
     </row>
@@ -8215,120 +8252,120 @@
       <c r="AJ14" s="14" t="s">
         <v>90</v>
       </c>
-      <c r="AK14" s="40"/>
-      <c r="AL14" s="34"/>
-      <c r="AM14" s="34"/>
+      <c r="AK14" s="43"/>
+      <c r="AL14" s="32"/>
+      <c r="AM14" s="32"/>
     </row>
-    <row r="15" spans="3:39" ht="80.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C15" s="32" t="s">
+    <row r="15" spans="3:39" ht="95.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C15" s="41" t="s">
         <v>76</v>
       </c>
-      <c r="D15" s="32" t="s">
+      <c r="D15" s="41" t="s">
         <v>78</v>
       </c>
-      <c r="E15" s="28" t="s">
+      <c r="E15" s="24" t="s">
         <v>24</v>
       </c>
-      <c r="F15" s="28"/>
-      <c r="G15" s="28"/>
-      <c r="H15" s="28"/>
-      <c r="I15" s="24" t="s">
+      <c r="F15" s="24"/>
+      <c r="G15" s="24"/>
+      <c r="H15" s="24"/>
+      <c r="I15" s="28" t="s">
         <v>16</v>
       </c>
-      <c r="J15" s="24"/>
-      <c r="K15" s="25" t="s">
+      <c r="J15" s="25"/>
+      <c r="K15" s="29" t="s">
         <v>142</v>
       </c>
-      <c r="L15" s="27"/>
-      <c r="M15" s="25" t="s">
+      <c r="L15" s="31"/>
+      <c r="M15" s="29" t="s">
         <v>16</v>
       </c>
-      <c r="N15" s="26"/>
-      <c r="O15" s="26"/>
-      <c r="P15" s="27"/>
-      <c r="Q15" s="24" t="s">
+      <c r="N15" s="30"/>
+      <c r="O15" s="30"/>
+      <c r="P15" s="31"/>
+      <c r="Q15" s="25" t="s">
         <v>50</v>
       </c>
-      <c r="R15" s="24"/>
-      <c r="S15" s="24"/>
-      <c r="T15" s="24"/>
-      <c r="U15" s="21" t="s">
+      <c r="R15" s="25"/>
+      <c r="S15" s="25"/>
+      <c r="T15" s="25"/>
+      <c r="U15" s="26" t="s">
         <v>16</v>
       </c>
-      <c r="V15" s="22"/>
-      <c r="W15" s="22"/>
-      <c r="X15" s="22"/>
-      <c r="Y15" s="22"/>
-      <c r="Z15" s="23"/>
+      <c r="V15" s="27"/>
+      <c r="W15" s="27"/>
+      <c r="X15" s="27"/>
+      <c r="Y15" s="27"/>
+      <c r="Z15" s="28"/>
       <c r="AA15" s="19" t="s">
         <v>19</v>
       </c>
       <c r="AB15" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="AC15" s="21" t="s">
+      <c r="AC15" s="26" t="s">
         <v>16</v>
       </c>
-      <c r="AD15" s="22"/>
-      <c r="AE15" s="22"/>
-      <c r="AF15" s="22"/>
-      <c r="AG15" s="22"/>
-      <c r="AH15" s="22"/>
-      <c r="AI15" s="22"/>
-      <c r="AJ15" s="23"/>
+      <c r="AD15" s="27"/>
+      <c r="AE15" s="27"/>
+      <c r="AF15" s="27"/>
+      <c r="AG15" s="27"/>
+      <c r="AH15" s="27"/>
+      <c r="AI15" s="27"/>
+      <c r="AJ15" s="28"/>
       <c r="AK15" s="17" t="s">
         <v>149</v>
       </c>
       <c r="AL15" s="16" t="s">
+        <v>168</v>
+      </c>
+      <c r="AM15" s="16" t="s">
         <v>150</v>
       </c>
-      <c r="AM15" s="16" t="s">
-        <v>151</v>
-      </c>
     </row>
-    <row r="16" spans="3:39" ht="80.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C16" s="32"/>
-      <c r="D16" s="32"/>
-      <c r="E16" s="28"/>
-      <c r="F16" s="28"/>
-      <c r="G16" s="28"/>
-      <c r="H16" s="28"/>
-      <c r="I16" s="25" t="s">
+    <row r="16" spans="3:39" ht="95.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C16" s="41"/>
+      <c r="D16" s="41"/>
+      <c r="E16" s="24"/>
+      <c r="F16" s="24"/>
+      <c r="G16" s="24"/>
+      <c r="H16" s="24"/>
+      <c r="I16" s="30" t="s">
         <v>16</v>
       </c>
-      <c r="J16" s="26"/>
-      <c r="K16" s="26"/>
-      <c r="L16" s="27"/>
-      <c r="M16" s="25" t="s">
+      <c r="J16" s="30"/>
+      <c r="K16" s="30"/>
+      <c r="L16" s="31"/>
+      <c r="M16" s="29" t="s">
         <v>16</v>
       </c>
-      <c r="N16" s="26"/>
-      <c r="O16" s="26"/>
-      <c r="P16" s="27"/>
-      <c r="Q16" s="24" t="s">
+      <c r="N16" s="30"/>
+      <c r="O16" s="30"/>
+      <c r="P16" s="31"/>
+      <c r="Q16" s="25" t="s">
         <v>52</v>
       </c>
-      <c r="R16" s="24"/>
-      <c r="S16" s="24"/>
-      <c r="T16" s="24"/>
-      <c r="U16" s="21" t="s">
+      <c r="R16" s="25"/>
+      <c r="S16" s="25"/>
+      <c r="T16" s="25"/>
+      <c r="U16" s="26" t="s">
         <v>16</v>
       </c>
-      <c r="V16" s="22"/>
-      <c r="W16" s="22"/>
-      <c r="X16" s="22"/>
-      <c r="Y16" s="22"/>
-      <c r="Z16" s="22"/>
-      <c r="AA16" s="22"/>
-      <c r="AB16" s="22"/>
-      <c r="AC16" s="22"/>
-      <c r="AD16" s="22"/>
-      <c r="AE16" s="22"/>
-      <c r="AF16" s="22"/>
-      <c r="AG16" s="22"/>
-      <c r="AH16" s="22"/>
-      <c r="AI16" s="22"/>
-      <c r="AJ16" s="23"/>
+      <c r="V16" s="27"/>
+      <c r="W16" s="27"/>
+      <c r="X16" s="27"/>
+      <c r="Y16" s="27"/>
+      <c r="Z16" s="27"/>
+      <c r="AA16" s="27"/>
+      <c r="AB16" s="27"/>
+      <c r="AC16" s="27"/>
+      <c r="AD16" s="27"/>
+      <c r="AE16" s="27"/>
+      <c r="AF16" s="27"/>
+      <c r="AG16" s="27"/>
+      <c r="AH16" s="27"/>
+      <c r="AI16" s="27"/>
+      <c r="AJ16" s="28"/>
       <c r="AK16" s="17" t="s">
         <v>67</v>
       </c>
@@ -8339,51 +8376,51 @@
         <v>16</v>
       </c>
     </row>
-    <row r="17" spans="3:39" ht="80.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C17" s="32"/>
-      <c r="D17" s="32"/>
-      <c r="E17" s="28"/>
-      <c r="F17" s="28"/>
-      <c r="G17" s="28"/>
-      <c r="H17" s="28"/>
-      <c r="I17" s="25" t="s">
+    <row r="17" spans="3:39" ht="95.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C17" s="41"/>
+      <c r="D17" s="41"/>
+      <c r="E17" s="24"/>
+      <c r="F17" s="24"/>
+      <c r="G17" s="24"/>
+      <c r="H17" s="24"/>
+      <c r="I17" s="30" t="s">
         <v>16</v>
       </c>
-      <c r="J17" s="26"/>
-      <c r="K17" s="26"/>
-      <c r="L17" s="27"/>
-      <c r="M17" s="25" t="s">
+      <c r="J17" s="30"/>
+      <c r="K17" s="30"/>
+      <c r="L17" s="31"/>
+      <c r="M17" s="29" t="s">
         <v>16</v>
       </c>
-      <c r="N17" s="26"/>
-      <c r="O17" s="26"/>
-      <c r="P17" s="27"/>
-      <c r="Q17" s="24" t="s">
+      <c r="N17" s="30"/>
+      <c r="O17" s="30"/>
+      <c r="P17" s="31"/>
+      <c r="Q17" s="25" t="s">
         <v>53</v>
       </c>
-      <c r="R17" s="24"/>
-      <c r="S17" s="24"/>
-      <c r="T17" s="24"/>
-      <c r="U17" s="21" t="s">
+      <c r="R17" s="25"/>
+      <c r="S17" s="25"/>
+      <c r="T17" s="25"/>
+      <c r="U17" s="26" t="s">
         <v>16</v>
       </c>
-      <c r="V17" s="22"/>
-      <c r="W17" s="22"/>
-      <c r="X17" s="22"/>
-      <c r="Y17" s="22"/>
-      <c r="Z17" s="22"/>
-      <c r="AA17" s="22"/>
-      <c r="AB17" s="22"/>
-      <c r="AC17" s="22"/>
-      <c r="AD17" s="22"/>
-      <c r="AE17" s="22"/>
-      <c r="AF17" s="23"/>
-      <c r="AG17" s="21" t="s">
+      <c r="V17" s="27"/>
+      <c r="W17" s="27"/>
+      <c r="X17" s="27"/>
+      <c r="Y17" s="27"/>
+      <c r="Z17" s="27"/>
+      <c r="AA17" s="27"/>
+      <c r="AB17" s="27"/>
+      <c r="AC17" s="27"/>
+      <c r="AD17" s="27"/>
+      <c r="AE17" s="27"/>
+      <c r="AF17" s="28"/>
+      <c r="AG17" s="26" t="s">
         <v>24</v>
       </c>
-      <c r="AH17" s="22"/>
-      <c r="AI17" s="22"/>
-      <c r="AJ17" s="23"/>
+      <c r="AH17" s="27"/>
+      <c r="AI17" s="27"/>
+      <c r="AJ17" s="28"/>
       <c r="AK17" s="17" t="s">
         <v>68</v>
       </c>
@@ -8394,57 +8431,57 @@
         <v>148</v>
       </c>
     </row>
-    <row r="18" spans="3:39" ht="80.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C18" s="32"/>
-      <c r="D18" s="32"/>
-      <c r="E18" s="28"/>
-      <c r="F18" s="28"/>
-      <c r="G18" s="28"/>
-      <c r="H18" s="28"/>
-      <c r="I18" s="24" t="s">
+    <row r="18" spans="3:39" ht="95.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C18" s="41"/>
+      <c r="D18" s="41"/>
+      <c r="E18" s="24"/>
+      <c r="F18" s="24"/>
+      <c r="G18" s="24"/>
+      <c r="H18" s="24"/>
+      <c r="I18" s="28" t="s">
         <v>16</v>
       </c>
-      <c r="J18" s="24"/>
-      <c r="K18" s="25" t="s">
+      <c r="J18" s="25"/>
+      <c r="K18" s="29" t="s">
         <v>142</v>
       </c>
-      <c r="L18" s="27"/>
-      <c r="M18" s="28" t="s">
+      <c r="L18" s="31"/>
+      <c r="M18" s="24" t="s">
         <v>143</v>
       </c>
-      <c r="N18" s="28"/>
-      <c r="O18" s="28"/>
-      <c r="P18" s="28"/>
-      <c r="Q18" s="24" t="s">
+      <c r="N18" s="24"/>
+      <c r="O18" s="24"/>
+      <c r="P18" s="24"/>
+      <c r="Q18" s="25" t="s">
         <v>129</v>
       </c>
-      <c r="R18" s="24"/>
-      <c r="S18" s="24"/>
-      <c r="T18" s="24"/>
-      <c r="U18" s="21" t="s">
+      <c r="R18" s="25"/>
+      <c r="S18" s="25"/>
+      <c r="T18" s="25"/>
+      <c r="U18" s="26" t="s">
         <v>16</v>
       </c>
-      <c r="V18" s="22"/>
-      <c r="W18" s="22"/>
-      <c r="X18" s="22"/>
-      <c r="Y18" s="22"/>
-      <c r="Z18" s="22"/>
-      <c r="AA18" s="23"/>
+      <c r="V18" s="27"/>
+      <c r="W18" s="27"/>
+      <c r="X18" s="27"/>
+      <c r="Y18" s="27"/>
+      <c r="Z18" s="27"/>
+      <c r="AA18" s="28"/>
       <c r="AB18" s="18" t="s">
         <v>146</v>
       </c>
-      <c r="AC18" s="24" t="s">
+      <c r="AC18" s="25" t="s">
         <v>16</v>
       </c>
-      <c r="AD18" s="24"/>
-      <c r="AE18" s="21" t="s">
+      <c r="AD18" s="25"/>
+      <c r="AE18" s="26" t="s">
         <v>58</v>
       </c>
-      <c r="AF18" s="22"/>
-      <c r="AG18" s="22"/>
-      <c r="AH18" s="22"/>
-      <c r="AI18" s="22"/>
-      <c r="AJ18" s="23"/>
+      <c r="AF18" s="27"/>
+      <c r="AG18" s="27"/>
+      <c r="AH18" s="27"/>
+      <c r="AI18" s="27"/>
+      <c r="AJ18" s="28"/>
       <c r="AK18" s="17" t="s">
         <v>145</v>
       </c>
@@ -8452,29 +8489,78 @@
         <v>147</v>
       </c>
       <c r="AM18" s="16" t="s">
-        <v>152</v>
+        <v>166</v>
+      </c>
+    </row>
+    <row r="19" spans="3:39" ht="95.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C19" s="41"/>
+      <c r="D19" s="41"/>
+      <c r="E19" s="24"/>
+      <c r="F19" s="24"/>
+      <c r="G19" s="24"/>
+      <c r="H19" s="24"/>
+      <c r="I19" s="28" t="s">
+        <v>16</v>
+      </c>
+      <c r="J19" s="25"/>
+      <c r="K19" s="29" t="s">
+        <v>142</v>
+      </c>
+      <c r="L19" s="31"/>
+      <c r="M19" s="22" t="s">
+        <v>16</v>
+      </c>
+      <c r="N19" s="29" t="s">
+        <v>160</v>
+      </c>
+      <c r="O19" s="30"/>
+      <c r="P19" s="31"/>
+      <c r="Q19" s="25" t="s">
+        <v>161</v>
+      </c>
+      <c r="R19" s="25"/>
+      <c r="S19" s="25"/>
+      <c r="T19" s="25"/>
+      <c r="U19" s="26" t="s">
+        <v>16</v>
+      </c>
+      <c r="V19" s="27"/>
+      <c r="W19" s="27"/>
+      <c r="X19" s="27"/>
+      <c r="Y19" s="27"/>
+      <c r="Z19" s="27"/>
+      <c r="AA19" s="28"/>
+      <c r="AB19" s="21" t="s">
+        <v>162</v>
+      </c>
+      <c r="AC19" s="25" t="s">
+        <v>16</v>
+      </c>
+      <c r="AD19" s="25"/>
+      <c r="AE19" s="25"/>
+      <c r="AF19" s="25"/>
+      <c r="AG19" s="25"/>
+      <c r="AH19" s="25"/>
+      <c r="AI19" s="25"/>
+      <c r="AJ19" s="44" t="s">
+        <v>163</v>
+      </c>
+      <c r="AK19" s="17" t="s">
+        <v>164</v>
+      </c>
+      <c r="AL19" s="16" t="s">
+        <v>165</v>
+      </c>
+      <c r="AM19" s="16" t="s">
+        <v>167</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="33">
-    <mergeCell ref="C15:C18"/>
-    <mergeCell ref="D15:D18"/>
-    <mergeCell ref="Q15:T15"/>
-    <mergeCell ref="Q17:T17"/>
-    <mergeCell ref="Q18:T18"/>
-    <mergeCell ref="E15:H18"/>
-    <mergeCell ref="I17:L17"/>
-    <mergeCell ref="I15:J15"/>
-    <mergeCell ref="K15:L15"/>
-    <mergeCell ref="M15:P15"/>
-    <mergeCell ref="AK13:AK14"/>
-    <mergeCell ref="AL13:AL14"/>
-    <mergeCell ref="AM13:AM14"/>
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="E13:L13"/>
-    <mergeCell ref="M13:T13"/>
-    <mergeCell ref="U13:AB13"/>
-    <mergeCell ref="AC13:AJ13"/>
+  <mergeCells count="39">
+    <mergeCell ref="Q19:T19"/>
+    <mergeCell ref="U19:AA19"/>
+    <mergeCell ref="N19:P19"/>
+    <mergeCell ref="AC19:AI19"/>
     <mergeCell ref="U15:Z15"/>
     <mergeCell ref="I18:J18"/>
     <mergeCell ref="K18:L18"/>
@@ -8490,6 +8576,26 @@
     <mergeCell ref="M16:P16"/>
     <mergeCell ref="U16:AJ16"/>
     <mergeCell ref="M18:P18"/>
+    <mergeCell ref="AK13:AK14"/>
+    <mergeCell ref="AL13:AL14"/>
+    <mergeCell ref="AM13:AM14"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="E13:L13"/>
+    <mergeCell ref="M13:T13"/>
+    <mergeCell ref="U13:AB13"/>
+    <mergeCell ref="AC13:AJ13"/>
+    <mergeCell ref="Q15:T15"/>
+    <mergeCell ref="Q17:T17"/>
+    <mergeCell ref="Q18:T18"/>
+    <mergeCell ref="I17:L17"/>
+    <mergeCell ref="I15:J15"/>
+    <mergeCell ref="K15:L15"/>
+    <mergeCell ref="M15:P15"/>
+    <mergeCell ref="C15:C19"/>
+    <mergeCell ref="D15:D19"/>
+    <mergeCell ref="E15:H19"/>
+    <mergeCell ref="I19:J19"/>
+    <mergeCell ref="K19:L19"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/eMIMO阵面数据帧格式.xlsx
+++ b/eMIMO阵面数据帧格式.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\202409_eMIMO\Software\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A90CDD6-2EB3-448A-B606-CF489AA42C36}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F968CEB-E0AD-4C39-9314-840D67089D36}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="57600" yWindow="0" windowWidth="57600" windowHeight="31680" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-57600" yWindow="0" windowWidth="57780" windowHeight="32400" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sub Array SPI 32bits Data Frame" sheetId="1" r:id="rId1"/>
     <sheet name="Sub Array UART Data Frame" sheetId="3" r:id="rId2"/>
     <sheet name="UE Ctrl UART Data Frame" sheetId="5" r:id="rId3"/>
+    <sheet name="UE Ctrl (4CH) UART Data Frame" sheetId="6" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="316" uniqueCount="169">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="405" uniqueCount="176">
   <si>
     <t>D15</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -652,6 +653,32 @@
   </si>
   <si>
     <t>选择2个RF Bank，控制其中一个或全部的TR方向或工作状态。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LNA_ID</t>
+  </si>
+  <si>
+    <t>\</t>
+  </si>
+  <si>
+    <t>选择一个或全部通道衰减器，将6位衰减码字att写入到衰减器中。如果ALL_DSA=1，则att会被写入全部衰减器中（4通道UE板有4T4R共8个通道衰减器），无论DSA_ID的值。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LNA_ID表示LNA的编号。LNA_ID取值范围为0至3。ALL_LNA=1表示选中全部LNA，只有ALL_LNA=0时，LNA_ID才有意义。Bypass=1表示开启LNA旁路。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DSA_ID表示通道衰减器的编号，1个UE板上一共有4T4R共8个DSA，每个通道有1片DSA单独控制衰减。DSA_ID取值范围为0至7。其中编号0至3用于TX，编号4至7用于RX，每个DSA的控制字都是6位。ALL_DSA=1表示选中全部DSA。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>控制4个通道的工作状态为TX，RX或关闭状态。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TX=1且RX=0时为发射打开；TX=0且RX=1时为接收打开；TX与RX同时为1或0则为关闭。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -733,7 +760,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="18">
     <border>
       <left/>
       <right/>
@@ -858,6 +885,86 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -865,7 +972,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="57">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
@@ -942,6 +1049,15 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="8" xfId="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -960,22 +1076,10 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="8" xfId="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="9" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -990,14 +1094,53 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="9" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -6245,53 +6388,53 @@
       </c>
     </row>
     <row r="18" spans="4:39" ht="63" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D18" s="24" t="s">
+      <c r="D18" s="35" t="s">
         <v>25</v>
       </c>
-      <c r="E18" s="24" t="s">
+      <c r="E18" s="35" t="s">
         <v>44</v>
       </c>
-      <c r="F18" s="24"/>
-      <c r="G18" s="24"/>
-      <c r="H18" s="24"/>
-      <c r="I18" s="24" t="s">
+      <c r="F18" s="35"/>
+      <c r="G18" s="35"/>
+      <c r="H18" s="35"/>
+      <c r="I18" s="35" t="s">
         <v>24</v>
       </c>
-      <c r="J18" s="24"/>
-      <c r="K18" s="24"/>
-      <c r="L18" s="24"/>
-      <c r="M18" s="29" t="s">
+      <c r="J18" s="35"/>
+      <c r="K18" s="35"/>
+      <c r="L18" s="35"/>
+      <c r="M18" s="32" t="s">
         <v>16</v>
       </c>
-      <c r="N18" s="30"/>
-      <c r="O18" s="30"/>
-      <c r="P18" s="31"/>
-      <c r="Q18" s="25" t="s">
+      <c r="N18" s="33"/>
+      <c r="O18" s="33"/>
+      <c r="P18" s="34"/>
+      <c r="Q18" s="28" t="s">
         <v>46</v>
       </c>
-      <c r="R18" s="25"/>
-      <c r="S18" s="25"/>
-      <c r="T18" s="25"/>
-      <c r="U18" s="25" t="s">
+      <c r="R18" s="28"/>
+      <c r="S18" s="28"/>
+      <c r="T18" s="28"/>
+      <c r="U18" s="28" t="s">
         <v>56</v>
       </c>
-      <c r="V18" s="25"/>
-      <c r="W18" s="25"/>
-      <c r="X18" s="25"/>
-      <c r="Y18" s="25"/>
-      <c r="Z18" s="25"/>
-      <c r="AA18" s="25"/>
-      <c r="AB18" s="25"/>
-      <c r="AC18" s="25" t="s">
+      <c r="V18" s="28"/>
+      <c r="W18" s="28"/>
+      <c r="X18" s="28"/>
+      <c r="Y18" s="28"/>
+      <c r="Z18" s="28"/>
+      <c r="AA18" s="28"/>
+      <c r="AB18" s="28"/>
+      <c r="AC18" s="28" t="s">
         <v>57</v>
       </c>
-      <c r="AD18" s="25"/>
-      <c r="AE18" s="25"/>
-      <c r="AF18" s="25"/>
-      <c r="AG18" s="25"/>
-      <c r="AH18" s="25"/>
-      <c r="AI18" s="25"/>
-      <c r="AJ18" s="25"/>
+      <c r="AD18" s="28"/>
+      <c r="AE18" s="28"/>
+      <c r="AF18" s="28"/>
+      <c r="AG18" s="28"/>
+      <c r="AH18" s="28"/>
+      <c r="AI18" s="28"/>
+      <c r="AJ18" s="28"/>
       <c r="AK18" s="15" t="s">
         <v>64</v>
       </c>
@@ -6303,45 +6446,45 @@
       </c>
     </row>
     <row r="19" spans="4:39" ht="63" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D19" s="24"/>
-      <c r="E19" s="24"/>
-      <c r="F19" s="24"/>
-      <c r="G19" s="24"/>
-      <c r="H19" s="24"/>
-      <c r="I19" s="24"/>
-      <c r="J19" s="24"/>
-      <c r="K19" s="24"/>
-      <c r="L19" s="24"/>
-      <c r="M19" s="29" t="s">
+      <c r="D19" s="35"/>
+      <c r="E19" s="35"/>
+      <c r="F19" s="35"/>
+      <c r="G19" s="35"/>
+      <c r="H19" s="35"/>
+      <c r="I19" s="35"/>
+      <c r="J19" s="35"/>
+      <c r="K19" s="35"/>
+      <c r="L19" s="35"/>
+      <c r="M19" s="32" t="s">
         <v>16</v>
       </c>
-      <c r="N19" s="30"/>
-      <c r="O19" s="30"/>
-      <c r="P19" s="31"/>
-      <c r="Q19" s="25" t="s">
+      <c r="N19" s="33"/>
+      <c r="O19" s="33"/>
+      <c r="P19" s="34"/>
+      <c r="Q19" s="28" t="s">
         <v>47</v>
       </c>
-      <c r="R19" s="25"/>
-      <c r="S19" s="25"/>
-      <c r="T19" s="25"/>
-      <c r="U19" s="25" t="s">
+      <c r="R19" s="28"/>
+      <c r="S19" s="28"/>
+      <c r="T19" s="28"/>
+      <c r="U19" s="28" t="s">
         <v>16</v>
       </c>
-      <c r="V19" s="25"/>
-      <c r="W19" s="25"/>
-      <c r="X19" s="25"/>
-      <c r="Y19" s="25"/>
-      <c r="Z19" s="25"/>
-      <c r="AA19" s="25"/>
-      <c r="AB19" s="25"/>
-      <c r="AC19" s="25"/>
-      <c r="AD19" s="25"/>
-      <c r="AE19" s="25"/>
-      <c r="AF19" s="25"/>
-      <c r="AG19" s="25"/>
-      <c r="AH19" s="25"/>
-      <c r="AI19" s="25"/>
-      <c r="AJ19" s="25"/>
+      <c r="V19" s="28"/>
+      <c r="W19" s="28"/>
+      <c r="X19" s="28"/>
+      <c r="Y19" s="28"/>
+      <c r="Z19" s="28"/>
+      <c r="AA19" s="28"/>
+      <c r="AB19" s="28"/>
+      <c r="AC19" s="28"/>
+      <c r="AD19" s="28"/>
+      <c r="AE19" s="28"/>
+      <c r="AF19" s="28"/>
+      <c r="AG19" s="28"/>
+      <c r="AH19" s="28"/>
+      <c r="AI19" s="28"/>
+      <c r="AJ19" s="28"/>
       <c r="AK19" s="15" t="s">
         <v>65</v>
       </c>
@@ -6353,51 +6496,51 @@
       </c>
     </row>
     <row r="20" spans="4:39" ht="63" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D20" s="24"/>
-      <c r="E20" s="24"/>
-      <c r="F20" s="24"/>
-      <c r="G20" s="24"/>
-      <c r="H20" s="24"/>
-      <c r="I20" s="24"/>
-      <c r="J20" s="24"/>
-      <c r="K20" s="24"/>
-      <c r="L20" s="24"/>
-      <c r="M20" s="24" t="s">
+      <c r="D20" s="35"/>
+      <c r="E20" s="35"/>
+      <c r="F20" s="35"/>
+      <c r="G20" s="35"/>
+      <c r="H20" s="35"/>
+      <c r="I20" s="35"/>
+      <c r="J20" s="35"/>
+      <c r="K20" s="35"/>
+      <c r="L20" s="35"/>
+      <c r="M20" s="35" t="s">
         <v>153</v>
       </c>
-      <c r="N20" s="24"/>
-      <c r="O20" s="24"/>
-      <c r="P20" s="24"/>
-      <c r="Q20" s="25" t="s">
+      <c r="N20" s="35"/>
+      <c r="O20" s="35"/>
+      <c r="P20" s="35"/>
+      <c r="Q20" s="28" t="s">
         <v>48</v>
       </c>
-      <c r="R20" s="25"/>
-      <c r="S20" s="25"/>
-      <c r="T20" s="25"/>
-      <c r="U20" s="26" t="s">
+      <c r="R20" s="28"/>
+      <c r="S20" s="28"/>
+      <c r="T20" s="28"/>
+      <c r="U20" s="29" t="s">
         <v>16</v>
       </c>
-      <c r="V20" s="27"/>
-      <c r="W20" s="27"/>
-      <c r="X20" s="27"/>
-      <c r="Y20" s="27"/>
-      <c r="Z20" s="28"/>
+      <c r="V20" s="30"/>
+      <c r="W20" s="30"/>
+      <c r="X20" s="30"/>
+      <c r="Y20" s="30"/>
+      <c r="Z20" s="31"/>
       <c r="AA20" s="4" t="s">
         <v>18</v>
       </c>
       <c r="AB20" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="AC20" s="25" t="s">
+      <c r="AC20" s="28" t="s">
         <v>59</v>
       </c>
-      <c r="AD20" s="25"/>
-      <c r="AE20" s="25"/>
-      <c r="AF20" s="25"/>
-      <c r="AG20" s="25"/>
-      <c r="AH20" s="25"/>
-      <c r="AI20" s="25"/>
-      <c r="AJ20" s="25"/>
+      <c r="AD20" s="28"/>
+      <c r="AE20" s="28"/>
+      <c r="AF20" s="28"/>
+      <c r="AG20" s="28"/>
+      <c r="AH20" s="28"/>
+      <c r="AI20" s="28"/>
+      <c r="AJ20" s="28"/>
       <c r="AK20" s="15" t="s">
         <v>130</v>
       </c>
@@ -6409,49 +6552,49 @@
       </c>
     </row>
     <row r="21" spans="4:39" ht="63" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D21" s="24"/>
-      <c r="E21" s="24"/>
-      <c r="F21" s="24"/>
-      <c r="G21" s="24"/>
-      <c r="H21" s="24"/>
-      <c r="I21" s="24"/>
-      <c r="J21" s="24"/>
-      <c r="K21" s="24"/>
-      <c r="L21" s="24"/>
-      <c r="M21" s="24"/>
-      <c r="N21" s="24"/>
-      <c r="O21" s="24"/>
-      <c r="P21" s="24"/>
-      <c r="Q21" s="25" t="s">
+      <c r="D21" s="35"/>
+      <c r="E21" s="35"/>
+      <c r="F21" s="35"/>
+      <c r="G21" s="35"/>
+      <c r="H21" s="35"/>
+      <c r="I21" s="35"/>
+      <c r="J21" s="35"/>
+      <c r="K21" s="35"/>
+      <c r="L21" s="35"/>
+      <c r="M21" s="35"/>
+      <c r="N21" s="35"/>
+      <c r="O21" s="35"/>
+      <c r="P21" s="35"/>
+      <c r="Q21" s="28" t="s">
         <v>49</v>
       </c>
-      <c r="R21" s="25"/>
-      <c r="S21" s="25"/>
-      <c r="T21" s="25"/>
-      <c r="U21" s="29" t="s">
+      <c r="R21" s="28"/>
+      <c r="S21" s="28"/>
+      <c r="T21" s="28"/>
+      <c r="U21" s="32" t="s">
         <v>16</v>
       </c>
-      <c r="V21" s="30"/>
-      <c r="W21" s="30"/>
-      <c r="X21" s="30"/>
-      <c r="Y21" s="30"/>
-      <c r="Z21" s="30"/>
-      <c r="AA21" s="31"/>
+      <c r="V21" s="33"/>
+      <c r="W21" s="33"/>
+      <c r="X21" s="33"/>
+      <c r="Y21" s="33"/>
+      <c r="Z21" s="33"/>
+      <c r="AA21" s="34"/>
       <c r="AB21" s="4" t="s">
         <v>17</v>
       </c>
       <c r="AC21" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="AD21" s="26" t="s">
+      <c r="AD21" s="29" t="s">
         <v>58</v>
       </c>
-      <c r="AE21" s="27"/>
-      <c r="AF21" s="27"/>
-      <c r="AG21" s="27"/>
-      <c r="AH21" s="27"/>
-      <c r="AI21" s="27"/>
-      <c r="AJ21" s="28"/>
+      <c r="AE21" s="30"/>
+      <c r="AF21" s="30"/>
+      <c r="AG21" s="30"/>
+      <c r="AH21" s="30"/>
+      <c r="AI21" s="30"/>
+      <c r="AJ21" s="31"/>
       <c r="AK21" s="17" t="s">
         <v>131</v>
       </c>
@@ -6463,51 +6606,51 @@
       </c>
     </row>
     <row r="22" spans="4:39" ht="63" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D22" s="24"/>
-      <c r="E22" s="24"/>
-      <c r="F22" s="24"/>
-      <c r="G22" s="24"/>
-      <c r="H22" s="24"/>
-      <c r="I22" s="24"/>
-      <c r="J22" s="24"/>
-      <c r="K22" s="24"/>
-      <c r="L22" s="24"/>
-      <c r="M22" s="24" t="s">
+      <c r="D22" s="35"/>
+      <c r="E22" s="35"/>
+      <c r="F22" s="35"/>
+      <c r="G22" s="35"/>
+      <c r="H22" s="35"/>
+      <c r="I22" s="35"/>
+      <c r="J22" s="35"/>
+      <c r="K22" s="35"/>
+      <c r="L22" s="35"/>
+      <c r="M22" s="35" t="s">
         <v>154</v>
       </c>
-      <c r="N22" s="24"/>
-      <c r="O22" s="24"/>
-      <c r="P22" s="24"/>
-      <c r="Q22" s="25" t="s">
+      <c r="N22" s="35"/>
+      <c r="O22" s="35"/>
+      <c r="P22" s="35"/>
+      <c r="Q22" s="28" t="s">
         <v>50</v>
       </c>
-      <c r="R22" s="25"/>
-      <c r="S22" s="25"/>
-      <c r="T22" s="25"/>
-      <c r="U22" s="26" t="s">
+      <c r="R22" s="28"/>
+      <c r="S22" s="28"/>
+      <c r="T22" s="28"/>
+      <c r="U22" s="29" t="s">
         <v>16</v>
       </c>
-      <c r="V22" s="27"/>
-      <c r="W22" s="27"/>
-      <c r="X22" s="27"/>
-      <c r="Y22" s="27"/>
-      <c r="Z22" s="28"/>
+      <c r="V22" s="30"/>
+      <c r="W22" s="30"/>
+      <c r="X22" s="30"/>
+      <c r="Y22" s="30"/>
+      <c r="Z22" s="31"/>
       <c r="AA22" s="4" t="s">
         <v>19</v>
       </c>
       <c r="AB22" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="AC22" s="26" t="s">
+      <c r="AC22" s="29" t="s">
         <v>16</v>
       </c>
-      <c r="AD22" s="27"/>
-      <c r="AE22" s="27"/>
-      <c r="AF22" s="27"/>
-      <c r="AG22" s="27"/>
-      <c r="AH22" s="27"/>
-      <c r="AI22" s="27"/>
-      <c r="AJ22" s="28"/>
+      <c r="AD22" s="30"/>
+      <c r="AE22" s="30"/>
+      <c r="AF22" s="30"/>
+      <c r="AG22" s="30"/>
+      <c r="AH22" s="30"/>
+      <c r="AI22" s="30"/>
+      <c r="AJ22" s="31"/>
       <c r="AK22" s="17" t="s">
         <v>66</v>
       </c>
@@ -6519,45 +6662,45 @@
       </c>
     </row>
     <row r="23" spans="4:39" ht="63" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D23" s="24"/>
-      <c r="E23" s="24"/>
-      <c r="F23" s="24"/>
-      <c r="G23" s="24"/>
-      <c r="H23" s="24"/>
-      <c r="I23" s="24"/>
-      <c r="J23" s="24"/>
-      <c r="K23" s="24"/>
-      <c r="L23" s="24"/>
-      <c r="M23" s="29" t="s">
+      <c r="D23" s="35"/>
+      <c r="E23" s="35"/>
+      <c r="F23" s="35"/>
+      <c r="G23" s="35"/>
+      <c r="H23" s="35"/>
+      <c r="I23" s="35"/>
+      <c r="J23" s="35"/>
+      <c r="K23" s="35"/>
+      <c r="L23" s="35"/>
+      <c r="M23" s="32" t="s">
         <v>16</v>
       </c>
-      <c r="N23" s="30"/>
-      <c r="O23" s="30"/>
-      <c r="P23" s="31"/>
-      <c r="Q23" s="25" t="s">
+      <c r="N23" s="33"/>
+      <c r="O23" s="33"/>
+      <c r="P23" s="34"/>
+      <c r="Q23" s="28" t="s">
         <v>51</v>
       </c>
-      <c r="R23" s="25"/>
-      <c r="S23" s="25"/>
-      <c r="T23" s="25"/>
-      <c r="U23" s="26" t="s">
+      <c r="R23" s="28"/>
+      <c r="S23" s="28"/>
+      <c r="T23" s="28"/>
+      <c r="U23" s="29" t="s">
         <v>16</v>
       </c>
-      <c r="V23" s="27"/>
-      <c r="W23" s="27"/>
-      <c r="X23" s="27"/>
-      <c r="Y23" s="27"/>
-      <c r="Z23" s="27"/>
-      <c r="AA23" s="27"/>
-      <c r="AB23" s="27"/>
-      <c r="AC23" s="27"/>
-      <c r="AD23" s="27"/>
-      <c r="AE23" s="27"/>
-      <c r="AF23" s="27"/>
-      <c r="AG23" s="27"/>
-      <c r="AH23" s="27"/>
-      <c r="AI23" s="27"/>
-      <c r="AJ23" s="28"/>
+      <c r="V23" s="30"/>
+      <c r="W23" s="30"/>
+      <c r="X23" s="30"/>
+      <c r="Y23" s="30"/>
+      <c r="Z23" s="30"/>
+      <c r="AA23" s="30"/>
+      <c r="AB23" s="30"/>
+      <c r="AC23" s="30"/>
+      <c r="AD23" s="30"/>
+      <c r="AE23" s="30"/>
+      <c r="AF23" s="30"/>
+      <c r="AG23" s="30"/>
+      <c r="AH23" s="30"/>
+      <c r="AI23" s="30"/>
+      <c r="AJ23" s="31"/>
       <c r="AK23" s="17" t="s">
         <v>133</v>
       </c>
@@ -6569,45 +6712,45 @@
       </c>
     </row>
     <row r="24" spans="4:39" ht="63" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D24" s="24"/>
-      <c r="E24" s="24"/>
-      <c r="F24" s="24"/>
-      <c r="G24" s="24"/>
-      <c r="H24" s="24"/>
-      <c r="I24" s="24"/>
-      <c r="J24" s="24"/>
-      <c r="K24" s="24"/>
-      <c r="L24" s="24"/>
-      <c r="M24" s="29" t="s">
+      <c r="D24" s="35"/>
+      <c r="E24" s="35"/>
+      <c r="F24" s="35"/>
+      <c r="G24" s="35"/>
+      <c r="H24" s="35"/>
+      <c r="I24" s="35"/>
+      <c r="J24" s="35"/>
+      <c r="K24" s="35"/>
+      <c r="L24" s="35"/>
+      <c r="M24" s="32" t="s">
         <v>16</v>
       </c>
-      <c r="N24" s="30"/>
-      <c r="O24" s="30"/>
-      <c r="P24" s="31"/>
-      <c r="Q24" s="25" t="s">
+      <c r="N24" s="33"/>
+      <c r="O24" s="33"/>
+      <c r="P24" s="34"/>
+      <c r="Q24" s="28" t="s">
         <v>52</v>
       </c>
-      <c r="R24" s="25"/>
-      <c r="S24" s="25"/>
-      <c r="T24" s="25"/>
-      <c r="U24" s="26" t="s">
+      <c r="R24" s="28"/>
+      <c r="S24" s="28"/>
+      <c r="T24" s="28"/>
+      <c r="U24" s="29" t="s">
         <v>16</v>
       </c>
-      <c r="V24" s="27"/>
-      <c r="W24" s="27"/>
-      <c r="X24" s="27"/>
-      <c r="Y24" s="27"/>
-      <c r="Z24" s="27"/>
-      <c r="AA24" s="27"/>
-      <c r="AB24" s="27"/>
-      <c r="AC24" s="27"/>
-      <c r="AD24" s="27"/>
-      <c r="AE24" s="27"/>
-      <c r="AF24" s="27"/>
-      <c r="AG24" s="27"/>
-      <c r="AH24" s="27"/>
-      <c r="AI24" s="27"/>
-      <c r="AJ24" s="28"/>
+      <c r="V24" s="30"/>
+      <c r="W24" s="30"/>
+      <c r="X24" s="30"/>
+      <c r="Y24" s="30"/>
+      <c r="Z24" s="30"/>
+      <c r="AA24" s="30"/>
+      <c r="AB24" s="30"/>
+      <c r="AC24" s="30"/>
+      <c r="AD24" s="30"/>
+      <c r="AE24" s="30"/>
+      <c r="AF24" s="30"/>
+      <c r="AG24" s="30"/>
+      <c r="AH24" s="30"/>
+      <c r="AI24" s="30"/>
+      <c r="AJ24" s="31"/>
       <c r="AK24" s="17" t="s">
         <v>67</v>
       </c>
@@ -6619,49 +6762,49 @@
       </c>
     </row>
     <row r="25" spans="4:39" ht="63" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D25" s="24"/>
-      <c r="E25" s="24"/>
-      <c r="F25" s="24"/>
-      <c r="G25" s="24"/>
-      <c r="H25" s="24"/>
-      <c r="I25" s="24"/>
-      <c r="J25" s="24"/>
-      <c r="K25" s="24"/>
-      <c r="L25" s="24"/>
-      <c r="M25" s="29" t="s">
+      <c r="D25" s="35"/>
+      <c r="E25" s="35"/>
+      <c r="F25" s="35"/>
+      <c r="G25" s="35"/>
+      <c r="H25" s="35"/>
+      <c r="I25" s="35"/>
+      <c r="J25" s="35"/>
+      <c r="K25" s="35"/>
+      <c r="L25" s="35"/>
+      <c r="M25" s="32" t="s">
         <v>16</v>
       </c>
-      <c r="N25" s="30"/>
-      <c r="O25" s="30"/>
-      <c r="P25" s="31"/>
-      <c r="Q25" s="25" t="s">
+      <c r="N25" s="33"/>
+      <c r="O25" s="33"/>
+      <c r="P25" s="34"/>
+      <c r="Q25" s="28" t="s">
         <v>53</v>
       </c>
-      <c r="R25" s="25"/>
-      <c r="S25" s="25"/>
-      <c r="T25" s="25"/>
-      <c r="U25" s="26" t="s">
+      <c r="R25" s="28"/>
+      <c r="S25" s="28"/>
+      <c r="T25" s="28"/>
+      <c r="U25" s="29" t="s">
         <v>16</v>
       </c>
-      <c r="V25" s="27"/>
-      <c r="W25" s="27"/>
-      <c r="X25" s="27"/>
-      <c r="Y25" s="27"/>
-      <c r="Z25" s="27"/>
-      <c r="AA25" s="27"/>
-      <c r="AB25" s="27"/>
-      <c r="AC25" s="25" t="s">
+      <c r="V25" s="30"/>
+      <c r="W25" s="30"/>
+      <c r="X25" s="30"/>
+      <c r="Y25" s="30"/>
+      <c r="Z25" s="30"/>
+      <c r="AA25" s="30"/>
+      <c r="AB25" s="30"/>
+      <c r="AC25" s="28" t="s">
         <v>44</v>
       </c>
-      <c r="AD25" s="25"/>
-      <c r="AE25" s="25"/>
-      <c r="AF25" s="25"/>
-      <c r="AG25" s="26" t="s">
+      <c r="AD25" s="28"/>
+      <c r="AE25" s="28"/>
+      <c r="AF25" s="28"/>
+      <c r="AG25" s="29" t="s">
         <v>24</v>
       </c>
-      <c r="AH25" s="27"/>
-      <c r="AI25" s="27"/>
-      <c r="AJ25" s="28"/>
+      <c r="AH25" s="30"/>
+      <c r="AI25" s="30"/>
+      <c r="AJ25" s="31"/>
       <c r="AK25" s="17" t="s">
         <v>68</v>
       </c>
@@ -6673,49 +6816,49 @@
       </c>
     </row>
     <row r="26" spans="4:39" ht="63" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D26" s="24"/>
-      <c r="E26" s="24"/>
-      <c r="F26" s="24"/>
-      <c r="G26" s="24"/>
-      <c r="H26" s="24"/>
-      <c r="I26" s="24"/>
-      <c r="J26" s="24"/>
-      <c r="K26" s="24"/>
-      <c r="L26" s="24"/>
-      <c r="M26" s="24" t="s">
+      <c r="D26" s="35"/>
+      <c r="E26" s="35"/>
+      <c r="F26" s="35"/>
+      <c r="G26" s="35"/>
+      <c r="H26" s="35"/>
+      <c r="I26" s="35"/>
+      <c r="J26" s="35"/>
+      <c r="K26" s="35"/>
+      <c r="L26" s="35"/>
+      <c r="M26" s="35" t="s">
         <v>153</v>
       </c>
-      <c r="N26" s="24"/>
-      <c r="O26" s="24"/>
-      <c r="P26" s="24"/>
-      <c r="Q26" s="25" t="s">
+      <c r="N26" s="35"/>
+      <c r="O26" s="35"/>
+      <c r="P26" s="35"/>
+      <c r="Q26" s="28" t="s">
         <v>54</v>
       </c>
-      <c r="R26" s="25"/>
-      <c r="S26" s="25"/>
-      <c r="T26" s="25"/>
-      <c r="U26" s="26" t="s">
+      <c r="R26" s="28"/>
+      <c r="S26" s="28"/>
+      <c r="T26" s="28"/>
+      <c r="U26" s="29" t="s">
         <v>16</v>
       </c>
-      <c r="V26" s="27"/>
-      <c r="W26" s="27"/>
-      <c r="X26" s="27"/>
-      <c r="Y26" s="27"/>
-      <c r="Z26" s="27"/>
-      <c r="AA26" s="28"/>
+      <c r="V26" s="30"/>
+      <c r="W26" s="30"/>
+      <c r="X26" s="30"/>
+      <c r="Y26" s="30"/>
+      <c r="Z26" s="30"/>
+      <c r="AA26" s="31"/>
       <c r="AB26" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="AC26" s="25" t="s">
+      <c r="AC26" s="28" t="s">
         <v>59</v>
       </c>
-      <c r="AD26" s="25"/>
-      <c r="AE26" s="25"/>
-      <c r="AF26" s="25"/>
-      <c r="AG26" s="25"/>
-      <c r="AH26" s="25"/>
-      <c r="AI26" s="25"/>
-      <c r="AJ26" s="25"/>
+      <c r="AD26" s="28"/>
+      <c r="AE26" s="28"/>
+      <c r="AF26" s="28"/>
+      <c r="AG26" s="28"/>
+      <c r="AH26" s="28"/>
+      <c r="AI26" s="28"/>
+      <c r="AJ26" s="28"/>
       <c r="AK26" s="15" t="s">
         <v>69</v>
       </c>
@@ -6727,49 +6870,49 @@
       </c>
     </row>
     <row r="27" spans="4:39" ht="63" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D27" s="24"/>
-      <c r="E27" s="24"/>
-      <c r="F27" s="24"/>
-      <c r="G27" s="24"/>
-      <c r="H27" s="24"/>
-      <c r="I27" s="24"/>
-      <c r="J27" s="24"/>
-      <c r="K27" s="24"/>
-      <c r="L27" s="24"/>
-      <c r="M27" s="24"/>
-      <c r="N27" s="24"/>
-      <c r="O27" s="24"/>
-      <c r="P27" s="24"/>
-      <c r="Q27" s="25" t="s">
+      <c r="D27" s="35"/>
+      <c r="E27" s="35"/>
+      <c r="F27" s="35"/>
+      <c r="G27" s="35"/>
+      <c r="H27" s="35"/>
+      <c r="I27" s="35"/>
+      <c r="J27" s="35"/>
+      <c r="K27" s="35"/>
+      <c r="L27" s="35"/>
+      <c r="M27" s="35"/>
+      <c r="N27" s="35"/>
+      <c r="O27" s="35"/>
+      <c r="P27" s="35"/>
+      <c r="Q27" s="28" t="s">
         <v>55</v>
       </c>
-      <c r="R27" s="25"/>
-      <c r="S27" s="25"/>
-      <c r="T27" s="25"/>
-      <c r="U27" s="26" t="s">
+      <c r="R27" s="28"/>
+      <c r="S27" s="28"/>
+      <c r="T27" s="28"/>
+      <c r="U27" s="29" t="s">
         <v>16</v>
       </c>
-      <c r="V27" s="27"/>
-      <c r="W27" s="27"/>
-      <c r="X27" s="27"/>
-      <c r="Y27" s="27"/>
-      <c r="Z27" s="27"/>
-      <c r="AA27" s="28"/>
+      <c r="V27" s="30"/>
+      <c r="W27" s="30"/>
+      <c r="X27" s="30"/>
+      <c r="Y27" s="30"/>
+      <c r="Z27" s="30"/>
+      <c r="AA27" s="31"/>
       <c r="AB27" s="4" t="s">
         <v>17</v>
       </c>
       <c r="AC27" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="AD27" s="26" t="s">
+      <c r="AD27" s="29" t="s">
         <v>58</v>
       </c>
-      <c r="AE27" s="27"/>
-      <c r="AF27" s="27"/>
-      <c r="AG27" s="27"/>
-      <c r="AH27" s="27"/>
-      <c r="AI27" s="27"/>
-      <c r="AJ27" s="28"/>
+      <c r="AE27" s="30"/>
+      <c r="AF27" s="30"/>
+      <c r="AG27" s="30"/>
+      <c r="AH27" s="30"/>
+      <c r="AI27" s="30"/>
+      <c r="AJ27" s="31"/>
       <c r="AK27" s="17" t="s">
         <v>70</v>
       </c>
@@ -6781,53 +6924,53 @@
       </c>
     </row>
     <row r="28" spans="4:39" ht="63" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D28" s="24"/>
-      <c r="E28" s="24"/>
-      <c r="F28" s="24"/>
-      <c r="G28" s="24"/>
-      <c r="H28" s="24"/>
-      <c r="I28" s="24"/>
-      <c r="J28" s="24"/>
-      <c r="K28" s="24"/>
-      <c r="L28" s="24"/>
-      <c r="M28" s="24" t="s">
+      <c r="D28" s="35"/>
+      <c r="E28" s="35"/>
+      <c r="F28" s="35"/>
+      <c r="G28" s="35"/>
+      <c r="H28" s="35"/>
+      <c r="I28" s="35"/>
+      <c r="J28" s="35"/>
+      <c r="K28" s="35"/>
+      <c r="L28" s="35"/>
+      <c r="M28" s="35" t="s">
         <v>16</v>
       </c>
-      <c r="N28" s="24"/>
-      <c r="O28" s="24" t="s">
+      <c r="N28" s="35"/>
+      <c r="O28" s="35" t="s">
         <v>136</v>
       </c>
-      <c r="P28" s="24"/>
-      <c r="Q28" s="25" t="s">
+      <c r="P28" s="35"/>
+      <c r="Q28" s="28" t="s">
         <v>129</v>
       </c>
-      <c r="R28" s="25"/>
-      <c r="S28" s="25"/>
-      <c r="T28" s="25"/>
-      <c r="U28" s="26" t="s">
+      <c r="R28" s="28"/>
+      <c r="S28" s="28"/>
+      <c r="T28" s="28"/>
+      <c r="U28" s="29" t="s">
         <v>16</v>
       </c>
-      <c r="V28" s="27"/>
-      <c r="W28" s="27"/>
-      <c r="X28" s="27"/>
-      <c r="Y28" s="27"/>
-      <c r="Z28" s="27"/>
-      <c r="AA28" s="28"/>
+      <c r="V28" s="30"/>
+      <c r="W28" s="30"/>
+      <c r="X28" s="30"/>
+      <c r="Y28" s="30"/>
+      <c r="Z28" s="30"/>
+      <c r="AA28" s="31"/>
       <c r="AB28" s="13" t="s">
         <v>138</v>
       </c>
-      <c r="AC28" s="25" t="s">
+      <c r="AC28" s="28" t="s">
         <v>16</v>
       </c>
-      <c r="AD28" s="25"/>
-      <c r="AE28" s="26" t="s">
+      <c r="AD28" s="28"/>
+      <c r="AE28" s="29" t="s">
         <v>58</v>
       </c>
-      <c r="AF28" s="27"/>
-      <c r="AG28" s="27"/>
-      <c r="AH28" s="27"/>
-      <c r="AI28" s="27"/>
-      <c r="AJ28" s="28"/>
+      <c r="AF28" s="30"/>
+      <c r="AG28" s="30"/>
+      <c r="AH28" s="30"/>
+      <c r="AI28" s="30"/>
+      <c r="AJ28" s="31"/>
       <c r="AK28" s="17" t="s">
         <v>137</v>
       </c>
@@ -7432,19 +7575,22 @@
     </row>
   </sheetData>
   <mergeCells count="45">
-    <mergeCell ref="Q27:T27"/>
-    <mergeCell ref="Q28:T28"/>
-    <mergeCell ref="AC22:AJ22"/>
-    <mergeCell ref="U21:AA21"/>
-    <mergeCell ref="U26:AA26"/>
-    <mergeCell ref="Q23:T23"/>
-    <mergeCell ref="Q24:T24"/>
-    <mergeCell ref="Q25:T25"/>
-    <mergeCell ref="Q18:T18"/>
-    <mergeCell ref="Q19:T19"/>
-    <mergeCell ref="Q20:T20"/>
-    <mergeCell ref="Q21:T21"/>
-    <mergeCell ref="Q22:T22"/>
+    <mergeCell ref="M28:N28"/>
+    <mergeCell ref="O28:P28"/>
+    <mergeCell ref="AC28:AD28"/>
+    <mergeCell ref="AE28:AJ28"/>
+    <mergeCell ref="M18:P18"/>
+    <mergeCell ref="M19:P19"/>
+    <mergeCell ref="M23:P23"/>
+    <mergeCell ref="M24:P24"/>
+    <mergeCell ref="M25:P25"/>
+    <mergeCell ref="U27:AA27"/>
+    <mergeCell ref="AD27:AJ27"/>
+    <mergeCell ref="Q26:T26"/>
+    <mergeCell ref="AC26:AJ26"/>
+    <mergeCell ref="M20:P21"/>
+    <mergeCell ref="M22:P22"/>
+    <mergeCell ref="U28:AA28"/>
     <mergeCell ref="E18:H28"/>
     <mergeCell ref="I18:L28"/>
     <mergeCell ref="D18:D28"/>
@@ -7461,22 +7607,19 @@
     <mergeCell ref="AC25:AF25"/>
     <mergeCell ref="U25:AB25"/>
     <mergeCell ref="U23:AJ23"/>
-    <mergeCell ref="M28:N28"/>
-    <mergeCell ref="O28:P28"/>
-    <mergeCell ref="AC28:AD28"/>
-    <mergeCell ref="AE28:AJ28"/>
-    <mergeCell ref="M18:P18"/>
-    <mergeCell ref="M19:P19"/>
-    <mergeCell ref="M23:P23"/>
-    <mergeCell ref="M24:P24"/>
-    <mergeCell ref="M25:P25"/>
-    <mergeCell ref="U27:AA27"/>
-    <mergeCell ref="AD27:AJ27"/>
-    <mergeCell ref="Q26:T26"/>
-    <mergeCell ref="AC26:AJ26"/>
-    <mergeCell ref="M20:P21"/>
-    <mergeCell ref="M22:P22"/>
-    <mergeCell ref="U28:AA28"/>
+    <mergeCell ref="Q18:T18"/>
+    <mergeCell ref="Q19:T19"/>
+    <mergeCell ref="Q20:T20"/>
+    <mergeCell ref="Q21:T21"/>
+    <mergeCell ref="Q22:T22"/>
+    <mergeCell ref="Q27:T27"/>
+    <mergeCell ref="Q28:T28"/>
+    <mergeCell ref="AC22:AJ22"/>
+    <mergeCell ref="U21:AA21"/>
+    <mergeCell ref="U26:AA26"/>
+    <mergeCell ref="Q23:T23"/>
+    <mergeCell ref="Q24:T24"/>
+    <mergeCell ref="Q25:T25"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7512,71 +7655,71 @@
       <c r="F21" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="G21" s="38" t="s">
+      <c r="G21" s="37" t="s">
         <v>79</v>
       </c>
-      <c r="H21" s="39"/>
-      <c r="I21" s="39"/>
-      <c r="J21" s="39"/>
-      <c r="K21" s="39"/>
-      <c r="L21" s="39"/>
-      <c r="M21" s="39"/>
-      <c r="N21" s="40"/>
-      <c r="O21" s="38" t="s">
+      <c r="H21" s="38"/>
+      <c r="I21" s="38"/>
+      <c r="J21" s="38"/>
+      <c r="K21" s="38"/>
+      <c r="L21" s="38"/>
+      <c r="M21" s="38"/>
+      <c r="N21" s="39"/>
+      <c r="O21" s="37" t="s">
         <v>80</v>
       </c>
-      <c r="P21" s="39" t="s">
+      <c r="P21" s="38" t="s">
         <v>81</v>
       </c>
-      <c r="Q21" s="39" t="s">
+      <c r="Q21" s="38" t="s">
         <v>82</v>
       </c>
-      <c r="R21" s="39"/>
-      <c r="S21" s="39"/>
-      <c r="T21" s="39"/>
-      <c r="U21" s="39"/>
-      <c r="V21" s="40"/>
-      <c r="W21" s="38" t="s">
+      <c r="R21" s="38"/>
+      <c r="S21" s="38"/>
+      <c r="T21" s="38"/>
+      <c r="U21" s="38"/>
+      <c r="V21" s="39"/>
+      <c r="W21" s="37" t="s">
         <v>87</v>
       </c>
-      <c r="X21" s="39"/>
-      <c r="Y21" s="39"/>
-      <c r="Z21" s="39"/>
-      <c r="AA21" s="39"/>
-      <c r="AB21" s="39"/>
-      <c r="AC21" s="39"/>
-      <c r="AD21" s="40"/>
-      <c r="AE21" s="38" t="s">
+      <c r="X21" s="38"/>
+      <c r="Y21" s="38"/>
+      <c r="Z21" s="38"/>
+      <c r="AA21" s="38"/>
+      <c r="AB21" s="38"/>
+      <c r="AC21" s="38"/>
+      <c r="AD21" s="39"/>
+      <c r="AE21" s="37" t="s">
         <v>88</v>
       </c>
-      <c r="AF21" s="39"/>
-      <c r="AG21" s="39"/>
-      <c r="AH21" s="39"/>
-      <c r="AI21" s="39"/>
-      <c r="AJ21" s="39"/>
-      <c r="AK21" s="39"/>
-      <c r="AL21" s="40"/>
+      <c r="AF21" s="38"/>
+      <c r="AG21" s="38"/>
+      <c r="AH21" s="38"/>
+      <c r="AI21" s="38"/>
+      <c r="AJ21" s="38"/>
+      <c r="AK21" s="38"/>
+      <c r="AL21" s="39"/>
       <c r="AM21" s="2" t="s">
         <v>83</v>
       </c>
       <c r="AN21" s="11" t="s">
         <v>84</v>
       </c>
-      <c r="AO21" s="32" t="s">
+      <c r="AO21" s="41" t="s">
         <v>63</v>
       </c>
-      <c r="AP21" s="32" t="s">
+      <c r="AP21" s="41" t="s">
         <v>62</v>
       </c>
-      <c r="AQ21" s="32" t="s">
+      <c r="AQ21" s="41" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="22" spans="5:43" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E22" s="33" t="s">
+      <c r="E22" s="36" t="s">
         <v>111</v>
       </c>
-      <c r="F22" s="33"/>
+      <c r="F22" s="36"/>
       <c r="G22" s="12" t="s">
         <v>93</v>
       </c>
@@ -7673,55 +7816,55 @@
       <c r="AL22" s="12" t="s">
         <v>90</v>
       </c>
-      <c r="AM22" s="33" t="s">
+      <c r="AM22" s="36" t="s">
         <v>112</v>
       </c>
-      <c r="AN22" s="34"/>
-      <c r="AO22" s="32"/>
-      <c r="AP22" s="32"/>
-      <c r="AQ22" s="32"/>
+      <c r="AN22" s="45"/>
+      <c r="AO22" s="41"/>
+      <c r="AP22" s="41"/>
+      <c r="AQ22" s="41"/>
     </row>
     <row r="23" spans="5:43" ht="64.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E23" s="41" t="s">
+      <c r="E23" s="40" t="s">
         <v>76</v>
       </c>
-      <c r="F23" s="41" t="s">
+      <c r="F23" s="40" t="s">
         <v>78</v>
       </c>
-      <c r="G23" s="28" t="s">
+      <c r="G23" s="31" t="s">
         <v>89</v>
       </c>
-      <c r="H23" s="25"/>
-      <c r="I23" s="25"/>
-      <c r="J23" s="25"/>
-      <c r="K23" s="25"/>
-      <c r="L23" s="25"/>
-      <c r="M23" s="25"/>
-      <c r="N23" s="25"/>
-      <c r="O23" s="25"/>
-      <c r="P23" s="25"/>
-      <c r="Q23" s="25"/>
-      <c r="R23" s="25"/>
-      <c r="S23" s="25"/>
-      <c r="T23" s="25"/>
-      <c r="U23" s="25"/>
-      <c r="V23" s="25"/>
-      <c r="W23" s="25"/>
-      <c r="X23" s="25"/>
-      <c r="Y23" s="25"/>
-      <c r="Z23" s="25"/>
-      <c r="AA23" s="25"/>
-      <c r="AB23" s="25"/>
-      <c r="AC23" s="25"/>
-      <c r="AD23" s="25"/>
-      <c r="AE23" s="25"/>
-      <c r="AF23" s="25"/>
-      <c r="AG23" s="25"/>
-      <c r="AH23" s="25"/>
-      <c r="AI23" s="25"/>
-      <c r="AJ23" s="25"/>
-      <c r="AK23" s="25"/>
-      <c r="AL23" s="25"/>
+      <c r="H23" s="28"/>
+      <c r="I23" s="28"/>
+      <c r="J23" s="28"/>
+      <c r="K23" s="28"/>
+      <c r="L23" s="28"/>
+      <c r="M23" s="28"/>
+      <c r="N23" s="28"/>
+      <c r="O23" s="28"/>
+      <c r="P23" s="28"/>
+      <c r="Q23" s="28"/>
+      <c r="R23" s="28"/>
+      <c r="S23" s="28"/>
+      <c r="T23" s="28"/>
+      <c r="U23" s="28"/>
+      <c r="V23" s="28"/>
+      <c r="W23" s="28"/>
+      <c r="X23" s="28"/>
+      <c r="Y23" s="28"/>
+      <c r="Z23" s="28"/>
+      <c r="AA23" s="28"/>
+      <c r="AB23" s="28"/>
+      <c r="AC23" s="28"/>
+      <c r="AD23" s="28"/>
+      <c r="AE23" s="28"/>
+      <c r="AF23" s="28"/>
+      <c r="AG23" s="28"/>
+      <c r="AH23" s="28"/>
+      <c r="AI23" s="28"/>
+      <c r="AJ23" s="28"/>
+      <c r="AK23" s="28"/>
+      <c r="AL23" s="28"/>
       <c r="AM23" s="3" t="s">
         <v>85</v>
       </c>
@@ -7739,52 +7882,52 @@
       </c>
     </row>
     <row r="24" spans="5:43" ht="64.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E24" s="41"/>
-      <c r="F24" s="41"/>
-      <c r="G24" s="27" t="s">
+      <c r="E24" s="40"/>
+      <c r="F24" s="40"/>
+      <c r="G24" s="30" t="s">
         <v>16</v>
       </c>
-      <c r="H24" s="27"/>
-      <c r="I24" s="27"/>
-      <c r="J24" s="27"/>
-      <c r="K24" s="27"/>
-      <c r="L24" s="27"/>
-      <c r="M24" s="27"/>
-      <c r="N24" s="27"/>
-      <c r="O24" s="27"/>
-      <c r="P24" s="27"/>
-      <c r="Q24" s="27"/>
-      <c r="R24" s="28"/>
-      <c r="S24" s="26" t="s">
+      <c r="H24" s="30"/>
+      <c r="I24" s="30"/>
+      <c r="J24" s="30"/>
+      <c r="K24" s="30"/>
+      <c r="L24" s="30"/>
+      <c r="M24" s="30"/>
+      <c r="N24" s="30"/>
+      <c r="O24" s="30"/>
+      <c r="P24" s="30"/>
+      <c r="Q24" s="30"/>
+      <c r="R24" s="31"/>
+      <c r="S24" s="29" t="s">
         <v>46</v>
       </c>
-      <c r="T24" s="27"/>
-      <c r="U24" s="27"/>
-      <c r="V24" s="28"/>
-      <c r="W24" s="25" t="s">
+      <c r="T24" s="30"/>
+      <c r="U24" s="30"/>
+      <c r="V24" s="31"/>
+      <c r="W24" s="28" t="s">
         <v>16</v>
       </c>
-      <c r="X24" s="25"/>
-      <c r="Y24" s="25"/>
-      <c r="Z24" s="25"/>
-      <c r="AA24" s="25"/>
-      <c r="AB24" s="25"/>
-      <c r="AC24" s="25"/>
-      <c r="AD24" s="25"/>
-      <c r="AE24" s="25"/>
-      <c r="AF24" s="25"/>
-      <c r="AG24" s="25"/>
-      <c r="AH24" s="25"/>
-      <c r="AI24" s="25"/>
-      <c r="AJ24" s="25"/>
-      <c r="AK24" s="25"/>
+      <c r="X24" s="28"/>
+      <c r="Y24" s="28"/>
+      <c r="Z24" s="28"/>
+      <c r="AA24" s="28"/>
+      <c r="AB24" s="28"/>
+      <c r="AC24" s="28"/>
+      <c r="AD24" s="28"/>
+      <c r="AE24" s="28"/>
+      <c r="AF24" s="28"/>
+      <c r="AG24" s="28"/>
+      <c r="AH24" s="28"/>
+      <c r="AI24" s="28"/>
+      <c r="AJ24" s="28"/>
+      <c r="AK24" s="28"/>
       <c r="AL24" s="23" t="s">
         <v>121</v>
       </c>
-      <c r="AM24" s="35" t="s">
+      <c r="AM24" s="42" t="s">
         <v>86</v>
       </c>
-      <c r="AN24" s="35" t="s">
+      <c r="AN24" s="42" t="s">
         <v>85</v>
       </c>
       <c r="AO24" s="15" t="s">
@@ -7798,48 +7941,48 @@
       </c>
     </row>
     <row r="25" spans="5:43" ht="64.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E25" s="41"/>
-      <c r="F25" s="41"/>
-      <c r="G25" s="27" t="s">
+      <c r="E25" s="40"/>
+      <c r="F25" s="40"/>
+      <c r="G25" s="30" t="s">
         <v>16</v>
       </c>
-      <c r="H25" s="27"/>
-      <c r="I25" s="27"/>
-      <c r="J25" s="27"/>
-      <c r="K25" s="27"/>
-      <c r="L25" s="27"/>
-      <c r="M25" s="27"/>
-      <c r="N25" s="27"/>
-      <c r="O25" s="27"/>
-      <c r="P25" s="27"/>
-      <c r="Q25" s="27"/>
-      <c r="R25" s="28"/>
-      <c r="S25" s="26" t="s">
+      <c r="H25" s="30"/>
+      <c r="I25" s="30"/>
+      <c r="J25" s="30"/>
+      <c r="K25" s="30"/>
+      <c r="L25" s="30"/>
+      <c r="M25" s="30"/>
+      <c r="N25" s="30"/>
+      <c r="O25" s="30"/>
+      <c r="P25" s="30"/>
+      <c r="Q25" s="30"/>
+      <c r="R25" s="31"/>
+      <c r="S25" s="29" t="s">
         <v>47</v>
       </c>
-      <c r="T25" s="27"/>
-      <c r="U25" s="27"/>
-      <c r="V25" s="28"/>
-      <c r="W25" s="26" t="s">
+      <c r="T25" s="30"/>
+      <c r="U25" s="30"/>
+      <c r="V25" s="31"/>
+      <c r="W25" s="29" t="s">
         <v>16</v>
       </c>
-      <c r="X25" s="27"/>
-      <c r="Y25" s="27"/>
-      <c r="Z25" s="27"/>
-      <c r="AA25" s="27"/>
-      <c r="AB25" s="27"/>
-      <c r="AC25" s="27"/>
-      <c r="AD25" s="27"/>
-      <c r="AE25" s="27"/>
-      <c r="AF25" s="27"/>
-      <c r="AG25" s="27"/>
-      <c r="AH25" s="27"/>
-      <c r="AI25" s="27"/>
-      <c r="AJ25" s="27"/>
-      <c r="AK25" s="27"/>
-      <c r="AL25" s="28"/>
-      <c r="AM25" s="36"/>
-      <c r="AN25" s="36"/>
+      <c r="X25" s="30"/>
+      <c r="Y25" s="30"/>
+      <c r="Z25" s="30"/>
+      <c r="AA25" s="30"/>
+      <c r="AB25" s="30"/>
+      <c r="AC25" s="30"/>
+      <c r="AD25" s="30"/>
+      <c r="AE25" s="30"/>
+      <c r="AF25" s="30"/>
+      <c r="AG25" s="30"/>
+      <c r="AH25" s="30"/>
+      <c r="AI25" s="30"/>
+      <c r="AJ25" s="30"/>
+      <c r="AK25" s="30"/>
+      <c r="AL25" s="31"/>
+      <c r="AM25" s="43"/>
+      <c r="AN25" s="43"/>
       <c r="AO25" s="15" t="s">
         <v>151</v>
       </c>
@@ -7851,52 +7994,52 @@
       </c>
     </row>
     <row r="26" spans="5:43" ht="64.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E26" s="41"/>
-      <c r="F26" s="41"/>
-      <c r="G26" s="27" t="s">
+      <c r="E26" s="40"/>
+      <c r="F26" s="40"/>
+      <c r="G26" s="30" t="s">
         <v>16</v>
       </c>
-      <c r="H26" s="27"/>
-      <c r="I26" s="27"/>
-      <c r="J26" s="27"/>
-      <c r="K26" s="27"/>
-      <c r="L26" s="27"/>
-      <c r="M26" s="27"/>
-      <c r="N26" s="27"/>
-      <c r="O26" s="27"/>
-      <c r="P26" s="27"/>
-      <c r="Q26" s="27"/>
-      <c r="R26" s="28"/>
-      <c r="S26" s="26" t="s">
+      <c r="H26" s="30"/>
+      <c r="I26" s="30"/>
+      <c r="J26" s="30"/>
+      <c r="K26" s="30"/>
+      <c r="L26" s="30"/>
+      <c r="M26" s="30"/>
+      <c r="N26" s="30"/>
+      <c r="O26" s="30"/>
+      <c r="P26" s="30"/>
+      <c r="Q26" s="30"/>
+      <c r="R26" s="31"/>
+      <c r="S26" s="29" t="s">
         <v>116</v>
       </c>
-      <c r="T26" s="27"/>
-      <c r="U26" s="27"/>
-      <c r="V26" s="28"/>
-      <c r="W26" s="26" t="s">
+      <c r="T26" s="30"/>
+      <c r="U26" s="30"/>
+      <c r="V26" s="31"/>
+      <c r="W26" s="29" t="s">
         <v>16</v>
       </c>
-      <c r="X26" s="27"/>
-      <c r="Y26" s="27"/>
-      <c r="Z26" s="27"/>
-      <c r="AA26" s="27"/>
-      <c r="AB26" s="27"/>
-      <c r="AC26" s="27"/>
-      <c r="AD26" s="28"/>
-      <c r="AE26" s="25" t="s">
+      <c r="X26" s="30"/>
+      <c r="Y26" s="30"/>
+      <c r="Z26" s="30"/>
+      <c r="AA26" s="30"/>
+      <c r="AB26" s="30"/>
+      <c r="AC26" s="30"/>
+      <c r="AD26" s="31"/>
+      <c r="AE26" s="28" t="s">
         <v>44</v>
       </c>
-      <c r="AF26" s="25"/>
-      <c r="AG26" s="25"/>
-      <c r="AH26" s="25"/>
-      <c r="AI26" s="25" t="s">
+      <c r="AF26" s="28"/>
+      <c r="AG26" s="28"/>
+      <c r="AH26" s="28"/>
+      <c r="AI26" s="28" t="s">
         <v>24</v>
       </c>
-      <c r="AJ26" s="25"/>
-      <c r="AK26" s="25"/>
-      <c r="AL26" s="25"/>
-      <c r="AM26" s="36"/>
-      <c r="AN26" s="36"/>
+      <c r="AJ26" s="28"/>
+      <c r="AK26" s="28"/>
+      <c r="AL26" s="28"/>
+      <c r="AM26" s="43"/>
+      <c r="AN26" s="43"/>
       <c r="AO26" s="15" t="s">
         <v>118</v>
       </c>
@@ -7908,54 +8051,54 @@
       </c>
     </row>
     <row r="27" spans="5:43" ht="64.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E27" s="41"/>
-      <c r="F27" s="41"/>
-      <c r="G27" s="27" t="s">
+      <c r="E27" s="40"/>
+      <c r="F27" s="40"/>
+      <c r="G27" s="30" t="s">
         <v>16</v>
       </c>
-      <c r="H27" s="27"/>
-      <c r="I27" s="27"/>
-      <c r="J27" s="27"/>
-      <c r="K27" s="27"/>
-      <c r="L27" s="27"/>
-      <c r="M27" s="27"/>
-      <c r="N27" s="28"/>
-      <c r="O27" s="26" t="s">
+      <c r="H27" s="30"/>
+      <c r="I27" s="30"/>
+      <c r="J27" s="30"/>
+      <c r="K27" s="30"/>
+      <c r="L27" s="30"/>
+      <c r="M27" s="30"/>
+      <c r="N27" s="31"/>
+      <c r="O27" s="29" t="s">
         <v>45</v>
       </c>
-      <c r="P27" s="27"/>
-      <c r="Q27" s="27"/>
-      <c r="R27" s="28"/>
-      <c r="S27" s="26" t="s">
+      <c r="P27" s="30"/>
+      <c r="Q27" s="30"/>
+      <c r="R27" s="31"/>
+      <c r="S27" s="29" t="s">
         <v>114</v>
       </c>
-      <c r="T27" s="27"/>
-      <c r="U27" s="27"/>
-      <c r="V27" s="28"/>
-      <c r="W27" s="26" t="s">
+      <c r="T27" s="30"/>
+      <c r="U27" s="30"/>
+      <c r="V27" s="31"/>
+      <c r="W27" s="29" t="s">
         <v>16</v>
       </c>
-      <c r="X27" s="27"/>
-      <c r="Y27" s="27"/>
-      <c r="Z27" s="27"/>
-      <c r="AA27" s="27"/>
-      <c r="AB27" s="27"/>
-      <c r="AC27" s="28"/>
+      <c r="X27" s="30"/>
+      <c r="Y27" s="30"/>
+      <c r="Z27" s="30"/>
+      <c r="AA27" s="30"/>
+      <c r="AB27" s="30"/>
+      <c r="AC27" s="31"/>
       <c r="AD27" s="20" t="s">
         <v>113</v>
       </c>
-      <c r="AE27" s="26" t="s">
+      <c r="AE27" s="29" t="s">
         <v>59</v>
       </c>
-      <c r="AF27" s="27"/>
-      <c r="AG27" s="27"/>
-      <c r="AH27" s="27"/>
-      <c r="AI27" s="27"/>
-      <c r="AJ27" s="27"/>
-      <c r="AK27" s="27"/>
-      <c r="AL27" s="28"/>
-      <c r="AM27" s="36"/>
-      <c r="AN27" s="36"/>
+      <c r="AF27" s="30"/>
+      <c r="AG27" s="30"/>
+      <c r="AH27" s="30"/>
+      <c r="AI27" s="30"/>
+      <c r="AJ27" s="30"/>
+      <c r="AK27" s="30"/>
+      <c r="AL27" s="31"/>
+      <c r="AM27" s="43"/>
+      <c r="AN27" s="43"/>
       <c r="AO27" s="15" t="s">
         <v>119</v>
       </c>
@@ -7967,56 +8110,56 @@
       </c>
     </row>
     <row r="28" spans="5:43" ht="64.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E28" s="41"/>
-      <c r="F28" s="41"/>
-      <c r="G28" s="27" t="s">
+      <c r="E28" s="40"/>
+      <c r="F28" s="40"/>
+      <c r="G28" s="30" t="s">
         <v>16</v>
       </c>
-      <c r="H28" s="27"/>
-      <c r="I28" s="27"/>
-      <c r="J28" s="27"/>
-      <c r="K28" s="27"/>
-      <c r="L28" s="27"/>
-      <c r="M28" s="27"/>
-      <c r="N28" s="28"/>
-      <c r="O28" s="26" t="s">
+      <c r="H28" s="30"/>
+      <c r="I28" s="30"/>
+      <c r="J28" s="30"/>
+      <c r="K28" s="30"/>
+      <c r="L28" s="30"/>
+      <c r="M28" s="30"/>
+      <c r="N28" s="31"/>
+      <c r="O28" s="29" t="s">
         <v>45</v>
       </c>
-      <c r="P28" s="27"/>
-      <c r="Q28" s="27"/>
-      <c r="R28" s="28"/>
-      <c r="S28" s="26" t="s">
+      <c r="P28" s="30"/>
+      <c r="Q28" s="30"/>
+      <c r="R28" s="31"/>
+      <c r="S28" s="29" t="s">
         <v>115</v>
       </c>
-      <c r="T28" s="27"/>
-      <c r="U28" s="27"/>
-      <c r="V28" s="28"/>
-      <c r="W28" s="26" t="s">
+      <c r="T28" s="30"/>
+      <c r="U28" s="30"/>
+      <c r="V28" s="31"/>
+      <c r="W28" s="29" t="s">
         <v>16</v>
       </c>
-      <c r="X28" s="27"/>
-      <c r="Y28" s="27"/>
-      <c r="Z28" s="27"/>
-      <c r="AA28" s="27"/>
-      <c r="AB28" s="27"/>
-      <c r="AC28" s="28"/>
+      <c r="X28" s="30"/>
+      <c r="Y28" s="30"/>
+      <c r="Z28" s="30"/>
+      <c r="AA28" s="30"/>
+      <c r="AB28" s="30"/>
+      <c r="AC28" s="31"/>
       <c r="AD28" s="20" t="s">
         <v>113</v>
       </c>
       <c r="AE28" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="AF28" s="26" t="s">
+      <c r="AF28" s="29" t="s">
         <v>58</v>
       </c>
-      <c r="AG28" s="27"/>
-      <c r="AH28" s="27"/>
-      <c r="AI28" s="27"/>
-      <c r="AJ28" s="27"/>
-      <c r="AK28" s="27"/>
-      <c r="AL28" s="28"/>
-      <c r="AM28" s="37"/>
-      <c r="AN28" s="37"/>
+      <c r="AG28" s="30"/>
+      <c r="AH28" s="30"/>
+      <c r="AI28" s="30"/>
+      <c r="AJ28" s="30"/>
+      <c r="AK28" s="30"/>
+      <c r="AL28" s="31"/>
+      <c r="AM28" s="44"/>
+      <c r="AN28" s="44"/>
       <c r="AO28" s="15" t="s">
         <v>120</v>
       </c>
@@ -8029,6 +8172,25 @@
     </row>
   </sheetData>
   <mergeCells count="35">
+    <mergeCell ref="AQ21:AQ22"/>
+    <mergeCell ref="AP21:AP22"/>
+    <mergeCell ref="W28:AC28"/>
+    <mergeCell ref="AM22:AN22"/>
+    <mergeCell ref="O27:R27"/>
+    <mergeCell ref="AE27:AL27"/>
+    <mergeCell ref="G23:AL23"/>
+    <mergeCell ref="AF28:AL28"/>
+    <mergeCell ref="AO21:AO22"/>
+    <mergeCell ref="S26:V26"/>
+    <mergeCell ref="W26:AD26"/>
+    <mergeCell ref="AE26:AH26"/>
+    <mergeCell ref="AI26:AL26"/>
+    <mergeCell ref="W24:AK24"/>
+    <mergeCell ref="AM24:AM28"/>
+    <mergeCell ref="AN24:AN28"/>
+    <mergeCell ref="W25:AL25"/>
+    <mergeCell ref="S27:V27"/>
+    <mergeCell ref="AE21:AL21"/>
     <mergeCell ref="E22:F22"/>
     <mergeCell ref="G26:R26"/>
     <mergeCell ref="G21:N21"/>
@@ -8044,26 +8206,7 @@
     <mergeCell ref="G27:N27"/>
     <mergeCell ref="O28:R28"/>
     <mergeCell ref="S28:V28"/>
-    <mergeCell ref="AF28:AL28"/>
-    <mergeCell ref="AO21:AO22"/>
-    <mergeCell ref="S26:V26"/>
-    <mergeCell ref="W26:AD26"/>
-    <mergeCell ref="AE26:AH26"/>
-    <mergeCell ref="AI26:AL26"/>
-    <mergeCell ref="W24:AK24"/>
-    <mergeCell ref="AM24:AM28"/>
-    <mergeCell ref="AN24:AN28"/>
-    <mergeCell ref="W25:AL25"/>
     <mergeCell ref="G28:N28"/>
-    <mergeCell ref="S27:V27"/>
-    <mergeCell ref="AE21:AL21"/>
-    <mergeCell ref="AQ21:AQ22"/>
-    <mergeCell ref="AP21:AP22"/>
-    <mergeCell ref="W28:AC28"/>
-    <mergeCell ref="AM22:AN22"/>
-    <mergeCell ref="O27:R27"/>
-    <mergeCell ref="AE27:AL27"/>
-    <mergeCell ref="G23:AL23"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -8075,8 +8218,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{468DA65A-B19B-48EC-A922-77726C590D11}">
   <dimension ref="C13:AM19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K15" sqref="K15:L15"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="M18" sqref="M18:P18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -8097,65 +8240,65 @@
       <c r="D13" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="E13" s="38" t="s">
+      <c r="E13" s="37" t="s">
         <v>79</v>
       </c>
-      <c r="F13" s="39"/>
-      <c r="G13" s="39"/>
-      <c r="H13" s="39"/>
-      <c r="I13" s="39"/>
-      <c r="J13" s="39"/>
-      <c r="K13" s="39"/>
-      <c r="L13" s="40"/>
-      <c r="M13" s="38" t="s">
+      <c r="F13" s="38"/>
+      <c r="G13" s="38"/>
+      <c r="H13" s="38"/>
+      <c r="I13" s="38"/>
+      <c r="J13" s="38"/>
+      <c r="K13" s="38"/>
+      <c r="L13" s="39"/>
+      <c r="M13" s="37" t="s">
         <v>80</v>
       </c>
-      <c r="N13" s="39" t="s">
+      <c r="N13" s="38" t="s">
         <v>81</v>
       </c>
-      <c r="O13" s="39" t="s">
+      <c r="O13" s="38" t="s">
         <v>82</v>
       </c>
-      <c r="P13" s="39"/>
-      <c r="Q13" s="39"/>
-      <c r="R13" s="39"/>
-      <c r="S13" s="39"/>
-      <c r="T13" s="40"/>
-      <c r="U13" s="38" t="s">
+      <c r="P13" s="38"/>
+      <c r="Q13" s="38"/>
+      <c r="R13" s="38"/>
+      <c r="S13" s="38"/>
+      <c r="T13" s="39"/>
+      <c r="U13" s="37" t="s">
         <v>87</v>
       </c>
-      <c r="V13" s="39"/>
-      <c r="W13" s="39"/>
-      <c r="X13" s="39"/>
-      <c r="Y13" s="39"/>
-      <c r="Z13" s="39"/>
-      <c r="AA13" s="39"/>
-      <c r="AB13" s="40"/>
-      <c r="AC13" s="38" t="s">
+      <c r="V13" s="38"/>
+      <c r="W13" s="38"/>
+      <c r="X13" s="38"/>
+      <c r="Y13" s="38"/>
+      <c r="Z13" s="38"/>
+      <c r="AA13" s="38"/>
+      <c r="AB13" s="39"/>
+      <c r="AC13" s="37" t="s">
         <v>88</v>
       </c>
-      <c r="AD13" s="39"/>
-      <c r="AE13" s="39"/>
-      <c r="AF13" s="39"/>
-      <c r="AG13" s="39"/>
-      <c r="AH13" s="39"/>
-      <c r="AI13" s="39"/>
-      <c r="AJ13" s="40"/>
-      <c r="AK13" s="42" t="s">
+      <c r="AD13" s="38"/>
+      <c r="AE13" s="38"/>
+      <c r="AF13" s="38"/>
+      <c r="AG13" s="38"/>
+      <c r="AH13" s="38"/>
+      <c r="AI13" s="38"/>
+      <c r="AJ13" s="39"/>
+      <c r="AK13" s="46" t="s">
         <v>63</v>
       </c>
-      <c r="AL13" s="32" t="s">
+      <c r="AL13" s="41" t="s">
         <v>62</v>
       </c>
-      <c r="AM13" s="32" t="s">
+      <c r="AM13" s="41" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="14" spans="3:39" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C14" s="33" t="s">
+      <c r="C14" s="36" t="s">
         <v>111</v>
       </c>
-      <c r="D14" s="33"/>
+      <c r="D14" s="36"/>
       <c r="E14" s="14" t="s">
         <v>93</v>
       </c>
@@ -8252,67 +8395,67 @@
       <c r="AJ14" s="14" t="s">
         <v>90</v>
       </c>
-      <c r="AK14" s="43"/>
-      <c r="AL14" s="32"/>
-      <c r="AM14" s="32"/>
+      <c r="AK14" s="47"/>
+      <c r="AL14" s="41"/>
+      <c r="AM14" s="41"/>
     </row>
     <row r="15" spans="3:39" ht="95.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C15" s="41" t="s">
+      <c r="C15" s="40" t="s">
         <v>76</v>
       </c>
-      <c r="D15" s="41" t="s">
+      <c r="D15" s="40" t="s">
         <v>78</v>
       </c>
-      <c r="E15" s="24" t="s">
+      <c r="E15" s="35" t="s">
         <v>24</v>
       </c>
-      <c r="F15" s="24"/>
-      <c r="G15" s="24"/>
-      <c r="H15" s="24"/>
-      <c r="I15" s="28" t="s">
+      <c r="F15" s="35"/>
+      <c r="G15" s="35"/>
+      <c r="H15" s="35"/>
+      <c r="I15" s="31" t="s">
         <v>16</v>
       </c>
-      <c r="J15" s="25"/>
-      <c r="K15" s="29" t="s">
+      <c r="J15" s="28"/>
+      <c r="K15" s="32" t="s">
         <v>142</v>
       </c>
-      <c r="L15" s="31"/>
-      <c r="M15" s="29" t="s">
+      <c r="L15" s="34"/>
+      <c r="M15" s="32" t="s">
         <v>16</v>
       </c>
-      <c r="N15" s="30"/>
-      <c r="O15" s="30"/>
-      <c r="P15" s="31"/>
-      <c r="Q15" s="25" t="s">
+      <c r="N15" s="33"/>
+      <c r="O15" s="33"/>
+      <c r="P15" s="34"/>
+      <c r="Q15" s="28" t="s">
         <v>50</v>
       </c>
-      <c r="R15" s="25"/>
-      <c r="S15" s="25"/>
-      <c r="T15" s="25"/>
-      <c r="U15" s="26" t="s">
+      <c r="R15" s="28"/>
+      <c r="S15" s="28"/>
+      <c r="T15" s="28"/>
+      <c r="U15" s="29" t="s">
         <v>16</v>
       </c>
-      <c r="V15" s="27"/>
-      <c r="W15" s="27"/>
-      <c r="X15" s="27"/>
-      <c r="Y15" s="27"/>
-      <c r="Z15" s="28"/>
+      <c r="V15" s="30"/>
+      <c r="W15" s="30"/>
+      <c r="X15" s="30"/>
+      <c r="Y15" s="30"/>
+      <c r="Z15" s="31"/>
       <c r="AA15" s="19" t="s">
         <v>19</v>
       </c>
       <c r="AB15" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="AC15" s="26" t="s">
+      <c r="AC15" s="29" t="s">
         <v>16</v>
       </c>
-      <c r="AD15" s="27"/>
-      <c r="AE15" s="27"/>
-      <c r="AF15" s="27"/>
-      <c r="AG15" s="27"/>
-      <c r="AH15" s="27"/>
-      <c r="AI15" s="27"/>
-      <c r="AJ15" s="28"/>
+      <c r="AD15" s="30"/>
+      <c r="AE15" s="30"/>
+      <c r="AF15" s="30"/>
+      <c r="AG15" s="30"/>
+      <c r="AH15" s="30"/>
+      <c r="AI15" s="30"/>
+      <c r="AJ15" s="31"/>
       <c r="AK15" s="17" t="s">
         <v>149</v>
       </c>
@@ -8324,48 +8467,48 @@
       </c>
     </row>
     <row r="16" spans="3:39" ht="95.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C16" s="41"/>
-      <c r="D16" s="41"/>
-      <c r="E16" s="24"/>
-      <c r="F16" s="24"/>
-      <c r="G16" s="24"/>
-      <c r="H16" s="24"/>
-      <c r="I16" s="30" t="s">
+      <c r="C16" s="40"/>
+      <c r="D16" s="40"/>
+      <c r="E16" s="35"/>
+      <c r="F16" s="35"/>
+      <c r="G16" s="35"/>
+      <c r="H16" s="35"/>
+      <c r="I16" s="33" t="s">
         <v>16</v>
       </c>
-      <c r="J16" s="30"/>
-      <c r="K16" s="30"/>
-      <c r="L16" s="31"/>
-      <c r="M16" s="29" t="s">
+      <c r="J16" s="33"/>
+      <c r="K16" s="33"/>
+      <c r="L16" s="34"/>
+      <c r="M16" s="32" t="s">
         <v>16</v>
       </c>
-      <c r="N16" s="30"/>
-      <c r="O16" s="30"/>
-      <c r="P16" s="31"/>
-      <c r="Q16" s="25" t="s">
+      <c r="N16" s="33"/>
+      <c r="O16" s="33"/>
+      <c r="P16" s="34"/>
+      <c r="Q16" s="28" t="s">
         <v>52</v>
       </c>
-      <c r="R16" s="25"/>
-      <c r="S16" s="25"/>
-      <c r="T16" s="25"/>
-      <c r="U16" s="26" t="s">
+      <c r="R16" s="28"/>
+      <c r="S16" s="28"/>
+      <c r="T16" s="28"/>
+      <c r="U16" s="29" t="s">
         <v>16</v>
       </c>
-      <c r="V16" s="27"/>
-      <c r="W16" s="27"/>
-      <c r="X16" s="27"/>
-      <c r="Y16" s="27"/>
-      <c r="Z16" s="27"/>
-      <c r="AA16" s="27"/>
-      <c r="AB16" s="27"/>
-      <c r="AC16" s="27"/>
-      <c r="AD16" s="27"/>
-      <c r="AE16" s="27"/>
-      <c r="AF16" s="27"/>
-      <c r="AG16" s="27"/>
-      <c r="AH16" s="27"/>
-      <c r="AI16" s="27"/>
-      <c r="AJ16" s="28"/>
+      <c r="V16" s="30"/>
+      <c r="W16" s="30"/>
+      <c r="X16" s="30"/>
+      <c r="Y16" s="30"/>
+      <c r="Z16" s="30"/>
+      <c r="AA16" s="30"/>
+      <c r="AB16" s="30"/>
+      <c r="AC16" s="30"/>
+      <c r="AD16" s="30"/>
+      <c r="AE16" s="30"/>
+      <c r="AF16" s="30"/>
+      <c r="AG16" s="30"/>
+      <c r="AH16" s="30"/>
+      <c r="AI16" s="30"/>
+      <c r="AJ16" s="31"/>
       <c r="AK16" s="17" t="s">
         <v>67</v>
       </c>
@@ -8377,50 +8520,50 @@
       </c>
     </row>
     <row r="17" spans="3:39" ht="95.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C17" s="41"/>
-      <c r="D17" s="41"/>
-      <c r="E17" s="24"/>
-      <c r="F17" s="24"/>
-      <c r="G17" s="24"/>
-      <c r="H17" s="24"/>
-      <c r="I17" s="30" t="s">
+      <c r="C17" s="40"/>
+      <c r="D17" s="40"/>
+      <c r="E17" s="35"/>
+      <c r="F17" s="35"/>
+      <c r="G17" s="35"/>
+      <c r="H17" s="35"/>
+      <c r="I17" s="33" t="s">
         <v>16</v>
       </c>
-      <c r="J17" s="30"/>
-      <c r="K17" s="30"/>
-      <c r="L17" s="31"/>
-      <c r="M17" s="29" t="s">
+      <c r="J17" s="33"/>
+      <c r="K17" s="33"/>
+      <c r="L17" s="34"/>
+      <c r="M17" s="32" t="s">
         <v>16</v>
       </c>
-      <c r="N17" s="30"/>
-      <c r="O17" s="30"/>
-      <c r="P17" s="31"/>
-      <c r="Q17" s="25" t="s">
+      <c r="N17" s="33"/>
+      <c r="O17" s="33"/>
+      <c r="P17" s="34"/>
+      <c r="Q17" s="28" t="s">
         <v>53</v>
       </c>
-      <c r="R17" s="25"/>
-      <c r="S17" s="25"/>
-      <c r="T17" s="25"/>
-      <c r="U17" s="26" t="s">
+      <c r="R17" s="28"/>
+      <c r="S17" s="28"/>
+      <c r="T17" s="28"/>
+      <c r="U17" s="29" t="s">
         <v>16</v>
       </c>
-      <c r="V17" s="27"/>
-      <c r="W17" s="27"/>
-      <c r="X17" s="27"/>
-      <c r="Y17" s="27"/>
-      <c r="Z17" s="27"/>
-      <c r="AA17" s="27"/>
-      <c r="AB17" s="27"/>
-      <c r="AC17" s="27"/>
-      <c r="AD17" s="27"/>
-      <c r="AE17" s="27"/>
-      <c r="AF17" s="28"/>
-      <c r="AG17" s="26" t="s">
+      <c r="V17" s="30"/>
+      <c r="W17" s="30"/>
+      <c r="X17" s="30"/>
+      <c r="Y17" s="30"/>
+      <c r="Z17" s="30"/>
+      <c r="AA17" s="30"/>
+      <c r="AB17" s="30"/>
+      <c r="AC17" s="30"/>
+      <c r="AD17" s="30"/>
+      <c r="AE17" s="30"/>
+      <c r="AF17" s="31"/>
+      <c r="AG17" s="29" t="s">
         <v>24</v>
       </c>
-      <c r="AH17" s="27"/>
-      <c r="AI17" s="27"/>
-      <c r="AJ17" s="28"/>
+      <c r="AH17" s="30"/>
+      <c r="AI17" s="30"/>
+      <c r="AJ17" s="31"/>
       <c r="AK17" s="17" t="s">
         <v>68</v>
       </c>
@@ -8432,56 +8575,56 @@
       </c>
     </row>
     <row r="18" spans="3:39" ht="95.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C18" s="41"/>
-      <c r="D18" s="41"/>
-      <c r="E18" s="24"/>
-      <c r="F18" s="24"/>
-      <c r="G18" s="24"/>
-      <c r="H18" s="24"/>
-      <c r="I18" s="28" t="s">
+      <c r="C18" s="40"/>
+      <c r="D18" s="40"/>
+      <c r="E18" s="35"/>
+      <c r="F18" s="35"/>
+      <c r="G18" s="35"/>
+      <c r="H18" s="35"/>
+      <c r="I18" s="31" t="s">
         <v>16</v>
       </c>
-      <c r="J18" s="25"/>
-      <c r="K18" s="29" t="s">
+      <c r="J18" s="28"/>
+      <c r="K18" s="32" t="s">
         <v>142</v>
       </c>
-      <c r="L18" s="31"/>
-      <c r="M18" s="24" t="s">
+      <c r="L18" s="34"/>
+      <c r="M18" s="35" t="s">
         <v>143</v>
       </c>
-      <c r="N18" s="24"/>
-      <c r="O18" s="24"/>
-      <c r="P18" s="24"/>
-      <c r="Q18" s="25" t="s">
+      <c r="N18" s="35"/>
+      <c r="O18" s="35"/>
+      <c r="P18" s="35"/>
+      <c r="Q18" s="28" t="s">
         <v>129</v>
       </c>
-      <c r="R18" s="25"/>
-      <c r="S18" s="25"/>
-      <c r="T18" s="25"/>
-      <c r="U18" s="26" t="s">
+      <c r="R18" s="28"/>
+      <c r="S18" s="28"/>
+      <c r="T18" s="28"/>
+      <c r="U18" s="29" t="s">
         <v>16</v>
       </c>
-      <c r="V18" s="27"/>
-      <c r="W18" s="27"/>
-      <c r="X18" s="27"/>
-      <c r="Y18" s="27"/>
-      <c r="Z18" s="27"/>
-      <c r="AA18" s="28"/>
+      <c r="V18" s="30"/>
+      <c r="W18" s="30"/>
+      <c r="X18" s="30"/>
+      <c r="Y18" s="30"/>
+      <c r="Z18" s="30"/>
+      <c r="AA18" s="31"/>
       <c r="AB18" s="18" t="s">
         <v>146</v>
       </c>
-      <c r="AC18" s="25" t="s">
+      <c r="AC18" s="28" t="s">
         <v>16</v>
       </c>
-      <c r="AD18" s="25"/>
-      <c r="AE18" s="26" t="s">
+      <c r="AD18" s="28"/>
+      <c r="AE18" s="29" t="s">
         <v>58</v>
       </c>
-      <c r="AF18" s="27"/>
-      <c r="AG18" s="27"/>
-      <c r="AH18" s="27"/>
-      <c r="AI18" s="27"/>
-      <c r="AJ18" s="28"/>
+      <c r="AF18" s="30"/>
+      <c r="AG18" s="30"/>
+      <c r="AH18" s="30"/>
+      <c r="AI18" s="30"/>
+      <c r="AJ18" s="31"/>
       <c r="AK18" s="17" t="s">
         <v>145</v>
       </c>
@@ -8493,56 +8636,56 @@
       </c>
     </row>
     <row r="19" spans="3:39" ht="95.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C19" s="41"/>
-      <c r="D19" s="41"/>
-      <c r="E19" s="24"/>
-      <c r="F19" s="24"/>
-      <c r="G19" s="24"/>
-      <c r="H19" s="24"/>
-      <c r="I19" s="28" t="s">
+      <c r="C19" s="40"/>
+      <c r="D19" s="40"/>
+      <c r="E19" s="35"/>
+      <c r="F19" s="35"/>
+      <c r="G19" s="35"/>
+      <c r="H19" s="35"/>
+      <c r="I19" s="31" t="s">
         <v>16</v>
       </c>
-      <c r="J19" s="25"/>
-      <c r="K19" s="29" t="s">
+      <c r="J19" s="28"/>
+      <c r="K19" s="32" t="s">
         <v>142</v>
       </c>
-      <c r="L19" s="31"/>
+      <c r="L19" s="34"/>
       <c r="M19" s="22" t="s">
         <v>16</v>
       </c>
-      <c r="N19" s="29" t="s">
+      <c r="N19" s="32" t="s">
         <v>160</v>
       </c>
-      <c r="O19" s="30"/>
-      <c r="P19" s="31"/>
-      <c r="Q19" s="25" t="s">
+      <c r="O19" s="33"/>
+      <c r="P19" s="34"/>
+      <c r="Q19" s="28" t="s">
         <v>161</v>
       </c>
-      <c r="R19" s="25"/>
-      <c r="S19" s="25"/>
-      <c r="T19" s="25"/>
-      <c r="U19" s="26" t="s">
+      <c r="R19" s="28"/>
+      <c r="S19" s="28"/>
+      <c r="T19" s="28"/>
+      <c r="U19" s="29" t="s">
         <v>16</v>
       </c>
-      <c r="V19" s="27"/>
-      <c r="W19" s="27"/>
-      <c r="X19" s="27"/>
-      <c r="Y19" s="27"/>
-      <c r="Z19" s="27"/>
-      <c r="AA19" s="28"/>
+      <c r="V19" s="30"/>
+      <c r="W19" s="30"/>
+      <c r="X19" s="30"/>
+      <c r="Y19" s="30"/>
+      <c r="Z19" s="30"/>
+      <c r="AA19" s="31"/>
       <c r="AB19" s="21" t="s">
         <v>162</v>
       </c>
-      <c r="AC19" s="25" t="s">
+      <c r="AC19" s="28" t="s">
         <v>16</v>
       </c>
-      <c r="AD19" s="25"/>
-      <c r="AE19" s="25"/>
-      <c r="AF19" s="25"/>
-      <c r="AG19" s="25"/>
-      <c r="AH19" s="25"/>
-      <c r="AI19" s="25"/>
-      <c r="AJ19" s="44" t="s">
+      <c r="AD19" s="28"/>
+      <c r="AE19" s="28"/>
+      <c r="AF19" s="28"/>
+      <c r="AG19" s="28"/>
+      <c r="AH19" s="28"/>
+      <c r="AI19" s="28"/>
+      <c r="AJ19" s="27" t="s">
         <v>163</v>
       </c>
       <c r="AK19" s="17" t="s">
@@ -8557,11 +8700,23 @@
     </row>
   </sheetData>
   <mergeCells count="39">
-    <mergeCell ref="Q19:T19"/>
-    <mergeCell ref="U19:AA19"/>
-    <mergeCell ref="N19:P19"/>
-    <mergeCell ref="AC19:AI19"/>
-    <mergeCell ref="U15:Z15"/>
+    <mergeCell ref="I17:L17"/>
+    <mergeCell ref="I15:J15"/>
+    <mergeCell ref="K15:L15"/>
+    <mergeCell ref="M15:P15"/>
+    <mergeCell ref="C15:C19"/>
+    <mergeCell ref="D15:D19"/>
+    <mergeCell ref="E15:H19"/>
+    <mergeCell ref="I19:J19"/>
+    <mergeCell ref="K19:L19"/>
+    <mergeCell ref="AK13:AK14"/>
+    <mergeCell ref="AL13:AL14"/>
+    <mergeCell ref="AM13:AM14"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="E13:L13"/>
+    <mergeCell ref="M13:T13"/>
+    <mergeCell ref="U13:AB13"/>
+    <mergeCell ref="AC13:AJ13"/>
     <mergeCell ref="I18:J18"/>
     <mergeCell ref="K18:L18"/>
     <mergeCell ref="U17:AF17"/>
@@ -8576,26 +8731,523 @@
     <mergeCell ref="M16:P16"/>
     <mergeCell ref="U16:AJ16"/>
     <mergeCell ref="M18:P18"/>
-    <mergeCell ref="AK13:AK14"/>
-    <mergeCell ref="AL13:AL14"/>
+    <mergeCell ref="Q15:T15"/>
+    <mergeCell ref="Q17:T17"/>
+    <mergeCell ref="Q19:T19"/>
+    <mergeCell ref="U19:AA19"/>
+    <mergeCell ref="N19:P19"/>
+    <mergeCell ref="AC19:AI19"/>
+    <mergeCell ref="U15:Z15"/>
+    <mergeCell ref="Q18:T18"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3BAD3137-82BD-4015-B837-4D20CB3243AA}">
+  <dimension ref="C13:AM19"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="S6" sqref="S6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="2" width="7" customWidth="1"/>
+    <col min="5" max="36" width="6.75" customWidth="1"/>
+    <col min="37" max="37" width="15" customWidth="1"/>
+    <col min="38" max="38" width="36.5" customWidth="1"/>
+    <col min="39" max="39" width="58.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="13" spans="3:39" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C13" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="E13" s="37" t="s">
+        <v>79</v>
+      </c>
+      <c r="F13" s="38"/>
+      <c r="G13" s="38"/>
+      <c r="H13" s="38"/>
+      <c r="I13" s="38"/>
+      <c r="J13" s="38"/>
+      <c r="K13" s="38"/>
+      <c r="L13" s="39"/>
+      <c r="M13" s="37" t="s">
+        <v>80</v>
+      </c>
+      <c r="N13" s="38" t="s">
+        <v>81</v>
+      </c>
+      <c r="O13" s="38" t="s">
+        <v>82</v>
+      </c>
+      <c r="P13" s="38"/>
+      <c r="Q13" s="38"/>
+      <c r="R13" s="38"/>
+      <c r="S13" s="38"/>
+      <c r="T13" s="39"/>
+      <c r="U13" s="37" t="s">
+        <v>87</v>
+      </c>
+      <c r="V13" s="38"/>
+      <c r="W13" s="38"/>
+      <c r="X13" s="38"/>
+      <c r="Y13" s="38"/>
+      <c r="Z13" s="38"/>
+      <c r="AA13" s="38"/>
+      <c r="AB13" s="39"/>
+      <c r="AC13" s="37" t="s">
+        <v>88</v>
+      </c>
+      <c r="AD13" s="38"/>
+      <c r="AE13" s="38"/>
+      <c r="AF13" s="38"/>
+      <c r="AG13" s="38"/>
+      <c r="AH13" s="38"/>
+      <c r="AI13" s="38"/>
+      <c r="AJ13" s="39"/>
+      <c r="AK13" s="46" t="s">
+        <v>63</v>
+      </c>
+      <c r="AL13" s="41" t="s">
+        <v>62</v>
+      </c>
+      <c r="AM13" s="41" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="14" spans="3:39" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C14" s="36" t="s">
+        <v>111</v>
+      </c>
+      <c r="D14" s="36"/>
+      <c r="E14" s="26" t="s">
+        <v>93</v>
+      </c>
+      <c r="F14" s="26" t="s">
+        <v>94</v>
+      </c>
+      <c r="G14" s="26" t="s">
+        <v>95</v>
+      </c>
+      <c r="H14" s="26" t="s">
+        <v>96</v>
+      </c>
+      <c r="I14" s="26" t="s">
+        <v>97</v>
+      </c>
+      <c r="J14" s="26" t="s">
+        <v>98</v>
+      </c>
+      <c r="K14" s="26" t="s">
+        <v>99</v>
+      </c>
+      <c r="L14" s="26" t="s">
+        <v>100</v>
+      </c>
+      <c r="M14" s="26" t="s">
+        <v>101</v>
+      </c>
+      <c r="N14" s="26" t="s">
+        <v>102</v>
+      </c>
+      <c r="O14" s="26" t="s">
+        <v>103</v>
+      </c>
+      <c r="P14" s="26" t="s">
+        <v>104</v>
+      </c>
+      <c r="Q14" s="26" t="s">
+        <v>105</v>
+      </c>
+      <c r="R14" s="26" t="s">
+        <v>106</v>
+      </c>
+      <c r="S14" s="26" t="s">
+        <v>107</v>
+      </c>
+      <c r="T14" s="26" t="s">
+        <v>108</v>
+      </c>
+      <c r="U14" s="26" t="s">
+        <v>109</v>
+      </c>
+      <c r="V14" s="26" t="s">
+        <v>110</v>
+      </c>
+      <c r="W14" s="26" t="s">
+        <v>2</v>
+      </c>
+      <c r="X14" s="26" t="s">
+        <v>3</v>
+      </c>
+      <c r="Y14" s="26" t="s">
+        <v>4</v>
+      </c>
+      <c r="Z14" s="26" t="s">
+        <v>5</v>
+      </c>
+      <c r="AA14" s="26" t="s">
+        <v>6</v>
+      </c>
+      <c r="AB14" s="26" t="s">
+        <v>7</v>
+      </c>
+      <c r="AC14" s="26" t="s">
+        <v>8</v>
+      </c>
+      <c r="AD14" s="26" t="s">
+        <v>9</v>
+      </c>
+      <c r="AE14" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="AF14" s="26" t="s">
+        <v>11</v>
+      </c>
+      <c r="AG14" s="26" t="s">
+        <v>12</v>
+      </c>
+      <c r="AH14" s="26" t="s">
+        <v>92</v>
+      </c>
+      <c r="AI14" s="26" t="s">
+        <v>91</v>
+      </c>
+      <c r="AJ14" s="26" t="s">
+        <v>90</v>
+      </c>
+      <c r="AK14" s="47"/>
+      <c r="AL14" s="41"/>
+      <c r="AM14" s="41"/>
+    </row>
+    <row r="15" spans="3:39" ht="95.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C15" s="40" t="s">
+        <v>76</v>
+      </c>
+      <c r="D15" s="40" t="s">
+        <v>78</v>
+      </c>
+      <c r="E15" s="48" t="s">
+        <v>24</v>
+      </c>
+      <c r="F15" s="49"/>
+      <c r="G15" s="49"/>
+      <c r="H15" s="49"/>
+      <c r="I15" s="49"/>
+      <c r="J15" s="49"/>
+      <c r="K15" s="49"/>
+      <c r="L15" s="50"/>
+      <c r="M15" s="32" t="s">
+        <v>16</v>
+      </c>
+      <c r="N15" s="33"/>
+      <c r="O15" s="33"/>
+      <c r="P15" s="34"/>
+      <c r="Q15" s="28" t="s">
+        <v>50</v>
+      </c>
+      <c r="R15" s="28"/>
+      <c r="S15" s="28"/>
+      <c r="T15" s="28"/>
+      <c r="U15" s="29" t="s">
+        <v>16</v>
+      </c>
+      <c r="V15" s="30"/>
+      <c r="W15" s="30"/>
+      <c r="X15" s="30"/>
+      <c r="Y15" s="30"/>
+      <c r="Z15" s="31"/>
+      <c r="AA15" s="24" t="s">
+        <v>19</v>
+      </c>
+      <c r="AB15" s="24" t="s">
+        <v>20</v>
+      </c>
+      <c r="AC15" s="29" t="s">
+        <v>16</v>
+      </c>
+      <c r="AD15" s="30"/>
+      <c r="AE15" s="30"/>
+      <c r="AF15" s="30"/>
+      <c r="AG15" s="30"/>
+      <c r="AH15" s="30"/>
+      <c r="AI15" s="30"/>
+      <c r="AJ15" s="31"/>
+      <c r="AK15" s="17" t="s">
+        <v>149</v>
+      </c>
+      <c r="AL15" s="16" t="s">
+        <v>174</v>
+      </c>
+      <c r="AM15" s="16" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="16" spans="3:39" ht="95.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C16" s="40"/>
+      <c r="D16" s="40"/>
+      <c r="E16" s="51"/>
+      <c r="F16" s="52"/>
+      <c r="G16" s="52"/>
+      <c r="H16" s="52"/>
+      <c r="I16" s="52"/>
+      <c r="J16" s="52"/>
+      <c r="K16" s="52"/>
+      <c r="L16" s="53"/>
+      <c r="M16" s="32" t="s">
+        <v>16</v>
+      </c>
+      <c r="N16" s="33"/>
+      <c r="O16" s="33"/>
+      <c r="P16" s="34"/>
+      <c r="Q16" s="28" t="s">
+        <v>52</v>
+      </c>
+      <c r="R16" s="28"/>
+      <c r="S16" s="28"/>
+      <c r="T16" s="28"/>
+      <c r="U16" s="29" t="s">
+        <v>16</v>
+      </c>
+      <c r="V16" s="30"/>
+      <c r="W16" s="30"/>
+      <c r="X16" s="30"/>
+      <c r="Y16" s="30"/>
+      <c r="Z16" s="30"/>
+      <c r="AA16" s="30"/>
+      <c r="AB16" s="30"/>
+      <c r="AC16" s="30"/>
+      <c r="AD16" s="30"/>
+      <c r="AE16" s="30"/>
+      <c r="AF16" s="30"/>
+      <c r="AG16" s="30"/>
+      <c r="AH16" s="30"/>
+      <c r="AI16" s="30"/>
+      <c r="AJ16" s="31"/>
+      <c r="AK16" s="17" t="s">
+        <v>67</v>
+      </c>
+      <c r="AL16" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="AM16" s="16" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="17" spans="3:39" ht="95.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C17" s="40"/>
+      <c r="D17" s="40"/>
+      <c r="E17" s="51"/>
+      <c r="F17" s="52"/>
+      <c r="G17" s="52"/>
+      <c r="H17" s="52"/>
+      <c r="I17" s="52"/>
+      <c r="J17" s="52"/>
+      <c r="K17" s="52"/>
+      <c r="L17" s="53"/>
+      <c r="M17" s="32" t="s">
+        <v>16</v>
+      </c>
+      <c r="N17" s="33"/>
+      <c r="O17" s="33"/>
+      <c r="P17" s="34"/>
+      <c r="Q17" s="28" t="s">
+        <v>53</v>
+      </c>
+      <c r="R17" s="28"/>
+      <c r="S17" s="28"/>
+      <c r="T17" s="28"/>
+      <c r="U17" s="29" t="s">
+        <v>16</v>
+      </c>
+      <c r="V17" s="30"/>
+      <c r="W17" s="30"/>
+      <c r="X17" s="30"/>
+      <c r="Y17" s="30"/>
+      <c r="Z17" s="30"/>
+      <c r="AA17" s="30"/>
+      <c r="AB17" s="31"/>
+      <c r="AC17" s="28" t="s">
+        <v>24</v>
+      </c>
+      <c r="AD17" s="28"/>
+      <c r="AE17" s="28"/>
+      <c r="AF17" s="28"/>
+      <c r="AG17" s="28"/>
+      <c r="AH17" s="28"/>
+      <c r="AI17" s="28"/>
+      <c r="AJ17" s="28"/>
+      <c r="AK17" s="17" t="s">
+        <v>68</v>
+      </c>
+      <c r="AL17" s="16" t="s">
+        <v>144</v>
+      </c>
+      <c r="AM17" s="16" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="18" spans="3:39" ht="95.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C18" s="40"/>
+      <c r="D18" s="40"/>
+      <c r="E18" s="51"/>
+      <c r="F18" s="52"/>
+      <c r="G18" s="52"/>
+      <c r="H18" s="52"/>
+      <c r="I18" s="52"/>
+      <c r="J18" s="52"/>
+      <c r="K18" s="52"/>
+      <c r="L18" s="53"/>
+      <c r="M18" s="24" t="s">
+        <v>170</v>
+      </c>
+      <c r="N18" s="32" t="s">
+        <v>143</v>
+      </c>
+      <c r="O18" s="33"/>
+      <c r="P18" s="34"/>
+      <c r="Q18" s="28" t="s">
+        <v>129</v>
+      </c>
+      <c r="R18" s="28"/>
+      <c r="S18" s="28"/>
+      <c r="T18" s="28"/>
+      <c r="U18" s="29" t="s">
+        <v>16</v>
+      </c>
+      <c r="V18" s="30"/>
+      <c r="W18" s="30"/>
+      <c r="X18" s="30"/>
+      <c r="Y18" s="30"/>
+      <c r="Z18" s="30"/>
+      <c r="AA18" s="31"/>
+      <c r="AB18" s="25" t="s">
+        <v>146</v>
+      </c>
+      <c r="AC18" s="28" t="s">
+        <v>16</v>
+      </c>
+      <c r="AD18" s="28"/>
+      <c r="AE18" s="29" t="s">
+        <v>58</v>
+      </c>
+      <c r="AF18" s="30"/>
+      <c r="AG18" s="30"/>
+      <c r="AH18" s="30"/>
+      <c r="AI18" s="30"/>
+      <c r="AJ18" s="31"/>
+      <c r="AK18" s="17" t="s">
+        <v>145</v>
+      </c>
+      <c r="AL18" s="16" t="s">
+        <v>171</v>
+      </c>
+      <c r="AM18" s="16" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="19" spans="3:39" ht="95.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C19" s="40"/>
+      <c r="D19" s="40"/>
+      <c r="E19" s="54"/>
+      <c r="F19" s="55"/>
+      <c r="G19" s="55"/>
+      <c r="H19" s="55"/>
+      <c r="I19" s="55"/>
+      <c r="J19" s="55"/>
+      <c r="K19" s="55"/>
+      <c r="L19" s="56"/>
+      <c r="M19" s="35" t="s">
+        <v>16</v>
+      </c>
+      <c r="N19" s="35"/>
+      <c r="O19" s="33" t="s">
+        <v>169</v>
+      </c>
+      <c r="P19" s="34"/>
+      <c r="Q19" s="28" t="s">
+        <v>161</v>
+      </c>
+      <c r="R19" s="28"/>
+      <c r="S19" s="28"/>
+      <c r="T19" s="28"/>
+      <c r="U19" s="29" t="s">
+        <v>16</v>
+      </c>
+      <c r="V19" s="30"/>
+      <c r="W19" s="30"/>
+      <c r="X19" s="30"/>
+      <c r="Y19" s="30"/>
+      <c r="Z19" s="30"/>
+      <c r="AA19" s="31"/>
+      <c r="AB19" s="25" t="s">
+        <v>162</v>
+      </c>
+      <c r="AC19" s="28" t="s">
+        <v>16</v>
+      </c>
+      <c r="AD19" s="28"/>
+      <c r="AE19" s="28"/>
+      <c r="AF19" s="28"/>
+      <c r="AG19" s="28"/>
+      <c r="AH19" s="28"/>
+      <c r="AI19" s="28"/>
+      <c r="AJ19" s="27" t="s">
+        <v>163</v>
+      </c>
+      <c r="AK19" s="17" t="s">
+        <v>164</v>
+      </c>
+      <c r="AL19" s="16" t="s">
+        <v>165</v>
+      </c>
+      <c r="AM19" s="16" t="s">
+        <v>172</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="32">
+    <mergeCell ref="M19:N19"/>
+    <mergeCell ref="AC17:AJ17"/>
+    <mergeCell ref="U17:AB17"/>
+    <mergeCell ref="AE18:AJ18"/>
+    <mergeCell ref="Q19:T19"/>
+    <mergeCell ref="U19:AA19"/>
+    <mergeCell ref="AC19:AI19"/>
+    <mergeCell ref="E15:L19"/>
+    <mergeCell ref="N18:P18"/>
+    <mergeCell ref="O19:P19"/>
+    <mergeCell ref="Q18:T18"/>
+    <mergeCell ref="U18:AA18"/>
+    <mergeCell ref="AC18:AD18"/>
+    <mergeCell ref="AC15:AJ15"/>
+    <mergeCell ref="M16:P16"/>
+    <mergeCell ref="Q16:T16"/>
+    <mergeCell ref="U16:AJ16"/>
+    <mergeCell ref="M17:P17"/>
+    <mergeCell ref="Q17:T17"/>
     <mergeCell ref="AM13:AM14"/>
     <mergeCell ref="C14:D14"/>
+    <mergeCell ref="C15:C19"/>
+    <mergeCell ref="D15:D19"/>
+    <mergeCell ref="M15:P15"/>
+    <mergeCell ref="Q15:T15"/>
+    <mergeCell ref="U15:Z15"/>
     <mergeCell ref="E13:L13"/>
     <mergeCell ref="M13:T13"/>
     <mergeCell ref="U13:AB13"/>
     <mergeCell ref="AC13:AJ13"/>
-    <mergeCell ref="Q15:T15"/>
-    <mergeCell ref="Q17:T17"/>
-    <mergeCell ref="Q18:T18"/>
-    <mergeCell ref="I17:L17"/>
-    <mergeCell ref="I15:J15"/>
-    <mergeCell ref="K15:L15"/>
-    <mergeCell ref="M15:P15"/>
-    <mergeCell ref="C15:C19"/>
-    <mergeCell ref="D15:D19"/>
-    <mergeCell ref="E15:H19"/>
-    <mergeCell ref="I19:J19"/>
-    <mergeCell ref="K19:L19"/>
+    <mergeCell ref="AK13:AK14"/>
+    <mergeCell ref="AL13:AL14"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/eMIMO阵面数据帧格式.xlsx
+++ b/eMIMO阵面数据帧格式.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\202409_eMIMO\Software\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F968CEB-E0AD-4C39-9314-840D67089D36}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8101FBC0-31F1-4F6A-BFB5-E3E8F8F12D48}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-57600" yWindow="0" windowWidth="57780" windowHeight="32400" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-49860" yWindow="4365" windowWidth="48315" windowHeight="25080" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sub Array SPI 32bits Data Frame" sheetId="1" r:id="rId1"/>
@@ -567,14 +567,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>选择2个RF_Bank中的通道衰减器，将6位衰减码字att写入到衰减器中。如果ALL_DSA=1，则att会被写入到所选RF_Bank的全部衰减器中（1个RF_Bank有16个通道衰减器），无论DSA_ID的值。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>UE板的编号，当前只有1个UE板，该字段默认为0不变。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>RF_Bank射频开关</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -644,14 +636,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>DSA_ID表示通道衰减器的编号，1个UE板上一共有32个DSA，每个RF_Bank有1T1R两个8通道，每个通道有1片DSA单独控制衰减。DSA_ID取值范围为0至15。其中编号0至7用于TX，编号8至15用于RX，每个DSA的控制字都是6位。ALL_DSA=1表示选中指定Bank_ID的全部DSA。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>LNA_ID表示LNA的编号。LNA_ID取值范围为0至7。ALL_LNA=1表示选中指定Bank_ID的全部LNA，只有ALL_LNA=0时，LNA_ID才有意义。Bypass=1表示开启LNA旁路。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>选择2个RF Bank，控制其中一个或全部的TR方向或工作状态。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -662,23 +646,41 @@
     <t>\</t>
   </si>
   <si>
-    <t>选择一个或全部通道衰减器，将6位衰减码字att写入到衰减器中。如果ALL_DSA=1，则att会被写入全部衰减器中（4通道UE板有4T4R共8个通道衰减器），无论DSA_ID的值。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>LNA_ID表示LNA的编号。LNA_ID取值范围为0至3。ALL_LNA=1表示选中全部LNA，只有ALL_LNA=0时，LNA_ID才有意义。Bypass=1表示开启LNA旁路。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>DSA_ID表示通道衰减器的编号，1个UE板上一共有4T4R共8个DSA，每个通道有1片DSA单独控制衰减。DSA_ID取值范围为0至7。其中编号0至3用于TX，编号4至7用于RX，每个DSA的控制字都是6位。ALL_DSA=1表示选中全部DSA。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>控制4个通道的工作状态为TX，RX或关闭状态。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>TX=1且RX=0时为发射打开；TX=0且RX=1时为接收打开；TX与RX同时为1或0则为关闭。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Board_ID表示UE板的编号，如果多个UE板并没有使用同一个串口同时控制，那么该字段为0即可，不需要通过该指令进行设置，因为每个UE板上电后会重置自己的8-bit Board_ID=0。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DSA_ID表示RF_Bank中通道衰减器的编号，每个RF_Bank有1T1R两个8通道，每个通道有1片DSA单独控制衰减。DSA_ID取值范围为0至15。其中编号0至7用于TX，编号8至15用于RX，每个DSA的控制字都是6位。
+ALL_DSA=3表示选中指定Bank的全部DSA，ALL_DSA=2表示选中指定Bank中的TX DSA，ALL_DSA=1表示选中指定Bank中的RX DSA，只有ALL_DSA=0时，才按照DSA_ID字段的值选定对应Bank中的某个DSA。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>选择2个RF_Bank中的通道衰减器，将6位衰减码字att写入到衰减器中。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LNA_ID表示LNA的编号。LNA_ID取值范围为0至7。ALL_LNA=1表示选中指定Bank_ID的全部LNA，只有ALL_LNA=0时，LNA_ID的值才是有效的。Bypass=1表示开启LNA旁路。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DSA_ID表示通道衰减器的编号，1个UE板上一共有4T4R共8个DSA，每个通道有1片DSA单独控制衰减。DSA_ID取值范围为0至7。其中编号0至3用于TX，编号4至7用于RX，每个DSA的控制字都是6位。ALL_DSA=1表示选中全部DSA。
+ALL_DSA=3表示选中指定Bank的全部DSA，ALL_DSA=2表示选中指定Bank中的TX DSA，ALL_DSA=1表示选中指定Bank中的RX DSA，只有ALL_DSA=0时，才按照DSA_ID字段的值选定对应Bank中的某个DSA。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>选择一个或全部通道衰减器，将6位衰减码字att写入到衰减器中。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -972,7 +974,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="57">
+  <cellXfs count="56">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
@@ -1026,9 +1028,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1079,9 +1078,6 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="8" xfId="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1091,10 +1087,16 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="8" xfId="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="9" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1104,9 +1106,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="9" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -6388,53 +6387,53 @@
       </c>
     </row>
     <row r="18" spans="4:39" ht="63" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D18" s="35" t="s">
+      <c r="D18" s="34" t="s">
         <v>25</v>
       </c>
-      <c r="E18" s="35" t="s">
+      <c r="E18" s="34" t="s">
         <v>44</v>
       </c>
-      <c r="F18" s="35"/>
-      <c r="G18" s="35"/>
-      <c r="H18" s="35"/>
-      <c r="I18" s="35" t="s">
+      <c r="F18" s="34"/>
+      <c r="G18" s="34"/>
+      <c r="H18" s="34"/>
+      <c r="I18" s="34" t="s">
         <v>24</v>
       </c>
-      <c r="J18" s="35"/>
-      <c r="K18" s="35"/>
-      <c r="L18" s="35"/>
-      <c r="M18" s="32" t="s">
+      <c r="J18" s="34"/>
+      <c r="K18" s="34"/>
+      <c r="L18" s="34"/>
+      <c r="M18" s="31" t="s">
         <v>16</v>
       </c>
-      <c r="N18" s="33"/>
-      <c r="O18" s="33"/>
-      <c r="P18" s="34"/>
-      <c r="Q18" s="28" t="s">
+      <c r="N18" s="32"/>
+      <c r="O18" s="32"/>
+      <c r="P18" s="33"/>
+      <c r="Q18" s="27" t="s">
         <v>46</v>
       </c>
-      <c r="R18" s="28"/>
-      <c r="S18" s="28"/>
-      <c r="T18" s="28"/>
-      <c r="U18" s="28" t="s">
+      <c r="R18" s="27"/>
+      <c r="S18" s="27"/>
+      <c r="T18" s="27"/>
+      <c r="U18" s="27" t="s">
         <v>56</v>
       </c>
-      <c r="V18" s="28"/>
-      <c r="W18" s="28"/>
-      <c r="X18" s="28"/>
-      <c r="Y18" s="28"/>
-      <c r="Z18" s="28"/>
-      <c r="AA18" s="28"/>
-      <c r="AB18" s="28"/>
-      <c r="AC18" s="28" t="s">
+      <c r="V18" s="27"/>
+      <c r="W18" s="27"/>
+      <c r="X18" s="27"/>
+      <c r="Y18" s="27"/>
+      <c r="Z18" s="27"/>
+      <c r="AA18" s="27"/>
+      <c r="AB18" s="27"/>
+      <c r="AC18" s="27" t="s">
         <v>57</v>
       </c>
-      <c r="AD18" s="28"/>
-      <c r="AE18" s="28"/>
-      <c r="AF18" s="28"/>
-      <c r="AG18" s="28"/>
-      <c r="AH18" s="28"/>
-      <c r="AI18" s="28"/>
-      <c r="AJ18" s="28"/>
+      <c r="AD18" s="27"/>
+      <c r="AE18" s="27"/>
+      <c r="AF18" s="27"/>
+      <c r="AG18" s="27"/>
+      <c r="AH18" s="27"/>
+      <c r="AI18" s="27"/>
+      <c r="AJ18" s="27"/>
       <c r="AK18" s="15" t="s">
         <v>64</v>
       </c>
@@ -6446,45 +6445,45 @@
       </c>
     </row>
     <row r="19" spans="4:39" ht="63" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D19" s="35"/>
-      <c r="E19" s="35"/>
-      <c r="F19" s="35"/>
-      <c r="G19" s="35"/>
-      <c r="H19" s="35"/>
-      <c r="I19" s="35"/>
-      <c r="J19" s="35"/>
-      <c r="K19" s="35"/>
-      <c r="L19" s="35"/>
-      <c r="M19" s="32" t="s">
+      <c r="D19" s="34"/>
+      <c r="E19" s="34"/>
+      <c r="F19" s="34"/>
+      <c r="G19" s="34"/>
+      <c r="H19" s="34"/>
+      <c r="I19" s="34"/>
+      <c r="J19" s="34"/>
+      <c r="K19" s="34"/>
+      <c r="L19" s="34"/>
+      <c r="M19" s="31" t="s">
         <v>16</v>
       </c>
-      <c r="N19" s="33"/>
-      <c r="O19" s="33"/>
-      <c r="P19" s="34"/>
-      <c r="Q19" s="28" t="s">
+      <c r="N19" s="32"/>
+      <c r="O19" s="32"/>
+      <c r="P19" s="33"/>
+      <c r="Q19" s="27" t="s">
         <v>47</v>
       </c>
-      <c r="R19" s="28"/>
-      <c r="S19" s="28"/>
-      <c r="T19" s="28"/>
-      <c r="U19" s="28" t="s">
+      <c r="R19" s="27"/>
+      <c r="S19" s="27"/>
+      <c r="T19" s="27"/>
+      <c r="U19" s="27" t="s">
         <v>16</v>
       </c>
-      <c r="V19" s="28"/>
-      <c r="W19" s="28"/>
-      <c r="X19" s="28"/>
-      <c r="Y19" s="28"/>
-      <c r="Z19" s="28"/>
-      <c r="AA19" s="28"/>
-      <c r="AB19" s="28"/>
-      <c r="AC19" s="28"/>
-      <c r="AD19" s="28"/>
-      <c r="AE19" s="28"/>
-      <c r="AF19" s="28"/>
-      <c r="AG19" s="28"/>
-      <c r="AH19" s="28"/>
-      <c r="AI19" s="28"/>
-      <c r="AJ19" s="28"/>
+      <c r="V19" s="27"/>
+      <c r="W19" s="27"/>
+      <c r="X19" s="27"/>
+      <c r="Y19" s="27"/>
+      <c r="Z19" s="27"/>
+      <c r="AA19" s="27"/>
+      <c r="AB19" s="27"/>
+      <c r="AC19" s="27"/>
+      <c r="AD19" s="27"/>
+      <c r="AE19" s="27"/>
+      <c r="AF19" s="27"/>
+      <c r="AG19" s="27"/>
+      <c r="AH19" s="27"/>
+      <c r="AI19" s="27"/>
+      <c r="AJ19" s="27"/>
       <c r="AK19" s="15" t="s">
         <v>65</v>
       </c>
@@ -6496,105 +6495,105 @@
       </c>
     </row>
     <row r="20" spans="4:39" ht="63" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D20" s="35"/>
-      <c r="E20" s="35"/>
-      <c r="F20" s="35"/>
-      <c r="G20" s="35"/>
-      <c r="H20" s="35"/>
-      <c r="I20" s="35"/>
-      <c r="J20" s="35"/>
-      <c r="K20" s="35"/>
-      <c r="L20" s="35"/>
-      <c r="M20" s="35" t="s">
-        <v>153</v>
-      </c>
-      <c r="N20" s="35"/>
-      <c r="O20" s="35"/>
-      <c r="P20" s="35"/>
-      <c r="Q20" s="28" t="s">
+      <c r="D20" s="34"/>
+      <c r="E20" s="34"/>
+      <c r="F20" s="34"/>
+      <c r="G20" s="34"/>
+      <c r="H20" s="34"/>
+      <c r="I20" s="34"/>
+      <c r="J20" s="34"/>
+      <c r="K20" s="34"/>
+      <c r="L20" s="34"/>
+      <c r="M20" s="34" t="s">
+        <v>151</v>
+      </c>
+      <c r="N20" s="34"/>
+      <c r="O20" s="34"/>
+      <c r="P20" s="34"/>
+      <c r="Q20" s="27" t="s">
         <v>48</v>
       </c>
-      <c r="R20" s="28"/>
-      <c r="S20" s="28"/>
-      <c r="T20" s="28"/>
-      <c r="U20" s="29" t="s">
+      <c r="R20" s="27"/>
+      <c r="S20" s="27"/>
+      <c r="T20" s="27"/>
+      <c r="U20" s="28" t="s">
         <v>16</v>
       </c>
-      <c r="V20" s="30"/>
-      <c r="W20" s="30"/>
-      <c r="X20" s="30"/>
-      <c r="Y20" s="30"/>
-      <c r="Z20" s="31"/>
+      <c r="V20" s="29"/>
+      <c r="W20" s="29"/>
+      <c r="X20" s="29"/>
+      <c r="Y20" s="29"/>
+      <c r="Z20" s="30"/>
       <c r="AA20" s="4" t="s">
         <v>18</v>
       </c>
       <c r="AB20" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="AC20" s="28" t="s">
+      <c r="AC20" s="27" t="s">
         <v>59</v>
       </c>
-      <c r="AD20" s="28"/>
-      <c r="AE20" s="28"/>
-      <c r="AF20" s="28"/>
-      <c r="AG20" s="28"/>
-      <c r="AH20" s="28"/>
-      <c r="AI20" s="28"/>
-      <c r="AJ20" s="28"/>
+      <c r="AD20" s="27"/>
+      <c r="AE20" s="27"/>
+      <c r="AF20" s="27"/>
+      <c r="AG20" s="27"/>
+      <c r="AH20" s="27"/>
+      <c r="AI20" s="27"/>
+      <c r="AJ20" s="27"/>
       <c r="AK20" s="15" t="s">
         <v>130</v>
       </c>
       <c r="AL20" s="16" t="s">
+        <v>153</v>
+      </c>
+      <c r="AM20" s="16" t="s">
         <v>155</v>
-      </c>
-      <c r="AM20" s="16" t="s">
-        <v>157</v>
       </c>
     </row>
     <row r="21" spans="4:39" ht="63" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D21" s="35"/>
-      <c r="E21" s="35"/>
-      <c r="F21" s="35"/>
-      <c r="G21" s="35"/>
-      <c r="H21" s="35"/>
-      <c r="I21" s="35"/>
-      <c r="J21" s="35"/>
-      <c r="K21" s="35"/>
-      <c r="L21" s="35"/>
-      <c r="M21" s="35"/>
-      <c r="N21" s="35"/>
-      <c r="O21" s="35"/>
-      <c r="P21" s="35"/>
-      <c r="Q21" s="28" t="s">
+      <c r="D21" s="34"/>
+      <c r="E21" s="34"/>
+      <c r="F21" s="34"/>
+      <c r="G21" s="34"/>
+      <c r="H21" s="34"/>
+      <c r="I21" s="34"/>
+      <c r="J21" s="34"/>
+      <c r="K21" s="34"/>
+      <c r="L21" s="34"/>
+      <c r="M21" s="34"/>
+      <c r="N21" s="34"/>
+      <c r="O21" s="34"/>
+      <c r="P21" s="34"/>
+      <c r="Q21" s="27" t="s">
         <v>49</v>
       </c>
-      <c r="R21" s="28"/>
-      <c r="S21" s="28"/>
-      <c r="T21" s="28"/>
-      <c r="U21" s="32" t="s">
+      <c r="R21" s="27"/>
+      <c r="S21" s="27"/>
+      <c r="T21" s="27"/>
+      <c r="U21" s="31" t="s">
         <v>16</v>
       </c>
-      <c r="V21" s="33"/>
-      <c r="W21" s="33"/>
-      <c r="X21" s="33"/>
-      <c r="Y21" s="33"/>
-      <c r="Z21" s="33"/>
-      <c r="AA21" s="34"/>
+      <c r="V21" s="32"/>
+      <c r="W21" s="32"/>
+      <c r="X21" s="32"/>
+      <c r="Y21" s="32"/>
+      <c r="Z21" s="32"/>
+      <c r="AA21" s="33"/>
       <c r="AB21" s="4" t="s">
         <v>17</v>
       </c>
       <c r="AC21" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="AD21" s="29" t="s">
+      <c r="AD21" s="28" t="s">
         <v>58</v>
       </c>
-      <c r="AE21" s="30"/>
-      <c r="AF21" s="30"/>
-      <c r="AG21" s="30"/>
-      <c r="AH21" s="30"/>
-      <c r="AI21" s="30"/>
-      <c r="AJ21" s="31"/>
+      <c r="AE21" s="29"/>
+      <c r="AF21" s="29"/>
+      <c r="AG21" s="29"/>
+      <c r="AH21" s="29"/>
+      <c r="AI21" s="29"/>
+      <c r="AJ21" s="30"/>
       <c r="AK21" s="17" t="s">
         <v>131</v>
       </c>
@@ -6602,55 +6601,55 @@
         <v>140</v>
       </c>
       <c r="AM21" s="16" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
     </row>
     <row r="22" spans="4:39" ht="63" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D22" s="35"/>
-      <c r="E22" s="35"/>
-      <c r="F22" s="35"/>
-      <c r="G22" s="35"/>
-      <c r="H22" s="35"/>
-      <c r="I22" s="35"/>
-      <c r="J22" s="35"/>
-      <c r="K22" s="35"/>
-      <c r="L22" s="35"/>
-      <c r="M22" s="35" t="s">
-        <v>154</v>
-      </c>
-      <c r="N22" s="35"/>
-      <c r="O22" s="35"/>
-      <c r="P22" s="35"/>
-      <c r="Q22" s="28" t="s">
+      <c r="D22" s="34"/>
+      <c r="E22" s="34"/>
+      <c r="F22" s="34"/>
+      <c r="G22" s="34"/>
+      <c r="H22" s="34"/>
+      <c r="I22" s="34"/>
+      <c r="J22" s="34"/>
+      <c r="K22" s="34"/>
+      <c r="L22" s="34"/>
+      <c r="M22" s="34" t="s">
+        <v>152</v>
+      </c>
+      <c r="N22" s="34"/>
+      <c r="O22" s="34"/>
+      <c r="P22" s="34"/>
+      <c r="Q22" s="27" t="s">
         <v>50</v>
       </c>
-      <c r="R22" s="28"/>
-      <c r="S22" s="28"/>
-      <c r="T22" s="28"/>
-      <c r="U22" s="29" t="s">
+      <c r="R22" s="27"/>
+      <c r="S22" s="27"/>
+      <c r="T22" s="27"/>
+      <c r="U22" s="28" t="s">
         <v>16</v>
       </c>
-      <c r="V22" s="30"/>
-      <c r="W22" s="30"/>
-      <c r="X22" s="30"/>
-      <c r="Y22" s="30"/>
-      <c r="Z22" s="31"/>
+      <c r="V22" s="29"/>
+      <c r="W22" s="29"/>
+      <c r="X22" s="29"/>
+      <c r="Y22" s="29"/>
+      <c r="Z22" s="30"/>
       <c r="AA22" s="4" t="s">
         <v>19</v>
       </c>
       <c r="AB22" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="AC22" s="29" t="s">
+      <c r="AC22" s="28" t="s">
         <v>16</v>
       </c>
-      <c r="AD22" s="30"/>
-      <c r="AE22" s="30"/>
-      <c r="AF22" s="30"/>
-      <c r="AG22" s="30"/>
-      <c r="AH22" s="30"/>
-      <c r="AI22" s="30"/>
-      <c r="AJ22" s="31"/>
+      <c r="AD22" s="29"/>
+      <c r="AE22" s="29"/>
+      <c r="AF22" s="29"/>
+      <c r="AG22" s="29"/>
+      <c r="AH22" s="29"/>
+      <c r="AI22" s="29"/>
+      <c r="AJ22" s="30"/>
       <c r="AK22" s="17" t="s">
         <v>66</v>
       </c>
@@ -6658,49 +6657,49 @@
         <v>132</v>
       </c>
       <c r="AM22" s="16" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
     </row>
     <row r="23" spans="4:39" ht="63" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D23" s="35"/>
-      <c r="E23" s="35"/>
-      <c r="F23" s="35"/>
-      <c r="G23" s="35"/>
-      <c r="H23" s="35"/>
-      <c r="I23" s="35"/>
-      <c r="J23" s="35"/>
-      <c r="K23" s="35"/>
-      <c r="L23" s="35"/>
-      <c r="M23" s="32" t="s">
+      <c r="D23" s="34"/>
+      <c r="E23" s="34"/>
+      <c r="F23" s="34"/>
+      <c r="G23" s="34"/>
+      <c r="H23" s="34"/>
+      <c r="I23" s="34"/>
+      <c r="J23" s="34"/>
+      <c r="K23" s="34"/>
+      <c r="L23" s="34"/>
+      <c r="M23" s="31" t="s">
         <v>16</v>
       </c>
-      <c r="N23" s="33"/>
-      <c r="O23" s="33"/>
-      <c r="P23" s="34"/>
-      <c r="Q23" s="28" t="s">
+      <c r="N23" s="32"/>
+      <c r="O23" s="32"/>
+      <c r="P23" s="33"/>
+      <c r="Q23" s="27" t="s">
         <v>51</v>
       </c>
-      <c r="R23" s="28"/>
-      <c r="S23" s="28"/>
-      <c r="T23" s="28"/>
-      <c r="U23" s="29" t="s">
+      <c r="R23" s="27"/>
+      <c r="S23" s="27"/>
+      <c r="T23" s="27"/>
+      <c r="U23" s="28" t="s">
         <v>16</v>
       </c>
-      <c r="V23" s="30"/>
-      <c r="W23" s="30"/>
-      <c r="X23" s="30"/>
-      <c r="Y23" s="30"/>
-      <c r="Z23" s="30"/>
-      <c r="AA23" s="30"/>
-      <c r="AB23" s="30"/>
-      <c r="AC23" s="30"/>
-      <c r="AD23" s="30"/>
-      <c r="AE23" s="30"/>
-      <c r="AF23" s="30"/>
-      <c r="AG23" s="30"/>
-      <c r="AH23" s="30"/>
-      <c r="AI23" s="30"/>
-      <c r="AJ23" s="31"/>
+      <c r="V23" s="29"/>
+      <c r="W23" s="29"/>
+      <c r="X23" s="29"/>
+      <c r="Y23" s="29"/>
+      <c r="Z23" s="29"/>
+      <c r="AA23" s="29"/>
+      <c r="AB23" s="29"/>
+      <c r="AC23" s="29"/>
+      <c r="AD23" s="29"/>
+      <c r="AE23" s="29"/>
+      <c r="AF23" s="29"/>
+      <c r="AG23" s="29"/>
+      <c r="AH23" s="29"/>
+      <c r="AI23" s="29"/>
+      <c r="AJ23" s="30"/>
       <c r="AK23" s="17" t="s">
         <v>133</v>
       </c>
@@ -6712,45 +6711,45 @@
       </c>
     </row>
     <row r="24" spans="4:39" ht="63" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D24" s="35"/>
-      <c r="E24" s="35"/>
-      <c r="F24" s="35"/>
-      <c r="G24" s="35"/>
-      <c r="H24" s="35"/>
-      <c r="I24" s="35"/>
-      <c r="J24" s="35"/>
-      <c r="K24" s="35"/>
-      <c r="L24" s="35"/>
-      <c r="M24" s="32" t="s">
+      <c r="D24" s="34"/>
+      <c r="E24" s="34"/>
+      <c r="F24" s="34"/>
+      <c r="G24" s="34"/>
+      <c r="H24" s="34"/>
+      <c r="I24" s="34"/>
+      <c r="J24" s="34"/>
+      <c r="K24" s="34"/>
+      <c r="L24" s="34"/>
+      <c r="M24" s="31" t="s">
         <v>16</v>
       </c>
-      <c r="N24" s="33"/>
-      <c r="O24" s="33"/>
-      <c r="P24" s="34"/>
-      <c r="Q24" s="28" t="s">
+      <c r="N24" s="32"/>
+      <c r="O24" s="32"/>
+      <c r="P24" s="33"/>
+      <c r="Q24" s="27" t="s">
         <v>52</v>
       </c>
-      <c r="R24" s="28"/>
-      <c r="S24" s="28"/>
-      <c r="T24" s="28"/>
-      <c r="U24" s="29" t="s">
+      <c r="R24" s="27"/>
+      <c r="S24" s="27"/>
+      <c r="T24" s="27"/>
+      <c r="U24" s="28" t="s">
         <v>16</v>
       </c>
-      <c r="V24" s="30"/>
-      <c r="W24" s="30"/>
-      <c r="X24" s="30"/>
-      <c r="Y24" s="30"/>
-      <c r="Z24" s="30"/>
-      <c r="AA24" s="30"/>
-      <c r="AB24" s="30"/>
-      <c r="AC24" s="30"/>
-      <c r="AD24" s="30"/>
-      <c r="AE24" s="30"/>
-      <c r="AF24" s="30"/>
-      <c r="AG24" s="30"/>
-      <c r="AH24" s="30"/>
-      <c r="AI24" s="30"/>
-      <c r="AJ24" s="31"/>
+      <c r="V24" s="29"/>
+      <c r="W24" s="29"/>
+      <c r="X24" s="29"/>
+      <c r="Y24" s="29"/>
+      <c r="Z24" s="29"/>
+      <c r="AA24" s="29"/>
+      <c r="AB24" s="29"/>
+      <c r="AC24" s="29"/>
+      <c r="AD24" s="29"/>
+      <c r="AE24" s="29"/>
+      <c r="AF24" s="29"/>
+      <c r="AG24" s="29"/>
+      <c r="AH24" s="29"/>
+      <c r="AI24" s="29"/>
+      <c r="AJ24" s="30"/>
       <c r="AK24" s="17" t="s">
         <v>67</v>
       </c>
@@ -6762,49 +6761,49 @@
       </c>
     </row>
     <row r="25" spans="4:39" ht="63" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D25" s="35"/>
-      <c r="E25" s="35"/>
-      <c r="F25" s="35"/>
-      <c r="G25" s="35"/>
-      <c r="H25" s="35"/>
-      <c r="I25" s="35"/>
-      <c r="J25" s="35"/>
-      <c r="K25" s="35"/>
-      <c r="L25" s="35"/>
-      <c r="M25" s="32" t="s">
+      <c r="D25" s="34"/>
+      <c r="E25" s="34"/>
+      <c r="F25" s="34"/>
+      <c r="G25" s="34"/>
+      <c r="H25" s="34"/>
+      <c r="I25" s="34"/>
+      <c r="J25" s="34"/>
+      <c r="K25" s="34"/>
+      <c r="L25" s="34"/>
+      <c r="M25" s="31" t="s">
         <v>16</v>
       </c>
-      <c r="N25" s="33"/>
-      <c r="O25" s="33"/>
-      <c r="P25" s="34"/>
-      <c r="Q25" s="28" t="s">
+      <c r="N25" s="32"/>
+      <c r="O25" s="32"/>
+      <c r="P25" s="33"/>
+      <c r="Q25" s="27" t="s">
         <v>53</v>
       </c>
-      <c r="R25" s="28"/>
-      <c r="S25" s="28"/>
-      <c r="T25" s="28"/>
-      <c r="U25" s="29" t="s">
+      <c r="R25" s="27"/>
+      <c r="S25" s="27"/>
+      <c r="T25" s="27"/>
+      <c r="U25" s="28" t="s">
         <v>16</v>
       </c>
-      <c r="V25" s="30"/>
-      <c r="W25" s="30"/>
-      <c r="X25" s="30"/>
-      <c r="Y25" s="30"/>
-      <c r="Z25" s="30"/>
-      <c r="AA25" s="30"/>
-      <c r="AB25" s="30"/>
-      <c r="AC25" s="28" t="s">
+      <c r="V25" s="29"/>
+      <c r="W25" s="29"/>
+      <c r="X25" s="29"/>
+      <c r="Y25" s="29"/>
+      <c r="Z25" s="29"/>
+      <c r="AA25" s="29"/>
+      <c r="AB25" s="29"/>
+      <c r="AC25" s="27" t="s">
         <v>44</v>
       </c>
-      <c r="AD25" s="28"/>
-      <c r="AE25" s="28"/>
-      <c r="AF25" s="28"/>
-      <c r="AG25" s="29" t="s">
+      <c r="AD25" s="27"/>
+      <c r="AE25" s="27"/>
+      <c r="AF25" s="27"/>
+      <c r="AG25" s="28" t="s">
         <v>24</v>
       </c>
-      <c r="AH25" s="30"/>
-      <c r="AI25" s="30"/>
-      <c r="AJ25" s="31"/>
+      <c r="AH25" s="29"/>
+      <c r="AI25" s="29"/>
+      <c r="AJ25" s="30"/>
       <c r="AK25" s="17" t="s">
         <v>68</v>
       </c>
@@ -6812,53 +6811,53 @@
         <v>60</v>
       </c>
       <c r="AM25" s="16" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
     </row>
     <row r="26" spans="4:39" ht="63" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D26" s="35"/>
-      <c r="E26" s="35"/>
-      <c r="F26" s="35"/>
-      <c r="G26" s="35"/>
-      <c r="H26" s="35"/>
-      <c r="I26" s="35"/>
-      <c r="J26" s="35"/>
-      <c r="K26" s="35"/>
-      <c r="L26" s="35"/>
-      <c r="M26" s="35" t="s">
-        <v>153</v>
-      </c>
-      <c r="N26" s="35"/>
-      <c r="O26" s="35"/>
-      <c r="P26" s="35"/>
-      <c r="Q26" s="28" t="s">
+      <c r="D26" s="34"/>
+      <c r="E26" s="34"/>
+      <c r="F26" s="34"/>
+      <c r="G26" s="34"/>
+      <c r="H26" s="34"/>
+      <c r="I26" s="34"/>
+      <c r="J26" s="34"/>
+      <c r="K26" s="34"/>
+      <c r="L26" s="34"/>
+      <c r="M26" s="34" t="s">
+        <v>151</v>
+      </c>
+      <c r="N26" s="34"/>
+      <c r="O26" s="34"/>
+      <c r="P26" s="34"/>
+      <c r="Q26" s="27" t="s">
         <v>54</v>
       </c>
-      <c r="R26" s="28"/>
-      <c r="S26" s="28"/>
-      <c r="T26" s="28"/>
-      <c r="U26" s="29" t="s">
+      <c r="R26" s="27"/>
+      <c r="S26" s="27"/>
+      <c r="T26" s="27"/>
+      <c r="U26" s="28" t="s">
         <v>16</v>
       </c>
-      <c r="V26" s="30"/>
-      <c r="W26" s="30"/>
-      <c r="X26" s="30"/>
-      <c r="Y26" s="30"/>
-      <c r="Z26" s="30"/>
-      <c r="AA26" s="31"/>
+      <c r="V26" s="29"/>
+      <c r="W26" s="29"/>
+      <c r="X26" s="29"/>
+      <c r="Y26" s="29"/>
+      <c r="Z26" s="29"/>
+      <c r="AA26" s="30"/>
       <c r="AB26" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="AC26" s="28" t="s">
+      <c r="AC26" s="27" t="s">
         <v>59</v>
       </c>
-      <c r="AD26" s="28"/>
-      <c r="AE26" s="28"/>
-      <c r="AF26" s="28"/>
-      <c r="AG26" s="28"/>
-      <c r="AH26" s="28"/>
-      <c r="AI26" s="28"/>
-      <c r="AJ26" s="28"/>
+      <c r="AD26" s="27"/>
+      <c r="AE26" s="27"/>
+      <c r="AF26" s="27"/>
+      <c r="AG26" s="27"/>
+      <c r="AH26" s="27"/>
+      <c r="AI26" s="27"/>
+      <c r="AJ26" s="27"/>
       <c r="AK26" s="15" t="s">
         <v>69</v>
       </c>
@@ -6870,49 +6869,49 @@
       </c>
     </row>
     <row r="27" spans="4:39" ht="63" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D27" s="35"/>
-      <c r="E27" s="35"/>
-      <c r="F27" s="35"/>
-      <c r="G27" s="35"/>
-      <c r="H27" s="35"/>
-      <c r="I27" s="35"/>
-      <c r="J27" s="35"/>
-      <c r="K27" s="35"/>
-      <c r="L27" s="35"/>
-      <c r="M27" s="35"/>
-      <c r="N27" s="35"/>
-      <c r="O27" s="35"/>
-      <c r="P27" s="35"/>
-      <c r="Q27" s="28" t="s">
+      <c r="D27" s="34"/>
+      <c r="E27" s="34"/>
+      <c r="F27" s="34"/>
+      <c r="G27" s="34"/>
+      <c r="H27" s="34"/>
+      <c r="I27" s="34"/>
+      <c r="J27" s="34"/>
+      <c r="K27" s="34"/>
+      <c r="L27" s="34"/>
+      <c r="M27" s="34"/>
+      <c r="N27" s="34"/>
+      <c r="O27" s="34"/>
+      <c r="P27" s="34"/>
+      <c r="Q27" s="27" t="s">
         <v>55</v>
       </c>
-      <c r="R27" s="28"/>
-      <c r="S27" s="28"/>
-      <c r="T27" s="28"/>
-      <c r="U27" s="29" t="s">
+      <c r="R27" s="27"/>
+      <c r="S27" s="27"/>
+      <c r="T27" s="27"/>
+      <c r="U27" s="28" t="s">
         <v>16</v>
       </c>
-      <c r="V27" s="30"/>
-      <c r="W27" s="30"/>
-      <c r="X27" s="30"/>
-      <c r="Y27" s="30"/>
-      <c r="Z27" s="30"/>
-      <c r="AA27" s="31"/>
+      <c r="V27" s="29"/>
+      <c r="W27" s="29"/>
+      <c r="X27" s="29"/>
+      <c r="Y27" s="29"/>
+      <c r="Z27" s="29"/>
+      <c r="AA27" s="30"/>
       <c r="AB27" s="4" t="s">
         <v>17</v>
       </c>
       <c r="AC27" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="AD27" s="29" t="s">
+      <c r="AD27" s="28" t="s">
         <v>58</v>
       </c>
-      <c r="AE27" s="30"/>
-      <c r="AF27" s="30"/>
-      <c r="AG27" s="30"/>
-      <c r="AH27" s="30"/>
-      <c r="AI27" s="30"/>
-      <c r="AJ27" s="31"/>
+      <c r="AE27" s="29"/>
+      <c r="AF27" s="29"/>
+      <c r="AG27" s="29"/>
+      <c r="AH27" s="29"/>
+      <c r="AI27" s="29"/>
+      <c r="AJ27" s="30"/>
       <c r="AK27" s="17" t="s">
         <v>70</v>
       </c>
@@ -6924,53 +6923,53 @@
       </c>
     </row>
     <row r="28" spans="4:39" ht="63" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D28" s="35"/>
-      <c r="E28" s="35"/>
-      <c r="F28" s="35"/>
-      <c r="G28" s="35"/>
-      <c r="H28" s="35"/>
-      <c r="I28" s="35"/>
-      <c r="J28" s="35"/>
-      <c r="K28" s="35"/>
-      <c r="L28" s="35"/>
-      <c r="M28" s="35" t="s">
+      <c r="D28" s="34"/>
+      <c r="E28" s="34"/>
+      <c r="F28" s="34"/>
+      <c r="G28" s="34"/>
+      <c r="H28" s="34"/>
+      <c r="I28" s="34"/>
+      <c r="J28" s="34"/>
+      <c r="K28" s="34"/>
+      <c r="L28" s="34"/>
+      <c r="M28" s="34" t="s">
         <v>16</v>
       </c>
-      <c r="N28" s="35"/>
-      <c r="O28" s="35" t="s">
+      <c r="N28" s="34"/>
+      <c r="O28" s="34" t="s">
         <v>136</v>
       </c>
-      <c r="P28" s="35"/>
-      <c r="Q28" s="28" t="s">
+      <c r="P28" s="34"/>
+      <c r="Q28" s="27" t="s">
         <v>129</v>
       </c>
-      <c r="R28" s="28"/>
-      <c r="S28" s="28"/>
-      <c r="T28" s="28"/>
-      <c r="U28" s="29" t="s">
+      <c r="R28" s="27"/>
+      <c r="S28" s="27"/>
+      <c r="T28" s="27"/>
+      <c r="U28" s="28" t="s">
         <v>16</v>
       </c>
-      <c r="V28" s="30"/>
-      <c r="W28" s="30"/>
-      <c r="X28" s="30"/>
-      <c r="Y28" s="30"/>
-      <c r="Z28" s="30"/>
-      <c r="AA28" s="31"/>
+      <c r="V28" s="29"/>
+      <c r="W28" s="29"/>
+      <c r="X28" s="29"/>
+      <c r="Y28" s="29"/>
+      <c r="Z28" s="29"/>
+      <c r="AA28" s="30"/>
       <c r="AB28" s="13" t="s">
         <v>138</v>
       </c>
-      <c r="AC28" s="28" t="s">
+      <c r="AC28" s="27" t="s">
         <v>16</v>
       </c>
-      <c r="AD28" s="28"/>
-      <c r="AE28" s="29" t="s">
+      <c r="AD28" s="27"/>
+      <c r="AE28" s="28" t="s">
         <v>58</v>
       </c>
-      <c r="AF28" s="30"/>
-      <c r="AG28" s="30"/>
-      <c r="AH28" s="30"/>
-      <c r="AI28" s="30"/>
-      <c r="AJ28" s="31"/>
+      <c r="AF28" s="29"/>
+      <c r="AG28" s="29"/>
+      <c r="AH28" s="29"/>
+      <c r="AI28" s="29"/>
+      <c r="AJ28" s="30"/>
       <c r="AK28" s="17" t="s">
         <v>137</v>
       </c>
@@ -7655,71 +7654,71 @@
       <c r="F21" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="G21" s="37" t="s">
+      <c r="G21" s="35" t="s">
         <v>79</v>
       </c>
-      <c r="H21" s="38"/>
-      <c r="I21" s="38"/>
-      <c r="J21" s="38"/>
-      <c r="K21" s="38"/>
-      <c r="L21" s="38"/>
-      <c r="M21" s="38"/>
-      <c r="N21" s="39"/>
-      <c r="O21" s="37" t="s">
+      <c r="H21" s="36"/>
+      <c r="I21" s="36"/>
+      <c r="J21" s="36"/>
+      <c r="K21" s="36"/>
+      <c r="L21" s="36"/>
+      <c r="M21" s="36"/>
+      <c r="N21" s="37"/>
+      <c r="O21" s="35" t="s">
         <v>80</v>
       </c>
-      <c r="P21" s="38" t="s">
+      <c r="P21" s="36" t="s">
         <v>81</v>
       </c>
-      <c r="Q21" s="38" t="s">
+      <c r="Q21" s="36" t="s">
         <v>82</v>
       </c>
-      <c r="R21" s="38"/>
-      <c r="S21" s="38"/>
-      <c r="T21" s="38"/>
-      <c r="U21" s="38"/>
-      <c r="V21" s="39"/>
-      <c r="W21" s="37" t="s">
+      <c r="R21" s="36"/>
+      <c r="S21" s="36"/>
+      <c r="T21" s="36"/>
+      <c r="U21" s="36"/>
+      <c r="V21" s="37"/>
+      <c r="W21" s="35" t="s">
         <v>87</v>
       </c>
-      <c r="X21" s="38"/>
-      <c r="Y21" s="38"/>
-      <c r="Z21" s="38"/>
-      <c r="AA21" s="38"/>
-      <c r="AB21" s="38"/>
-      <c r="AC21" s="38"/>
-      <c r="AD21" s="39"/>
-      <c r="AE21" s="37" t="s">
+      <c r="X21" s="36"/>
+      <c r="Y21" s="36"/>
+      <c r="Z21" s="36"/>
+      <c r="AA21" s="36"/>
+      <c r="AB21" s="36"/>
+      <c r="AC21" s="36"/>
+      <c r="AD21" s="37"/>
+      <c r="AE21" s="35" t="s">
         <v>88</v>
       </c>
-      <c r="AF21" s="38"/>
-      <c r="AG21" s="38"/>
-      <c r="AH21" s="38"/>
-      <c r="AI21" s="38"/>
-      <c r="AJ21" s="38"/>
-      <c r="AK21" s="38"/>
-      <c r="AL21" s="39"/>
+      <c r="AF21" s="36"/>
+      <c r="AG21" s="36"/>
+      <c r="AH21" s="36"/>
+      <c r="AI21" s="36"/>
+      <c r="AJ21" s="36"/>
+      <c r="AK21" s="36"/>
+      <c r="AL21" s="37"/>
       <c r="AM21" s="2" t="s">
         <v>83</v>
       </c>
       <c r="AN21" s="11" t="s">
         <v>84</v>
       </c>
-      <c r="AO21" s="41" t="s">
+      <c r="AO21" s="40" t="s">
         <v>63</v>
       </c>
-      <c r="AP21" s="41" t="s">
+      <c r="AP21" s="40" t="s">
         <v>62</v>
       </c>
-      <c r="AQ21" s="41" t="s">
+      <c r="AQ21" s="40" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="22" spans="5:43" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E22" s="36" t="s">
+      <c r="E22" s="38" t="s">
         <v>111</v>
       </c>
-      <c r="F22" s="36"/>
+      <c r="F22" s="38"/>
       <c r="G22" s="12" t="s">
         <v>93</v>
       </c>
@@ -7816,55 +7815,55 @@
       <c r="AL22" s="12" t="s">
         <v>90</v>
       </c>
-      <c r="AM22" s="36" t="s">
+      <c r="AM22" s="38" t="s">
         <v>112</v>
       </c>
-      <c r="AN22" s="45"/>
-      <c r="AO22" s="41"/>
-      <c r="AP22" s="41"/>
-      <c r="AQ22" s="41"/>
+      <c r="AN22" s="41"/>
+      <c r="AO22" s="40"/>
+      <c r="AP22" s="40"/>
+      <c r="AQ22" s="40"/>
     </row>
     <row r="23" spans="5:43" ht="64.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E23" s="40" t="s">
+      <c r="E23" s="39" t="s">
         <v>76</v>
       </c>
-      <c r="F23" s="40" t="s">
+      <c r="F23" s="39" t="s">
         <v>78</v>
       </c>
-      <c r="G23" s="31" t="s">
+      <c r="G23" s="30" t="s">
         <v>89</v>
       </c>
-      <c r="H23" s="28"/>
-      <c r="I23" s="28"/>
-      <c r="J23" s="28"/>
-      <c r="K23" s="28"/>
-      <c r="L23" s="28"/>
-      <c r="M23" s="28"/>
-      <c r="N23" s="28"/>
-      <c r="O23" s="28"/>
-      <c r="P23" s="28"/>
-      <c r="Q23" s="28"/>
-      <c r="R23" s="28"/>
-      <c r="S23" s="28"/>
-      <c r="T23" s="28"/>
-      <c r="U23" s="28"/>
-      <c r="V23" s="28"/>
-      <c r="W23" s="28"/>
-      <c r="X23" s="28"/>
-      <c r="Y23" s="28"/>
-      <c r="Z23" s="28"/>
-      <c r="AA23" s="28"/>
-      <c r="AB23" s="28"/>
-      <c r="AC23" s="28"/>
-      <c r="AD23" s="28"/>
-      <c r="AE23" s="28"/>
-      <c r="AF23" s="28"/>
-      <c r="AG23" s="28"/>
-      <c r="AH23" s="28"/>
-      <c r="AI23" s="28"/>
-      <c r="AJ23" s="28"/>
-      <c r="AK23" s="28"/>
-      <c r="AL23" s="28"/>
+      <c r="H23" s="27"/>
+      <c r="I23" s="27"/>
+      <c r="J23" s="27"/>
+      <c r="K23" s="27"/>
+      <c r="L23" s="27"/>
+      <c r="M23" s="27"/>
+      <c r="N23" s="27"/>
+      <c r="O23" s="27"/>
+      <c r="P23" s="27"/>
+      <c r="Q23" s="27"/>
+      <c r="R23" s="27"/>
+      <c r="S23" s="27"/>
+      <c r="T23" s="27"/>
+      <c r="U23" s="27"/>
+      <c r="V23" s="27"/>
+      <c r="W23" s="27"/>
+      <c r="X23" s="27"/>
+      <c r="Y23" s="27"/>
+      <c r="Z23" s="27"/>
+      <c r="AA23" s="27"/>
+      <c r="AB23" s="27"/>
+      <c r="AC23" s="27"/>
+      <c r="AD23" s="27"/>
+      <c r="AE23" s="27"/>
+      <c r="AF23" s="27"/>
+      <c r="AG23" s="27"/>
+      <c r="AH23" s="27"/>
+      <c r="AI23" s="27"/>
+      <c r="AJ23" s="27"/>
+      <c r="AK23" s="27"/>
+      <c r="AL23" s="27"/>
       <c r="AM23" s="3" t="s">
         <v>85</v>
       </c>
@@ -7882,46 +7881,46 @@
       </c>
     </row>
     <row r="24" spans="5:43" ht="64.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E24" s="40"/>
-      <c r="F24" s="40"/>
-      <c r="G24" s="30" t="s">
+      <c r="E24" s="39"/>
+      <c r="F24" s="39"/>
+      <c r="G24" s="29" t="s">
         <v>16</v>
       </c>
-      <c r="H24" s="30"/>
-      <c r="I24" s="30"/>
-      <c r="J24" s="30"/>
-      <c r="K24" s="30"/>
-      <c r="L24" s="30"/>
-      <c r="M24" s="30"/>
-      <c r="N24" s="30"/>
-      <c r="O24" s="30"/>
-      <c r="P24" s="30"/>
-      <c r="Q24" s="30"/>
-      <c r="R24" s="31"/>
-      <c r="S24" s="29" t="s">
+      <c r="H24" s="29"/>
+      <c r="I24" s="29"/>
+      <c r="J24" s="29"/>
+      <c r="K24" s="29"/>
+      <c r="L24" s="29"/>
+      <c r="M24" s="29"/>
+      <c r="N24" s="29"/>
+      <c r="O24" s="29"/>
+      <c r="P24" s="29"/>
+      <c r="Q24" s="29"/>
+      <c r="R24" s="30"/>
+      <c r="S24" s="28" t="s">
         <v>46</v>
       </c>
-      <c r="T24" s="30"/>
-      <c r="U24" s="30"/>
-      <c r="V24" s="31"/>
-      <c r="W24" s="28" t="s">
+      <c r="T24" s="29"/>
+      <c r="U24" s="29"/>
+      <c r="V24" s="30"/>
+      <c r="W24" s="27" t="s">
         <v>16</v>
       </c>
-      <c r="X24" s="28"/>
-      <c r="Y24" s="28"/>
-      <c r="Z24" s="28"/>
-      <c r="AA24" s="28"/>
-      <c r="AB24" s="28"/>
-      <c r="AC24" s="28"/>
-      <c r="AD24" s="28"/>
-      <c r="AE24" s="28"/>
-      <c r="AF24" s="28"/>
-      <c r="AG24" s="28"/>
-      <c r="AH24" s="28"/>
-      <c r="AI24" s="28"/>
-      <c r="AJ24" s="28"/>
-      <c r="AK24" s="28"/>
-      <c r="AL24" s="23" t="s">
+      <c r="X24" s="27"/>
+      <c r="Y24" s="27"/>
+      <c r="Z24" s="27"/>
+      <c r="AA24" s="27"/>
+      <c r="AB24" s="27"/>
+      <c r="AC24" s="27"/>
+      <c r="AD24" s="27"/>
+      <c r="AE24" s="27"/>
+      <c r="AF24" s="27"/>
+      <c r="AG24" s="27"/>
+      <c r="AH24" s="27"/>
+      <c r="AI24" s="27"/>
+      <c r="AJ24" s="27"/>
+      <c r="AK24" s="27"/>
+      <c r="AL24" s="22" t="s">
         <v>121</v>
       </c>
       <c r="AM24" s="42" t="s">
@@ -7941,103 +7940,103 @@
       </c>
     </row>
     <row r="25" spans="5:43" ht="64.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E25" s="40"/>
-      <c r="F25" s="40"/>
-      <c r="G25" s="30" t="s">
+      <c r="E25" s="39"/>
+      <c r="F25" s="39"/>
+      <c r="G25" s="29" t="s">
         <v>16</v>
       </c>
-      <c r="H25" s="30"/>
-      <c r="I25" s="30"/>
-      <c r="J25" s="30"/>
-      <c r="K25" s="30"/>
-      <c r="L25" s="30"/>
-      <c r="M25" s="30"/>
-      <c r="N25" s="30"/>
-      <c r="O25" s="30"/>
-      <c r="P25" s="30"/>
-      <c r="Q25" s="30"/>
-      <c r="R25" s="31"/>
-      <c r="S25" s="29" t="s">
+      <c r="H25" s="29"/>
+      <c r="I25" s="29"/>
+      <c r="J25" s="29"/>
+      <c r="K25" s="29"/>
+      <c r="L25" s="29"/>
+      <c r="M25" s="29"/>
+      <c r="N25" s="29"/>
+      <c r="O25" s="29"/>
+      <c r="P25" s="29"/>
+      <c r="Q25" s="29"/>
+      <c r="R25" s="30"/>
+      <c r="S25" s="28" t="s">
         <v>47</v>
       </c>
-      <c r="T25" s="30"/>
-      <c r="U25" s="30"/>
-      <c r="V25" s="31"/>
-      <c r="W25" s="29" t="s">
+      <c r="T25" s="29"/>
+      <c r="U25" s="29"/>
+      <c r="V25" s="30"/>
+      <c r="W25" s="28" t="s">
         <v>16</v>
       </c>
-      <c r="X25" s="30"/>
-      <c r="Y25" s="30"/>
-      <c r="Z25" s="30"/>
-      <c r="AA25" s="30"/>
-      <c r="AB25" s="30"/>
-      <c r="AC25" s="30"/>
-      <c r="AD25" s="30"/>
-      <c r="AE25" s="30"/>
-      <c r="AF25" s="30"/>
-      <c r="AG25" s="30"/>
-      <c r="AH25" s="30"/>
-      <c r="AI25" s="30"/>
-      <c r="AJ25" s="30"/>
-      <c r="AK25" s="30"/>
-      <c r="AL25" s="31"/>
+      <c r="X25" s="29"/>
+      <c r="Y25" s="29"/>
+      <c r="Z25" s="29"/>
+      <c r="AA25" s="29"/>
+      <c r="AB25" s="29"/>
+      <c r="AC25" s="29"/>
+      <c r="AD25" s="29"/>
+      <c r="AE25" s="29"/>
+      <c r="AF25" s="29"/>
+      <c r="AG25" s="29"/>
+      <c r="AH25" s="29"/>
+      <c r="AI25" s="29"/>
+      <c r="AJ25" s="29"/>
+      <c r="AK25" s="29"/>
+      <c r="AL25" s="30"/>
       <c r="AM25" s="43"/>
       <c r="AN25" s="43"/>
       <c r="AO25" s="15" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="AP25" s="16" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="AQ25" s="16" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="26" spans="5:43" ht="64.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E26" s="40"/>
-      <c r="F26" s="40"/>
-      <c r="G26" s="30" t="s">
+      <c r="E26" s="39"/>
+      <c r="F26" s="39"/>
+      <c r="G26" s="29" t="s">
         <v>16</v>
       </c>
-      <c r="H26" s="30"/>
-      <c r="I26" s="30"/>
-      <c r="J26" s="30"/>
-      <c r="K26" s="30"/>
-      <c r="L26" s="30"/>
-      <c r="M26" s="30"/>
-      <c r="N26" s="30"/>
-      <c r="O26" s="30"/>
-      <c r="P26" s="30"/>
-      <c r="Q26" s="30"/>
-      <c r="R26" s="31"/>
-      <c r="S26" s="29" t="s">
+      <c r="H26" s="29"/>
+      <c r="I26" s="29"/>
+      <c r="J26" s="29"/>
+      <c r="K26" s="29"/>
+      <c r="L26" s="29"/>
+      <c r="M26" s="29"/>
+      <c r="N26" s="29"/>
+      <c r="O26" s="29"/>
+      <c r="P26" s="29"/>
+      <c r="Q26" s="29"/>
+      <c r="R26" s="30"/>
+      <c r="S26" s="28" t="s">
         <v>116</v>
       </c>
-      <c r="T26" s="30"/>
-      <c r="U26" s="30"/>
-      <c r="V26" s="31"/>
-      <c r="W26" s="29" t="s">
+      <c r="T26" s="29"/>
+      <c r="U26" s="29"/>
+      <c r="V26" s="30"/>
+      <c r="W26" s="28" t="s">
         <v>16</v>
       </c>
-      <c r="X26" s="30"/>
-      <c r="Y26" s="30"/>
-      <c r="Z26" s="30"/>
-      <c r="AA26" s="30"/>
-      <c r="AB26" s="30"/>
-      <c r="AC26" s="30"/>
-      <c r="AD26" s="31"/>
-      <c r="AE26" s="28" t="s">
+      <c r="X26" s="29"/>
+      <c r="Y26" s="29"/>
+      <c r="Z26" s="29"/>
+      <c r="AA26" s="29"/>
+      <c r="AB26" s="29"/>
+      <c r="AC26" s="29"/>
+      <c r="AD26" s="30"/>
+      <c r="AE26" s="27" t="s">
         <v>44</v>
       </c>
-      <c r="AF26" s="28"/>
-      <c r="AG26" s="28"/>
-      <c r="AH26" s="28"/>
-      <c r="AI26" s="28" t="s">
+      <c r="AF26" s="27"/>
+      <c r="AG26" s="27"/>
+      <c r="AH26" s="27"/>
+      <c r="AI26" s="27" t="s">
         <v>24</v>
       </c>
-      <c r="AJ26" s="28"/>
-      <c r="AK26" s="28"/>
-      <c r="AL26" s="28"/>
+      <c r="AJ26" s="27"/>
+      <c r="AK26" s="27"/>
+      <c r="AL26" s="27"/>
       <c r="AM26" s="43"/>
       <c r="AN26" s="43"/>
       <c r="AO26" s="15" t="s">
@@ -8051,52 +8050,52 @@
       </c>
     </row>
     <row r="27" spans="5:43" ht="64.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E27" s="40"/>
-      <c r="F27" s="40"/>
-      <c r="G27" s="30" t="s">
+      <c r="E27" s="39"/>
+      <c r="F27" s="39"/>
+      <c r="G27" s="29" t="s">
         <v>16</v>
       </c>
-      <c r="H27" s="30"/>
-      <c r="I27" s="30"/>
-      <c r="J27" s="30"/>
-      <c r="K27" s="30"/>
-      <c r="L27" s="30"/>
-      <c r="M27" s="30"/>
-      <c r="N27" s="31"/>
-      <c r="O27" s="29" t="s">
+      <c r="H27" s="29"/>
+      <c r="I27" s="29"/>
+      <c r="J27" s="29"/>
+      <c r="K27" s="29"/>
+      <c r="L27" s="29"/>
+      <c r="M27" s="29"/>
+      <c r="N27" s="30"/>
+      <c r="O27" s="28" t="s">
         <v>45</v>
       </c>
-      <c r="P27" s="30"/>
-      <c r="Q27" s="30"/>
-      <c r="R27" s="31"/>
-      <c r="S27" s="29" t="s">
+      <c r="P27" s="29"/>
+      <c r="Q27" s="29"/>
+      <c r="R27" s="30"/>
+      <c r="S27" s="28" t="s">
         <v>114</v>
       </c>
-      <c r="T27" s="30"/>
-      <c r="U27" s="30"/>
-      <c r="V27" s="31"/>
-      <c r="W27" s="29" t="s">
+      <c r="T27" s="29"/>
+      <c r="U27" s="29"/>
+      <c r="V27" s="30"/>
+      <c r="W27" s="28" t="s">
         <v>16</v>
       </c>
-      <c r="X27" s="30"/>
-      <c r="Y27" s="30"/>
-      <c r="Z27" s="30"/>
-      <c r="AA27" s="30"/>
-      <c r="AB27" s="30"/>
-      <c r="AC27" s="31"/>
-      <c r="AD27" s="20" t="s">
+      <c r="X27" s="29"/>
+      <c r="Y27" s="29"/>
+      <c r="Z27" s="29"/>
+      <c r="AA27" s="29"/>
+      <c r="AB27" s="29"/>
+      <c r="AC27" s="30"/>
+      <c r="AD27" s="19" t="s">
         <v>113</v>
       </c>
-      <c r="AE27" s="29" t="s">
+      <c r="AE27" s="28" t="s">
         <v>59</v>
       </c>
-      <c r="AF27" s="30"/>
-      <c r="AG27" s="30"/>
-      <c r="AH27" s="30"/>
-      <c r="AI27" s="30"/>
-      <c r="AJ27" s="30"/>
-      <c r="AK27" s="30"/>
-      <c r="AL27" s="31"/>
+      <c r="AF27" s="29"/>
+      <c r="AG27" s="29"/>
+      <c r="AH27" s="29"/>
+      <c r="AI27" s="29"/>
+      <c r="AJ27" s="29"/>
+      <c r="AK27" s="29"/>
+      <c r="AL27" s="30"/>
       <c r="AM27" s="43"/>
       <c r="AN27" s="43"/>
       <c r="AO27" s="15" t="s">
@@ -8110,54 +8109,54 @@
       </c>
     </row>
     <row r="28" spans="5:43" ht="64.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E28" s="40"/>
-      <c r="F28" s="40"/>
-      <c r="G28" s="30" t="s">
+      <c r="E28" s="39"/>
+      <c r="F28" s="39"/>
+      <c r="G28" s="29" t="s">
         <v>16</v>
       </c>
-      <c r="H28" s="30"/>
-      <c r="I28" s="30"/>
-      <c r="J28" s="30"/>
-      <c r="K28" s="30"/>
-      <c r="L28" s="30"/>
-      <c r="M28" s="30"/>
-      <c r="N28" s="31"/>
-      <c r="O28" s="29" t="s">
+      <c r="H28" s="29"/>
+      <c r="I28" s="29"/>
+      <c r="J28" s="29"/>
+      <c r="K28" s="29"/>
+      <c r="L28" s="29"/>
+      <c r="M28" s="29"/>
+      <c r="N28" s="30"/>
+      <c r="O28" s="28" t="s">
         <v>45</v>
       </c>
-      <c r="P28" s="30"/>
-      <c r="Q28" s="30"/>
-      <c r="R28" s="31"/>
-      <c r="S28" s="29" t="s">
+      <c r="P28" s="29"/>
+      <c r="Q28" s="29"/>
+      <c r="R28" s="30"/>
+      <c r="S28" s="28" t="s">
         <v>115</v>
       </c>
-      <c r="T28" s="30"/>
-      <c r="U28" s="30"/>
-      <c r="V28" s="31"/>
-      <c r="W28" s="29" t="s">
+      <c r="T28" s="29"/>
+      <c r="U28" s="29"/>
+      <c r="V28" s="30"/>
+      <c r="W28" s="28" t="s">
         <v>16</v>
       </c>
-      <c r="X28" s="30"/>
-      <c r="Y28" s="30"/>
-      <c r="Z28" s="30"/>
-      <c r="AA28" s="30"/>
-      <c r="AB28" s="30"/>
-      <c r="AC28" s="31"/>
-      <c r="AD28" s="20" t="s">
+      <c r="X28" s="29"/>
+      <c r="Y28" s="29"/>
+      <c r="Z28" s="29"/>
+      <c r="AA28" s="29"/>
+      <c r="AB28" s="29"/>
+      <c r="AC28" s="30"/>
+      <c r="AD28" s="19" t="s">
         <v>113</v>
       </c>
-      <c r="AE28" s="20" t="s">
+      <c r="AE28" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="AF28" s="29" t="s">
+      <c r="AF28" s="28" t="s">
         <v>58</v>
       </c>
-      <c r="AG28" s="30"/>
-      <c r="AH28" s="30"/>
-      <c r="AI28" s="30"/>
-      <c r="AJ28" s="30"/>
-      <c r="AK28" s="30"/>
-      <c r="AL28" s="31"/>
+      <c r="AG28" s="29"/>
+      <c r="AH28" s="29"/>
+      <c r="AI28" s="29"/>
+      <c r="AJ28" s="29"/>
+      <c r="AK28" s="29"/>
+      <c r="AL28" s="30"/>
       <c r="AM28" s="44"/>
       <c r="AN28" s="44"/>
       <c r="AO28" s="15" t="s">
@@ -8188,8 +8187,6 @@
     <mergeCell ref="W24:AK24"/>
     <mergeCell ref="AM24:AM28"/>
     <mergeCell ref="AN24:AN28"/>
-    <mergeCell ref="W25:AL25"/>
-    <mergeCell ref="S27:V27"/>
     <mergeCell ref="AE21:AL21"/>
     <mergeCell ref="E22:F22"/>
     <mergeCell ref="G26:R26"/>
@@ -8207,6 +8204,8 @@
     <mergeCell ref="O28:R28"/>
     <mergeCell ref="S28:V28"/>
     <mergeCell ref="G28:N28"/>
+    <mergeCell ref="W25:AL25"/>
+    <mergeCell ref="S27:V27"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -8218,16 +8217,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{468DA65A-B19B-48EC-A922-77726C590D11}">
   <dimension ref="C13:AM19"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="M18" sqref="M18:P18"/>
+    <sheetView topLeftCell="H7" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="V27" sqref="V27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="2" width="7" customWidth="1"/>
-    <col min="5" max="27" width="6.25" customWidth="1"/>
-    <col min="28" max="28" width="8.25" customWidth="1"/>
-    <col min="29" max="36" width="6.25" customWidth="1"/>
+    <col min="3" max="36" width="6.5" customWidth="1"/>
     <col min="37" max="37" width="15" customWidth="1"/>
     <col min="38" max="38" width="36.5" customWidth="1"/>
     <col min="39" max="39" width="58.625" customWidth="1"/>
@@ -8240,65 +8237,65 @@
       <c r="D13" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="E13" s="37" t="s">
+      <c r="E13" s="35" t="s">
         <v>79</v>
       </c>
-      <c r="F13" s="38"/>
-      <c r="G13" s="38"/>
-      <c r="H13" s="38"/>
-      <c r="I13" s="38"/>
-      <c r="J13" s="38"/>
-      <c r="K13" s="38"/>
-      <c r="L13" s="39"/>
-      <c r="M13" s="37" t="s">
+      <c r="F13" s="36"/>
+      <c r="G13" s="36"/>
+      <c r="H13" s="36"/>
+      <c r="I13" s="36"/>
+      <c r="J13" s="36"/>
+      <c r="K13" s="36"/>
+      <c r="L13" s="37"/>
+      <c r="M13" s="35" t="s">
         <v>80</v>
       </c>
-      <c r="N13" s="38" t="s">
+      <c r="N13" s="36" t="s">
         <v>81</v>
       </c>
-      <c r="O13" s="38" t="s">
+      <c r="O13" s="36" t="s">
         <v>82</v>
       </c>
-      <c r="P13" s="38"/>
-      <c r="Q13" s="38"/>
-      <c r="R13" s="38"/>
-      <c r="S13" s="38"/>
-      <c r="T13" s="39"/>
-      <c r="U13" s="37" t="s">
+      <c r="P13" s="36"/>
+      <c r="Q13" s="36"/>
+      <c r="R13" s="36"/>
+      <c r="S13" s="36"/>
+      <c r="T13" s="37"/>
+      <c r="U13" s="35" t="s">
         <v>87</v>
       </c>
-      <c r="V13" s="38"/>
-      <c r="W13" s="38"/>
-      <c r="X13" s="38"/>
-      <c r="Y13" s="38"/>
-      <c r="Z13" s="38"/>
-      <c r="AA13" s="38"/>
-      <c r="AB13" s="39"/>
-      <c r="AC13" s="37" t="s">
+      <c r="V13" s="36"/>
+      <c r="W13" s="36"/>
+      <c r="X13" s="36"/>
+      <c r="Y13" s="36"/>
+      <c r="Z13" s="36"/>
+      <c r="AA13" s="36"/>
+      <c r="AB13" s="37"/>
+      <c r="AC13" s="35" t="s">
         <v>88</v>
       </c>
-      <c r="AD13" s="38"/>
-      <c r="AE13" s="38"/>
-      <c r="AF13" s="38"/>
-      <c r="AG13" s="38"/>
-      <c r="AH13" s="38"/>
-      <c r="AI13" s="38"/>
-      <c r="AJ13" s="39"/>
-      <c r="AK13" s="46" t="s">
+      <c r="AD13" s="36"/>
+      <c r="AE13" s="36"/>
+      <c r="AF13" s="36"/>
+      <c r="AG13" s="36"/>
+      <c r="AH13" s="36"/>
+      <c r="AI13" s="36"/>
+      <c r="AJ13" s="37"/>
+      <c r="AK13" s="45" t="s">
         <v>63</v>
       </c>
-      <c r="AL13" s="41" t="s">
+      <c r="AL13" s="40" t="s">
         <v>62</v>
       </c>
-      <c r="AM13" s="41" t="s">
+      <c r="AM13" s="40" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="14" spans="3:39" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C14" s="36" t="s">
+      <c r="C14" s="38" t="s">
         <v>111</v>
       </c>
-      <c r="D14" s="36"/>
+      <c r="D14" s="38"/>
       <c r="E14" s="14" t="s">
         <v>93</v>
       </c>
@@ -8395,120 +8392,120 @@
       <c r="AJ14" s="14" t="s">
         <v>90</v>
       </c>
-      <c r="AK14" s="47"/>
-      <c r="AL14" s="41"/>
-      <c r="AM14" s="41"/>
+      <c r="AK14" s="46"/>
+      <c r="AL14" s="40"/>
+      <c r="AM14" s="40"/>
     </row>
     <row r="15" spans="3:39" ht="95.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C15" s="40" t="s">
+      <c r="C15" s="39" t="s">
         <v>76</v>
       </c>
-      <c r="D15" s="40" t="s">
+      <c r="D15" s="39" t="s">
         <v>78</v>
       </c>
-      <c r="E15" s="35" t="s">
+      <c r="E15" s="34" t="s">
         <v>24</v>
       </c>
-      <c r="F15" s="35"/>
-      <c r="G15" s="35"/>
-      <c r="H15" s="35"/>
-      <c r="I15" s="31" t="s">
+      <c r="F15" s="34"/>
+      <c r="G15" s="34"/>
+      <c r="H15" s="34"/>
+      <c r="I15" s="30" t="s">
         <v>16</v>
       </c>
-      <c r="J15" s="28"/>
-      <c r="K15" s="32" t="s">
+      <c r="J15" s="27"/>
+      <c r="K15" s="31" t="s">
         <v>142</v>
       </c>
-      <c r="L15" s="34"/>
-      <c r="M15" s="32" t="s">
+      <c r="L15" s="33"/>
+      <c r="M15" s="31" t="s">
         <v>16</v>
       </c>
-      <c r="N15" s="33"/>
-      <c r="O15" s="33"/>
-      <c r="P15" s="34"/>
-      <c r="Q15" s="28" t="s">
+      <c r="N15" s="32"/>
+      <c r="O15" s="32"/>
+      <c r="P15" s="33"/>
+      <c r="Q15" s="27" t="s">
         <v>50</v>
       </c>
-      <c r="R15" s="28"/>
-      <c r="S15" s="28"/>
-      <c r="T15" s="28"/>
-      <c r="U15" s="29" t="s">
+      <c r="R15" s="27"/>
+      <c r="S15" s="27"/>
+      <c r="T15" s="27"/>
+      <c r="U15" s="28" t="s">
         <v>16</v>
       </c>
-      <c r="V15" s="30"/>
-      <c r="W15" s="30"/>
-      <c r="X15" s="30"/>
-      <c r="Y15" s="30"/>
-      <c r="Z15" s="31"/>
-      <c r="AA15" s="19" t="s">
+      <c r="V15" s="29"/>
+      <c r="W15" s="29"/>
+      <c r="X15" s="29"/>
+      <c r="Y15" s="29"/>
+      <c r="Z15" s="30"/>
+      <c r="AA15" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="AB15" s="19" t="s">
+      <c r="AB15" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="AC15" s="29" t="s">
+      <c r="AC15" s="28" t="s">
         <v>16</v>
       </c>
-      <c r="AD15" s="30"/>
-      <c r="AE15" s="30"/>
-      <c r="AF15" s="30"/>
-      <c r="AG15" s="30"/>
-      <c r="AH15" s="30"/>
-      <c r="AI15" s="30"/>
-      <c r="AJ15" s="31"/>
+      <c r="AD15" s="29"/>
+      <c r="AE15" s="29"/>
+      <c r="AF15" s="29"/>
+      <c r="AG15" s="29"/>
+      <c r="AH15" s="29"/>
+      <c r="AI15" s="29"/>
+      <c r="AJ15" s="30"/>
       <c r="AK15" s="17" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="AL15" s="16" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="AM15" s="16" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
     </row>
     <row r="16" spans="3:39" ht="95.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C16" s="40"/>
-      <c r="D16" s="40"/>
-      <c r="E16" s="35"/>
-      <c r="F16" s="35"/>
-      <c r="G16" s="35"/>
-      <c r="H16" s="35"/>
-      <c r="I16" s="33" t="s">
+      <c r="C16" s="39"/>
+      <c r="D16" s="39"/>
+      <c r="E16" s="34"/>
+      <c r="F16" s="34"/>
+      <c r="G16" s="34"/>
+      <c r="H16" s="34"/>
+      <c r="I16" s="32" t="s">
         <v>16</v>
       </c>
-      <c r="J16" s="33"/>
-      <c r="K16" s="33"/>
-      <c r="L16" s="34"/>
-      <c r="M16" s="32" t="s">
+      <c r="J16" s="32"/>
+      <c r="K16" s="32"/>
+      <c r="L16" s="33"/>
+      <c r="M16" s="31" t="s">
         <v>16</v>
       </c>
-      <c r="N16" s="33"/>
-      <c r="O16" s="33"/>
-      <c r="P16" s="34"/>
-      <c r="Q16" s="28" t="s">
+      <c r="N16" s="32"/>
+      <c r="O16" s="32"/>
+      <c r="P16" s="33"/>
+      <c r="Q16" s="27" t="s">
         <v>52</v>
       </c>
-      <c r="R16" s="28"/>
-      <c r="S16" s="28"/>
-      <c r="T16" s="28"/>
-      <c r="U16" s="29" t="s">
+      <c r="R16" s="27"/>
+      <c r="S16" s="27"/>
+      <c r="T16" s="27"/>
+      <c r="U16" s="28" t="s">
         <v>16</v>
       </c>
-      <c r="V16" s="30"/>
-      <c r="W16" s="30"/>
-      <c r="X16" s="30"/>
-      <c r="Y16" s="30"/>
-      <c r="Z16" s="30"/>
-      <c r="AA16" s="30"/>
-      <c r="AB16" s="30"/>
-      <c r="AC16" s="30"/>
-      <c r="AD16" s="30"/>
-      <c r="AE16" s="30"/>
-      <c r="AF16" s="30"/>
-      <c r="AG16" s="30"/>
-      <c r="AH16" s="30"/>
-      <c r="AI16" s="30"/>
-      <c r="AJ16" s="31"/>
+      <c r="V16" s="29"/>
+      <c r="W16" s="29"/>
+      <c r="X16" s="29"/>
+      <c r="Y16" s="29"/>
+      <c r="Z16" s="29"/>
+      <c r="AA16" s="29"/>
+      <c r="AB16" s="29"/>
+      <c r="AC16" s="29"/>
+      <c r="AD16" s="29"/>
+      <c r="AE16" s="29"/>
+      <c r="AF16" s="29"/>
+      <c r="AG16" s="29"/>
+      <c r="AH16" s="29"/>
+      <c r="AI16" s="29"/>
+      <c r="AJ16" s="30"/>
       <c r="AK16" s="17" t="s">
         <v>67</v>
       </c>
@@ -8520,50 +8517,50 @@
       </c>
     </row>
     <row r="17" spans="3:39" ht="95.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C17" s="40"/>
-      <c r="D17" s="40"/>
-      <c r="E17" s="35"/>
-      <c r="F17" s="35"/>
-      <c r="G17" s="35"/>
-      <c r="H17" s="35"/>
-      <c r="I17" s="33" t="s">
+      <c r="C17" s="39"/>
+      <c r="D17" s="39"/>
+      <c r="E17" s="34"/>
+      <c r="F17" s="34"/>
+      <c r="G17" s="34"/>
+      <c r="H17" s="34"/>
+      <c r="I17" s="32" t="s">
         <v>16</v>
       </c>
-      <c r="J17" s="33"/>
-      <c r="K17" s="33"/>
-      <c r="L17" s="34"/>
-      <c r="M17" s="32" t="s">
+      <c r="J17" s="32"/>
+      <c r="K17" s="32"/>
+      <c r="L17" s="33"/>
+      <c r="M17" s="31" t="s">
         <v>16</v>
       </c>
-      <c r="N17" s="33"/>
-      <c r="O17" s="33"/>
-      <c r="P17" s="34"/>
-      <c r="Q17" s="28" t="s">
+      <c r="N17" s="32"/>
+      <c r="O17" s="32"/>
+      <c r="P17" s="33"/>
+      <c r="Q17" s="27" t="s">
         <v>53</v>
       </c>
-      <c r="R17" s="28"/>
-      <c r="S17" s="28"/>
-      <c r="T17" s="28"/>
-      <c r="U17" s="29" t="s">
+      <c r="R17" s="27"/>
+      <c r="S17" s="27"/>
+      <c r="T17" s="27"/>
+      <c r="U17" s="28" t="s">
         <v>16</v>
       </c>
-      <c r="V17" s="30"/>
-      <c r="W17" s="30"/>
-      <c r="X17" s="30"/>
-      <c r="Y17" s="30"/>
-      <c r="Z17" s="30"/>
-      <c r="AA17" s="30"/>
-      <c r="AB17" s="30"/>
-      <c r="AC17" s="30"/>
-      <c r="AD17" s="30"/>
-      <c r="AE17" s="30"/>
-      <c r="AF17" s="31"/>
-      <c r="AG17" s="29" t="s">
+      <c r="V17" s="29"/>
+      <c r="W17" s="29"/>
+      <c r="X17" s="29"/>
+      <c r="Y17" s="29"/>
+      <c r="Z17" s="29"/>
+      <c r="AA17" s="29"/>
+      <c r="AB17" s="29"/>
+      <c r="AC17" s="29"/>
+      <c r="AD17" s="29"/>
+      <c r="AE17" s="29"/>
+      <c r="AF17" s="30"/>
+      <c r="AG17" s="28" t="s">
         <v>24</v>
       </c>
-      <c r="AH17" s="30"/>
-      <c r="AI17" s="30"/>
-      <c r="AJ17" s="31"/>
+      <c r="AH17" s="29"/>
+      <c r="AI17" s="29"/>
+      <c r="AJ17" s="30"/>
       <c r="AK17" s="17" t="s">
         <v>68</v>
       </c>
@@ -8571,144 +8568,142 @@
         <v>144</v>
       </c>
       <c r="AM17" s="16" t="s">
-        <v>148</v>
+        <v>170</v>
       </c>
     </row>
     <row r="18" spans="3:39" ht="95.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C18" s="40"/>
-      <c r="D18" s="40"/>
-      <c r="E18" s="35"/>
-      <c r="F18" s="35"/>
-      <c r="G18" s="35"/>
-      <c r="H18" s="35"/>
-      <c r="I18" s="31" t="s">
+      <c r="C18" s="39"/>
+      <c r="D18" s="39"/>
+      <c r="E18" s="34"/>
+      <c r="F18" s="34"/>
+      <c r="G18" s="34"/>
+      <c r="H18" s="34"/>
+      <c r="I18" s="30" t="s">
         <v>16</v>
       </c>
-      <c r="J18" s="28"/>
-      <c r="K18" s="32" t="s">
+      <c r="J18" s="27"/>
+      <c r="K18" s="31" t="s">
         <v>142</v>
       </c>
-      <c r="L18" s="34"/>
-      <c r="M18" s="35" t="s">
+      <c r="L18" s="33"/>
+      <c r="M18" s="34" t="s">
         <v>143</v>
       </c>
-      <c r="N18" s="35"/>
-      <c r="O18" s="35"/>
-      <c r="P18" s="35"/>
-      <c r="Q18" s="28" t="s">
+      <c r="N18" s="34"/>
+      <c r="O18" s="34"/>
+      <c r="P18" s="34"/>
+      <c r="Q18" s="27" t="s">
         <v>129</v>
       </c>
-      <c r="R18" s="28"/>
-      <c r="S18" s="28"/>
-      <c r="T18" s="28"/>
-      <c r="U18" s="29" t="s">
+      <c r="R18" s="27"/>
+      <c r="S18" s="27"/>
+      <c r="T18" s="27"/>
+      <c r="U18" s="28" t="s">
         <v>16</v>
       </c>
-      <c r="V18" s="30"/>
-      <c r="W18" s="30"/>
-      <c r="X18" s="30"/>
-      <c r="Y18" s="30"/>
+      <c r="V18" s="29"/>
+      <c r="W18" s="29"/>
+      <c r="X18" s="29"/>
+      <c r="Y18" s="29"/>
       <c r="Z18" s="30"/>
-      <c r="AA18" s="31"/>
-      <c r="AB18" s="18" t="s">
+      <c r="AA18" s="27" t="s">
         <v>146</v>
       </c>
-      <c r="AC18" s="28" t="s">
+      <c r="AB18" s="27"/>
+      <c r="AC18" s="27" t="s">
         <v>16</v>
       </c>
-      <c r="AD18" s="28"/>
-      <c r="AE18" s="29" t="s">
+      <c r="AD18" s="27"/>
+      <c r="AE18" s="28" t="s">
         <v>58</v>
       </c>
-      <c r="AF18" s="30"/>
-      <c r="AG18" s="30"/>
-      <c r="AH18" s="30"/>
-      <c r="AI18" s="30"/>
-      <c r="AJ18" s="31"/>
+      <c r="AF18" s="29"/>
+      <c r="AG18" s="29"/>
+      <c r="AH18" s="29"/>
+      <c r="AI18" s="29"/>
+      <c r="AJ18" s="30"/>
       <c r="AK18" s="17" t="s">
         <v>145</v>
       </c>
       <c r="AL18" s="16" t="s">
-        <v>147</v>
+        <v>172</v>
       </c>
       <c r="AM18" s="16" t="s">
-        <v>166</v>
+        <v>171</v>
       </c>
     </row>
     <row r="19" spans="3:39" ht="95.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C19" s="40"/>
-      <c r="D19" s="40"/>
-      <c r="E19" s="35"/>
-      <c r="F19" s="35"/>
-      <c r="G19" s="35"/>
-      <c r="H19" s="35"/>
-      <c r="I19" s="31" t="s">
+      <c r="C19" s="39"/>
+      <c r="D19" s="39"/>
+      <c r="E19" s="34"/>
+      <c r="F19" s="34"/>
+      <c r="G19" s="34"/>
+      <c r="H19" s="34"/>
+      <c r="I19" s="30" t="s">
         <v>16</v>
       </c>
-      <c r="J19" s="28"/>
-      <c r="K19" s="32" t="s">
+      <c r="J19" s="27"/>
+      <c r="K19" s="31" t="s">
         <v>142</v>
       </c>
-      <c r="L19" s="34"/>
-      <c r="M19" s="22" t="s">
+      <c r="L19" s="33"/>
+      <c r="M19" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="N19" s="32" t="s">
+      <c r="N19" s="31" t="s">
+        <v>158</v>
+      </c>
+      <c r="O19" s="32"/>
+      <c r="P19" s="33"/>
+      <c r="Q19" s="27" t="s">
+        <v>159</v>
+      </c>
+      <c r="R19" s="27"/>
+      <c r="S19" s="27"/>
+      <c r="T19" s="27"/>
+      <c r="U19" s="28" t="s">
+        <v>16</v>
+      </c>
+      <c r="V19" s="29"/>
+      <c r="W19" s="29"/>
+      <c r="X19" s="29"/>
+      <c r="Y19" s="29"/>
+      <c r="Z19" s="29"/>
+      <c r="AA19" s="30"/>
+      <c r="AB19" s="20" t="s">
         <v>160</v>
       </c>
-      <c r="O19" s="33"/>
-      <c r="P19" s="34"/>
-      <c r="Q19" s="28" t="s">
+      <c r="AC19" s="27" t="s">
+        <v>16</v>
+      </c>
+      <c r="AD19" s="27"/>
+      <c r="AE19" s="27"/>
+      <c r="AF19" s="27"/>
+      <c r="AG19" s="27"/>
+      <c r="AH19" s="27"/>
+      <c r="AI19" s="27"/>
+      <c r="AJ19" s="26" t="s">
         <v>161</v>
       </c>
-      <c r="R19" s="28"/>
-      <c r="S19" s="28"/>
-      <c r="T19" s="28"/>
-      <c r="U19" s="29" t="s">
-        <v>16</v>
-      </c>
-      <c r="V19" s="30"/>
-      <c r="W19" s="30"/>
-      <c r="X19" s="30"/>
-      <c r="Y19" s="30"/>
-      <c r="Z19" s="30"/>
-      <c r="AA19" s="31"/>
-      <c r="AB19" s="21" t="s">
+      <c r="AK19" s="17" t="s">
         <v>162</v>
       </c>
-      <c r="AC19" s="28" t="s">
-        <v>16</v>
-      </c>
-      <c r="AD19" s="28"/>
-      <c r="AE19" s="28"/>
-      <c r="AF19" s="28"/>
-      <c r="AG19" s="28"/>
-      <c r="AH19" s="28"/>
-      <c r="AI19" s="28"/>
-      <c r="AJ19" s="27" t="s">
+      <c r="AL19" s="16" t="s">
         <v>163</v>
       </c>
-      <c r="AK19" s="17" t="s">
-        <v>164</v>
-      </c>
-      <c r="AL19" s="16" t="s">
-        <v>165</v>
-      </c>
       <c r="AM19" s="16" t="s">
-        <v>167</v>
+        <v>173</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="39">
-    <mergeCell ref="I17:L17"/>
-    <mergeCell ref="I15:J15"/>
-    <mergeCell ref="K15:L15"/>
-    <mergeCell ref="M15:P15"/>
+  <mergeCells count="40">
     <mergeCell ref="C15:C19"/>
     <mergeCell ref="D15:D19"/>
     <mergeCell ref="E15:H19"/>
     <mergeCell ref="I19:J19"/>
     <mergeCell ref="K19:L19"/>
+    <mergeCell ref="I18:J18"/>
+    <mergeCell ref="K18:L18"/>
     <mergeCell ref="AK13:AK14"/>
     <mergeCell ref="AL13:AL14"/>
     <mergeCell ref="AM13:AM14"/>
@@ -8717,32 +8712,35 @@
     <mergeCell ref="M13:T13"/>
     <mergeCell ref="U13:AB13"/>
     <mergeCell ref="AC13:AJ13"/>
-    <mergeCell ref="I18:J18"/>
-    <mergeCell ref="K18:L18"/>
-    <mergeCell ref="U17:AF17"/>
-    <mergeCell ref="AG17:AJ17"/>
     <mergeCell ref="AC15:AJ15"/>
     <mergeCell ref="I16:L16"/>
     <mergeCell ref="Q16:T16"/>
     <mergeCell ref="M17:P17"/>
-    <mergeCell ref="AC18:AD18"/>
-    <mergeCell ref="AE18:AJ18"/>
-    <mergeCell ref="U18:AA18"/>
-    <mergeCell ref="M16:P16"/>
-    <mergeCell ref="U16:AJ16"/>
-    <mergeCell ref="M18:P18"/>
     <mergeCell ref="Q15:T15"/>
-    <mergeCell ref="Q17:T17"/>
+    <mergeCell ref="I17:L17"/>
+    <mergeCell ref="I15:J15"/>
+    <mergeCell ref="K15:L15"/>
+    <mergeCell ref="M15:P15"/>
     <mergeCell ref="Q19:T19"/>
     <mergeCell ref="U19:AA19"/>
     <mergeCell ref="N19:P19"/>
     <mergeCell ref="AC19:AI19"/>
     <mergeCell ref="U15:Z15"/>
     <mergeCell ref="Q18:T18"/>
+    <mergeCell ref="AA18:AB18"/>
+    <mergeCell ref="U18:Z18"/>
+    <mergeCell ref="AC18:AD18"/>
+    <mergeCell ref="AE18:AJ18"/>
+    <mergeCell ref="M16:P16"/>
+    <mergeCell ref="U16:AJ16"/>
+    <mergeCell ref="M18:P18"/>
+    <mergeCell ref="Q17:T17"/>
+    <mergeCell ref="U17:AF17"/>
+    <mergeCell ref="AG17:AJ17"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -8750,8 +8748,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3BAD3137-82BD-4015-B837-4D20CB3243AA}">
   <dimension ref="C13:AM19"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="S6" sqref="S6"/>
+    <sheetView tabSelected="1" topLeftCell="I1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="AA23" sqref="AA23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -8770,269 +8768,269 @@
       <c r="D13" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="E13" s="37" t="s">
+      <c r="E13" s="35" t="s">
         <v>79</v>
       </c>
-      <c r="F13" s="38"/>
-      <c r="G13" s="38"/>
-      <c r="H13" s="38"/>
-      <c r="I13" s="38"/>
-      <c r="J13" s="38"/>
-      <c r="K13" s="38"/>
-      <c r="L13" s="39"/>
-      <c r="M13" s="37" t="s">
+      <c r="F13" s="36"/>
+      <c r="G13" s="36"/>
+      <c r="H13" s="36"/>
+      <c r="I13" s="36"/>
+      <c r="J13" s="36"/>
+      <c r="K13" s="36"/>
+      <c r="L13" s="37"/>
+      <c r="M13" s="35" t="s">
         <v>80</v>
       </c>
-      <c r="N13" s="38" t="s">
+      <c r="N13" s="36" t="s">
         <v>81</v>
       </c>
-      <c r="O13" s="38" t="s">
+      <c r="O13" s="36" t="s">
         <v>82</v>
       </c>
-      <c r="P13" s="38"/>
-      <c r="Q13" s="38"/>
-      <c r="R13" s="38"/>
-      <c r="S13" s="38"/>
-      <c r="T13" s="39"/>
-      <c r="U13" s="37" t="s">
+      <c r="P13" s="36"/>
+      <c r="Q13" s="36"/>
+      <c r="R13" s="36"/>
+      <c r="S13" s="36"/>
+      <c r="T13" s="37"/>
+      <c r="U13" s="35" t="s">
         <v>87</v>
       </c>
-      <c r="V13" s="38"/>
-      <c r="W13" s="38"/>
-      <c r="X13" s="38"/>
-      <c r="Y13" s="38"/>
-      <c r="Z13" s="38"/>
-      <c r="AA13" s="38"/>
-      <c r="AB13" s="39"/>
-      <c r="AC13" s="37" t="s">
+      <c r="V13" s="36"/>
+      <c r="W13" s="36"/>
+      <c r="X13" s="36"/>
+      <c r="Y13" s="36"/>
+      <c r="Z13" s="36"/>
+      <c r="AA13" s="36"/>
+      <c r="AB13" s="37"/>
+      <c r="AC13" s="35" t="s">
         <v>88</v>
       </c>
-      <c r="AD13" s="38"/>
-      <c r="AE13" s="38"/>
-      <c r="AF13" s="38"/>
-      <c r="AG13" s="38"/>
-      <c r="AH13" s="38"/>
-      <c r="AI13" s="38"/>
-      <c r="AJ13" s="39"/>
-      <c r="AK13" s="46" t="s">
+      <c r="AD13" s="36"/>
+      <c r="AE13" s="36"/>
+      <c r="AF13" s="36"/>
+      <c r="AG13" s="36"/>
+      <c r="AH13" s="36"/>
+      <c r="AI13" s="36"/>
+      <c r="AJ13" s="37"/>
+      <c r="AK13" s="45" t="s">
         <v>63</v>
       </c>
-      <c r="AL13" s="41" t="s">
+      <c r="AL13" s="40" t="s">
         <v>62</v>
       </c>
-      <c r="AM13" s="41" t="s">
+      <c r="AM13" s="40" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="14" spans="3:39" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C14" s="36" t="s">
+      <c r="C14" s="38" t="s">
         <v>111</v>
       </c>
-      <c r="D14" s="36"/>
-      <c r="E14" s="26" t="s">
+      <c r="D14" s="38"/>
+      <c r="E14" s="25" t="s">
         <v>93</v>
       </c>
-      <c r="F14" s="26" t="s">
+      <c r="F14" s="25" t="s">
         <v>94</v>
       </c>
-      <c r="G14" s="26" t="s">
+      <c r="G14" s="25" t="s">
         <v>95</v>
       </c>
-      <c r="H14" s="26" t="s">
+      <c r="H14" s="25" t="s">
         <v>96</v>
       </c>
-      <c r="I14" s="26" t="s">
+      <c r="I14" s="25" t="s">
         <v>97</v>
       </c>
-      <c r="J14" s="26" t="s">
+      <c r="J14" s="25" t="s">
         <v>98</v>
       </c>
-      <c r="K14" s="26" t="s">
+      <c r="K14" s="25" t="s">
         <v>99</v>
       </c>
-      <c r="L14" s="26" t="s">
+      <c r="L14" s="25" t="s">
         <v>100</v>
       </c>
-      <c r="M14" s="26" t="s">
+      <c r="M14" s="25" t="s">
         <v>101</v>
       </c>
-      <c r="N14" s="26" t="s">
+      <c r="N14" s="25" t="s">
         <v>102</v>
       </c>
-      <c r="O14" s="26" t="s">
+      <c r="O14" s="25" t="s">
         <v>103</v>
       </c>
-      <c r="P14" s="26" t="s">
+      <c r="P14" s="25" t="s">
         <v>104</v>
       </c>
-      <c r="Q14" s="26" t="s">
+      <c r="Q14" s="25" t="s">
         <v>105</v>
       </c>
-      <c r="R14" s="26" t="s">
+      <c r="R14" s="25" t="s">
         <v>106</v>
       </c>
-      <c r="S14" s="26" t="s">
+      <c r="S14" s="25" t="s">
         <v>107</v>
       </c>
-      <c r="T14" s="26" t="s">
+      <c r="T14" s="25" t="s">
         <v>108</v>
       </c>
-      <c r="U14" s="26" t="s">
+      <c r="U14" s="25" t="s">
         <v>109</v>
       </c>
-      <c r="V14" s="26" t="s">
+      <c r="V14" s="25" t="s">
         <v>110</v>
       </c>
-      <c r="W14" s="26" t="s">
+      <c r="W14" s="25" t="s">
         <v>2</v>
       </c>
-      <c r="X14" s="26" t="s">
+      <c r="X14" s="25" t="s">
         <v>3</v>
       </c>
-      <c r="Y14" s="26" t="s">
+      <c r="Y14" s="25" t="s">
         <v>4</v>
       </c>
-      <c r="Z14" s="26" t="s">
+      <c r="Z14" s="25" t="s">
         <v>5</v>
       </c>
-      <c r="AA14" s="26" t="s">
+      <c r="AA14" s="25" t="s">
         <v>6</v>
       </c>
-      <c r="AB14" s="26" t="s">
+      <c r="AB14" s="25" t="s">
         <v>7</v>
       </c>
-      <c r="AC14" s="26" t="s">
+      <c r="AC14" s="25" t="s">
         <v>8</v>
       </c>
-      <c r="AD14" s="26" t="s">
+      <c r="AD14" s="25" t="s">
         <v>9</v>
       </c>
-      <c r="AE14" s="26" t="s">
+      <c r="AE14" s="25" t="s">
         <v>10</v>
       </c>
-      <c r="AF14" s="26" t="s">
+      <c r="AF14" s="25" t="s">
         <v>11</v>
       </c>
-      <c r="AG14" s="26" t="s">
+      <c r="AG14" s="25" t="s">
         <v>12</v>
       </c>
-      <c r="AH14" s="26" t="s">
+      <c r="AH14" s="25" t="s">
         <v>92</v>
       </c>
-      <c r="AI14" s="26" t="s">
+      <c r="AI14" s="25" t="s">
         <v>91</v>
       </c>
-      <c r="AJ14" s="26" t="s">
+      <c r="AJ14" s="25" t="s">
         <v>90</v>
       </c>
-      <c r="AK14" s="47"/>
-      <c r="AL14" s="41"/>
-      <c r="AM14" s="41"/>
+      <c r="AK14" s="46"/>
+      <c r="AL14" s="40"/>
+      <c r="AM14" s="40"/>
     </row>
     <row r="15" spans="3:39" ht="95.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C15" s="40" t="s">
+      <c r="C15" s="39" t="s">
         <v>76</v>
       </c>
-      <c r="D15" s="40" t="s">
+      <c r="D15" s="39" t="s">
         <v>78</v>
       </c>
-      <c r="E15" s="48" t="s">
+      <c r="E15" s="47" t="s">
         <v>24</v>
       </c>
-      <c r="F15" s="49"/>
-      <c r="G15" s="49"/>
-      <c r="H15" s="49"/>
-      <c r="I15" s="49"/>
-      <c r="J15" s="49"/>
-      <c r="K15" s="49"/>
-      <c r="L15" s="50"/>
-      <c r="M15" s="32" t="s">
+      <c r="F15" s="48"/>
+      <c r="G15" s="48"/>
+      <c r="H15" s="48"/>
+      <c r="I15" s="48"/>
+      <c r="J15" s="48"/>
+      <c r="K15" s="48"/>
+      <c r="L15" s="49"/>
+      <c r="M15" s="31" t="s">
         <v>16</v>
       </c>
-      <c r="N15" s="33"/>
-      <c r="O15" s="33"/>
-      <c r="P15" s="34"/>
-      <c r="Q15" s="28" t="s">
+      <c r="N15" s="32"/>
+      <c r="O15" s="32"/>
+      <c r="P15" s="33"/>
+      <c r="Q15" s="27" t="s">
         <v>50</v>
       </c>
-      <c r="R15" s="28"/>
-      <c r="S15" s="28"/>
-      <c r="T15" s="28"/>
-      <c r="U15" s="29" t="s">
+      <c r="R15" s="27"/>
+      <c r="S15" s="27"/>
+      <c r="T15" s="27"/>
+      <c r="U15" s="28" t="s">
         <v>16</v>
       </c>
-      <c r="V15" s="30"/>
-      <c r="W15" s="30"/>
-      <c r="X15" s="30"/>
-      <c r="Y15" s="30"/>
-      <c r="Z15" s="31"/>
-      <c r="AA15" s="24" t="s">
+      <c r="V15" s="29"/>
+      <c r="W15" s="29"/>
+      <c r="X15" s="29"/>
+      <c r="Y15" s="29"/>
+      <c r="Z15" s="30"/>
+      <c r="AA15" s="23" t="s">
         <v>19</v>
       </c>
-      <c r="AB15" s="24" t="s">
+      <c r="AB15" s="23" t="s">
         <v>20</v>
       </c>
-      <c r="AC15" s="29" t="s">
+      <c r="AC15" s="28" t="s">
         <v>16</v>
       </c>
-      <c r="AD15" s="30"/>
-      <c r="AE15" s="30"/>
-      <c r="AF15" s="30"/>
-      <c r="AG15" s="30"/>
-      <c r="AH15" s="30"/>
-      <c r="AI15" s="30"/>
-      <c r="AJ15" s="31"/>
+      <c r="AD15" s="29"/>
+      <c r="AE15" s="29"/>
+      <c r="AF15" s="29"/>
+      <c r="AG15" s="29"/>
+      <c r="AH15" s="29"/>
+      <c r="AI15" s="29"/>
+      <c r="AJ15" s="30"/>
       <c r="AK15" s="17" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="AL15" s="16" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
       <c r="AM15" s="16" t="s">
-        <v>175</v>
+        <v>169</v>
       </c>
     </row>
     <row r="16" spans="3:39" ht="95.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C16" s="40"/>
-      <c r="D16" s="40"/>
-      <c r="E16" s="51"/>
-      <c r="F16" s="52"/>
-      <c r="G16" s="52"/>
-      <c r="H16" s="52"/>
-      <c r="I16" s="52"/>
-      <c r="J16" s="52"/>
-      <c r="K16" s="52"/>
-      <c r="L16" s="53"/>
-      <c r="M16" s="32" t="s">
+      <c r="C16" s="39"/>
+      <c r="D16" s="39"/>
+      <c r="E16" s="50"/>
+      <c r="F16" s="51"/>
+      <c r="G16" s="51"/>
+      <c r="H16" s="51"/>
+      <c r="I16" s="51"/>
+      <c r="J16" s="51"/>
+      <c r="K16" s="51"/>
+      <c r="L16" s="52"/>
+      <c r="M16" s="31" t="s">
         <v>16</v>
       </c>
-      <c r="N16" s="33"/>
-      <c r="O16" s="33"/>
-      <c r="P16" s="34"/>
-      <c r="Q16" s="28" t="s">
+      <c r="N16" s="32"/>
+      <c r="O16" s="32"/>
+      <c r="P16" s="33"/>
+      <c r="Q16" s="27" t="s">
         <v>52</v>
       </c>
-      <c r="R16" s="28"/>
-      <c r="S16" s="28"/>
-      <c r="T16" s="28"/>
-      <c r="U16" s="29" t="s">
+      <c r="R16" s="27"/>
+      <c r="S16" s="27"/>
+      <c r="T16" s="27"/>
+      <c r="U16" s="28" t="s">
         <v>16</v>
       </c>
-      <c r="V16" s="30"/>
-      <c r="W16" s="30"/>
-      <c r="X16" s="30"/>
-      <c r="Y16" s="30"/>
-      <c r="Z16" s="30"/>
-      <c r="AA16" s="30"/>
-      <c r="AB16" s="30"/>
-      <c r="AC16" s="30"/>
-      <c r="AD16" s="30"/>
-      <c r="AE16" s="30"/>
-      <c r="AF16" s="30"/>
-      <c r="AG16" s="30"/>
-      <c r="AH16" s="30"/>
-      <c r="AI16" s="30"/>
-      <c r="AJ16" s="31"/>
+      <c r="V16" s="29"/>
+      <c r="W16" s="29"/>
+      <c r="X16" s="29"/>
+      <c r="Y16" s="29"/>
+      <c r="Z16" s="29"/>
+      <c r="AA16" s="29"/>
+      <c r="AB16" s="29"/>
+      <c r="AC16" s="29"/>
+      <c r="AD16" s="29"/>
+      <c r="AE16" s="29"/>
+      <c r="AF16" s="29"/>
+      <c r="AG16" s="29"/>
+      <c r="AH16" s="29"/>
+      <c r="AI16" s="29"/>
+      <c r="AJ16" s="30"/>
       <c r="AK16" s="17" t="s">
         <v>67</v>
       </c>
@@ -9044,48 +9042,48 @@
       </c>
     </row>
     <row r="17" spans="3:39" ht="95.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C17" s="40"/>
-      <c r="D17" s="40"/>
-      <c r="E17" s="51"/>
-      <c r="F17" s="52"/>
-      <c r="G17" s="52"/>
-      <c r="H17" s="52"/>
-      <c r="I17" s="52"/>
-      <c r="J17" s="52"/>
-      <c r="K17" s="52"/>
-      <c r="L17" s="53"/>
-      <c r="M17" s="32" t="s">
+      <c r="C17" s="39"/>
+      <c r="D17" s="39"/>
+      <c r="E17" s="50"/>
+      <c r="F17" s="51"/>
+      <c r="G17" s="51"/>
+      <c r="H17" s="51"/>
+      <c r="I17" s="51"/>
+      <c r="J17" s="51"/>
+      <c r="K17" s="51"/>
+      <c r="L17" s="52"/>
+      <c r="M17" s="31" t="s">
         <v>16</v>
       </c>
-      <c r="N17" s="33"/>
-      <c r="O17" s="33"/>
-      <c r="P17" s="34"/>
-      <c r="Q17" s="28" t="s">
+      <c r="N17" s="32"/>
+      <c r="O17" s="32"/>
+      <c r="P17" s="33"/>
+      <c r="Q17" s="27" t="s">
         <v>53</v>
       </c>
-      <c r="R17" s="28"/>
-      <c r="S17" s="28"/>
-      <c r="T17" s="28"/>
-      <c r="U17" s="29" t="s">
+      <c r="R17" s="27"/>
+      <c r="S17" s="27"/>
+      <c r="T17" s="27"/>
+      <c r="U17" s="28" t="s">
         <v>16</v>
       </c>
-      <c r="V17" s="30"/>
-      <c r="W17" s="30"/>
-      <c r="X17" s="30"/>
-      <c r="Y17" s="30"/>
-      <c r="Z17" s="30"/>
-      <c r="AA17" s="30"/>
-      <c r="AB17" s="31"/>
-      <c r="AC17" s="28" t="s">
+      <c r="V17" s="29"/>
+      <c r="W17" s="29"/>
+      <c r="X17" s="29"/>
+      <c r="Y17" s="29"/>
+      <c r="Z17" s="29"/>
+      <c r="AA17" s="29"/>
+      <c r="AB17" s="30"/>
+      <c r="AC17" s="27" t="s">
         <v>24</v>
       </c>
-      <c r="AD17" s="28"/>
-      <c r="AE17" s="28"/>
-      <c r="AF17" s="28"/>
-      <c r="AG17" s="28"/>
-      <c r="AH17" s="28"/>
-      <c r="AI17" s="28"/>
-      <c r="AJ17" s="28"/>
+      <c r="AD17" s="27"/>
+      <c r="AE17" s="27"/>
+      <c r="AF17" s="27"/>
+      <c r="AG17" s="27"/>
+      <c r="AH17" s="27"/>
+      <c r="AI17" s="27"/>
+      <c r="AJ17" s="27"/>
       <c r="AK17" s="17" t="s">
         <v>68</v>
       </c>
@@ -9093,129 +9091,138 @@
         <v>144</v>
       </c>
       <c r="AM17" s="16" t="s">
-        <v>148</v>
+        <v>170</v>
       </c>
     </row>
     <row r="18" spans="3:39" ht="95.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C18" s="40"/>
-      <c r="D18" s="40"/>
-      <c r="E18" s="51"/>
-      <c r="F18" s="52"/>
-      <c r="G18" s="52"/>
-      <c r="H18" s="52"/>
-      <c r="I18" s="52"/>
-      <c r="J18" s="52"/>
-      <c r="K18" s="52"/>
-      <c r="L18" s="53"/>
-      <c r="M18" s="24" t="s">
-        <v>170</v>
-      </c>
-      <c r="N18" s="32" t="s">
+      <c r="C18" s="39"/>
+      <c r="D18" s="39"/>
+      <c r="E18" s="50"/>
+      <c r="F18" s="51"/>
+      <c r="G18" s="51"/>
+      <c r="H18" s="51"/>
+      <c r="I18" s="51"/>
+      <c r="J18" s="51"/>
+      <c r="K18" s="51"/>
+      <c r="L18" s="52"/>
+      <c r="M18" s="23" t="s">
+        <v>166</v>
+      </c>
+      <c r="N18" s="31" t="s">
         <v>143</v>
       </c>
-      <c r="O18" s="33"/>
-      <c r="P18" s="34"/>
-      <c r="Q18" s="28" t="s">
+      <c r="O18" s="32"/>
+      <c r="P18" s="33"/>
+      <c r="Q18" s="27" t="s">
         <v>129</v>
       </c>
-      <c r="R18" s="28"/>
-      <c r="S18" s="28"/>
-      <c r="T18" s="28"/>
-      <c r="U18" s="29" t="s">
+      <c r="R18" s="27"/>
+      <c r="S18" s="27"/>
+      <c r="T18" s="27"/>
+      <c r="U18" s="28" t="s">
         <v>16</v>
       </c>
-      <c r="V18" s="30"/>
-      <c r="W18" s="30"/>
-      <c r="X18" s="30"/>
-      <c r="Y18" s="30"/>
+      <c r="V18" s="29"/>
+      <c r="W18" s="29"/>
+      <c r="X18" s="29"/>
+      <c r="Y18" s="29"/>
       <c r="Z18" s="30"/>
-      <c r="AA18" s="31"/>
-      <c r="AB18" s="25" t="s">
+      <c r="AA18" s="27" t="s">
         <v>146</v>
       </c>
-      <c r="AC18" s="28" t="s">
+      <c r="AB18" s="27"/>
+      <c r="AC18" s="27" t="s">
         <v>16</v>
       </c>
-      <c r="AD18" s="28"/>
-      <c r="AE18" s="29" t="s">
+      <c r="AD18" s="27"/>
+      <c r="AE18" s="28" t="s">
         <v>58</v>
       </c>
-      <c r="AF18" s="30"/>
-      <c r="AG18" s="30"/>
-      <c r="AH18" s="30"/>
-      <c r="AI18" s="30"/>
-      <c r="AJ18" s="31"/>
+      <c r="AF18" s="29"/>
+      <c r="AG18" s="29"/>
+      <c r="AH18" s="29"/>
+      <c r="AI18" s="29"/>
+      <c r="AJ18" s="30"/>
       <c r="AK18" s="17" t="s">
         <v>145</v>
       </c>
       <c r="AL18" s="16" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="AM18" s="16" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
     </row>
     <row r="19" spans="3:39" ht="95.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C19" s="40"/>
-      <c r="D19" s="40"/>
-      <c r="E19" s="54"/>
-      <c r="F19" s="55"/>
-      <c r="G19" s="55"/>
-      <c r="H19" s="55"/>
-      <c r="I19" s="55"/>
-      <c r="J19" s="55"/>
-      <c r="K19" s="55"/>
-      <c r="L19" s="56"/>
-      <c r="M19" s="35" t="s">
+      <c r="C19" s="39"/>
+      <c r="D19" s="39"/>
+      <c r="E19" s="53"/>
+      <c r="F19" s="54"/>
+      <c r="G19" s="54"/>
+      <c r="H19" s="54"/>
+      <c r="I19" s="54"/>
+      <c r="J19" s="54"/>
+      <c r="K19" s="54"/>
+      <c r="L19" s="55"/>
+      <c r="M19" s="34" t="s">
         <v>16</v>
       </c>
-      <c r="N19" s="35"/>
-      <c r="O19" s="33" t="s">
-        <v>169</v>
-      </c>
-      <c r="P19" s="34"/>
-      <c r="Q19" s="28" t="s">
+      <c r="N19" s="34"/>
+      <c r="O19" s="32" t="s">
+        <v>165</v>
+      </c>
+      <c r="P19" s="33"/>
+      <c r="Q19" s="27" t="s">
+        <v>159</v>
+      </c>
+      <c r="R19" s="27"/>
+      <c r="S19" s="27"/>
+      <c r="T19" s="27"/>
+      <c r="U19" s="28" t="s">
+        <v>16</v>
+      </c>
+      <c r="V19" s="29"/>
+      <c r="W19" s="29"/>
+      <c r="X19" s="29"/>
+      <c r="Y19" s="29"/>
+      <c r="Z19" s="29"/>
+      <c r="AA19" s="30"/>
+      <c r="AB19" s="24" t="s">
+        <v>160</v>
+      </c>
+      <c r="AC19" s="27" t="s">
+        <v>16</v>
+      </c>
+      <c r="AD19" s="27"/>
+      <c r="AE19" s="27"/>
+      <c r="AF19" s="27"/>
+      <c r="AG19" s="27"/>
+      <c r="AH19" s="27"/>
+      <c r="AI19" s="27"/>
+      <c r="AJ19" s="26" t="s">
         <v>161</v>
       </c>
-      <c r="R19" s="28"/>
-      <c r="S19" s="28"/>
-      <c r="T19" s="28"/>
-      <c r="U19" s="29" t="s">
-        <v>16</v>
-      </c>
-      <c r="V19" s="30"/>
-      <c r="W19" s="30"/>
-      <c r="X19" s="30"/>
-      <c r="Y19" s="30"/>
-      <c r="Z19" s="30"/>
-      <c r="AA19" s="31"/>
-      <c r="AB19" s="25" t="s">
+      <c r="AK19" s="17" t="s">
         <v>162</v>
       </c>
-      <c r="AC19" s="28" t="s">
-        <v>16</v>
-      </c>
-      <c r="AD19" s="28"/>
-      <c r="AE19" s="28"/>
-      <c r="AF19" s="28"/>
-      <c r="AG19" s="28"/>
-      <c r="AH19" s="28"/>
-      <c r="AI19" s="28"/>
-      <c r="AJ19" s="27" t="s">
+      <c r="AL19" s="16" t="s">
         <v>163</v>
       </c>
-      <c r="AK19" s="17" t="s">
-        <v>164</v>
-      </c>
-      <c r="AL19" s="16" t="s">
-        <v>165</v>
-      </c>
       <c r="AM19" s="16" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="32">
+  <mergeCells count="33">
+    <mergeCell ref="U18:Z18"/>
+    <mergeCell ref="AA18:AB18"/>
+    <mergeCell ref="U16:AJ16"/>
+    <mergeCell ref="M17:P17"/>
+    <mergeCell ref="Q17:T17"/>
+    <mergeCell ref="E15:L19"/>
+    <mergeCell ref="N18:P18"/>
+    <mergeCell ref="O19:P19"/>
+    <mergeCell ref="Q18:T18"/>
     <mergeCell ref="M19:N19"/>
     <mergeCell ref="AC17:AJ17"/>
     <mergeCell ref="U17:AB17"/>
@@ -9223,18 +9230,7 @@
     <mergeCell ref="Q19:T19"/>
     <mergeCell ref="U19:AA19"/>
     <mergeCell ref="AC19:AI19"/>
-    <mergeCell ref="E15:L19"/>
-    <mergeCell ref="N18:P18"/>
-    <mergeCell ref="O19:P19"/>
-    <mergeCell ref="Q18:T18"/>
-    <mergeCell ref="U18:AA18"/>
     <mergeCell ref="AC18:AD18"/>
-    <mergeCell ref="AC15:AJ15"/>
-    <mergeCell ref="M16:P16"/>
-    <mergeCell ref="Q16:T16"/>
-    <mergeCell ref="U16:AJ16"/>
-    <mergeCell ref="M17:P17"/>
-    <mergeCell ref="Q17:T17"/>
     <mergeCell ref="AM13:AM14"/>
     <mergeCell ref="C14:D14"/>
     <mergeCell ref="C15:C19"/>
@@ -9248,6 +9244,9 @@
     <mergeCell ref="AC13:AJ13"/>
     <mergeCell ref="AK13:AK14"/>
     <mergeCell ref="AL13:AL14"/>
+    <mergeCell ref="AC15:AJ15"/>
+    <mergeCell ref="M16:P16"/>
+    <mergeCell ref="Q16:T16"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/eMIMO阵面数据帧格式.xlsx
+++ b/eMIMO阵面数据帧格式.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24334"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\202409_eMIMO\Software\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\202409_EMIMO\EMIMO-Software\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8101FBC0-31F1-4F6A-BFB5-E3E8F8F12D48}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F71AD86-4EBF-4862-BE36-39281F1648A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-49860" yWindow="4365" windowWidth="48315" windowHeight="25080" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sub Array SPI 32bits Data Frame" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="405" uniqueCount="176">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="415" uniqueCount="183">
   <si>
     <t>D15</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -575,10 +575,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>重新发送初值</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>STM32重新读取EEPROM中的ID信息、矫准相位和幅度信息，然后发送给FPGA。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -608,10 +604,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>由于每个Module只有8个Sub Array板，因此Board_ID只有0至7是有意义的，但Board_ID=8被保留，表示对所有Module的所有板子都有效的ID（用于广播）。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>LNA_ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -681,6 +673,45 @@
   </si>
   <si>
     <t>选择一个或全部通道衰减器，将6位衰减码字att写入到衰减器中。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>重新向FPGA发送初值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>向上位机发送初值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Select</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>STM32按照Select字段的选择读取EEPROM中的ID信息、矫准相位和幅度信息，然后发送给上位机。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Select表示对返回内容的选择，0表示发送 Module_ID|Board_ID，1,2分别表示发送8字节TX,RX的初相信息，3,4分别表示发送8字节TX,RX的幅度信息。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>备注</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>由于每个Module只有8个Sub Array板，因此Board_ID只有0至7是有意义的，但Board_ID=8,9被保留，8表示对所有Module的所有板子都有效的ID（用于广播操作），9表示对某个模组有效的ID（用于单模组操作）。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>由于对每个模组的每块板进行了编号，因此可以仅对“单板”操作。但为了方便“广播”和“单模组”操作，引入了特殊的编码方式。
+- 广播：当指令字段中的Board_ID为8时，所有模组的所有子板都会执行该指令。
+- 单模组：当指令字段中的Board_ID为9时，只有指定Module_ID的所有子板会执行该指令。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>这个指令主要用于在单板操作下返回幅相初值，或者在广播操作下找到串口号和ID的映射关系。在广播操作下，为了避免所有板子同时回复造成冲突，正常逻辑应该是只允许M0B0回复，但是为了便于定位串口号与模组的映射关系，仍然允许所有模组的B0进行回复，为了避免收到乱码，务必只对一个串口号发送该指令——这个功能仅适用于找到一个USB串口对应的模组编号。
+在单模组操作下，由该模组的B0返回其ID（这种情况下，该指令没有任何意义）。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -688,7 +719,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -712,8 +743,16 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="9">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -759,6 +798,18 @@
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
       </patternFill>
     </fill>
   </fills>
@@ -968,13 +1019,19 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="56">
+  <cellXfs count="61">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
@@ -1054,6 +1111,21 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="1" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" xfId="2" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" xfId="2" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1075,25 +1147,13 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="1" xfId="3" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="8" xfId="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="9" xfId="1" applyBorder="1" applyAlignment="1">
@@ -1108,10 +1168,16 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1141,8 +1207,16 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="4">
+    <cellStyle name="20% - 着色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="40% - 着色 3" xfId="3" builtinId="39"/>
     <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="计算" xfId="1" builtinId="22"/>
   </cellStyles>
@@ -1195,8 +1269,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="4802981" y="13489781"/>
-          <a:ext cx="8242697" cy="7764065"/>
+          <a:off x="4820074" y="13485867"/>
+          <a:ext cx="8275578" cy="7837003"/>
           <a:chOff x="4804172" y="13406437"/>
           <a:chExt cx="8209359" cy="7661672"/>
         </a:xfrm>
@@ -3478,8 +3552,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="14319648" y="13471921"/>
-          <a:ext cx="8218884" cy="7764065"/>
+          <a:off x="14365055" y="13468007"/>
+          <a:ext cx="8223059" cy="7837003"/>
           <a:chOff x="4804172" y="13406437"/>
           <a:chExt cx="8209359" cy="7661672"/>
         </a:xfrm>
@@ -6244,10 +6318,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="D17:AM44"/>
+  <dimension ref="D17:AN44"/>
   <sheetViews>
-    <sheetView topLeftCell="E13" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AA22" sqref="AA22"/>
+    <sheetView topLeftCell="AC3" zoomScale="73" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="AN20" sqref="AN20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -6275,10 +6349,11 @@
     <col min="37" max="37" width="15.875" style="1" customWidth="1"/>
     <col min="38" max="38" width="46.625" style="1" customWidth="1"/>
     <col min="39" max="39" width="68.625" style="1" customWidth="1"/>
-    <col min="40" max="16384" width="8.875" style="1"/>
+    <col min="40" max="40" width="96.25" style="1" customWidth="1"/>
+    <col min="41" max="16384" width="8.875" style="1"/>
   </cols>
   <sheetData>
-    <row r="17" spans="4:39" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="4:40" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D17" s="8"/>
       <c r="E17" s="2" t="s">
         <v>34</v>
@@ -6385,55 +6460,58 @@
       <c r="AM17" s="5" t="s">
         <v>71</v>
       </c>
+      <c r="AN17" s="27" t="s">
+        <v>179</v>
+      </c>
     </row>
-    <row r="18" spans="4:39" ht="63" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D18" s="34" t="s">
+    <row r="18" spans="4:40" ht="63" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D18" s="31" t="s">
         <v>25</v>
       </c>
-      <c r="E18" s="34" t="s">
+      <c r="E18" s="31" t="s">
         <v>44</v>
       </c>
-      <c r="F18" s="34"/>
-      <c r="G18" s="34"/>
-      <c r="H18" s="34"/>
-      <c r="I18" s="34" t="s">
+      <c r="F18" s="31"/>
+      <c r="G18" s="31"/>
+      <c r="H18" s="31"/>
+      <c r="I18" s="31" t="s">
         <v>24</v>
       </c>
-      <c r="J18" s="34"/>
-      <c r="K18" s="34"/>
-      <c r="L18" s="34"/>
-      <c r="M18" s="31" t="s">
+      <c r="J18" s="31"/>
+      <c r="K18" s="31"/>
+      <c r="L18" s="31"/>
+      <c r="M18" s="36" t="s">
         <v>16</v>
       </c>
-      <c r="N18" s="32"/>
-      <c r="O18" s="32"/>
-      <c r="P18" s="33"/>
-      <c r="Q18" s="27" t="s">
+      <c r="N18" s="37"/>
+      <c r="O18" s="37"/>
+      <c r="P18" s="38"/>
+      <c r="Q18" s="32" t="s">
         <v>46</v>
       </c>
-      <c r="R18" s="27"/>
-      <c r="S18" s="27"/>
-      <c r="T18" s="27"/>
-      <c r="U18" s="27" t="s">
+      <c r="R18" s="32"/>
+      <c r="S18" s="32"/>
+      <c r="T18" s="32"/>
+      <c r="U18" s="32" t="s">
         <v>56</v>
       </c>
-      <c r="V18" s="27"/>
-      <c r="W18" s="27"/>
-      <c r="X18" s="27"/>
-      <c r="Y18" s="27"/>
-      <c r="Z18" s="27"/>
-      <c r="AA18" s="27"/>
-      <c r="AB18" s="27"/>
-      <c r="AC18" s="27" t="s">
+      <c r="V18" s="32"/>
+      <c r="W18" s="32"/>
+      <c r="X18" s="32"/>
+      <c r="Y18" s="32"/>
+      <c r="Z18" s="32"/>
+      <c r="AA18" s="32"/>
+      <c r="AB18" s="32"/>
+      <c r="AC18" s="32" t="s">
         <v>57</v>
       </c>
-      <c r="AD18" s="27"/>
-      <c r="AE18" s="27"/>
-      <c r="AF18" s="27"/>
-      <c r="AG18" s="27"/>
-      <c r="AH18" s="27"/>
-      <c r="AI18" s="27"/>
-      <c r="AJ18" s="27"/>
+      <c r="AD18" s="32"/>
+      <c r="AE18" s="32"/>
+      <c r="AF18" s="32"/>
+      <c r="AG18" s="32"/>
+      <c r="AH18" s="32"/>
+      <c r="AI18" s="32"/>
+      <c r="AJ18" s="32"/>
       <c r="AK18" s="15" t="s">
         <v>64</v>
       </c>
@@ -6443,47 +6521,48 @@
       <c r="AM18" s="16" t="s">
         <v>73</v>
       </c>
+      <c r="AN18" s="28"/>
     </row>
-    <row r="19" spans="4:39" ht="63" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D19" s="34"/>
-      <c r="E19" s="34"/>
-      <c r="F19" s="34"/>
-      <c r="G19" s="34"/>
-      <c r="H19" s="34"/>
-      <c r="I19" s="34"/>
-      <c r="J19" s="34"/>
-      <c r="K19" s="34"/>
-      <c r="L19" s="34"/>
-      <c r="M19" s="31" t="s">
+    <row r="19" spans="4:40" ht="63" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D19" s="31"/>
+      <c r="E19" s="31"/>
+      <c r="F19" s="31"/>
+      <c r="G19" s="31"/>
+      <c r="H19" s="31"/>
+      <c r="I19" s="31"/>
+      <c r="J19" s="31"/>
+      <c r="K19" s="31"/>
+      <c r="L19" s="31"/>
+      <c r="M19" s="36" t="s">
         <v>16</v>
       </c>
-      <c r="N19" s="32"/>
-      <c r="O19" s="32"/>
-      <c r="P19" s="33"/>
-      <c r="Q19" s="27" t="s">
+      <c r="N19" s="37"/>
+      <c r="O19" s="37"/>
+      <c r="P19" s="38"/>
+      <c r="Q19" s="32" t="s">
         <v>47</v>
       </c>
-      <c r="R19" s="27"/>
-      <c r="S19" s="27"/>
-      <c r="T19" s="27"/>
-      <c r="U19" s="27" t="s">
+      <c r="R19" s="32"/>
+      <c r="S19" s="32"/>
+      <c r="T19" s="32"/>
+      <c r="U19" s="32" t="s">
         <v>16</v>
       </c>
-      <c r="V19" s="27"/>
-      <c r="W19" s="27"/>
-      <c r="X19" s="27"/>
-      <c r="Y19" s="27"/>
-      <c r="Z19" s="27"/>
-      <c r="AA19" s="27"/>
-      <c r="AB19" s="27"/>
-      <c r="AC19" s="27"/>
-      <c r="AD19" s="27"/>
-      <c r="AE19" s="27"/>
-      <c r="AF19" s="27"/>
-      <c r="AG19" s="27"/>
-      <c r="AH19" s="27"/>
-      <c r="AI19" s="27"/>
-      <c r="AJ19" s="27"/>
+      <c r="V19" s="32"/>
+      <c r="W19" s="32"/>
+      <c r="X19" s="32"/>
+      <c r="Y19" s="32"/>
+      <c r="Z19" s="32"/>
+      <c r="AA19" s="32"/>
+      <c r="AB19" s="32"/>
+      <c r="AC19" s="32"/>
+      <c r="AD19" s="32"/>
+      <c r="AE19" s="32"/>
+      <c r="AF19" s="32"/>
+      <c r="AG19" s="32"/>
+      <c r="AH19" s="32"/>
+      <c r="AI19" s="32"/>
+      <c r="AJ19" s="32"/>
       <c r="AK19" s="15" t="s">
         <v>65</v>
       </c>
@@ -6493,107 +6572,111 @@
       <c r="AM19" s="16" t="s">
         <v>74</v>
       </c>
+      <c r="AN19" s="29" t="s">
+        <v>181</v>
+      </c>
     </row>
-    <row r="20" spans="4:39" ht="63" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D20" s="34"/>
-      <c r="E20" s="34"/>
-      <c r="F20" s="34"/>
-      <c r="G20" s="34"/>
-      <c r="H20" s="34"/>
-      <c r="I20" s="34"/>
-      <c r="J20" s="34"/>
-      <c r="K20" s="34"/>
-      <c r="L20" s="34"/>
-      <c r="M20" s="34" t="s">
-        <v>151</v>
-      </c>
-      <c r="N20" s="34"/>
-      <c r="O20" s="34"/>
-      <c r="P20" s="34"/>
-      <c r="Q20" s="27" t="s">
+    <row r="20" spans="4:40" ht="63" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D20" s="31"/>
+      <c r="E20" s="31"/>
+      <c r="F20" s="31"/>
+      <c r="G20" s="31"/>
+      <c r="H20" s="31"/>
+      <c r="I20" s="31"/>
+      <c r="J20" s="31"/>
+      <c r="K20" s="31"/>
+      <c r="L20" s="31"/>
+      <c r="M20" s="31" t="s">
+        <v>150</v>
+      </c>
+      <c r="N20" s="31"/>
+      <c r="O20" s="31"/>
+      <c r="P20" s="31"/>
+      <c r="Q20" s="32" t="s">
         <v>48</v>
       </c>
-      <c r="R20" s="27"/>
-      <c r="S20" s="27"/>
-      <c r="T20" s="27"/>
-      <c r="U20" s="28" t="s">
+      <c r="R20" s="32"/>
+      <c r="S20" s="32"/>
+      <c r="T20" s="32"/>
+      <c r="U20" s="33" t="s">
         <v>16</v>
       </c>
-      <c r="V20" s="29"/>
-      <c r="W20" s="29"/>
-      <c r="X20" s="29"/>
-      <c r="Y20" s="29"/>
-      <c r="Z20" s="30"/>
+      <c r="V20" s="34"/>
+      <c r="W20" s="34"/>
+      <c r="X20" s="34"/>
+      <c r="Y20" s="34"/>
+      <c r="Z20" s="35"/>
       <c r="AA20" s="4" t="s">
         <v>18</v>
       </c>
       <c r="AB20" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="AC20" s="27" t="s">
+      <c r="AC20" s="32" t="s">
         <v>59</v>
       </c>
-      <c r="AD20" s="27"/>
-      <c r="AE20" s="27"/>
-      <c r="AF20" s="27"/>
-      <c r="AG20" s="27"/>
-      <c r="AH20" s="27"/>
-      <c r="AI20" s="27"/>
-      <c r="AJ20" s="27"/>
+      <c r="AD20" s="32"/>
+      <c r="AE20" s="32"/>
+      <c r="AF20" s="32"/>
+      <c r="AG20" s="32"/>
+      <c r="AH20" s="32"/>
+      <c r="AI20" s="32"/>
+      <c r="AJ20" s="32"/>
       <c r="AK20" s="15" t="s">
         <v>130</v>
       </c>
       <c r="AL20" s="16" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="AM20" s="16" t="s">
-        <v>155</v>
-      </c>
+        <v>154</v>
+      </c>
+      <c r="AN20" s="28"/>
     </row>
-    <row r="21" spans="4:39" ht="63" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D21" s="34"/>
-      <c r="E21" s="34"/>
-      <c r="F21" s="34"/>
-      <c r="G21" s="34"/>
-      <c r="H21" s="34"/>
-      <c r="I21" s="34"/>
-      <c r="J21" s="34"/>
-      <c r="K21" s="34"/>
-      <c r="L21" s="34"/>
-      <c r="M21" s="34"/>
-      <c r="N21" s="34"/>
-      <c r="O21" s="34"/>
-      <c r="P21" s="34"/>
-      <c r="Q21" s="27" t="s">
+    <row r="21" spans="4:40" ht="63" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D21" s="31"/>
+      <c r="E21" s="31"/>
+      <c r="F21" s="31"/>
+      <c r="G21" s="31"/>
+      <c r="H21" s="31"/>
+      <c r="I21" s="31"/>
+      <c r="J21" s="31"/>
+      <c r="K21" s="31"/>
+      <c r="L21" s="31"/>
+      <c r="M21" s="31"/>
+      <c r="N21" s="31"/>
+      <c r="O21" s="31"/>
+      <c r="P21" s="31"/>
+      <c r="Q21" s="32" t="s">
         <v>49</v>
       </c>
-      <c r="R21" s="27"/>
-      <c r="S21" s="27"/>
-      <c r="T21" s="27"/>
-      <c r="U21" s="31" t="s">
+      <c r="R21" s="32"/>
+      <c r="S21" s="32"/>
+      <c r="T21" s="32"/>
+      <c r="U21" s="36" t="s">
         <v>16</v>
       </c>
-      <c r="V21" s="32"/>
-      <c r="W21" s="32"/>
-      <c r="X21" s="32"/>
-      <c r="Y21" s="32"/>
-      <c r="Z21" s="32"/>
-      <c r="AA21" s="33"/>
+      <c r="V21" s="37"/>
+      <c r="W21" s="37"/>
+      <c r="X21" s="37"/>
+      <c r="Y21" s="37"/>
+      <c r="Z21" s="37"/>
+      <c r="AA21" s="38"/>
       <c r="AB21" s="4" t="s">
         <v>17</v>
       </c>
       <c r="AC21" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="AD21" s="28" t="s">
+      <c r="AD21" s="33" t="s">
         <v>58</v>
       </c>
-      <c r="AE21" s="29"/>
-      <c r="AF21" s="29"/>
-      <c r="AG21" s="29"/>
-      <c r="AH21" s="29"/>
-      <c r="AI21" s="29"/>
-      <c r="AJ21" s="30"/>
+      <c r="AE21" s="34"/>
+      <c r="AF21" s="34"/>
+      <c r="AG21" s="34"/>
+      <c r="AH21" s="34"/>
+      <c r="AI21" s="34"/>
+      <c r="AJ21" s="35"/>
       <c r="AK21" s="17" t="s">
         <v>131</v>
       </c>
@@ -6601,55 +6684,56 @@
         <v>140</v>
       </c>
       <c r="AM21" s="16" t="s">
-        <v>154</v>
-      </c>
+        <v>153</v>
+      </c>
+      <c r="AN21" s="28"/>
     </row>
-    <row r="22" spans="4:39" ht="63" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D22" s="34"/>
-      <c r="E22" s="34"/>
-      <c r="F22" s="34"/>
-      <c r="G22" s="34"/>
-      <c r="H22" s="34"/>
-      <c r="I22" s="34"/>
-      <c r="J22" s="34"/>
-      <c r="K22" s="34"/>
-      <c r="L22" s="34"/>
-      <c r="M22" s="34" t="s">
-        <v>152</v>
-      </c>
-      <c r="N22" s="34"/>
-      <c r="O22" s="34"/>
-      <c r="P22" s="34"/>
-      <c r="Q22" s="27" t="s">
+    <row r="22" spans="4:40" ht="63" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D22" s="31"/>
+      <c r="E22" s="31"/>
+      <c r="F22" s="31"/>
+      <c r="G22" s="31"/>
+      <c r="H22" s="31"/>
+      <c r="I22" s="31"/>
+      <c r="J22" s="31"/>
+      <c r="K22" s="31"/>
+      <c r="L22" s="31"/>
+      <c r="M22" s="31" t="s">
+        <v>151</v>
+      </c>
+      <c r="N22" s="31"/>
+      <c r="O22" s="31"/>
+      <c r="P22" s="31"/>
+      <c r="Q22" s="32" t="s">
         <v>50</v>
       </c>
-      <c r="R22" s="27"/>
-      <c r="S22" s="27"/>
-      <c r="T22" s="27"/>
-      <c r="U22" s="28" t="s">
+      <c r="R22" s="32"/>
+      <c r="S22" s="32"/>
+      <c r="T22" s="32"/>
+      <c r="U22" s="33" t="s">
         <v>16</v>
       </c>
-      <c r="V22" s="29"/>
-      <c r="W22" s="29"/>
-      <c r="X22" s="29"/>
-      <c r="Y22" s="29"/>
-      <c r="Z22" s="30"/>
+      <c r="V22" s="34"/>
+      <c r="W22" s="34"/>
+      <c r="X22" s="34"/>
+      <c r="Y22" s="34"/>
+      <c r="Z22" s="35"/>
       <c r="AA22" s="4" t="s">
         <v>19</v>
       </c>
       <c r="AB22" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="AC22" s="28" t="s">
+      <c r="AC22" s="33" t="s">
         <v>16</v>
       </c>
-      <c r="AD22" s="29"/>
-      <c r="AE22" s="29"/>
-      <c r="AF22" s="29"/>
-      <c r="AG22" s="29"/>
-      <c r="AH22" s="29"/>
-      <c r="AI22" s="29"/>
-      <c r="AJ22" s="30"/>
+      <c r="AD22" s="34"/>
+      <c r="AE22" s="34"/>
+      <c r="AF22" s="34"/>
+      <c r="AG22" s="34"/>
+      <c r="AH22" s="34"/>
+      <c r="AI22" s="34"/>
+      <c r="AJ22" s="35"/>
       <c r="AK22" s="17" t="s">
         <v>66</v>
       </c>
@@ -6657,49 +6741,50 @@
         <v>132</v>
       </c>
       <c r="AM22" s="16" t="s">
-        <v>156</v>
-      </c>
+        <v>155</v>
+      </c>
+      <c r="AN22" s="28"/>
     </row>
-    <row r="23" spans="4:39" ht="63" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D23" s="34"/>
-      <c r="E23" s="34"/>
-      <c r="F23" s="34"/>
-      <c r="G23" s="34"/>
-      <c r="H23" s="34"/>
-      <c r="I23" s="34"/>
-      <c r="J23" s="34"/>
-      <c r="K23" s="34"/>
-      <c r="L23" s="34"/>
-      <c r="M23" s="31" t="s">
+    <row r="23" spans="4:40" ht="63" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D23" s="31"/>
+      <c r="E23" s="31"/>
+      <c r="F23" s="31"/>
+      <c r="G23" s="31"/>
+      <c r="H23" s="31"/>
+      <c r="I23" s="31"/>
+      <c r="J23" s="31"/>
+      <c r="K23" s="31"/>
+      <c r="L23" s="31"/>
+      <c r="M23" s="36" t="s">
         <v>16</v>
       </c>
-      <c r="N23" s="32"/>
-      <c r="O23" s="32"/>
-      <c r="P23" s="33"/>
-      <c r="Q23" s="27" t="s">
+      <c r="N23" s="37"/>
+      <c r="O23" s="37"/>
+      <c r="P23" s="38"/>
+      <c r="Q23" s="32" t="s">
         <v>51</v>
       </c>
-      <c r="R23" s="27"/>
-      <c r="S23" s="27"/>
-      <c r="T23" s="27"/>
-      <c r="U23" s="28" t="s">
+      <c r="R23" s="32"/>
+      <c r="S23" s="32"/>
+      <c r="T23" s="32"/>
+      <c r="U23" s="33" t="s">
         <v>16</v>
       </c>
-      <c r="V23" s="29"/>
-      <c r="W23" s="29"/>
-      <c r="X23" s="29"/>
-      <c r="Y23" s="29"/>
-      <c r="Z23" s="29"/>
-      <c r="AA23" s="29"/>
-      <c r="AB23" s="29"/>
-      <c r="AC23" s="29"/>
-      <c r="AD23" s="29"/>
-      <c r="AE23" s="29"/>
-      <c r="AF23" s="29"/>
-      <c r="AG23" s="29"/>
-      <c r="AH23" s="29"/>
-      <c r="AI23" s="29"/>
-      <c r="AJ23" s="30"/>
+      <c r="V23" s="34"/>
+      <c r="W23" s="34"/>
+      <c r="X23" s="34"/>
+      <c r="Y23" s="34"/>
+      <c r="Z23" s="34"/>
+      <c r="AA23" s="34"/>
+      <c r="AB23" s="34"/>
+      <c r="AC23" s="34"/>
+      <c r="AD23" s="34"/>
+      <c r="AE23" s="34"/>
+      <c r="AF23" s="34"/>
+      <c r="AG23" s="34"/>
+      <c r="AH23" s="34"/>
+      <c r="AI23" s="34"/>
+      <c r="AJ23" s="35"/>
       <c r="AK23" s="17" t="s">
         <v>133</v>
       </c>
@@ -6709,47 +6794,48 @@
       <c r="AM23" s="16" t="s">
         <v>16</v>
       </c>
+      <c r="AN23" s="28"/>
     </row>
-    <row r="24" spans="4:39" ht="63" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D24" s="34"/>
-      <c r="E24" s="34"/>
-      <c r="F24" s="34"/>
-      <c r="G24" s="34"/>
-      <c r="H24" s="34"/>
-      <c r="I24" s="34"/>
-      <c r="J24" s="34"/>
-      <c r="K24" s="34"/>
-      <c r="L24" s="34"/>
-      <c r="M24" s="31" t="s">
+    <row r="24" spans="4:40" ht="63" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D24" s="31"/>
+      <c r="E24" s="31"/>
+      <c r="F24" s="31"/>
+      <c r="G24" s="31"/>
+      <c r="H24" s="31"/>
+      <c r="I24" s="31"/>
+      <c r="J24" s="31"/>
+      <c r="K24" s="31"/>
+      <c r="L24" s="31"/>
+      <c r="M24" s="36" t="s">
         <v>16</v>
       </c>
-      <c r="N24" s="32"/>
-      <c r="O24" s="32"/>
-      <c r="P24" s="33"/>
-      <c r="Q24" s="27" t="s">
+      <c r="N24" s="37"/>
+      <c r="O24" s="37"/>
+      <c r="P24" s="38"/>
+      <c r="Q24" s="32" t="s">
         <v>52</v>
       </c>
-      <c r="R24" s="27"/>
-      <c r="S24" s="27"/>
-      <c r="T24" s="27"/>
-      <c r="U24" s="28" t="s">
+      <c r="R24" s="32"/>
+      <c r="S24" s="32"/>
+      <c r="T24" s="32"/>
+      <c r="U24" s="33" t="s">
         <v>16</v>
       </c>
-      <c r="V24" s="29"/>
-      <c r="W24" s="29"/>
-      <c r="X24" s="29"/>
-      <c r="Y24" s="29"/>
-      <c r="Z24" s="29"/>
-      <c r="AA24" s="29"/>
-      <c r="AB24" s="29"/>
-      <c r="AC24" s="29"/>
-      <c r="AD24" s="29"/>
-      <c r="AE24" s="29"/>
-      <c r="AF24" s="29"/>
-      <c r="AG24" s="29"/>
-      <c r="AH24" s="29"/>
-      <c r="AI24" s="29"/>
-      <c r="AJ24" s="30"/>
+      <c r="V24" s="34"/>
+      <c r="W24" s="34"/>
+      <c r="X24" s="34"/>
+      <c r="Y24" s="34"/>
+      <c r="Z24" s="34"/>
+      <c r="AA24" s="34"/>
+      <c r="AB24" s="34"/>
+      <c r="AC24" s="34"/>
+      <c r="AD24" s="34"/>
+      <c r="AE24" s="34"/>
+      <c r="AF24" s="34"/>
+      <c r="AG24" s="34"/>
+      <c r="AH24" s="34"/>
+      <c r="AI24" s="34"/>
+      <c r="AJ24" s="35"/>
       <c r="AK24" s="17" t="s">
         <v>67</v>
       </c>
@@ -6759,51 +6845,52 @@
       <c r="AM24" s="16" t="s">
         <v>16</v>
       </c>
+      <c r="AN24" s="28"/>
     </row>
-    <row r="25" spans="4:39" ht="63" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D25" s="34"/>
-      <c r="E25" s="34"/>
-      <c r="F25" s="34"/>
-      <c r="G25" s="34"/>
-      <c r="H25" s="34"/>
-      <c r="I25" s="34"/>
-      <c r="J25" s="34"/>
-      <c r="K25" s="34"/>
-      <c r="L25" s="34"/>
-      <c r="M25" s="31" t="s">
+    <row r="25" spans="4:40" ht="63" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D25" s="31"/>
+      <c r="E25" s="31"/>
+      <c r="F25" s="31"/>
+      <c r="G25" s="31"/>
+      <c r="H25" s="31"/>
+      <c r="I25" s="31"/>
+      <c r="J25" s="31"/>
+      <c r="K25" s="31"/>
+      <c r="L25" s="31"/>
+      <c r="M25" s="36" t="s">
         <v>16</v>
       </c>
-      <c r="N25" s="32"/>
-      <c r="O25" s="32"/>
-      <c r="P25" s="33"/>
-      <c r="Q25" s="27" t="s">
+      <c r="N25" s="37"/>
+      <c r="O25" s="37"/>
+      <c r="P25" s="38"/>
+      <c r="Q25" s="32" t="s">
         <v>53</v>
       </c>
-      <c r="R25" s="27"/>
-      <c r="S25" s="27"/>
-      <c r="T25" s="27"/>
-      <c r="U25" s="28" t="s">
+      <c r="R25" s="32"/>
+      <c r="S25" s="32"/>
+      <c r="T25" s="32"/>
+      <c r="U25" s="33" t="s">
         <v>16</v>
       </c>
-      <c r="V25" s="29"/>
-      <c r="W25" s="29"/>
-      <c r="X25" s="29"/>
-      <c r="Y25" s="29"/>
-      <c r="Z25" s="29"/>
-      <c r="AA25" s="29"/>
-      <c r="AB25" s="29"/>
-      <c r="AC25" s="27" t="s">
+      <c r="V25" s="34"/>
+      <c r="W25" s="34"/>
+      <c r="X25" s="34"/>
+      <c r="Y25" s="34"/>
+      <c r="Z25" s="34"/>
+      <c r="AA25" s="34"/>
+      <c r="AB25" s="34"/>
+      <c r="AC25" s="32" t="s">
         <v>44</v>
       </c>
-      <c r="AD25" s="27"/>
-      <c r="AE25" s="27"/>
-      <c r="AF25" s="27"/>
-      <c r="AG25" s="28" t="s">
+      <c r="AD25" s="32"/>
+      <c r="AE25" s="32"/>
+      <c r="AF25" s="32"/>
+      <c r="AG25" s="33" t="s">
         <v>24</v>
       </c>
-      <c r="AH25" s="29"/>
-      <c r="AI25" s="29"/>
-      <c r="AJ25" s="30"/>
+      <c r="AH25" s="34"/>
+      <c r="AI25" s="34"/>
+      <c r="AJ25" s="35"/>
       <c r="AK25" s="17" t="s">
         <v>68</v>
       </c>
@@ -6811,53 +6898,54 @@
         <v>60</v>
       </c>
       <c r="AM25" s="16" t="s">
-        <v>157</v>
-      </c>
+        <v>180</v>
+      </c>
+      <c r="AN25" s="28"/>
     </row>
-    <row r="26" spans="4:39" ht="63" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D26" s="34"/>
-      <c r="E26" s="34"/>
-      <c r="F26" s="34"/>
-      <c r="G26" s="34"/>
-      <c r="H26" s="34"/>
-      <c r="I26" s="34"/>
-      <c r="J26" s="34"/>
-      <c r="K26" s="34"/>
-      <c r="L26" s="34"/>
-      <c r="M26" s="34" t="s">
-        <v>151</v>
-      </c>
-      <c r="N26" s="34"/>
-      <c r="O26" s="34"/>
-      <c r="P26" s="34"/>
-      <c r="Q26" s="27" t="s">
+    <row r="26" spans="4:40" ht="63" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D26" s="31"/>
+      <c r="E26" s="31"/>
+      <c r="F26" s="31"/>
+      <c r="G26" s="31"/>
+      <c r="H26" s="31"/>
+      <c r="I26" s="31"/>
+      <c r="J26" s="31"/>
+      <c r="K26" s="31"/>
+      <c r="L26" s="31"/>
+      <c r="M26" s="31" t="s">
+        <v>150</v>
+      </c>
+      <c r="N26" s="31"/>
+      <c r="O26" s="31"/>
+      <c r="P26" s="31"/>
+      <c r="Q26" s="32" t="s">
         <v>54</v>
       </c>
-      <c r="R26" s="27"/>
-      <c r="S26" s="27"/>
-      <c r="T26" s="27"/>
-      <c r="U26" s="28" t="s">
+      <c r="R26" s="32"/>
+      <c r="S26" s="32"/>
+      <c r="T26" s="32"/>
+      <c r="U26" s="33" t="s">
         <v>16</v>
       </c>
-      <c r="V26" s="29"/>
-      <c r="W26" s="29"/>
-      <c r="X26" s="29"/>
-      <c r="Y26" s="29"/>
-      <c r="Z26" s="29"/>
-      <c r="AA26" s="30"/>
+      <c r="V26" s="34"/>
+      <c r="W26" s="34"/>
+      <c r="X26" s="34"/>
+      <c r="Y26" s="34"/>
+      <c r="Z26" s="34"/>
+      <c r="AA26" s="35"/>
       <c r="AB26" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="AC26" s="27" t="s">
+      <c r="AC26" s="32" t="s">
         <v>59</v>
       </c>
-      <c r="AD26" s="27"/>
-      <c r="AE26" s="27"/>
-      <c r="AF26" s="27"/>
-      <c r="AG26" s="27"/>
-      <c r="AH26" s="27"/>
-      <c r="AI26" s="27"/>
-      <c r="AJ26" s="27"/>
+      <c r="AD26" s="32"/>
+      <c r="AE26" s="32"/>
+      <c r="AF26" s="32"/>
+      <c r="AG26" s="32"/>
+      <c r="AH26" s="32"/>
+      <c r="AI26" s="32"/>
+      <c r="AJ26" s="32"/>
       <c r="AK26" s="15" t="s">
         <v>69</v>
       </c>
@@ -6867,51 +6955,52 @@
       <c r="AM26" s="16" t="s">
         <v>16</v>
       </c>
+      <c r="AN26" s="28"/>
     </row>
-    <row r="27" spans="4:39" ht="63" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D27" s="34"/>
-      <c r="E27" s="34"/>
-      <c r="F27" s="34"/>
-      <c r="G27" s="34"/>
-      <c r="H27" s="34"/>
-      <c r="I27" s="34"/>
-      <c r="J27" s="34"/>
-      <c r="K27" s="34"/>
-      <c r="L27" s="34"/>
-      <c r="M27" s="34"/>
-      <c r="N27" s="34"/>
-      <c r="O27" s="34"/>
-      <c r="P27" s="34"/>
-      <c r="Q27" s="27" t="s">
+    <row r="27" spans="4:40" ht="63" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D27" s="31"/>
+      <c r="E27" s="31"/>
+      <c r="F27" s="31"/>
+      <c r="G27" s="31"/>
+      <c r="H27" s="31"/>
+      <c r="I27" s="31"/>
+      <c r="J27" s="31"/>
+      <c r="K27" s="31"/>
+      <c r="L27" s="31"/>
+      <c r="M27" s="31"/>
+      <c r="N27" s="31"/>
+      <c r="O27" s="31"/>
+      <c r="P27" s="31"/>
+      <c r="Q27" s="32" t="s">
         <v>55</v>
       </c>
-      <c r="R27" s="27"/>
-      <c r="S27" s="27"/>
-      <c r="T27" s="27"/>
-      <c r="U27" s="28" t="s">
+      <c r="R27" s="32"/>
+      <c r="S27" s="32"/>
+      <c r="T27" s="32"/>
+      <c r="U27" s="33" t="s">
         <v>16</v>
       </c>
-      <c r="V27" s="29"/>
-      <c r="W27" s="29"/>
-      <c r="X27" s="29"/>
-      <c r="Y27" s="29"/>
-      <c r="Z27" s="29"/>
-      <c r="AA27" s="30"/>
+      <c r="V27" s="34"/>
+      <c r="W27" s="34"/>
+      <c r="X27" s="34"/>
+      <c r="Y27" s="34"/>
+      <c r="Z27" s="34"/>
+      <c r="AA27" s="35"/>
       <c r="AB27" s="4" t="s">
         <v>17</v>
       </c>
       <c r="AC27" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="AD27" s="28" t="s">
+      <c r="AD27" s="33" t="s">
         <v>58</v>
       </c>
-      <c r="AE27" s="29"/>
-      <c r="AF27" s="29"/>
-      <c r="AG27" s="29"/>
-      <c r="AH27" s="29"/>
-      <c r="AI27" s="29"/>
-      <c r="AJ27" s="30"/>
+      <c r="AE27" s="34"/>
+      <c r="AF27" s="34"/>
+      <c r="AG27" s="34"/>
+      <c r="AH27" s="34"/>
+      <c r="AI27" s="34"/>
+      <c r="AJ27" s="35"/>
       <c r="AK27" s="17" t="s">
         <v>70</v>
       </c>
@@ -6921,55 +7010,56 @@
       <c r="AM27" s="16" t="s">
         <v>16</v>
       </c>
+      <c r="AN27" s="28"/>
     </row>
-    <row r="28" spans="4:39" ht="63" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D28" s="34"/>
-      <c r="E28" s="34"/>
-      <c r="F28" s="34"/>
-      <c r="G28" s="34"/>
-      <c r="H28" s="34"/>
-      <c r="I28" s="34"/>
-      <c r="J28" s="34"/>
-      <c r="K28" s="34"/>
-      <c r="L28" s="34"/>
-      <c r="M28" s="34" t="s">
+    <row r="28" spans="4:40" ht="63" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D28" s="31"/>
+      <c r="E28" s="31"/>
+      <c r="F28" s="31"/>
+      <c r="G28" s="31"/>
+      <c r="H28" s="31"/>
+      <c r="I28" s="31"/>
+      <c r="J28" s="31"/>
+      <c r="K28" s="31"/>
+      <c r="L28" s="31"/>
+      <c r="M28" s="31" t="s">
         <v>16</v>
       </c>
-      <c r="N28" s="34"/>
-      <c r="O28" s="34" t="s">
+      <c r="N28" s="31"/>
+      <c r="O28" s="31" t="s">
         <v>136</v>
       </c>
-      <c r="P28" s="34"/>
-      <c r="Q28" s="27" t="s">
+      <c r="P28" s="31"/>
+      <c r="Q28" s="32" t="s">
         <v>129</v>
       </c>
-      <c r="R28" s="27"/>
-      <c r="S28" s="27"/>
-      <c r="T28" s="27"/>
-      <c r="U28" s="28" t="s">
+      <c r="R28" s="32"/>
+      <c r="S28" s="32"/>
+      <c r="T28" s="32"/>
+      <c r="U28" s="33" t="s">
         <v>16</v>
       </c>
-      <c r="V28" s="29"/>
-      <c r="W28" s="29"/>
-      <c r="X28" s="29"/>
-      <c r="Y28" s="29"/>
-      <c r="Z28" s="29"/>
-      <c r="AA28" s="30"/>
+      <c r="V28" s="34"/>
+      <c r="W28" s="34"/>
+      <c r="X28" s="34"/>
+      <c r="Y28" s="34"/>
+      <c r="Z28" s="34"/>
+      <c r="AA28" s="35"/>
       <c r="AB28" s="13" t="s">
         <v>138</v>
       </c>
-      <c r="AC28" s="27" t="s">
+      <c r="AC28" s="32" t="s">
         <v>16</v>
       </c>
-      <c r="AD28" s="27"/>
-      <c r="AE28" s="28" t="s">
+      <c r="AD28" s="32"/>
+      <c r="AE28" s="33" t="s">
         <v>58</v>
       </c>
-      <c r="AF28" s="29"/>
-      <c r="AG28" s="29"/>
-      <c r="AH28" s="29"/>
-      <c r="AI28" s="29"/>
-      <c r="AJ28" s="30"/>
+      <c r="AF28" s="34"/>
+      <c r="AG28" s="34"/>
+      <c r="AH28" s="34"/>
+      <c r="AI28" s="34"/>
+      <c r="AJ28" s="35"/>
       <c r="AK28" s="17" t="s">
         <v>137</v>
       </c>
@@ -6979,8 +7069,9 @@
       <c r="AM28" s="16" t="s">
         <v>141</v>
       </c>
+      <c r="AN28" s="28"/>
     </row>
-    <row r="29" spans="4:39" x14ac:dyDescent="0.2">
+    <row r="29" spans="4:40" x14ac:dyDescent="0.2">
       <c r="D29" s="6"/>
       <c r="E29" s="6"/>
       <c r="F29" s="6"/>
@@ -7017,7 +7108,7 @@
       <c r="AK29" s="6"/>
       <c r="AL29" s="6"/>
     </row>
-    <row r="30" spans="4:39" x14ac:dyDescent="0.2">
+    <row r="30" spans="4:40" x14ac:dyDescent="0.2">
       <c r="D30" s="6"/>
       <c r="E30" s="6"/>
       <c r="F30" s="6"/>
@@ -7054,7 +7145,7 @@
       <c r="AK30" s="6"/>
       <c r="AL30" s="6"/>
     </row>
-    <row r="31" spans="4:39" x14ac:dyDescent="0.2">
+    <row r="31" spans="4:40" x14ac:dyDescent="0.2">
       <c r="D31" s="6"/>
       <c r="E31" s="6"/>
       <c r="F31" s="6"/>
@@ -7091,7 +7182,7 @@
       <c r="AK31" s="6"/>
       <c r="AL31" s="6"/>
     </row>
-    <row r="32" spans="4:39" x14ac:dyDescent="0.2">
+    <row r="32" spans="4:40" x14ac:dyDescent="0.2">
       <c r="D32" s="6"/>
       <c r="E32" s="6"/>
       <c r="F32" s="6"/>
@@ -7574,6 +7665,35 @@
     </row>
   </sheetData>
   <mergeCells count="45">
+    <mergeCell ref="Q27:T27"/>
+    <mergeCell ref="Q28:T28"/>
+    <mergeCell ref="AC22:AJ22"/>
+    <mergeCell ref="U21:AA21"/>
+    <mergeCell ref="U26:AA26"/>
+    <mergeCell ref="Q23:T23"/>
+    <mergeCell ref="Q24:T24"/>
+    <mergeCell ref="Q25:T25"/>
+    <mergeCell ref="Q18:T18"/>
+    <mergeCell ref="Q19:T19"/>
+    <mergeCell ref="Q20:T20"/>
+    <mergeCell ref="Q21:T21"/>
+    <mergeCell ref="Q22:T22"/>
+    <mergeCell ref="E18:H28"/>
+    <mergeCell ref="I18:L28"/>
+    <mergeCell ref="D18:D28"/>
+    <mergeCell ref="M26:P27"/>
+    <mergeCell ref="AC18:AJ18"/>
+    <mergeCell ref="U20:Z20"/>
+    <mergeCell ref="U22:Z22"/>
+    <mergeCell ref="AG25:AJ25"/>
+    <mergeCell ref="U19:AJ19"/>
+    <mergeCell ref="AC20:AJ20"/>
+    <mergeCell ref="U24:AJ24"/>
+    <mergeCell ref="AD21:AJ21"/>
+    <mergeCell ref="U18:AB18"/>
+    <mergeCell ref="AC25:AF25"/>
+    <mergeCell ref="U25:AB25"/>
+    <mergeCell ref="U23:AJ23"/>
     <mergeCell ref="M28:N28"/>
     <mergeCell ref="O28:P28"/>
     <mergeCell ref="AC28:AD28"/>
@@ -7590,35 +7710,6 @@
     <mergeCell ref="M20:P21"/>
     <mergeCell ref="M22:P22"/>
     <mergeCell ref="U28:AA28"/>
-    <mergeCell ref="E18:H28"/>
-    <mergeCell ref="I18:L28"/>
-    <mergeCell ref="D18:D28"/>
-    <mergeCell ref="M26:P27"/>
-    <mergeCell ref="AC18:AJ18"/>
-    <mergeCell ref="U20:Z20"/>
-    <mergeCell ref="U22:Z22"/>
-    <mergeCell ref="AG25:AJ25"/>
-    <mergeCell ref="U19:AJ19"/>
-    <mergeCell ref="AC20:AJ20"/>
-    <mergeCell ref="U24:AJ24"/>
-    <mergeCell ref="AD21:AJ21"/>
-    <mergeCell ref="U18:AB18"/>
-    <mergeCell ref="AC25:AF25"/>
-    <mergeCell ref="U25:AB25"/>
-    <mergeCell ref="U23:AJ23"/>
-    <mergeCell ref="Q18:T18"/>
-    <mergeCell ref="Q19:T19"/>
-    <mergeCell ref="Q20:T20"/>
-    <mergeCell ref="Q21:T21"/>
-    <mergeCell ref="Q22:T22"/>
-    <mergeCell ref="Q27:T27"/>
-    <mergeCell ref="Q28:T28"/>
-    <mergeCell ref="AC22:AJ22"/>
-    <mergeCell ref="U21:AA21"/>
-    <mergeCell ref="U26:AA26"/>
-    <mergeCell ref="Q23:T23"/>
-    <mergeCell ref="Q24:T24"/>
-    <mergeCell ref="Q25:T25"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7629,10 +7720,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E2643DD9-7A88-4425-A82E-86C5D3DA9F27}">
-  <dimension ref="E21:AQ28"/>
+  <dimension ref="E21:AR29"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="O27" sqref="O27:R27"/>
+    <sheetView tabSelected="1" topLeftCell="AN19" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="AR26" sqref="AR26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -7644,60 +7735,61 @@
     <col min="39" max="40" width="9" style="10"/>
     <col min="41" max="41" width="27.5" style="10" customWidth="1"/>
     <col min="42" max="43" width="34.125" style="10" customWidth="1"/>
-    <col min="44" max="16384" width="9" style="10"/>
+    <col min="44" max="44" width="123.375" style="10" customWidth="1"/>
+    <col min="45" max="16384" width="9" style="10"/>
   </cols>
   <sheetData>
-    <row r="21" spans="5:43" ht="78.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="5:44" ht="78.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E21" s="2" t="s">
         <v>75</v>
       </c>
       <c r="F21" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="G21" s="35" t="s">
+      <c r="G21" s="46" t="s">
         <v>79</v>
       </c>
-      <c r="H21" s="36"/>
-      <c r="I21" s="36"/>
-      <c r="J21" s="36"/>
-      <c r="K21" s="36"/>
-      <c r="L21" s="36"/>
-      <c r="M21" s="36"/>
-      <c r="N21" s="37"/>
-      <c r="O21" s="35" t="s">
+      <c r="H21" s="47"/>
+      <c r="I21" s="47"/>
+      <c r="J21" s="47"/>
+      <c r="K21" s="47"/>
+      <c r="L21" s="47"/>
+      <c r="M21" s="47"/>
+      <c r="N21" s="48"/>
+      <c r="O21" s="46" t="s">
         <v>80</v>
       </c>
-      <c r="P21" s="36" t="s">
+      <c r="P21" s="47" t="s">
         <v>81</v>
       </c>
-      <c r="Q21" s="36" t="s">
+      <c r="Q21" s="47" t="s">
         <v>82</v>
       </c>
-      <c r="R21" s="36"/>
-      <c r="S21" s="36"/>
-      <c r="T21" s="36"/>
-      <c r="U21" s="36"/>
-      <c r="V21" s="37"/>
-      <c r="W21" s="35" t="s">
+      <c r="R21" s="47"/>
+      <c r="S21" s="47"/>
+      <c r="T21" s="47"/>
+      <c r="U21" s="47"/>
+      <c r="V21" s="48"/>
+      <c r="W21" s="46" t="s">
         <v>87</v>
       </c>
-      <c r="X21" s="36"/>
-      <c r="Y21" s="36"/>
-      <c r="Z21" s="36"/>
-      <c r="AA21" s="36"/>
-      <c r="AB21" s="36"/>
-      <c r="AC21" s="36"/>
-      <c r="AD21" s="37"/>
-      <c r="AE21" s="35" t="s">
+      <c r="X21" s="47"/>
+      <c r="Y21" s="47"/>
+      <c r="Z21" s="47"/>
+      <c r="AA21" s="47"/>
+      <c r="AB21" s="47"/>
+      <c r="AC21" s="47"/>
+      <c r="AD21" s="48"/>
+      <c r="AE21" s="46" t="s">
         <v>88</v>
       </c>
-      <c r="AF21" s="36"/>
-      <c r="AG21" s="36"/>
-      <c r="AH21" s="36"/>
-      <c r="AI21" s="36"/>
-      <c r="AJ21" s="36"/>
-      <c r="AK21" s="36"/>
-      <c r="AL21" s="37"/>
+      <c r="AF21" s="47"/>
+      <c r="AG21" s="47"/>
+      <c r="AH21" s="47"/>
+      <c r="AI21" s="47"/>
+      <c r="AJ21" s="47"/>
+      <c r="AK21" s="47"/>
+      <c r="AL21" s="48"/>
       <c r="AM21" s="2" t="s">
         <v>83</v>
       </c>
@@ -7713,12 +7805,15 @@
       <c r="AQ21" s="40" t="s">
         <v>71</v>
       </c>
+      <c r="AR21" s="39" t="s">
+        <v>179</v>
+      </c>
     </row>
-    <row r="22" spans="5:43" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E22" s="38" t="s">
+    <row r="22" spans="5:44" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E22" s="41" t="s">
         <v>111</v>
       </c>
-      <c r="F22" s="38"/>
+      <c r="F22" s="41"/>
       <c r="G22" s="12" t="s">
         <v>93</v>
       </c>
@@ -7815,55 +7910,56 @@
       <c r="AL22" s="12" t="s">
         <v>90</v>
       </c>
-      <c r="AM22" s="38" t="s">
+      <c r="AM22" s="41" t="s">
         <v>112</v>
       </c>
-      <c r="AN22" s="41"/>
+      <c r="AN22" s="42"/>
       <c r="AO22" s="40"/>
       <c r="AP22" s="40"/>
       <c r="AQ22" s="40"/>
+      <c r="AR22" s="39"/>
     </row>
-    <row r="23" spans="5:43" ht="64.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E23" s="39" t="s">
+    <row r="23" spans="5:44" ht="64.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E23" s="49" t="s">
         <v>76</v>
       </c>
-      <c r="F23" s="39" t="s">
+      <c r="F23" s="49" t="s">
         <v>78</v>
       </c>
-      <c r="G23" s="30" t="s">
+      <c r="G23" s="35" t="s">
         <v>89</v>
       </c>
-      <c r="H23" s="27"/>
-      <c r="I23" s="27"/>
-      <c r="J23" s="27"/>
-      <c r="K23" s="27"/>
-      <c r="L23" s="27"/>
-      <c r="M23" s="27"/>
-      <c r="N23" s="27"/>
-      <c r="O23" s="27"/>
-      <c r="P23" s="27"/>
-      <c r="Q23" s="27"/>
-      <c r="R23" s="27"/>
-      <c r="S23" s="27"/>
-      <c r="T23" s="27"/>
-      <c r="U23" s="27"/>
-      <c r="V23" s="27"/>
-      <c r="W23" s="27"/>
-      <c r="X23" s="27"/>
-      <c r="Y23" s="27"/>
-      <c r="Z23" s="27"/>
-      <c r="AA23" s="27"/>
-      <c r="AB23" s="27"/>
-      <c r="AC23" s="27"/>
-      <c r="AD23" s="27"/>
-      <c r="AE23" s="27"/>
-      <c r="AF23" s="27"/>
-      <c r="AG23" s="27"/>
-      <c r="AH23" s="27"/>
-      <c r="AI23" s="27"/>
-      <c r="AJ23" s="27"/>
-      <c r="AK23" s="27"/>
-      <c r="AL23" s="27"/>
+      <c r="H23" s="32"/>
+      <c r="I23" s="32"/>
+      <c r="J23" s="32"/>
+      <c r="K23" s="32"/>
+      <c r="L23" s="32"/>
+      <c r="M23" s="32"/>
+      <c r="N23" s="32"/>
+      <c r="O23" s="32"/>
+      <c r="P23" s="32"/>
+      <c r="Q23" s="32"/>
+      <c r="R23" s="32"/>
+      <c r="S23" s="32"/>
+      <c r="T23" s="32"/>
+      <c r="U23" s="32"/>
+      <c r="V23" s="32"/>
+      <c r="W23" s="32"/>
+      <c r="X23" s="32"/>
+      <c r="Y23" s="32"/>
+      <c r="Z23" s="32"/>
+      <c r="AA23" s="32"/>
+      <c r="AB23" s="32"/>
+      <c r="AC23" s="32"/>
+      <c r="AD23" s="32"/>
+      <c r="AE23" s="32"/>
+      <c r="AF23" s="32"/>
+      <c r="AG23" s="32"/>
+      <c r="AH23" s="32"/>
+      <c r="AI23" s="32"/>
+      <c r="AJ23" s="32"/>
+      <c r="AK23" s="32"/>
+      <c r="AL23" s="32"/>
       <c r="AM23" s="3" t="s">
         <v>85</v>
       </c>
@@ -7880,53 +7976,57 @@
         <v>124</v>
       </c>
     </row>
-    <row r="24" spans="5:43" ht="64.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E24" s="39"/>
-      <c r="F24" s="39"/>
-      <c r="G24" s="29" t="s">
+    <row r="24" spans="5:44" ht="64.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E24" s="49"/>
+      <c r="F24" s="49"/>
+      <c r="G24" s="50" t="s">
+        <v>44</v>
+      </c>
+      <c r="H24" s="51"/>
+      <c r="I24" s="51"/>
+      <c r="J24" s="52"/>
+      <c r="K24" s="50" t="s">
+        <v>24</v>
+      </c>
+      <c r="L24" s="51"/>
+      <c r="M24" s="51"/>
+      <c r="N24" s="52"/>
+      <c r="O24" s="33" t="s">
         <v>16</v>
       </c>
-      <c r="H24" s="29"/>
-      <c r="I24" s="29"/>
-      <c r="J24" s="29"/>
-      <c r="K24" s="29"/>
-      <c r="L24" s="29"/>
-      <c r="M24" s="29"/>
-      <c r="N24" s="29"/>
-      <c r="O24" s="29"/>
-      <c r="P24" s="29"/>
-      <c r="Q24" s="29"/>
-      <c r="R24" s="30"/>
-      <c r="S24" s="28" t="s">
+      <c r="P24" s="34"/>
+      <c r="Q24" s="34"/>
+      <c r="R24" s="35"/>
+      <c r="S24" s="33" t="s">
         <v>46</v>
       </c>
-      <c r="T24" s="29"/>
-      <c r="U24" s="29"/>
-      <c r="V24" s="30"/>
-      <c r="W24" s="27" t="s">
+      <c r="T24" s="34"/>
+      <c r="U24" s="34"/>
+      <c r="V24" s="35"/>
+      <c r="W24" s="32" t="s">
         <v>16</v>
       </c>
-      <c r="X24" s="27"/>
-      <c r="Y24" s="27"/>
-      <c r="Z24" s="27"/>
-      <c r="AA24" s="27"/>
-      <c r="AB24" s="27"/>
-      <c r="AC24" s="27"/>
-      <c r="AD24" s="27"/>
-      <c r="AE24" s="27"/>
-      <c r="AF24" s="27"/>
-      <c r="AG24" s="27"/>
-      <c r="AH24" s="27"/>
-      <c r="AI24" s="27"/>
-      <c r="AJ24" s="27"/>
-      <c r="AK24" s="27"/>
+      <c r="X24" s="32"/>
+      <c r="Y24" s="32"/>
+      <c r="Z24" s="32"/>
+      <c r="AA24" s="32"/>
+      <c r="AB24" s="32"/>
+      <c r="AC24" s="32"/>
+      <c r="AD24" s="32"/>
+      <c r="AE24" s="32"/>
+      <c r="AF24" s="32"/>
+      <c r="AG24" s="32"/>
+      <c r="AH24" s="32"/>
+      <c r="AI24" s="32"/>
+      <c r="AJ24" s="32"/>
+      <c r="AK24" s="32"/>
       <c r="AL24" s="22" t="s">
         <v>121</v>
       </c>
-      <c r="AM24" s="42" t="s">
+      <c r="AM24" s="43" t="s">
         <v>86</v>
       </c>
-      <c r="AN24" s="42" t="s">
+      <c r="AN24" s="43" t="s">
         <v>85</v>
       </c>
       <c r="AO24" s="15" t="s">
@@ -7939,277 +8039,333 @@
         <v>135</v>
       </c>
     </row>
-    <row r="25" spans="5:43" ht="64.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E25" s="39"/>
-      <c r="F25" s="39"/>
-      <c r="G25" s="29" t="s">
+    <row r="25" spans="5:44" ht="64.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E25" s="49"/>
+      <c r="F25" s="49"/>
+      <c r="G25" s="53"/>
+      <c r="H25" s="54"/>
+      <c r="I25" s="54"/>
+      <c r="J25" s="55"/>
+      <c r="K25" s="53"/>
+      <c r="L25" s="54"/>
+      <c r="M25" s="54"/>
+      <c r="N25" s="55"/>
+      <c r="O25" s="33" t="s">
         <v>16</v>
       </c>
-      <c r="H25" s="29"/>
-      <c r="I25" s="29"/>
-      <c r="J25" s="29"/>
-      <c r="K25" s="29"/>
-      <c r="L25" s="29"/>
-      <c r="M25" s="29"/>
-      <c r="N25" s="29"/>
-      <c r="O25" s="29"/>
-      <c r="P25" s="29"/>
-      <c r="Q25" s="29"/>
-      <c r="R25" s="30"/>
-      <c r="S25" s="28" t="s">
+      <c r="P25" s="34"/>
+      <c r="Q25" s="34"/>
+      <c r="R25" s="35"/>
+      <c r="S25" s="33" t="s">
         <v>47</v>
       </c>
-      <c r="T25" s="29"/>
-      <c r="U25" s="29"/>
-      <c r="V25" s="30"/>
-      <c r="W25" s="28" t="s">
+      <c r="T25" s="34"/>
+      <c r="U25" s="34"/>
+      <c r="V25" s="35"/>
+      <c r="W25" s="33" t="s">
         <v>16</v>
       </c>
-      <c r="X25" s="29"/>
-      <c r="Y25" s="29"/>
-      <c r="Z25" s="29"/>
-      <c r="AA25" s="29"/>
-      <c r="AB25" s="29"/>
-      <c r="AC25" s="29"/>
-      <c r="AD25" s="29"/>
-      <c r="AE25" s="29"/>
-      <c r="AF25" s="29"/>
-      <c r="AG25" s="29"/>
-      <c r="AH25" s="29"/>
-      <c r="AI25" s="29"/>
-      <c r="AJ25" s="29"/>
-      <c r="AK25" s="29"/>
-      <c r="AL25" s="30"/>
-      <c r="AM25" s="43"/>
-      <c r="AN25" s="43"/>
+      <c r="X25" s="34"/>
+      <c r="Y25" s="34"/>
+      <c r="Z25" s="34"/>
+      <c r="AA25" s="34"/>
+      <c r="AB25" s="34"/>
+      <c r="AC25" s="34"/>
+      <c r="AD25" s="34"/>
+      <c r="AE25" s="34"/>
+      <c r="AF25" s="34"/>
+      <c r="AG25" s="34"/>
+      <c r="AH25" s="34"/>
+      <c r="AI25" s="34"/>
+      <c r="AJ25" s="34"/>
+      <c r="AK25" s="34"/>
+      <c r="AL25" s="35"/>
+      <c r="AM25" s="44"/>
+      <c r="AN25" s="44"/>
       <c r="AO25" s="15" t="s">
+        <v>174</v>
+      </c>
+      <c r="AP25" s="16" t="s">
         <v>149</v>
-      </c>
-      <c r="AP25" s="16" t="s">
-        <v>150</v>
       </c>
       <c r="AQ25" s="16" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="26" spans="5:43" ht="64.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E26" s="39"/>
-      <c r="F26" s="39"/>
-      <c r="G26" s="29" t="s">
+    <row r="26" spans="5:44" ht="64.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E26" s="49"/>
+      <c r="F26" s="49"/>
+      <c r="G26" s="53"/>
+      <c r="H26" s="54"/>
+      <c r="I26" s="54"/>
+      <c r="J26" s="55"/>
+      <c r="K26" s="53"/>
+      <c r="L26" s="54"/>
+      <c r="M26" s="54"/>
+      <c r="N26" s="55"/>
+      <c r="O26" s="33" t="s">
+        <v>176</v>
+      </c>
+      <c r="P26" s="34"/>
+      <c r="Q26" s="34"/>
+      <c r="R26" s="35"/>
+      <c r="S26" s="33" t="s">
+        <v>48</v>
+      </c>
+      <c r="T26" s="34"/>
+      <c r="U26" s="34"/>
+      <c r="V26" s="35"/>
+      <c r="W26" s="33" t="s">
         <v>16</v>
       </c>
-      <c r="H26" s="29"/>
-      <c r="I26" s="29"/>
-      <c r="J26" s="29"/>
-      <c r="K26" s="29"/>
-      <c r="L26" s="29"/>
-      <c r="M26" s="29"/>
-      <c r="N26" s="29"/>
-      <c r="O26" s="29"/>
-      <c r="P26" s="29"/>
-      <c r="Q26" s="29"/>
-      <c r="R26" s="30"/>
-      <c r="S26" s="28" t="s">
+      <c r="X26" s="34"/>
+      <c r="Y26" s="34"/>
+      <c r="Z26" s="34"/>
+      <c r="AA26" s="34"/>
+      <c r="AB26" s="34"/>
+      <c r="AC26" s="34"/>
+      <c r="AD26" s="34"/>
+      <c r="AE26" s="34"/>
+      <c r="AF26" s="34"/>
+      <c r="AG26" s="34"/>
+      <c r="AH26" s="34"/>
+      <c r="AI26" s="34"/>
+      <c r="AJ26" s="34"/>
+      <c r="AK26" s="34"/>
+      <c r="AL26" s="35"/>
+      <c r="AM26" s="44"/>
+      <c r="AN26" s="44"/>
+      <c r="AO26" s="15" t="s">
+        <v>175</v>
+      </c>
+      <c r="AP26" s="16" t="s">
+        <v>177</v>
+      </c>
+      <c r="AQ26" s="16" t="s">
+        <v>178</v>
+      </c>
+      <c r="AR26" s="30" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="27" spans="5:44" ht="64.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E27" s="49"/>
+      <c r="F27" s="49"/>
+      <c r="G27" s="53"/>
+      <c r="H27" s="54"/>
+      <c r="I27" s="54"/>
+      <c r="J27" s="55"/>
+      <c r="K27" s="53"/>
+      <c r="L27" s="54"/>
+      <c r="M27" s="54"/>
+      <c r="N27" s="55"/>
+      <c r="O27" s="33" t="s">
+        <v>16</v>
+      </c>
+      <c r="P27" s="34"/>
+      <c r="Q27" s="34"/>
+      <c r="R27" s="35"/>
+      <c r="S27" s="33" t="s">
         <v>116</v>
       </c>
-      <c r="T26" s="29"/>
-      <c r="U26" s="29"/>
-      <c r="V26" s="30"/>
-      <c r="W26" s="28" t="s">
+      <c r="T27" s="34"/>
+      <c r="U27" s="34"/>
+      <c r="V27" s="35"/>
+      <c r="W27" s="33" t="s">
         <v>16</v>
       </c>
-      <c r="X26" s="29"/>
-      <c r="Y26" s="29"/>
-      <c r="Z26" s="29"/>
-      <c r="AA26" s="29"/>
-      <c r="AB26" s="29"/>
-      <c r="AC26" s="29"/>
-      <c r="AD26" s="30"/>
-      <c r="AE26" s="27" t="s">
+      <c r="X27" s="34"/>
+      <c r="Y27" s="34"/>
+      <c r="Z27" s="34"/>
+      <c r="AA27" s="34"/>
+      <c r="AB27" s="34"/>
+      <c r="AC27" s="34"/>
+      <c r="AD27" s="35"/>
+      <c r="AE27" s="32" t="s">
         <v>44</v>
       </c>
-      <c r="AF26" s="27"/>
-      <c r="AG26" s="27"/>
-      <c r="AH26" s="27"/>
-      <c r="AI26" s="27" t="s">
+      <c r="AF27" s="32"/>
+      <c r="AG27" s="32"/>
+      <c r="AH27" s="32"/>
+      <c r="AI27" s="32" t="s">
         <v>24</v>
       </c>
-      <c r="AJ26" s="27"/>
-      <c r="AK26" s="27"/>
-      <c r="AL26" s="27"/>
-      <c r="AM26" s="43"/>
-      <c r="AN26" s="43"/>
-      <c r="AO26" s="15" t="s">
+      <c r="AJ27" s="32"/>
+      <c r="AK27" s="32"/>
+      <c r="AL27" s="32"/>
+      <c r="AM27" s="44"/>
+      <c r="AN27" s="44"/>
+      <c r="AO27" s="15" t="s">
         <v>118</v>
       </c>
-      <c r="AP26" s="16" t="s">
+      <c r="AP27" s="16" t="s">
         <v>126</v>
-      </c>
-      <c r="AQ26" s="15" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="27" spans="5:43" ht="64.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E27" s="39"/>
-      <c r="F27" s="39"/>
-      <c r="G27" s="29" t="s">
-        <v>16</v>
-      </c>
-      <c r="H27" s="29"/>
-      <c r="I27" s="29"/>
-      <c r="J27" s="29"/>
-      <c r="K27" s="29"/>
-      <c r="L27" s="29"/>
-      <c r="M27" s="29"/>
-      <c r="N27" s="30"/>
-      <c r="O27" s="28" t="s">
-        <v>45</v>
-      </c>
-      <c r="P27" s="29"/>
-      <c r="Q27" s="29"/>
-      <c r="R27" s="30"/>
-      <c r="S27" s="28" t="s">
-        <v>114</v>
-      </c>
-      <c r="T27" s="29"/>
-      <c r="U27" s="29"/>
-      <c r="V27" s="30"/>
-      <c r="W27" s="28" t="s">
-        <v>16</v>
-      </c>
-      <c r="X27" s="29"/>
-      <c r="Y27" s="29"/>
-      <c r="Z27" s="29"/>
-      <c r="AA27" s="29"/>
-      <c r="AB27" s="29"/>
-      <c r="AC27" s="30"/>
-      <c r="AD27" s="19" t="s">
-        <v>113</v>
-      </c>
-      <c r="AE27" s="28" t="s">
-        <v>59</v>
-      </c>
-      <c r="AF27" s="29"/>
-      <c r="AG27" s="29"/>
-      <c r="AH27" s="29"/>
-      <c r="AI27" s="29"/>
-      <c r="AJ27" s="29"/>
-      <c r="AK27" s="29"/>
-      <c r="AL27" s="30"/>
-      <c r="AM27" s="43"/>
-      <c r="AN27" s="43"/>
-      <c r="AO27" s="15" t="s">
-        <v>119</v>
-      </c>
-      <c r="AP27" s="16" t="s">
-        <v>127</v>
       </c>
       <c r="AQ27" s="15" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="28" spans="5:43" ht="64.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E28" s="39"/>
-      <c r="F28" s="39"/>
-      <c r="G28" s="29" t="s">
+    <row r="28" spans="5:44" ht="64.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E28" s="49"/>
+      <c r="F28" s="49"/>
+      <c r="G28" s="53"/>
+      <c r="H28" s="54"/>
+      <c r="I28" s="54"/>
+      <c r="J28" s="55"/>
+      <c r="K28" s="53"/>
+      <c r="L28" s="54"/>
+      <c r="M28" s="54"/>
+      <c r="N28" s="55"/>
+      <c r="O28" s="33" t="s">
+        <v>45</v>
+      </c>
+      <c r="P28" s="34"/>
+      <c r="Q28" s="34"/>
+      <c r="R28" s="35"/>
+      <c r="S28" s="33" t="s">
+        <v>114</v>
+      </c>
+      <c r="T28" s="34"/>
+      <c r="U28" s="34"/>
+      <c r="V28" s="35"/>
+      <c r="W28" s="33" t="s">
         <v>16</v>
       </c>
-      <c r="H28" s="29"/>
-      <c r="I28" s="29"/>
-      <c r="J28" s="29"/>
-      <c r="K28" s="29"/>
-      <c r="L28" s="29"/>
-      <c r="M28" s="29"/>
-      <c r="N28" s="30"/>
-      <c r="O28" s="28" t="s">
-        <v>45</v>
-      </c>
-      <c r="P28" s="29"/>
-      <c r="Q28" s="29"/>
-      <c r="R28" s="30"/>
-      <c r="S28" s="28" t="s">
-        <v>115</v>
-      </c>
-      <c r="T28" s="29"/>
-      <c r="U28" s="29"/>
-      <c r="V28" s="30"/>
-      <c r="W28" s="28" t="s">
-        <v>16</v>
-      </c>
-      <c r="X28" s="29"/>
-      <c r="Y28" s="29"/>
-      <c r="Z28" s="29"/>
-      <c r="AA28" s="29"/>
-      <c r="AB28" s="29"/>
-      <c r="AC28" s="30"/>
+      <c r="X28" s="34"/>
+      <c r="Y28" s="34"/>
+      <c r="Z28" s="34"/>
+      <c r="AA28" s="34"/>
+      <c r="AB28" s="34"/>
+      <c r="AC28" s="35"/>
       <c r="AD28" s="19" t="s">
         <v>113</v>
       </c>
-      <c r="AE28" s="19" t="s">
-        <v>16</v>
-      </c>
-      <c r="AF28" s="28" t="s">
-        <v>58</v>
-      </c>
-      <c r="AG28" s="29"/>
-      <c r="AH28" s="29"/>
-      <c r="AI28" s="29"/>
-      <c r="AJ28" s="29"/>
-      <c r="AK28" s="29"/>
-      <c r="AL28" s="30"/>
+      <c r="AE28" s="33" t="s">
+        <v>59</v>
+      </c>
+      <c r="AF28" s="34"/>
+      <c r="AG28" s="34"/>
+      <c r="AH28" s="34"/>
+      <c r="AI28" s="34"/>
+      <c r="AJ28" s="34"/>
+      <c r="AK28" s="34"/>
+      <c r="AL28" s="35"/>
       <c r="AM28" s="44"/>
       <c r="AN28" s="44"/>
       <c r="AO28" s="15" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="AP28" s="16" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="AQ28" s="15" t="s">
         <v>125</v>
       </c>
     </row>
+    <row r="29" spans="5:44" ht="64.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E29" s="49"/>
+      <c r="F29" s="49"/>
+      <c r="G29" s="56"/>
+      <c r="H29" s="57"/>
+      <c r="I29" s="57"/>
+      <c r="J29" s="58"/>
+      <c r="K29" s="56"/>
+      <c r="L29" s="57"/>
+      <c r="M29" s="57"/>
+      <c r="N29" s="58"/>
+      <c r="O29" s="33" t="s">
+        <v>45</v>
+      </c>
+      <c r="P29" s="34"/>
+      <c r="Q29" s="34"/>
+      <c r="R29" s="35"/>
+      <c r="S29" s="33" t="s">
+        <v>115</v>
+      </c>
+      <c r="T29" s="34"/>
+      <c r="U29" s="34"/>
+      <c r="V29" s="35"/>
+      <c r="W29" s="33" t="s">
+        <v>16</v>
+      </c>
+      <c r="X29" s="34"/>
+      <c r="Y29" s="34"/>
+      <c r="Z29" s="34"/>
+      <c r="AA29" s="34"/>
+      <c r="AB29" s="34"/>
+      <c r="AC29" s="35"/>
+      <c r="AD29" s="19" t="s">
+        <v>113</v>
+      </c>
+      <c r="AE29" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="AF29" s="33" t="s">
+        <v>58</v>
+      </c>
+      <c r="AG29" s="34"/>
+      <c r="AH29" s="34"/>
+      <c r="AI29" s="34"/>
+      <c r="AJ29" s="34"/>
+      <c r="AK29" s="34"/>
+      <c r="AL29" s="35"/>
+      <c r="AM29" s="45"/>
+      <c r="AN29" s="45"/>
+      <c r="AO29" s="15" t="s">
+        <v>120</v>
+      </c>
+      <c r="AP29" s="16" t="s">
+        <v>128</v>
+      </c>
+      <c r="AQ29" s="15" t="s">
+        <v>125</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="35">
-    <mergeCell ref="AQ21:AQ22"/>
-    <mergeCell ref="AP21:AP22"/>
-    <mergeCell ref="W28:AC28"/>
-    <mergeCell ref="AM22:AN22"/>
+  <mergeCells count="39">
+    <mergeCell ref="O25:R25"/>
     <mergeCell ref="O27:R27"/>
-    <mergeCell ref="AE27:AL27"/>
-    <mergeCell ref="G23:AL23"/>
-    <mergeCell ref="AF28:AL28"/>
-    <mergeCell ref="AO21:AO22"/>
-    <mergeCell ref="S26:V26"/>
-    <mergeCell ref="W26:AD26"/>
-    <mergeCell ref="AE26:AH26"/>
-    <mergeCell ref="AI26:AL26"/>
-    <mergeCell ref="W24:AK24"/>
-    <mergeCell ref="AM24:AM28"/>
-    <mergeCell ref="AN24:AN28"/>
-    <mergeCell ref="AE21:AL21"/>
     <mergeCell ref="E22:F22"/>
-    <mergeCell ref="G26:R26"/>
     <mergeCell ref="G21:N21"/>
     <mergeCell ref="O21:V21"/>
     <mergeCell ref="W21:AD21"/>
-    <mergeCell ref="G24:R24"/>
     <mergeCell ref="S24:V24"/>
-    <mergeCell ref="E23:E28"/>
-    <mergeCell ref="F23:F28"/>
-    <mergeCell ref="G25:R25"/>
+    <mergeCell ref="E23:E29"/>
+    <mergeCell ref="F23:F29"/>
     <mergeCell ref="S25:V25"/>
-    <mergeCell ref="W27:AC27"/>
-    <mergeCell ref="G27:N27"/>
+    <mergeCell ref="W28:AC28"/>
+    <mergeCell ref="O29:R29"/>
+    <mergeCell ref="S29:V29"/>
+    <mergeCell ref="W25:AL25"/>
+    <mergeCell ref="S28:V28"/>
+    <mergeCell ref="S26:V26"/>
+    <mergeCell ref="W26:AL26"/>
+    <mergeCell ref="AE21:AL21"/>
     <mergeCell ref="O28:R28"/>
-    <mergeCell ref="S28:V28"/>
-    <mergeCell ref="G28:N28"/>
-    <mergeCell ref="W25:AL25"/>
+    <mergeCell ref="AE28:AL28"/>
+    <mergeCell ref="G23:AL23"/>
+    <mergeCell ref="AF29:AL29"/>
+    <mergeCell ref="AO21:AO22"/>
     <mergeCell ref="S27:V27"/>
+    <mergeCell ref="W27:AD27"/>
+    <mergeCell ref="AE27:AH27"/>
+    <mergeCell ref="AI27:AL27"/>
+    <mergeCell ref="W24:AK24"/>
+    <mergeCell ref="AM24:AM29"/>
+    <mergeCell ref="AN24:AN29"/>
+    <mergeCell ref="G24:J29"/>
+    <mergeCell ref="K24:N29"/>
+    <mergeCell ref="O24:R24"/>
+    <mergeCell ref="O26:R26"/>
+    <mergeCell ref="AR21:AR22"/>
+    <mergeCell ref="AQ21:AQ22"/>
+    <mergeCell ref="AP21:AP22"/>
+    <mergeCell ref="W29:AC29"/>
+    <mergeCell ref="AM22:AN22"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -8237,51 +8393,51 @@
       <c r="D13" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="E13" s="35" t="s">
+      <c r="E13" s="46" t="s">
         <v>79</v>
       </c>
-      <c r="F13" s="36"/>
-      <c r="G13" s="36"/>
-      <c r="H13" s="36"/>
-      <c r="I13" s="36"/>
-      <c r="J13" s="36"/>
-      <c r="K13" s="36"/>
-      <c r="L13" s="37"/>
-      <c r="M13" s="35" t="s">
+      <c r="F13" s="47"/>
+      <c r="G13" s="47"/>
+      <c r="H13" s="47"/>
+      <c r="I13" s="47"/>
+      <c r="J13" s="47"/>
+      <c r="K13" s="47"/>
+      <c r="L13" s="48"/>
+      <c r="M13" s="46" t="s">
         <v>80</v>
       </c>
-      <c r="N13" s="36" t="s">
+      <c r="N13" s="47" t="s">
         <v>81</v>
       </c>
-      <c r="O13" s="36" t="s">
+      <c r="O13" s="47" t="s">
         <v>82</v>
       </c>
-      <c r="P13" s="36"/>
-      <c r="Q13" s="36"/>
-      <c r="R13" s="36"/>
-      <c r="S13" s="36"/>
-      <c r="T13" s="37"/>
-      <c r="U13" s="35" t="s">
+      <c r="P13" s="47"/>
+      <c r="Q13" s="47"/>
+      <c r="R13" s="47"/>
+      <c r="S13" s="47"/>
+      <c r="T13" s="48"/>
+      <c r="U13" s="46" t="s">
         <v>87</v>
       </c>
-      <c r="V13" s="36"/>
-      <c r="W13" s="36"/>
-      <c r="X13" s="36"/>
-      <c r="Y13" s="36"/>
-      <c r="Z13" s="36"/>
-      <c r="AA13" s="36"/>
-      <c r="AB13" s="37"/>
-      <c r="AC13" s="35" t="s">
+      <c r="V13" s="47"/>
+      <c r="W13" s="47"/>
+      <c r="X13" s="47"/>
+      <c r="Y13" s="47"/>
+      <c r="Z13" s="47"/>
+      <c r="AA13" s="47"/>
+      <c r="AB13" s="48"/>
+      <c r="AC13" s="46" t="s">
         <v>88</v>
       </c>
-      <c r="AD13" s="36"/>
-      <c r="AE13" s="36"/>
-      <c r="AF13" s="36"/>
-      <c r="AG13" s="36"/>
-      <c r="AH13" s="36"/>
-      <c r="AI13" s="36"/>
-      <c r="AJ13" s="37"/>
-      <c r="AK13" s="45" t="s">
+      <c r="AD13" s="47"/>
+      <c r="AE13" s="47"/>
+      <c r="AF13" s="47"/>
+      <c r="AG13" s="47"/>
+      <c r="AH13" s="47"/>
+      <c r="AI13" s="47"/>
+      <c r="AJ13" s="48"/>
+      <c r="AK13" s="59" t="s">
         <v>63</v>
       </c>
       <c r="AL13" s="40" t="s">
@@ -8292,10 +8448,10 @@
       </c>
     </row>
     <row r="14" spans="3:39" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C14" s="38" t="s">
+      <c r="C14" s="41" t="s">
         <v>111</v>
       </c>
-      <c r="D14" s="38"/>
+      <c r="D14" s="41"/>
       <c r="E14" s="14" t="s">
         <v>93</v>
       </c>
@@ -8392,120 +8548,120 @@
       <c r="AJ14" s="14" t="s">
         <v>90</v>
       </c>
-      <c r="AK14" s="46"/>
+      <c r="AK14" s="60"/>
       <c r="AL14" s="40"/>
       <c r="AM14" s="40"/>
     </row>
     <row r="15" spans="3:39" ht="95.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C15" s="39" t="s">
+      <c r="C15" s="49" t="s">
         <v>76</v>
       </c>
-      <c r="D15" s="39" t="s">
+      <c r="D15" s="49" t="s">
         <v>78</v>
       </c>
-      <c r="E15" s="34" t="s">
+      <c r="E15" s="31" t="s">
         <v>24</v>
       </c>
-      <c r="F15" s="34"/>
-      <c r="G15" s="34"/>
-      <c r="H15" s="34"/>
-      <c r="I15" s="30" t="s">
+      <c r="F15" s="31"/>
+      <c r="G15" s="31"/>
+      <c r="H15" s="31"/>
+      <c r="I15" s="35" t="s">
         <v>16</v>
       </c>
-      <c r="J15" s="27"/>
-      <c r="K15" s="31" t="s">
+      <c r="J15" s="32"/>
+      <c r="K15" s="36" t="s">
         <v>142</v>
       </c>
-      <c r="L15" s="33"/>
-      <c r="M15" s="31" t="s">
+      <c r="L15" s="38"/>
+      <c r="M15" s="36" t="s">
         <v>16</v>
       </c>
-      <c r="N15" s="32"/>
-      <c r="O15" s="32"/>
-      <c r="P15" s="33"/>
-      <c r="Q15" s="27" t="s">
+      <c r="N15" s="37"/>
+      <c r="O15" s="37"/>
+      <c r="P15" s="38"/>
+      <c r="Q15" s="32" t="s">
         <v>50</v>
       </c>
-      <c r="R15" s="27"/>
-      <c r="S15" s="27"/>
-      <c r="T15" s="27"/>
-      <c r="U15" s="28" t="s">
+      <c r="R15" s="32"/>
+      <c r="S15" s="32"/>
+      <c r="T15" s="32"/>
+      <c r="U15" s="33" t="s">
         <v>16</v>
       </c>
-      <c r="V15" s="29"/>
-      <c r="W15" s="29"/>
-      <c r="X15" s="29"/>
-      <c r="Y15" s="29"/>
-      <c r="Z15" s="30"/>
+      <c r="V15" s="34"/>
+      <c r="W15" s="34"/>
+      <c r="X15" s="34"/>
+      <c r="Y15" s="34"/>
+      <c r="Z15" s="35"/>
       <c r="AA15" s="18" t="s">
         <v>19</v>
       </c>
       <c r="AB15" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="AC15" s="28" t="s">
+      <c r="AC15" s="33" t="s">
         <v>16</v>
       </c>
-      <c r="AD15" s="29"/>
-      <c r="AE15" s="29"/>
-      <c r="AF15" s="29"/>
-      <c r="AG15" s="29"/>
-      <c r="AH15" s="29"/>
-      <c r="AI15" s="29"/>
-      <c r="AJ15" s="30"/>
+      <c r="AD15" s="34"/>
+      <c r="AE15" s="34"/>
+      <c r="AF15" s="34"/>
+      <c r="AG15" s="34"/>
+      <c r="AH15" s="34"/>
+      <c r="AI15" s="34"/>
+      <c r="AJ15" s="35"/>
       <c r="AK15" s="17" t="s">
         <v>147</v>
       </c>
       <c r="AL15" s="16" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="AM15" s="16" t="s">
         <v>148</v>
       </c>
     </row>
     <row r="16" spans="3:39" ht="95.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C16" s="39"/>
-      <c r="D16" s="39"/>
-      <c r="E16" s="34"/>
-      <c r="F16" s="34"/>
-      <c r="G16" s="34"/>
-      <c r="H16" s="34"/>
-      <c r="I16" s="32" t="s">
+      <c r="C16" s="49"/>
+      <c r="D16" s="49"/>
+      <c r="E16" s="31"/>
+      <c r="F16" s="31"/>
+      <c r="G16" s="31"/>
+      <c r="H16" s="31"/>
+      <c r="I16" s="37" t="s">
         <v>16</v>
       </c>
-      <c r="J16" s="32"/>
-      <c r="K16" s="32"/>
-      <c r="L16" s="33"/>
-      <c r="M16" s="31" t="s">
+      <c r="J16" s="37"/>
+      <c r="K16" s="37"/>
+      <c r="L16" s="38"/>
+      <c r="M16" s="36" t="s">
         <v>16</v>
       </c>
-      <c r="N16" s="32"/>
-      <c r="O16" s="32"/>
-      <c r="P16" s="33"/>
-      <c r="Q16" s="27" t="s">
+      <c r="N16" s="37"/>
+      <c r="O16" s="37"/>
+      <c r="P16" s="38"/>
+      <c r="Q16" s="32" t="s">
         <v>52</v>
       </c>
-      <c r="R16" s="27"/>
-      <c r="S16" s="27"/>
-      <c r="T16" s="27"/>
-      <c r="U16" s="28" t="s">
+      <c r="R16" s="32"/>
+      <c r="S16" s="32"/>
+      <c r="T16" s="32"/>
+      <c r="U16" s="33" t="s">
         <v>16</v>
       </c>
-      <c r="V16" s="29"/>
-      <c r="W16" s="29"/>
-      <c r="X16" s="29"/>
-      <c r="Y16" s="29"/>
-      <c r="Z16" s="29"/>
-      <c r="AA16" s="29"/>
-      <c r="AB16" s="29"/>
-      <c r="AC16" s="29"/>
-      <c r="AD16" s="29"/>
-      <c r="AE16" s="29"/>
-      <c r="AF16" s="29"/>
-      <c r="AG16" s="29"/>
-      <c r="AH16" s="29"/>
-      <c r="AI16" s="29"/>
-      <c r="AJ16" s="30"/>
+      <c r="V16" s="34"/>
+      <c r="W16" s="34"/>
+      <c r="X16" s="34"/>
+      <c r="Y16" s="34"/>
+      <c r="Z16" s="34"/>
+      <c r="AA16" s="34"/>
+      <c r="AB16" s="34"/>
+      <c r="AC16" s="34"/>
+      <c r="AD16" s="34"/>
+      <c r="AE16" s="34"/>
+      <c r="AF16" s="34"/>
+      <c r="AG16" s="34"/>
+      <c r="AH16" s="34"/>
+      <c r="AI16" s="34"/>
+      <c r="AJ16" s="35"/>
       <c r="AK16" s="17" t="s">
         <v>67</v>
       </c>
@@ -8517,50 +8673,50 @@
       </c>
     </row>
     <row r="17" spans="3:39" ht="95.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C17" s="39"/>
-      <c r="D17" s="39"/>
-      <c r="E17" s="34"/>
-      <c r="F17" s="34"/>
-      <c r="G17" s="34"/>
-      <c r="H17" s="34"/>
-      <c r="I17" s="32" t="s">
+      <c r="C17" s="49"/>
+      <c r="D17" s="49"/>
+      <c r="E17" s="31"/>
+      <c r="F17" s="31"/>
+      <c r="G17" s="31"/>
+      <c r="H17" s="31"/>
+      <c r="I17" s="37" t="s">
         <v>16</v>
       </c>
-      <c r="J17" s="32"/>
-      <c r="K17" s="32"/>
-      <c r="L17" s="33"/>
-      <c r="M17" s="31" t="s">
+      <c r="J17" s="37"/>
+      <c r="K17" s="37"/>
+      <c r="L17" s="38"/>
+      <c r="M17" s="36" t="s">
         <v>16</v>
       </c>
-      <c r="N17" s="32"/>
-      <c r="O17" s="32"/>
-      <c r="P17" s="33"/>
-      <c r="Q17" s="27" t="s">
+      <c r="N17" s="37"/>
+      <c r="O17" s="37"/>
+      <c r="P17" s="38"/>
+      <c r="Q17" s="32" t="s">
         <v>53</v>
       </c>
-      <c r="R17" s="27"/>
-      <c r="S17" s="27"/>
-      <c r="T17" s="27"/>
-      <c r="U17" s="28" t="s">
+      <c r="R17" s="32"/>
+      <c r="S17" s="32"/>
+      <c r="T17" s="32"/>
+      <c r="U17" s="33" t="s">
         <v>16</v>
       </c>
-      <c r="V17" s="29"/>
-      <c r="W17" s="29"/>
-      <c r="X17" s="29"/>
-      <c r="Y17" s="29"/>
-      <c r="Z17" s="29"/>
-      <c r="AA17" s="29"/>
-      <c r="AB17" s="29"/>
-      <c r="AC17" s="29"/>
-      <c r="AD17" s="29"/>
-      <c r="AE17" s="29"/>
-      <c r="AF17" s="30"/>
-      <c r="AG17" s="28" t="s">
+      <c r="V17" s="34"/>
+      <c r="W17" s="34"/>
+      <c r="X17" s="34"/>
+      <c r="Y17" s="34"/>
+      <c r="Z17" s="34"/>
+      <c r="AA17" s="34"/>
+      <c r="AB17" s="34"/>
+      <c r="AC17" s="34"/>
+      <c r="AD17" s="34"/>
+      <c r="AE17" s="34"/>
+      <c r="AF17" s="35"/>
+      <c r="AG17" s="33" t="s">
         <v>24</v>
       </c>
-      <c r="AH17" s="29"/>
-      <c r="AI17" s="29"/>
-      <c r="AJ17" s="30"/>
+      <c r="AH17" s="34"/>
+      <c r="AI17" s="34"/>
+      <c r="AJ17" s="35"/>
       <c r="AK17" s="17" t="s">
         <v>68</v>
       </c>
@@ -8568,159 +8724,135 @@
         <v>144</v>
       </c>
       <c r="AM17" s="16" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
     </row>
     <row r="18" spans="3:39" ht="95.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C18" s="39"/>
-      <c r="D18" s="39"/>
-      <c r="E18" s="34"/>
-      <c r="F18" s="34"/>
-      <c r="G18" s="34"/>
-      <c r="H18" s="34"/>
-      <c r="I18" s="30" t="s">
+      <c r="C18" s="49"/>
+      <c r="D18" s="49"/>
+      <c r="E18" s="31"/>
+      <c r="F18" s="31"/>
+      <c r="G18" s="31"/>
+      <c r="H18" s="31"/>
+      <c r="I18" s="35" t="s">
         <v>16</v>
       </c>
-      <c r="J18" s="27"/>
-      <c r="K18" s="31" t="s">
+      <c r="J18" s="32"/>
+      <c r="K18" s="36" t="s">
         <v>142</v>
       </c>
-      <c r="L18" s="33"/>
-      <c r="M18" s="34" t="s">
+      <c r="L18" s="38"/>
+      <c r="M18" s="31" t="s">
         <v>143</v>
       </c>
-      <c r="N18" s="34"/>
-      <c r="O18" s="34"/>
-      <c r="P18" s="34"/>
-      <c r="Q18" s="27" t="s">
+      <c r="N18" s="31"/>
+      <c r="O18" s="31"/>
+      <c r="P18" s="31"/>
+      <c r="Q18" s="32" t="s">
         <v>129</v>
       </c>
-      <c r="R18" s="27"/>
-      <c r="S18" s="27"/>
-      <c r="T18" s="27"/>
-      <c r="U18" s="28" t="s">
+      <c r="R18" s="32"/>
+      <c r="S18" s="32"/>
+      <c r="T18" s="32"/>
+      <c r="U18" s="33" t="s">
         <v>16</v>
       </c>
-      <c r="V18" s="29"/>
-      <c r="W18" s="29"/>
-      <c r="X18" s="29"/>
-      <c r="Y18" s="29"/>
-      <c r="Z18" s="30"/>
-      <c r="AA18" s="27" t="s">
+      <c r="V18" s="34"/>
+      <c r="W18" s="34"/>
+      <c r="X18" s="34"/>
+      <c r="Y18" s="34"/>
+      <c r="Z18" s="35"/>
+      <c r="AA18" s="32" t="s">
         <v>146</v>
       </c>
-      <c r="AB18" s="27"/>
-      <c r="AC18" s="27" t="s">
+      <c r="AB18" s="32"/>
+      <c r="AC18" s="32" t="s">
         <v>16</v>
       </c>
-      <c r="AD18" s="27"/>
-      <c r="AE18" s="28" t="s">
+      <c r="AD18" s="32"/>
+      <c r="AE18" s="33" t="s">
         <v>58</v>
       </c>
-      <c r="AF18" s="29"/>
-      <c r="AG18" s="29"/>
-      <c r="AH18" s="29"/>
-      <c r="AI18" s="29"/>
-      <c r="AJ18" s="30"/>
+      <c r="AF18" s="34"/>
+      <c r="AG18" s="34"/>
+      <c r="AH18" s="34"/>
+      <c r="AI18" s="34"/>
+      <c r="AJ18" s="35"/>
       <c r="AK18" s="17" t="s">
         <v>145</v>
       </c>
       <c r="AL18" s="16" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="AM18" s="16" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
     </row>
     <row r="19" spans="3:39" ht="95.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C19" s="39"/>
-      <c r="D19" s="39"/>
-      <c r="E19" s="34"/>
-      <c r="F19" s="34"/>
-      <c r="G19" s="34"/>
-      <c r="H19" s="34"/>
-      <c r="I19" s="30" t="s">
+      <c r="C19" s="49"/>
+      <c r="D19" s="49"/>
+      <c r="E19" s="31"/>
+      <c r="F19" s="31"/>
+      <c r="G19" s="31"/>
+      <c r="H19" s="31"/>
+      <c r="I19" s="35" t="s">
         <v>16</v>
       </c>
-      <c r="J19" s="27"/>
-      <c r="K19" s="31" t="s">
+      <c r="J19" s="32"/>
+      <c r="K19" s="36" t="s">
         <v>142</v>
       </c>
-      <c r="L19" s="33"/>
+      <c r="L19" s="38"/>
       <c r="M19" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="N19" s="31" t="s">
+      <c r="N19" s="36" t="s">
+        <v>156</v>
+      </c>
+      <c r="O19" s="37"/>
+      <c r="P19" s="38"/>
+      <c r="Q19" s="32" t="s">
+        <v>157</v>
+      </c>
+      <c r="R19" s="32"/>
+      <c r="S19" s="32"/>
+      <c r="T19" s="32"/>
+      <c r="U19" s="33" t="s">
+        <v>16</v>
+      </c>
+      <c r="V19" s="34"/>
+      <c r="W19" s="34"/>
+      <c r="X19" s="34"/>
+      <c r="Y19" s="34"/>
+      <c r="Z19" s="34"/>
+      <c r="AA19" s="35"/>
+      <c r="AB19" s="20" t="s">
         <v>158</v>
       </c>
-      <c r="O19" s="32"/>
-      <c r="P19" s="33"/>
-      <c r="Q19" s="27" t="s">
+      <c r="AC19" s="32" t="s">
+        <v>16</v>
+      </c>
+      <c r="AD19" s="32"/>
+      <c r="AE19" s="32"/>
+      <c r="AF19" s="32"/>
+      <c r="AG19" s="32"/>
+      <c r="AH19" s="32"/>
+      <c r="AI19" s="32"/>
+      <c r="AJ19" s="26" t="s">
         <v>159</v>
       </c>
-      <c r="R19" s="27"/>
-      <c r="S19" s="27"/>
-      <c r="T19" s="27"/>
-      <c r="U19" s="28" t="s">
-        <v>16</v>
-      </c>
-      <c r="V19" s="29"/>
-      <c r="W19" s="29"/>
-      <c r="X19" s="29"/>
-      <c r="Y19" s="29"/>
-      <c r="Z19" s="29"/>
-      <c r="AA19" s="30"/>
-      <c r="AB19" s="20" t="s">
+      <c r="AK19" s="17" t="s">
         <v>160</v>
       </c>
-      <c r="AC19" s="27" t="s">
-        <v>16</v>
-      </c>
-      <c r="AD19" s="27"/>
-      <c r="AE19" s="27"/>
-      <c r="AF19" s="27"/>
-      <c r="AG19" s="27"/>
-      <c r="AH19" s="27"/>
-      <c r="AI19" s="27"/>
-      <c r="AJ19" s="26" t="s">
+      <c r="AL19" s="16" t="s">
         <v>161</v>
       </c>
-      <c r="AK19" s="17" t="s">
-        <v>162</v>
-      </c>
-      <c r="AL19" s="16" t="s">
-        <v>163</v>
-      </c>
       <c r="AM19" s="16" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="40">
-    <mergeCell ref="C15:C19"/>
-    <mergeCell ref="D15:D19"/>
-    <mergeCell ref="E15:H19"/>
-    <mergeCell ref="I19:J19"/>
-    <mergeCell ref="K19:L19"/>
-    <mergeCell ref="I18:J18"/>
-    <mergeCell ref="K18:L18"/>
-    <mergeCell ref="AK13:AK14"/>
-    <mergeCell ref="AL13:AL14"/>
-    <mergeCell ref="AM13:AM14"/>
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="E13:L13"/>
-    <mergeCell ref="M13:T13"/>
-    <mergeCell ref="U13:AB13"/>
-    <mergeCell ref="AC13:AJ13"/>
-    <mergeCell ref="AC15:AJ15"/>
-    <mergeCell ref="I16:L16"/>
-    <mergeCell ref="Q16:T16"/>
-    <mergeCell ref="M17:P17"/>
-    <mergeCell ref="Q15:T15"/>
-    <mergeCell ref="I17:L17"/>
-    <mergeCell ref="I15:J15"/>
-    <mergeCell ref="K15:L15"/>
-    <mergeCell ref="M15:P15"/>
     <mergeCell ref="Q19:T19"/>
     <mergeCell ref="U19:AA19"/>
     <mergeCell ref="N19:P19"/>
@@ -8737,6 +8869,30 @@
     <mergeCell ref="Q17:T17"/>
     <mergeCell ref="U17:AF17"/>
     <mergeCell ref="AG17:AJ17"/>
+    <mergeCell ref="AC15:AJ15"/>
+    <mergeCell ref="I16:L16"/>
+    <mergeCell ref="Q16:T16"/>
+    <mergeCell ref="M17:P17"/>
+    <mergeCell ref="Q15:T15"/>
+    <mergeCell ref="I17:L17"/>
+    <mergeCell ref="I15:J15"/>
+    <mergeCell ref="K15:L15"/>
+    <mergeCell ref="M15:P15"/>
+    <mergeCell ref="AK13:AK14"/>
+    <mergeCell ref="AL13:AL14"/>
+    <mergeCell ref="AM13:AM14"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="E13:L13"/>
+    <mergeCell ref="M13:T13"/>
+    <mergeCell ref="U13:AB13"/>
+    <mergeCell ref="AC13:AJ13"/>
+    <mergeCell ref="C15:C19"/>
+    <mergeCell ref="D15:D19"/>
+    <mergeCell ref="E15:H19"/>
+    <mergeCell ref="I19:J19"/>
+    <mergeCell ref="K19:L19"/>
+    <mergeCell ref="I18:J18"/>
+    <mergeCell ref="K18:L18"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -8748,7 +8904,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3BAD3137-82BD-4015-B837-4D20CB3243AA}">
   <dimension ref="C13:AM19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView zoomScale="72" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="AA23" sqref="AA23"/>
     </sheetView>
   </sheetViews>
@@ -8768,51 +8924,51 @@
       <c r="D13" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="E13" s="35" t="s">
+      <c r="E13" s="46" t="s">
         <v>79</v>
       </c>
-      <c r="F13" s="36"/>
-      <c r="G13" s="36"/>
-      <c r="H13" s="36"/>
-      <c r="I13" s="36"/>
-      <c r="J13" s="36"/>
-      <c r="K13" s="36"/>
-      <c r="L13" s="37"/>
-      <c r="M13" s="35" t="s">
+      <c r="F13" s="47"/>
+      <c r="G13" s="47"/>
+      <c r="H13" s="47"/>
+      <c r="I13" s="47"/>
+      <c r="J13" s="47"/>
+      <c r="K13" s="47"/>
+      <c r="L13" s="48"/>
+      <c r="M13" s="46" t="s">
         <v>80</v>
       </c>
-      <c r="N13" s="36" t="s">
+      <c r="N13" s="47" t="s">
         <v>81</v>
       </c>
-      <c r="O13" s="36" t="s">
+      <c r="O13" s="47" t="s">
         <v>82</v>
       </c>
-      <c r="P13" s="36"/>
-      <c r="Q13" s="36"/>
-      <c r="R13" s="36"/>
-      <c r="S13" s="36"/>
-      <c r="T13" s="37"/>
-      <c r="U13" s="35" t="s">
+      <c r="P13" s="47"/>
+      <c r="Q13" s="47"/>
+      <c r="R13" s="47"/>
+      <c r="S13" s="47"/>
+      <c r="T13" s="48"/>
+      <c r="U13" s="46" t="s">
         <v>87</v>
       </c>
-      <c r="V13" s="36"/>
-      <c r="W13" s="36"/>
-      <c r="X13" s="36"/>
-      <c r="Y13" s="36"/>
-      <c r="Z13" s="36"/>
-      <c r="AA13" s="36"/>
-      <c r="AB13" s="37"/>
-      <c r="AC13" s="35" t="s">
+      <c r="V13" s="47"/>
+      <c r="W13" s="47"/>
+      <c r="X13" s="47"/>
+      <c r="Y13" s="47"/>
+      <c r="Z13" s="47"/>
+      <c r="AA13" s="47"/>
+      <c r="AB13" s="48"/>
+      <c r="AC13" s="46" t="s">
         <v>88</v>
       </c>
-      <c r="AD13" s="36"/>
-      <c r="AE13" s="36"/>
-      <c r="AF13" s="36"/>
-      <c r="AG13" s="36"/>
-      <c r="AH13" s="36"/>
-      <c r="AI13" s="36"/>
-      <c r="AJ13" s="37"/>
-      <c r="AK13" s="45" t="s">
+      <c r="AD13" s="47"/>
+      <c r="AE13" s="47"/>
+      <c r="AF13" s="47"/>
+      <c r="AG13" s="47"/>
+      <c r="AH13" s="47"/>
+      <c r="AI13" s="47"/>
+      <c r="AJ13" s="48"/>
+      <c r="AK13" s="59" t="s">
         <v>63</v>
       </c>
       <c r="AL13" s="40" t="s">
@@ -8823,10 +8979,10 @@
       </c>
     </row>
     <row r="14" spans="3:39" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C14" s="38" t="s">
+      <c r="C14" s="41" t="s">
         <v>111</v>
       </c>
-      <c r="D14" s="38"/>
+      <c r="D14" s="41"/>
       <c r="E14" s="25" t="s">
         <v>93</v>
       </c>
@@ -8923,114 +9079,114 @@
       <c r="AJ14" s="25" t="s">
         <v>90</v>
       </c>
-      <c r="AK14" s="46"/>
+      <c r="AK14" s="60"/>
       <c r="AL14" s="40"/>
       <c r="AM14" s="40"/>
     </row>
     <row r="15" spans="3:39" ht="95.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C15" s="39" t="s">
+      <c r="C15" s="49" t="s">
         <v>76</v>
       </c>
-      <c r="D15" s="39" t="s">
+      <c r="D15" s="49" t="s">
         <v>78</v>
       </c>
-      <c r="E15" s="47" t="s">
+      <c r="E15" s="50" t="s">
         <v>24</v>
       </c>
-      <c r="F15" s="48"/>
-      <c r="G15" s="48"/>
-      <c r="H15" s="48"/>
-      <c r="I15" s="48"/>
-      <c r="J15" s="48"/>
-      <c r="K15" s="48"/>
-      <c r="L15" s="49"/>
-      <c r="M15" s="31" t="s">
+      <c r="F15" s="51"/>
+      <c r="G15" s="51"/>
+      <c r="H15" s="51"/>
+      <c r="I15" s="51"/>
+      <c r="J15" s="51"/>
+      <c r="K15" s="51"/>
+      <c r="L15" s="52"/>
+      <c r="M15" s="36" t="s">
         <v>16</v>
       </c>
-      <c r="N15" s="32"/>
-      <c r="O15" s="32"/>
-      <c r="P15" s="33"/>
-      <c r="Q15" s="27" t="s">
+      <c r="N15" s="37"/>
+      <c r="O15" s="37"/>
+      <c r="P15" s="38"/>
+      <c r="Q15" s="32" t="s">
         <v>50</v>
       </c>
-      <c r="R15" s="27"/>
-      <c r="S15" s="27"/>
-      <c r="T15" s="27"/>
-      <c r="U15" s="28" t="s">
+      <c r="R15" s="32"/>
+      <c r="S15" s="32"/>
+      <c r="T15" s="32"/>
+      <c r="U15" s="33" t="s">
         <v>16</v>
       </c>
-      <c r="V15" s="29"/>
-      <c r="W15" s="29"/>
-      <c r="X15" s="29"/>
-      <c r="Y15" s="29"/>
-      <c r="Z15" s="30"/>
+      <c r="V15" s="34"/>
+      <c r="W15" s="34"/>
+      <c r="X15" s="34"/>
+      <c r="Y15" s="34"/>
+      <c r="Z15" s="35"/>
       <c r="AA15" s="23" t="s">
         <v>19</v>
       </c>
       <c r="AB15" s="23" t="s">
         <v>20</v>
       </c>
-      <c r="AC15" s="28" t="s">
+      <c r="AC15" s="33" t="s">
         <v>16</v>
       </c>
-      <c r="AD15" s="29"/>
-      <c r="AE15" s="29"/>
-      <c r="AF15" s="29"/>
-      <c r="AG15" s="29"/>
-      <c r="AH15" s="29"/>
-      <c r="AI15" s="29"/>
-      <c r="AJ15" s="30"/>
+      <c r="AD15" s="34"/>
+      <c r="AE15" s="34"/>
+      <c r="AF15" s="34"/>
+      <c r="AG15" s="34"/>
+      <c r="AH15" s="34"/>
+      <c r="AI15" s="34"/>
+      <c r="AJ15" s="35"/>
       <c r="AK15" s="17" t="s">
         <v>147</v>
       </c>
       <c r="AL15" s="16" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="AM15" s="16" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
     </row>
     <row r="16" spans="3:39" ht="95.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C16" s="39"/>
-      <c r="D16" s="39"/>
-      <c r="E16" s="50"/>
-      <c r="F16" s="51"/>
-      <c r="G16" s="51"/>
-      <c r="H16" s="51"/>
-      <c r="I16" s="51"/>
-      <c r="J16" s="51"/>
-      <c r="K16" s="51"/>
-      <c r="L16" s="52"/>
-      <c r="M16" s="31" t="s">
+      <c r="C16" s="49"/>
+      <c r="D16" s="49"/>
+      <c r="E16" s="53"/>
+      <c r="F16" s="54"/>
+      <c r="G16" s="54"/>
+      <c r="H16" s="54"/>
+      <c r="I16" s="54"/>
+      <c r="J16" s="54"/>
+      <c r="K16" s="54"/>
+      <c r="L16" s="55"/>
+      <c r="M16" s="36" t="s">
         <v>16</v>
       </c>
-      <c r="N16" s="32"/>
-      <c r="O16" s="32"/>
-      <c r="P16" s="33"/>
-      <c r="Q16" s="27" t="s">
+      <c r="N16" s="37"/>
+      <c r="O16" s="37"/>
+      <c r="P16" s="38"/>
+      <c r="Q16" s="32" t="s">
         <v>52</v>
       </c>
-      <c r="R16" s="27"/>
-      <c r="S16" s="27"/>
-      <c r="T16" s="27"/>
-      <c r="U16" s="28" t="s">
+      <c r="R16" s="32"/>
+      <c r="S16" s="32"/>
+      <c r="T16" s="32"/>
+      <c r="U16" s="33" t="s">
         <v>16</v>
       </c>
-      <c r="V16" s="29"/>
-      <c r="W16" s="29"/>
-      <c r="X16" s="29"/>
-      <c r="Y16" s="29"/>
-      <c r="Z16" s="29"/>
-      <c r="AA16" s="29"/>
-      <c r="AB16" s="29"/>
-      <c r="AC16" s="29"/>
-      <c r="AD16" s="29"/>
-      <c r="AE16" s="29"/>
-      <c r="AF16" s="29"/>
-      <c r="AG16" s="29"/>
-      <c r="AH16" s="29"/>
-      <c r="AI16" s="29"/>
-      <c r="AJ16" s="30"/>
+      <c r="V16" s="34"/>
+      <c r="W16" s="34"/>
+      <c r="X16" s="34"/>
+      <c r="Y16" s="34"/>
+      <c r="Z16" s="34"/>
+      <c r="AA16" s="34"/>
+      <c r="AB16" s="34"/>
+      <c r="AC16" s="34"/>
+      <c r="AD16" s="34"/>
+      <c r="AE16" s="34"/>
+      <c r="AF16" s="34"/>
+      <c r="AG16" s="34"/>
+      <c r="AH16" s="34"/>
+      <c r="AI16" s="34"/>
+      <c r="AJ16" s="35"/>
       <c r="AK16" s="17" t="s">
         <v>67</v>
       </c>
@@ -9042,48 +9198,48 @@
       </c>
     </row>
     <row r="17" spans="3:39" ht="95.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C17" s="39"/>
-      <c r="D17" s="39"/>
-      <c r="E17" s="50"/>
-      <c r="F17" s="51"/>
-      <c r="G17" s="51"/>
-      <c r="H17" s="51"/>
-      <c r="I17" s="51"/>
-      <c r="J17" s="51"/>
-      <c r="K17" s="51"/>
-      <c r="L17" s="52"/>
-      <c r="M17" s="31" t="s">
+      <c r="C17" s="49"/>
+      <c r="D17" s="49"/>
+      <c r="E17" s="53"/>
+      <c r="F17" s="54"/>
+      <c r="G17" s="54"/>
+      <c r="H17" s="54"/>
+      <c r="I17" s="54"/>
+      <c r="J17" s="54"/>
+      <c r="K17" s="54"/>
+      <c r="L17" s="55"/>
+      <c r="M17" s="36" t="s">
         <v>16</v>
       </c>
-      <c r="N17" s="32"/>
-      <c r="O17" s="32"/>
-      <c r="P17" s="33"/>
-      <c r="Q17" s="27" t="s">
+      <c r="N17" s="37"/>
+      <c r="O17" s="37"/>
+      <c r="P17" s="38"/>
+      <c r="Q17" s="32" t="s">
         <v>53</v>
       </c>
-      <c r="R17" s="27"/>
-      <c r="S17" s="27"/>
-      <c r="T17" s="27"/>
-      <c r="U17" s="28" t="s">
+      <c r="R17" s="32"/>
+      <c r="S17" s="32"/>
+      <c r="T17" s="32"/>
+      <c r="U17" s="33" t="s">
         <v>16</v>
       </c>
-      <c r="V17" s="29"/>
-      <c r="W17" s="29"/>
-      <c r="X17" s="29"/>
-      <c r="Y17" s="29"/>
-      <c r="Z17" s="29"/>
-      <c r="AA17" s="29"/>
-      <c r="AB17" s="30"/>
-      <c r="AC17" s="27" t="s">
+      <c r="V17" s="34"/>
+      <c r="W17" s="34"/>
+      <c r="X17" s="34"/>
+      <c r="Y17" s="34"/>
+      <c r="Z17" s="34"/>
+      <c r="AA17" s="34"/>
+      <c r="AB17" s="35"/>
+      <c r="AC17" s="32" t="s">
         <v>24</v>
       </c>
-      <c r="AD17" s="27"/>
-      <c r="AE17" s="27"/>
-      <c r="AF17" s="27"/>
-      <c r="AG17" s="27"/>
-      <c r="AH17" s="27"/>
-      <c r="AI17" s="27"/>
-      <c r="AJ17" s="27"/>
+      <c r="AD17" s="32"/>
+      <c r="AE17" s="32"/>
+      <c r="AF17" s="32"/>
+      <c r="AG17" s="32"/>
+      <c r="AH17" s="32"/>
+      <c r="AI17" s="32"/>
+      <c r="AJ17" s="32"/>
       <c r="AK17" s="17" t="s">
         <v>68</v>
       </c>
@@ -9091,146 +9247,147 @@
         <v>144</v>
       </c>
       <c r="AM17" s="16" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
     </row>
     <row r="18" spans="3:39" ht="95.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C18" s="39"/>
-      <c r="D18" s="39"/>
-      <c r="E18" s="50"/>
-      <c r="F18" s="51"/>
-      <c r="G18" s="51"/>
-      <c r="H18" s="51"/>
-      <c r="I18" s="51"/>
-      <c r="J18" s="51"/>
-      <c r="K18" s="51"/>
-      <c r="L18" s="52"/>
+      <c r="C18" s="49"/>
+      <c r="D18" s="49"/>
+      <c r="E18" s="53"/>
+      <c r="F18" s="54"/>
+      <c r="G18" s="54"/>
+      <c r="H18" s="54"/>
+      <c r="I18" s="54"/>
+      <c r="J18" s="54"/>
+      <c r="K18" s="54"/>
+      <c r="L18" s="55"/>
       <c r="M18" s="23" t="s">
-        <v>166</v>
-      </c>
-      <c r="N18" s="31" t="s">
+        <v>164</v>
+      </c>
+      <c r="N18" s="36" t="s">
         <v>143</v>
       </c>
-      <c r="O18" s="32"/>
-      <c r="P18" s="33"/>
-      <c r="Q18" s="27" t="s">
+      <c r="O18" s="37"/>
+      <c r="P18" s="38"/>
+      <c r="Q18" s="32" t="s">
         <v>129</v>
       </c>
-      <c r="R18" s="27"/>
-      <c r="S18" s="27"/>
-      <c r="T18" s="27"/>
-      <c r="U18" s="28" t="s">
+      <c r="R18" s="32"/>
+      <c r="S18" s="32"/>
+      <c r="T18" s="32"/>
+      <c r="U18" s="33" t="s">
         <v>16</v>
       </c>
-      <c r="V18" s="29"/>
-      <c r="W18" s="29"/>
-      <c r="X18" s="29"/>
-      <c r="Y18" s="29"/>
-      <c r="Z18" s="30"/>
-      <c r="AA18" s="27" t="s">
+      <c r="V18" s="34"/>
+      <c r="W18" s="34"/>
+      <c r="X18" s="34"/>
+      <c r="Y18" s="34"/>
+      <c r="Z18" s="35"/>
+      <c r="AA18" s="32" t="s">
         <v>146</v>
       </c>
-      <c r="AB18" s="27"/>
-      <c r="AC18" s="27" t="s">
+      <c r="AB18" s="32"/>
+      <c r="AC18" s="32" t="s">
         <v>16</v>
       </c>
-      <c r="AD18" s="27"/>
-      <c r="AE18" s="28" t="s">
+      <c r="AD18" s="32"/>
+      <c r="AE18" s="33" t="s">
         <v>58</v>
       </c>
-      <c r="AF18" s="29"/>
-      <c r="AG18" s="29"/>
-      <c r="AH18" s="29"/>
-      <c r="AI18" s="29"/>
-      <c r="AJ18" s="30"/>
+      <c r="AF18" s="34"/>
+      <c r="AG18" s="34"/>
+      <c r="AH18" s="34"/>
+      <c r="AI18" s="34"/>
+      <c r="AJ18" s="35"/>
       <c r="AK18" s="17" t="s">
         <v>145</v>
       </c>
       <c r="AL18" s="16" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="AM18" s="16" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
     </row>
     <row r="19" spans="3:39" ht="95.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C19" s="39"/>
-      <c r="D19" s="39"/>
-      <c r="E19" s="53"/>
-      <c r="F19" s="54"/>
-      <c r="G19" s="54"/>
-      <c r="H19" s="54"/>
-      <c r="I19" s="54"/>
-      <c r="J19" s="54"/>
-      <c r="K19" s="54"/>
-      <c r="L19" s="55"/>
-      <c r="M19" s="34" t="s">
+      <c r="C19" s="49"/>
+      <c r="D19" s="49"/>
+      <c r="E19" s="56"/>
+      <c r="F19" s="57"/>
+      <c r="G19" s="57"/>
+      <c r="H19" s="57"/>
+      <c r="I19" s="57"/>
+      <c r="J19" s="57"/>
+      <c r="K19" s="57"/>
+      <c r="L19" s="58"/>
+      <c r="M19" s="31" t="s">
         <v>16</v>
       </c>
-      <c r="N19" s="34"/>
-      <c r="O19" s="32" t="s">
+      <c r="N19" s="31"/>
+      <c r="O19" s="37" t="s">
+        <v>163</v>
+      </c>
+      <c r="P19" s="38"/>
+      <c r="Q19" s="32" t="s">
+        <v>157</v>
+      </c>
+      <c r="R19" s="32"/>
+      <c r="S19" s="32"/>
+      <c r="T19" s="32"/>
+      <c r="U19" s="33" t="s">
+        <v>16</v>
+      </c>
+      <c r="V19" s="34"/>
+      <c r="W19" s="34"/>
+      <c r="X19" s="34"/>
+      <c r="Y19" s="34"/>
+      <c r="Z19" s="34"/>
+      <c r="AA19" s="35"/>
+      <c r="AB19" s="24" t="s">
+        <v>158</v>
+      </c>
+      <c r="AC19" s="32" t="s">
+        <v>16</v>
+      </c>
+      <c r="AD19" s="32"/>
+      <c r="AE19" s="32"/>
+      <c r="AF19" s="32"/>
+      <c r="AG19" s="32"/>
+      <c r="AH19" s="32"/>
+      <c r="AI19" s="32"/>
+      <c r="AJ19" s="26" t="s">
+        <v>159</v>
+      </c>
+      <c r="AK19" s="17" t="s">
+        <v>160</v>
+      </c>
+      <c r="AL19" s="16" t="s">
+        <v>161</v>
+      </c>
+      <c r="AM19" s="16" t="s">
         <v>165</v>
-      </c>
-      <c r="P19" s="33"/>
-      <c r="Q19" s="27" t="s">
-        <v>159</v>
-      </c>
-      <c r="R19" s="27"/>
-      <c r="S19" s="27"/>
-      <c r="T19" s="27"/>
-      <c r="U19" s="28" t="s">
-        <v>16</v>
-      </c>
-      <c r="V19" s="29"/>
-      <c r="W19" s="29"/>
-      <c r="X19" s="29"/>
-      <c r="Y19" s="29"/>
-      <c r="Z19" s="29"/>
-      <c r="AA19" s="30"/>
-      <c r="AB19" s="24" t="s">
-        <v>160</v>
-      </c>
-      <c r="AC19" s="27" t="s">
-        <v>16</v>
-      </c>
-      <c r="AD19" s="27"/>
-      <c r="AE19" s="27"/>
-      <c r="AF19" s="27"/>
-      <c r="AG19" s="27"/>
-      <c r="AH19" s="27"/>
-      <c r="AI19" s="27"/>
-      <c r="AJ19" s="26" t="s">
-        <v>161</v>
-      </c>
-      <c r="AK19" s="17" t="s">
-        <v>162</v>
-      </c>
-      <c r="AL19" s="16" t="s">
-        <v>163</v>
-      </c>
-      <c r="AM19" s="16" t="s">
-        <v>167</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="33">
+    <mergeCell ref="U17:AB17"/>
+    <mergeCell ref="O19:P19"/>
+    <mergeCell ref="AC15:AJ15"/>
+    <mergeCell ref="M16:P16"/>
+    <mergeCell ref="Q16:T16"/>
+    <mergeCell ref="U19:AA19"/>
+    <mergeCell ref="AC19:AI19"/>
+    <mergeCell ref="AC18:AD18"/>
+    <mergeCell ref="Q18:T18"/>
+    <mergeCell ref="M19:N19"/>
+    <mergeCell ref="Q19:T19"/>
     <mergeCell ref="U18:Z18"/>
     <mergeCell ref="AA18:AB18"/>
     <mergeCell ref="U16:AJ16"/>
     <mergeCell ref="M17:P17"/>
     <mergeCell ref="Q17:T17"/>
-    <mergeCell ref="E15:L19"/>
-    <mergeCell ref="N18:P18"/>
-    <mergeCell ref="O19:P19"/>
-    <mergeCell ref="Q18:T18"/>
-    <mergeCell ref="M19:N19"/>
     <mergeCell ref="AC17:AJ17"/>
-    <mergeCell ref="U17:AB17"/>
     <mergeCell ref="AE18:AJ18"/>
-    <mergeCell ref="Q19:T19"/>
-    <mergeCell ref="U19:AA19"/>
-    <mergeCell ref="AC19:AI19"/>
-    <mergeCell ref="AC18:AD18"/>
     <mergeCell ref="AM13:AM14"/>
     <mergeCell ref="C14:D14"/>
     <mergeCell ref="C15:C19"/>
@@ -9244,9 +9401,8 @@
     <mergeCell ref="AC13:AJ13"/>
     <mergeCell ref="AK13:AK14"/>
     <mergeCell ref="AL13:AL14"/>
-    <mergeCell ref="AC15:AJ15"/>
-    <mergeCell ref="M16:P16"/>
-    <mergeCell ref="Q16:T16"/>
+    <mergeCell ref="E15:L19"/>
+    <mergeCell ref="N18:P18"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/eMIMO阵面数据帧格式.xlsx
+++ b/eMIMO阵面数据帧格式.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:dbsheet="http://web.wps.cn/et/2021/dbsheet">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24334"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\WPS_Sync\202409_eMIMO\Software\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80FD3027-C3A7-4072-85AF-EEF83D54F846}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowHeight="28455" activeTab="4"/>
+    <workbookView xWindow="3510" yWindow="3510" windowWidth="43200" windowHeight="23445" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sub Array SPI 32bits Data Frame" sheetId="1" r:id="rId1"/>
@@ -22,16 +28,17 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
+    </ext>
+    <ext xmlns:xlwcv="http://schemas.microsoft.com/office/spreadsheetml/2024/workbookCompatibilityVersion" uri="{D14903EA-33C4-47F7-8F05-3474C54BE107}">
+      <xlwcv:version setVersion="1"/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="478" uniqueCount="176">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="487" uniqueCount="183">
   <si>
     <t>A15</t>
   </si>
@@ -563,23 +570,46 @@
 on=1表示高电平，on=0表示低电平。</t>
   </si>
   <si>
-    <t>发送trig脉冲</t>
-  </si>
-  <si>
     <t>发送一段时间的正脉冲。</t>
+  </si>
+  <si>
+    <t>0x3</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>sysref_mode</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>改变SYSREF行为</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>\</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>SYSREF_PLSR_CNT</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>当sysref_mode=0时，控制LMK04832发送连续的SYSREF波形（这也是上电初始化之后的默认状态）；当sysref_mode=1时，改为发送SYSREF脉冲，脉冲个数由SYSREF_PLSR_CNT决定。从连续波切换到脉冲模式时，需要STM32方面短暂延时，以便于RFSoC PL端的sysref_detector回到idle状态。</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>SYSREF_PLSR_CNT即LMK04832的Reg318(0x13E)的值，它为00,01,10,11分别表示发送1,2,4,8个脉冲。这个字段只有在sysref_mode=1时才有效。</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>发送trig正脉冲</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
-  <numFmts count="4">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="21">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -603,143 +633,21 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
+      <sz val="9"/>
       <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
+      <family val="3"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="40">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -760,13 +668,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.79995117038483843"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.79995117038483843"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -778,13 +686,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.79995117038483843"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -796,186 +704,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="6" tint="0.79995117038483843"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="27">
+  <borders count="20">
     <border>
       <left/>
       <right/>
@@ -1208,238 +942,20 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="20" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="22" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="23" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="24" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="25" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="26" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="52">
+  <cellXfs count="59">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1447,73 +963,19 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="18" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="12" xfId="18" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="13" xfId="18" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="12" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1522,32 +984,11 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1558,16 +999,7 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="35" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="3" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1588,83 +1020,147 @@
     <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="34" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" xfId="2" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="34" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" xfId="2" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="13" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="4">
+    <cellStyle name="20% - 着色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="40% - 着色 3" xfId="3" builtinId="39"/>
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
-    <cellStyle name="货币" xfId="2" builtinId="4"/>
-    <cellStyle name="百分比" xfId="3" builtinId="5"/>
-    <cellStyle name="千位分隔[0]" xfId="4" builtinId="6"/>
-    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
-    <cellStyle name="超链接" xfId="6" builtinId="8"/>
-    <cellStyle name="已访问的超链接" xfId="7" builtinId="9"/>
-    <cellStyle name="注释" xfId="8" builtinId="10"/>
-    <cellStyle name="警告文本" xfId="9" builtinId="11"/>
-    <cellStyle name="标题" xfId="10" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="11" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="12" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="13" builtinId="17"/>
-    <cellStyle name="标题 3" xfId="14" builtinId="18"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="输入" xfId="16" builtinId="20"/>
-    <cellStyle name="输出" xfId="17" builtinId="21"/>
-    <cellStyle name="计算" xfId="18" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="19" builtinId="23"/>
-    <cellStyle name="链接单元格" xfId="20" builtinId="24"/>
-    <cellStyle name="汇总" xfId="21" builtinId="25"/>
-    <cellStyle name="好" xfId="22" builtinId="26"/>
-    <cellStyle name="差" xfId="23" builtinId="27"/>
-    <cellStyle name="适中" xfId="24" builtinId="28"/>
-    <cellStyle name="强调文字颜色 1" xfId="25" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="26" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="27" builtinId="31"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="28" builtinId="32"/>
-    <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="30" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="31" builtinId="35"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="32" builtinId="36"/>
-    <cellStyle name="强调文字颜色 3" xfId="33" builtinId="37"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="34" builtinId="38"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="35" builtinId="39"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
-    <cellStyle name="强调文字颜色 4" xfId="37" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="38" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="39" builtinId="43"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="40" builtinId="44"/>
-    <cellStyle name="强调文字颜色 5" xfId="41" builtinId="45"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="42" builtinId="46"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="43" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="44" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="45" builtinId="49"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="46" builtinId="50"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
+    <cellStyle name="计算" xfId="1" builtinId="22"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
-      <color rgb="00CCFFFF"/>
-      <color rgb="00FFCCFF"/>
-      <color rgb="00FFCCCC"/>
-      <color rgb="00FF99FF"/>
+      <color rgb="FFCCFFFF"/>
+      <color rgb="FFFFCCFF"/>
+      <color rgb="FFFFCCCC"/>
+      <color rgb="FFFF99FF"/>
     </mruColors>
   </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>6</xdr:col>
@@ -1680,20 +1176,32 @@
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="102" name="组合 101"/>
+        <xdr:cNvPr id="102" name="组合 101">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000066000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGrpSpPr/>
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="4802505" y="13489305"/>
-          <a:ext cx="8242935" cy="7764145"/>
+          <a:off x="4820074" y="13485867"/>
+          <a:ext cx="8275578" cy="7837003"/>
           <a:chOff x="4804172" y="13406437"/>
           <a:chExt cx="8209359" cy="7661672"/>
         </a:xfrm>
       </xdr:grpSpPr>
       <xdr:grpSp>
         <xdr:nvGrpSpPr>
-          <xdr:cNvPr id="5" name="组合 4"/>
+          <xdr:cNvPr id="5" name="组合 4">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000005000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvGrpSpPr/>
         </xdr:nvGrpSpPr>
         <xdr:grpSpPr>
@@ -1704,9 +1212,15 @@
             <a:chExt cx="2549095" cy="1547386"/>
           </a:xfrm>
         </xdr:grpSpPr>
-        <xdr:sp>
+        <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="2" name="矩形 1"/>
+            <xdr:cNvPr id="2" name="矩形 1">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
           <xdr:spPr>
@@ -1745,9 +1259,15 @@
             </a:p>
           </xdr:txBody>
         </xdr:sp>
-        <xdr:sp>
+        <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="3" name="矩形 2"/>
+            <xdr:cNvPr id="3" name="矩形 2">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
           <xdr:spPr>
@@ -1786,9 +1306,15 @@
             </a:p>
           </xdr:txBody>
         </xdr:sp>
-        <xdr:sp>
+        <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="4" name="矩形 3"/>
+            <xdr:cNvPr id="4" name="矩形 3">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000004000000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
           <xdr:spPr>
@@ -1828,9 +1354,15 @@
           </xdr:txBody>
         </xdr:sp>
       </xdr:grpSp>
-      <xdr:cxnSp>
+      <xdr:cxnSp macro="">
         <xdr:nvCxnSpPr>
-          <xdr:cNvPr id="19" name="直接箭头连接符 18"/>
+          <xdr:cNvPr id="19" name="直接箭头连接符 18">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000013000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvCxnSpPr>
             <a:stCxn id="3" idx="3"/>
             <a:endCxn id="26" idx="1"/>
@@ -1863,9 +1395,15 @@
           </a:fontRef>
         </xdr:style>
       </xdr:cxnSp>
-      <xdr:cxnSp>
+      <xdr:cxnSp macro="">
         <xdr:nvCxnSpPr>
-          <xdr:cNvPr id="23" name="直接箭头连接符 22"/>
+          <xdr:cNvPr id="23" name="直接箭头连接符 22">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000017000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvCxnSpPr>
             <a:stCxn id="4" idx="3"/>
             <a:endCxn id="27" idx="1"/>
@@ -1900,7 +1438,13 @@
       </xdr:cxnSp>
       <xdr:grpSp>
         <xdr:nvGrpSpPr>
-          <xdr:cNvPr id="41" name="组合 40"/>
+          <xdr:cNvPr id="41" name="组合 40">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000029000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvGrpSpPr/>
         </xdr:nvGrpSpPr>
         <xdr:grpSpPr>
@@ -1911,9 +1455,15 @@
             <a:chExt cx="3451059" cy="1099885"/>
           </a:xfrm>
         </xdr:grpSpPr>
-        <xdr:sp>
+        <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="26" name="矩形 25"/>
+            <xdr:cNvPr id="26" name="矩形 25">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001A000000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
           <xdr:spPr>
@@ -1956,9 +1506,15 @@
             </a:p>
           </xdr:txBody>
         </xdr:sp>
-        <xdr:sp>
+        <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="27" name="矩形 26"/>
+            <xdr:cNvPr id="27" name="矩形 26">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001B000000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
           <xdr:spPr>
@@ -2001,9 +1557,15 @@
             </a:p>
           </xdr:txBody>
         </xdr:sp>
-        <xdr:cxnSp>
+        <xdr:cxnSp macro="">
           <xdr:nvCxnSpPr>
-            <xdr:cNvPr id="28" name="直接箭头连接符 27"/>
+            <xdr:cNvPr id="28" name="直接箭头连接符 27">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001C000000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
             <xdr:cNvCxnSpPr>
               <a:stCxn id="26" idx="3"/>
               <a:endCxn id="32" idx="1"/>
@@ -2036,9 +1598,15 @@
             </a:fontRef>
           </xdr:style>
         </xdr:cxnSp>
-        <xdr:sp>
+        <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="32" name="矩形 31"/>
+            <xdr:cNvPr id="32" name="矩形 31">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000020000000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
           <xdr:spPr>
@@ -2077,9 +1645,15 @@
             </a:p>
           </xdr:txBody>
         </xdr:sp>
-        <xdr:cxnSp>
+        <xdr:cxnSp macro="">
           <xdr:nvCxnSpPr>
-            <xdr:cNvPr id="35" name="直接箭头连接符 34"/>
+            <xdr:cNvPr id="35" name="直接箭头连接符 34">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000023000000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
             <xdr:cNvCxnSpPr>
               <a:stCxn id="27" idx="3"/>
               <a:endCxn id="36" idx="1"/>
@@ -2112,9 +1686,15 @@
             </a:fontRef>
           </xdr:style>
         </xdr:cxnSp>
-        <xdr:sp>
+        <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="36" name="矩形 35"/>
+            <xdr:cNvPr id="36" name="矩形 35">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000024000000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
           <xdr:spPr>
@@ -2156,7 +1736,13 @@
       </xdr:grpSp>
       <xdr:grpSp>
         <xdr:nvGrpSpPr>
-          <xdr:cNvPr id="62" name="组合 61"/>
+          <xdr:cNvPr id="62" name="组合 61">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00003E000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvGrpSpPr/>
         </xdr:nvGrpSpPr>
         <xdr:grpSpPr>
@@ -2167,9 +1753,15 @@
             <a:chExt cx="2549095" cy="1547386"/>
           </a:xfrm>
         </xdr:grpSpPr>
-        <xdr:sp>
+        <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="63" name="矩形 62"/>
+            <xdr:cNvPr id="63" name="矩形 62">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00003F000000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
           <xdr:spPr>
@@ -2208,9 +1800,15 @@
             </a:p>
           </xdr:txBody>
         </xdr:sp>
-        <xdr:sp>
+        <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="64" name="矩形 63"/>
+            <xdr:cNvPr id="64" name="矩形 63">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000040000000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
           <xdr:spPr>
@@ -2249,9 +1847,15 @@
             </a:p>
           </xdr:txBody>
         </xdr:sp>
-        <xdr:sp>
+        <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="65" name="矩形 64"/>
+            <xdr:cNvPr id="65" name="矩形 64">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000041000000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
           <xdr:spPr>
@@ -2291,9 +1895,15 @@
           </xdr:txBody>
         </xdr:sp>
       </xdr:grpSp>
-      <xdr:cxnSp>
+      <xdr:cxnSp macro="">
         <xdr:nvCxnSpPr>
-          <xdr:cNvPr id="66" name="直接箭头连接符 65"/>
+          <xdr:cNvPr id="66" name="直接箭头连接符 65">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000042000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvCxnSpPr>
             <a:stCxn id="64" idx="3"/>
             <a:endCxn id="69" idx="1"/>
@@ -2326,9 +1936,15 @@
           </a:fontRef>
         </xdr:style>
       </xdr:cxnSp>
-      <xdr:cxnSp>
+      <xdr:cxnSp macro="">
         <xdr:nvCxnSpPr>
-          <xdr:cNvPr id="67" name="直接箭头连接符 66"/>
+          <xdr:cNvPr id="67" name="直接箭头连接符 66">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000043000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvCxnSpPr>
             <a:stCxn id="65" idx="3"/>
             <a:endCxn id="70" idx="1"/>
@@ -2363,7 +1979,13 @@
       </xdr:cxnSp>
       <xdr:grpSp>
         <xdr:nvGrpSpPr>
-          <xdr:cNvPr id="68" name="组合 67"/>
+          <xdr:cNvPr id="68" name="组合 67">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000044000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvGrpSpPr/>
         </xdr:nvGrpSpPr>
         <xdr:grpSpPr>
@@ -2374,9 +1996,15 @@
             <a:chExt cx="3451059" cy="1099885"/>
           </a:xfrm>
         </xdr:grpSpPr>
-        <xdr:sp>
+        <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="69" name="矩形 68"/>
+            <xdr:cNvPr id="69" name="矩形 68">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000045000000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
           <xdr:spPr>
@@ -2419,9 +2047,15 @@
             </a:p>
           </xdr:txBody>
         </xdr:sp>
-        <xdr:sp>
+        <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="70" name="矩形 69"/>
+            <xdr:cNvPr id="70" name="矩形 69">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000046000000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
           <xdr:spPr>
@@ -2464,9 +2098,15 @@
             </a:p>
           </xdr:txBody>
         </xdr:sp>
-        <xdr:cxnSp>
+        <xdr:cxnSp macro="">
           <xdr:nvCxnSpPr>
-            <xdr:cNvPr id="71" name="直接箭头连接符 70"/>
+            <xdr:cNvPr id="71" name="直接箭头连接符 70">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000047000000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
             <xdr:cNvCxnSpPr>
               <a:stCxn id="69" idx="3"/>
               <a:endCxn id="72" idx="1"/>
@@ -2499,9 +2139,15 @@
             </a:fontRef>
           </xdr:style>
         </xdr:cxnSp>
-        <xdr:sp>
+        <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="72" name="矩形 71"/>
+            <xdr:cNvPr id="72" name="矩形 71">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000048000000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
           <xdr:spPr>
@@ -2540,9 +2186,15 @@
             </a:p>
           </xdr:txBody>
         </xdr:sp>
-        <xdr:cxnSp>
+        <xdr:cxnSp macro="">
           <xdr:nvCxnSpPr>
-            <xdr:cNvPr id="73" name="直接箭头连接符 72"/>
+            <xdr:cNvPr id="73" name="直接箭头连接符 72">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000049000000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
             <xdr:cNvCxnSpPr>
               <a:stCxn id="70" idx="3"/>
               <a:endCxn id="74" idx="1"/>
@@ -2575,9 +2227,15 @@
             </a:fontRef>
           </xdr:style>
         </xdr:cxnSp>
-        <xdr:sp>
+        <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="74" name="矩形 73"/>
+            <xdr:cNvPr id="74" name="矩形 73">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00004A000000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
           <xdr:spPr>
@@ -2619,7 +2277,13 @@
       </xdr:grpSp>
       <xdr:grpSp>
         <xdr:nvGrpSpPr>
-          <xdr:cNvPr id="75" name="组合 74"/>
+          <xdr:cNvPr id="75" name="组合 74">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00004B000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvGrpSpPr/>
         </xdr:nvGrpSpPr>
         <xdr:grpSpPr>
@@ -2630,9 +2294,15 @@
             <a:chExt cx="2549095" cy="1547386"/>
           </a:xfrm>
         </xdr:grpSpPr>
-        <xdr:sp>
+        <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="76" name="矩形 75"/>
+            <xdr:cNvPr id="76" name="矩形 75">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00004C000000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
           <xdr:spPr>
@@ -2671,9 +2341,15 @@
             </a:p>
           </xdr:txBody>
         </xdr:sp>
-        <xdr:sp>
+        <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="77" name="矩形 76"/>
+            <xdr:cNvPr id="77" name="矩形 76">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00004D000000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
           <xdr:spPr>
@@ -2712,9 +2388,15 @@
             </a:p>
           </xdr:txBody>
         </xdr:sp>
-        <xdr:sp>
+        <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="78" name="矩形 77"/>
+            <xdr:cNvPr id="78" name="矩形 77">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00004E000000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
           <xdr:spPr>
@@ -2754,9 +2436,15 @@
           </xdr:txBody>
         </xdr:sp>
       </xdr:grpSp>
-      <xdr:cxnSp>
+      <xdr:cxnSp macro="">
         <xdr:nvCxnSpPr>
-          <xdr:cNvPr id="79" name="直接箭头连接符 78"/>
+          <xdr:cNvPr id="79" name="直接箭头连接符 78">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00004F000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvCxnSpPr>
             <a:stCxn id="77" idx="3"/>
             <a:endCxn id="82" idx="1"/>
@@ -2789,9 +2477,15 @@
           </a:fontRef>
         </xdr:style>
       </xdr:cxnSp>
-      <xdr:cxnSp>
+      <xdr:cxnSp macro="">
         <xdr:nvCxnSpPr>
-          <xdr:cNvPr id="80" name="直接箭头连接符 79"/>
+          <xdr:cNvPr id="80" name="直接箭头连接符 79">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000050000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvCxnSpPr>
             <a:stCxn id="78" idx="3"/>
             <a:endCxn id="83" idx="1"/>
@@ -2826,7 +2520,13 @@
       </xdr:cxnSp>
       <xdr:grpSp>
         <xdr:nvGrpSpPr>
-          <xdr:cNvPr id="81" name="组合 80"/>
+          <xdr:cNvPr id="81" name="组合 80">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000051000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvGrpSpPr/>
         </xdr:nvGrpSpPr>
         <xdr:grpSpPr>
@@ -2837,9 +2537,15 @@
             <a:chExt cx="3451059" cy="1099885"/>
           </a:xfrm>
         </xdr:grpSpPr>
-        <xdr:sp>
+        <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="82" name="矩形 81"/>
+            <xdr:cNvPr id="82" name="矩形 81">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000052000000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
           <xdr:spPr>
@@ -2882,9 +2588,15 @@
             </a:p>
           </xdr:txBody>
         </xdr:sp>
-        <xdr:sp>
+        <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="83" name="矩形 82"/>
+            <xdr:cNvPr id="83" name="矩形 82">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000053000000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
           <xdr:spPr>
@@ -2927,9 +2639,15 @@
             </a:p>
           </xdr:txBody>
         </xdr:sp>
-        <xdr:cxnSp>
+        <xdr:cxnSp macro="">
           <xdr:nvCxnSpPr>
-            <xdr:cNvPr id="84" name="直接箭头连接符 83"/>
+            <xdr:cNvPr id="84" name="直接箭头连接符 83">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000054000000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
             <xdr:cNvCxnSpPr>
               <a:stCxn id="82" idx="3"/>
               <a:endCxn id="85" idx="1"/>
@@ -2962,9 +2680,15 @@
             </a:fontRef>
           </xdr:style>
         </xdr:cxnSp>
-        <xdr:sp>
+        <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="85" name="矩形 84"/>
+            <xdr:cNvPr id="85" name="矩形 84">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000055000000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
           <xdr:spPr>
@@ -3003,9 +2727,15 @@
             </a:p>
           </xdr:txBody>
         </xdr:sp>
-        <xdr:cxnSp>
+        <xdr:cxnSp macro="">
           <xdr:nvCxnSpPr>
-            <xdr:cNvPr id="86" name="直接箭头连接符 85"/>
+            <xdr:cNvPr id="86" name="直接箭头连接符 85">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000056000000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
             <xdr:cNvCxnSpPr>
               <a:stCxn id="83" idx="3"/>
               <a:endCxn id="87" idx="1"/>
@@ -3038,9 +2768,15 @@
             </a:fontRef>
           </xdr:style>
         </xdr:cxnSp>
-        <xdr:sp>
+        <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="87" name="矩形 86"/>
+            <xdr:cNvPr id="87" name="矩形 86">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000057000000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
           <xdr:spPr>
@@ -3082,7 +2818,13 @@
       </xdr:grpSp>
       <xdr:grpSp>
         <xdr:nvGrpSpPr>
-          <xdr:cNvPr id="88" name="组合 87"/>
+          <xdr:cNvPr id="88" name="组合 87">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000058000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvGrpSpPr/>
         </xdr:nvGrpSpPr>
         <xdr:grpSpPr>
@@ -3093,9 +2835,15 @@
             <a:chExt cx="2549095" cy="1547386"/>
           </a:xfrm>
         </xdr:grpSpPr>
-        <xdr:sp>
+        <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="89" name="矩形 88"/>
+            <xdr:cNvPr id="89" name="矩形 88">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000059000000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
           <xdr:spPr>
@@ -3134,9 +2882,15 @@
             </a:p>
           </xdr:txBody>
         </xdr:sp>
-        <xdr:sp>
+        <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="90" name="矩形 89"/>
+            <xdr:cNvPr id="90" name="矩形 89">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00005A000000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
           <xdr:spPr>
@@ -3175,9 +2929,15 @@
             </a:p>
           </xdr:txBody>
         </xdr:sp>
-        <xdr:sp>
+        <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="91" name="矩形 90"/>
+            <xdr:cNvPr id="91" name="矩形 90">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00005B000000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
           <xdr:spPr>
@@ -3217,9 +2977,15 @@
           </xdr:txBody>
         </xdr:sp>
       </xdr:grpSp>
-      <xdr:cxnSp>
+      <xdr:cxnSp macro="">
         <xdr:nvCxnSpPr>
-          <xdr:cNvPr id="92" name="直接箭头连接符 91"/>
+          <xdr:cNvPr id="92" name="直接箭头连接符 91">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00005C000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvCxnSpPr>
             <a:stCxn id="90" idx="3"/>
             <a:endCxn id="95" idx="1"/>
@@ -3252,9 +3018,15 @@
           </a:fontRef>
         </xdr:style>
       </xdr:cxnSp>
-      <xdr:cxnSp>
+      <xdr:cxnSp macro="">
         <xdr:nvCxnSpPr>
-          <xdr:cNvPr id="93" name="直接箭头连接符 92"/>
+          <xdr:cNvPr id="93" name="直接箭头连接符 92">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00005D000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvCxnSpPr>
             <a:stCxn id="91" idx="3"/>
             <a:endCxn id="96" idx="1"/>
@@ -3289,7 +3061,13 @@
       </xdr:cxnSp>
       <xdr:grpSp>
         <xdr:nvGrpSpPr>
-          <xdr:cNvPr id="94" name="组合 93"/>
+          <xdr:cNvPr id="94" name="组合 93">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00005E000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvGrpSpPr/>
         </xdr:nvGrpSpPr>
         <xdr:grpSpPr>
@@ -3300,9 +3078,15 @@
             <a:chExt cx="3451059" cy="1099885"/>
           </a:xfrm>
         </xdr:grpSpPr>
-        <xdr:sp>
+        <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="95" name="矩形 94"/>
+            <xdr:cNvPr id="95" name="矩形 94">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00005F000000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
           <xdr:spPr>
@@ -3345,9 +3129,15 @@
             </a:p>
           </xdr:txBody>
         </xdr:sp>
-        <xdr:sp>
+        <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="96" name="矩形 95"/>
+            <xdr:cNvPr id="96" name="矩形 95">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000060000000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
           <xdr:spPr>
@@ -3390,9 +3180,15 @@
             </a:p>
           </xdr:txBody>
         </xdr:sp>
-        <xdr:cxnSp>
+        <xdr:cxnSp macro="">
           <xdr:nvCxnSpPr>
-            <xdr:cNvPr id="97" name="直接箭头连接符 96"/>
+            <xdr:cNvPr id="97" name="直接箭头连接符 96">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000061000000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
             <xdr:cNvCxnSpPr>
               <a:stCxn id="95" idx="3"/>
               <a:endCxn id="98" idx="1"/>
@@ -3425,9 +3221,15 @@
             </a:fontRef>
           </xdr:style>
         </xdr:cxnSp>
-        <xdr:sp>
+        <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="98" name="矩形 97"/>
+            <xdr:cNvPr id="98" name="矩形 97">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000062000000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
           <xdr:spPr>
@@ -3466,9 +3268,15 @@
             </a:p>
           </xdr:txBody>
         </xdr:sp>
-        <xdr:cxnSp>
+        <xdr:cxnSp macro="">
           <xdr:nvCxnSpPr>
-            <xdr:cNvPr id="99" name="直接箭头连接符 98"/>
+            <xdr:cNvPr id="99" name="直接箭头连接符 98">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000063000000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
             <xdr:cNvCxnSpPr>
               <a:stCxn id="96" idx="3"/>
               <a:endCxn id="100" idx="1"/>
@@ -3501,9 +3309,15 @@
             </a:fontRef>
           </xdr:style>
         </xdr:cxnSp>
-        <xdr:sp>
+        <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="100" name="矩形 99"/>
+            <xdr:cNvPr id="100" name="矩形 99">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000064000000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
           <xdr:spPr>
@@ -3543,9 +3357,15 @@
           </xdr:txBody>
         </xdr:sp>
       </xdr:grpSp>
-      <xdr:sp>
+      <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="101" name="矩形 100"/>
+          <xdr:cNvPr id="101" name="矩形 100">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000065000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -3618,7 +3438,6 @@
               <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
               <a:t>）</a:t>
             </a:r>
-            <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
           </a:p>
         </xdr:txBody>
       </xdr:sp>
@@ -3640,20 +3459,32 @@
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="103" name="组合 102"/>
+        <xdr:cNvPr id="103" name="组合 102">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000067000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGrpSpPr/>
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="14319250" y="13471525"/>
-          <a:ext cx="8218805" cy="7764145"/>
+          <a:off x="14365055" y="13468007"/>
+          <a:ext cx="8223059" cy="7837003"/>
           <a:chOff x="4804172" y="13406437"/>
           <a:chExt cx="8209359" cy="7661672"/>
         </a:xfrm>
       </xdr:grpSpPr>
       <xdr:grpSp>
         <xdr:nvGrpSpPr>
-          <xdr:cNvPr id="104" name="组合 103"/>
+          <xdr:cNvPr id="104" name="组合 103">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000068000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvGrpSpPr/>
         </xdr:nvGrpSpPr>
         <xdr:grpSpPr>
@@ -3664,9 +3495,15 @@
             <a:chExt cx="2549095" cy="1547386"/>
           </a:xfrm>
         </xdr:grpSpPr>
-        <xdr:sp>
+        <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="154" name="矩形 153"/>
+            <xdr:cNvPr id="154" name="矩形 153">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00009A000000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
           <xdr:spPr>
@@ -3717,9 +3554,15 @@
             </a:p>
           </xdr:txBody>
         </xdr:sp>
-        <xdr:sp>
+        <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="155" name="矩形 154"/>
+            <xdr:cNvPr id="155" name="矩形 154">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00009B000000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
           <xdr:spPr>
@@ -3770,9 +3613,15 @@
             </a:p>
           </xdr:txBody>
         </xdr:sp>
-        <xdr:sp>
+        <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="156" name="矩形 155"/>
+            <xdr:cNvPr id="156" name="矩形 155">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00009C000000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
           <xdr:spPr>
@@ -3824,9 +3673,15 @@
           </xdr:txBody>
         </xdr:sp>
       </xdr:grpSp>
-      <xdr:cxnSp>
+      <xdr:cxnSp macro="">
         <xdr:nvCxnSpPr>
-          <xdr:cNvPr id="105" name="直接箭头连接符 104"/>
+          <xdr:cNvPr id="105" name="直接箭头连接符 104">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000069000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvCxnSpPr>
             <a:stCxn id="155" idx="3"/>
             <a:endCxn id="148" idx="1"/>
@@ -3860,9 +3715,15 @@
           </a:fontRef>
         </xdr:style>
       </xdr:cxnSp>
-      <xdr:cxnSp>
+      <xdr:cxnSp macro="">
         <xdr:nvCxnSpPr>
-          <xdr:cNvPr id="106" name="直接箭头连接符 105"/>
+          <xdr:cNvPr id="106" name="直接箭头连接符 105">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00006A000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvCxnSpPr>
             <a:stCxn id="156" idx="3"/>
             <a:endCxn id="149" idx="1"/>
@@ -3898,7 +3759,13 @@
       </xdr:cxnSp>
       <xdr:grpSp>
         <xdr:nvGrpSpPr>
-          <xdr:cNvPr id="107" name="组合 106"/>
+          <xdr:cNvPr id="107" name="组合 106">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00006B000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvGrpSpPr/>
         </xdr:nvGrpSpPr>
         <xdr:grpSpPr>
@@ -3909,9 +3776,15 @@
             <a:chExt cx="3451059" cy="1099885"/>
           </a:xfrm>
         </xdr:grpSpPr>
-        <xdr:sp>
+        <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="148" name="矩形 147"/>
+            <xdr:cNvPr id="148" name="矩形 147">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000094000000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
           <xdr:spPr>
@@ -3954,9 +3827,15 @@
             </a:p>
           </xdr:txBody>
         </xdr:sp>
-        <xdr:sp>
+        <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="149" name="矩形 148"/>
+            <xdr:cNvPr id="149" name="矩形 148">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000095000000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
           <xdr:spPr>
@@ -3999,9 +3878,15 @@
             </a:p>
           </xdr:txBody>
         </xdr:sp>
-        <xdr:cxnSp>
+        <xdr:cxnSp macro="">
           <xdr:nvCxnSpPr>
-            <xdr:cNvPr id="150" name="直接箭头连接符 149"/>
+            <xdr:cNvPr id="150" name="直接箭头连接符 149">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000096000000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
             <xdr:cNvCxnSpPr>
               <a:stCxn id="148" idx="3"/>
               <a:endCxn id="151" idx="1"/>
@@ -4035,9 +3920,15 @@
             </a:fontRef>
           </xdr:style>
         </xdr:cxnSp>
-        <xdr:sp>
+        <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="151" name="矩形 150"/>
+            <xdr:cNvPr id="151" name="矩形 150">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000097000000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
           <xdr:spPr>
@@ -4076,9 +3967,15 @@
             </a:p>
           </xdr:txBody>
         </xdr:sp>
-        <xdr:cxnSp>
+        <xdr:cxnSp macro="">
           <xdr:nvCxnSpPr>
-            <xdr:cNvPr id="152" name="直接箭头连接符 151"/>
+            <xdr:cNvPr id="152" name="直接箭头连接符 151">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000098000000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
             <xdr:cNvCxnSpPr>
               <a:stCxn id="149" idx="3"/>
               <a:endCxn id="153" idx="1"/>
@@ -4112,9 +4009,15 @@
             </a:fontRef>
           </xdr:style>
         </xdr:cxnSp>
-        <xdr:sp>
+        <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="153" name="矩形 152"/>
+            <xdr:cNvPr id="153" name="矩形 152">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000099000000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
           <xdr:spPr>
@@ -4156,7 +4059,13 @@
       </xdr:grpSp>
       <xdr:grpSp>
         <xdr:nvGrpSpPr>
-          <xdr:cNvPr id="108" name="组合 107"/>
+          <xdr:cNvPr id="108" name="组合 107">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00006C000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvGrpSpPr/>
         </xdr:nvGrpSpPr>
         <xdr:grpSpPr>
@@ -4167,9 +4076,15 @@
             <a:chExt cx="2549095" cy="1547386"/>
           </a:xfrm>
         </xdr:grpSpPr>
-        <xdr:sp>
+        <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="145" name="矩形 144"/>
+            <xdr:cNvPr id="145" name="矩形 144">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000091000000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
           <xdr:spPr>
@@ -4220,9 +4135,15 @@
             </a:p>
           </xdr:txBody>
         </xdr:sp>
-        <xdr:sp>
+        <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="146" name="矩形 145"/>
+            <xdr:cNvPr id="146" name="矩形 145">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000092000000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
           <xdr:spPr>
@@ -4273,9 +4194,15 @@
             </a:p>
           </xdr:txBody>
         </xdr:sp>
-        <xdr:sp>
+        <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="147" name="矩形 146"/>
+            <xdr:cNvPr id="147" name="矩形 146">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000093000000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
           <xdr:spPr>
@@ -4327,9 +4254,15 @@
           </xdr:txBody>
         </xdr:sp>
       </xdr:grpSp>
-      <xdr:cxnSp>
+      <xdr:cxnSp macro="">
         <xdr:nvCxnSpPr>
-          <xdr:cNvPr id="109" name="直接箭头连接符 108"/>
+          <xdr:cNvPr id="109" name="直接箭头连接符 108">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00006D000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvCxnSpPr>
             <a:stCxn id="146" idx="3"/>
             <a:endCxn id="139" idx="1"/>
@@ -4363,9 +4296,15 @@
           </a:fontRef>
         </xdr:style>
       </xdr:cxnSp>
-      <xdr:cxnSp>
+      <xdr:cxnSp macro="">
         <xdr:nvCxnSpPr>
-          <xdr:cNvPr id="110" name="直接箭头连接符 109"/>
+          <xdr:cNvPr id="110" name="直接箭头连接符 109">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00006E000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvCxnSpPr>
             <a:stCxn id="147" idx="3"/>
             <a:endCxn id="140" idx="1"/>
@@ -4401,7 +4340,13 @@
       </xdr:cxnSp>
       <xdr:grpSp>
         <xdr:nvGrpSpPr>
-          <xdr:cNvPr id="111" name="组合 110"/>
+          <xdr:cNvPr id="111" name="组合 110">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00006F000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvGrpSpPr/>
         </xdr:nvGrpSpPr>
         <xdr:grpSpPr>
@@ -4412,9 +4357,15 @@
             <a:chExt cx="3451059" cy="1099885"/>
           </a:xfrm>
         </xdr:grpSpPr>
-        <xdr:sp>
+        <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="139" name="矩形 138"/>
+            <xdr:cNvPr id="139" name="矩形 138">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00008B000000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
           <xdr:spPr>
@@ -4457,9 +4408,15 @@
             </a:p>
           </xdr:txBody>
         </xdr:sp>
-        <xdr:sp>
+        <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="140" name="矩形 139"/>
+            <xdr:cNvPr id="140" name="矩形 139">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00008C000000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
           <xdr:spPr>
@@ -4502,9 +4459,15 @@
             </a:p>
           </xdr:txBody>
         </xdr:sp>
-        <xdr:cxnSp>
+        <xdr:cxnSp macro="">
           <xdr:nvCxnSpPr>
-            <xdr:cNvPr id="141" name="直接箭头连接符 140"/>
+            <xdr:cNvPr id="141" name="直接箭头连接符 140">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00008D000000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
             <xdr:cNvCxnSpPr>
               <a:stCxn id="139" idx="3"/>
               <a:endCxn id="142" idx="1"/>
@@ -4538,9 +4501,15 @@
             </a:fontRef>
           </xdr:style>
         </xdr:cxnSp>
-        <xdr:sp>
+        <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="142" name="矩形 141"/>
+            <xdr:cNvPr id="142" name="矩形 141">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00008E000000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
           <xdr:spPr>
@@ -4579,9 +4548,15 @@
             </a:p>
           </xdr:txBody>
         </xdr:sp>
-        <xdr:cxnSp>
+        <xdr:cxnSp macro="">
           <xdr:nvCxnSpPr>
-            <xdr:cNvPr id="143" name="直接箭头连接符 142"/>
+            <xdr:cNvPr id="143" name="直接箭头连接符 142">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00008F000000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
             <xdr:cNvCxnSpPr>
               <a:stCxn id="140" idx="3"/>
               <a:endCxn id="144" idx="1"/>
@@ -4615,9 +4590,15 @@
             </a:fontRef>
           </xdr:style>
         </xdr:cxnSp>
-        <xdr:sp>
+        <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="144" name="矩形 143"/>
+            <xdr:cNvPr id="144" name="矩形 143">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000090000000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
           <xdr:spPr>
@@ -4659,7 +4640,13 @@
       </xdr:grpSp>
       <xdr:grpSp>
         <xdr:nvGrpSpPr>
-          <xdr:cNvPr id="112" name="组合 111"/>
+          <xdr:cNvPr id="112" name="组合 111">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000070000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvGrpSpPr/>
         </xdr:nvGrpSpPr>
         <xdr:grpSpPr>
@@ -4670,9 +4657,15 @@
             <a:chExt cx="2549095" cy="1547386"/>
           </a:xfrm>
         </xdr:grpSpPr>
-        <xdr:sp>
+        <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="136" name="矩形 135"/>
+            <xdr:cNvPr id="136" name="矩形 135">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000088000000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
           <xdr:spPr>
@@ -4723,9 +4716,15 @@
             </a:p>
           </xdr:txBody>
         </xdr:sp>
-        <xdr:sp>
+        <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="137" name="矩形 136"/>
+            <xdr:cNvPr id="137" name="矩形 136">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000089000000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
           <xdr:spPr>
@@ -4776,9 +4775,15 @@
             </a:p>
           </xdr:txBody>
         </xdr:sp>
-        <xdr:sp>
+        <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="138" name="矩形 137"/>
+            <xdr:cNvPr id="138" name="矩形 137">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00008A000000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
           <xdr:spPr>
@@ -4830,9 +4835,15 @@
           </xdr:txBody>
         </xdr:sp>
       </xdr:grpSp>
-      <xdr:cxnSp>
+      <xdr:cxnSp macro="">
         <xdr:nvCxnSpPr>
-          <xdr:cNvPr id="113" name="直接箭头连接符 112"/>
+          <xdr:cNvPr id="113" name="直接箭头连接符 112">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000071000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvCxnSpPr>
             <a:stCxn id="137" idx="3"/>
             <a:endCxn id="130" idx="1"/>
@@ -4866,9 +4877,15 @@
           </a:fontRef>
         </xdr:style>
       </xdr:cxnSp>
-      <xdr:cxnSp>
+      <xdr:cxnSp macro="">
         <xdr:nvCxnSpPr>
-          <xdr:cNvPr id="114" name="直接箭头连接符 113"/>
+          <xdr:cNvPr id="114" name="直接箭头连接符 113">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000072000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvCxnSpPr>
             <a:stCxn id="138" idx="3"/>
             <a:endCxn id="131" idx="1"/>
@@ -4904,7 +4921,13 @@
       </xdr:cxnSp>
       <xdr:grpSp>
         <xdr:nvGrpSpPr>
-          <xdr:cNvPr id="115" name="组合 114"/>
+          <xdr:cNvPr id="115" name="组合 114">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000073000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvGrpSpPr/>
         </xdr:nvGrpSpPr>
         <xdr:grpSpPr>
@@ -4915,9 +4938,15 @@
             <a:chExt cx="3451059" cy="1099885"/>
           </a:xfrm>
         </xdr:grpSpPr>
-        <xdr:sp>
+        <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="130" name="矩形 129"/>
+            <xdr:cNvPr id="130" name="矩形 129">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000082000000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
           <xdr:spPr>
@@ -4960,9 +4989,15 @@
             </a:p>
           </xdr:txBody>
         </xdr:sp>
-        <xdr:sp>
+        <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="131" name="矩形 130"/>
+            <xdr:cNvPr id="131" name="矩形 130">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000083000000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
           <xdr:spPr>
@@ -5005,9 +5040,15 @@
             </a:p>
           </xdr:txBody>
         </xdr:sp>
-        <xdr:cxnSp>
+        <xdr:cxnSp macro="">
           <xdr:nvCxnSpPr>
-            <xdr:cNvPr id="132" name="直接箭头连接符 131"/>
+            <xdr:cNvPr id="132" name="直接箭头连接符 131">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000084000000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
             <xdr:cNvCxnSpPr>
               <a:stCxn id="130" idx="3"/>
               <a:endCxn id="133" idx="1"/>
@@ -5041,9 +5082,15 @@
             </a:fontRef>
           </xdr:style>
         </xdr:cxnSp>
-        <xdr:sp>
+        <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="133" name="矩形 132"/>
+            <xdr:cNvPr id="133" name="矩形 132">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000085000000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
           <xdr:spPr>
@@ -5082,9 +5129,15 @@
             </a:p>
           </xdr:txBody>
         </xdr:sp>
-        <xdr:cxnSp>
+        <xdr:cxnSp macro="">
           <xdr:nvCxnSpPr>
-            <xdr:cNvPr id="134" name="直接箭头连接符 133"/>
+            <xdr:cNvPr id="134" name="直接箭头连接符 133">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000086000000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
             <xdr:cNvCxnSpPr>
               <a:stCxn id="131" idx="3"/>
               <a:endCxn id="135" idx="1"/>
@@ -5118,9 +5171,15 @@
             </a:fontRef>
           </xdr:style>
         </xdr:cxnSp>
-        <xdr:sp>
+        <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="135" name="矩形 134"/>
+            <xdr:cNvPr id="135" name="矩形 134">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000087000000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
           <xdr:spPr>
@@ -5162,7 +5221,13 @@
       </xdr:grpSp>
       <xdr:grpSp>
         <xdr:nvGrpSpPr>
-          <xdr:cNvPr id="116" name="组合 115"/>
+          <xdr:cNvPr id="116" name="组合 115">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000074000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvGrpSpPr/>
         </xdr:nvGrpSpPr>
         <xdr:grpSpPr>
@@ -5173,9 +5238,15 @@
             <a:chExt cx="2549095" cy="1547386"/>
           </a:xfrm>
         </xdr:grpSpPr>
-        <xdr:sp>
+        <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="127" name="矩形 126"/>
+            <xdr:cNvPr id="127" name="矩形 126">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00007F000000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
           <xdr:spPr>
@@ -5226,9 +5297,15 @@
             </a:p>
           </xdr:txBody>
         </xdr:sp>
-        <xdr:sp>
+        <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="128" name="矩形 127"/>
+            <xdr:cNvPr id="128" name="矩形 127">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000080000000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
           <xdr:spPr>
@@ -5279,9 +5356,15 @@
             </a:p>
           </xdr:txBody>
         </xdr:sp>
-        <xdr:sp>
+        <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="129" name="矩形 128"/>
+            <xdr:cNvPr id="129" name="矩形 128">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000081000000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
           <xdr:spPr>
@@ -5333,9 +5416,15 @@
           </xdr:txBody>
         </xdr:sp>
       </xdr:grpSp>
-      <xdr:cxnSp>
+      <xdr:cxnSp macro="">
         <xdr:nvCxnSpPr>
-          <xdr:cNvPr id="117" name="直接箭头连接符 116"/>
+          <xdr:cNvPr id="117" name="直接箭头连接符 116">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000075000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvCxnSpPr>
             <a:stCxn id="128" idx="3"/>
             <a:endCxn id="121" idx="1"/>
@@ -5369,9 +5458,15 @@
           </a:fontRef>
         </xdr:style>
       </xdr:cxnSp>
-      <xdr:cxnSp>
+      <xdr:cxnSp macro="">
         <xdr:nvCxnSpPr>
-          <xdr:cNvPr id="118" name="直接箭头连接符 117"/>
+          <xdr:cNvPr id="118" name="直接箭头连接符 117">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000076000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvCxnSpPr>
             <a:stCxn id="129" idx="3"/>
             <a:endCxn id="122" idx="1"/>
@@ -5407,7 +5502,13 @@
       </xdr:cxnSp>
       <xdr:grpSp>
         <xdr:nvGrpSpPr>
-          <xdr:cNvPr id="119" name="组合 118"/>
+          <xdr:cNvPr id="119" name="组合 118">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000077000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvGrpSpPr/>
         </xdr:nvGrpSpPr>
         <xdr:grpSpPr>
@@ -5418,9 +5519,15 @@
             <a:chExt cx="3451059" cy="1099885"/>
           </a:xfrm>
         </xdr:grpSpPr>
-        <xdr:sp>
+        <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="121" name="矩形 120"/>
+            <xdr:cNvPr id="121" name="矩形 120">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000079000000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
           <xdr:spPr>
@@ -5463,9 +5570,15 @@
             </a:p>
           </xdr:txBody>
         </xdr:sp>
-        <xdr:sp>
+        <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="122" name="矩形 121"/>
+            <xdr:cNvPr id="122" name="矩形 121">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00007A000000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
           <xdr:spPr>
@@ -5508,9 +5621,15 @@
             </a:p>
           </xdr:txBody>
         </xdr:sp>
-        <xdr:cxnSp>
+        <xdr:cxnSp macro="">
           <xdr:nvCxnSpPr>
-            <xdr:cNvPr id="123" name="直接箭头连接符 122"/>
+            <xdr:cNvPr id="123" name="直接箭头连接符 122">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00007B000000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
             <xdr:cNvCxnSpPr>
               <a:stCxn id="121" idx="3"/>
               <a:endCxn id="124" idx="1"/>
@@ -5544,9 +5663,15 @@
             </a:fontRef>
           </xdr:style>
         </xdr:cxnSp>
-        <xdr:sp>
+        <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="124" name="矩形 123"/>
+            <xdr:cNvPr id="124" name="矩形 123">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00007C000000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
           <xdr:spPr>
@@ -5585,9 +5710,15 @@
             </a:p>
           </xdr:txBody>
         </xdr:sp>
-        <xdr:cxnSp>
+        <xdr:cxnSp macro="">
           <xdr:nvCxnSpPr>
-            <xdr:cNvPr id="125" name="直接箭头连接符 124"/>
+            <xdr:cNvPr id="125" name="直接箭头连接符 124">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00007D000000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
             <xdr:cNvCxnSpPr>
               <a:stCxn id="122" idx="3"/>
               <a:endCxn id="126" idx="1"/>
@@ -5621,9 +5752,15 @@
             </a:fontRef>
           </xdr:style>
         </xdr:cxnSp>
-        <xdr:sp>
+        <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="126" name="矩形 125"/>
+            <xdr:cNvPr id="126" name="矩形 125">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00007E000000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
           <xdr:spPr>
@@ -5663,9 +5800,15 @@
           </xdr:txBody>
         </xdr:sp>
       </xdr:grpSp>
-      <xdr:sp>
+      <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="120" name="矩形 119"/>
+          <xdr:cNvPr id="120" name="矩形 119">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000078000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -6081,49 +6224,49 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="D17:AN44"/>
   <sheetViews>
     <sheetView zoomScale="73" zoomScaleNormal="73" workbookViewId="0">
       <selection activeCell="AN20" sqref="AN20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="3" width="8.875" style="46"/>
-    <col min="4" max="4" width="14" style="46" customWidth="1"/>
-    <col min="5" max="16" width="8" style="46" customWidth="1"/>
-    <col min="17" max="20" width="7.375" style="46" customWidth="1"/>
-    <col min="21" max="21" width="11.875" style="46" customWidth="1"/>
-    <col min="22" max="22" width="11.125" style="46" customWidth="1"/>
-    <col min="23" max="23" width="11.75" style="46" customWidth="1"/>
-    <col min="24" max="24" width="11.125" style="46" customWidth="1"/>
-    <col min="25" max="25" width="10.5" style="46" customWidth="1"/>
-    <col min="26" max="26" width="11.25" style="46" customWidth="1"/>
-    <col min="27" max="27" width="11.375" style="46" customWidth="1"/>
-    <col min="28" max="28" width="11.625" style="46" customWidth="1"/>
-    <col min="29" max="29" width="11.75" style="46" customWidth="1"/>
-    <col min="30" max="30" width="12.75" style="46" customWidth="1"/>
-    <col min="31" max="31" width="11.25" style="46" customWidth="1"/>
-    <col min="32" max="32" width="10.625" style="46" customWidth="1"/>
-    <col min="33" max="33" width="11.5" style="46" customWidth="1"/>
-    <col min="34" max="34" width="10.375" style="46" customWidth="1"/>
-    <col min="35" max="35" width="11.125" style="46" customWidth="1"/>
-    <col min="36" max="36" width="10.75" style="46" customWidth="1"/>
-    <col min="37" max="37" width="15.875" style="46" customWidth="1"/>
-    <col min="38" max="38" width="46.625" style="46" customWidth="1"/>
-    <col min="39" max="39" width="68.625" style="46" customWidth="1"/>
-    <col min="40" max="40" width="96.25" style="46" customWidth="1"/>
-    <col min="41" max="16384" width="8.875" style="46"/>
+    <col min="1" max="3" width="8.875" style="18"/>
+    <col min="4" max="4" width="14" style="18" customWidth="1"/>
+    <col min="5" max="16" width="8" style="18" customWidth="1"/>
+    <col min="17" max="20" width="7.375" style="18" customWidth="1"/>
+    <col min="21" max="21" width="11.875" style="18" customWidth="1"/>
+    <col min="22" max="22" width="11.125" style="18" customWidth="1"/>
+    <col min="23" max="23" width="11.75" style="18" customWidth="1"/>
+    <col min="24" max="24" width="11.125" style="18" customWidth="1"/>
+    <col min="25" max="25" width="10.5" style="18" customWidth="1"/>
+    <col min="26" max="26" width="11.25" style="18" customWidth="1"/>
+    <col min="27" max="27" width="11.375" style="18" customWidth="1"/>
+    <col min="28" max="28" width="11.625" style="18" customWidth="1"/>
+    <col min="29" max="29" width="11.75" style="18" customWidth="1"/>
+    <col min="30" max="30" width="12.75" style="18" customWidth="1"/>
+    <col min="31" max="31" width="11.25" style="18" customWidth="1"/>
+    <col min="32" max="32" width="10.625" style="18" customWidth="1"/>
+    <col min="33" max="33" width="11.5" style="18" customWidth="1"/>
+    <col min="34" max="34" width="10.375" style="18" customWidth="1"/>
+    <col min="35" max="35" width="11.125" style="18" customWidth="1"/>
+    <col min="36" max="36" width="10.75" style="18" customWidth="1"/>
+    <col min="37" max="37" width="15.875" style="18" customWidth="1"/>
+    <col min="38" max="38" width="46.625" style="18" customWidth="1"/>
+    <col min="39" max="39" width="68.625" style="18" customWidth="1"/>
+    <col min="40" max="40" width="96.25" style="18" customWidth="1"/>
+    <col min="41" max="16384" width="8.875" style="18"/>
   </cols>
   <sheetData>
-    <row r="17" ht="36.75" customHeight="1" spans="4:40">
-      <c r="D17" s="47"/>
+    <row r="17" spans="4:40" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D17" s="19"/>
       <c r="E17" s="1" t="s">
         <v>0</v>
       </c>
@@ -6172,1288 +6315,1285 @@
       <c r="T17" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="U17" s="49" t="s">
+      <c r="U17" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="V17" s="49" t="s">
+      <c r="V17" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="W17" s="49" t="s">
+      <c r="W17" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="X17" s="49" t="s">
+      <c r="X17" s="21" t="s">
         <v>19</v>
       </c>
-      <c r="Y17" s="49" t="s">
+      <c r="Y17" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="Z17" s="49" t="s">
+      <c r="Z17" s="21" t="s">
         <v>21</v>
       </c>
-      <c r="AA17" s="49" t="s">
+      <c r="AA17" s="21" t="s">
         <v>22</v>
       </c>
-      <c r="AB17" s="49" t="s">
+      <c r="AB17" s="21" t="s">
         <v>23</v>
       </c>
-      <c r="AC17" s="49" t="s">
+      <c r="AC17" s="21" t="s">
         <v>24</v>
       </c>
-      <c r="AD17" s="49" t="s">
+      <c r="AD17" s="21" t="s">
         <v>25</v>
       </c>
-      <c r="AE17" s="49" t="s">
+      <c r="AE17" s="21" t="s">
         <v>26</v>
       </c>
-      <c r="AF17" s="49" t="s">
+      <c r="AF17" s="21" t="s">
         <v>27</v>
       </c>
-      <c r="AG17" s="49" t="s">
+      <c r="AG17" s="21" t="s">
         <v>28</v>
       </c>
-      <c r="AH17" s="49" t="s">
+      <c r="AH17" s="21" t="s">
         <v>29</v>
       </c>
-      <c r="AI17" s="49" t="s">
+      <c r="AI17" s="21" t="s">
         <v>30</v>
       </c>
-      <c r="AJ17" s="49" t="s">
+      <c r="AJ17" s="21" t="s">
         <v>31</v>
       </c>
-      <c r="AK17" s="22" t="s">
+      <c r="AK17" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="AL17" s="22" t="s">
+      <c r="AL17" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="AM17" s="22" t="s">
+      <c r="AM17" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="AN17" s="43" t="s">
+      <c r="AN17" s="15" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="18" ht="63" customHeight="1" spans="4:40">
-      <c r="D18" s="32" t="s">
+    <row r="18" spans="4:40" ht="63" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D18" s="31" t="s">
         <v>36</v>
       </c>
-      <c r="E18" s="32" t="s">
+      <c r="E18" s="31" t="s">
         <v>37</v>
       </c>
-      <c r="F18" s="32"/>
-      <c r="G18" s="32"/>
-      <c r="H18" s="32"/>
-      <c r="I18" s="32" t="s">
+      <c r="F18" s="31"/>
+      <c r="G18" s="31"/>
+      <c r="H18" s="31"/>
+      <c r="I18" s="31" t="s">
         <v>38</v>
       </c>
-      <c r="J18" s="32"/>
-      <c r="K18" s="32"/>
-      <c r="L18" s="32"/>
-      <c r="M18" s="12" t="s">
+      <c r="J18" s="31"/>
+      <c r="K18" s="31"/>
+      <c r="L18" s="31"/>
+      <c r="M18" s="24" t="s">
         <v>39</v>
       </c>
-      <c r="N18" s="13"/>
-      <c r="O18" s="13"/>
-      <c r="P18" s="14"/>
-      <c r="Q18" s="16" t="s">
+      <c r="N18" s="25"/>
+      <c r="O18" s="25"/>
+      <c r="P18" s="26"/>
+      <c r="Q18" s="27" t="s">
         <v>40</v>
       </c>
-      <c r="R18" s="16"/>
-      <c r="S18" s="16"/>
-      <c r="T18" s="16"/>
-      <c r="U18" s="16" t="s">
+      <c r="R18" s="27"/>
+      <c r="S18" s="27"/>
+      <c r="T18" s="27"/>
+      <c r="U18" s="27" t="s">
         <v>41</v>
       </c>
-      <c r="V18" s="16"/>
-      <c r="W18" s="16"/>
-      <c r="X18" s="16"/>
-      <c r="Y18" s="16"/>
-      <c r="Z18" s="16"/>
-      <c r="AA18" s="16"/>
-      <c r="AB18" s="16"/>
-      <c r="AC18" s="16" t="s">
+      <c r="V18" s="27"/>
+      <c r="W18" s="27"/>
+      <c r="X18" s="27"/>
+      <c r="Y18" s="27"/>
+      <c r="Z18" s="27"/>
+      <c r="AA18" s="27"/>
+      <c r="AB18" s="27"/>
+      <c r="AC18" s="27" t="s">
         <v>42</v>
       </c>
-      <c r="AD18" s="16"/>
-      <c r="AE18" s="16"/>
-      <c r="AF18" s="16"/>
-      <c r="AG18" s="16"/>
-      <c r="AH18" s="16"/>
-      <c r="AI18" s="16"/>
-      <c r="AJ18" s="16"/>
-      <c r="AK18" s="44" t="s">
+      <c r="AD18" s="27"/>
+      <c r="AE18" s="27"/>
+      <c r="AF18" s="27"/>
+      <c r="AG18" s="27"/>
+      <c r="AH18" s="27"/>
+      <c r="AI18" s="27"/>
+      <c r="AJ18" s="27"/>
+      <c r="AK18" s="16" t="s">
         <v>43</v>
       </c>
-      <c r="AL18" s="29" t="s">
+      <c r="AL18" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="AM18" s="29" t="s">
+      <c r="AM18" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="AN18" s="50"/>
+      <c r="AN18" s="22"/>
     </row>
-    <row r="19" ht="63" customHeight="1" spans="4:40">
-      <c r="D19" s="32"/>
-      <c r="E19" s="32"/>
-      <c r="F19" s="32"/>
-      <c r="G19" s="32"/>
-      <c r="H19" s="32"/>
-      <c r="I19" s="32"/>
-      <c r="J19" s="32"/>
-      <c r="K19" s="32"/>
-      <c r="L19" s="32"/>
-      <c r="M19" s="12" t="s">
+    <row r="19" spans="4:40" ht="63" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D19" s="31"/>
+      <c r="E19" s="31"/>
+      <c r="F19" s="31"/>
+      <c r="G19" s="31"/>
+      <c r="H19" s="31"/>
+      <c r="I19" s="31"/>
+      <c r="J19" s="31"/>
+      <c r="K19" s="31"/>
+      <c r="L19" s="31"/>
+      <c r="M19" s="24" t="s">
         <v>39</v>
       </c>
-      <c r="N19" s="13"/>
-      <c r="O19" s="13"/>
-      <c r="P19" s="14"/>
-      <c r="Q19" s="16" t="s">
+      <c r="N19" s="25"/>
+      <c r="O19" s="25"/>
+      <c r="P19" s="26"/>
+      <c r="Q19" s="27" t="s">
         <v>46</v>
       </c>
-      <c r="R19" s="16"/>
-      <c r="S19" s="16"/>
-      <c r="T19" s="16"/>
-      <c r="U19" s="16" t="s">
+      <c r="R19" s="27"/>
+      <c r="S19" s="27"/>
+      <c r="T19" s="27"/>
+      <c r="U19" s="27" t="s">
         <v>39</v>
       </c>
-      <c r="V19" s="16"/>
-      <c r="W19" s="16"/>
-      <c r="X19" s="16"/>
-      <c r="Y19" s="16"/>
-      <c r="Z19" s="16"/>
-      <c r="AA19" s="16"/>
-      <c r="AB19" s="16"/>
-      <c r="AC19" s="16"/>
-      <c r="AD19" s="16"/>
-      <c r="AE19" s="16"/>
-      <c r="AF19" s="16"/>
-      <c r="AG19" s="16"/>
-      <c r="AH19" s="16"/>
-      <c r="AI19" s="16"/>
-      <c r="AJ19" s="16"/>
-      <c r="AK19" s="44" t="s">
+      <c r="V19" s="27"/>
+      <c r="W19" s="27"/>
+      <c r="X19" s="27"/>
+      <c r="Y19" s="27"/>
+      <c r="Z19" s="27"/>
+      <c r="AA19" s="27"/>
+      <c r="AB19" s="27"/>
+      <c r="AC19" s="27"/>
+      <c r="AD19" s="27"/>
+      <c r="AE19" s="27"/>
+      <c r="AF19" s="27"/>
+      <c r="AG19" s="27"/>
+      <c r="AH19" s="27"/>
+      <c r="AI19" s="27"/>
+      <c r="AJ19" s="27"/>
+      <c r="AK19" s="16" t="s">
         <v>47</v>
       </c>
-      <c r="AL19" s="29" t="s">
+      <c r="AL19" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="AM19" s="29" t="s">
+      <c r="AM19" s="10" t="s">
         <v>49</v>
       </c>
-      <c r="AN19" s="51" t="s">
+      <c r="AN19" s="23" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="20" ht="63" customHeight="1" spans="4:40">
-      <c r="D20" s="32"/>
-      <c r="E20" s="32"/>
-      <c r="F20" s="32"/>
-      <c r="G20" s="32"/>
-      <c r="H20" s="32"/>
-      <c r="I20" s="32"/>
-      <c r="J20" s="32"/>
-      <c r="K20" s="32"/>
-      <c r="L20" s="32"/>
-      <c r="M20" s="32" t="s">
+    <row r="20" spans="4:40" ht="63" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D20" s="31"/>
+      <c r="E20" s="31"/>
+      <c r="F20" s="31"/>
+      <c r="G20" s="31"/>
+      <c r="H20" s="31"/>
+      <c r="I20" s="31"/>
+      <c r="J20" s="31"/>
+      <c r="K20" s="31"/>
+      <c r="L20" s="31"/>
+      <c r="M20" s="31" t="s">
         <v>51</v>
       </c>
-      <c r="N20" s="32"/>
-      <c r="O20" s="32"/>
-      <c r="P20" s="32"/>
-      <c r="Q20" s="16" t="s">
+      <c r="N20" s="31"/>
+      <c r="O20" s="31"/>
+      <c r="P20" s="31"/>
+      <c r="Q20" s="27" t="s">
         <v>52</v>
       </c>
-      <c r="R20" s="16"/>
-      <c r="S20" s="16"/>
-      <c r="T20" s="16"/>
-      <c r="U20" s="34" t="s">
+      <c r="R20" s="27"/>
+      <c r="S20" s="27"/>
+      <c r="T20" s="27"/>
+      <c r="U20" s="28" t="s">
         <v>39</v>
       </c>
-      <c r="V20" s="35"/>
-      <c r="W20" s="35"/>
-      <c r="X20" s="35"/>
-      <c r="Y20" s="35"/>
-      <c r="Z20" s="36"/>
-      <c r="AA20" s="32" t="s">
+      <c r="V20" s="29"/>
+      <c r="W20" s="29"/>
+      <c r="X20" s="29"/>
+      <c r="Y20" s="29"/>
+      <c r="Z20" s="30"/>
+      <c r="AA20" s="11" t="s">
         <v>53</v>
       </c>
-      <c r="AB20" s="32" t="s">
+      <c r="AB20" s="11" t="s">
         <v>54</v>
       </c>
-      <c r="AC20" s="16" t="s">
+      <c r="AC20" s="27" t="s">
         <v>55</v>
       </c>
-      <c r="AD20" s="16"/>
-      <c r="AE20" s="16"/>
-      <c r="AF20" s="16"/>
-      <c r="AG20" s="16"/>
-      <c r="AH20" s="16"/>
-      <c r="AI20" s="16"/>
-      <c r="AJ20" s="16"/>
-      <c r="AK20" s="44" t="s">
+      <c r="AD20" s="27"/>
+      <c r="AE20" s="27"/>
+      <c r="AF20" s="27"/>
+      <c r="AG20" s="27"/>
+      <c r="AH20" s="27"/>
+      <c r="AI20" s="27"/>
+      <c r="AJ20" s="27"/>
+      <c r="AK20" s="16" t="s">
         <v>56</v>
       </c>
-      <c r="AL20" s="29" t="s">
+      <c r="AL20" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="AM20" s="29" t="s">
+      <c r="AM20" s="10" t="s">
         <v>58</v>
       </c>
-      <c r="AN20" s="50"/>
+      <c r="AN20" s="22"/>
     </row>
-    <row r="21" ht="63" customHeight="1" spans="4:40">
-      <c r="D21" s="32"/>
-      <c r="E21" s="32"/>
-      <c r="F21" s="32"/>
-      <c r="G21" s="32"/>
-      <c r="H21" s="32"/>
-      <c r="I21" s="32"/>
-      <c r="J21" s="32"/>
-      <c r="K21" s="32"/>
-      <c r="L21" s="32"/>
-      <c r="M21" s="32"/>
-      <c r="N21" s="32"/>
-      <c r="O21" s="32"/>
-      <c r="P21" s="32"/>
-      <c r="Q21" s="16" t="s">
+    <row r="21" spans="4:40" ht="63" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D21" s="31"/>
+      <c r="E21" s="31"/>
+      <c r="F21" s="31"/>
+      <c r="G21" s="31"/>
+      <c r="H21" s="31"/>
+      <c r="I21" s="31"/>
+      <c r="J21" s="31"/>
+      <c r="K21" s="31"/>
+      <c r="L21" s="31"/>
+      <c r="M21" s="31"/>
+      <c r="N21" s="31"/>
+      <c r="O21" s="31"/>
+      <c r="P21" s="31"/>
+      <c r="Q21" s="27" t="s">
         <v>59</v>
       </c>
-      <c r="R21" s="16"/>
-      <c r="S21" s="16"/>
-      <c r="T21" s="16"/>
-      <c r="U21" s="12" t="s">
+      <c r="R21" s="27"/>
+      <c r="S21" s="27"/>
+      <c r="T21" s="27"/>
+      <c r="U21" s="24" t="s">
         <v>39</v>
       </c>
-      <c r="V21" s="13"/>
-      <c r="W21" s="13"/>
-      <c r="X21" s="13"/>
-      <c r="Y21" s="13"/>
-      <c r="Z21" s="13"/>
-      <c r="AA21" s="14"/>
-      <c r="AB21" s="32" t="s">
+      <c r="V21" s="25"/>
+      <c r="W21" s="25"/>
+      <c r="X21" s="25"/>
+      <c r="Y21" s="25"/>
+      <c r="Z21" s="25"/>
+      <c r="AA21" s="26"/>
+      <c r="AB21" s="11" t="s">
         <v>54</v>
       </c>
-      <c r="AC21" s="16" t="s">
+      <c r="AC21" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="AD21" s="34" t="s">
+      <c r="AD21" s="28" t="s">
         <v>60</v>
       </c>
-      <c r="AE21" s="35"/>
-      <c r="AF21" s="35"/>
-      <c r="AG21" s="35"/>
-      <c r="AH21" s="35"/>
-      <c r="AI21" s="35"/>
-      <c r="AJ21" s="36"/>
-      <c r="AK21" s="27" t="s">
+      <c r="AE21" s="29"/>
+      <c r="AF21" s="29"/>
+      <c r="AG21" s="29"/>
+      <c r="AH21" s="29"/>
+      <c r="AI21" s="29"/>
+      <c r="AJ21" s="30"/>
+      <c r="AK21" s="9" t="s">
         <v>61</v>
       </c>
-      <c r="AL21" s="29" t="s">
+      <c r="AL21" s="10" t="s">
         <v>62</v>
       </c>
-      <c r="AM21" s="29" t="s">
+      <c r="AM21" s="10" t="s">
         <v>63</v>
       </c>
-      <c r="AN21" s="50"/>
+      <c r="AN21" s="22"/>
     </row>
-    <row r="22" ht="63" customHeight="1" spans="4:40">
-      <c r="D22" s="32"/>
-      <c r="E22" s="32"/>
-      <c r="F22" s="32"/>
-      <c r="G22" s="32"/>
-      <c r="H22" s="32"/>
-      <c r="I22" s="32"/>
-      <c r="J22" s="32"/>
-      <c r="K22" s="32"/>
-      <c r="L22" s="32"/>
-      <c r="M22" s="32" t="s">
+    <row r="22" spans="4:40" ht="63" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D22" s="31"/>
+      <c r="E22" s="31"/>
+      <c r="F22" s="31"/>
+      <c r="G22" s="31"/>
+      <c r="H22" s="31"/>
+      <c r="I22" s="31"/>
+      <c r="J22" s="31"/>
+      <c r="K22" s="31"/>
+      <c r="L22" s="31"/>
+      <c r="M22" s="31" t="s">
         <v>64</v>
       </c>
-      <c r="N22" s="32"/>
-      <c r="O22" s="32"/>
-      <c r="P22" s="32"/>
-      <c r="Q22" s="16" t="s">
+      <c r="N22" s="31"/>
+      <c r="O22" s="31"/>
+      <c r="P22" s="31"/>
+      <c r="Q22" s="27" t="s">
         <v>65</v>
       </c>
-      <c r="R22" s="16"/>
-      <c r="S22" s="16"/>
-      <c r="T22" s="16"/>
-      <c r="U22" s="34" t="s">
+      <c r="R22" s="27"/>
+      <c r="S22" s="27"/>
+      <c r="T22" s="27"/>
+      <c r="U22" s="28" t="s">
         <v>39</v>
       </c>
-      <c r="V22" s="35"/>
-      <c r="W22" s="35"/>
-      <c r="X22" s="35"/>
-      <c r="Y22" s="35"/>
-      <c r="Z22" s="36"/>
-      <c r="AA22" s="32" t="s">
+      <c r="V22" s="29"/>
+      <c r="W22" s="29"/>
+      <c r="X22" s="29"/>
+      <c r="Y22" s="29"/>
+      <c r="Z22" s="30"/>
+      <c r="AA22" s="11" t="s">
         <v>66</v>
       </c>
-      <c r="AB22" s="32" t="s">
+      <c r="AB22" s="11" t="s">
         <v>67</v>
       </c>
-      <c r="AC22" s="34" t="s">
+      <c r="AC22" s="28" t="s">
         <v>39</v>
       </c>
-      <c r="AD22" s="35"/>
-      <c r="AE22" s="35"/>
-      <c r="AF22" s="35"/>
-      <c r="AG22" s="35"/>
-      <c r="AH22" s="35"/>
-      <c r="AI22" s="35"/>
-      <c r="AJ22" s="36"/>
-      <c r="AK22" s="27" t="s">
+      <c r="AD22" s="29"/>
+      <c r="AE22" s="29"/>
+      <c r="AF22" s="29"/>
+      <c r="AG22" s="29"/>
+      <c r="AH22" s="29"/>
+      <c r="AI22" s="29"/>
+      <c r="AJ22" s="30"/>
+      <c r="AK22" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="AL22" s="29" t="s">
+      <c r="AL22" s="10" t="s">
         <v>69</v>
       </c>
-      <c r="AM22" s="29" t="s">
+      <c r="AM22" s="10" t="s">
         <v>70</v>
       </c>
-      <c r="AN22" s="50"/>
+      <c r="AN22" s="22"/>
     </row>
-    <row r="23" ht="63" customHeight="1" spans="4:40">
-      <c r="D23" s="32"/>
-      <c r="E23" s="32"/>
-      <c r="F23" s="32"/>
-      <c r="G23" s="32"/>
-      <c r="H23" s="32"/>
-      <c r="I23" s="32"/>
-      <c r="J23" s="32"/>
-      <c r="K23" s="32"/>
-      <c r="L23" s="32"/>
-      <c r="M23" s="12" t="s">
+    <row r="23" spans="4:40" ht="63" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D23" s="31"/>
+      <c r="E23" s="31"/>
+      <c r="F23" s="31"/>
+      <c r="G23" s="31"/>
+      <c r="H23" s="31"/>
+      <c r="I23" s="31"/>
+      <c r="J23" s="31"/>
+      <c r="K23" s="31"/>
+      <c r="L23" s="31"/>
+      <c r="M23" s="24" t="s">
         <v>39</v>
       </c>
-      <c r="N23" s="13"/>
-      <c r="O23" s="13"/>
-      <c r="P23" s="14"/>
-      <c r="Q23" s="16" t="s">
+      <c r="N23" s="25"/>
+      <c r="O23" s="25"/>
+      <c r="P23" s="26"/>
+      <c r="Q23" s="27" t="s">
         <v>71</v>
       </c>
-      <c r="R23" s="16"/>
-      <c r="S23" s="16"/>
-      <c r="T23" s="16"/>
-      <c r="U23" s="34" t="s">
+      <c r="R23" s="27"/>
+      <c r="S23" s="27"/>
+      <c r="T23" s="27"/>
+      <c r="U23" s="28" t="s">
         <v>39</v>
       </c>
-      <c r="V23" s="35"/>
-      <c r="W23" s="35"/>
-      <c r="X23" s="35"/>
-      <c r="Y23" s="35"/>
-      <c r="Z23" s="35"/>
-      <c r="AA23" s="35"/>
-      <c r="AB23" s="35"/>
-      <c r="AC23" s="35"/>
-      <c r="AD23" s="35"/>
-      <c r="AE23" s="35"/>
-      <c r="AF23" s="35"/>
-      <c r="AG23" s="35"/>
-      <c r="AH23" s="35"/>
-      <c r="AI23" s="35"/>
-      <c r="AJ23" s="36"/>
-      <c r="AK23" s="27" t="s">
+      <c r="V23" s="29"/>
+      <c r="W23" s="29"/>
+      <c r="X23" s="29"/>
+      <c r="Y23" s="29"/>
+      <c r="Z23" s="29"/>
+      <c r="AA23" s="29"/>
+      <c r="AB23" s="29"/>
+      <c r="AC23" s="29"/>
+      <c r="AD23" s="29"/>
+      <c r="AE23" s="29"/>
+      <c r="AF23" s="29"/>
+      <c r="AG23" s="29"/>
+      <c r="AH23" s="29"/>
+      <c r="AI23" s="29"/>
+      <c r="AJ23" s="30"/>
+      <c r="AK23" s="9" t="s">
         <v>72</v>
       </c>
-      <c r="AL23" s="29" t="s">
+      <c r="AL23" s="10" t="s">
         <v>73</v>
       </c>
-      <c r="AM23" s="29" t="s">
+      <c r="AM23" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="AN23" s="50"/>
+      <c r="AN23" s="22"/>
     </row>
-    <row r="24" ht="63" customHeight="1" spans="4:40">
-      <c r="D24" s="32"/>
-      <c r="E24" s="32"/>
-      <c r="F24" s="32"/>
-      <c r="G24" s="32"/>
-      <c r="H24" s="32"/>
-      <c r="I24" s="32"/>
-      <c r="J24" s="32"/>
-      <c r="K24" s="32"/>
-      <c r="L24" s="32"/>
-      <c r="M24" s="12" t="s">
+    <row r="24" spans="4:40" ht="63" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D24" s="31"/>
+      <c r="E24" s="31"/>
+      <c r="F24" s="31"/>
+      <c r="G24" s="31"/>
+      <c r="H24" s="31"/>
+      <c r="I24" s="31"/>
+      <c r="J24" s="31"/>
+      <c r="K24" s="31"/>
+      <c r="L24" s="31"/>
+      <c r="M24" s="24" t="s">
         <v>39</v>
       </c>
-      <c r="N24" s="13"/>
-      <c r="O24" s="13"/>
-      <c r="P24" s="14"/>
-      <c r="Q24" s="16" t="s">
+      <c r="N24" s="25"/>
+      <c r="O24" s="25"/>
+      <c r="P24" s="26"/>
+      <c r="Q24" s="27" t="s">
         <v>74</v>
       </c>
-      <c r="R24" s="16"/>
-      <c r="S24" s="16"/>
-      <c r="T24" s="16"/>
-      <c r="U24" s="34" t="s">
+      <c r="R24" s="27"/>
+      <c r="S24" s="27"/>
+      <c r="T24" s="27"/>
+      <c r="U24" s="28" t="s">
         <v>39</v>
       </c>
-      <c r="V24" s="35"/>
-      <c r="W24" s="35"/>
-      <c r="X24" s="35"/>
-      <c r="Y24" s="35"/>
-      <c r="Z24" s="35"/>
-      <c r="AA24" s="35"/>
-      <c r="AB24" s="35"/>
-      <c r="AC24" s="35"/>
-      <c r="AD24" s="35"/>
-      <c r="AE24" s="35"/>
-      <c r="AF24" s="35"/>
-      <c r="AG24" s="35"/>
-      <c r="AH24" s="35"/>
-      <c r="AI24" s="35"/>
-      <c r="AJ24" s="36"/>
-      <c r="AK24" s="27" t="s">
+      <c r="V24" s="29"/>
+      <c r="W24" s="29"/>
+      <c r="X24" s="29"/>
+      <c r="Y24" s="29"/>
+      <c r="Z24" s="29"/>
+      <c r="AA24" s="29"/>
+      <c r="AB24" s="29"/>
+      <c r="AC24" s="29"/>
+      <c r="AD24" s="29"/>
+      <c r="AE24" s="29"/>
+      <c r="AF24" s="29"/>
+      <c r="AG24" s="29"/>
+      <c r="AH24" s="29"/>
+      <c r="AI24" s="29"/>
+      <c r="AJ24" s="30"/>
+      <c r="AK24" s="9" t="s">
         <v>75</v>
       </c>
-      <c r="AL24" s="29" t="s">
+      <c r="AL24" s="10" t="s">
         <v>76</v>
       </c>
-      <c r="AM24" s="29" t="s">
+      <c r="AM24" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="AN24" s="50"/>
+      <c r="AN24" s="22"/>
     </row>
-    <row r="25" ht="63" customHeight="1" spans="4:40">
-      <c r="D25" s="32"/>
-      <c r="E25" s="32"/>
-      <c r="F25" s="32"/>
-      <c r="G25" s="32"/>
-      <c r="H25" s="32"/>
-      <c r="I25" s="32"/>
-      <c r="J25" s="32"/>
-      <c r="K25" s="32"/>
-      <c r="L25" s="32"/>
-      <c r="M25" s="12" t="s">
+    <row r="25" spans="4:40" ht="63" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D25" s="31"/>
+      <c r="E25" s="31"/>
+      <c r="F25" s="31"/>
+      <c r="G25" s="31"/>
+      <c r="H25" s="31"/>
+      <c r="I25" s="31"/>
+      <c r="J25" s="31"/>
+      <c r="K25" s="31"/>
+      <c r="L25" s="31"/>
+      <c r="M25" s="24" t="s">
         <v>39</v>
       </c>
-      <c r="N25" s="13"/>
-      <c r="O25" s="13"/>
-      <c r="P25" s="14"/>
-      <c r="Q25" s="16" t="s">
+      <c r="N25" s="25"/>
+      <c r="O25" s="25"/>
+      <c r="P25" s="26"/>
+      <c r="Q25" s="27" t="s">
         <v>77</v>
       </c>
-      <c r="R25" s="16"/>
-      <c r="S25" s="16"/>
-      <c r="T25" s="16"/>
-      <c r="U25" s="34" t="s">
+      <c r="R25" s="27"/>
+      <c r="S25" s="27"/>
+      <c r="T25" s="27"/>
+      <c r="U25" s="28" t="s">
         <v>39</v>
       </c>
-      <c r="V25" s="35"/>
-      <c r="W25" s="35"/>
-      <c r="X25" s="35"/>
-      <c r="Y25" s="35"/>
-      <c r="Z25" s="35"/>
-      <c r="AA25" s="35"/>
-      <c r="AB25" s="35"/>
-      <c r="AC25" s="16" t="s">
+      <c r="V25" s="29"/>
+      <c r="W25" s="29"/>
+      <c r="X25" s="29"/>
+      <c r="Y25" s="29"/>
+      <c r="Z25" s="29"/>
+      <c r="AA25" s="29"/>
+      <c r="AB25" s="29"/>
+      <c r="AC25" s="27" t="s">
         <v>37</v>
       </c>
-      <c r="AD25" s="16"/>
-      <c r="AE25" s="16"/>
-      <c r="AF25" s="16"/>
-      <c r="AG25" s="34" t="s">
+      <c r="AD25" s="27"/>
+      <c r="AE25" s="27"/>
+      <c r="AF25" s="27"/>
+      <c r="AG25" s="28" t="s">
         <v>38</v>
       </c>
-      <c r="AH25" s="35"/>
-      <c r="AI25" s="35"/>
-      <c r="AJ25" s="36"/>
-      <c r="AK25" s="27" t="s">
+      <c r="AH25" s="29"/>
+      <c r="AI25" s="29"/>
+      <c r="AJ25" s="30"/>
+      <c r="AK25" s="9" t="s">
         <v>78</v>
       </c>
-      <c r="AL25" s="29" t="s">
+      <c r="AL25" s="10" t="s">
         <v>79</v>
       </c>
-      <c r="AM25" s="29" t="s">
+      <c r="AM25" s="10" t="s">
         <v>80</v>
       </c>
-      <c r="AN25" s="50"/>
+      <c r="AN25" s="22"/>
     </row>
-    <row r="26" ht="63" customHeight="1" spans="4:40">
-      <c r="D26" s="32"/>
-      <c r="E26" s="32"/>
-      <c r="F26" s="32"/>
-      <c r="G26" s="32"/>
-      <c r="H26" s="32"/>
-      <c r="I26" s="32"/>
-      <c r="J26" s="32"/>
-      <c r="K26" s="32"/>
-      <c r="L26" s="32"/>
-      <c r="M26" s="32" t="s">
+    <row r="26" spans="4:40" ht="63" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D26" s="31"/>
+      <c r="E26" s="31"/>
+      <c r="F26" s="31"/>
+      <c r="G26" s="31"/>
+      <c r="H26" s="31"/>
+      <c r="I26" s="31"/>
+      <c r="J26" s="31"/>
+      <c r="K26" s="31"/>
+      <c r="L26" s="31"/>
+      <c r="M26" s="31" t="s">
         <v>51</v>
       </c>
-      <c r="N26" s="32"/>
-      <c r="O26" s="32"/>
-      <c r="P26" s="32"/>
-      <c r="Q26" s="16" t="s">
+      <c r="N26" s="31"/>
+      <c r="O26" s="31"/>
+      <c r="P26" s="31"/>
+      <c r="Q26" s="27" t="s">
         <v>81</v>
       </c>
-      <c r="R26" s="16"/>
-      <c r="S26" s="16"/>
-      <c r="T26" s="16"/>
-      <c r="U26" s="34" t="s">
+      <c r="R26" s="27"/>
+      <c r="S26" s="27"/>
+      <c r="T26" s="27"/>
+      <c r="U26" s="28" t="s">
         <v>39</v>
       </c>
-      <c r="V26" s="35"/>
-      <c r="W26" s="35"/>
-      <c r="X26" s="35"/>
-      <c r="Y26" s="35"/>
-      <c r="Z26" s="35"/>
-      <c r="AA26" s="36"/>
-      <c r="AB26" s="32" t="s">
+      <c r="V26" s="29"/>
+      <c r="W26" s="29"/>
+      <c r="X26" s="29"/>
+      <c r="Y26" s="29"/>
+      <c r="Z26" s="29"/>
+      <c r="AA26" s="30"/>
+      <c r="AB26" s="11" t="s">
         <v>54</v>
       </c>
-      <c r="AC26" s="16" t="s">
+      <c r="AC26" s="27" t="s">
         <v>55</v>
       </c>
-      <c r="AD26" s="16"/>
-      <c r="AE26" s="16"/>
-      <c r="AF26" s="16"/>
-      <c r="AG26" s="16"/>
-      <c r="AH26" s="16"/>
-      <c r="AI26" s="16"/>
-      <c r="AJ26" s="16"/>
-      <c r="AK26" s="44" t="s">
+      <c r="AD26" s="27"/>
+      <c r="AE26" s="27"/>
+      <c r="AF26" s="27"/>
+      <c r="AG26" s="27"/>
+      <c r="AH26" s="27"/>
+      <c r="AI26" s="27"/>
+      <c r="AJ26" s="27"/>
+      <c r="AK26" s="16" t="s">
         <v>82</v>
       </c>
-      <c r="AL26" s="29" t="s">
+      <c r="AL26" s="10" t="s">
         <v>83</v>
       </c>
-      <c r="AM26" s="29" t="s">
+      <c r="AM26" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="AN26" s="50"/>
+      <c r="AN26" s="22"/>
     </row>
-    <row r="27" ht="63" customHeight="1" spans="4:40">
-      <c r="D27" s="32"/>
-      <c r="E27" s="32"/>
-      <c r="F27" s="32"/>
-      <c r="G27" s="32"/>
-      <c r="H27" s="32"/>
-      <c r="I27" s="32"/>
-      <c r="J27" s="32"/>
-      <c r="K27" s="32"/>
-      <c r="L27" s="32"/>
-      <c r="M27" s="32"/>
-      <c r="N27" s="32"/>
-      <c r="O27" s="32"/>
-      <c r="P27" s="32"/>
-      <c r="Q27" s="16" t="s">
+    <row r="27" spans="4:40" ht="63" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D27" s="31"/>
+      <c r="E27" s="31"/>
+      <c r="F27" s="31"/>
+      <c r="G27" s="31"/>
+      <c r="H27" s="31"/>
+      <c r="I27" s="31"/>
+      <c r="J27" s="31"/>
+      <c r="K27" s="31"/>
+      <c r="L27" s="31"/>
+      <c r="M27" s="31"/>
+      <c r="N27" s="31"/>
+      <c r="O27" s="31"/>
+      <c r="P27" s="31"/>
+      <c r="Q27" s="27" t="s">
         <v>84</v>
       </c>
-      <c r="R27" s="16"/>
-      <c r="S27" s="16"/>
-      <c r="T27" s="16"/>
-      <c r="U27" s="34" t="s">
+      <c r="R27" s="27"/>
+      <c r="S27" s="27"/>
+      <c r="T27" s="27"/>
+      <c r="U27" s="28" t="s">
         <v>39</v>
       </c>
-      <c r="V27" s="35"/>
-      <c r="W27" s="35"/>
-      <c r="X27" s="35"/>
-      <c r="Y27" s="35"/>
-      <c r="Z27" s="35"/>
-      <c r="AA27" s="36"/>
-      <c r="AB27" s="32" t="s">
+      <c r="V27" s="29"/>
+      <c r="W27" s="29"/>
+      <c r="X27" s="29"/>
+      <c r="Y27" s="29"/>
+      <c r="Z27" s="29"/>
+      <c r="AA27" s="30"/>
+      <c r="AB27" s="11" t="s">
         <v>54</v>
       </c>
-      <c r="AC27" s="16" t="s">
+      <c r="AC27" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="AD27" s="34" t="s">
+      <c r="AD27" s="28" t="s">
         <v>60</v>
       </c>
-      <c r="AE27" s="35"/>
-      <c r="AF27" s="35"/>
-      <c r="AG27" s="35"/>
-      <c r="AH27" s="35"/>
-      <c r="AI27" s="35"/>
-      <c r="AJ27" s="36"/>
-      <c r="AK27" s="27" t="s">
+      <c r="AE27" s="29"/>
+      <c r="AF27" s="29"/>
+      <c r="AG27" s="29"/>
+      <c r="AH27" s="29"/>
+      <c r="AI27" s="29"/>
+      <c r="AJ27" s="30"/>
+      <c r="AK27" s="9" t="s">
         <v>85</v>
       </c>
-      <c r="AL27" s="29" t="s">
+      <c r="AL27" s="10" t="s">
         <v>86</v>
       </c>
-      <c r="AM27" s="29" t="s">
+      <c r="AM27" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="AN27" s="50"/>
+      <c r="AN27" s="22"/>
     </row>
-    <row r="28" ht="63" customHeight="1" spans="4:40">
-      <c r="D28" s="32"/>
-      <c r="E28" s="32"/>
-      <c r="F28" s="32"/>
-      <c r="G28" s="32"/>
-      <c r="H28" s="32"/>
-      <c r="I28" s="32"/>
-      <c r="J28" s="32"/>
-      <c r="K28" s="32"/>
-      <c r="L28" s="32"/>
-      <c r="M28" s="32" t="s">
+    <row r="28" spans="4:40" ht="63" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D28" s="31"/>
+      <c r="E28" s="31"/>
+      <c r="F28" s="31"/>
+      <c r="G28" s="31"/>
+      <c r="H28" s="31"/>
+      <c r="I28" s="31"/>
+      <c r="J28" s="31"/>
+      <c r="K28" s="31"/>
+      <c r="L28" s="31"/>
+      <c r="M28" s="31" t="s">
         <v>39</v>
       </c>
-      <c r="N28" s="32"/>
-      <c r="O28" s="32" t="s">
+      <c r="N28" s="31"/>
+      <c r="O28" s="31" t="s">
         <v>87</v>
       </c>
-      <c r="P28" s="32"/>
-      <c r="Q28" s="16" t="s">
+      <c r="P28" s="31"/>
+      <c r="Q28" s="27" t="s">
         <v>88</v>
       </c>
-      <c r="R28" s="16"/>
-      <c r="S28" s="16"/>
-      <c r="T28" s="16"/>
-      <c r="U28" s="34" t="s">
+      <c r="R28" s="27"/>
+      <c r="S28" s="27"/>
+      <c r="T28" s="27"/>
+      <c r="U28" s="28" t="s">
         <v>39</v>
       </c>
-      <c r="V28" s="35"/>
-      <c r="W28" s="35"/>
-      <c r="X28" s="35"/>
-      <c r="Y28" s="35"/>
-      <c r="Z28" s="35"/>
-      <c r="AA28" s="36"/>
-      <c r="AB28" s="16" t="s">
+      <c r="V28" s="29"/>
+      <c r="W28" s="29"/>
+      <c r="X28" s="29"/>
+      <c r="Y28" s="29"/>
+      <c r="Z28" s="29"/>
+      <c r="AA28" s="30"/>
+      <c r="AB28" s="5" t="s">
         <v>89</v>
       </c>
-      <c r="AC28" s="16" t="s">
+      <c r="AC28" s="27" t="s">
         <v>39</v>
       </c>
-      <c r="AD28" s="16"/>
-      <c r="AE28" s="34" t="s">
+      <c r="AD28" s="27"/>
+      <c r="AE28" s="28" t="s">
         <v>60</v>
       </c>
-      <c r="AF28" s="35"/>
-      <c r="AG28" s="35"/>
-      <c r="AH28" s="35"/>
-      <c r="AI28" s="35"/>
-      <c r="AJ28" s="36"/>
-      <c r="AK28" s="27" t="s">
+      <c r="AF28" s="29"/>
+      <c r="AG28" s="29"/>
+      <c r="AH28" s="29"/>
+      <c r="AI28" s="29"/>
+      <c r="AJ28" s="30"/>
+      <c r="AK28" s="9" t="s">
         <v>90</v>
       </c>
-      <c r="AL28" s="29" t="s">
+      <c r="AL28" s="10" t="s">
         <v>91</v>
       </c>
-      <c r="AM28" s="29" t="s">
+      <c r="AM28" s="10" t="s">
         <v>92</v>
       </c>
-      <c r="AN28" s="50"/>
+      <c r="AN28" s="22"/>
     </row>
-    <row r="29" spans="4:38">
-      <c r="D29" s="48"/>
-      <c r="E29" s="48"/>
-      <c r="F29" s="48"/>
-      <c r="G29" s="48"/>
-      <c r="H29" s="48"/>
-      <c r="I29" s="48"/>
-      <c r="J29" s="48"/>
-      <c r="K29" s="48"/>
-      <c r="L29" s="48"/>
-      <c r="M29" s="48"/>
-      <c r="N29" s="48"/>
-      <c r="O29" s="48"/>
-      <c r="P29" s="48"/>
-      <c r="Q29" s="48"/>
-      <c r="R29" s="48"/>
-      <c r="S29" s="48"/>
-      <c r="T29" s="48"/>
-      <c r="U29" s="48"/>
-      <c r="V29" s="48"/>
-      <c r="W29" s="48"/>
-      <c r="X29" s="48"/>
-      <c r="Y29" s="48"/>
-      <c r="Z29" s="48"/>
-      <c r="AA29" s="48"/>
-      <c r="AB29" s="48"/>
-      <c r="AC29" s="48"/>
-      <c r="AD29" s="48"/>
-      <c r="AE29" s="48"/>
-      <c r="AF29" s="48"/>
-      <c r="AG29" s="48"/>
-      <c r="AH29" s="48"/>
-      <c r="AI29" s="48"/>
-      <c r="AJ29" s="48"/>
-      <c r="AK29" s="48"/>
-      <c r="AL29" s="48"/>
+    <row r="29" spans="4:40" x14ac:dyDescent="0.2">
+      <c r="D29" s="20"/>
+      <c r="E29" s="20"/>
+      <c r="F29" s="20"/>
+      <c r="G29" s="20"/>
+      <c r="H29" s="20"/>
+      <c r="I29" s="20"/>
+      <c r="J29" s="20"/>
+      <c r="K29" s="20"/>
+      <c r="L29" s="20"/>
+      <c r="M29" s="20"/>
+      <c r="N29" s="20"/>
+      <c r="O29" s="20"/>
+      <c r="P29" s="20"/>
+      <c r="Q29" s="20"/>
+      <c r="R29" s="20"/>
+      <c r="S29" s="20"/>
+      <c r="T29" s="20"/>
+      <c r="U29" s="20"/>
+      <c r="V29" s="20"/>
+      <c r="W29" s="20"/>
+      <c r="X29" s="20"/>
+      <c r="Y29" s="20"/>
+      <c r="Z29" s="20"/>
+      <c r="AA29" s="20"/>
+      <c r="AB29" s="20"/>
+      <c r="AC29" s="20"/>
+      <c r="AD29" s="20"/>
+      <c r="AE29" s="20"/>
+      <c r="AF29" s="20"/>
+      <c r="AG29" s="20"/>
+      <c r="AH29" s="20"/>
+      <c r="AI29" s="20"/>
+      <c r="AJ29" s="20"/>
+      <c r="AK29" s="20"/>
+      <c r="AL29" s="20"/>
     </row>
-    <row r="30" spans="4:38">
-      <c r="D30" s="48"/>
-      <c r="E30" s="48"/>
-      <c r="F30" s="48"/>
-      <c r="G30" s="48"/>
-      <c r="H30" s="48"/>
-      <c r="I30" s="48"/>
-      <c r="J30" s="48"/>
-      <c r="K30" s="48"/>
-      <c r="L30" s="48"/>
-      <c r="M30" s="48"/>
-      <c r="N30" s="48"/>
-      <c r="O30" s="48"/>
-      <c r="P30" s="48"/>
-      <c r="Q30" s="48"/>
-      <c r="R30" s="48"/>
-      <c r="S30" s="48"/>
-      <c r="T30" s="48"/>
-      <c r="U30" s="48"/>
-      <c r="V30" s="48"/>
-      <c r="W30" s="48"/>
-      <c r="X30" s="48"/>
-      <c r="Y30" s="48"/>
-      <c r="Z30" s="48"/>
-      <c r="AA30" s="48"/>
-      <c r="AB30" s="48"/>
-      <c r="AC30" s="48"/>
-      <c r="AD30" s="48"/>
-      <c r="AE30" s="48"/>
-      <c r="AF30" s="48"/>
-      <c r="AG30" s="48"/>
-      <c r="AH30" s="48"/>
-      <c r="AI30" s="48"/>
-      <c r="AJ30" s="48"/>
-      <c r="AK30" s="48"/>
-      <c r="AL30" s="48"/>
+    <row r="30" spans="4:40" x14ac:dyDescent="0.2">
+      <c r="D30" s="20"/>
+      <c r="E30" s="20"/>
+      <c r="F30" s="20"/>
+      <c r="G30" s="20"/>
+      <c r="H30" s="20"/>
+      <c r="I30" s="20"/>
+      <c r="J30" s="20"/>
+      <c r="K30" s="20"/>
+      <c r="L30" s="20"/>
+      <c r="M30" s="20"/>
+      <c r="N30" s="20"/>
+      <c r="O30" s="20"/>
+      <c r="P30" s="20"/>
+      <c r="Q30" s="20"/>
+      <c r="R30" s="20"/>
+      <c r="S30" s="20"/>
+      <c r="T30" s="20"/>
+      <c r="U30" s="20"/>
+      <c r="V30" s="20"/>
+      <c r="W30" s="20"/>
+      <c r="X30" s="20"/>
+      <c r="Y30" s="20"/>
+      <c r="Z30" s="20"/>
+      <c r="AA30" s="20"/>
+      <c r="AB30" s="20"/>
+      <c r="AC30" s="20"/>
+      <c r="AD30" s="20"/>
+      <c r="AE30" s="20"/>
+      <c r="AF30" s="20"/>
+      <c r="AG30" s="20"/>
+      <c r="AH30" s="20"/>
+      <c r="AI30" s="20"/>
+      <c r="AJ30" s="20"/>
+      <c r="AK30" s="20"/>
+      <c r="AL30" s="20"/>
     </row>
-    <row r="31" spans="4:38">
-      <c r="D31" s="48"/>
-      <c r="E31" s="48"/>
-      <c r="F31" s="48"/>
-      <c r="G31" s="48"/>
-      <c r="H31" s="48"/>
-      <c r="I31" s="48"/>
-      <c r="J31" s="48"/>
-      <c r="K31" s="48"/>
-      <c r="L31" s="48"/>
-      <c r="M31" s="48"/>
-      <c r="N31" s="48"/>
-      <c r="O31" s="48"/>
-      <c r="P31" s="48"/>
-      <c r="Q31" s="48"/>
-      <c r="R31" s="48"/>
-      <c r="S31" s="48"/>
-      <c r="T31" s="48"/>
-      <c r="U31" s="48"/>
-      <c r="V31" s="48"/>
-      <c r="W31" s="48"/>
-      <c r="X31" s="48"/>
-      <c r="Y31" s="48"/>
-      <c r="Z31" s="48"/>
-      <c r="AA31" s="48"/>
-      <c r="AB31" s="48"/>
-      <c r="AC31" s="48"/>
-      <c r="AD31" s="48"/>
-      <c r="AE31" s="48"/>
-      <c r="AF31" s="48"/>
-      <c r="AG31" s="48"/>
-      <c r="AH31" s="48"/>
-      <c r="AI31" s="48"/>
-      <c r="AJ31" s="48"/>
-      <c r="AK31" s="48"/>
-      <c r="AL31" s="48"/>
+    <row r="31" spans="4:40" x14ac:dyDescent="0.2">
+      <c r="D31" s="20"/>
+      <c r="E31" s="20"/>
+      <c r="F31" s="20"/>
+      <c r="G31" s="20"/>
+      <c r="H31" s="20"/>
+      <c r="I31" s="20"/>
+      <c r="J31" s="20"/>
+      <c r="K31" s="20"/>
+      <c r="L31" s="20"/>
+      <c r="M31" s="20"/>
+      <c r="N31" s="20"/>
+      <c r="O31" s="20"/>
+      <c r="P31" s="20"/>
+      <c r="Q31" s="20"/>
+      <c r="R31" s="20"/>
+      <c r="S31" s="20"/>
+      <c r="T31" s="20"/>
+      <c r="U31" s="20"/>
+      <c r="V31" s="20"/>
+      <c r="W31" s="20"/>
+      <c r="X31" s="20"/>
+      <c r="Y31" s="20"/>
+      <c r="Z31" s="20"/>
+      <c r="AA31" s="20"/>
+      <c r="AB31" s="20"/>
+      <c r="AC31" s="20"/>
+      <c r="AD31" s="20"/>
+      <c r="AE31" s="20"/>
+      <c r="AF31" s="20"/>
+      <c r="AG31" s="20"/>
+      <c r="AH31" s="20"/>
+      <c r="AI31" s="20"/>
+      <c r="AJ31" s="20"/>
+      <c r="AK31" s="20"/>
+      <c r="AL31" s="20"/>
     </row>
-    <row r="32" spans="4:38">
-      <c r="D32" s="48"/>
-      <c r="E32" s="48"/>
-      <c r="F32" s="48"/>
-      <c r="G32" s="48"/>
-      <c r="H32" s="48"/>
-      <c r="I32" s="48"/>
-      <c r="J32" s="48"/>
-      <c r="K32" s="48"/>
-      <c r="L32" s="48"/>
-      <c r="M32" s="48"/>
-      <c r="N32" s="48"/>
-      <c r="O32" s="48"/>
-      <c r="P32" s="48"/>
-      <c r="Q32" s="48"/>
-      <c r="R32" s="48"/>
-      <c r="S32" s="48"/>
-      <c r="T32" s="48"/>
-      <c r="U32" s="48"/>
-      <c r="V32" s="48"/>
-      <c r="W32" s="48"/>
-      <c r="X32" s="48"/>
-      <c r="Y32" s="48"/>
-      <c r="Z32" s="48"/>
-      <c r="AA32" s="48"/>
-      <c r="AB32" s="48"/>
-      <c r="AC32" s="48"/>
-      <c r="AD32" s="48"/>
-      <c r="AE32" s="48"/>
-      <c r="AF32" s="48"/>
-      <c r="AG32" s="48"/>
-      <c r="AH32" s="48"/>
-      <c r="AI32" s="48"/>
-      <c r="AJ32" s="48"/>
-      <c r="AK32" s="48"/>
-      <c r="AL32" s="48"/>
+    <row r="32" spans="4:40" x14ac:dyDescent="0.2">
+      <c r="D32" s="20"/>
+      <c r="E32" s="20"/>
+      <c r="F32" s="20"/>
+      <c r="G32" s="20"/>
+      <c r="H32" s="20"/>
+      <c r="I32" s="20"/>
+      <c r="J32" s="20"/>
+      <c r="K32" s="20"/>
+      <c r="L32" s="20"/>
+      <c r="M32" s="20"/>
+      <c r="N32" s="20"/>
+      <c r="O32" s="20"/>
+      <c r="P32" s="20"/>
+      <c r="Q32" s="20"/>
+      <c r="R32" s="20"/>
+      <c r="S32" s="20"/>
+      <c r="T32" s="20"/>
+      <c r="U32" s="20"/>
+      <c r="V32" s="20"/>
+      <c r="W32" s="20"/>
+      <c r="X32" s="20"/>
+      <c r="Y32" s="20"/>
+      <c r="Z32" s="20"/>
+      <c r="AA32" s="20"/>
+      <c r="AB32" s="20"/>
+      <c r="AC32" s="20"/>
+      <c r="AD32" s="20"/>
+      <c r="AE32" s="20"/>
+      <c r="AF32" s="20"/>
+      <c r="AG32" s="20"/>
+      <c r="AH32" s="20"/>
+      <c r="AI32" s="20"/>
+      <c r="AJ32" s="20"/>
+      <c r="AK32" s="20"/>
+      <c r="AL32" s="20"/>
     </row>
-    <row r="33" spans="4:38">
-      <c r="D33" s="48"/>
-      <c r="E33" s="48"/>
-      <c r="F33" s="48"/>
-      <c r="G33" s="48"/>
-      <c r="H33" s="48"/>
-      <c r="I33" s="48"/>
-      <c r="J33" s="48"/>
-      <c r="K33" s="48"/>
-      <c r="L33" s="48"/>
-      <c r="M33" s="48"/>
-      <c r="N33" s="48"/>
-      <c r="O33" s="48"/>
-      <c r="P33" s="48"/>
-      <c r="Q33" s="48"/>
-      <c r="R33" s="48"/>
-      <c r="S33" s="48"/>
-      <c r="T33" s="48"/>
-      <c r="U33" s="48"/>
-      <c r="V33" s="48"/>
-      <c r="W33" s="48"/>
-      <c r="X33" s="48"/>
-      <c r="Y33" s="48"/>
-      <c r="Z33" s="48"/>
-      <c r="AA33" s="48"/>
-      <c r="AB33" s="48"/>
-      <c r="AC33" s="48"/>
-      <c r="AD33" s="48"/>
-      <c r="AE33" s="48"/>
-      <c r="AF33" s="48"/>
-      <c r="AG33" s="48"/>
-      <c r="AH33" s="48"/>
-      <c r="AI33" s="48"/>
-      <c r="AJ33" s="48"/>
-      <c r="AK33" s="48"/>
-      <c r="AL33" s="48"/>
+    <row r="33" spans="4:38" x14ac:dyDescent="0.2">
+      <c r="D33" s="20"/>
+      <c r="E33" s="20"/>
+      <c r="F33" s="20"/>
+      <c r="G33" s="20"/>
+      <c r="H33" s="20"/>
+      <c r="I33" s="20"/>
+      <c r="J33" s="20"/>
+      <c r="K33" s="20"/>
+      <c r="L33" s="20"/>
+      <c r="M33" s="20"/>
+      <c r="N33" s="20"/>
+      <c r="O33" s="20"/>
+      <c r="P33" s="20"/>
+      <c r="Q33" s="20"/>
+      <c r="R33" s="20"/>
+      <c r="S33" s="20"/>
+      <c r="T33" s="20"/>
+      <c r="U33" s="20"/>
+      <c r="V33" s="20"/>
+      <c r="W33" s="20"/>
+      <c r="X33" s="20"/>
+      <c r="Y33" s="20"/>
+      <c r="Z33" s="20"/>
+      <c r="AA33" s="20"/>
+      <c r="AB33" s="20"/>
+      <c r="AC33" s="20"/>
+      <c r="AD33" s="20"/>
+      <c r="AE33" s="20"/>
+      <c r="AF33" s="20"/>
+      <c r="AG33" s="20"/>
+      <c r="AH33" s="20"/>
+      <c r="AI33" s="20"/>
+      <c r="AJ33" s="20"/>
+      <c r="AK33" s="20"/>
+      <c r="AL33" s="20"/>
     </row>
-    <row r="34" spans="4:38">
-      <c r="D34" s="48"/>
-      <c r="E34" s="48"/>
-      <c r="F34" s="48"/>
-      <c r="G34" s="48"/>
-      <c r="H34" s="48"/>
-      <c r="I34" s="48"/>
-      <c r="J34" s="48"/>
-      <c r="K34" s="48"/>
-      <c r="L34" s="48"/>
-      <c r="M34" s="48"/>
-      <c r="N34" s="48"/>
-      <c r="O34" s="48"/>
-      <c r="P34" s="48"/>
-      <c r="Q34" s="48"/>
-      <c r="R34" s="48"/>
-      <c r="S34" s="48"/>
-      <c r="T34" s="48"/>
-      <c r="U34" s="48"/>
-      <c r="V34" s="48"/>
-      <c r="W34" s="48"/>
-      <c r="X34" s="48"/>
-      <c r="Y34" s="48"/>
-      <c r="Z34" s="48"/>
-      <c r="AA34" s="48"/>
-      <c r="AB34" s="48"/>
-      <c r="AC34" s="48"/>
-      <c r="AD34" s="48"/>
-      <c r="AE34" s="48"/>
-      <c r="AF34" s="48"/>
-      <c r="AG34" s="48"/>
-      <c r="AH34" s="48"/>
-      <c r="AI34" s="48"/>
-      <c r="AJ34" s="48"/>
-      <c r="AK34" s="48"/>
-      <c r="AL34" s="48"/>
+    <row r="34" spans="4:38" x14ac:dyDescent="0.2">
+      <c r="D34" s="20"/>
+      <c r="E34" s="20"/>
+      <c r="F34" s="20"/>
+      <c r="G34" s="20"/>
+      <c r="H34" s="20"/>
+      <c r="I34" s="20"/>
+      <c r="J34" s="20"/>
+      <c r="K34" s="20"/>
+      <c r="L34" s="20"/>
+      <c r="M34" s="20"/>
+      <c r="N34" s="20"/>
+      <c r="O34" s="20"/>
+      <c r="P34" s="20"/>
+      <c r="Q34" s="20"/>
+      <c r="R34" s="20"/>
+      <c r="S34" s="20"/>
+      <c r="T34" s="20"/>
+      <c r="U34" s="20"/>
+      <c r="V34" s="20"/>
+      <c r="W34" s="20"/>
+      <c r="X34" s="20"/>
+      <c r="Y34" s="20"/>
+      <c r="Z34" s="20"/>
+      <c r="AA34" s="20"/>
+      <c r="AB34" s="20"/>
+      <c r="AC34" s="20"/>
+      <c r="AD34" s="20"/>
+      <c r="AE34" s="20"/>
+      <c r="AF34" s="20"/>
+      <c r="AG34" s="20"/>
+      <c r="AH34" s="20"/>
+      <c r="AI34" s="20"/>
+      <c r="AJ34" s="20"/>
+      <c r="AK34" s="20"/>
+      <c r="AL34" s="20"/>
     </row>
-    <row r="35" spans="4:38">
-      <c r="D35" s="48"/>
-      <c r="E35" s="48"/>
-      <c r="F35" s="48"/>
-      <c r="G35" s="48"/>
-      <c r="H35" s="48"/>
-      <c r="I35" s="48"/>
-      <c r="J35" s="48"/>
-      <c r="K35" s="48"/>
-      <c r="L35" s="48"/>
-      <c r="M35" s="48"/>
-      <c r="N35" s="48"/>
-      <c r="O35" s="48"/>
-      <c r="P35" s="48"/>
-      <c r="Q35" s="48"/>
-      <c r="R35" s="48"/>
-      <c r="S35" s="48"/>
-      <c r="T35" s="48"/>
-      <c r="U35" s="48"/>
-      <c r="V35" s="48"/>
-      <c r="W35" s="48"/>
-      <c r="X35" s="48"/>
-      <c r="Y35" s="48"/>
-      <c r="Z35" s="48"/>
-      <c r="AA35" s="48"/>
-      <c r="AB35" s="48"/>
-      <c r="AC35" s="48"/>
-      <c r="AD35" s="48"/>
-      <c r="AE35" s="48"/>
-      <c r="AF35" s="48"/>
-      <c r="AG35" s="48"/>
-      <c r="AH35" s="48"/>
-      <c r="AI35" s="48"/>
-      <c r="AJ35" s="48"/>
-      <c r="AK35" s="48"/>
-      <c r="AL35" s="48"/>
+    <row r="35" spans="4:38" x14ac:dyDescent="0.2">
+      <c r="D35" s="20"/>
+      <c r="E35" s="20"/>
+      <c r="F35" s="20"/>
+      <c r="G35" s="20"/>
+      <c r="H35" s="20"/>
+      <c r="I35" s="20"/>
+      <c r="J35" s="20"/>
+      <c r="K35" s="20"/>
+      <c r="L35" s="20"/>
+      <c r="M35" s="20"/>
+      <c r="N35" s="20"/>
+      <c r="O35" s="20"/>
+      <c r="P35" s="20"/>
+      <c r="Q35" s="20"/>
+      <c r="R35" s="20"/>
+      <c r="S35" s="20"/>
+      <c r="T35" s="20"/>
+      <c r="U35" s="20"/>
+      <c r="V35" s="20"/>
+      <c r="W35" s="20"/>
+      <c r="X35" s="20"/>
+      <c r="Y35" s="20"/>
+      <c r="Z35" s="20"/>
+      <c r="AA35" s="20"/>
+      <c r="AB35" s="20"/>
+      <c r="AC35" s="20"/>
+      <c r="AD35" s="20"/>
+      <c r="AE35" s="20"/>
+      <c r="AF35" s="20"/>
+      <c r="AG35" s="20"/>
+      <c r="AH35" s="20"/>
+      <c r="AI35" s="20"/>
+      <c r="AJ35" s="20"/>
+      <c r="AK35" s="20"/>
+      <c r="AL35" s="20"/>
     </row>
-    <row r="36" spans="4:38">
-      <c r="D36" s="48"/>
-      <c r="E36" s="48"/>
-      <c r="F36" s="48"/>
-      <c r="G36" s="48"/>
-      <c r="H36" s="48"/>
-      <c r="I36" s="48"/>
-      <c r="J36" s="48"/>
-      <c r="K36" s="48"/>
-      <c r="L36" s="48"/>
-      <c r="M36" s="48"/>
-      <c r="N36" s="48"/>
-      <c r="O36" s="48"/>
-      <c r="P36" s="48"/>
-      <c r="Q36" s="48"/>
-      <c r="R36" s="48"/>
-      <c r="S36" s="48"/>
-      <c r="T36" s="48"/>
-      <c r="U36" s="48"/>
-      <c r="V36" s="48"/>
-      <c r="W36" s="48"/>
-      <c r="X36" s="48"/>
-      <c r="Y36" s="48"/>
-      <c r="Z36" s="48"/>
-      <c r="AA36" s="48"/>
-      <c r="AB36" s="48"/>
-      <c r="AC36" s="48"/>
-      <c r="AD36" s="48"/>
-      <c r="AE36" s="48"/>
-      <c r="AF36" s="48"/>
-      <c r="AG36" s="48"/>
-      <c r="AH36" s="48"/>
-      <c r="AI36" s="48"/>
-      <c r="AJ36" s="48"/>
-      <c r="AK36" s="48"/>
-      <c r="AL36" s="48"/>
+    <row r="36" spans="4:38" x14ac:dyDescent="0.2">
+      <c r="D36" s="20"/>
+      <c r="E36" s="20"/>
+      <c r="F36" s="20"/>
+      <c r="G36" s="20"/>
+      <c r="H36" s="20"/>
+      <c r="I36" s="20"/>
+      <c r="J36" s="20"/>
+      <c r="K36" s="20"/>
+      <c r="L36" s="20"/>
+      <c r="M36" s="20"/>
+      <c r="N36" s="20"/>
+      <c r="O36" s="20"/>
+      <c r="P36" s="20"/>
+      <c r="Q36" s="20"/>
+      <c r="R36" s="20"/>
+      <c r="S36" s="20"/>
+      <c r="T36" s="20"/>
+      <c r="U36" s="20"/>
+      <c r="V36" s="20"/>
+      <c r="W36" s="20"/>
+      <c r="X36" s="20"/>
+      <c r="Y36" s="20"/>
+      <c r="Z36" s="20"/>
+      <c r="AA36" s="20"/>
+      <c r="AB36" s="20"/>
+      <c r="AC36" s="20"/>
+      <c r="AD36" s="20"/>
+      <c r="AE36" s="20"/>
+      <c r="AF36" s="20"/>
+      <c r="AG36" s="20"/>
+      <c r="AH36" s="20"/>
+      <c r="AI36" s="20"/>
+      <c r="AJ36" s="20"/>
+      <c r="AK36" s="20"/>
+      <c r="AL36" s="20"/>
     </row>
-    <row r="37" spans="4:38">
-      <c r="D37" s="48"/>
-      <c r="E37" s="48"/>
-      <c r="F37" s="48"/>
-      <c r="G37" s="48"/>
-      <c r="H37" s="48"/>
-      <c r="I37" s="48"/>
-      <c r="J37" s="48"/>
-      <c r="K37" s="48"/>
-      <c r="L37" s="48"/>
-      <c r="M37" s="48"/>
-      <c r="N37" s="48"/>
-      <c r="O37" s="48"/>
-      <c r="P37" s="48"/>
-      <c r="Q37" s="48"/>
-      <c r="R37" s="48"/>
-      <c r="S37" s="48"/>
-      <c r="T37" s="48"/>
-      <c r="U37" s="48"/>
-      <c r="V37" s="48"/>
-      <c r="W37" s="48"/>
-      <c r="X37" s="48"/>
-      <c r="Y37" s="48"/>
-      <c r="Z37" s="48"/>
-      <c r="AA37" s="48"/>
-      <c r="AB37" s="48"/>
-      <c r="AC37" s="48"/>
-      <c r="AD37" s="48"/>
-      <c r="AE37" s="48"/>
-      <c r="AF37" s="48"/>
-      <c r="AG37" s="48"/>
-      <c r="AH37" s="48"/>
-      <c r="AI37" s="48"/>
-      <c r="AJ37" s="48"/>
-      <c r="AK37" s="48"/>
-      <c r="AL37" s="48"/>
+    <row r="37" spans="4:38" x14ac:dyDescent="0.2">
+      <c r="D37" s="20"/>
+      <c r="E37" s="20"/>
+      <c r="F37" s="20"/>
+      <c r="G37" s="20"/>
+      <c r="H37" s="20"/>
+      <c r="I37" s="20"/>
+      <c r="J37" s="20"/>
+      <c r="K37" s="20"/>
+      <c r="L37" s="20"/>
+      <c r="M37" s="20"/>
+      <c r="N37" s="20"/>
+      <c r="O37" s="20"/>
+      <c r="P37" s="20"/>
+      <c r="Q37" s="20"/>
+      <c r="R37" s="20"/>
+      <c r="S37" s="20"/>
+      <c r="T37" s="20"/>
+      <c r="U37" s="20"/>
+      <c r="V37" s="20"/>
+      <c r="W37" s="20"/>
+      <c r="X37" s="20"/>
+      <c r="Y37" s="20"/>
+      <c r="Z37" s="20"/>
+      <c r="AA37" s="20"/>
+      <c r="AB37" s="20"/>
+      <c r="AC37" s="20"/>
+      <c r="AD37" s="20"/>
+      <c r="AE37" s="20"/>
+      <c r="AF37" s="20"/>
+      <c r="AG37" s="20"/>
+      <c r="AH37" s="20"/>
+      <c r="AI37" s="20"/>
+      <c r="AJ37" s="20"/>
+      <c r="AK37" s="20"/>
+      <c r="AL37" s="20"/>
     </row>
-    <row r="38" spans="4:38">
-      <c r="D38" s="48"/>
-      <c r="E38" s="48"/>
-      <c r="F38" s="48"/>
-      <c r="G38" s="48"/>
-      <c r="H38" s="48"/>
-      <c r="I38" s="48"/>
-      <c r="J38" s="48"/>
-      <c r="K38" s="48"/>
-      <c r="L38" s="48"/>
-      <c r="M38" s="48"/>
-      <c r="N38" s="48"/>
-      <c r="O38" s="48"/>
-      <c r="P38" s="48"/>
-      <c r="Q38" s="48"/>
-      <c r="R38" s="48"/>
-      <c r="S38" s="48"/>
-      <c r="T38" s="48"/>
-      <c r="U38" s="48"/>
-      <c r="V38" s="48"/>
-      <c r="W38" s="48"/>
-      <c r="X38" s="48"/>
-      <c r="Y38" s="48"/>
-      <c r="Z38" s="48"/>
-      <c r="AA38" s="48"/>
-      <c r="AB38" s="48"/>
-      <c r="AC38" s="48"/>
-      <c r="AD38" s="48"/>
-      <c r="AE38" s="48"/>
-      <c r="AF38" s="48"/>
-      <c r="AG38" s="48"/>
-      <c r="AH38" s="48"/>
-      <c r="AI38" s="48"/>
-      <c r="AJ38" s="48"/>
-      <c r="AK38" s="48"/>
-      <c r="AL38" s="48"/>
+    <row r="38" spans="4:38" x14ac:dyDescent="0.2">
+      <c r="D38" s="20"/>
+      <c r="E38" s="20"/>
+      <c r="F38" s="20"/>
+      <c r="G38" s="20"/>
+      <c r="H38" s="20"/>
+      <c r="I38" s="20"/>
+      <c r="J38" s="20"/>
+      <c r="K38" s="20"/>
+      <c r="L38" s="20"/>
+      <c r="M38" s="20"/>
+      <c r="N38" s="20"/>
+      <c r="O38" s="20"/>
+      <c r="P38" s="20"/>
+      <c r="Q38" s="20"/>
+      <c r="R38" s="20"/>
+      <c r="S38" s="20"/>
+      <c r="T38" s="20"/>
+      <c r="U38" s="20"/>
+      <c r="V38" s="20"/>
+      <c r="W38" s="20"/>
+      <c r="X38" s="20"/>
+      <c r="Y38" s="20"/>
+      <c r="Z38" s="20"/>
+      <c r="AA38" s="20"/>
+      <c r="AB38" s="20"/>
+      <c r="AC38" s="20"/>
+      <c r="AD38" s="20"/>
+      <c r="AE38" s="20"/>
+      <c r="AF38" s="20"/>
+      <c r="AG38" s="20"/>
+      <c r="AH38" s="20"/>
+      <c r="AI38" s="20"/>
+      <c r="AJ38" s="20"/>
+      <c r="AK38" s="20"/>
+      <c r="AL38" s="20"/>
     </row>
-    <row r="39" spans="4:38">
-      <c r="D39" s="48"/>
-      <c r="E39" s="48"/>
-      <c r="F39" s="48"/>
-      <c r="G39" s="48"/>
-      <c r="H39" s="48"/>
-      <c r="I39" s="48"/>
-      <c r="J39" s="48"/>
-      <c r="K39" s="48"/>
-      <c r="L39" s="48"/>
-      <c r="M39" s="48"/>
-      <c r="N39" s="48"/>
-      <c r="O39" s="48"/>
-      <c r="P39" s="48"/>
-      <c r="Q39" s="48"/>
-      <c r="R39" s="48"/>
-      <c r="S39" s="48"/>
-      <c r="T39" s="48"/>
-      <c r="U39" s="48"/>
-      <c r="V39" s="48"/>
-      <c r="W39" s="48"/>
-      <c r="X39" s="48"/>
-      <c r="Y39" s="48"/>
-      <c r="Z39" s="48"/>
-      <c r="AA39" s="48"/>
-      <c r="AB39" s="48"/>
-      <c r="AC39" s="48"/>
-      <c r="AD39" s="48"/>
-      <c r="AE39" s="48"/>
-      <c r="AF39" s="48"/>
-      <c r="AG39" s="48"/>
-      <c r="AH39" s="48"/>
-      <c r="AI39" s="48"/>
-      <c r="AJ39" s="48"/>
-      <c r="AK39" s="48"/>
-      <c r="AL39" s="48"/>
+    <row r="39" spans="4:38" x14ac:dyDescent="0.2">
+      <c r="D39" s="20"/>
+      <c r="E39" s="20"/>
+      <c r="F39" s="20"/>
+      <c r="G39" s="20"/>
+      <c r="H39" s="20"/>
+      <c r="I39" s="20"/>
+      <c r="J39" s="20"/>
+      <c r="K39" s="20"/>
+      <c r="L39" s="20"/>
+      <c r="M39" s="20"/>
+      <c r="N39" s="20"/>
+      <c r="O39" s="20"/>
+      <c r="P39" s="20"/>
+      <c r="Q39" s="20"/>
+      <c r="R39" s="20"/>
+      <c r="S39" s="20"/>
+      <c r="T39" s="20"/>
+      <c r="U39" s="20"/>
+      <c r="V39" s="20"/>
+      <c r="W39" s="20"/>
+      <c r="X39" s="20"/>
+      <c r="Y39" s="20"/>
+      <c r="Z39" s="20"/>
+      <c r="AA39" s="20"/>
+      <c r="AB39" s="20"/>
+      <c r="AC39" s="20"/>
+      <c r="AD39" s="20"/>
+      <c r="AE39" s="20"/>
+      <c r="AF39" s="20"/>
+      <c r="AG39" s="20"/>
+      <c r="AH39" s="20"/>
+      <c r="AI39" s="20"/>
+      <c r="AJ39" s="20"/>
+      <c r="AK39" s="20"/>
+      <c r="AL39" s="20"/>
     </row>
-    <row r="40" spans="4:38">
-      <c r="D40" s="48"/>
-      <c r="E40" s="48"/>
-      <c r="F40" s="48"/>
-      <c r="G40" s="48"/>
-      <c r="H40" s="48"/>
-      <c r="I40" s="48"/>
-      <c r="J40" s="48"/>
-      <c r="K40" s="48"/>
-      <c r="L40" s="48"/>
-      <c r="M40" s="48"/>
-      <c r="N40" s="48"/>
-      <c r="O40" s="48"/>
-      <c r="P40" s="48"/>
-      <c r="Q40" s="48"/>
-      <c r="R40" s="48"/>
-      <c r="S40" s="48"/>
-      <c r="T40" s="48"/>
-      <c r="U40" s="48"/>
-      <c r="V40" s="48"/>
-      <c r="W40" s="48"/>
-      <c r="X40" s="48"/>
-      <c r="Y40" s="48"/>
-      <c r="Z40" s="48"/>
-      <c r="AA40" s="48"/>
-      <c r="AB40" s="48"/>
-      <c r="AC40" s="48"/>
-      <c r="AD40" s="48"/>
-      <c r="AE40" s="48"/>
-      <c r="AF40" s="48"/>
-      <c r="AG40" s="48"/>
-      <c r="AH40" s="48"/>
-      <c r="AI40" s="48"/>
-      <c r="AJ40" s="48"/>
-      <c r="AK40" s="48"/>
-      <c r="AL40" s="48"/>
+    <row r="40" spans="4:38" x14ac:dyDescent="0.2">
+      <c r="D40" s="20"/>
+      <c r="E40" s="20"/>
+      <c r="F40" s="20"/>
+      <c r="G40" s="20"/>
+      <c r="H40" s="20"/>
+      <c r="I40" s="20"/>
+      <c r="J40" s="20"/>
+      <c r="K40" s="20"/>
+      <c r="L40" s="20"/>
+      <c r="M40" s="20"/>
+      <c r="N40" s="20"/>
+      <c r="O40" s="20"/>
+      <c r="P40" s="20"/>
+      <c r="Q40" s="20"/>
+      <c r="R40" s="20"/>
+      <c r="S40" s="20"/>
+      <c r="T40" s="20"/>
+      <c r="U40" s="20"/>
+      <c r="V40" s="20"/>
+      <c r="W40" s="20"/>
+      <c r="X40" s="20"/>
+      <c r="Y40" s="20"/>
+      <c r="Z40" s="20"/>
+      <c r="AA40" s="20"/>
+      <c r="AB40" s="20"/>
+      <c r="AC40" s="20"/>
+      <c r="AD40" s="20"/>
+      <c r="AE40" s="20"/>
+      <c r="AF40" s="20"/>
+      <c r="AG40" s="20"/>
+      <c r="AH40" s="20"/>
+      <c r="AI40" s="20"/>
+      <c r="AJ40" s="20"/>
+      <c r="AK40" s="20"/>
+      <c r="AL40" s="20"/>
     </row>
-    <row r="41" spans="4:38">
-      <c r="D41" s="48"/>
-      <c r="E41" s="48"/>
-      <c r="F41" s="48"/>
-      <c r="G41" s="48"/>
-      <c r="H41" s="48"/>
-      <c r="I41" s="48"/>
-      <c r="J41" s="48"/>
-      <c r="K41" s="48"/>
-      <c r="L41" s="48"/>
-      <c r="M41" s="48"/>
-      <c r="N41" s="48"/>
-      <c r="O41" s="48"/>
-      <c r="P41" s="48"/>
-      <c r="Q41" s="48"/>
-      <c r="R41" s="48"/>
-      <c r="S41" s="48"/>
-      <c r="T41" s="48"/>
-      <c r="U41" s="48"/>
-      <c r="V41" s="48"/>
-      <c r="W41" s="48"/>
-      <c r="X41" s="48"/>
-      <c r="Y41" s="48"/>
-      <c r="Z41" s="48"/>
-      <c r="AA41" s="48"/>
-      <c r="AB41" s="48"/>
-      <c r="AC41" s="48"/>
-      <c r="AD41" s="48"/>
-      <c r="AE41" s="48"/>
-      <c r="AF41" s="48"/>
-      <c r="AG41" s="48"/>
-      <c r="AH41" s="48"/>
-      <c r="AI41" s="48"/>
-      <c r="AJ41" s="48"/>
-      <c r="AK41" s="48"/>
-      <c r="AL41" s="48"/>
+    <row r="41" spans="4:38" x14ac:dyDescent="0.2">
+      <c r="D41" s="20"/>
+      <c r="E41" s="20"/>
+      <c r="F41" s="20"/>
+      <c r="G41" s="20"/>
+      <c r="H41" s="20"/>
+      <c r="I41" s="20"/>
+      <c r="J41" s="20"/>
+      <c r="K41" s="20"/>
+      <c r="L41" s="20"/>
+      <c r="M41" s="20"/>
+      <c r="N41" s="20"/>
+      <c r="O41" s="20"/>
+      <c r="P41" s="20"/>
+      <c r="Q41" s="20"/>
+      <c r="R41" s="20"/>
+      <c r="S41" s="20"/>
+      <c r="T41" s="20"/>
+      <c r="U41" s="20"/>
+      <c r="V41" s="20"/>
+      <c r="W41" s="20"/>
+      <c r="X41" s="20"/>
+      <c r="Y41" s="20"/>
+      <c r="Z41" s="20"/>
+      <c r="AA41" s="20"/>
+      <c r="AB41" s="20"/>
+      <c r="AC41" s="20"/>
+      <c r="AD41" s="20"/>
+      <c r="AE41" s="20"/>
+      <c r="AF41" s="20"/>
+      <c r="AG41" s="20"/>
+      <c r="AH41" s="20"/>
+      <c r="AI41" s="20"/>
+      <c r="AJ41" s="20"/>
+      <c r="AK41" s="20"/>
+      <c r="AL41" s="20"/>
     </row>
-    <row r="42" spans="4:38">
-      <c r="D42" s="48"/>
-      <c r="E42" s="48"/>
-      <c r="F42" s="48"/>
-      <c r="G42" s="48"/>
-      <c r="H42" s="48"/>
-      <c r="I42" s="48"/>
-      <c r="J42" s="48"/>
-      <c r="K42" s="48"/>
-      <c r="L42" s="48"/>
-      <c r="M42" s="48"/>
-      <c r="N42" s="48"/>
-      <c r="O42" s="48"/>
-      <c r="P42" s="48"/>
-      <c r="Q42" s="48"/>
-      <c r="R42" s="48"/>
-      <c r="S42" s="48"/>
-      <c r="T42" s="48"/>
-      <c r="U42" s="48"/>
-      <c r="V42" s="48"/>
-      <c r="W42" s="48"/>
-      <c r="X42" s="48"/>
-      <c r="Y42" s="48"/>
-      <c r="Z42" s="48"/>
-      <c r="AA42" s="48"/>
-      <c r="AB42" s="48"/>
-      <c r="AC42" s="48"/>
-      <c r="AD42" s="48"/>
-      <c r="AE42" s="48"/>
-      <c r="AF42" s="48"/>
-      <c r="AG42" s="48"/>
-      <c r="AH42" s="48"/>
-      <c r="AI42" s="48"/>
-      <c r="AJ42" s="48"/>
-      <c r="AK42" s="48"/>
-      <c r="AL42" s="48"/>
+    <row r="42" spans="4:38" x14ac:dyDescent="0.2">
+      <c r="D42" s="20"/>
+      <c r="E42" s="20"/>
+      <c r="F42" s="20"/>
+      <c r="G42" s="20"/>
+      <c r="H42" s="20"/>
+      <c r="I42" s="20"/>
+      <c r="J42" s="20"/>
+      <c r="K42" s="20"/>
+      <c r="L42" s="20"/>
+      <c r="M42" s="20"/>
+      <c r="N42" s="20"/>
+      <c r="O42" s="20"/>
+      <c r="P42" s="20"/>
+      <c r="Q42" s="20"/>
+      <c r="R42" s="20"/>
+      <c r="S42" s="20"/>
+      <c r="T42" s="20"/>
+      <c r="U42" s="20"/>
+      <c r="V42" s="20"/>
+      <c r="W42" s="20"/>
+      <c r="X42" s="20"/>
+      <c r="Y42" s="20"/>
+      <c r="Z42" s="20"/>
+      <c r="AA42" s="20"/>
+      <c r="AB42" s="20"/>
+      <c r="AC42" s="20"/>
+      <c r="AD42" s="20"/>
+      <c r="AE42" s="20"/>
+      <c r="AF42" s="20"/>
+      <c r="AG42" s="20"/>
+      <c r="AH42" s="20"/>
+      <c r="AI42" s="20"/>
+      <c r="AJ42" s="20"/>
+      <c r="AK42" s="20"/>
+      <c r="AL42" s="20"/>
     </row>
-    <row r="43" spans="4:38">
-      <c r="D43" s="48"/>
-      <c r="E43" s="48"/>
-      <c r="F43" s="48"/>
-      <c r="G43" s="48"/>
-      <c r="H43" s="48"/>
-      <c r="I43" s="48"/>
-      <c r="J43" s="48"/>
-      <c r="K43" s="48"/>
-      <c r="L43" s="48"/>
-      <c r="M43" s="48"/>
-      <c r="N43" s="48"/>
-      <c r="O43" s="48"/>
-      <c r="P43" s="48"/>
-      <c r="Q43" s="48"/>
-      <c r="R43" s="48"/>
-      <c r="S43" s="48"/>
-      <c r="T43" s="48"/>
-      <c r="U43" s="48"/>
-      <c r="V43" s="48"/>
-      <c r="W43" s="48"/>
-      <c r="X43" s="48"/>
-      <c r="Y43" s="48"/>
-      <c r="Z43" s="48"/>
-      <c r="AA43" s="48"/>
-      <c r="AB43" s="48"/>
-      <c r="AC43" s="48"/>
-      <c r="AD43" s="48"/>
-      <c r="AE43" s="48"/>
-      <c r="AF43" s="48"/>
-      <c r="AG43" s="48"/>
-      <c r="AH43" s="48"/>
-      <c r="AI43" s="48"/>
-      <c r="AJ43" s="48"/>
-      <c r="AK43" s="48"/>
-      <c r="AL43" s="48"/>
+    <row r="43" spans="4:38" x14ac:dyDescent="0.2">
+      <c r="D43" s="20"/>
+      <c r="E43" s="20"/>
+      <c r="F43" s="20"/>
+      <c r="G43" s="20"/>
+      <c r="H43" s="20"/>
+      <c r="I43" s="20"/>
+      <c r="J43" s="20"/>
+      <c r="K43" s="20"/>
+      <c r="L43" s="20"/>
+      <c r="M43" s="20"/>
+      <c r="N43" s="20"/>
+      <c r="O43" s="20"/>
+      <c r="P43" s="20"/>
+      <c r="Q43" s="20"/>
+      <c r="R43" s="20"/>
+      <c r="S43" s="20"/>
+      <c r="T43" s="20"/>
+      <c r="U43" s="20"/>
+      <c r="V43" s="20"/>
+      <c r="W43" s="20"/>
+      <c r="X43" s="20"/>
+      <c r="Y43" s="20"/>
+      <c r="Z43" s="20"/>
+      <c r="AA43" s="20"/>
+      <c r="AB43" s="20"/>
+      <c r="AC43" s="20"/>
+      <c r="AD43" s="20"/>
+      <c r="AE43" s="20"/>
+      <c r="AF43" s="20"/>
+      <c r="AG43" s="20"/>
+      <c r="AH43" s="20"/>
+      <c r="AI43" s="20"/>
+      <c r="AJ43" s="20"/>
+      <c r="AK43" s="20"/>
+      <c r="AL43" s="20"/>
     </row>
-    <row r="44" spans="4:38">
-      <c r="D44" s="48"/>
-      <c r="E44" s="48"/>
-      <c r="F44" s="48"/>
-      <c r="G44" s="48"/>
-      <c r="H44" s="48"/>
-      <c r="I44" s="48"/>
-      <c r="J44" s="48"/>
-      <c r="K44" s="48"/>
-      <c r="L44" s="48"/>
-      <c r="M44" s="48"/>
-      <c r="N44" s="48"/>
-      <c r="O44" s="48"/>
-      <c r="P44" s="48"/>
-      <c r="Q44" s="48"/>
-      <c r="R44" s="48"/>
-      <c r="S44" s="48"/>
-      <c r="T44" s="48"/>
-      <c r="U44" s="48"/>
-      <c r="V44" s="48"/>
-      <c r="W44" s="48"/>
-      <c r="X44" s="48"/>
-      <c r="Y44" s="48"/>
-      <c r="Z44" s="48"/>
-      <c r="AA44" s="48"/>
-      <c r="AB44" s="48"/>
-      <c r="AC44" s="48"/>
-      <c r="AD44" s="48"/>
-      <c r="AE44" s="48"/>
-      <c r="AF44" s="48"/>
-      <c r="AG44" s="48"/>
-      <c r="AH44" s="48"/>
-      <c r="AI44" s="48"/>
-      <c r="AJ44" s="48"/>
-      <c r="AK44" s="48"/>
-      <c r="AL44" s="48"/>
+    <row r="44" spans="4:38" x14ac:dyDescent="0.2">
+      <c r="D44" s="20"/>
+      <c r="E44" s="20"/>
+      <c r="F44" s="20"/>
+      <c r="G44" s="20"/>
+      <c r="H44" s="20"/>
+      <c r="I44" s="20"/>
+      <c r="J44" s="20"/>
+      <c r="K44" s="20"/>
+      <c r="L44" s="20"/>
+      <c r="M44" s="20"/>
+      <c r="N44" s="20"/>
+      <c r="O44" s="20"/>
+      <c r="P44" s="20"/>
+      <c r="Q44" s="20"/>
+      <c r="R44" s="20"/>
+      <c r="S44" s="20"/>
+      <c r="T44" s="20"/>
+      <c r="U44" s="20"/>
+      <c r="V44" s="20"/>
+      <c r="W44" s="20"/>
+      <c r="X44" s="20"/>
+      <c r="Y44" s="20"/>
+      <c r="Z44" s="20"/>
+      <c r="AA44" s="20"/>
+      <c r="AB44" s="20"/>
+      <c r="AC44" s="20"/>
+      <c r="AD44" s="20"/>
+      <c r="AE44" s="20"/>
+      <c r="AF44" s="20"/>
+      <c r="AG44" s="20"/>
+      <c r="AH44" s="20"/>
+      <c r="AI44" s="20"/>
+      <c r="AJ44" s="20"/>
+      <c r="AK44" s="20"/>
+      <c r="AL44" s="20"/>
     </row>
   </sheetData>
   <mergeCells count="45">
-    <mergeCell ref="M18:P18"/>
-    <mergeCell ref="Q18:T18"/>
-    <mergeCell ref="U18:AB18"/>
-    <mergeCell ref="AC18:AJ18"/>
-    <mergeCell ref="M19:P19"/>
-    <mergeCell ref="Q19:T19"/>
-    <mergeCell ref="U19:AJ19"/>
-    <mergeCell ref="Q20:T20"/>
-    <mergeCell ref="U20:Z20"/>
-    <mergeCell ref="AC20:AJ20"/>
-    <mergeCell ref="Q21:T21"/>
-    <mergeCell ref="U21:AA21"/>
-    <mergeCell ref="AD21:AJ21"/>
-    <mergeCell ref="M22:P22"/>
-    <mergeCell ref="Q22:T22"/>
-    <mergeCell ref="U22:Z22"/>
-    <mergeCell ref="AC22:AJ22"/>
-    <mergeCell ref="M23:P23"/>
-    <mergeCell ref="Q23:T23"/>
-    <mergeCell ref="U23:AJ23"/>
+    <mergeCell ref="AE28:AJ28"/>
+    <mergeCell ref="D18:D28"/>
+    <mergeCell ref="E18:H28"/>
+    <mergeCell ref="I18:L28"/>
+    <mergeCell ref="M26:P27"/>
+    <mergeCell ref="M20:P21"/>
+    <mergeCell ref="M28:N28"/>
+    <mergeCell ref="O28:P28"/>
+    <mergeCell ref="Q28:T28"/>
+    <mergeCell ref="U28:AA28"/>
+    <mergeCell ref="AC28:AD28"/>
+    <mergeCell ref="Q26:T26"/>
+    <mergeCell ref="U26:AA26"/>
+    <mergeCell ref="AC26:AJ26"/>
+    <mergeCell ref="Q27:T27"/>
+    <mergeCell ref="U27:AA27"/>
+    <mergeCell ref="AD27:AJ27"/>
     <mergeCell ref="M24:P24"/>
     <mergeCell ref="Q24:T24"/>
     <mergeCell ref="U24:AJ24"/>
@@ -7462,658 +7602,649 @@
     <mergeCell ref="U25:AB25"/>
     <mergeCell ref="AC25:AF25"/>
     <mergeCell ref="AG25:AJ25"/>
-    <mergeCell ref="Q26:T26"/>
-    <mergeCell ref="U26:AA26"/>
-    <mergeCell ref="AC26:AJ26"/>
-    <mergeCell ref="Q27:T27"/>
-    <mergeCell ref="U27:AA27"/>
-    <mergeCell ref="AD27:AJ27"/>
-    <mergeCell ref="M28:N28"/>
-    <mergeCell ref="O28:P28"/>
-    <mergeCell ref="Q28:T28"/>
-    <mergeCell ref="U28:AA28"/>
-    <mergeCell ref="AC28:AD28"/>
-    <mergeCell ref="AE28:AJ28"/>
-    <mergeCell ref="D18:D28"/>
-    <mergeCell ref="E18:H28"/>
-    <mergeCell ref="I18:L28"/>
-    <mergeCell ref="M26:P27"/>
-    <mergeCell ref="M20:P21"/>
+    <mergeCell ref="M22:P22"/>
+    <mergeCell ref="Q22:T22"/>
+    <mergeCell ref="U22:Z22"/>
+    <mergeCell ref="AC22:AJ22"/>
+    <mergeCell ref="M23:P23"/>
+    <mergeCell ref="Q23:T23"/>
+    <mergeCell ref="U23:AJ23"/>
+    <mergeCell ref="Q20:T20"/>
+    <mergeCell ref="U20:Z20"/>
+    <mergeCell ref="AC20:AJ20"/>
+    <mergeCell ref="Q21:T21"/>
+    <mergeCell ref="U21:AA21"/>
+    <mergeCell ref="AD21:AJ21"/>
+    <mergeCell ref="M18:P18"/>
+    <mergeCell ref="Q18:T18"/>
+    <mergeCell ref="U18:AB18"/>
+    <mergeCell ref="AC18:AJ18"/>
+    <mergeCell ref="M19:P19"/>
+    <mergeCell ref="Q19:T19"/>
+    <mergeCell ref="U19:AJ19"/>
   </mergeCells>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="E21:AR29"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" topLeftCell="A7" workbookViewId="0">
+    <sheetView topLeftCell="A7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="AM24" sqref="AM24:AM29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="4" width="9" style="38"/>
-    <col min="5" max="6" width="18.375" style="38" customWidth="1"/>
-    <col min="7" max="22" width="6.125" style="38" customWidth="1"/>
-    <col min="23" max="38" width="9.75" style="38" customWidth="1"/>
-    <col min="39" max="40" width="9" style="38"/>
-    <col min="41" max="41" width="27.5" style="38" customWidth="1"/>
-    <col min="42" max="43" width="34.125" style="38" customWidth="1"/>
-    <col min="44" max="44" width="123.375" style="38" customWidth="1"/>
-    <col min="45" max="16384" width="9" style="38"/>
+    <col min="1" max="4" width="9" style="13"/>
+    <col min="5" max="6" width="18.375" style="13" customWidth="1"/>
+    <col min="7" max="22" width="6.125" style="13" customWidth="1"/>
+    <col min="23" max="38" width="9.75" style="13" customWidth="1"/>
+    <col min="39" max="40" width="9" style="13"/>
+    <col min="41" max="41" width="27.5" style="13" customWidth="1"/>
+    <col min="42" max="43" width="34.125" style="13" customWidth="1"/>
+    <col min="44" max="44" width="123.375" style="13" customWidth="1"/>
+    <col min="45" max="16384" width="9" style="13"/>
   </cols>
   <sheetData>
-    <row r="21" ht="78.75" customHeight="1" spans="5:44">
+    <row r="21" spans="5:44" ht="78.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E21" s="1" t="s">
         <v>93</v>
       </c>
       <c r="F21" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="G21" s="2" t="s">
+      <c r="G21" s="32" t="s">
         <v>95</v>
       </c>
-      <c r="H21" s="3"/>
-      <c r="I21" s="3"/>
-      <c r="J21" s="3"/>
-      <c r="K21" s="3"/>
-      <c r="L21" s="3"/>
-      <c r="M21" s="3"/>
-      <c r="N21" s="10"/>
-      <c r="O21" s="2" t="s">
+      <c r="H21" s="33"/>
+      <c r="I21" s="33"/>
+      <c r="J21" s="33"/>
+      <c r="K21" s="33"/>
+      <c r="L21" s="33"/>
+      <c r="M21" s="33"/>
+      <c r="N21" s="34"/>
+      <c r="O21" s="32" t="s">
         <v>96</v>
       </c>
-      <c r="P21" s="3" t="s">
+      <c r="P21" s="33" t="s">
         <v>97</v>
       </c>
-      <c r="Q21" s="3" t="s">
+      <c r="Q21" s="33" t="s">
         <v>98</v>
       </c>
-      <c r="R21" s="3"/>
-      <c r="S21" s="3"/>
-      <c r="T21" s="3"/>
-      <c r="U21" s="3"/>
-      <c r="V21" s="10"/>
-      <c r="W21" s="2" t="s">
+      <c r="R21" s="33"/>
+      <c r="S21" s="33"/>
+      <c r="T21" s="33"/>
+      <c r="U21" s="33"/>
+      <c r="V21" s="34"/>
+      <c r="W21" s="32" t="s">
         <v>97</v>
       </c>
-      <c r="X21" s="3"/>
-      <c r="Y21" s="3"/>
-      <c r="Z21" s="3"/>
-      <c r="AA21" s="3"/>
-      <c r="AB21" s="3"/>
-      <c r="AC21" s="3"/>
-      <c r="AD21" s="10"/>
-      <c r="AE21" s="2" t="s">
+      <c r="X21" s="33"/>
+      <c r="Y21" s="33"/>
+      <c r="Z21" s="33"/>
+      <c r="AA21" s="33"/>
+      <c r="AB21" s="33"/>
+      <c r="AC21" s="33"/>
+      <c r="AD21" s="34"/>
+      <c r="AE21" s="32" t="s">
         <v>98</v>
       </c>
-      <c r="AF21" s="3"/>
-      <c r="AG21" s="3"/>
-      <c r="AH21" s="3"/>
-      <c r="AI21" s="3"/>
-      <c r="AJ21" s="3"/>
-      <c r="AK21" s="3"/>
-      <c r="AL21" s="10"/>
+      <c r="AF21" s="33"/>
+      <c r="AG21" s="33"/>
+      <c r="AH21" s="33"/>
+      <c r="AI21" s="33"/>
+      <c r="AJ21" s="33"/>
+      <c r="AK21" s="33"/>
+      <c r="AL21" s="34"/>
       <c r="AM21" s="1" t="s">
         <v>99</v>
       </c>
       <c r="AN21" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="AO21" s="22" t="s">
+      <c r="AO21" s="41" t="s">
         <v>32</v>
       </c>
-      <c r="AP21" s="22" t="s">
+      <c r="AP21" s="41" t="s">
         <v>33</v>
       </c>
-      <c r="AQ21" s="22" t="s">
+      <c r="AQ21" s="41" t="s">
         <v>34</v>
       </c>
-      <c r="AR21" s="43" t="s">
+      <c r="AR21" s="42" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="22" ht="36.75" customHeight="1" spans="5:44">
-      <c r="E22" s="4" t="s">
+    <row r="22" spans="5:44" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E22" s="35" t="s">
         <v>101</v>
       </c>
-      <c r="F22" s="4"/>
-      <c r="G22" s="4" t="s">
+      <c r="F22" s="35"/>
+      <c r="G22" s="3" t="s">
         <v>102</v>
       </c>
-      <c r="H22" s="4" t="s">
+      <c r="H22" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="I22" s="4" t="s">
+      <c r="I22" s="3" t="s">
         <v>104</v>
       </c>
-      <c r="J22" s="4" t="s">
+      <c r="J22" s="3" t="s">
         <v>105</v>
       </c>
-      <c r="K22" s="4" t="s">
+      <c r="K22" s="3" t="s">
         <v>106</v>
       </c>
-      <c r="L22" s="4" t="s">
+      <c r="L22" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="M22" s="4" t="s">
+      <c r="M22" s="3" t="s">
         <v>108</v>
       </c>
-      <c r="N22" s="4" t="s">
+      <c r="N22" s="3" t="s">
         <v>109</v>
       </c>
-      <c r="O22" s="4" t="s">
+      <c r="O22" s="3" t="s">
         <v>110</v>
       </c>
-      <c r="P22" s="4" t="s">
+      <c r="P22" s="3" t="s">
         <v>111</v>
       </c>
-      <c r="Q22" s="4" t="s">
+      <c r="Q22" s="3" t="s">
         <v>112</v>
       </c>
-      <c r="R22" s="4" t="s">
+      <c r="R22" s="3" t="s">
         <v>113</v>
       </c>
-      <c r="S22" s="4" t="s">
+      <c r="S22" s="3" t="s">
         <v>114</v>
       </c>
-      <c r="T22" s="4" t="s">
+      <c r="T22" s="3" t="s">
         <v>115</v>
       </c>
-      <c r="U22" s="4" t="s">
+      <c r="U22" s="3" t="s">
         <v>116</v>
       </c>
-      <c r="V22" s="4" t="s">
+      <c r="V22" s="3" t="s">
         <v>117</v>
       </c>
-      <c r="W22" s="4" t="s">
+      <c r="W22" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="X22" s="4" t="s">
+      <c r="X22" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="Y22" s="4" t="s">
+      <c r="Y22" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="Z22" s="4" t="s">
+      <c r="Z22" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="AA22" s="4" t="s">
+      <c r="AA22" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="AB22" s="4" t="s">
+      <c r="AB22" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="AC22" s="4" t="s">
+      <c r="AC22" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="AD22" s="4" t="s">
+      <c r="AD22" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="AE22" s="4" t="s">
+      <c r="AE22" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="AF22" s="4" t="s">
+      <c r="AF22" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="AG22" s="4" t="s">
+      <c r="AG22" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="AH22" s="4" t="s">
+      <c r="AH22" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="AI22" s="4" t="s">
+      <c r="AI22" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="AJ22" s="4" t="s">
+      <c r="AJ22" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="AK22" s="4" t="s">
+      <c r="AK22" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="AL22" s="4" t="s">
+      <c r="AL22" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="AM22" s="4" t="s">
+      <c r="AM22" s="35" t="s">
         <v>118</v>
       </c>
-      <c r="AN22" s="24"/>
-      <c r="AO22" s="22"/>
-      <c r="AP22" s="22"/>
-      <c r="AQ22" s="22"/>
-      <c r="AR22" s="43"/>
+      <c r="AN22" s="36"/>
+      <c r="AO22" s="41"/>
+      <c r="AP22" s="41"/>
+      <c r="AQ22" s="41"/>
+      <c r="AR22" s="42"/>
     </row>
-    <row r="23" ht="64.5" customHeight="1" spans="5:43">
-      <c r="E23" s="5" t="s">
+    <row r="23" spans="5:44" ht="64.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E23" s="37" t="s">
         <v>119</v>
       </c>
-      <c r="F23" s="5" t="s">
+      <c r="F23" s="37" t="s">
         <v>120</v>
       </c>
-      <c r="G23" s="36" t="s">
+      <c r="G23" s="30" t="s">
         <v>121</v>
       </c>
-      <c r="H23" s="16"/>
-      <c r="I23" s="16"/>
-      <c r="J23" s="16"/>
-      <c r="K23" s="16"/>
-      <c r="L23" s="16"/>
-      <c r="M23" s="16"/>
-      <c r="N23" s="16"/>
-      <c r="O23" s="16"/>
-      <c r="P23" s="16"/>
-      <c r="Q23" s="16"/>
-      <c r="R23" s="16"/>
-      <c r="S23" s="16"/>
-      <c r="T23" s="16"/>
-      <c r="U23" s="16"/>
-      <c r="V23" s="16"/>
-      <c r="W23" s="16"/>
-      <c r="X23" s="16"/>
-      <c r="Y23" s="16"/>
-      <c r="Z23" s="16"/>
-      <c r="AA23" s="16"/>
-      <c r="AB23" s="16"/>
-      <c r="AC23" s="16"/>
-      <c r="AD23" s="16"/>
-      <c r="AE23" s="16"/>
-      <c r="AF23" s="16"/>
-      <c r="AG23" s="16"/>
-      <c r="AH23" s="16"/>
-      <c r="AI23" s="16"/>
-      <c r="AJ23" s="16"/>
-      <c r="AK23" s="16"/>
-      <c r="AL23" s="16"/>
-      <c r="AM23" s="5" t="s">
+      <c r="H23" s="27"/>
+      <c r="I23" s="27"/>
+      <c r="J23" s="27"/>
+      <c r="K23" s="27"/>
+      <c r="L23" s="27"/>
+      <c r="M23" s="27"/>
+      <c r="N23" s="27"/>
+      <c r="O23" s="27"/>
+      <c r="P23" s="27"/>
+      <c r="Q23" s="27"/>
+      <c r="R23" s="27"/>
+      <c r="S23" s="27"/>
+      <c r="T23" s="27"/>
+      <c r="U23" s="27"/>
+      <c r="V23" s="27"/>
+      <c r="W23" s="27"/>
+      <c r="X23" s="27"/>
+      <c r="Y23" s="27"/>
+      <c r="Z23" s="27"/>
+      <c r="AA23" s="27"/>
+      <c r="AB23" s="27"/>
+      <c r="AC23" s="27"/>
+      <c r="AD23" s="27"/>
+      <c r="AE23" s="27"/>
+      <c r="AF23" s="27"/>
+      <c r="AG23" s="27"/>
+      <c r="AH23" s="27"/>
+      <c r="AI23" s="27"/>
+      <c r="AJ23" s="27"/>
+      <c r="AK23" s="27"/>
+      <c r="AL23" s="27"/>
+      <c r="AM23" s="4" t="s">
         <v>122</v>
       </c>
-      <c r="AN23" s="5" t="s">
+      <c r="AN23" s="4" t="s">
         <v>123</v>
       </c>
-      <c r="AO23" s="44" t="s">
+      <c r="AO23" s="16" t="s">
         <v>124</v>
       </c>
-      <c r="AP23" s="29" t="s">
+      <c r="AP23" s="10" t="s">
         <v>125</v>
       </c>
-      <c r="AQ23" s="44" t="s">
+      <c r="AQ23" s="16" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="24" ht="64.5" customHeight="1" spans="5:43">
-      <c r="E24" s="5"/>
-      <c r="F24" s="5"/>
-      <c r="G24" s="6" t="s">
+    <row r="24" spans="5:44" ht="64.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E24" s="37"/>
+      <c r="F24" s="37"/>
+      <c r="G24" s="43" t="s">
         <v>37</v>
       </c>
-      <c r="H24" s="7"/>
-      <c r="I24" s="7"/>
-      <c r="J24" s="11"/>
-      <c r="K24" s="6" t="s">
+      <c r="H24" s="44"/>
+      <c r="I24" s="44"/>
+      <c r="J24" s="45"/>
+      <c r="K24" s="43" t="s">
         <v>38</v>
       </c>
-      <c r="L24" s="7"/>
-      <c r="M24" s="7"/>
-      <c r="N24" s="11"/>
-      <c r="O24" s="34" t="s">
+      <c r="L24" s="44"/>
+      <c r="M24" s="44"/>
+      <c r="N24" s="45"/>
+      <c r="O24" s="28" t="s">
         <v>39</v>
       </c>
-      <c r="P24" s="35"/>
-      <c r="Q24" s="35"/>
-      <c r="R24" s="36"/>
-      <c r="S24" s="34" t="s">
+      <c r="P24" s="29"/>
+      <c r="Q24" s="29"/>
+      <c r="R24" s="30"/>
+      <c r="S24" s="28" t="s">
         <v>40</v>
       </c>
-      <c r="T24" s="35"/>
-      <c r="U24" s="35"/>
-      <c r="V24" s="36"/>
-      <c r="W24" s="16" t="s">
+      <c r="T24" s="29"/>
+      <c r="U24" s="29"/>
+      <c r="V24" s="30"/>
+      <c r="W24" s="27" t="s">
         <v>39</v>
       </c>
-      <c r="X24" s="16"/>
-      <c r="Y24" s="16"/>
-      <c r="Z24" s="16"/>
-      <c r="AA24" s="16"/>
-      <c r="AB24" s="16"/>
-      <c r="AC24" s="16"/>
-      <c r="AD24" s="16"/>
-      <c r="AE24" s="16"/>
-      <c r="AF24" s="16"/>
-      <c r="AG24" s="16"/>
-      <c r="AH24" s="16"/>
-      <c r="AI24" s="16"/>
-      <c r="AJ24" s="16"/>
-      <c r="AK24" s="16"/>
-      <c r="AL24" s="39" t="s">
+      <c r="X24" s="27"/>
+      <c r="Y24" s="27"/>
+      <c r="Z24" s="27"/>
+      <c r="AA24" s="27"/>
+      <c r="AB24" s="27"/>
+      <c r="AC24" s="27"/>
+      <c r="AD24" s="27"/>
+      <c r="AE24" s="27"/>
+      <c r="AF24" s="27"/>
+      <c r="AG24" s="27"/>
+      <c r="AH24" s="27"/>
+      <c r="AI24" s="27"/>
+      <c r="AJ24" s="27"/>
+      <c r="AK24" s="27"/>
+      <c r="AL24" s="14" t="s">
         <v>127</v>
       </c>
-      <c r="AM24" s="40" t="s">
+      <c r="AM24" s="38" t="s">
         <v>123</v>
       </c>
-      <c r="AN24" s="40" t="s">
+      <c r="AN24" s="38" t="s">
         <v>122</v>
       </c>
-      <c r="AO24" s="44" t="s">
+      <c r="AO24" s="16" t="s">
         <v>127</v>
       </c>
-      <c r="AP24" s="29" t="s">
+      <c r="AP24" s="10" t="s">
         <v>128</v>
       </c>
-      <c r="AQ24" s="29" t="s">
+      <c r="AQ24" s="10" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="25" ht="64.5" customHeight="1" spans="5:43">
-      <c r="E25" s="5"/>
-      <c r="F25" s="5"/>
-      <c r="G25" s="8"/>
-      <c r="H25" s="9"/>
-      <c r="I25" s="9"/>
-      <c r="J25" s="15"/>
-      <c r="K25" s="8"/>
-      <c r="L25" s="9"/>
-      <c r="M25" s="9"/>
-      <c r="N25" s="15"/>
-      <c r="O25" s="34" t="s">
+    <row r="25" spans="5:44" ht="64.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E25" s="37"/>
+      <c r="F25" s="37"/>
+      <c r="G25" s="46"/>
+      <c r="H25" s="47"/>
+      <c r="I25" s="47"/>
+      <c r="J25" s="48"/>
+      <c r="K25" s="46"/>
+      <c r="L25" s="47"/>
+      <c r="M25" s="47"/>
+      <c r="N25" s="48"/>
+      <c r="O25" s="28" t="s">
         <v>39</v>
       </c>
-      <c r="P25" s="35"/>
-      <c r="Q25" s="35"/>
-      <c r="R25" s="36"/>
-      <c r="S25" s="34" t="s">
+      <c r="P25" s="29"/>
+      <c r="Q25" s="29"/>
+      <c r="R25" s="30"/>
+      <c r="S25" s="28" t="s">
         <v>46</v>
       </c>
-      <c r="T25" s="35"/>
-      <c r="U25" s="35"/>
-      <c r="V25" s="36"/>
-      <c r="W25" s="34" t="s">
+      <c r="T25" s="29"/>
+      <c r="U25" s="29"/>
+      <c r="V25" s="30"/>
+      <c r="W25" s="28" t="s">
         <v>39</v>
       </c>
-      <c r="X25" s="35"/>
-      <c r="Y25" s="35"/>
-      <c r="Z25" s="35"/>
-      <c r="AA25" s="35"/>
-      <c r="AB25" s="35"/>
-      <c r="AC25" s="35"/>
-      <c r="AD25" s="35"/>
-      <c r="AE25" s="35"/>
-      <c r="AF25" s="35"/>
-      <c r="AG25" s="35"/>
-      <c r="AH25" s="35"/>
-      <c r="AI25" s="35"/>
-      <c r="AJ25" s="35"/>
-      <c r="AK25" s="35"/>
-      <c r="AL25" s="36"/>
-      <c r="AM25" s="41"/>
-      <c r="AN25" s="41"/>
-      <c r="AO25" s="44" t="s">
+      <c r="X25" s="29"/>
+      <c r="Y25" s="29"/>
+      <c r="Z25" s="29"/>
+      <c r="AA25" s="29"/>
+      <c r="AB25" s="29"/>
+      <c r="AC25" s="29"/>
+      <c r="AD25" s="29"/>
+      <c r="AE25" s="29"/>
+      <c r="AF25" s="29"/>
+      <c r="AG25" s="29"/>
+      <c r="AH25" s="29"/>
+      <c r="AI25" s="29"/>
+      <c r="AJ25" s="29"/>
+      <c r="AK25" s="29"/>
+      <c r="AL25" s="30"/>
+      <c r="AM25" s="39"/>
+      <c r="AN25" s="39"/>
+      <c r="AO25" s="16" t="s">
         <v>130</v>
       </c>
-      <c r="AP25" s="29" t="s">
+      <c r="AP25" s="10" t="s">
         <v>131</v>
       </c>
-      <c r="AQ25" s="29" t="s">
+      <c r="AQ25" s="10" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="26" ht="64.5" customHeight="1" spans="5:44">
-      <c r="E26" s="5"/>
-      <c r="F26" s="5"/>
-      <c r="G26" s="8"/>
-      <c r="H26" s="9"/>
-      <c r="I26" s="9"/>
-      <c r="J26" s="15"/>
-      <c r="K26" s="8"/>
-      <c r="L26" s="9"/>
-      <c r="M26" s="9"/>
-      <c r="N26" s="15"/>
-      <c r="O26" s="34" t="s">
+    <row r="26" spans="5:44" ht="64.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E26" s="37"/>
+      <c r="F26" s="37"/>
+      <c r="G26" s="46"/>
+      <c r="H26" s="47"/>
+      <c r="I26" s="47"/>
+      <c r="J26" s="48"/>
+      <c r="K26" s="46"/>
+      <c r="L26" s="47"/>
+      <c r="M26" s="47"/>
+      <c r="N26" s="48"/>
+      <c r="O26" s="28" t="s">
         <v>132</v>
       </c>
-      <c r="P26" s="35"/>
-      <c r="Q26" s="35"/>
-      <c r="R26" s="36"/>
-      <c r="S26" s="34" t="s">
+      <c r="P26" s="29"/>
+      <c r="Q26" s="29"/>
+      <c r="R26" s="30"/>
+      <c r="S26" s="28" t="s">
         <v>52</v>
       </c>
-      <c r="T26" s="35"/>
-      <c r="U26" s="35"/>
-      <c r="V26" s="36"/>
-      <c r="W26" s="34" t="s">
+      <c r="T26" s="29"/>
+      <c r="U26" s="29"/>
+      <c r="V26" s="30"/>
+      <c r="W26" s="28" t="s">
         <v>39</v>
       </c>
-      <c r="X26" s="35"/>
-      <c r="Y26" s="35"/>
-      <c r="Z26" s="35"/>
-      <c r="AA26" s="35"/>
-      <c r="AB26" s="35"/>
-      <c r="AC26" s="35"/>
-      <c r="AD26" s="35"/>
-      <c r="AE26" s="35"/>
-      <c r="AF26" s="35"/>
-      <c r="AG26" s="35"/>
-      <c r="AH26" s="35"/>
-      <c r="AI26" s="35"/>
-      <c r="AJ26" s="35"/>
-      <c r="AK26" s="35"/>
-      <c r="AL26" s="36"/>
-      <c r="AM26" s="41"/>
-      <c r="AN26" s="41"/>
-      <c r="AO26" s="44" t="s">
+      <c r="X26" s="29"/>
+      <c r="Y26" s="29"/>
+      <c r="Z26" s="29"/>
+      <c r="AA26" s="29"/>
+      <c r="AB26" s="29"/>
+      <c r="AC26" s="29"/>
+      <c r="AD26" s="29"/>
+      <c r="AE26" s="29"/>
+      <c r="AF26" s="29"/>
+      <c r="AG26" s="29"/>
+      <c r="AH26" s="29"/>
+      <c r="AI26" s="29"/>
+      <c r="AJ26" s="29"/>
+      <c r="AK26" s="29"/>
+      <c r="AL26" s="30"/>
+      <c r="AM26" s="39"/>
+      <c r="AN26" s="39"/>
+      <c r="AO26" s="16" t="s">
         <v>133</v>
       </c>
-      <c r="AP26" s="29" t="s">
+      <c r="AP26" s="10" t="s">
         <v>134</v>
       </c>
-      <c r="AQ26" s="29" t="s">
+      <c r="AQ26" s="10" t="s">
         <v>135</v>
       </c>
-      <c r="AR26" s="45" t="s">
+      <c r="AR26" s="17" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="27" ht="64.5" customHeight="1" spans="5:43">
-      <c r="E27" s="5"/>
-      <c r="F27" s="5"/>
-      <c r="G27" s="8"/>
-      <c r="H27" s="9"/>
-      <c r="I27" s="9"/>
-      <c r="J27" s="15"/>
-      <c r="K27" s="8"/>
-      <c r="L27" s="9"/>
-      <c r="M27" s="9"/>
-      <c r="N27" s="15"/>
-      <c r="O27" s="34" t="s">
+    <row r="27" spans="5:44" ht="64.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E27" s="37"/>
+      <c r="F27" s="37"/>
+      <c r="G27" s="46"/>
+      <c r="H27" s="47"/>
+      <c r="I27" s="47"/>
+      <c r="J27" s="48"/>
+      <c r="K27" s="46"/>
+      <c r="L27" s="47"/>
+      <c r="M27" s="47"/>
+      <c r="N27" s="48"/>
+      <c r="O27" s="28" t="s">
         <v>39</v>
       </c>
-      <c r="P27" s="35"/>
-      <c r="Q27" s="35"/>
-      <c r="R27" s="36"/>
-      <c r="S27" s="34" t="s">
+      <c r="P27" s="29"/>
+      <c r="Q27" s="29"/>
+      <c r="R27" s="30"/>
+      <c r="S27" s="28" t="s">
         <v>77</v>
       </c>
-      <c r="T27" s="35"/>
-      <c r="U27" s="35"/>
-      <c r="V27" s="36"/>
-      <c r="W27" s="34" t="s">
+      <c r="T27" s="29"/>
+      <c r="U27" s="29"/>
+      <c r="V27" s="30"/>
+      <c r="W27" s="28" t="s">
         <v>39</v>
       </c>
-      <c r="X27" s="35"/>
-      <c r="Y27" s="35"/>
-      <c r="Z27" s="35"/>
-      <c r="AA27" s="35"/>
-      <c r="AB27" s="35"/>
-      <c r="AC27" s="35"/>
-      <c r="AD27" s="36"/>
-      <c r="AE27" s="16" t="s">
+      <c r="X27" s="29"/>
+      <c r="Y27" s="29"/>
+      <c r="Z27" s="29"/>
+      <c r="AA27" s="29"/>
+      <c r="AB27" s="29"/>
+      <c r="AC27" s="29"/>
+      <c r="AD27" s="30"/>
+      <c r="AE27" s="27" t="s">
         <v>37</v>
       </c>
-      <c r="AF27" s="16"/>
-      <c r="AG27" s="16"/>
-      <c r="AH27" s="16"/>
-      <c r="AI27" s="16" t="s">
+      <c r="AF27" s="27"/>
+      <c r="AG27" s="27"/>
+      <c r="AH27" s="27"/>
+      <c r="AI27" s="27" t="s">
         <v>38</v>
       </c>
-      <c r="AJ27" s="16"/>
-      <c r="AK27" s="16"/>
-      <c r="AL27" s="16"/>
-      <c r="AM27" s="41"/>
-      <c r="AN27" s="41"/>
-      <c r="AO27" s="44" t="s">
+      <c r="AJ27" s="27"/>
+      <c r="AK27" s="27"/>
+      <c r="AL27" s="27"/>
+      <c r="AM27" s="39"/>
+      <c r="AN27" s="39"/>
+      <c r="AO27" s="16" t="s">
         <v>137</v>
       </c>
-      <c r="AP27" s="29" t="s">
+      <c r="AP27" s="10" t="s">
         <v>138</v>
       </c>
-      <c r="AQ27" s="44" t="s">
+      <c r="AQ27" s="16" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="28" ht="64.5" customHeight="1" spans="5:43">
-      <c r="E28" s="5"/>
-      <c r="F28" s="5"/>
-      <c r="G28" s="8"/>
-      <c r="H28" s="9"/>
-      <c r="I28" s="9"/>
-      <c r="J28" s="15"/>
-      <c r="K28" s="8"/>
-      <c r="L28" s="9"/>
-      <c r="M28" s="9"/>
-      <c r="N28" s="15"/>
-      <c r="O28" s="34" t="s">
+    <row r="28" spans="5:44" ht="64.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E28" s="37"/>
+      <c r="F28" s="37"/>
+      <c r="G28" s="46"/>
+      <c r="H28" s="47"/>
+      <c r="I28" s="47"/>
+      <c r="J28" s="48"/>
+      <c r="K28" s="46"/>
+      <c r="L28" s="47"/>
+      <c r="M28" s="47"/>
+      <c r="N28" s="48"/>
+      <c r="O28" s="28" t="s">
         <v>140</v>
       </c>
-      <c r="P28" s="35"/>
-      <c r="Q28" s="35"/>
-      <c r="R28" s="36"/>
-      <c r="S28" s="34" t="s">
+      <c r="P28" s="29"/>
+      <c r="Q28" s="29"/>
+      <c r="R28" s="30"/>
+      <c r="S28" s="28" t="s">
         <v>81</v>
       </c>
-      <c r="T28" s="35"/>
-      <c r="U28" s="35"/>
-      <c r="V28" s="36"/>
-      <c r="W28" s="34" t="s">
+      <c r="T28" s="29"/>
+      <c r="U28" s="29"/>
+      <c r="V28" s="30"/>
+      <c r="W28" s="28" t="s">
         <v>39</v>
       </c>
-      <c r="X28" s="35"/>
-      <c r="Y28" s="35"/>
-      <c r="Z28" s="35"/>
-      <c r="AA28" s="35"/>
-      <c r="AB28" s="35"/>
-      <c r="AC28" s="36"/>
-      <c r="AD28" s="16" t="s">
+      <c r="X28" s="29"/>
+      <c r="Y28" s="29"/>
+      <c r="Z28" s="29"/>
+      <c r="AA28" s="29"/>
+      <c r="AB28" s="29"/>
+      <c r="AC28" s="30"/>
+      <c r="AD28" s="5" t="s">
         <v>141</v>
       </c>
-      <c r="AE28" s="34" t="s">
+      <c r="AE28" s="28" t="s">
         <v>55</v>
       </c>
-      <c r="AF28" s="35"/>
-      <c r="AG28" s="35"/>
-      <c r="AH28" s="35"/>
-      <c r="AI28" s="35"/>
-      <c r="AJ28" s="35"/>
-      <c r="AK28" s="35"/>
-      <c r="AL28" s="36"/>
-      <c r="AM28" s="41"/>
-      <c r="AN28" s="41"/>
-      <c r="AO28" s="44" t="s">
+      <c r="AF28" s="29"/>
+      <c r="AG28" s="29"/>
+      <c r="AH28" s="29"/>
+      <c r="AI28" s="29"/>
+      <c r="AJ28" s="29"/>
+      <c r="AK28" s="29"/>
+      <c r="AL28" s="30"/>
+      <c r="AM28" s="39"/>
+      <c r="AN28" s="39"/>
+      <c r="AO28" s="16" t="s">
         <v>142</v>
       </c>
-      <c r="AP28" s="29" t="s">
+      <c r="AP28" s="10" t="s">
         <v>143</v>
       </c>
-      <c r="AQ28" s="44" t="s">
+      <c r="AQ28" s="16" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="29" ht="64.5" customHeight="1" spans="5:43">
-      <c r="E29" s="5"/>
-      <c r="F29" s="5"/>
-      <c r="G29" s="30"/>
-      <c r="H29" s="31"/>
-      <c r="I29" s="31"/>
-      <c r="J29" s="33"/>
-      <c r="K29" s="30"/>
-      <c r="L29" s="31"/>
-      <c r="M29" s="31"/>
-      <c r="N29" s="33"/>
-      <c r="O29" s="34" t="s">
+    <row r="29" spans="5:44" ht="64.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E29" s="37"/>
+      <c r="F29" s="37"/>
+      <c r="G29" s="49"/>
+      <c r="H29" s="50"/>
+      <c r="I29" s="50"/>
+      <c r="J29" s="51"/>
+      <c r="K29" s="49"/>
+      <c r="L29" s="50"/>
+      <c r="M29" s="50"/>
+      <c r="N29" s="51"/>
+      <c r="O29" s="28" t="s">
         <v>140</v>
       </c>
-      <c r="P29" s="35"/>
-      <c r="Q29" s="35"/>
-      <c r="R29" s="36"/>
-      <c r="S29" s="34" t="s">
+      <c r="P29" s="29"/>
+      <c r="Q29" s="29"/>
+      <c r="R29" s="30"/>
+      <c r="S29" s="28" t="s">
         <v>84</v>
       </c>
-      <c r="T29" s="35"/>
-      <c r="U29" s="35"/>
-      <c r="V29" s="36"/>
-      <c r="W29" s="34" t="s">
+      <c r="T29" s="29"/>
+      <c r="U29" s="29"/>
+      <c r="V29" s="30"/>
+      <c r="W29" s="28" t="s">
         <v>39</v>
       </c>
-      <c r="X29" s="35"/>
-      <c r="Y29" s="35"/>
-      <c r="Z29" s="35"/>
-      <c r="AA29" s="35"/>
-      <c r="AB29" s="35"/>
-      <c r="AC29" s="36"/>
-      <c r="AD29" s="16" t="s">
+      <c r="X29" s="29"/>
+      <c r="Y29" s="29"/>
+      <c r="Z29" s="29"/>
+      <c r="AA29" s="29"/>
+      <c r="AB29" s="29"/>
+      <c r="AC29" s="30"/>
+      <c r="AD29" s="5" t="s">
         <v>141</v>
       </c>
-      <c r="AE29" s="16" t="s">
+      <c r="AE29" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="AF29" s="34" t="s">
+      <c r="AF29" s="28" t="s">
         <v>60</v>
       </c>
-      <c r="AG29" s="35"/>
-      <c r="AH29" s="35"/>
-      <c r="AI29" s="35"/>
-      <c r="AJ29" s="35"/>
-      <c r="AK29" s="35"/>
-      <c r="AL29" s="36"/>
-      <c r="AM29" s="42"/>
-      <c r="AN29" s="42"/>
-      <c r="AO29" s="44" t="s">
+      <c r="AG29" s="29"/>
+      <c r="AH29" s="29"/>
+      <c r="AI29" s="29"/>
+      <c r="AJ29" s="29"/>
+      <c r="AK29" s="29"/>
+      <c r="AL29" s="30"/>
+      <c r="AM29" s="40"/>
+      <c r="AN29" s="40"/>
+      <c r="AO29" s="16" t="s">
         <v>144</v>
       </c>
-      <c r="AP29" s="29" t="s">
+      <c r="AP29" s="10" t="s">
         <v>145</v>
       </c>
-      <c r="AQ29" s="44" t="s">
+      <c r="AQ29" s="16" t="s">
         <v>139</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="39">
-    <mergeCell ref="G21:N21"/>
-    <mergeCell ref="O21:V21"/>
-    <mergeCell ref="W21:AD21"/>
-    <mergeCell ref="AE21:AL21"/>
-    <mergeCell ref="E22:F22"/>
-    <mergeCell ref="AM22:AN22"/>
-    <mergeCell ref="G23:AL23"/>
-    <mergeCell ref="O24:R24"/>
-    <mergeCell ref="S24:V24"/>
-    <mergeCell ref="W24:AK24"/>
-    <mergeCell ref="O25:R25"/>
-    <mergeCell ref="S25:V25"/>
-    <mergeCell ref="W25:AL25"/>
-    <mergeCell ref="O26:R26"/>
-    <mergeCell ref="S26:V26"/>
-    <mergeCell ref="W26:AL26"/>
-    <mergeCell ref="O27:R27"/>
-    <mergeCell ref="S27:V27"/>
-    <mergeCell ref="W27:AD27"/>
-    <mergeCell ref="AE27:AH27"/>
-    <mergeCell ref="AI27:AL27"/>
+    <mergeCell ref="AP21:AP22"/>
+    <mergeCell ref="AQ21:AQ22"/>
+    <mergeCell ref="AR21:AR22"/>
+    <mergeCell ref="G24:J29"/>
+    <mergeCell ref="K24:N29"/>
+    <mergeCell ref="E23:E29"/>
+    <mergeCell ref="F23:F29"/>
+    <mergeCell ref="AM24:AM29"/>
+    <mergeCell ref="AN24:AN29"/>
+    <mergeCell ref="AO21:AO22"/>
     <mergeCell ref="O28:R28"/>
     <mergeCell ref="S28:V28"/>
     <mergeCell ref="W28:AC28"/>
@@ -8122,33 +8253,43 @@
     <mergeCell ref="S29:V29"/>
     <mergeCell ref="W29:AC29"/>
     <mergeCell ref="AF29:AL29"/>
-    <mergeCell ref="E23:E29"/>
-    <mergeCell ref="F23:F29"/>
-    <mergeCell ref="AM24:AM29"/>
-    <mergeCell ref="AN24:AN29"/>
-    <mergeCell ref="AO21:AO22"/>
-    <mergeCell ref="AP21:AP22"/>
-    <mergeCell ref="AQ21:AQ22"/>
-    <mergeCell ref="AR21:AR22"/>
-    <mergeCell ref="G24:J29"/>
-    <mergeCell ref="K24:N29"/>
+    <mergeCell ref="O27:R27"/>
+    <mergeCell ref="S27:V27"/>
+    <mergeCell ref="W27:AD27"/>
+    <mergeCell ref="AE27:AH27"/>
+    <mergeCell ref="AI27:AL27"/>
+    <mergeCell ref="O25:R25"/>
+    <mergeCell ref="S25:V25"/>
+    <mergeCell ref="W25:AL25"/>
+    <mergeCell ref="O26:R26"/>
+    <mergeCell ref="S26:V26"/>
+    <mergeCell ref="W26:AL26"/>
+    <mergeCell ref="AM22:AN22"/>
+    <mergeCell ref="G23:AL23"/>
+    <mergeCell ref="O24:R24"/>
+    <mergeCell ref="S24:V24"/>
+    <mergeCell ref="W24:AK24"/>
+    <mergeCell ref="G21:N21"/>
+    <mergeCell ref="O21:V21"/>
+    <mergeCell ref="W21:AD21"/>
+    <mergeCell ref="AE21:AL21"/>
+    <mergeCell ref="E22:F22"/>
   </mergeCells>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="C13:AM19"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" topLeftCell="H7" workbookViewId="0">
+    <sheetView topLeftCell="H7" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="W28" sqref="W28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="2" width="7" customWidth="1"/>
     <col min="3" max="36" width="6.5" customWidth="1"/>
@@ -8157,498 +8298,479 @@
     <col min="39" max="39" width="58.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="13" ht="20.25" customHeight="1" spans="3:39">
+    <row r="13" spans="3:39" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>93</v>
       </c>
       <c r="D13" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="E13" s="2" t="s">
+      <c r="E13" s="32" t="s">
         <v>95</v>
       </c>
-      <c r="F13" s="3"/>
-      <c r="G13" s="3"/>
-      <c r="H13" s="3"/>
-      <c r="I13" s="3"/>
-      <c r="J13" s="3"/>
-      <c r="K13" s="3"/>
-      <c r="L13" s="10"/>
-      <c r="M13" s="2" t="s">
+      <c r="F13" s="33"/>
+      <c r="G13" s="33"/>
+      <c r="H13" s="33"/>
+      <c r="I13" s="33"/>
+      <c r="J13" s="33"/>
+      <c r="K13" s="33"/>
+      <c r="L13" s="34"/>
+      <c r="M13" s="32" t="s">
         <v>96</v>
       </c>
-      <c r="N13" s="3" t="s">
+      <c r="N13" s="33" t="s">
         <v>97</v>
       </c>
-      <c r="O13" s="3" t="s">
+      <c r="O13" s="33" t="s">
         <v>98</v>
       </c>
-      <c r="P13" s="3"/>
-      <c r="Q13" s="3"/>
-      <c r="R13" s="3"/>
-      <c r="S13" s="3"/>
-      <c r="T13" s="10"/>
-      <c r="U13" s="2" t="s">
+      <c r="P13" s="33"/>
+      <c r="Q13" s="33"/>
+      <c r="R13" s="33"/>
+      <c r="S13" s="33"/>
+      <c r="T13" s="34"/>
+      <c r="U13" s="32" t="s">
         <v>97</v>
       </c>
-      <c r="V13" s="3"/>
-      <c r="W13" s="3"/>
-      <c r="X13" s="3"/>
-      <c r="Y13" s="3"/>
-      <c r="Z13" s="3"/>
-      <c r="AA13" s="3"/>
-      <c r="AB13" s="10"/>
-      <c r="AC13" s="2" t="s">
+      <c r="V13" s="33"/>
+      <c r="W13" s="33"/>
+      <c r="X13" s="33"/>
+      <c r="Y13" s="33"/>
+      <c r="Z13" s="33"/>
+      <c r="AA13" s="33"/>
+      <c r="AB13" s="34"/>
+      <c r="AC13" s="32" t="s">
         <v>98</v>
       </c>
-      <c r="AD13" s="3"/>
-      <c r="AE13" s="3"/>
-      <c r="AF13" s="3"/>
-      <c r="AG13" s="3"/>
-      <c r="AH13" s="3"/>
-      <c r="AI13" s="3"/>
-      <c r="AJ13" s="10"/>
-      <c r="AK13" s="21" t="s">
+      <c r="AD13" s="33"/>
+      <c r="AE13" s="33"/>
+      <c r="AF13" s="33"/>
+      <c r="AG13" s="33"/>
+      <c r="AH13" s="33"/>
+      <c r="AI13" s="33"/>
+      <c r="AJ13" s="34"/>
+      <c r="AK13" s="52" t="s">
         <v>32</v>
       </c>
-      <c r="AL13" s="22" t="s">
+      <c r="AL13" s="41" t="s">
         <v>33</v>
       </c>
-      <c r="AM13" s="22" t="s">
+      <c r="AM13" s="41" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="14" ht="24" customHeight="1" spans="3:39">
-      <c r="C14" s="4" t="s">
+    <row r="14" spans="3:39" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C14" s="35" t="s">
         <v>101</v>
       </c>
-      <c r="D14" s="4"/>
-      <c r="E14" s="4" t="s">
+      <c r="D14" s="35"/>
+      <c r="E14" s="3" t="s">
         <v>102</v>
       </c>
-      <c r="F14" s="4" t="s">
+      <c r="F14" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="G14" s="4" t="s">
+      <c r="G14" s="3" t="s">
         <v>104</v>
       </c>
-      <c r="H14" s="4" t="s">
+      <c r="H14" s="3" t="s">
         <v>105</v>
       </c>
-      <c r="I14" s="4" t="s">
+      <c r="I14" s="3" t="s">
         <v>106</v>
       </c>
-      <c r="J14" s="4" t="s">
+      <c r="J14" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="K14" s="4" t="s">
+      <c r="K14" s="3" t="s">
         <v>108</v>
       </c>
-      <c r="L14" s="4" t="s">
+      <c r="L14" s="3" t="s">
         <v>109</v>
       </c>
-      <c r="M14" s="4" t="s">
+      <c r="M14" s="3" t="s">
         <v>110</v>
       </c>
-      <c r="N14" s="4" t="s">
+      <c r="N14" s="3" t="s">
         <v>111</v>
       </c>
-      <c r="O14" s="4" t="s">
+      <c r="O14" s="3" t="s">
         <v>112</v>
       </c>
-      <c r="P14" s="4" t="s">
+      <c r="P14" s="3" t="s">
         <v>113</v>
       </c>
-      <c r="Q14" s="4" t="s">
+      <c r="Q14" s="3" t="s">
         <v>114</v>
       </c>
-      <c r="R14" s="4" t="s">
+      <c r="R14" s="3" t="s">
         <v>115</v>
       </c>
-      <c r="S14" s="4" t="s">
+      <c r="S14" s="3" t="s">
         <v>116</v>
       </c>
-      <c r="T14" s="4" t="s">
+      <c r="T14" s="3" t="s">
         <v>117</v>
       </c>
-      <c r="U14" s="4" t="s">
+      <c r="U14" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="V14" s="4" t="s">
+      <c r="V14" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="W14" s="4" t="s">
+      <c r="W14" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="X14" s="4" t="s">
+      <c r="X14" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="Y14" s="4" t="s">
+      <c r="Y14" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="Z14" s="4" t="s">
+      <c r="Z14" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="AA14" s="4" t="s">
+      <c r="AA14" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="AB14" s="4" t="s">
+      <c r="AB14" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="AC14" s="4" t="s">
+      <c r="AC14" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="AD14" s="4" t="s">
+      <c r="AD14" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="AE14" s="4" t="s">
+      <c r="AE14" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="AF14" s="4" t="s">
+      <c r="AF14" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="AG14" s="4" t="s">
+      <c r="AG14" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="AH14" s="4" t="s">
+      <c r="AH14" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="AI14" s="4" t="s">
+      <c r="AI14" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="AJ14" s="4" t="s">
+      <c r="AJ14" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="AK14" s="25"/>
-      <c r="AL14" s="22"/>
-      <c r="AM14" s="22"/>
+      <c r="AK14" s="53"/>
+      <c r="AL14" s="41"/>
+      <c r="AM14" s="41"/>
     </row>
-    <row r="15" ht="95.25" customHeight="1" spans="3:39">
-      <c r="C15" s="5" t="s">
+    <row r="15" spans="3:39" ht="95.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C15" s="37" t="s">
         <v>119</v>
       </c>
-      <c r="D15" s="5" t="s">
+      <c r="D15" s="37" t="s">
         <v>120</v>
       </c>
-      <c r="E15" s="32" t="s">
+      <c r="E15" s="31" t="s">
         <v>38</v>
       </c>
-      <c r="F15" s="32"/>
-      <c r="G15" s="32"/>
-      <c r="H15" s="32"/>
-      <c r="I15" s="36" t="s">
+      <c r="F15" s="31"/>
+      <c r="G15" s="31"/>
+      <c r="H15" s="31"/>
+      <c r="I15" s="30" t="s">
         <v>39</v>
       </c>
-      <c r="J15" s="16"/>
-      <c r="K15" s="12" t="s">
+      <c r="J15" s="27"/>
+      <c r="K15" s="24" t="s">
         <v>146</v>
       </c>
-      <c r="L15" s="14"/>
-      <c r="M15" s="12" t="s">
+      <c r="L15" s="26"/>
+      <c r="M15" s="24" t="s">
         <v>39</v>
       </c>
-      <c r="N15" s="13"/>
-      <c r="O15" s="13"/>
-      <c r="P15" s="14"/>
-      <c r="Q15" s="16" t="s">
+      <c r="N15" s="25"/>
+      <c r="O15" s="25"/>
+      <c r="P15" s="26"/>
+      <c r="Q15" s="27" t="s">
         <v>65</v>
       </c>
-      <c r="R15" s="16"/>
-      <c r="S15" s="16"/>
-      <c r="T15" s="16"/>
-      <c r="U15" s="34" t="s">
+      <c r="R15" s="27"/>
+      <c r="S15" s="27"/>
+      <c r="T15" s="27"/>
+      <c r="U15" s="28" t="s">
         <v>39</v>
       </c>
-      <c r="V15" s="35"/>
-      <c r="W15" s="35"/>
-      <c r="X15" s="35"/>
-      <c r="Y15" s="35"/>
-      <c r="Z15" s="36"/>
-      <c r="AA15" s="32" t="s">
+      <c r="V15" s="29"/>
+      <c r="W15" s="29"/>
+      <c r="X15" s="29"/>
+      <c r="Y15" s="29"/>
+      <c r="Z15" s="30"/>
+      <c r="AA15" s="11" t="s">
         <v>66</v>
       </c>
-      <c r="AB15" s="32" t="s">
+      <c r="AB15" s="11" t="s">
         <v>67</v>
       </c>
-      <c r="AC15" s="34" t="s">
+      <c r="AC15" s="28" t="s">
         <v>39</v>
       </c>
-      <c r="AD15" s="35"/>
-      <c r="AE15" s="35"/>
-      <c r="AF15" s="35"/>
-      <c r="AG15" s="35"/>
-      <c r="AH15" s="35"/>
-      <c r="AI15" s="35"/>
-      <c r="AJ15" s="36"/>
-      <c r="AK15" s="27" t="s">
+      <c r="AD15" s="29"/>
+      <c r="AE15" s="29"/>
+      <c r="AF15" s="29"/>
+      <c r="AG15" s="29"/>
+      <c r="AH15" s="29"/>
+      <c r="AI15" s="29"/>
+      <c r="AJ15" s="30"/>
+      <c r="AK15" s="9" t="s">
         <v>147</v>
       </c>
-      <c r="AL15" s="29" t="s">
+      <c r="AL15" s="10" t="s">
         <v>148</v>
       </c>
-      <c r="AM15" s="29" t="s">
+      <c r="AM15" s="10" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="16" ht="95.25" customHeight="1" spans="3:39">
-      <c r="C16" s="5"/>
-      <c r="D16" s="5"/>
-      <c r="E16" s="32"/>
-      <c r="F16" s="32"/>
-      <c r="G16" s="32"/>
-      <c r="H16" s="32"/>
-      <c r="I16" s="13" t="s">
+    <row r="16" spans="3:39" ht="95.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C16" s="37"/>
+      <c r="D16" s="37"/>
+      <c r="E16" s="31"/>
+      <c r="F16" s="31"/>
+      <c r="G16" s="31"/>
+      <c r="H16" s="31"/>
+      <c r="I16" s="25" t="s">
         <v>39</v>
       </c>
-      <c r="J16" s="13"/>
-      <c r="K16" s="13"/>
-      <c r="L16" s="14"/>
-      <c r="M16" s="12" t="s">
+      <c r="J16" s="25"/>
+      <c r="K16" s="25"/>
+      <c r="L16" s="26"/>
+      <c r="M16" s="24" t="s">
         <v>39</v>
       </c>
-      <c r="N16" s="13"/>
-      <c r="O16" s="13"/>
-      <c r="P16" s="14"/>
-      <c r="Q16" s="16" t="s">
+      <c r="N16" s="25"/>
+      <c r="O16" s="25"/>
+      <c r="P16" s="26"/>
+      <c r="Q16" s="27" t="s">
         <v>74</v>
       </c>
-      <c r="R16" s="16"/>
-      <c r="S16" s="16"/>
-      <c r="T16" s="16"/>
-      <c r="U16" s="34" t="s">
+      <c r="R16" s="27"/>
+      <c r="S16" s="27"/>
+      <c r="T16" s="27"/>
+      <c r="U16" s="28" t="s">
         <v>39</v>
       </c>
-      <c r="V16" s="35"/>
-      <c r="W16" s="35"/>
-      <c r="X16" s="35"/>
-      <c r="Y16" s="35"/>
-      <c r="Z16" s="35"/>
-      <c r="AA16" s="35"/>
-      <c r="AB16" s="35"/>
-      <c r="AC16" s="35"/>
-      <c r="AD16" s="35"/>
-      <c r="AE16" s="35"/>
-      <c r="AF16" s="35"/>
-      <c r="AG16" s="35"/>
-      <c r="AH16" s="35"/>
-      <c r="AI16" s="35"/>
-      <c r="AJ16" s="36"/>
-      <c r="AK16" s="27" t="s">
+      <c r="V16" s="29"/>
+      <c r="W16" s="29"/>
+      <c r="X16" s="29"/>
+      <c r="Y16" s="29"/>
+      <c r="Z16" s="29"/>
+      <c r="AA16" s="29"/>
+      <c r="AB16" s="29"/>
+      <c r="AC16" s="29"/>
+      <c r="AD16" s="29"/>
+      <c r="AE16" s="29"/>
+      <c r="AF16" s="29"/>
+      <c r="AG16" s="29"/>
+      <c r="AH16" s="29"/>
+      <c r="AI16" s="29"/>
+      <c r="AJ16" s="30"/>
+      <c r="AK16" s="9" t="s">
         <v>75</v>
       </c>
-      <c r="AL16" s="29" t="s">
+      <c r="AL16" s="10" t="s">
         <v>76</v>
       </c>
-      <c r="AM16" s="29" t="s">
+      <c r="AM16" s="10" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="17" ht="95.25" customHeight="1" spans="3:39">
-      <c r="C17" s="5"/>
-      <c r="D17" s="5"/>
-      <c r="E17" s="32"/>
-      <c r="F17" s="32"/>
-      <c r="G17" s="32"/>
-      <c r="H17" s="32"/>
-      <c r="I17" s="13" t="s">
+    <row r="17" spans="3:39" ht="95.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C17" s="37"/>
+      <c r="D17" s="37"/>
+      <c r="E17" s="31"/>
+      <c r="F17" s="31"/>
+      <c r="G17" s="31"/>
+      <c r="H17" s="31"/>
+      <c r="I17" s="25" t="s">
         <v>39</v>
       </c>
-      <c r="J17" s="13"/>
-      <c r="K17" s="13"/>
-      <c r="L17" s="14"/>
-      <c r="M17" s="12" t="s">
+      <c r="J17" s="25"/>
+      <c r="K17" s="25"/>
+      <c r="L17" s="26"/>
+      <c r="M17" s="24" t="s">
         <v>39</v>
       </c>
-      <c r="N17" s="13"/>
-      <c r="O17" s="13"/>
-      <c r="P17" s="14"/>
-      <c r="Q17" s="16" t="s">
+      <c r="N17" s="25"/>
+      <c r="O17" s="25"/>
+      <c r="P17" s="26"/>
+      <c r="Q17" s="27" t="s">
         <v>77</v>
       </c>
-      <c r="R17" s="16"/>
-      <c r="S17" s="16"/>
-      <c r="T17" s="16"/>
-      <c r="U17" s="34" t="s">
+      <c r="R17" s="27"/>
+      <c r="S17" s="27"/>
+      <c r="T17" s="27"/>
+      <c r="U17" s="28" t="s">
         <v>39</v>
       </c>
-      <c r="V17" s="35"/>
-      <c r="W17" s="35"/>
-      <c r="X17" s="35"/>
-      <c r="Y17" s="35"/>
-      <c r="Z17" s="35"/>
-      <c r="AA17" s="35"/>
-      <c r="AB17" s="35"/>
-      <c r="AC17" s="35"/>
-      <c r="AD17" s="35"/>
-      <c r="AE17" s="35"/>
-      <c r="AF17" s="36"/>
-      <c r="AG17" s="34" t="s">
+      <c r="V17" s="29"/>
+      <c r="W17" s="29"/>
+      <c r="X17" s="29"/>
+      <c r="Y17" s="29"/>
+      <c r="Z17" s="29"/>
+      <c r="AA17" s="29"/>
+      <c r="AB17" s="29"/>
+      <c r="AC17" s="29"/>
+      <c r="AD17" s="29"/>
+      <c r="AE17" s="29"/>
+      <c r="AF17" s="30"/>
+      <c r="AG17" s="28" t="s">
         <v>38</v>
       </c>
-      <c r="AH17" s="35"/>
-      <c r="AI17" s="35"/>
-      <c r="AJ17" s="36"/>
-      <c r="AK17" s="27" t="s">
+      <c r="AH17" s="29"/>
+      <c r="AI17" s="29"/>
+      <c r="AJ17" s="30"/>
+      <c r="AK17" s="9" t="s">
         <v>78</v>
       </c>
-      <c r="AL17" s="29" t="s">
+      <c r="AL17" s="10" t="s">
         <v>150</v>
       </c>
-      <c r="AM17" s="29" t="s">
+      <c r="AM17" s="10" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="18" ht="95.25" customHeight="1" spans="3:39">
-      <c r="C18" s="5"/>
-      <c r="D18" s="5"/>
-      <c r="E18" s="32"/>
-      <c r="F18" s="32"/>
-      <c r="G18" s="32"/>
-      <c r="H18" s="32"/>
-      <c r="I18" s="36" t="s">
+    <row r="18" spans="3:39" ht="95.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C18" s="37"/>
+      <c r="D18" s="37"/>
+      <c r="E18" s="31"/>
+      <c r="F18" s="31"/>
+      <c r="G18" s="31"/>
+      <c r="H18" s="31"/>
+      <c r="I18" s="30" t="s">
         <v>39</v>
       </c>
-      <c r="J18" s="16"/>
-      <c r="K18" s="12" t="s">
+      <c r="J18" s="27"/>
+      <c r="K18" s="24" t="s">
         <v>146</v>
       </c>
-      <c r="L18" s="14"/>
-      <c r="M18" s="32" t="s">
+      <c r="L18" s="26"/>
+      <c r="M18" s="31" t="s">
         <v>152</v>
       </c>
-      <c r="N18" s="32"/>
-      <c r="O18" s="32"/>
-      <c r="P18" s="32"/>
-      <c r="Q18" s="16" t="s">
+      <c r="N18" s="31"/>
+      <c r="O18" s="31"/>
+      <c r="P18" s="31"/>
+      <c r="Q18" s="27" t="s">
         <v>88</v>
       </c>
-      <c r="R18" s="16"/>
-      <c r="S18" s="16"/>
-      <c r="T18" s="16"/>
-      <c r="U18" s="34" t="s">
+      <c r="R18" s="27"/>
+      <c r="S18" s="27"/>
+      <c r="T18" s="27"/>
+      <c r="U18" s="28" t="s">
         <v>39</v>
       </c>
-      <c r="V18" s="35"/>
-      <c r="W18" s="35"/>
-      <c r="X18" s="35"/>
-      <c r="Y18" s="35"/>
-      <c r="Z18" s="36"/>
-      <c r="AA18" s="16" t="s">
+      <c r="V18" s="29"/>
+      <c r="W18" s="29"/>
+      <c r="X18" s="29"/>
+      <c r="Y18" s="29"/>
+      <c r="Z18" s="30"/>
+      <c r="AA18" s="27" t="s">
         <v>153</v>
       </c>
-      <c r="AB18" s="16"/>
-      <c r="AC18" s="16" t="s">
+      <c r="AB18" s="27"/>
+      <c r="AC18" s="27" t="s">
         <v>39</v>
       </c>
-      <c r="AD18" s="16"/>
-      <c r="AE18" s="34" t="s">
+      <c r="AD18" s="27"/>
+      <c r="AE18" s="28" t="s">
         <v>60</v>
       </c>
-      <c r="AF18" s="35"/>
-      <c r="AG18" s="35"/>
-      <c r="AH18" s="35"/>
-      <c r="AI18" s="35"/>
-      <c r="AJ18" s="36"/>
-      <c r="AK18" s="27" t="s">
+      <c r="AF18" s="29"/>
+      <c r="AG18" s="29"/>
+      <c r="AH18" s="29"/>
+      <c r="AI18" s="29"/>
+      <c r="AJ18" s="30"/>
+      <c r="AK18" s="9" t="s">
         <v>154</v>
       </c>
-      <c r="AL18" s="29" t="s">
+      <c r="AL18" s="10" t="s">
         <v>155</v>
       </c>
-      <c r="AM18" s="29" t="s">
+      <c r="AM18" s="10" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="19" ht="95.25" customHeight="1" spans="3:39">
-      <c r="C19" s="5"/>
-      <c r="D19" s="5"/>
-      <c r="E19" s="32"/>
-      <c r="F19" s="32"/>
-      <c r="G19" s="32"/>
-      <c r="H19" s="32"/>
-      <c r="I19" s="36" t="s">
+    <row r="19" spans="3:39" ht="95.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C19" s="37"/>
+      <c r="D19" s="37"/>
+      <c r="E19" s="31"/>
+      <c r="F19" s="31"/>
+      <c r="G19" s="31"/>
+      <c r="H19" s="31"/>
+      <c r="I19" s="30" t="s">
         <v>39</v>
       </c>
-      <c r="J19" s="16"/>
-      <c r="K19" s="12" t="s">
+      <c r="J19" s="27"/>
+      <c r="K19" s="24" t="s">
         <v>146</v>
       </c>
-      <c r="L19" s="14"/>
-      <c r="M19" s="32" t="s">
+      <c r="L19" s="26"/>
+      <c r="M19" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="N19" s="12" t="s">
+      <c r="N19" s="24" t="s">
         <v>157</v>
       </c>
-      <c r="O19" s="13"/>
-      <c r="P19" s="14"/>
-      <c r="Q19" s="16" t="s">
+      <c r="O19" s="25"/>
+      <c r="P19" s="26"/>
+      <c r="Q19" s="27" t="s">
         <v>158</v>
       </c>
-      <c r="R19" s="16"/>
-      <c r="S19" s="16"/>
-      <c r="T19" s="16"/>
-      <c r="U19" s="34" t="s">
+      <c r="R19" s="27"/>
+      <c r="S19" s="27"/>
+      <c r="T19" s="27"/>
+      <c r="U19" s="28" t="s">
         <v>39</v>
       </c>
-      <c r="V19" s="35"/>
-      <c r="W19" s="35"/>
-      <c r="X19" s="35"/>
-      <c r="Y19" s="35"/>
-      <c r="Z19" s="35"/>
-      <c r="AA19" s="36"/>
-      <c r="AB19" s="16" t="s">
+      <c r="V19" s="29"/>
+      <c r="W19" s="29"/>
+      <c r="X19" s="29"/>
+      <c r="Y19" s="29"/>
+      <c r="Z19" s="29"/>
+      <c r="AA19" s="30"/>
+      <c r="AB19" s="5" t="s">
         <v>159</v>
       </c>
-      <c r="AC19" s="16" t="s">
+      <c r="AC19" s="27" t="s">
         <v>39</v>
       </c>
-      <c r="AD19" s="16"/>
-      <c r="AE19" s="16"/>
-      <c r="AF19" s="16"/>
-      <c r="AG19" s="16"/>
-      <c r="AH19" s="16"/>
-      <c r="AI19" s="16"/>
-      <c r="AJ19" s="37" t="s">
+      <c r="AD19" s="27"/>
+      <c r="AE19" s="27"/>
+      <c r="AF19" s="27"/>
+      <c r="AG19" s="27"/>
+      <c r="AH19" s="27"/>
+      <c r="AI19" s="27"/>
+      <c r="AJ19" s="12" t="s">
         <v>160</v>
       </c>
-      <c r="AK19" s="27" t="s">
+      <c r="AK19" s="9" t="s">
         <v>161</v>
       </c>
-      <c r="AL19" s="29" t="s">
+      <c r="AL19" s="10" t="s">
         <v>162</v>
       </c>
-      <c r="AM19" s="29" t="s">
+      <c r="AM19" s="10" t="s">
         <v>163</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="40">
-    <mergeCell ref="E13:L13"/>
-    <mergeCell ref="M13:T13"/>
-    <mergeCell ref="U13:AB13"/>
-    <mergeCell ref="AC13:AJ13"/>
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="I15:J15"/>
-    <mergeCell ref="K15:L15"/>
-    <mergeCell ref="M15:P15"/>
-    <mergeCell ref="Q15:T15"/>
-    <mergeCell ref="U15:Z15"/>
-    <mergeCell ref="AC15:AJ15"/>
-    <mergeCell ref="I16:L16"/>
-    <mergeCell ref="M16:P16"/>
-    <mergeCell ref="Q16:T16"/>
-    <mergeCell ref="U16:AJ16"/>
-    <mergeCell ref="I17:L17"/>
-    <mergeCell ref="M17:P17"/>
-    <mergeCell ref="Q17:T17"/>
-    <mergeCell ref="U17:AF17"/>
-    <mergeCell ref="AG17:AJ17"/>
-    <mergeCell ref="I18:J18"/>
-    <mergeCell ref="K18:L18"/>
-    <mergeCell ref="M18:P18"/>
-    <mergeCell ref="Q18:T18"/>
-    <mergeCell ref="U18:Z18"/>
+    <mergeCell ref="C15:C19"/>
+    <mergeCell ref="D15:D19"/>
+    <mergeCell ref="AK13:AK14"/>
+    <mergeCell ref="AL13:AL14"/>
+    <mergeCell ref="AM13:AM14"/>
+    <mergeCell ref="E15:H19"/>
     <mergeCell ref="AA18:AB18"/>
     <mergeCell ref="AC18:AD18"/>
     <mergeCell ref="AE18:AJ18"/>
@@ -8658,29 +8780,47 @@
     <mergeCell ref="Q19:T19"/>
     <mergeCell ref="U19:AA19"/>
     <mergeCell ref="AC19:AI19"/>
-    <mergeCell ref="C15:C19"/>
-    <mergeCell ref="D15:D19"/>
-    <mergeCell ref="AK13:AK14"/>
-    <mergeCell ref="AL13:AL14"/>
-    <mergeCell ref="AM13:AM14"/>
-    <mergeCell ref="E15:H19"/>
+    <mergeCell ref="I18:J18"/>
+    <mergeCell ref="K18:L18"/>
+    <mergeCell ref="M18:P18"/>
+    <mergeCell ref="Q18:T18"/>
+    <mergeCell ref="U18:Z18"/>
+    <mergeCell ref="I17:L17"/>
+    <mergeCell ref="M17:P17"/>
+    <mergeCell ref="Q17:T17"/>
+    <mergeCell ref="U17:AF17"/>
+    <mergeCell ref="AG17:AJ17"/>
+    <mergeCell ref="AC15:AJ15"/>
+    <mergeCell ref="I16:L16"/>
+    <mergeCell ref="M16:P16"/>
+    <mergeCell ref="Q16:T16"/>
+    <mergeCell ref="U16:AJ16"/>
+    <mergeCell ref="I15:J15"/>
+    <mergeCell ref="K15:L15"/>
+    <mergeCell ref="M15:P15"/>
+    <mergeCell ref="Q15:T15"/>
+    <mergeCell ref="U15:Z15"/>
+    <mergeCell ref="E13:L13"/>
+    <mergeCell ref="M13:T13"/>
+    <mergeCell ref="U13:AB13"/>
+    <mergeCell ref="AC13:AJ13"/>
+    <mergeCell ref="C14:D14"/>
   </mergeCells>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="C13:AM19"/>
   <sheetViews>
     <sheetView zoomScale="72" zoomScaleNormal="72" workbookViewId="0">
       <selection activeCell="C13" sqref="C13:AM19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="2" width="7" customWidth="1"/>
     <col min="5" max="36" width="6.75" customWidth="1"/>
@@ -8689,471 +8829,470 @@
     <col min="39" max="39" width="58.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="13" ht="20.25" customHeight="1" spans="3:39">
+    <row r="13" spans="3:39" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>93</v>
       </c>
       <c r="D13" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="E13" s="2" t="s">
+      <c r="E13" s="32" t="s">
         <v>95</v>
       </c>
-      <c r="F13" s="3"/>
-      <c r="G13" s="3"/>
-      <c r="H13" s="3"/>
-      <c r="I13" s="3"/>
-      <c r="J13" s="3"/>
-      <c r="K13" s="3"/>
-      <c r="L13" s="10"/>
-      <c r="M13" s="2" t="s">
+      <c r="F13" s="33"/>
+      <c r="G13" s="33"/>
+      <c r="H13" s="33"/>
+      <c r="I13" s="33"/>
+      <c r="J13" s="33"/>
+      <c r="K13" s="33"/>
+      <c r="L13" s="34"/>
+      <c r="M13" s="32" t="s">
         <v>96</v>
       </c>
-      <c r="N13" s="3" t="s">
+      <c r="N13" s="33" t="s">
         <v>97</v>
       </c>
-      <c r="O13" s="3" t="s">
+      <c r="O13" s="33" t="s">
         <v>98</v>
       </c>
-      <c r="P13" s="3"/>
-      <c r="Q13" s="3"/>
-      <c r="R13" s="3"/>
-      <c r="S13" s="3"/>
-      <c r="T13" s="10"/>
-      <c r="U13" s="2" t="s">
+      <c r="P13" s="33"/>
+      <c r="Q13" s="33"/>
+      <c r="R13" s="33"/>
+      <c r="S13" s="33"/>
+      <c r="T13" s="34"/>
+      <c r="U13" s="32" t="s">
         <v>97</v>
       </c>
-      <c r="V13" s="3"/>
-      <c r="W13" s="3"/>
-      <c r="X13" s="3"/>
-      <c r="Y13" s="3"/>
-      <c r="Z13" s="3"/>
-      <c r="AA13" s="3"/>
-      <c r="AB13" s="10"/>
-      <c r="AC13" s="2" t="s">
+      <c r="V13" s="33"/>
+      <c r="W13" s="33"/>
+      <c r="X13" s="33"/>
+      <c r="Y13" s="33"/>
+      <c r="Z13" s="33"/>
+      <c r="AA13" s="33"/>
+      <c r="AB13" s="34"/>
+      <c r="AC13" s="32" t="s">
         <v>98</v>
       </c>
-      <c r="AD13" s="3"/>
-      <c r="AE13" s="3"/>
-      <c r="AF13" s="3"/>
-      <c r="AG13" s="3"/>
-      <c r="AH13" s="3"/>
-      <c r="AI13" s="3"/>
-      <c r="AJ13" s="10"/>
-      <c r="AK13" s="21" t="s">
+      <c r="AD13" s="33"/>
+      <c r="AE13" s="33"/>
+      <c r="AF13" s="33"/>
+      <c r="AG13" s="33"/>
+      <c r="AH13" s="33"/>
+      <c r="AI13" s="33"/>
+      <c r="AJ13" s="34"/>
+      <c r="AK13" s="52" t="s">
         <v>32</v>
       </c>
-      <c r="AL13" s="22" t="s">
+      <c r="AL13" s="41" t="s">
         <v>33</v>
       </c>
-      <c r="AM13" s="22" t="s">
+      <c r="AM13" s="41" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="14" ht="24" customHeight="1" spans="3:39">
-      <c r="C14" s="4" t="s">
+    <row r="14" spans="3:39" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C14" s="35" t="s">
         <v>101</v>
       </c>
-      <c r="D14" s="4"/>
-      <c r="E14" s="4" t="s">
+      <c r="D14" s="35"/>
+      <c r="E14" s="3" t="s">
         <v>102</v>
       </c>
-      <c r="F14" s="4" t="s">
+      <c r="F14" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="G14" s="4" t="s">
+      <c r="G14" s="3" t="s">
         <v>104</v>
       </c>
-      <c r="H14" s="4" t="s">
+      <c r="H14" s="3" t="s">
         <v>105</v>
       </c>
-      <c r="I14" s="4" t="s">
+      <c r="I14" s="3" t="s">
         <v>106</v>
       </c>
-      <c r="J14" s="4" t="s">
+      <c r="J14" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="K14" s="4" t="s">
+      <c r="K14" s="3" t="s">
         <v>108</v>
       </c>
-      <c r="L14" s="4" t="s">
+      <c r="L14" s="3" t="s">
         <v>109</v>
       </c>
-      <c r="M14" s="4" t="s">
+      <c r="M14" s="3" t="s">
         <v>110</v>
       </c>
-      <c r="N14" s="4" t="s">
+      <c r="N14" s="3" t="s">
         <v>111</v>
       </c>
-      <c r="O14" s="4" t="s">
+      <c r="O14" s="3" t="s">
         <v>112</v>
       </c>
-      <c r="P14" s="4" t="s">
+      <c r="P14" s="3" t="s">
         <v>113</v>
       </c>
-      <c r="Q14" s="4" t="s">
+      <c r="Q14" s="3" t="s">
         <v>114</v>
       </c>
-      <c r="R14" s="4" t="s">
+      <c r="R14" s="3" t="s">
         <v>115</v>
       </c>
-      <c r="S14" s="4" t="s">
+      <c r="S14" s="3" t="s">
         <v>116</v>
       </c>
-      <c r="T14" s="4" t="s">
+      <c r="T14" s="3" t="s">
         <v>117</v>
       </c>
-      <c r="U14" s="4" t="s">
+      <c r="U14" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="V14" s="4" t="s">
+      <c r="V14" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="W14" s="4" t="s">
+      <c r="W14" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="X14" s="4" t="s">
+      <c r="X14" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="Y14" s="4" t="s">
+      <c r="Y14" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="Z14" s="4" t="s">
+      <c r="Z14" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="AA14" s="4" t="s">
+      <c r="AA14" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="AB14" s="4" t="s">
+      <c r="AB14" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="AC14" s="4" t="s">
+      <c r="AC14" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="AD14" s="4" t="s">
+      <c r="AD14" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="AE14" s="4" t="s">
+      <c r="AE14" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="AF14" s="4" t="s">
+      <c r="AF14" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="AG14" s="4" t="s">
+      <c r="AG14" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="AH14" s="4" t="s">
+      <c r="AH14" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="AI14" s="4" t="s">
+      <c r="AI14" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="AJ14" s="4" t="s">
+      <c r="AJ14" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="AK14" s="25"/>
-      <c r="AL14" s="22"/>
-      <c r="AM14" s="22"/>
+      <c r="AK14" s="53"/>
+      <c r="AL14" s="41"/>
+      <c r="AM14" s="41"/>
     </row>
-    <row r="15" ht="95.25" customHeight="1" spans="3:39">
-      <c r="C15" s="5" t="s">
+    <row r="15" spans="3:39" ht="95.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C15" s="37" t="s">
         <v>119</v>
       </c>
-      <c r="D15" s="5" t="s">
+      <c r="D15" s="37" t="s">
         <v>120</v>
       </c>
-      <c r="E15" s="6" t="s">
+      <c r="E15" s="43" t="s">
         <v>38</v>
       </c>
-      <c r="F15" s="7"/>
-      <c r="G15" s="7"/>
-      <c r="H15" s="7"/>
-      <c r="I15" s="7"/>
-      <c r="J15" s="7"/>
-      <c r="K15" s="7"/>
-      <c r="L15" s="11"/>
-      <c r="M15" s="12" t="s">
+      <c r="F15" s="44"/>
+      <c r="G15" s="44"/>
+      <c r="H15" s="44"/>
+      <c r="I15" s="44"/>
+      <c r="J15" s="44"/>
+      <c r="K15" s="44"/>
+      <c r="L15" s="45"/>
+      <c r="M15" s="24" t="s">
         <v>39</v>
       </c>
-      <c r="N15" s="13"/>
-      <c r="O15" s="13"/>
-      <c r="P15" s="14"/>
-      <c r="Q15" s="16" t="s">
+      <c r="N15" s="25"/>
+      <c r="O15" s="25"/>
+      <c r="P15" s="26"/>
+      <c r="Q15" s="27" t="s">
         <v>65</v>
       </c>
-      <c r="R15" s="16"/>
-      <c r="S15" s="16"/>
-      <c r="T15" s="16"/>
-      <c r="U15" s="34" t="s">
+      <c r="R15" s="27"/>
+      <c r="S15" s="27"/>
+      <c r="T15" s="27"/>
+      <c r="U15" s="28" t="s">
         <v>39</v>
       </c>
-      <c r="V15" s="35"/>
-      <c r="W15" s="35"/>
-      <c r="X15" s="35"/>
-      <c r="Y15" s="35"/>
-      <c r="Z15" s="36"/>
-      <c r="AA15" s="32" t="s">
+      <c r="V15" s="29"/>
+      <c r="W15" s="29"/>
+      <c r="X15" s="29"/>
+      <c r="Y15" s="29"/>
+      <c r="Z15" s="30"/>
+      <c r="AA15" s="11" t="s">
         <v>66</v>
       </c>
-      <c r="AB15" s="32" t="s">
+      <c r="AB15" s="11" t="s">
         <v>67</v>
       </c>
-      <c r="AC15" s="34" t="s">
+      <c r="AC15" s="28" t="s">
         <v>39</v>
       </c>
-      <c r="AD15" s="35"/>
-      <c r="AE15" s="35"/>
-      <c r="AF15" s="35"/>
-      <c r="AG15" s="35"/>
-      <c r="AH15" s="35"/>
-      <c r="AI15" s="35"/>
-      <c r="AJ15" s="36"/>
-      <c r="AK15" s="27" t="s">
+      <c r="AD15" s="29"/>
+      <c r="AE15" s="29"/>
+      <c r="AF15" s="29"/>
+      <c r="AG15" s="29"/>
+      <c r="AH15" s="29"/>
+      <c r="AI15" s="29"/>
+      <c r="AJ15" s="30"/>
+      <c r="AK15" s="9" t="s">
         <v>147</v>
       </c>
-      <c r="AL15" s="29" t="s">
+      <c r="AL15" s="10" t="s">
         <v>164</v>
       </c>
-      <c r="AM15" s="29" t="s">
+      <c r="AM15" s="10" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="16" ht="95.25" customHeight="1" spans="3:39">
-      <c r="C16" s="5"/>
-      <c r="D16" s="5"/>
-      <c r="E16" s="8"/>
-      <c r="F16" s="9"/>
-      <c r="G16" s="9"/>
-      <c r="H16" s="9"/>
-      <c r="I16" s="9"/>
-      <c r="J16" s="9"/>
-      <c r="K16" s="9"/>
-      <c r="L16" s="15"/>
-      <c r="M16" s="12" t="s">
+    <row r="16" spans="3:39" ht="95.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C16" s="37"/>
+      <c r="D16" s="37"/>
+      <c r="E16" s="46"/>
+      <c r="F16" s="47"/>
+      <c r="G16" s="47"/>
+      <c r="H16" s="47"/>
+      <c r="I16" s="47"/>
+      <c r="J16" s="47"/>
+      <c r="K16" s="47"/>
+      <c r="L16" s="48"/>
+      <c r="M16" s="24" t="s">
         <v>39</v>
       </c>
-      <c r="N16" s="13"/>
-      <c r="O16" s="13"/>
-      <c r="P16" s="14"/>
-      <c r="Q16" s="16" t="s">
+      <c r="N16" s="25"/>
+      <c r="O16" s="25"/>
+      <c r="P16" s="26"/>
+      <c r="Q16" s="27" t="s">
         <v>74</v>
       </c>
-      <c r="R16" s="16"/>
-      <c r="S16" s="16"/>
-      <c r="T16" s="16"/>
-      <c r="U16" s="34" t="s">
+      <c r="R16" s="27"/>
+      <c r="S16" s="27"/>
+      <c r="T16" s="27"/>
+      <c r="U16" s="28" t="s">
         <v>39</v>
       </c>
-      <c r="V16" s="35"/>
-      <c r="W16" s="35"/>
-      <c r="X16" s="35"/>
-      <c r="Y16" s="35"/>
-      <c r="Z16" s="35"/>
-      <c r="AA16" s="35"/>
-      <c r="AB16" s="35"/>
-      <c r="AC16" s="35"/>
-      <c r="AD16" s="35"/>
-      <c r="AE16" s="35"/>
-      <c r="AF16" s="35"/>
-      <c r="AG16" s="35"/>
-      <c r="AH16" s="35"/>
-      <c r="AI16" s="35"/>
-      <c r="AJ16" s="36"/>
-      <c r="AK16" s="27" t="s">
+      <c r="V16" s="29"/>
+      <c r="W16" s="29"/>
+      <c r="X16" s="29"/>
+      <c r="Y16" s="29"/>
+      <c r="Z16" s="29"/>
+      <c r="AA16" s="29"/>
+      <c r="AB16" s="29"/>
+      <c r="AC16" s="29"/>
+      <c r="AD16" s="29"/>
+      <c r="AE16" s="29"/>
+      <c r="AF16" s="29"/>
+      <c r="AG16" s="29"/>
+      <c r="AH16" s="29"/>
+      <c r="AI16" s="29"/>
+      <c r="AJ16" s="30"/>
+      <c r="AK16" s="9" t="s">
         <v>75</v>
       </c>
-      <c r="AL16" s="29" t="s">
+      <c r="AL16" s="10" t="s">
         <v>76</v>
       </c>
-      <c r="AM16" s="29" t="s">
+      <c r="AM16" s="10" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="17" ht="95.25" customHeight="1" spans="3:39">
-      <c r="C17" s="5"/>
-      <c r="D17" s="5"/>
-      <c r="E17" s="8"/>
-      <c r="F17" s="9"/>
-      <c r="G17" s="9"/>
-      <c r="H17" s="9"/>
-      <c r="I17" s="9"/>
-      <c r="J17" s="9"/>
-      <c r="K17" s="9"/>
-      <c r="L17" s="15"/>
-      <c r="M17" s="12" t="s">
+    <row r="17" spans="3:39" ht="95.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C17" s="37"/>
+      <c r="D17" s="37"/>
+      <c r="E17" s="46"/>
+      <c r="F17" s="47"/>
+      <c r="G17" s="47"/>
+      <c r="H17" s="47"/>
+      <c r="I17" s="47"/>
+      <c r="J17" s="47"/>
+      <c r="K17" s="47"/>
+      <c r="L17" s="48"/>
+      <c r="M17" s="24" t="s">
         <v>39</v>
       </c>
-      <c r="N17" s="13"/>
-      <c r="O17" s="13"/>
-      <c r="P17" s="14"/>
-      <c r="Q17" s="16" t="s">
+      <c r="N17" s="25"/>
+      <c r="O17" s="25"/>
+      <c r="P17" s="26"/>
+      <c r="Q17" s="27" t="s">
         <v>77</v>
       </c>
-      <c r="R17" s="16"/>
-      <c r="S17" s="16"/>
-      <c r="T17" s="16"/>
-      <c r="U17" s="34" t="s">
+      <c r="R17" s="27"/>
+      <c r="S17" s="27"/>
+      <c r="T17" s="27"/>
+      <c r="U17" s="28" t="s">
         <v>39</v>
       </c>
-      <c r="V17" s="35"/>
-      <c r="W17" s="35"/>
-      <c r="X17" s="35"/>
-      <c r="Y17" s="35"/>
-      <c r="Z17" s="35"/>
-      <c r="AA17" s="35"/>
-      <c r="AB17" s="36"/>
-      <c r="AC17" s="16" t="s">
+      <c r="V17" s="29"/>
+      <c r="W17" s="29"/>
+      <c r="X17" s="29"/>
+      <c r="Y17" s="29"/>
+      <c r="Z17" s="29"/>
+      <c r="AA17" s="29"/>
+      <c r="AB17" s="30"/>
+      <c r="AC17" s="27" t="s">
         <v>38</v>
       </c>
-      <c r="AD17" s="16"/>
-      <c r="AE17" s="16"/>
-      <c r="AF17" s="16"/>
-      <c r="AG17" s="16"/>
-      <c r="AH17" s="16"/>
-      <c r="AI17" s="16"/>
-      <c r="AJ17" s="16"/>
-      <c r="AK17" s="27" t="s">
+      <c r="AD17" s="27"/>
+      <c r="AE17" s="27"/>
+      <c r="AF17" s="27"/>
+      <c r="AG17" s="27"/>
+      <c r="AH17" s="27"/>
+      <c r="AI17" s="27"/>
+      <c r="AJ17" s="27"/>
+      <c r="AK17" s="9" t="s">
         <v>78</v>
       </c>
-      <c r="AL17" s="29" t="s">
+      <c r="AL17" s="10" t="s">
         <v>150</v>
       </c>
-      <c r="AM17" s="29" t="s">
+      <c r="AM17" s="10" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="18" ht="95.25" customHeight="1" spans="3:39">
-      <c r="C18" s="5"/>
-      <c r="D18" s="5"/>
-      <c r="E18" s="8"/>
-      <c r="F18" s="9"/>
-      <c r="G18" s="9"/>
-      <c r="H18" s="9"/>
-      <c r="I18" s="9"/>
-      <c r="J18" s="9"/>
-      <c r="K18" s="9"/>
-      <c r="L18" s="15"/>
-      <c r="M18" s="32" t="s">
+    <row r="18" spans="3:39" ht="95.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C18" s="37"/>
+      <c r="D18" s="37"/>
+      <c r="E18" s="46"/>
+      <c r="F18" s="47"/>
+      <c r="G18" s="47"/>
+      <c r="H18" s="47"/>
+      <c r="I18" s="47"/>
+      <c r="J18" s="47"/>
+      <c r="K18" s="47"/>
+      <c r="L18" s="48"/>
+      <c r="M18" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="N18" s="12" t="s">
+      <c r="N18" s="24" t="s">
         <v>152</v>
       </c>
-      <c r="O18" s="13"/>
-      <c r="P18" s="14"/>
-      <c r="Q18" s="16" t="s">
+      <c r="O18" s="25"/>
+      <c r="P18" s="26"/>
+      <c r="Q18" s="27" t="s">
         <v>88</v>
       </c>
-      <c r="R18" s="16"/>
-      <c r="S18" s="16"/>
-      <c r="T18" s="16"/>
-      <c r="U18" s="34" t="s">
+      <c r="R18" s="27"/>
+      <c r="S18" s="27"/>
+      <c r="T18" s="27"/>
+      <c r="U18" s="28" t="s">
         <v>39</v>
       </c>
-      <c r="V18" s="35"/>
-      <c r="W18" s="35"/>
-      <c r="X18" s="35"/>
-      <c r="Y18" s="35"/>
-      <c r="Z18" s="36"/>
-      <c r="AA18" s="16" t="s">
+      <c r="V18" s="29"/>
+      <c r="W18" s="29"/>
+      <c r="X18" s="29"/>
+      <c r="Y18" s="29"/>
+      <c r="Z18" s="30"/>
+      <c r="AA18" s="27" t="s">
         <v>153</v>
       </c>
-      <c r="AB18" s="16"/>
-      <c r="AC18" s="16" t="s">
+      <c r="AB18" s="27"/>
+      <c r="AC18" s="27" t="s">
         <v>39</v>
       </c>
-      <c r="AD18" s="16"/>
-      <c r="AE18" s="34" t="s">
+      <c r="AD18" s="27"/>
+      <c r="AE18" s="28" t="s">
         <v>60</v>
       </c>
-      <c r="AF18" s="35"/>
-      <c r="AG18" s="35"/>
-      <c r="AH18" s="35"/>
-      <c r="AI18" s="35"/>
-      <c r="AJ18" s="36"/>
-      <c r="AK18" s="27" t="s">
+      <c r="AF18" s="29"/>
+      <c r="AG18" s="29"/>
+      <c r="AH18" s="29"/>
+      <c r="AI18" s="29"/>
+      <c r="AJ18" s="30"/>
+      <c r="AK18" s="9" t="s">
         <v>154</v>
       </c>
-      <c r="AL18" s="29" t="s">
+      <c r="AL18" s="10" t="s">
         <v>166</v>
       </c>
-      <c r="AM18" s="29" t="s">
+      <c r="AM18" s="10" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="19" ht="95.25" customHeight="1" spans="3:39">
-      <c r="C19" s="5"/>
-      <c r="D19" s="5"/>
-      <c r="E19" s="30"/>
-      <c r="F19" s="31"/>
-      <c r="G19" s="31"/>
-      <c r="H19" s="31"/>
-      <c r="I19" s="31"/>
-      <c r="J19" s="31"/>
-      <c r="K19" s="31"/>
-      <c r="L19" s="33"/>
-      <c r="M19" s="32" t="s">
+    <row r="19" spans="3:39" ht="95.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C19" s="37"/>
+      <c r="D19" s="37"/>
+      <c r="E19" s="49"/>
+      <c r="F19" s="50"/>
+      <c r="G19" s="50"/>
+      <c r="H19" s="50"/>
+      <c r="I19" s="50"/>
+      <c r="J19" s="50"/>
+      <c r="K19" s="50"/>
+      <c r="L19" s="51"/>
+      <c r="M19" s="31" t="s">
         <v>39</v>
       </c>
-      <c r="N19" s="32"/>
-      <c r="O19" s="13" t="s">
+      <c r="N19" s="31"/>
+      <c r="O19" s="25" t="s">
         <v>157</v>
       </c>
-      <c r="P19" s="14"/>
-      <c r="Q19" s="16" t="s">
+      <c r="P19" s="26"/>
+      <c r="Q19" s="27" t="s">
         <v>158</v>
       </c>
-      <c r="R19" s="16"/>
-      <c r="S19" s="16"/>
-      <c r="T19" s="16"/>
-      <c r="U19" s="34" t="s">
+      <c r="R19" s="27"/>
+      <c r="S19" s="27"/>
+      <c r="T19" s="27"/>
+      <c r="U19" s="28" t="s">
         <v>39</v>
       </c>
-      <c r="V19" s="35"/>
-      <c r="W19" s="35"/>
-      <c r="X19" s="35"/>
-      <c r="Y19" s="35"/>
-      <c r="Z19" s="35"/>
-      <c r="AA19" s="36"/>
-      <c r="AB19" s="16" t="s">
+      <c r="V19" s="29"/>
+      <c r="W19" s="29"/>
+      <c r="X19" s="29"/>
+      <c r="Y19" s="29"/>
+      <c r="Z19" s="29"/>
+      <c r="AA19" s="30"/>
+      <c r="AB19" s="5" t="s">
         <v>159</v>
       </c>
-      <c r="AC19" s="16" t="s">
+      <c r="AC19" s="27" t="s">
         <v>39</v>
       </c>
-      <c r="AD19" s="16"/>
-      <c r="AE19" s="16"/>
-      <c r="AF19" s="16"/>
-      <c r="AG19" s="16"/>
-      <c r="AH19" s="16"/>
-      <c r="AI19" s="16"/>
-      <c r="AJ19" s="37" t="s">
+      <c r="AD19" s="27"/>
+      <c r="AE19" s="27"/>
+      <c r="AF19" s="27"/>
+      <c r="AG19" s="27"/>
+      <c r="AH19" s="27"/>
+      <c r="AI19" s="27"/>
+      <c r="AJ19" s="12" t="s">
         <v>160</v>
       </c>
-      <c r="AK19" s="27" t="s">
+      <c r="AK19" s="9" t="s">
         <v>161</v>
       </c>
-      <c r="AL19" s="29" t="s">
+      <c r="AL19" s="10" t="s">
         <v>162</v>
       </c>
-      <c r="AM19" s="29" t="s">
+      <c r="AM19" s="10" t="s">
         <v>168</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="33">
-    <mergeCell ref="E13:L13"/>
-    <mergeCell ref="M13:T13"/>
-    <mergeCell ref="U13:AB13"/>
-    <mergeCell ref="AC13:AJ13"/>
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="M15:P15"/>
-    <mergeCell ref="Q15:T15"/>
-    <mergeCell ref="U15:Z15"/>
-    <mergeCell ref="AC15:AJ15"/>
-    <mergeCell ref="M16:P16"/>
-    <mergeCell ref="Q16:T16"/>
-    <mergeCell ref="U16:AJ16"/>
+    <mergeCell ref="C15:C19"/>
+    <mergeCell ref="D15:D19"/>
+    <mergeCell ref="AK13:AK14"/>
+    <mergeCell ref="AL13:AL14"/>
+    <mergeCell ref="AM13:AM14"/>
+    <mergeCell ref="E15:L19"/>
+    <mergeCell ref="M19:N19"/>
+    <mergeCell ref="O19:P19"/>
+    <mergeCell ref="Q19:T19"/>
+    <mergeCell ref="U19:AA19"/>
+    <mergeCell ref="AC19:AI19"/>
     <mergeCell ref="M17:P17"/>
     <mergeCell ref="Q17:T17"/>
     <mergeCell ref="U17:AB17"/>
@@ -9164,34 +9303,34 @@
     <mergeCell ref="AA18:AB18"/>
     <mergeCell ref="AC18:AD18"/>
     <mergeCell ref="AE18:AJ18"/>
-    <mergeCell ref="M19:N19"/>
-    <mergeCell ref="O19:P19"/>
-    <mergeCell ref="Q19:T19"/>
-    <mergeCell ref="U19:AA19"/>
-    <mergeCell ref="AC19:AI19"/>
-    <mergeCell ref="C15:C19"/>
-    <mergeCell ref="D15:D19"/>
-    <mergeCell ref="AK13:AK14"/>
-    <mergeCell ref="AL13:AL14"/>
-    <mergeCell ref="AM13:AM14"/>
-    <mergeCell ref="E15:L19"/>
+    <mergeCell ref="M15:P15"/>
+    <mergeCell ref="Q15:T15"/>
+    <mergeCell ref="U15:Z15"/>
+    <mergeCell ref="AC15:AJ15"/>
+    <mergeCell ref="M16:P16"/>
+    <mergeCell ref="Q16:T16"/>
+    <mergeCell ref="U16:AJ16"/>
+    <mergeCell ref="E13:L13"/>
+    <mergeCell ref="M13:T13"/>
+    <mergeCell ref="U13:AB13"/>
+    <mergeCell ref="AC13:AJ13"/>
+    <mergeCell ref="C14:D14"/>
   </mergeCells>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="C9:AO12"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+  <dimension ref="C9:AO13"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="AM15" sqref="AM15"/>
+    <sheetView tabSelected="1" topLeftCell="P1" workbookViewId="0">
+      <selection activeCell="AN13" sqref="AN13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="36" max="36" width="9.875" customWidth="1"/>
     <col min="37" max="38" width="9.375" customWidth="1"/>
@@ -9200,319 +9339,384 @@
     <col min="41" max="41" width="54.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="9" spans="3:41">
+    <row r="9" spans="3:41" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>93</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="E9" s="2" t="s">
+      <c r="E9" s="32" t="s">
         <v>95</v>
       </c>
-      <c r="F9" s="3"/>
-      <c r="G9" s="3"/>
-      <c r="H9" s="3"/>
-      <c r="I9" s="3"/>
-      <c r="J9" s="3"/>
-      <c r="K9" s="3"/>
-      <c r="L9" s="10"/>
-      <c r="M9" s="2" t="s">
+      <c r="F9" s="33"/>
+      <c r="G9" s="33"/>
+      <c r="H9" s="33"/>
+      <c r="I9" s="33"/>
+      <c r="J9" s="33"/>
+      <c r="K9" s="33"/>
+      <c r="L9" s="34"/>
+      <c r="M9" s="32" t="s">
         <v>96</v>
       </c>
-      <c r="N9" s="3" t="s">
+      <c r="N9" s="33" t="s">
         <v>97</v>
       </c>
-      <c r="O9" s="3" t="s">
+      <c r="O9" s="33" t="s">
         <v>98</v>
       </c>
-      <c r="P9" s="3"/>
-      <c r="Q9" s="3"/>
-      <c r="R9" s="3"/>
-      <c r="S9" s="3"/>
-      <c r="T9" s="10"/>
-      <c r="U9" s="2" t="s">
+      <c r="P9" s="33"/>
+      <c r="Q9" s="33"/>
+      <c r="R9" s="33"/>
+      <c r="S9" s="33"/>
+      <c r="T9" s="34"/>
+      <c r="U9" s="32" t="s">
         <v>97</v>
       </c>
-      <c r="V9" s="3"/>
-      <c r="W9" s="3"/>
-      <c r="X9" s="3"/>
-      <c r="Y9" s="3"/>
-      <c r="Z9" s="3"/>
-      <c r="AA9" s="3"/>
-      <c r="AB9" s="10"/>
-      <c r="AC9" s="2" t="s">
+      <c r="V9" s="33"/>
+      <c r="W9" s="33"/>
+      <c r="X9" s="33"/>
+      <c r="Y9" s="33"/>
+      <c r="Z9" s="33"/>
+      <c r="AA9" s="33"/>
+      <c r="AB9" s="34"/>
+      <c r="AC9" s="32" t="s">
         <v>98</v>
       </c>
-      <c r="AD9" s="3"/>
-      <c r="AE9" s="3"/>
-      <c r="AF9" s="3"/>
-      <c r="AG9" s="3"/>
-      <c r="AH9" s="3"/>
-      <c r="AI9" s="3"/>
-      <c r="AJ9" s="10"/>
+      <c r="AD9" s="33"/>
+      <c r="AE9" s="33"/>
+      <c r="AF9" s="33"/>
+      <c r="AG9" s="33"/>
+      <c r="AH9" s="33"/>
+      <c r="AI9" s="33"/>
+      <c r="AJ9" s="34"/>
       <c r="AK9" s="1" t="s">
         <v>99</v>
       </c>
       <c r="AL9" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="AM9" s="21" t="s">
+      <c r="AM9" s="52" t="s">
         <v>32</v>
       </c>
-      <c r="AN9" s="22" t="s">
+      <c r="AN9" s="41" t="s">
         <v>33</v>
       </c>
-      <c r="AO9" s="22" t="s">
+      <c r="AO9" s="41" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="10" spans="3:41">
-      <c r="C10" s="4" t="s">
+    <row r="10" spans="3:41" x14ac:dyDescent="0.2">
+      <c r="C10" s="35" t="s">
         <v>101</v>
       </c>
-      <c r="D10" s="4"/>
-      <c r="E10" s="4" t="s">
+      <c r="D10" s="35"/>
+      <c r="E10" s="3" t="s">
         <v>102</v>
       </c>
-      <c r="F10" s="4" t="s">
+      <c r="F10" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="G10" s="4" t="s">
+      <c r="G10" s="3" t="s">
         <v>104</v>
       </c>
-      <c r="H10" s="4" t="s">
+      <c r="H10" s="3" t="s">
         <v>105</v>
       </c>
-      <c r="I10" s="4" t="s">
+      <c r="I10" s="3" t="s">
         <v>106</v>
       </c>
-      <c r="J10" s="4" t="s">
+      <c r="J10" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="K10" s="4" t="s">
+      <c r="K10" s="3" t="s">
         <v>108</v>
       </c>
-      <c r="L10" s="4" t="s">
+      <c r="L10" s="3" t="s">
         <v>109</v>
       </c>
-      <c r="M10" s="4" t="s">
+      <c r="M10" s="3" t="s">
         <v>110</v>
       </c>
-      <c r="N10" s="4" t="s">
+      <c r="N10" s="3" t="s">
         <v>111</v>
       </c>
-      <c r="O10" s="4" t="s">
+      <c r="O10" s="3" t="s">
         <v>112</v>
       </c>
-      <c r="P10" s="4" t="s">
+      <c r="P10" s="3" t="s">
         <v>113</v>
       </c>
-      <c r="Q10" s="4" t="s">
+      <c r="Q10" s="3" t="s">
         <v>114</v>
       </c>
-      <c r="R10" s="4" t="s">
+      <c r="R10" s="3" t="s">
         <v>115</v>
       </c>
-      <c r="S10" s="4" t="s">
+      <c r="S10" s="3" t="s">
         <v>116</v>
       </c>
-      <c r="T10" s="4" t="s">
+      <c r="T10" s="3" t="s">
         <v>117</v>
       </c>
-      <c r="U10" s="4" t="s">
+      <c r="U10" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="V10" s="4" t="s">
+      <c r="V10" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="W10" s="4" t="s">
+      <c r="W10" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="X10" s="4" t="s">
+      <c r="X10" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="Y10" s="4" t="s">
+      <c r="Y10" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="Z10" s="4" t="s">
+      <c r="Z10" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="AA10" s="4" t="s">
+      <c r="AA10" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="AB10" s="4" t="s">
+      <c r="AB10" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="AC10" s="4" t="s">
+      <c r="AC10" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="AD10" s="4" t="s">
+      <c r="AD10" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="AE10" s="4" t="s">
+      <c r="AE10" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="AF10" s="4" t="s">
+      <c r="AF10" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="AG10" s="4" t="s">
+      <c r="AG10" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="AH10" s="4" t="s">
+      <c r="AH10" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="AI10" s="4" t="s">
+      <c r="AI10" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="AJ10" s="23" t="s">
+      <c r="AJ10" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="AK10" s="4" t="s">
+      <c r="AK10" s="35" t="s">
         <v>118</v>
       </c>
-      <c r="AL10" s="24"/>
-      <c r="AM10" s="25"/>
-      <c r="AN10" s="22"/>
-      <c r="AO10" s="22"/>
+      <c r="AL10" s="36"/>
+      <c r="AM10" s="53"/>
+      <c r="AN10" s="41"/>
+      <c r="AO10" s="41"/>
     </row>
-    <row r="11" ht="93" customHeight="1" spans="3:41">
-      <c r="C11" s="5" t="s">
+    <row r="11" spans="3:41" ht="93" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C11" s="37" t="s">
         <v>119</v>
       </c>
-      <c r="D11" s="5" t="s">
+      <c r="D11" s="37" t="s">
         <v>120</v>
       </c>
-      <c r="E11" s="6" t="s">
+      <c r="E11" s="31" t="s">
         <v>39</v>
       </c>
-      <c r="F11" s="7"/>
-      <c r="G11" s="7"/>
-      <c r="H11" s="7"/>
-      <c r="I11" s="7"/>
-      <c r="J11" s="7"/>
-      <c r="K11" s="7"/>
-      <c r="L11" s="11"/>
-      <c r="M11" s="12" t="s">
+      <c r="F11" s="31"/>
+      <c r="G11" s="31"/>
+      <c r="H11" s="31"/>
+      <c r="I11" s="31"/>
+      <c r="J11" s="31"/>
+      <c r="K11" s="31"/>
+      <c r="L11" s="31"/>
+      <c r="M11" s="24" t="s">
         <v>169</v>
       </c>
-      <c r="N11" s="13"/>
-      <c r="O11" s="13"/>
-      <c r="P11" s="14"/>
-      <c r="Q11" s="16" t="s">
+      <c r="N11" s="25"/>
+      <c r="O11" s="25"/>
+      <c r="P11" s="26"/>
+      <c r="Q11" s="27" t="s">
         <v>46</v>
       </c>
-      <c r="R11" s="16"/>
-      <c r="S11" s="16"/>
-      <c r="T11" s="16"/>
-      <c r="U11" s="17"/>
-      <c r="V11" s="18"/>
-      <c r="W11" s="18"/>
-      <c r="X11" s="18"/>
-      <c r="Y11" s="18"/>
-      <c r="Z11" s="18"/>
-      <c r="AA11" s="18"/>
-      <c r="AB11" s="18"/>
-      <c r="AC11" s="18"/>
-      <c r="AD11" s="18"/>
-      <c r="AE11" s="18"/>
-      <c r="AF11" s="18"/>
-      <c r="AG11" s="18"/>
-      <c r="AH11" s="18"/>
-      <c r="AI11" s="18"/>
-      <c r="AJ11" s="26" t="s">
+      <c r="R11" s="27"/>
+      <c r="S11" s="27"/>
+      <c r="T11" s="27"/>
+      <c r="U11" s="54" t="s">
+        <v>178</v>
+      </c>
+      <c r="V11" s="27"/>
+      <c r="W11" s="27"/>
+      <c r="X11" s="27"/>
+      <c r="Y11" s="27"/>
+      <c r="Z11" s="27"/>
+      <c r="AA11" s="27"/>
+      <c r="AB11" s="27"/>
+      <c r="AC11" s="27"/>
+      <c r="AD11" s="27"/>
+      <c r="AE11" s="27"/>
+      <c r="AF11" s="27"/>
+      <c r="AG11" s="27"/>
+      <c r="AH11" s="27"/>
+      <c r="AI11" s="27"/>
+      <c r="AJ11" s="8" t="s">
         <v>170</v>
       </c>
-      <c r="AK11" s="5" t="s">
+      <c r="AK11" s="37" t="s">
         <v>122</v>
       </c>
-      <c r="AL11" s="5" t="s">
+      <c r="AL11" s="37" t="s">
         <v>123</v>
       </c>
-      <c r="AM11" s="27" t="s">
+      <c r="AM11" s="9" t="s">
         <v>171</v>
       </c>
-      <c r="AN11" s="27" t="s">
+      <c r="AN11" s="9" t="s">
         <v>172</v>
       </c>
-      <c r="AO11" s="29" t="s">
+      <c r="AO11" s="10" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="12" ht="93" customHeight="1" spans="3:41">
-      <c r="C12" s="5"/>
-      <c r="D12" s="5"/>
-      <c r="E12" s="8"/>
-      <c r="F12" s="9"/>
-      <c r="G12" s="9"/>
-      <c r="H12" s="9"/>
-      <c r="I12" s="9"/>
-      <c r="J12" s="9"/>
-      <c r="K12" s="9"/>
-      <c r="L12" s="15"/>
-      <c r="M12" s="12" t="s">
+    <row r="12" spans="3:41" ht="93" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C12" s="37"/>
+      <c r="D12" s="37"/>
+      <c r="E12" s="31"/>
+      <c r="F12" s="31"/>
+      <c r="G12" s="31"/>
+      <c r="H12" s="31"/>
+      <c r="I12" s="31"/>
+      <c r="J12" s="31"/>
+      <c r="K12" s="31"/>
+      <c r="L12" s="31"/>
+      <c r="M12" s="24" t="s">
         <v>169</v>
       </c>
-      <c r="N12" s="13"/>
-      <c r="O12" s="13"/>
-      <c r="P12" s="14"/>
-      <c r="Q12" s="16" t="s">
+      <c r="N12" s="25"/>
+      <c r="O12" s="25"/>
+      <c r="P12" s="26"/>
+      <c r="Q12" s="27" t="s">
         <v>52</v>
       </c>
-      <c r="R12" s="16"/>
-      <c r="S12" s="16"/>
-      <c r="T12" s="16"/>
-      <c r="U12" s="19"/>
-      <c r="V12" s="20"/>
-      <c r="W12" s="20"/>
-      <c r="X12" s="20"/>
-      <c r="Y12" s="20"/>
-      <c r="Z12" s="20"/>
-      <c r="AA12" s="20"/>
-      <c r="AB12" s="20"/>
-      <c r="AC12" s="20"/>
-      <c r="AD12" s="20"/>
-      <c r="AE12" s="20"/>
-      <c r="AF12" s="20"/>
-      <c r="AG12" s="20"/>
-      <c r="AH12" s="20"/>
-      <c r="AI12" s="20"/>
-      <c r="AJ12" s="28"/>
-      <c r="AK12" s="5"/>
-      <c r="AL12" s="5"/>
-      <c r="AM12" s="27" t="s">
+      <c r="R12" s="27"/>
+      <c r="S12" s="27"/>
+      <c r="T12" s="27"/>
+      <c r="U12" s="58" t="s">
+        <v>178</v>
+      </c>
+      <c r="V12" s="29"/>
+      <c r="W12" s="29"/>
+      <c r="X12" s="29"/>
+      <c r="Y12" s="29"/>
+      <c r="Z12" s="29"/>
+      <c r="AA12" s="29"/>
+      <c r="AB12" s="29"/>
+      <c r="AC12" s="29"/>
+      <c r="AD12" s="29"/>
+      <c r="AE12" s="29"/>
+      <c r="AF12" s="29"/>
+      <c r="AG12" s="29"/>
+      <c r="AH12" s="29"/>
+      <c r="AI12" s="29"/>
+      <c r="AJ12" s="30"/>
+      <c r="AK12" s="37"/>
+      <c r="AL12" s="37"/>
+      <c r="AM12" s="56" t="s">
+        <v>182</v>
+      </c>
+      <c r="AN12" s="10" t="s">
         <v>174</v>
       </c>
-      <c r="AN12" s="29" t="s">
+      <c r="AO12" s="10" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="13" spans="3:41" ht="93" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C13" s="37"/>
+      <c r="D13" s="37"/>
+      <c r="E13" s="31"/>
+      <c r="F13" s="31"/>
+      <c r="G13" s="31"/>
+      <c r="H13" s="31"/>
+      <c r="I13" s="31"/>
+      <c r="J13" s="31"/>
+      <c r="K13" s="31"/>
+      <c r="L13" s="31"/>
+      <c r="M13" s="55" t="s">
+        <v>176</v>
+      </c>
+      <c r="N13" s="25"/>
+      <c r="O13" s="25"/>
+      <c r="P13" s="26"/>
+      <c r="Q13" s="54" t="s">
         <v>175</v>
       </c>
-      <c r="AO12" s="29" t="s">
-        <v>39</v>
+      <c r="R13" s="27"/>
+      <c r="S13" s="27"/>
+      <c r="T13" s="27"/>
+      <c r="U13" s="58" t="s">
+        <v>178</v>
+      </c>
+      <c r="V13" s="29"/>
+      <c r="W13" s="29"/>
+      <c r="X13" s="29"/>
+      <c r="Y13" s="29"/>
+      <c r="Z13" s="29"/>
+      <c r="AA13" s="29"/>
+      <c r="AB13" s="29"/>
+      <c r="AC13" s="29"/>
+      <c r="AD13" s="29"/>
+      <c r="AE13" s="29"/>
+      <c r="AF13" s="29"/>
+      <c r="AG13" s="29"/>
+      <c r="AH13" s="30"/>
+      <c r="AI13" s="54" t="s">
+        <v>179</v>
+      </c>
+      <c r="AJ13" s="27"/>
+      <c r="AK13" s="37"/>
+      <c r="AL13" s="37"/>
+      <c r="AM13" s="56" t="s">
+        <v>177</v>
+      </c>
+      <c r="AN13" s="57" t="s">
+        <v>180</v>
+      </c>
+      <c r="AO13" s="57" t="s">
+        <v>181</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="19">
-    <mergeCell ref="E9:L9"/>
-    <mergeCell ref="M9:T9"/>
-    <mergeCell ref="U9:AB9"/>
-    <mergeCell ref="AC9:AJ9"/>
-    <mergeCell ref="C10:D10"/>
+  <mergeCells count="24">
+    <mergeCell ref="AN9:AN10"/>
+    <mergeCell ref="AO9:AO10"/>
+    <mergeCell ref="M13:P13"/>
+    <mergeCell ref="Q13:T13"/>
+    <mergeCell ref="C11:C13"/>
+    <mergeCell ref="D11:D13"/>
+    <mergeCell ref="AM9:AM10"/>
+    <mergeCell ref="E11:L13"/>
+    <mergeCell ref="AK11:AK13"/>
+    <mergeCell ref="AL11:AL13"/>
+    <mergeCell ref="AI13:AJ13"/>
+    <mergeCell ref="U13:AH13"/>
+    <mergeCell ref="U11:AI11"/>
     <mergeCell ref="AK10:AL10"/>
     <mergeCell ref="M11:P11"/>
     <mergeCell ref="Q11:T11"/>
     <mergeCell ref="M12:P12"/>
     <mergeCell ref="Q12:T12"/>
     <mergeCell ref="U12:AJ12"/>
-    <mergeCell ref="C11:C12"/>
-    <mergeCell ref="D11:D12"/>
-    <mergeCell ref="AK11:AK12"/>
-    <mergeCell ref="AL11:AL12"/>
-    <mergeCell ref="AM9:AM10"/>
-    <mergeCell ref="AN9:AN10"/>
-    <mergeCell ref="AO9:AO10"/>
-    <mergeCell ref="E11:L12"/>
+    <mergeCell ref="E9:L9"/>
+    <mergeCell ref="M9:T9"/>
+    <mergeCell ref="U9:AB9"/>
+    <mergeCell ref="AC9:AJ9"/>
+    <mergeCell ref="C10:D10"/>
   </mergeCells>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/eMIMO阵面数据帧格式.xlsx
+++ b/eMIMO阵面数据帧格式.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\WPS_Sync\202409_eMIMO\Software\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\202409_EMIMO\EMIMO-Software\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80FD3027-C3A7-4072-85AF-EEF83D54F846}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD664498-E34F-4F54-BEAC-D432A4C42AD0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3510" yWindow="3510" windowWidth="43200" windowHeight="23445" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sub Array SPI 32bits Data Frame" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="487" uniqueCount="183">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="491" uniqueCount="187">
   <si>
     <t>A15</t>
   </si>
@@ -602,6 +602,22 @@
   </si>
   <si>
     <t>发送trig正脉冲</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x4</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>reg_val</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>reg_addr</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>即时写入24bit控制字</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -955,7 +971,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="59">
+  <cellXfs count="61">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1026,17 +1042,11 @@
     <xf numFmtId="0" fontId="2" fillId="10" borderId="0" xfId="2" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1050,32 +1060,17 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="13" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1110,25 +1105,52 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="13" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -6377,53 +6399,53 @@
       </c>
     </row>
     <row r="18" spans="4:40" ht="63" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D18" s="31" t="s">
+      <c r="D18" s="29" t="s">
         <v>36</v>
       </c>
-      <c r="E18" s="31" t="s">
+      <c r="E18" s="29" t="s">
         <v>37</v>
       </c>
-      <c r="F18" s="31"/>
-      <c r="G18" s="31"/>
-      <c r="H18" s="31"/>
-      <c r="I18" s="31" t="s">
+      <c r="F18" s="29"/>
+      <c r="G18" s="29"/>
+      <c r="H18" s="29"/>
+      <c r="I18" s="29" t="s">
         <v>38</v>
       </c>
-      <c r="J18" s="31"/>
-      <c r="K18" s="31"/>
-      <c r="L18" s="31"/>
-      <c r="M18" s="24" t="s">
+      <c r="J18" s="29"/>
+      <c r="K18" s="29"/>
+      <c r="L18" s="29"/>
+      <c r="M18" s="31" t="s">
         <v>39</v>
       </c>
-      <c r="N18" s="25"/>
-      <c r="O18" s="25"/>
-      <c r="P18" s="26"/>
-      <c r="Q18" s="27" t="s">
+      <c r="N18" s="32"/>
+      <c r="O18" s="32"/>
+      <c r="P18" s="33"/>
+      <c r="Q18" s="30" t="s">
         <v>40</v>
       </c>
-      <c r="R18" s="27"/>
-      <c r="S18" s="27"/>
-      <c r="T18" s="27"/>
-      <c r="U18" s="27" t="s">
+      <c r="R18" s="30"/>
+      <c r="S18" s="30"/>
+      <c r="T18" s="30"/>
+      <c r="U18" s="30" t="s">
         <v>41</v>
       </c>
-      <c r="V18" s="27"/>
-      <c r="W18" s="27"/>
-      <c r="X18" s="27"/>
-      <c r="Y18" s="27"/>
-      <c r="Z18" s="27"/>
-      <c r="AA18" s="27"/>
-      <c r="AB18" s="27"/>
-      <c r="AC18" s="27" t="s">
+      <c r="V18" s="30"/>
+      <c r="W18" s="30"/>
+      <c r="X18" s="30"/>
+      <c r="Y18" s="30"/>
+      <c r="Z18" s="30"/>
+      <c r="AA18" s="30"/>
+      <c r="AB18" s="30"/>
+      <c r="AC18" s="30" t="s">
         <v>42</v>
       </c>
-      <c r="AD18" s="27"/>
-      <c r="AE18" s="27"/>
-      <c r="AF18" s="27"/>
-      <c r="AG18" s="27"/>
-      <c r="AH18" s="27"/>
-      <c r="AI18" s="27"/>
-      <c r="AJ18" s="27"/>
+      <c r="AD18" s="30"/>
+      <c r="AE18" s="30"/>
+      <c r="AF18" s="30"/>
+      <c r="AG18" s="30"/>
+      <c r="AH18" s="30"/>
+      <c r="AI18" s="30"/>
+      <c r="AJ18" s="30"/>
       <c r="AK18" s="16" t="s">
         <v>43</v>
       </c>
@@ -6436,45 +6458,45 @@
       <c r="AN18" s="22"/>
     </row>
     <row r="19" spans="4:40" ht="63" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D19" s="31"/>
-      <c r="E19" s="31"/>
-      <c r="F19" s="31"/>
-      <c r="G19" s="31"/>
-      <c r="H19" s="31"/>
-      <c r="I19" s="31"/>
-      <c r="J19" s="31"/>
-      <c r="K19" s="31"/>
-      <c r="L19" s="31"/>
-      <c r="M19" s="24" t="s">
+      <c r="D19" s="29"/>
+      <c r="E19" s="29"/>
+      <c r="F19" s="29"/>
+      <c r="G19" s="29"/>
+      <c r="H19" s="29"/>
+      <c r="I19" s="29"/>
+      <c r="J19" s="29"/>
+      <c r="K19" s="29"/>
+      <c r="L19" s="29"/>
+      <c r="M19" s="31" t="s">
         <v>39</v>
       </c>
-      <c r="N19" s="25"/>
-      <c r="O19" s="25"/>
-      <c r="P19" s="26"/>
-      <c r="Q19" s="27" t="s">
+      <c r="N19" s="32"/>
+      <c r="O19" s="32"/>
+      <c r="P19" s="33"/>
+      <c r="Q19" s="30" t="s">
         <v>46</v>
       </c>
-      <c r="R19" s="27"/>
-      <c r="S19" s="27"/>
-      <c r="T19" s="27"/>
-      <c r="U19" s="27" t="s">
+      <c r="R19" s="30"/>
+      <c r="S19" s="30"/>
+      <c r="T19" s="30"/>
+      <c r="U19" s="30" t="s">
         <v>39</v>
       </c>
-      <c r="V19" s="27"/>
-      <c r="W19" s="27"/>
-      <c r="X19" s="27"/>
-      <c r="Y19" s="27"/>
-      <c r="Z19" s="27"/>
-      <c r="AA19" s="27"/>
-      <c r="AB19" s="27"/>
-      <c r="AC19" s="27"/>
-      <c r="AD19" s="27"/>
-      <c r="AE19" s="27"/>
-      <c r="AF19" s="27"/>
-      <c r="AG19" s="27"/>
-      <c r="AH19" s="27"/>
-      <c r="AI19" s="27"/>
-      <c r="AJ19" s="27"/>
+      <c r="V19" s="30"/>
+      <c r="W19" s="30"/>
+      <c r="X19" s="30"/>
+      <c r="Y19" s="30"/>
+      <c r="Z19" s="30"/>
+      <c r="AA19" s="30"/>
+      <c r="AB19" s="30"/>
+      <c r="AC19" s="30"/>
+      <c r="AD19" s="30"/>
+      <c r="AE19" s="30"/>
+      <c r="AF19" s="30"/>
+      <c r="AG19" s="30"/>
+      <c r="AH19" s="30"/>
+      <c r="AI19" s="30"/>
+      <c r="AJ19" s="30"/>
       <c r="AK19" s="16" t="s">
         <v>47</v>
       </c>
@@ -6489,51 +6511,51 @@
       </c>
     </row>
     <row r="20" spans="4:40" ht="63" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D20" s="31"/>
-      <c r="E20" s="31"/>
-      <c r="F20" s="31"/>
-      <c r="G20" s="31"/>
-      <c r="H20" s="31"/>
-      <c r="I20" s="31"/>
-      <c r="J20" s="31"/>
-      <c r="K20" s="31"/>
-      <c r="L20" s="31"/>
-      <c r="M20" s="31" t="s">
+      <c r="D20" s="29"/>
+      <c r="E20" s="29"/>
+      <c r="F20" s="29"/>
+      <c r="G20" s="29"/>
+      <c r="H20" s="29"/>
+      <c r="I20" s="29"/>
+      <c r="J20" s="29"/>
+      <c r="K20" s="29"/>
+      <c r="L20" s="29"/>
+      <c r="M20" s="29" t="s">
         <v>51</v>
       </c>
-      <c r="N20" s="31"/>
-      <c r="O20" s="31"/>
-      <c r="P20" s="31"/>
-      <c r="Q20" s="27" t="s">
+      <c r="N20" s="29"/>
+      <c r="O20" s="29"/>
+      <c r="P20" s="29"/>
+      <c r="Q20" s="30" t="s">
         <v>52</v>
       </c>
-      <c r="R20" s="27"/>
-      <c r="S20" s="27"/>
-      <c r="T20" s="27"/>
-      <c r="U20" s="28" t="s">
+      <c r="R20" s="30"/>
+      <c r="S20" s="30"/>
+      <c r="T20" s="30"/>
+      <c r="U20" s="26" t="s">
         <v>39</v>
       </c>
-      <c r="V20" s="29"/>
-      <c r="W20" s="29"/>
-      <c r="X20" s="29"/>
-      <c r="Y20" s="29"/>
-      <c r="Z20" s="30"/>
+      <c r="V20" s="27"/>
+      <c r="W20" s="27"/>
+      <c r="X20" s="27"/>
+      <c r="Y20" s="27"/>
+      <c r="Z20" s="28"/>
       <c r="AA20" s="11" t="s">
         <v>53</v>
       </c>
       <c r="AB20" s="11" t="s">
         <v>54</v>
       </c>
-      <c r="AC20" s="27" t="s">
+      <c r="AC20" s="30" t="s">
         <v>55</v>
       </c>
-      <c r="AD20" s="27"/>
-      <c r="AE20" s="27"/>
-      <c r="AF20" s="27"/>
-      <c r="AG20" s="27"/>
-      <c r="AH20" s="27"/>
-      <c r="AI20" s="27"/>
-      <c r="AJ20" s="27"/>
+      <c r="AD20" s="30"/>
+      <c r="AE20" s="30"/>
+      <c r="AF20" s="30"/>
+      <c r="AG20" s="30"/>
+      <c r="AH20" s="30"/>
+      <c r="AI20" s="30"/>
+      <c r="AJ20" s="30"/>
       <c r="AK20" s="16" t="s">
         <v>56</v>
       </c>
@@ -6546,49 +6568,49 @@
       <c r="AN20" s="22"/>
     </row>
     <row r="21" spans="4:40" ht="63" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D21" s="31"/>
-      <c r="E21" s="31"/>
-      <c r="F21" s="31"/>
-      <c r="G21" s="31"/>
-      <c r="H21" s="31"/>
-      <c r="I21" s="31"/>
-      <c r="J21" s="31"/>
-      <c r="K21" s="31"/>
-      <c r="L21" s="31"/>
-      <c r="M21" s="31"/>
-      <c r="N21" s="31"/>
-      <c r="O21" s="31"/>
-      <c r="P21" s="31"/>
-      <c r="Q21" s="27" t="s">
+      <c r="D21" s="29"/>
+      <c r="E21" s="29"/>
+      <c r="F21" s="29"/>
+      <c r="G21" s="29"/>
+      <c r="H21" s="29"/>
+      <c r="I21" s="29"/>
+      <c r="J21" s="29"/>
+      <c r="K21" s="29"/>
+      <c r="L21" s="29"/>
+      <c r="M21" s="29"/>
+      <c r="N21" s="29"/>
+      <c r="O21" s="29"/>
+      <c r="P21" s="29"/>
+      <c r="Q21" s="30" t="s">
         <v>59</v>
       </c>
-      <c r="R21" s="27"/>
-      <c r="S21" s="27"/>
-      <c r="T21" s="27"/>
-      <c r="U21" s="24" t="s">
+      <c r="R21" s="30"/>
+      <c r="S21" s="30"/>
+      <c r="T21" s="30"/>
+      <c r="U21" s="31" t="s">
         <v>39</v>
       </c>
-      <c r="V21" s="25"/>
-      <c r="W21" s="25"/>
-      <c r="X21" s="25"/>
-      <c r="Y21" s="25"/>
-      <c r="Z21" s="25"/>
-      <c r="AA21" s="26"/>
+      <c r="V21" s="32"/>
+      <c r="W21" s="32"/>
+      <c r="X21" s="32"/>
+      <c r="Y21" s="32"/>
+      <c r="Z21" s="32"/>
+      <c r="AA21" s="33"/>
       <c r="AB21" s="11" t="s">
         <v>54</v>
       </c>
       <c r="AC21" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="AD21" s="28" t="s">
+      <c r="AD21" s="26" t="s">
         <v>60</v>
       </c>
-      <c r="AE21" s="29"/>
-      <c r="AF21" s="29"/>
-      <c r="AG21" s="29"/>
-      <c r="AH21" s="29"/>
-      <c r="AI21" s="29"/>
-      <c r="AJ21" s="30"/>
+      <c r="AE21" s="27"/>
+      <c r="AF21" s="27"/>
+      <c r="AG21" s="27"/>
+      <c r="AH21" s="27"/>
+      <c r="AI21" s="27"/>
+      <c r="AJ21" s="28"/>
       <c r="AK21" s="9" t="s">
         <v>61</v>
       </c>
@@ -6601,51 +6623,51 @@
       <c r="AN21" s="22"/>
     </row>
     <row r="22" spans="4:40" ht="63" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D22" s="31"/>
-      <c r="E22" s="31"/>
-      <c r="F22" s="31"/>
-      <c r="G22" s="31"/>
-      <c r="H22" s="31"/>
-      <c r="I22" s="31"/>
-      <c r="J22" s="31"/>
-      <c r="K22" s="31"/>
-      <c r="L22" s="31"/>
-      <c r="M22" s="31" t="s">
+      <c r="D22" s="29"/>
+      <c r="E22" s="29"/>
+      <c r="F22" s="29"/>
+      <c r="G22" s="29"/>
+      <c r="H22" s="29"/>
+      <c r="I22" s="29"/>
+      <c r="J22" s="29"/>
+      <c r="K22" s="29"/>
+      <c r="L22" s="29"/>
+      <c r="M22" s="29" t="s">
         <v>64</v>
       </c>
-      <c r="N22" s="31"/>
-      <c r="O22" s="31"/>
-      <c r="P22" s="31"/>
-      <c r="Q22" s="27" t="s">
+      <c r="N22" s="29"/>
+      <c r="O22" s="29"/>
+      <c r="P22" s="29"/>
+      <c r="Q22" s="30" t="s">
         <v>65</v>
       </c>
-      <c r="R22" s="27"/>
-      <c r="S22" s="27"/>
-      <c r="T22" s="27"/>
-      <c r="U22" s="28" t="s">
+      <c r="R22" s="30"/>
+      <c r="S22" s="30"/>
+      <c r="T22" s="30"/>
+      <c r="U22" s="26" t="s">
         <v>39</v>
       </c>
-      <c r="V22" s="29"/>
-      <c r="W22" s="29"/>
-      <c r="X22" s="29"/>
-      <c r="Y22" s="29"/>
-      <c r="Z22" s="30"/>
+      <c r="V22" s="27"/>
+      <c r="W22" s="27"/>
+      <c r="X22" s="27"/>
+      <c r="Y22" s="27"/>
+      <c r="Z22" s="28"/>
       <c r="AA22" s="11" t="s">
         <v>66</v>
       </c>
       <c r="AB22" s="11" t="s">
         <v>67</v>
       </c>
-      <c r="AC22" s="28" t="s">
+      <c r="AC22" s="26" t="s">
         <v>39</v>
       </c>
-      <c r="AD22" s="29"/>
-      <c r="AE22" s="29"/>
-      <c r="AF22" s="29"/>
-      <c r="AG22" s="29"/>
-      <c r="AH22" s="29"/>
-      <c r="AI22" s="29"/>
-      <c r="AJ22" s="30"/>
+      <c r="AD22" s="27"/>
+      <c r="AE22" s="27"/>
+      <c r="AF22" s="27"/>
+      <c r="AG22" s="27"/>
+      <c r="AH22" s="27"/>
+      <c r="AI22" s="27"/>
+      <c r="AJ22" s="28"/>
       <c r="AK22" s="9" t="s">
         <v>68</v>
       </c>
@@ -6658,45 +6680,45 @@
       <c r="AN22" s="22"/>
     </row>
     <row r="23" spans="4:40" ht="63" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D23" s="31"/>
-      <c r="E23" s="31"/>
-      <c r="F23" s="31"/>
-      <c r="G23" s="31"/>
-      <c r="H23" s="31"/>
-      <c r="I23" s="31"/>
-      <c r="J23" s="31"/>
-      <c r="K23" s="31"/>
-      <c r="L23" s="31"/>
-      <c r="M23" s="24" t="s">
+      <c r="D23" s="29"/>
+      <c r="E23" s="29"/>
+      <c r="F23" s="29"/>
+      <c r="G23" s="29"/>
+      <c r="H23" s="29"/>
+      <c r="I23" s="29"/>
+      <c r="J23" s="29"/>
+      <c r="K23" s="29"/>
+      <c r="L23" s="29"/>
+      <c r="M23" s="31" t="s">
         <v>39</v>
       </c>
-      <c r="N23" s="25"/>
-      <c r="O23" s="25"/>
-      <c r="P23" s="26"/>
-      <c r="Q23" s="27" t="s">
+      <c r="N23" s="32"/>
+      <c r="O23" s="32"/>
+      <c r="P23" s="33"/>
+      <c r="Q23" s="30" t="s">
         <v>71</v>
       </c>
-      <c r="R23" s="27"/>
-      <c r="S23" s="27"/>
-      <c r="T23" s="27"/>
-      <c r="U23" s="28" t="s">
+      <c r="R23" s="30"/>
+      <c r="S23" s="30"/>
+      <c r="T23" s="30"/>
+      <c r="U23" s="26" t="s">
         <v>39</v>
       </c>
-      <c r="V23" s="29"/>
-      <c r="W23" s="29"/>
-      <c r="X23" s="29"/>
-      <c r="Y23" s="29"/>
-      <c r="Z23" s="29"/>
-      <c r="AA23" s="29"/>
-      <c r="AB23" s="29"/>
-      <c r="AC23" s="29"/>
-      <c r="AD23" s="29"/>
-      <c r="AE23" s="29"/>
-      <c r="AF23" s="29"/>
-      <c r="AG23" s="29"/>
-      <c r="AH23" s="29"/>
-      <c r="AI23" s="29"/>
-      <c r="AJ23" s="30"/>
+      <c r="V23" s="27"/>
+      <c r="W23" s="27"/>
+      <c r="X23" s="27"/>
+      <c r="Y23" s="27"/>
+      <c r="Z23" s="27"/>
+      <c r="AA23" s="27"/>
+      <c r="AB23" s="27"/>
+      <c r="AC23" s="27"/>
+      <c r="AD23" s="27"/>
+      <c r="AE23" s="27"/>
+      <c r="AF23" s="27"/>
+      <c r="AG23" s="27"/>
+      <c r="AH23" s="27"/>
+      <c r="AI23" s="27"/>
+      <c r="AJ23" s="28"/>
       <c r="AK23" s="9" t="s">
         <v>72</v>
       </c>
@@ -6709,45 +6731,45 @@
       <c r="AN23" s="22"/>
     </row>
     <row r="24" spans="4:40" ht="63" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D24" s="31"/>
-      <c r="E24" s="31"/>
-      <c r="F24" s="31"/>
-      <c r="G24" s="31"/>
-      <c r="H24" s="31"/>
-      <c r="I24" s="31"/>
-      <c r="J24" s="31"/>
-      <c r="K24" s="31"/>
-      <c r="L24" s="31"/>
-      <c r="M24" s="24" t="s">
+      <c r="D24" s="29"/>
+      <c r="E24" s="29"/>
+      <c r="F24" s="29"/>
+      <c r="G24" s="29"/>
+      <c r="H24" s="29"/>
+      <c r="I24" s="29"/>
+      <c r="J24" s="29"/>
+      <c r="K24" s="29"/>
+      <c r="L24" s="29"/>
+      <c r="M24" s="31" t="s">
         <v>39</v>
       </c>
-      <c r="N24" s="25"/>
-      <c r="O24" s="25"/>
-      <c r="P24" s="26"/>
-      <c r="Q24" s="27" t="s">
+      <c r="N24" s="32"/>
+      <c r="O24" s="32"/>
+      <c r="P24" s="33"/>
+      <c r="Q24" s="30" t="s">
         <v>74</v>
       </c>
-      <c r="R24" s="27"/>
-      <c r="S24" s="27"/>
-      <c r="T24" s="27"/>
-      <c r="U24" s="28" t="s">
+      <c r="R24" s="30"/>
+      <c r="S24" s="30"/>
+      <c r="T24" s="30"/>
+      <c r="U24" s="26" t="s">
         <v>39</v>
       </c>
-      <c r="V24" s="29"/>
-      <c r="W24" s="29"/>
-      <c r="X24" s="29"/>
-      <c r="Y24" s="29"/>
-      <c r="Z24" s="29"/>
-      <c r="AA24" s="29"/>
-      <c r="AB24" s="29"/>
-      <c r="AC24" s="29"/>
-      <c r="AD24" s="29"/>
-      <c r="AE24" s="29"/>
-      <c r="AF24" s="29"/>
-      <c r="AG24" s="29"/>
-      <c r="AH24" s="29"/>
-      <c r="AI24" s="29"/>
-      <c r="AJ24" s="30"/>
+      <c r="V24" s="27"/>
+      <c r="W24" s="27"/>
+      <c r="X24" s="27"/>
+      <c r="Y24" s="27"/>
+      <c r="Z24" s="27"/>
+      <c r="AA24" s="27"/>
+      <c r="AB24" s="27"/>
+      <c r="AC24" s="27"/>
+      <c r="AD24" s="27"/>
+      <c r="AE24" s="27"/>
+      <c r="AF24" s="27"/>
+      <c r="AG24" s="27"/>
+      <c r="AH24" s="27"/>
+      <c r="AI24" s="27"/>
+      <c r="AJ24" s="28"/>
       <c r="AK24" s="9" t="s">
         <v>75</v>
       </c>
@@ -6760,49 +6782,49 @@
       <c r="AN24" s="22"/>
     </row>
     <row r="25" spans="4:40" ht="63" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D25" s="31"/>
-      <c r="E25" s="31"/>
-      <c r="F25" s="31"/>
-      <c r="G25" s="31"/>
-      <c r="H25" s="31"/>
-      <c r="I25" s="31"/>
-      <c r="J25" s="31"/>
-      <c r="K25" s="31"/>
-      <c r="L25" s="31"/>
-      <c r="M25" s="24" t="s">
+      <c r="D25" s="29"/>
+      <c r="E25" s="29"/>
+      <c r="F25" s="29"/>
+      <c r="G25" s="29"/>
+      <c r="H25" s="29"/>
+      <c r="I25" s="29"/>
+      <c r="J25" s="29"/>
+      <c r="K25" s="29"/>
+      <c r="L25" s="29"/>
+      <c r="M25" s="31" t="s">
         <v>39</v>
       </c>
-      <c r="N25" s="25"/>
-      <c r="O25" s="25"/>
-      <c r="P25" s="26"/>
-      <c r="Q25" s="27" t="s">
+      <c r="N25" s="32"/>
+      <c r="O25" s="32"/>
+      <c r="P25" s="33"/>
+      <c r="Q25" s="30" t="s">
         <v>77</v>
       </c>
-      <c r="R25" s="27"/>
-      <c r="S25" s="27"/>
-      <c r="T25" s="27"/>
-      <c r="U25" s="28" t="s">
+      <c r="R25" s="30"/>
+      <c r="S25" s="30"/>
+      <c r="T25" s="30"/>
+      <c r="U25" s="26" t="s">
         <v>39</v>
       </c>
-      <c r="V25" s="29"/>
-      <c r="W25" s="29"/>
-      <c r="X25" s="29"/>
-      <c r="Y25" s="29"/>
-      <c r="Z25" s="29"/>
-      <c r="AA25" s="29"/>
-      <c r="AB25" s="29"/>
-      <c r="AC25" s="27" t="s">
+      <c r="V25" s="27"/>
+      <c r="W25" s="27"/>
+      <c r="X25" s="27"/>
+      <c r="Y25" s="27"/>
+      <c r="Z25" s="27"/>
+      <c r="AA25" s="27"/>
+      <c r="AB25" s="27"/>
+      <c r="AC25" s="30" t="s">
         <v>37</v>
       </c>
-      <c r="AD25" s="27"/>
-      <c r="AE25" s="27"/>
-      <c r="AF25" s="27"/>
-      <c r="AG25" s="28" t="s">
+      <c r="AD25" s="30"/>
+      <c r="AE25" s="30"/>
+      <c r="AF25" s="30"/>
+      <c r="AG25" s="26" t="s">
         <v>38</v>
       </c>
-      <c r="AH25" s="29"/>
-      <c r="AI25" s="29"/>
-      <c r="AJ25" s="30"/>
+      <c r="AH25" s="27"/>
+      <c r="AI25" s="27"/>
+      <c r="AJ25" s="28"/>
       <c r="AK25" s="9" t="s">
         <v>78</v>
       </c>
@@ -6815,49 +6837,49 @@
       <c r="AN25" s="22"/>
     </row>
     <row r="26" spans="4:40" ht="63" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D26" s="31"/>
-      <c r="E26" s="31"/>
-      <c r="F26" s="31"/>
-      <c r="G26" s="31"/>
-      <c r="H26" s="31"/>
-      <c r="I26" s="31"/>
-      <c r="J26" s="31"/>
-      <c r="K26" s="31"/>
-      <c r="L26" s="31"/>
-      <c r="M26" s="31" t="s">
+      <c r="D26" s="29"/>
+      <c r="E26" s="29"/>
+      <c r="F26" s="29"/>
+      <c r="G26" s="29"/>
+      <c r="H26" s="29"/>
+      <c r="I26" s="29"/>
+      <c r="J26" s="29"/>
+      <c r="K26" s="29"/>
+      <c r="L26" s="29"/>
+      <c r="M26" s="29" t="s">
         <v>51</v>
       </c>
-      <c r="N26" s="31"/>
-      <c r="O26" s="31"/>
-      <c r="P26" s="31"/>
-      <c r="Q26" s="27" t="s">
+      <c r="N26" s="29"/>
+      <c r="O26" s="29"/>
+      <c r="P26" s="29"/>
+      <c r="Q26" s="30" t="s">
         <v>81</v>
       </c>
-      <c r="R26" s="27"/>
-      <c r="S26" s="27"/>
-      <c r="T26" s="27"/>
-      <c r="U26" s="28" t="s">
+      <c r="R26" s="30"/>
+      <c r="S26" s="30"/>
+      <c r="T26" s="30"/>
+      <c r="U26" s="26" t="s">
         <v>39</v>
       </c>
-      <c r="V26" s="29"/>
-      <c r="W26" s="29"/>
-      <c r="X26" s="29"/>
-      <c r="Y26" s="29"/>
-      <c r="Z26" s="29"/>
-      <c r="AA26" s="30"/>
+      <c r="V26" s="27"/>
+      <c r="W26" s="27"/>
+      <c r="X26" s="27"/>
+      <c r="Y26" s="27"/>
+      <c r="Z26" s="27"/>
+      <c r="AA26" s="28"/>
       <c r="AB26" s="11" t="s">
         <v>54</v>
       </c>
-      <c r="AC26" s="27" t="s">
+      <c r="AC26" s="30" t="s">
         <v>55</v>
       </c>
-      <c r="AD26" s="27"/>
-      <c r="AE26" s="27"/>
-      <c r="AF26" s="27"/>
-      <c r="AG26" s="27"/>
-      <c r="AH26" s="27"/>
-      <c r="AI26" s="27"/>
-      <c r="AJ26" s="27"/>
+      <c r="AD26" s="30"/>
+      <c r="AE26" s="30"/>
+      <c r="AF26" s="30"/>
+      <c r="AG26" s="30"/>
+      <c r="AH26" s="30"/>
+      <c r="AI26" s="30"/>
+      <c r="AJ26" s="30"/>
       <c r="AK26" s="16" t="s">
         <v>82</v>
       </c>
@@ -6870,49 +6892,49 @@
       <c r="AN26" s="22"/>
     </row>
     <row r="27" spans="4:40" ht="63" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D27" s="31"/>
-      <c r="E27" s="31"/>
-      <c r="F27" s="31"/>
-      <c r="G27" s="31"/>
-      <c r="H27" s="31"/>
-      <c r="I27" s="31"/>
-      <c r="J27" s="31"/>
-      <c r="K27" s="31"/>
-      <c r="L27" s="31"/>
-      <c r="M27" s="31"/>
-      <c r="N27" s="31"/>
-      <c r="O27" s="31"/>
-      <c r="P27" s="31"/>
-      <c r="Q27" s="27" t="s">
+      <c r="D27" s="29"/>
+      <c r="E27" s="29"/>
+      <c r="F27" s="29"/>
+      <c r="G27" s="29"/>
+      <c r="H27" s="29"/>
+      <c r="I27" s="29"/>
+      <c r="J27" s="29"/>
+      <c r="K27" s="29"/>
+      <c r="L27" s="29"/>
+      <c r="M27" s="29"/>
+      <c r="N27" s="29"/>
+      <c r="O27" s="29"/>
+      <c r="P27" s="29"/>
+      <c r="Q27" s="30" t="s">
         <v>84</v>
       </c>
-      <c r="R27" s="27"/>
-      <c r="S27" s="27"/>
-      <c r="T27" s="27"/>
-      <c r="U27" s="28" t="s">
+      <c r="R27" s="30"/>
+      <c r="S27" s="30"/>
+      <c r="T27" s="30"/>
+      <c r="U27" s="26" t="s">
         <v>39</v>
       </c>
-      <c r="V27" s="29"/>
-      <c r="W27" s="29"/>
-      <c r="X27" s="29"/>
-      <c r="Y27" s="29"/>
-      <c r="Z27" s="29"/>
-      <c r="AA27" s="30"/>
+      <c r="V27" s="27"/>
+      <c r="W27" s="27"/>
+      <c r="X27" s="27"/>
+      <c r="Y27" s="27"/>
+      <c r="Z27" s="27"/>
+      <c r="AA27" s="28"/>
       <c r="AB27" s="11" t="s">
         <v>54</v>
       </c>
       <c r="AC27" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="AD27" s="28" t="s">
+      <c r="AD27" s="26" t="s">
         <v>60</v>
       </c>
-      <c r="AE27" s="29"/>
-      <c r="AF27" s="29"/>
-      <c r="AG27" s="29"/>
-      <c r="AH27" s="29"/>
-      <c r="AI27" s="29"/>
-      <c r="AJ27" s="30"/>
+      <c r="AE27" s="27"/>
+      <c r="AF27" s="27"/>
+      <c r="AG27" s="27"/>
+      <c r="AH27" s="27"/>
+      <c r="AI27" s="27"/>
+      <c r="AJ27" s="28"/>
       <c r="AK27" s="9" t="s">
         <v>85</v>
       </c>
@@ -6925,53 +6947,53 @@
       <c r="AN27" s="22"/>
     </row>
     <row r="28" spans="4:40" ht="63" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D28" s="31"/>
-      <c r="E28" s="31"/>
-      <c r="F28" s="31"/>
-      <c r="G28" s="31"/>
-      <c r="H28" s="31"/>
-      <c r="I28" s="31"/>
-      <c r="J28" s="31"/>
-      <c r="K28" s="31"/>
-      <c r="L28" s="31"/>
-      <c r="M28" s="31" t="s">
+      <c r="D28" s="29"/>
+      <c r="E28" s="29"/>
+      <c r="F28" s="29"/>
+      <c r="G28" s="29"/>
+      <c r="H28" s="29"/>
+      <c r="I28" s="29"/>
+      <c r="J28" s="29"/>
+      <c r="K28" s="29"/>
+      <c r="L28" s="29"/>
+      <c r="M28" s="29" t="s">
         <v>39</v>
       </c>
-      <c r="N28" s="31"/>
-      <c r="O28" s="31" t="s">
+      <c r="N28" s="29"/>
+      <c r="O28" s="29" t="s">
         <v>87</v>
       </c>
-      <c r="P28" s="31"/>
-      <c r="Q28" s="27" t="s">
+      <c r="P28" s="29"/>
+      <c r="Q28" s="30" t="s">
         <v>88</v>
       </c>
-      <c r="R28" s="27"/>
-      <c r="S28" s="27"/>
-      <c r="T28" s="27"/>
-      <c r="U28" s="28" t="s">
+      <c r="R28" s="30"/>
+      <c r="S28" s="30"/>
+      <c r="T28" s="30"/>
+      <c r="U28" s="26" t="s">
         <v>39</v>
       </c>
-      <c r="V28" s="29"/>
-      <c r="W28" s="29"/>
-      <c r="X28" s="29"/>
-      <c r="Y28" s="29"/>
-      <c r="Z28" s="29"/>
-      <c r="AA28" s="30"/>
+      <c r="V28" s="27"/>
+      <c r="W28" s="27"/>
+      <c r="X28" s="27"/>
+      <c r="Y28" s="27"/>
+      <c r="Z28" s="27"/>
+      <c r="AA28" s="28"/>
       <c r="AB28" s="5" t="s">
         <v>89</v>
       </c>
-      <c r="AC28" s="27" t="s">
+      <c r="AC28" s="30" t="s">
         <v>39</v>
       </c>
-      <c r="AD28" s="27"/>
-      <c r="AE28" s="28" t="s">
+      <c r="AD28" s="30"/>
+      <c r="AE28" s="26" t="s">
         <v>60</v>
       </c>
-      <c r="AF28" s="29"/>
-      <c r="AG28" s="29"/>
-      <c r="AH28" s="29"/>
-      <c r="AI28" s="29"/>
-      <c r="AJ28" s="30"/>
+      <c r="AF28" s="27"/>
+      <c r="AG28" s="27"/>
+      <c r="AH28" s="27"/>
+      <c r="AI28" s="27"/>
+      <c r="AJ28" s="28"/>
       <c r="AK28" s="9" t="s">
         <v>90</v>
       </c>
@@ -7577,6 +7599,35 @@
     </row>
   </sheetData>
   <mergeCells count="45">
+    <mergeCell ref="M18:P18"/>
+    <mergeCell ref="Q18:T18"/>
+    <mergeCell ref="U18:AB18"/>
+    <mergeCell ref="AC18:AJ18"/>
+    <mergeCell ref="M19:P19"/>
+    <mergeCell ref="Q19:T19"/>
+    <mergeCell ref="U19:AJ19"/>
+    <mergeCell ref="Q20:T20"/>
+    <mergeCell ref="U20:Z20"/>
+    <mergeCell ref="AC20:AJ20"/>
+    <mergeCell ref="Q21:T21"/>
+    <mergeCell ref="U21:AA21"/>
+    <mergeCell ref="AD21:AJ21"/>
+    <mergeCell ref="M22:P22"/>
+    <mergeCell ref="Q22:T22"/>
+    <mergeCell ref="U22:Z22"/>
+    <mergeCell ref="AC22:AJ22"/>
+    <mergeCell ref="M23:P23"/>
+    <mergeCell ref="Q23:T23"/>
+    <mergeCell ref="U23:AJ23"/>
+    <mergeCell ref="AD27:AJ27"/>
+    <mergeCell ref="M24:P24"/>
+    <mergeCell ref="Q24:T24"/>
+    <mergeCell ref="U24:AJ24"/>
+    <mergeCell ref="M25:P25"/>
+    <mergeCell ref="Q25:T25"/>
+    <mergeCell ref="U25:AB25"/>
+    <mergeCell ref="AC25:AF25"/>
+    <mergeCell ref="AG25:AJ25"/>
     <mergeCell ref="AE28:AJ28"/>
     <mergeCell ref="D18:D28"/>
     <mergeCell ref="E18:H28"/>
@@ -7593,35 +7644,6 @@
     <mergeCell ref="AC26:AJ26"/>
     <mergeCell ref="Q27:T27"/>
     <mergeCell ref="U27:AA27"/>
-    <mergeCell ref="AD27:AJ27"/>
-    <mergeCell ref="M24:P24"/>
-    <mergeCell ref="Q24:T24"/>
-    <mergeCell ref="U24:AJ24"/>
-    <mergeCell ref="M25:P25"/>
-    <mergeCell ref="Q25:T25"/>
-    <mergeCell ref="U25:AB25"/>
-    <mergeCell ref="AC25:AF25"/>
-    <mergeCell ref="AG25:AJ25"/>
-    <mergeCell ref="M22:P22"/>
-    <mergeCell ref="Q22:T22"/>
-    <mergeCell ref="U22:Z22"/>
-    <mergeCell ref="AC22:AJ22"/>
-    <mergeCell ref="M23:P23"/>
-    <mergeCell ref="Q23:T23"/>
-    <mergeCell ref="U23:AJ23"/>
-    <mergeCell ref="Q20:T20"/>
-    <mergeCell ref="U20:Z20"/>
-    <mergeCell ref="AC20:AJ20"/>
-    <mergeCell ref="Q21:T21"/>
-    <mergeCell ref="U21:AA21"/>
-    <mergeCell ref="AD21:AJ21"/>
-    <mergeCell ref="M18:P18"/>
-    <mergeCell ref="Q18:T18"/>
-    <mergeCell ref="U18:AB18"/>
-    <mergeCell ref="AC18:AJ18"/>
-    <mergeCell ref="M19:P19"/>
-    <mergeCell ref="Q19:T19"/>
-    <mergeCell ref="U19:AJ19"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7658,74 +7680,74 @@
       <c r="F21" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="G21" s="32" t="s">
+      <c r="G21" s="51" t="s">
         <v>95</v>
       </c>
-      <c r="H21" s="33"/>
-      <c r="I21" s="33"/>
-      <c r="J21" s="33"/>
-      <c r="K21" s="33"/>
-      <c r="L21" s="33"/>
-      <c r="M21" s="33"/>
-      <c r="N21" s="34"/>
-      <c r="O21" s="32" t="s">
+      <c r="H21" s="52"/>
+      <c r="I21" s="52"/>
+      <c r="J21" s="52"/>
+      <c r="K21" s="52"/>
+      <c r="L21" s="52"/>
+      <c r="M21" s="52"/>
+      <c r="N21" s="53"/>
+      <c r="O21" s="51" t="s">
         <v>96</v>
       </c>
-      <c r="P21" s="33" t="s">
+      <c r="P21" s="52" t="s">
         <v>97</v>
       </c>
-      <c r="Q21" s="33" t="s">
+      <c r="Q21" s="52" t="s">
         <v>98</v>
       </c>
-      <c r="R21" s="33"/>
-      <c r="S21" s="33"/>
-      <c r="T21" s="33"/>
-      <c r="U21" s="33"/>
-      <c r="V21" s="34"/>
-      <c r="W21" s="32" t="s">
+      <c r="R21" s="52"/>
+      <c r="S21" s="52"/>
+      <c r="T21" s="52"/>
+      <c r="U21" s="52"/>
+      <c r="V21" s="53"/>
+      <c r="W21" s="51" t="s">
         <v>97</v>
       </c>
-      <c r="X21" s="33"/>
-      <c r="Y21" s="33"/>
-      <c r="Z21" s="33"/>
-      <c r="AA21" s="33"/>
-      <c r="AB21" s="33"/>
-      <c r="AC21" s="33"/>
-      <c r="AD21" s="34"/>
-      <c r="AE21" s="32" t="s">
+      <c r="X21" s="52"/>
+      <c r="Y21" s="52"/>
+      <c r="Z21" s="52"/>
+      <c r="AA21" s="52"/>
+      <c r="AB21" s="52"/>
+      <c r="AC21" s="52"/>
+      <c r="AD21" s="53"/>
+      <c r="AE21" s="51" t="s">
         <v>98</v>
       </c>
-      <c r="AF21" s="33"/>
-      <c r="AG21" s="33"/>
-      <c r="AH21" s="33"/>
-      <c r="AI21" s="33"/>
-      <c r="AJ21" s="33"/>
-      <c r="AK21" s="33"/>
-      <c r="AL21" s="34"/>
+      <c r="AF21" s="52"/>
+      <c r="AG21" s="52"/>
+      <c r="AH21" s="52"/>
+      <c r="AI21" s="52"/>
+      <c r="AJ21" s="52"/>
+      <c r="AK21" s="52"/>
+      <c r="AL21" s="53"/>
       <c r="AM21" s="1" t="s">
         <v>99</v>
       </c>
       <c r="AN21" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="AO21" s="41" t="s">
+      <c r="AO21" s="34" t="s">
         <v>32</v>
       </c>
-      <c r="AP21" s="41" t="s">
+      <c r="AP21" s="34" t="s">
         <v>33</v>
       </c>
-      <c r="AQ21" s="41" t="s">
+      <c r="AQ21" s="34" t="s">
         <v>34</v>
       </c>
-      <c r="AR21" s="42" t="s">
+      <c r="AR21" s="35" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="22" spans="5:44" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E22" s="35" t="s">
+      <c r="E22" s="49" t="s">
         <v>101</v>
       </c>
-      <c r="F22" s="35"/>
+      <c r="F22" s="49"/>
       <c r="G22" s="3" t="s">
         <v>102</v>
       </c>
@@ -7822,56 +7844,56 @@
       <c r="AL22" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="AM22" s="35" t="s">
+      <c r="AM22" s="49" t="s">
         <v>118</v>
       </c>
-      <c r="AN22" s="36"/>
-      <c r="AO22" s="41"/>
-      <c r="AP22" s="41"/>
-      <c r="AQ22" s="41"/>
-      <c r="AR22" s="42"/>
+      <c r="AN22" s="50"/>
+      <c r="AO22" s="34"/>
+      <c r="AP22" s="34"/>
+      <c r="AQ22" s="34"/>
+      <c r="AR22" s="35"/>
     </row>
     <row r="23" spans="5:44" ht="64.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E23" s="37" t="s">
+      <c r="E23" s="45" t="s">
         <v>119</v>
       </c>
-      <c r="F23" s="37" t="s">
+      <c r="F23" s="45" t="s">
         <v>120</v>
       </c>
-      <c r="G23" s="30" t="s">
+      <c r="G23" s="28" t="s">
         <v>121</v>
       </c>
-      <c r="H23" s="27"/>
-      <c r="I23" s="27"/>
-      <c r="J23" s="27"/>
-      <c r="K23" s="27"/>
-      <c r="L23" s="27"/>
-      <c r="M23" s="27"/>
-      <c r="N23" s="27"/>
-      <c r="O23" s="27"/>
-      <c r="P23" s="27"/>
-      <c r="Q23" s="27"/>
-      <c r="R23" s="27"/>
-      <c r="S23" s="27"/>
-      <c r="T23" s="27"/>
-      <c r="U23" s="27"/>
-      <c r="V23" s="27"/>
-      <c r="W23" s="27"/>
-      <c r="X23" s="27"/>
-      <c r="Y23" s="27"/>
-      <c r="Z23" s="27"/>
-      <c r="AA23" s="27"/>
-      <c r="AB23" s="27"/>
-      <c r="AC23" s="27"/>
-      <c r="AD23" s="27"/>
-      <c r="AE23" s="27"/>
-      <c r="AF23" s="27"/>
-      <c r="AG23" s="27"/>
-      <c r="AH23" s="27"/>
-      <c r="AI23" s="27"/>
-      <c r="AJ23" s="27"/>
-      <c r="AK23" s="27"/>
-      <c r="AL23" s="27"/>
+      <c r="H23" s="30"/>
+      <c r="I23" s="30"/>
+      <c r="J23" s="30"/>
+      <c r="K23" s="30"/>
+      <c r="L23" s="30"/>
+      <c r="M23" s="30"/>
+      <c r="N23" s="30"/>
+      <c r="O23" s="30"/>
+      <c r="P23" s="30"/>
+      <c r="Q23" s="30"/>
+      <c r="R23" s="30"/>
+      <c r="S23" s="30"/>
+      <c r="T23" s="30"/>
+      <c r="U23" s="30"/>
+      <c r="V23" s="30"/>
+      <c r="W23" s="30"/>
+      <c r="X23" s="30"/>
+      <c r="Y23" s="30"/>
+      <c r="Z23" s="30"/>
+      <c r="AA23" s="30"/>
+      <c r="AB23" s="30"/>
+      <c r="AC23" s="30"/>
+      <c r="AD23" s="30"/>
+      <c r="AE23" s="30"/>
+      <c r="AF23" s="30"/>
+      <c r="AG23" s="30"/>
+      <c r="AH23" s="30"/>
+      <c r="AI23" s="30"/>
+      <c r="AJ23" s="30"/>
+      <c r="AK23" s="30"/>
+      <c r="AL23" s="30"/>
       <c r="AM23" s="4" t="s">
         <v>122</v>
       </c>
@@ -7889,56 +7911,56 @@
       </c>
     </row>
     <row r="24" spans="5:44" ht="64.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E24" s="37"/>
-      <c r="F24" s="37"/>
-      <c r="G24" s="43" t="s">
+      <c r="E24" s="45"/>
+      <c r="F24" s="45"/>
+      <c r="G24" s="36" t="s">
         <v>37</v>
       </c>
-      <c r="H24" s="44"/>
-      <c r="I24" s="44"/>
-      <c r="J24" s="45"/>
-      <c r="K24" s="43" t="s">
+      <c r="H24" s="37"/>
+      <c r="I24" s="37"/>
+      <c r="J24" s="38"/>
+      <c r="K24" s="36" t="s">
         <v>38</v>
       </c>
-      <c r="L24" s="44"/>
-      <c r="M24" s="44"/>
-      <c r="N24" s="45"/>
-      <c r="O24" s="28" t="s">
+      <c r="L24" s="37"/>
+      <c r="M24" s="37"/>
+      <c r="N24" s="38"/>
+      <c r="O24" s="26" t="s">
         <v>39</v>
       </c>
-      <c r="P24" s="29"/>
-      <c r="Q24" s="29"/>
-      <c r="R24" s="30"/>
-      <c r="S24" s="28" t="s">
+      <c r="P24" s="27"/>
+      <c r="Q24" s="27"/>
+      <c r="R24" s="28"/>
+      <c r="S24" s="26" t="s">
         <v>40</v>
       </c>
-      <c r="T24" s="29"/>
-      <c r="U24" s="29"/>
-      <c r="V24" s="30"/>
-      <c r="W24" s="27" t="s">
+      <c r="T24" s="27"/>
+      <c r="U24" s="27"/>
+      <c r="V24" s="28"/>
+      <c r="W24" s="30" t="s">
         <v>39</v>
       </c>
-      <c r="X24" s="27"/>
-      <c r="Y24" s="27"/>
-      <c r="Z24" s="27"/>
-      <c r="AA24" s="27"/>
-      <c r="AB24" s="27"/>
-      <c r="AC24" s="27"/>
-      <c r="AD24" s="27"/>
-      <c r="AE24" s="27"/>
-      <c r="AF24" s="27"/>
-      <c r="AG24" s="27"/>
-      <c r="AH24" s="27"/>
-      <c r="AI24" s="27"/>
-      <c r="AJ24" s="27"/>
-      <c r="AK24" s="27"/>
+      <c r="X24" s="30"/>
+      <c r="Y24" s="30"/>
+      <c r="Z24" s="30"/>
+      <c r="AA24" s="30"/>
+      <c r="AB24" s="30"/>
+      <c r="AC24" s="30"/>
+      <c r="AD24" s="30"/>
+      <c r="AE24" s="30"/>
+      <c r="AF24" s="30"/>
+      <c r="AG24" s="30"/>
+      <c r="AH24" s="30"/>
+      <c r="AI24" s="30"/>
+      <c r="AJ24" s="30"/>
+      <c r="AK24" s="30"/>
       <c r="AL24" s="14" t="s">
         <v>127</v>
       </c>
-      <c r="AM24" s="38" t="s">
+      <c r="AM24" s="46" t="s">
         <v>123</v>
       </c>
-      <c r="AN24" s="38" t="s">
+      <c r="AN24" s="46" t="s">
         <v>122</v>
       </c>
       <c r="AO24" s="16" t="s">
@@ -7952,48 +7974,48 @@
       </c>
     </row>
     <row r="25" spans="5:44" ht="64.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E25" s="37"/>
-      <c r="F25" s="37"/>
-      <c r="G25" s="46"/>
-      <c r="H25" s="47"/>
-      <c r="I25" s="47"/>
-      <c r="J25" s="48"/>
-      <c r="K25" s="46"/>
-      <c r="L25" s="47"/>
-      <c r="M25" s="47"/>
-      <c r="N25" s="48"/>
-      <c r="O25" s="28" t="s">
+      <c r="E25" s="45"/>
+      <c r="F25" s="45"/>
+      <c r="G25" s="39"/>
+      <c r="H25" s="40"/>
+      <c r="I25" s="40"/>
+      <c r="J25" s="41"/>
+      <c r="K25" s="39"/>
+      <c r="L25" s="40"/>
+      <c r="M25" s="40"/>
+      <c r="N25" s="41"/>
+      <c r="O25" s="26" t="s">
         <v>39</v>
       </c>
-      <c r="P25" s="29"/>
-      <c r="Q25" s="29"/>
-      <c r="R25" s="30"/>
-      <c r="S25" s="28" t="s">
+      <c r="P25" s="27"/>
+      <c r="Q25" s="27"/>
+      <c r="R25" s="28"/>
+      <c r="S25" s="26" t="s">
         <v>46</v>
       </c>
-      <c r="T25" s="29"/>
-      <c r="U25" s="29"/>
-      <c r="V25" s="30"/>
-      <c r="W25" s="28" t="s">
+      <c r="T25" s="27"/>
+      <c r="U25" s="27"/>
+      <c r="V25" s="28"/>
+      <c r="W25" s="26" t="s">
         <v>39</v>
       </c>
-      <c r="X25" s="29"/>
-      <c r="Y25" s="29"/>
-      <c r="Z25" s="29"/>
-      <c r="AA25" s="29"/>
-      <c r="AB25" s="29"/>
-      <c r="AC25" s="29"/>
-      <c r="AD25" s="29"/>
-      <c r="AE25" s="29"/>
-      <c r="AF25" s="29"/>
-      <c r="AG25" s="29"/>
-      <c r="AH25" s="29"/>
-      <c r="AI25" s="29"/>
-      <c r="AJ25" s="29"/>
-      <c r="AK25" s="29"/>
-      <c r="AL25" s="30"/>
-      <c r="AM25" s="39"/>
-      <c r="AN25" s="39"/>
+      <c r="X25" s="27"/>
+      <c r="Y25" s="27"/>
+      <c r="Z25" s="27"/>
+      <c r="AA25" s="27"/>
+      <c r="AB25" s="27"/>
+      <c r="AC25" s="27"/>
+      <c r="AD25" s="27"/>
+      <c r="AE25" s="27"/>
+      <c r="AF25" s="27"/>
+      <c r="AG25" s="27"/>
+      <c r="AH25" s="27"/>
+      <c r="AI25" s="27"/>
+      <c r="AJ25" s="27"/>
+      <c r="AK25" s="27"/>
+      <c r="AL25" s="28"/>
+      <c r="AM25" s="47"/>
+      <c r="AN25" s="47"/>
       <c r="AO25" s="16" t="s">
         <v>130</v>
       </c>
@@ -8005,48 +8027,48 @@
       </c>
     </row>
     <row r="26" spans="5:44" ht="64.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E26" s="37"/>
-      <c r="F26" s="37"/>
-      <c r="G26" s="46"/>
-      <c r="H26" s="47"/>
-      <c r="I26" s="47"/>
-      <c r="J26" s="48"/>
-      <c r="K26" s="46"/>
-      <c r="L26" s="47"/>
-      <c r="M26" s="47"/>
-      <c r="N26" s="48"/>
-      <c r="O26" s="28" t="s">
+      <c r="E26" s="45"/>
+      <c r="F26" s="45"/>
+      <c r="G26" s="39"/>
+      <c r="H26" s="40"/>
+      <c r="I26" s="40"/>
+      <c r="J26" s="41"/>
+      <c r="K26" s="39"/>
+      <c r="L26" s="40"/>
+      <c r="M26" s="40"/>
+      <c r="N26" s="41"/>
+      <c r="O26" s="26" t="s">
         <v>132</v>
       </c>
-      <c r="P26" s="29"/>
-      <c r="Q26" s="29"/>
-      <c r="R26" s="30"/>
-      <c r="S26" s="28" t="s">
+      <c r="P26" s="27"/>
+      <c r="Q26" s="27"/>
+      <c r="R26" s="28"/>
+      <c r="S26" s="26" t="s">
         <v>52</v>
       </c>
-      <c r="T26" s="29"/>
-      <c r="U26" s="29"/>
-      <c r="V26" s="30"/>
-      <c r="W26" s="28" t="s">
+      <c r="T26" s="27"/>
+      <c r="U26" s="27"/>
+      <c r="V26" s="28"/>
+      <c r="W26" s="26" t="s">
         <v>39</v>
       </c>
-      <c r="X26" s="29"/>
-      <c r="Y26" s="29"/>
-      <c r="Z26" s="29"/>
-      <c r="AA26" s="29"/>
-      <c r="AB26" s="29"/>
-      <c r="AC26" s="29"/>
-      <c r="AD26" s="29"/>
-      <c r="AE26" s="29"/>
-      <c r="AF26" s="29"/>
-      <c r="AG26" s="29"/>
-      <c r="AH26" s="29"/>
-      <c r="AI26" s="29"/>
-      <c r="AJ26" s="29"/>
-      <c r="AK26" s="29"/>
-      <c r="AL26" s="30"/>
-      <c r="AM26" s="39"/>
-      <c r="AN26" s="39"/>
+      <c r="X26" s="27"/>
+      <c r="Y26" s="27"/>
+      <c r="Z26" s="27"/>
+      <c r="AA26" s="27"/>
+      <c r="AB26" s="27"/>
+      <c r="AC26" s="27"/>
+      <c r="AD26" s="27"/>
+      <c r="AE26" s="27"/>
+      <c r="AF26" s="27"/>
+      <c r="AG26" s="27"/>
+      <c r="AH26" s="27"/>
+      <c r="AI26" s="27"/>
+      <c r="AJ26" s="27"/>
+      <c r="AK26" s="27"/>
+      <c r="AL26" s="28"/>
+      <c r="AM26" s="47"/>
+      <c r="AN26" s="47"/>
       <c r="AO26" s="16" t="s">
         <v>133</v>
       </c>
@@ -8061,52 +8083,52 @@
       </c>
     </row>
     <row r="27" spans="5:44" ht="64.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E27" s="37"/>
-      <c r="F27" s="37"/>
-      <c r="G27" s="46"/>
-      <c r="H27" s="47"/>
-      <c r="I27" s="47"/>
-      <c r="J27" s="48"/>
-      <c r="K27" s="46"/>
-      <c r="L27" s="47"/>
-      <c r="M27" s="47"/>
-      <c r="N27" s="48"/>
-      <c r="O27" s="28" t="s">
+      <c r="E27" s="45"/>
+      <c r="F27" s="45"/>
+      <c r="G27" s="39"/>
+      <c r="H27" s="40"/>
+      <c r="I27" s="40"/>
+      <c r="J27" s="41"/>
+      <c r="K27" s="39"/>
+      <c r="L27" s="40"/>
+      <c r="M27" s="40"/>
+      <c r="N27" s="41"/>
+      <c r="O27" s="26" t="s">
         <v>39</v>
       </c>
-      <c r="P27" s="29"/>
-      <c r="Q27" s="29"/>
-      <c r="R27" s="30"/>
-      <c r="S27" s="28" t="s">
+      <c r="P27" s="27"/>
+      <c r="Q27" s="27"/>
+      <c r="R27" s="28"/>
+      <c r="S27" s="26" t="s">
         <v>77</v>
       </c>
-      <c r="T27" s="29"/>
-      <c r="U27" s="29"/>
-      <c r="V27" s="30"/>
-      <c r="W27" s="28" t="s">
+      <c r="T27" s="27"/>
+      <c r="U27" s="27"/>
+      <c r="V27" s="28"/>
+      <c r="W27" s="26" t="s">
         <v>39</v>
       </c>
-      <c r="X27" s="29"/>
-      <c r="Y27" s="29"/>
-      <c r="Z27" s="29"/>
-      <c r="AA27" s="29"/>
-      <c r="AB27" s="29"/>
-      <c r="AC27" s="29"/>
-      <c r="AD27" s="30"/>
-      <c r="AE27" s="27" t="s">
+      <c r="X27" s="27"/>
+      <c r="Y27" s="27"/>
+      <c r="Z27" s="27"/>
+      <c r="AA27" s="27"/>
+      <c r="AB27" s="27"/>
+      <c r="AC27" s="27"/>
+      <c r="AD27" s="28"/>
+      <c r="AE27" s="30" t="s">
         <v>37</v>
       </c>
-      <c r="AF27" s="27"/>
-      <c r="AG27" s="27"/>
-      <c r="AH27" s="27"/>
-      <c r="AI27" s="27" t="s">
+      <c r="AF27" s="30"/>
+      <c r="AG27" s="30"/>
+      <c r="AH27" s="30"/>
+      <c r="AI27" s="30" t="s">
         <v>38</v>
       </c>
-      <c r="AJ27" s="27"/>
-      <c r="AK27" s="27"/>
-      <c r="AL27" s="27"/>
-      <c r="AM27" s="39"/>
-      <c r="AN27" s="39"/>
+      <c r="AJ27" s="30"/>
+      <c r="AK27" s="30"/>
+      <c r="AL27" s="30"/>
+      <c r="AM27" s="47"/>
+      <c r="AN27" s="47"/>
       <c r="AO27" s="16" t="s">
         <v>137</v>
       </c>
@@ -8118,52 +8140,52 @@
       </c>
     </row>
     <row r="28" spans="5:44" ht="64.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E28" s="37"/>
-      <c r="F28" s="37"/>
-      <c r="G28" s="46"/>
-      <c r="H28" s="47"/>
-      <c r="I28" s="47"/>
-      <c r="J28" s="48"/>
-      <c r="K28" s="46"/>
-      <c r="L28" s="47"/>
-      <c r="M28" s="47"/>
-      <c r="N28" s="48"/>
-      <c r="O28" s="28" t="s">
+      <c r="E28" s="45"/>
+      <c r="F28" s="45"/>
+      <c r="G28" s="39"/>
+      <c r="H28" s="40"/>
+      <c r="I28" s="40"/>
+      <c r="J28" s="41"/>
+      <c r="K28" s="39"/>
+      <c r="L28" s="40"/>
+      <c r="M28" s="40"/>
+      <c r="N28" s="41"/>
+      <c r="O28" s="26" t="s">
         <v>140</v>
       </c>
-      <c r="P28" s="29"/>
-      <c r="Q28" s="29"/>
-      <c r="R28" s="30"/>
-      <c r="S28" s="28" t="s">
+      <c r="P28" s="27"/>
+      <c r="Q28" s="27"/>
+      <c r="R28" s="28"/>
+      <c r="S28" s="26" t="s">
         <v>81</v>
       </c>
-      <c r="T28" s="29"/>
-      <c r="U28" s="29"/>
-      <c r="V28" s="30"/>
-      <c r="W28" s="28" t="s">
+      <c r="T28" s="27"/>
+      <c r="U28" s="27"/>
+      <c r="V28" s="28"/>
+      <c r="W28" s="26" t="s">
         <v>39</v>
       </c>
-      <c r="X28" s="29"/>
-      <c r="Y28" s="29"/>
-      <c r="Z28" s="29"/>
-      <c r="AA28" s="29"/>
-      <c r="AB28" s="29"/>
-      <c r="AC28" s="30"/>
+      <c r="X28" s="27"/>
+      <c r="Y28" s="27"/>
+      <c r="Z28" s="27"/>
+      <c r="AA28" s="27"/>
+      <c r="AB28" s="27"/>
+      <c r="AC28" s="28"/>
       <c r="AD28" s="5" t="s">
         <v>141</v>
       </c>
-      <c r="AE28" s="28" t="s">
+      <c r="AE28" s="26" t="s">
         <v>55</v>
       </c>
-      <c r="AF28" s="29"/>
-      <c r="AG28" s="29"/>
-      <c r="AH28" s="29"/>
-      <c r="AI28" s="29"/>
-      <c r="AJ28" s="29"/>
-      <c r="AK28" s="29"/>
-      <c r="AL28" s="30"/>
-      <c r="AM28" s="39"/>
-      <c r="AN28" s="39"/>
+      <c r="AF28" s="27"/>
+      <c r="AG28" s="27"/>
+      <c r="AH28" s="27"/>
+      <c r="AI28" s="27"/>
+      <c r="AJ28" s="27"/>
+      <c r="AK28" s="27"/>
+      <c r="AL28" s="28"/>
+      <c r="AM28" s="47"/>
+      <c r="AN28" s="47"/>
       <c r="AO28" s="16" t="s">
         <v>142</v>
       </c>
@@ -8175,54 +8197,54 @@
       </c>
     </row>
     <row r="29" spans="5:44" ht="64.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E29" s="37"/>
-      <c r="F29" s="37"/>
-      <c r="G29" s="49"/>
-      <c r="H29" s="50"/>
-      <c r="I29" s="50"/>
-      <c r="J29" s="51"/>
-      <c r="K29" s="49"/>
-      <c r="L29" s="50"/>
-      <c r="M29" s="50"/>
-      <c r="N29" s="51"/>
-      <c r="O29" s="28" t="s">
+      <c r="E29" s="45"/>
+      <c r="F29" s="45"/>
+      <c r="G29" s="42"/>
+      <c r="H29" s="43"/>
+      <c r="I29" s="43"/>
+      <c r="J29" s="44"/>
+      <c r="K29" s="42"/>
+      <c r="L29" s="43"/>
+      <c r="M29" s="43"/>
+      <c r="N29" s="44"/>
+      <c r="O29" s="26" t="s">
         <v>140</v>
       </c>
-      <c r="P29" s="29"/>
-      <c r="Q29" s="29"/>
-      <c r="R29" s="30"/>
-      <c r="S29" s="28" t="s">
+      <c r="P29" s="27"/>
+      <c r="Q29" s="27"/>
+      <c r="R29" s="28"/>
+      <c r="S29" s="26" t="s">
         <v>84</v>
       </c>
-      <c r="T29" s="29"/>
-      <c r="U29" s="29"/>
-      <c r="V29" s="30"/>
-      <c r="W29" s="28" t="s">
+      <c r="T29" s="27"/>
+      <c r="U29" s="27"/>
+      <c r="V29" s="28"/>
+      <c r="W29" s="26" t="s">
         <v>39</v>
       </c>
-      <c r="X29" s="29"/>
-      <c r="Y29" s="29"/>
-      <c r="Z29" s="29"/>
-      <c r="AA29" s="29"/>
-      <c r="AB29" s="29"/>
-      <c r="AC29" s="30"/>
+      <c r="X29" s="27"/>
+      <c r="Y29" s="27"/>
+      <c r="Z29" s="27"/>
+      <c r="AA29" s="27"/>
+      <c r="AB29" s="27"/>
+      <c r="AC29" s="28"/>
       <c r="AD29" s="5" t="s">
         <v>141</v>
       </c>
       <c r="AE29" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="AF29" s="28" t="s">
+      <c r="AF29" s="26" t="s">
         <v>60</v>
       </c>
-      <c r="AG29" s="29"/>
-      <c r="AH29" s="29"/>
-      <c r="AI29" s="29"/>
-      <c r="AJ29" s="29"/>
-      <c r="AK29" s="29"/>
-      <c r="AL29" s="30"/>
-      <c r="AM29" s="40"/>
-      <c r="AN29" s="40"/>
+      <c r="AG29" s="27"/>
+      <c r="AH29" s="27"/>
+      <c r="AI29" s="27"/>
+      <c r="AJ29" s="27"/>
+      <c r="AK29" s="27"/>
+      <c r="AL29" s="28"/>
+      <c r="AM29" s="48"/>
+      <c r="AN29" s="48"/>
       <c r="AO29" s="16" t="s">
         <v>144</v>
       </c>
@@ -8235,11 +8257,13 @@
     </row>
   </sheetData>
   <mergeCells count="39">
-    <mergeCell ref="AP21:AP22"/>
-    <mergeCell ref="AQ21:AQ22"/>
-    <mergeCell ref="AR21:AR22"/>
-    <mergeCell ref="G24:J29"/>
-    <mergeCell ref="K24:N29"/>
+    <mergeCell ref="E22:F22"/>
+    <mergeCell ref="S24:V24"/>
+    <mergeCell ref="W24:AK24"/>
+    <mergeCell ref="G21:N21"/>
+    <mergeCell ref="O21:V21"/>
+    <mergeCell ref="W21:AD21"/>
+    <mergeCell ref="AE21:AL21"/>
     <mergeCell ref="E23:E29"/>
     <mergeCell ref="F23:F29"/>
     <mergeCell ref="AM24:AM29"/>
@@ -8256,6 +8280,11 @@
     <mergeCell ref="O27:R27"/>
     <mergeCell ref="S27:V27"/>
     <mergeCell ref="W27:AD27"/>
+    <mergeCell ref="AP21:AP22"/>
+    <mergeCell ref="AQ21:AQ22"/>
+    <mergeCell ref="AR21:AR22"/>
+    <mergeCell ref="G24:J29"/>
+    <mergeCell ref="K24:N29"/>
     <mergeCell ref="AE27:AH27"/>
     <mergeCell ref="AI27:AL27"/>
     <mergeCell ref="O25:R25"/>
@@ -8267,13 +8296,6 @@
     <mergeCell ref="AM22:AN22"/>
     <mergeCell ref="G23:AL23"/>
     <mergeCell ref="O24:R24"/>
-    <mergeCell ref="S24:V24"/>
-    <mergeCell ref="W24:AK24"/>
-    <mergeCell ref="G21:N21"/>
-    <mergeCell ref="O21:V21"/>
-    <mergeCell ref="W21:AD21"/>
-    <mergeCell ref="AE21:AL21"/>
-    <mergeCell ref="E22:F22"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -8305,65 +8327,65 @@
       <c r="D13" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="E13" s="32" t="s">
+      <c r="E13" s="51" t="s">
         <v>95</v>
       </c>
-      <c r="F13" s="33"/>
-      <c r="G13" s="33"/>
-      <c r="H13" s="33"/>
-      <c r="I13" s="33"/>
-      <c r="J13" s="33"/>
-      <c r="K13" s="33"/>
-      <c r="L13" s="34"/>
-      <c r="M13" s="32" t="s">
+      <c r="F13" s="52"/>
+      <c r="G13" s="52"/>
+      <c r="H13" s="52"/>
+      <c r="I13" s="52"/>
+      <c r="J13" s="52"/>
+      <c r="K13" s="52"/>
+      <c r="L13" s="53"/>
+      <c r="M13" s="51" t="s">
         <v>96</v>
       </c>
-      <c r="N13" s="33" t="s">
+      <c r="N13" s="52" t="s">
         <v>97</v>
       </c>
-      <c r="O13" s="33" t="s">
+      <c r="O13" s="52" t="s">
         <v>98</v>
       </c>
-      <c r="P13" s="33"/>
-      <c r="Q13" s="33"/>
-      <c r="R13" s="33"/>
-      <c r="S13" s="33"/>
-      <c r="T13" s="34"/>
-      <c r="U13" s="32" t="s">
+      <c r="P13" s="52"/>
+      <c r="Q13" s="52"/>
+      <c r="R13" s="52"/>
+      <c r="S13" s="52"/>
+      <c r="T13" s="53"/>
+      <c r="U13" s="51" t="s">
         <v>97</v>
       </c>
-      <c r="V13" s="33"/>
-      <c r="W13" s="33"/>
-      <c r="X13" s="33"/>
-      <c r="Y13" s="33"/>
-      <c r="Z13" s="33"/>
-      <c r="AA13" s="33"/>
-      <c r="AB13" s="34"/>
-      <c r="AC13" s="32" t="s">
+      <c r="V13" s="52"/>
+      <c r="W13" s="52"/>
+      <c r="X13" s="52"/>
+      <c r="Y13" s="52"/>
+      <c r="Z13" s="52"/>
+      <c r="AA13" s="52"/>
+      <c r="AB13" s="53"/>
+      <c r="AC13" s="51" t="s">
         <v>98</v>
       </c>
-      <c r="AD13" s="33"/>
-      <c r="AE13" s="33"/>
-      <c r="AF13" s="33"/>
-      <c r="AG13" s="33"/>
-      <c r="AH13" s="33"/>
-      <c r="AI13" s="33"/>
-      <c r="AJ13" s="34"/>
-      <c r="AK13" s="52" t="s">
+      <c r="AD13" s="52"/>
+      <c r="AE13" s="52"/>
+      <c r="AF13" s="52"/>
+      <c r="AG13" s="52"/>
+      <c r="AH13" s="52"/>
+      <c r="AI13" s="52"/>
+      <c r="AJ13" s="53"/>
+      <c r="AK13" s="54" t="s">
         <v>32</v>
       </c>
-      <c r="AL13" s="41" t="s">
+      <c r="AL13" s="34" t="s">
         <v>33</v>
       </c>
-      <c r="AM13" s="41" t="s">
+      <c r="AM13" s="34" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="14" spans="3:39" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C14" s="35" t="s">
+      <c r="C14" s="49" t="s">
         <v>101</v>
       </c>
-      <c r="D14" s="35"/>
+      <c r="D14" s="49"/>
       <c r="E14" s="3" t="s">
         <v>102</v>
       </c>
@@ -8460,67 +8482,67 @@
       <c r="AJ14" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="AK14" s="53"/>
-      <c r="AL14" s="41"/>
-      <c r="AM14" s="41"/>
+      <c r="AK14" s="55"/>
+      <c r="AL14" s="34"/>
+      <c r="AM14" s="34"/>
     </row>
     <row r="15" spans="3:39" ht="95.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C15" s="37" t="s">
+      <c r="C15" s="45" t="s">
         <v>119</v>
       </c>
-      <c r="D15" s="37" t="s">
+      <c r="D15" s="45" t="s">
         <v>120</v>
       </c>
-      <c r="E15" s="31" t="s">
+      <c r="E15" s="29" t="s">
         <v>38</v>
       </c>
-      <c r="F15" s="31"/>
-      <c r="G15" s="31"/>
-      <c r="H15" s="31"/>
-      <c r="I15" s="30" t="s">
+      <c r="F15" s="29"/>
+      <c r="G15" s="29"/>
+      <c r="H15" s="29"/>
+      <c r="I15" s="28" t="s">
         <v>39</v>
       </c>
-      <c r="J15" s="27"/>
-      <c r="K15" s="24" t="s">
+      <c r="J15" s="30"/>
+      <c r="K15" s="31" t="s">
         <v>146</v>
       </c>
-      <c r="L15" s="26"/>
-      <c r="M15" s="24" t="s">
+      <c r="L15" s="33"/>
+      <c r="M15" s="31" t="s">
         <v>39</v>
       </c>
-      <c r="N15" s="25"/>
-      <c r="O15" s="25"/>
-      <c r="P15" s="26"/>
-      <c r="Q15" s="27" t="s">
+      <c r="N15" s="32"/>
+      <c r="O15" s="32"/>
+      <c r="P15" s="33"/>
+      <c r="Q15" s="30" t="s">
         <v>65</v>
       </c>
-      <c r="R15" s="27"/>
-      <c r="S15" s="27"/>
-      <c r="T15" s="27"/>
-      <c r="U15" s="28" t="s">
+      <c r="R15" s="30"/>
+      <c r="S15" s="30"/>
+      <c r="T15" s="30"/>
+      <c r="U15" s="26" t="s">
         <v>39</v>
       </c>
-      <c r="V15" s="29"/>
-      <c r="W15" s="29"/>
-      <c r="X15" s="29"/>
-      <c r="Y15" s="29"/>
-      <c r="Z15" s="30"/>
+      <c r="V15" s="27"/>
+      <c r="W15" s="27"/>
+      <c r="X15" s="27"/>
+      <c r="Y15" s="27"/>
+      <c r="Z15" s="28"/>
       <c r="AA15" s="11" t="s">
         <v>66</v>
       </c>
       <c r="AB15" s="11" t="s">
         <v>67</v>
       </c>
-      <c r="AC15" s="28" t="s">
+      <c r="AC15" s="26" t="s">
         <v>39</v>
       </c>
-      <c r="AD15" s="29"/>
-      <c r="AE15" s="29"/>
-      <c r="AF15" s="29"/>
-      <c r="AG15" s="29"/>
-      <c r="AH15" s="29"/>
-      <c r="AI15" s="29"/>
-      <c r="AJ15" s="30"/>
+      <c r="AD15" s="27"/>
+      <c r="AE15" s="27"/>
+      <c r="AF15" s="27"/>
+      <c r="AG15" s="27"/>
+      <c r="AH15" s="27"/>
+      <c r="AI15" s="27"/>
+      <c r="AJ15" s="28"/>
       <c r="AK15" s="9" t="s">
         <v>147</v>
       </c>
@@ -8532,48 +8554,48 @@
       </c>
     </row>
     <row r="16" spans="3:39" ht="95.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C16" s="37"/>
-      <c r="D16" s="37"/>
-      <c r="E16" s="31"/>
-      <c r="F16" s="31"/>
-      <c r="G16" s="31"/>
-      <c r="H16" s="31"/>
-      <c r="I16" s="25" t="s">
+      <c r="C16" s="45"/>
+      <c r="D16" s="45"/>
+      <c r="E16" s="29"/>
+      <c r="F16" s="29"/>
+      <c r="G16" s="29"/>
+      <c r="H16" s="29"/>
+      <c r="I16" s="32" t="s">
         <v>39</v>
       </c>
-      <c r="J16" s="25"/>
-      <c r="K16" s="25"/>
-      <c r="L16" s="26"/>
-      <c r="M16" s="24" t="s">
+      <c r="J16" s="32"/>
+      <c r="K16" s="32"/>
+      <c r="L16" s="33"/>
+      <c r="M16" s="31" t="s">
         <v>39</v>
       </c>
-      <c r="N16" s="25"/>
-      <c r="O16" s="25"/>
-      <c r="P16" s="26"/>
-      <c r="Q16" s="27" t="s">
+      <c r="N16" s="32"/>
+      <c r="O16" s="32"/>
+      <c r="P16" s="33"/>
+      <c r="Q16" s="30" t="s">
         <v>74</v>
       </c>
-      <c r="R16" s="27"/>
-      <c r="S16" s="27"/>
-      <c r="T16" s="27"/>
-      <c r="U16" s="28" t="s">
+      <c r="R16" s="30"/>
+      <c r="S16" s="30"/>
+      <c r="T16" s="30"/>
+      <c r="U16" s="26" t="s">
         <v>39</v>
       </c>
-      <c r="V16" s="29"/>
-      <c r="W16" s="29"/>
-      <c r="X16" s="29"/>
-      <c r="Y16" s="29"/>
-      <c r="Z16" s="29"/>
-      <c r="AA16" s="29"/>
-      <c r="AB16" s="29"/>
-      <c r="AC16" s="29"/>
-      <c r="AD16" s="29"/>
-      <c r="AE16" s="29"/>
-      <c r="AF16" s="29"/>
-      <c r="AG16" s="29"/>
-      <c r="AH16" s="29"/>
-      <c r="AI16" s="29"/>
-      <c r="AJ16" s="30"/>
+      <c r="V16" s="27"/>
+      <c r="W16" s="27"/>
+      <c r="X16" s="27"/>
+      <c r="Y16" s="27"/>
+      <c r="Z16" s="27"/>
+      <c r="AA16" s="27"/>
+      <c r="AB16" s="27"/>
+      <c r="AC16" s="27"/>
+      <c r="AD16" s="27"/>
+      <c r="AE16" s="27"/>
+      <c r="AF16" s="27"/>
+      <c r="AG16" s="27"/>
+      <c r="AH16" s="27"/>
+      <c r="AI16" s="27"/>
+      <c r="AJ16" s="28"/>
       <c r="AK16" s="9" t="s">
         <v>75</v>
       </c>
@@ -8585,50 +8607,50 @@
       </c>
     </row>
     <row r="17" spans="3:39" ht="95.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C17" s="37"/>
-      <c r="D17" s="37"/>
-      <c r="E17" s="31"/>
-      <c r="F17" s="31"/>
-      <c r="G17" s="31"/>
-      <c r="H17" s="31"/>
-      <c r="I17" s="25" t="s">
+      <c r="C17" s="45"/>
+      <c r="D17" s="45"/>
+      <c r="E17" s="29"/>
+      <c r="F17" s="29"/>
+      <c r="G17" s="29"/>
+      <c r="H17" s="29"/>
+      <c r="I17" s="32" t="s">
         <v>39</v>
       </c>
-      <c r="J17" s="25"/>
-      <c r="K17" s="25"/>
-      <c r="L17" s="26"/>
-      <c r="M17" s="24" t="s">
+      <c r="J17" s="32"/>
+      <c r="K17" s="32"/>
+      <c r="L17" s="33"/>
+      <c r="M17" s="31" t="s">
         <v>39</v>
       </c>
-      <c r="N17" s="25"/>
-      <c r="O17" s="25"/>
-      <c r="P17" s="26"/>
-      <c r="Q17" s="27" t="s">
+      <c r="N17" s="32"/>
+      <c r="O17" s="32"/>
+      <c r="P17" s="33"/>
+      <c r="Q17" s="30" t="s">
         <v>77</v>
       </c>
-      <c r="R17" s="27"/>
-      <c r="S17" s="27"/>
-      <c r="T17" s="27"/>
-      <c r="U17" s="28" t="s">
+      <c r="R17" s="30"/>
+      <c r="S17" s="30"/>
+      <c r="T17" s="30"/>
+      <c r="U17" s="26" t="s">
         <v>39</v>
       </c>
-      <c r="V17" s="29"/>
-      <c r="W17" s="29"/>
-      <c r="X17" s="29"/>
-      <c r="Y17" s="29"/>
-      <c r="Z17" s="29"/>
-      <c r="AA17" s="29"/>
-      <c r="AB17" s="29"/>
-      <c r="AC17" s="29"/>
-      <c r="AD17" s="29"/>
-      <c r="AE17" s="29"/>
-      <c r="AF17" s="30"/>
-      <c r="AG17" s="28" t="s">
+      <c r="V17" s="27"/>
+      <c r="W17" s="27"/>
+      <c r="X17" s="27"/>
+      <c r="Y17" s="27"/>
+      <c r="Z17" s="27"/>
+      <c r="AA17" s="27"/>
+      <c r="AB17" s="27"/>
+      <c r="AC17" s="27"/>
+      <c r="AD17" s="27"/>
+      <c r="AE17" s="27"/>
+      <c r="AF17" s="28"/>
+      <c r="AG17" s="26" t="s">
         <v>38</v>
       </c>
-      <c r="AH17" s="29"/>
-      <c r="AI17" s="29"/>
-      <c r="AJ17" s="30"/>
+      <c r="AH17" s="27"/>
+      <c r="AI17" s="27"/>
+      <c r="AJ17" s="28"/>
       <c r="AK17" s="9" t="s">
         <v>78</v>
       </c>
@@ -8640,56 +8662,56 @@
       </c>
     </row>
     <row r="18" spans="3:39" ht="95.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C18" s="37"/>
-      <c r="D18" s="37"/>
-      <c r="E18" s="31"/>
-      <c r="F18" s="31"/>
-      <c r="G18" s="31"/>
-      <c r="H18" s="31"/>
-      <c r="I18" s="30" t="s">
+      <c r="C18" s="45"/>
+      <c r="D18" s="45"/>
+      <c r="E18" s="29"/>
+      <c r="F18" s="29"/>
+      <c r="G18" s="29"/>
+      <c r="H18" s="29"/>
+      <c r="I18" s="28" t="s">
         <v>39</v>
       </c>
-      <c r="J18" s="27"/>
-      <c r="K18" s="24" t="s">
+      <c r="J18" s="30"/>
+      <c r="K18" s="31" t="s">
         <v>146</v>
       </c>
-      <c r="L18" s="26"/>
-      <c r="M18" s="31" t="s">
+      <c r="L18" s="33"/>
+      <c r="M18" s="29" t="s">
         <v>152</v>
       </c>
-      <c r="N18" s="31"/>
-      <c r="O18" s="31"/>
-      <c r="P18" s="31"/>
-      <c r="Q18" s="27" t="s">
+      <c r="N18" s="29"/>
+      <c r="O18" s="29"/>
+      <c r="P18" s="29"/>
+      <c r="Q18" s="30" t="s">
         <v>88</v>
       </c>
-      <c r="R18" s="27"/>
-      <c r="S18" s="27"/>
-      <c r="T18" s="27"/>
-      <c r="U18" s="28" t="s">
+      <c r="R18" s="30"/>
+      <c r="S18" s="30"/>
+      <c r="T18" s="30"/>
+      <c r="U18" s="26" t="s">
         <v>39</v>
       </c>
-      <c r="V18" s="29"/>
-      <c r="W18" s="29"/>
-      <c r="X18" s="29"/>
-      <c r="Y18" s="29"/>
-      <c r="Z18" s="30"/>
-      <c r="AA18" s="27" t="s">
+      <c r="V18" s="27"/>
+      <c r="W18" s="27"/>
+      <c r="X18" s="27"/>
+      <c r="Y18" s="27"/>
+      <c r="Z18" s="28"/>
+      <c r="AA18" s="30" t="s">
         <v>153</v>
       </c>
-      <c r="AB18" s="27"/>
-      <c r="AC18" s="27" t="s">
+      <c r="AB18" s="30"/>
+      <c r="AC18" s="30" t="s">
         <v>39</v>
       </c>
-      <c r="AD18" s="27"/>
-      <c r="AE18" s="28" t="s">
+      <c r="AD18" s="30"/>
+      <c r="AE18" s="26" t="s">
         <v>60</v>
       </c>
-      <c r="AF18" s="29"/>
-      <c r="AG18" s="29"/>
-      <c r="AH18" s="29"/>
-      <c r="AI18" s="29"/>
-      <c r="AJ18" s="30"/>
+      <c r="AF18" s="27"/>
+      <c r="AG18" s="27"/>
+      <c r="AH18" s="27"/>
+      <c r="AI18" s="27"/>
+      <c r="AJ18" s="28"/>
       <c r="AK18" s="9" t="s">
         <v>154</v>
       </c>
@@ -8701,55 +8723,55 @@
       </c>
     </row>
     <row r="19" spans="3:39" ht="95.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C19" s="37"/>
-      <c r="D19" s="37"/>
-      <c r="E19" s="31"/>
-      <c r="F19" s="31"/>
-      <c r="G19" s="31"/>
-      <c r="H19" s="31"/>
-      <c r="I19" s="30" t="s">
+      <c r="C19" s="45"/>
+      <c r="D19" s="45"/>
+      <c r="E19" s="29"/>
+      <c r="F19" s="29"/>
+      <c r="G19" s="29"/>
+      <c r="H19" s="29"/>
+      <c r="I19" s="28" t="s">
         <v>39</v>
       </c>
-      <c r="J19" s="27"/>
-      <c r="K19" s="24" t="s">
+      <c r="J19" s="30"/>
+      <c r="K19" s="31" t="s">
         <v>146</v>
       </c>
-      <c r="L19" s="26"/>
+      <c r="L19" s="33"/>
       <c r="M19" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="N19" s="24" t="s">
+      <c r="N19" s="31" t="s">
         <v>157</v>
       </c>
-      <c r="O19" s="25"/>
-      <c r="P19" s="26"/>
-      <c r="Q19" s="27" t="s">
+      <c r="O19" s="32"/>
+      <c r="P19" s="33"/>
+      <c r="Q19" s="30" t="s">
         <v>158</v>
       </c>
-      <c r="R19" s="27"/>
-      <c r="S19" s="27"/>
-      <c r="T19" s="27"/>
-      <c r="U19" s="28" t="s">
+      <c r="R19" s="30"/>
+      <c r="S19" s="30"/>
+      <c r="T19" s="30"/>
+      <c r="U19" s="26" t="s">
         <v>39</v>
       </c>
-      <c r="V19" s="29"/>
-      <c r="W19" s="29"/>
-      <c r="X19" s="29"/>
-      <c r="Y19" s="29"/>
-      <c r="Z19" s="29"/>
-      <c r="AA19" s="30"/>
+      <c r="V19" s="27"/>
+      <c r="W19" s="27"/>
+      <c r="X19" s="27"/>
+      <c r="Y19" s="27"/>
+      <c r="Z19" s="27"/>
+      <c r="AA19" s="28"/>
       <c r="AB19" s="5" t="s">
         <v>159</v>
       </c>
-      <c r="AC19" s="27" t="s">
+      <c r="AC19" s="30" t="s">
         <v>39</v>
       </c>
-      <c r="AD19" s="27"/>
-      <c r="AE19" s="27"/>
-      <c r="AF19" s="27"/>
-      <c r="AG19" s="27"/>
-      <c r="AH19" s="27"/>
-      <c r="AI19" s="27"/>
+      <c r="AD19" s="30"/>
+      <c r="AE19" s="30"/>
+      <c r="AF19" s="30"/>
+      <c r="AG19" s="30"/>
+      <c r="AH19" s="30"/>
+      <c r="AI19" s="30"/>
       <c r="AJ19" s="12" t="s">
         <v>160</v>
       </c>
@@ -8765,6 +8787,30 @@
     </row>
   </sheetData>
   <mergeCells count="40">
+    <mergeCell ref="E13:L13"/>
+    <mergeCell ref="M13:T13"/>
+    <mergeCell ref="U13:AB13"/>
+    <mergeCell ref="AC13:AJ13"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="AG17:AJ17"/>
+    <mergeCell ref="AC15:AJ15"/>
+    <mergeCell ref="I16:L16"/>
+    <mergeCell ref="M16:P16"/>
+    <mergeCell ref="Q16:T16"/>
+    <mergeCell ref="U16:AJ16"/>
+    <mergeCell ref="I15:J15"/>
+    <mergeCell ref="K15:L15"/>
+    <mergeCell ref="M15:P15"/>
+    <mergeCell ref="Q15:T15"/>
+    <mergeCell ref="U15:Z15"/>
+    <mergeCell ref="K18:L18"/>
+    <mergeCell ref="M18:P18"/>
+    <mergeCell ref="Q18:T18"/>
+    <mergeCell ref="U18:Z18"/>
+    <mergeCell ref="I17:L17"/>
+    <mergeCell ref="M17:P17"/>
+    <mergeCell ref="Q17:T17"/>
+    <mergeCell ref="U17:AF17"/>
     <mergeCell ref="C15:C19"/>
     <mergeCell ref="D15:D19"/>
     <mergeCell ref="AK13:AK14"/>
@@ -8781,30 +8827,6 @@
     <mergeCell ref="U19:AA19"/>
     <mergeCell ref="AC19:AI19"/>
     <mergeCell ref="I18:J18"/>
-    <mergeCell ref="K18:L18"/>
-    <mergeCell ref="M18:P18"/>
-    <mergeCell ref="Q18:T18"/>
-    <mergeCell ref="U18:Z18"/>
-    <mergeCell ref="I17:L17"/>
-    <mergeCell ref="M17:P17"/>
-    <mergeCell ref="Q17:T17"/>
-    <mergeCell ref="U17:AF17"/>
-    <mergeCell ref="AG17:AJ17"/>
-    <mergeCell ref="AC15:AJ15"/>
-    <mergeCell ref="I16:L16"/>
-    <mergeCell ref="M16:P16"/>
-    <mergeCell ref="Q16:T16"/>
-    <mergeCell ref="U16:AJ16"/>
-    <mergeCell ref="I15:J15"/>
-    <mergeCell ref="K15:L15"/>
-    <mergeCell ref="M15:P15"/>
-    <mergeCell ref="Q15:T15"/>
-    <mergeCell ref="U15:Z15"/>
-    <mergeCell ref="E13:L13"/>
-    <mergeCell ref="M13:T13"/>
-    <mergeCell ref="U13:AB13"/>
-    <mergeCell ref="AC13:AJ13"/>
-    <mergeCell ref="C14:D14"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -8836,65 +8858,65 @@
       <c r="D13" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="E13" s="32" t="s">
+      <c r="E13" s="51" t="s">
         <v>95</v>
       </c>
-      <c r="F13" s="33"/>
-      <c r="G13" s="33"/>
-      <c r="H13" s="33"/>
-      <c r="I13" s="33"/>
-      <c r="J13" s="33"/>
-      <c r="K13" s="33"/>
-      <c r="L13" s="34"/>
-      <c r="M13" s="32" t="s">
+      <c r="F13" s="52"/>
+      <c r="G13" s="52"/>
+      <c r="H13" s="52"/>
+      <c r="I13" s="52"/>
+      <c r="J13" s="52"/>
+      <c r="K13" s="52"/>
+      <c r="L13" s="53"/>
+      <c r="M13" s="51" t="s">
         <v>96</v>
       </c>
-      <c r="N13" s="33" t="s">
+      <c r="N13" s="52" t="s">
         <v>97</v>
       </c>
-      <c r="O13" s="33" t="s">
+      <c r="O13" s="52" t="s">
         <v>98</v>
       </c>
-      <c r="P13" s="33"/>
-      <c r="Q13" s="33"/>
-      <c r="R13" s="33"/>
-      <c r="S13" s="33"/>
-      <c r="T13" s="34"/>
-      <c r="U13" s="32" t="s">
+      <c r="P13" s="52"/>
+      <c r="Q13" s="52"/>
+      <c r="R13" s="52"/>
+      <c r="S13" s="52"/>
+      <c r="T13" s="53"/>
+      <c r="U13" s="51" t="s">
         <v>97</v>
       </c>
-      <c r="V13" s="33"/>
-      <c r="W13" s="33"/>
-      <c r="X13" s="33"/>
-      <c r="Y13" s="33"/>
-      <c r="Z13" s="33"/>
-      <c r="AA13" s="33"/>
-      <c r="AB13" s="34"/>
-      <c r="AC13" s="32" t="s">
+      <c r="V13" s="52"/>
+      <c r="W13" s="52"/>
+      <c r="X13" s="52"/>
+      <c r="Y13" s="52"/>
+      <c r="Z13" s="52"/>
+      <c r="AA13" s="52"/>
+      <c r="AB13" s="53"/>
+      <c r="AC13" s="51" t="s">
         <v>98</v>
       </c>
-      <c r="AD13" s="33"/>
-      <c r="AE13" s="33"/>
-      <c r="AF13" s="33"/>
-      <c r="AG13" s="33"/>
-      <c r="AH13" s="33"/>
-      <c r="AI13" s="33"/>
-      <c r="AJ13" s="34"/>
-      <c r="AK13" s="52" t="s">
+      <c r="AD13" s="52"/>
+      <c r="AE13" s="52"/>
+      <c r="AF13" s="52"/>
+      <c r="AG13" s="52"/>
+      <c r="AH13" s="52"/>
+      <c r="AI13" s="52"/>
+      <c r="AJ13" s="53"/>
+      <c r="AK13" s="54" t="s">
         <v>32</v>
       </c>
-      <c r="AL13" s="41" t="s">
+      <c r="AL13" s="34" t="s">
         <v>33</v>
       </c>
-      <c r="AM13" s="41" t="s">
+      <c r="AM13" s="34" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="14" spans="3:39" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C14" s="35" t="s">
+      <c r="C14" s="49" t="s">
         <v>101</v>
       </c>
-      <c r="D14" s="35"/>
+      <c r="D14" s="49"/>
       <c r="E14" s="3" t="s">
         <v>102</v>
       </c>
@@ -8991,63 +9013,63 @@
       <c r="AJ14" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="AK14" s="53"/>
-      <c r="AL14" s="41"/>
-      <c r="AM14" s="41"/>
+      <c r="AK14" s="55"/>
+      <c r="AL14" s="34"/>
+      <c r="AM14" s="34"/>
     </row>
     <row r="15" spans="3:39" ht="95.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C15" s="37" t="s">
+      <c r="C15" s="45" t="s">
         <v>119</v>
       </c>
-      <c r="D15" s="37" t="s">
+      <c r="D15" s="45" t="s">
         <v>120</v>
       </c>
-      <c r="E15" s="43" t="s">
+      <c r="E15" s="36" t="s">
         <v>38</v>
       </c>
-      <c r="F15" s="44"/>
-      <c r="G15" s="44"/>
-      <c r="H15" s="44"/>
-      <c r="I15" s="44"/>
-      <c r="J15" s="44"/>
-      <c r="K15" s="44"/>
-      <c r="L15" s="45"/>
-      <c r="M15" s="24" t="s">
+      <c r="F15" s="37"/>
+      <c r="G15" s="37"/>
+      <c r="H15" s="37"/>
+      <c r="I15" s="37"/>
+      <c r="J15" s="37"/>
+      <c r="K15" s="37"/>
+      <c r="L15" s="38"/>
+      <c r="M15" s="31" t="s">
         <v>39</v>
       </c>
-      <c r="N15" s="25"/>
-      <c r="O15" s="25"/>
-      <c r="P15" s="26"/>
-      <c r="Q15" s="27" t="s">
+      <c r="N15" s="32"/>
+      <c r="O15" s="32"/>
+      <c r="P15" s="33"/>
+      <c r="Q15" s="30" t="s">
         <v>65</v>
       </c>
-      <c r="R15" s="27"/>
-      <c r="S15" s="27"/>
-      <c r="T15" s="27"/>
-      <c r="U15" s="28" t="s">
+      <c r="R15" s="30"/>
+      <c r="S15" s="30"/>
+      <c r="T15" s="30"/>
+      <c r="U15" s="26" t="s">
         <v>39</v>
       </c>
-      <c r="V15" s="29"/>
-      <c r="W15" s="29"/>
-      <c r="X15" s="29"/>
-      <c r="Y15" s="29"/>
-      <c r="Z15" s="30"/>
+      <c r="V15" s="27"/>
+      <c r="W15" s="27"/>
+      <c r="X15" s="27"/>
+      <c r="Y15" s="27"/>
+      <c r="Z15" s="28"/>
       <c r="AA15" s="11" t="s">
         <v>66</v>
       </c>
       <c r="AB15" s="11" t="s">
         <v>67</v>
       </c>
-      <c r="AC15" s="28" t="s">
+      <c r="AC15" s="26" t="s">
         <v>39</v>
       </c>
-      <c r="AD15" s="29"/>
-      <c r="AE15" s="29"/>
-      <c r="AF15" s="29"/>
-      <c r="AG15" s="29"/>
-      <c r="AH15" s="29"/>
-      <c r="AI15" s="29"/>
-      <c r="AJ15" s="30"/>
+      <c r="AD15" s="27"/>
+      <c r="AE15" s="27"/>
+      <c r="AF15" s="27"/>
+      <c r="AG15" s="27"/>
+      <c r="AH15" s="27"/>
+      <c r="AI15" s="27"/>
+      <c r="AJ15" s="28"/>
       <c r="AK15" s="9" t="s">
         <v>147</v>
       </c>
@@ -9059,46 +9081,46 @@
       </c>
     </row>
     <row r="16" spans="3:39" ht="95.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C16" s="37"/>
-      <c r="D16" s="37"/>
-      <c r="E16" s="46"/>
-      <c r="F16" s="47"/>
-      <c r="G16" s="47"/>
-      <c r="H16" s="47"/>
-      <c r="I16" s="47"/>
-      <c r="J16" s="47"/>
-      <c r="K16" s="47"/>
-      <c r="L16" s="48"/>
-      <c r="M16" s="24" t="s">
+      <c r="C16" s="45"/>
+      <c r="D16" s="45"/>
+      <c r="E16" s="39"/>
+      <c r="F16" s="40"/>
+      <c r="G16" s="40"/>
+      <c r="H16" s="40"/>
+      <c r="I16" s="40"/>
+      <c r="J16" s="40"/>
+      <c r="K16" s="40"/>
+      <c r="L16" s="41"/>
+      <c r="M16" s="31" t="s">
         <v>39</v>
       </c>
-      <c r="N16" s="25"/>
-      <c r="O16" s="25"/>
-      <c r="P16" s="26"/>
-      <c r="Q16" s="27" t="s">
+      <c r="N16" s="32"/>
+      <c r="O16" s="32"/>
+      <c r="P16" s="33"/>
+      <c r="Q16" s="30" t="s">
         <v>74</v>
       </c>
-      <c r="R16" s="27"/>
-      <c r="S16" s="27"/>
-      <c r="T16" s="27"/>
-      <c r="U16" s="28" t="s">
+      <c r="R16" s="30"/>
+      <c r="S16" s="30"/>
+      <c r="T16" s="30"/>
+      <c r="U16" s="26" t="s">
         <v>39</v>
       </c>
-      <c r="V16" s="29"/>
-      <c r="W16" s="29"/>
-      <c r="X16" s="29"/>
-      <c r="Y16" s="29"/>
-      <c r="Z16" s="29"/>
-      <c r="AA16" s="29"/>
-      <c r="AB16" s="29"/>
-      <c r="AC16" s="29"/>
-      <c r="AD16" s="29"/>
-      <c r="AE16" s="29"/>
-      <c r="AF16" s="29"/>
-      <c r="AG16" s="29"/>
-      <c r="AH16" s="29"/>
-      <c r="AI16" s="29"/>
-      <c r="AJ16" s="30"/>
+      <c r="V16" s="27"/>
+      <c r="W16" s="27"/>
+      <c r="X16" s="27"/>
+      <c r="Y16" s="27"/>
+      <c r="Z16" s="27"/>
+      <c r="AA16" s="27"/>
+      <c r="AB16" s="27"/>
+      <c r="AC16" s="27"/>
+      <c r="AD16" s="27"/>
+      <c r="AE16" s="27"/>
+      <c r="AF16" s="27"/>
+      <c r="AG16" s="27"/>
+      <c r="AH16" s="27"/>
+      <c r="AI16" s="27"/>
+      <c r="AJ16" s="28"/>
       <c r="AK16" s="9" t="s">
         <v>75</v>
       </c>
@@ -9110,48 +9132,48 @@
       </c>
     </row>
     <row r="17" spans="3:39" ht="95.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C17" s="37"/>
-      <c r="D17" s="37"/>
-      <c r="E17" s="46"/>
-      <c r="F17" s="47"/>
-      <c r="G17" s="47"/>
-      <c r="H17" s="47"/>
-      <c r="I17" s="47"/>
-      <c r="J17" s="47"/>
-      <c r="K17" s="47"/>
-      <c r="L17" s="48"/>
-      <c r="M17" s="24" t="s">
+      <c r="C17" s="45"/>
+      <c r="D17" s="45"/>
+      <c r="E17" s="39"/>
+      <c r="F17" s="40"/>
+      <c r="G17" s="40"/>
+      <c r="H17" s="40"/>
+      <c r="I17" s="40"/>
+      <c r="J17" s="40"/>
+      <c r="K17" s="40"/>
+      <c r="L17" s="41"/>
+      <c r="M17" s="31" t="s">
         <v>39</v>
       </c>
-      <c r="N17" s="25"/>
-      <c r="O17" s="25"/>
-      <c r="P17" s="26"/>
-      <c r="Q17" s="27" t="s">
+      <c r="N17" s="32"/>
+      <c r="O17" s="32"/>
+      <c r="P17" s="33"/>
+      <c r="Q17" s="30" t="s">
         <v>77</v>
       </c>
-      <c r="R17" s="27"/>
-      <c r="S17" s="27"/>
-      <c r="T17" s="27"/>
-      <c r="U17" s="28" t="s">
+      <c r="R17" s="30"/>
+      <c r="S17" s="30"/>
+      <c r="T17" s="30"/>
+      <c r="U17" s="26" t="s">
         <v>39</v>
       </c>
-      <c r="V17" s="29"/>
-      <c r="W17" s="29"/>
-      <c r="X17" s="29"/>
-      <c r="Y17" s="29"/>
-      <c r="Z17" s="29"/>
-      <c r="AA17" s="29"/>
-      <c r="AB17" s="30"/>
-      <c r="AC17" s="27" t="s">
+      <c r="V17" s="27"/>
+      <c r="W17" s="27"/>
+      <c r="X17" s="27"/>
+      <c r="Y17" s="27"/>
+      <c r="Z17" s="27"/>
+      <c r="AA17" s="27"/>
+      <c r="AB17" s="28"/>
+      <c r="AC17" s="30" t="s">
         <v>38</v>
       </c>
-      <c r="AD17" s="27"/>
-      <c r="AE17" s="27"/>
-      <c r="AF17" s="27"/>
-      <c r="AG17" s="27"/>
-      <c r="AH17" s="27"/>
-      <c r="AI17" s="27"/>
-      <c r="AJ17" s="27"/>
+      <c r="AD17" s="30"/>
+      <c r="AE17" s="30"/>
+      <c r="AF17" s="30"/>
+      <c r="AG17" s="30"/>
+      <c r="AH17" s="30"/>
+      <c r="AI17" s="30"/>
+      <c r="AJ17" s="30"/>
       <c r="AK17" s="9" t="s">
         <v>78</v>
       </c>
@@ -9163,54 +9185,54 @@
       </c>
     </row>
     <row r="18" spans="3:39" ht="95.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C18" s="37"/>
-      <c r="D18" s="37"/>
-      <c r="E18" s="46"/>
-      <c r="F18" s="47"/>
-      <c r="G18" s="47"/>
-      <c r="H18" s="47"/>
-      <c r="I18" s="47"/>
-      <c r="J18" s="47"/>
-      <c r="K18" s="47"/>
-      <c r="L18" s="48"/>
+      <c r="C18" s="45"/>
+      <c r="D18" s="45"/>
+      <c r="E18" s="39"/>
+      <c r="F18" s="40"/>
+      <c r="G18" s="40"/>
+      <c r="H18" s="40"/>
+      <c r="I18" s="40"/>
+      <c r="J18" s="40"/>
+      <c r="K18" s="40"/>
+      <c r="L18" s="41"/>
       <c r="M18" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="N18" s="24" t="s">
+      <c r="N18" s="31" t="s">
         <v>152</v>
       </c>
-      <c r="O18" s="25"/>
-      <c r="P18" s="26"/>
-      <c r="Q18" s="27" t="s">
+      <c r="O18" s="32"/>
+      <c r="P18" s="33"/>
+      <c r="Q18" s="30" t="s">
         <v>88</v>
       </c>
-      <c r="R18" s="27"/>
-      <c r="S18" s="27"/>
-      <c r="T18" s="27"/>
-      <c r="U18" s="28" t="s">
+      <c r="R18" s="30"/>
+      <c r="S18" s="30"/>
+      <c r="T18" s="30"/>
+      <c r="U18" s="26" t="s">
         <v>39</v>
       </c>
-      <c r="V18" s="29"/>
-      <c r="W18" s="29"/>
-      <c r="X18" s="29"/>
-      <c r="Y18" s="29"/>
-      <c r="Z18" s="30"/>
-      <c r="AA18" s="27" t="s">
+      <c r="V18" s="27"/>
+      <c r="W18" s="27"/>
+      <c r="X18" s="27"/>
+      <c r="Y18" s="27"/>
+      <c r="Z18" s="28"/>
+      <c r="AA18" s="30" t="s">
         <v>153</v>
       </c>
-      <c r="AB18" s="27"/>
-      <c r="AC18" s="27" t="s">
+      <c r="AB18" s="30"/>
+      <c r="AC18" s="30" t="s">
         <v>39</v>
       </c>
-      <c r="AD18" s="27"/>
-      <c r="AE18" s="28" t="s">
+      <c r="AD18" s="30"/>
+      <c r="AE18" s="26" t="s">
         <v>60</v>
       </c>
-      <c r="AF18" s="29"/>
-      <c r="AG18" s="29"/>
-      <c r="AH18" s="29"/>
-      <c r="AI18" s="29"/>
-      <c r="AJ18" s="30"/>
+      <c r="AF18" s="27"/>
+      <c r="AG18" s="27"/>
+      <c r="AH18" s="27"/>
+      <c r="AI18" s="27"/>
+      <c r="AJ18" s="28"/>
       <c r="AK18" s="9" t="s">
         <v>154</v>
       </c>
@@ -9222,51 +9244,51 @@
       </c>
     </row>
     <row r="19" spans="3:39" ht="95.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C19" s="37"/>
-      <c r="D19" s="37"/>
-      <c r="E19" s="49"/>
-      <c r="F19" s="50"/>
-      <c r="G19" s="50"/>
-      <c r="H19" s="50"/>
-      <c r="I19" s="50"/>
-      <c r="J19" s="50"/>
-      <c r="K19" s="50"/>
-      <c r="L19" s="51"/>
-      <c r="M19" s="31" t="s">
+      <c r="C19" s="45"/>
+      <c r="D19" s="45"/>
+      <c r="E19" s="42"/>
+      <c r="F19" s="43"/>
+      <c r="G19" s="43"/>
+      <c r="H19" s="43"/>
+      <c r="I19" s="43"/>
+      <c r="J19" s="43"/>
+      <c r="K19" s="43"/>
+      <c r="L19" s="44"/>
+      <c r="M19" s="29" t="s">
         <v>39</v>
       </c>
-      <c r="N19" s="31"/>
-      <c r="O19" s="25" t="s">
+      <c r="N19" s="29"/>
+      <c r="O19" s="32" t="s">
         <v>157</v>
       </c>
-      <c r="P19" s="26"/>
-      <c r="Q19" s="27" t="s">
+      <c r="P19" s="33"/>
+      <c r="Q19" s="30" t="s">
         <v>158</v>
       </c>
-      <c r="R19" s="27"/>
-      <c r="S19" s="27"/>
-      <c r="T19" s="27"/>
-      <c r="U19" s="28" t="s">
+      <c r="R19" s="30"/>
+      <c r="S19" s="30"/>
+      <c r="T19" s="30"/>
+      <c r="U19" s="26" t="s">
         <v>39</v>
       </c>
-      <c r="V19" s="29"/>
-      <c r="W19" s="29"/>
-      <c r="X19" s="29"/>
-      <c r="Y19" s="29"/>
-      <c r="Z19" s="29"/>
-      <c r="AA19" s="30"/>
+      <c r="V19" s="27"/>
+      <c r="W19" s="27"/>
+      <c r="X19" s="27"/>
+      <c r="Y19" s="27"/>
+      <c r="Z19" s="27"/>
+      <c r="AA19" s="28"/>
       <c r="AB19" s="5" t="s">
         <v>159</v>
       </c>
-      <c r="AC19" s="27" t="s">
+      <c r="AC19" s="30" t="s">
         <v>39</v>
       </c>
-      <c r="AD19" s="27"/>
-      <c r="AE19" s="27"/>
-      <c r="AF19" s="27"/>
-      <c r="AG19" s="27"/>
-      <c r="AH19" s="27"/>
-      <c r="AI19" s="27"/>
+      <c r="AD19" s="30"/>
+      <c r="AE19" s="30"/>
+      <c r="AF19" s="30"/>
+      <c r="AG19" s="30"/>
+      <c r="AH19" s="30"/>
+      <c r="AI19" s="30"/>
       <c r="AJ19" s="12" t="s">
         <v>160</v>
       </c>
@@ -9282,6 +9304,23 @@
     </row>
   </sheetData>
   <mergeCells count="33">
+    <mergeCell ref="E13:L13"/>
+    <mergeCell ref="M13:T13"/>
+    <mergeCell ref="U13:AB13"/>
+    <mergeCell ref="AC13:AJ13"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="M15:P15"/>
+    <mergeCell ref="Q15:T15"/>
+    <mergeCell ref="U15:Z15"/>
+    <mergeCell ref="AC15:AJ15"/>
+    <mergeCell ref="M16:P16"/>
+    <mergeCell ref="Q16:T16"/>
+    <mergeCell ref="U16:AJ16"/>
+    <mergeCell ref="Q18:T18"/>
+    <mergeCell ref="U18:Z18"/>
+    <mergeCell ref="AA18:AB18"/>
+    <mergeCell ref="AC18:AD18"/>
+    <mergeCell ref="AE18:AJ18"/>
     <mergeCell ref="C15:C19"/>
     <mergeCell ref="D15:D19"/>
     <mergeCell ref="AK13:AK14"/>
@@ -9298,23 +9337,6 @@
     <mergeCell ref="U17:AB17"/>
     <mergeCell ref="AC17:AJ17"/>
     <mergeCell ref="N18:P18"/>
-    <mergeCell ref="Q18:T18"/>
-    <mergeCell ref="U18:Z18"/>
-    <mergeCell ref="AA18:AB18"/>
-    <mergeCell ref="AC18:AD18"/>
-    <mergeCell ref="AE18:AJ18"/>
-    <mergeCell ref="M15:P15"/>
-    <mergeCell ref="Q15:T15"/>
-    <mergeCell ref="U15:Z15"/>
-    <mergeCell ref="AC15:AJ15"/>
-    <mergeCell ref="M16:P16"/>
-    <mergeCell ref="Q16:T16"/>
-    <mergeCell ref="U16:AJ16"/>
-    <mergeCell ref="E13:L13"/>
-    <mergeCell ref="M13:T13"/>
-    <mergeCell ref="U13:AB13"/>
-    <mergeCell ref="AC13:AJ13"/>
-    <mergeCell ref="C14:D14"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -9324,10 +9346,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="C9:AO13"/>
+  <dimension ref="C9:AO14"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="P1" workbookViewId="0">
-      <selection activeCell="AN13" sqref="AN13"/>
+    <sheetView tabSelected="1" topLeftCell="Y3" workbookViewId="0">
+      <selection activeCell="AO14" sqref="AO14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -9346,71 +9368,71 @@
       <c r="D9" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="E9" s="32" t="s">
+      <c r="E9" s="51" t="s">
         <v>95</v>
       </c>
-      <c r="F9" s="33"/>
-      <c r="G9" s="33"/>
-      <c r="H9" s="33"/>
-      <c r="I9" s="33"/>
-      <c r="J9" s="33"/>
-      <c r="K9" s="33"/>
-      <c r="L9" s="34"/>
-      <c r="M9" s="32" t="s">
+      <c r="F9" s="52"/>
+      <c r="G9" s="52"/>
+      <c r="H9" s="52"/>
+      <c r="I9" s="52"/>
+      <c r="J9" s="52"/>
+      <c r="K9" s="52"/>
+      <c r="L9" s="53"/>
+      <c r="M9" s="51" t="s">
         <v>96</v>
       </c>
-      <c r="N9" s="33" t="s">
+      <c r="N9" s="52" t="s">
         <v>97</v>
       </c>
-      <c r="O9" s="33" t="s">
+      <c r="O9" s="52" t="s">
         <v>98</v>
       </c>
-      <c r="P9" s="33"/>
-      <c r="Q9" s="33"/>
-      <c r="R9" s="33"/>
-      <c r="S9" s="33"/>
-      <c r="T9" s="34"/>
-      <c r="U9" s="32" t="s">
+      <c r="P9" s="52"/>
+      <c r="Q9" s="52"/>
+      <c r="R9" s="52"/>
+      <c r="S9" s="52"/>
+      <c r="T9" s="53"/>
+      <c r="U9" s="51" t="s">
         <v>97</v>
       </c>
-      <c r="V9" s="33"/>
-      <c r="W9" s="33"/>
-      <c r="X9" s="33"/>
-      <c r="Y9" s="33"/>
-      <c r="Z9" s="33"/>
-      <c r="AA9" s="33"/>
-      <c r="AB9" s="34"/>
-      <c r="AC9" s="32" t="s">
+      <c r="V9" s="52"/>
+      <c r="W9" s="52"/>
+      <c r="X9" s="52"/>
+      <c r="Y9" s="52"/>
+      <c r="Z9" s="52"/>
+      <c r="AA9" s="52"/>
+      <c r="AB9" s="53"/>
+      <c r="AC9" s="51" t="s">
         <v>98</v>
       </c>
-      <c r="AD9" s="33"/>
-      <c r="AE9" s="33"/>
-      <c r="AF9" s="33"/>
-      <c r="AG9" s="33"/>
-      <c r="AH9" s="33"/>
-      <c r="AI9" s="33"/>
-      <c r="AJ9" s="34"/>
+      <c r="AD9" s="52"/>
+      <c r="AE9" s="52"/>
+      <c r="AF9" s="52"/>
+      <c r="AG9" s="52"/>
+      <c r="AH9" s="52"/>
+      <c r="AI9" s="52"/>
+      <c r="AJ9" s="53"/>
       <c r="AK9" s="1" t="s">
         <v>99</v>
       </c>
       <c r="AL9" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="AM9" s="52" t="s">
+      <c r="AM9" s="54" t="s">
         <v>32</v>
       </c>
-      <c r="AN9" s="41" t="s">
+      <c r="AN9" s="34" t="s">
         <v>33</v>
       </c>
-      <c r="AO9" s="41" t="s">
+      <c r="AO9" s="34" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="10" spans="3:41" x14ac:dyDescent="0.2">
-      <c r="C10" s="35" t="s">
+      <c r="C10" s="49" t="s">
         <v>101</v>
       </c>
-      <c r="D10" s="35"/>
+      <c r="D10" s="49"/>
       <c r="E10" s="3" t="s">
         <v>102</v>
       </c>
@@ -9507,67 +9529,67 @@
       <c r="AJ10" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="AK10" s="35" t="s">
+      <c r="AK10" s="49" t="s">
         <v>118</v>
       </c>
-      <c r="AL10" s="36"/>
-      <c r="AM10" s="53"/>
-      <c r="AN10" s="41"/>
-      <c r="AO10" s="41"/>
+      <c r="AL10" s="50"/>
+      <c r="AM10" s="55"/>
+      <c r="AN10" s="34"/>
+      <c r="AO10" s="34"/>
     </row>
     <row r="11" spans="3:41" ht="93" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C11" s="37" t="s">
+      <c r="C11" s="45" t="s">
         <v>119</v>
       </c>
-      <c r="D11" s="37" t="s">
+      <c r="D11" s="45" t="s">
         <v>120</v>
       </c>
-      <c r="E11" s="31" t="s">
+      <c r="E11" s="36" t="s">
         <v>39</v>
       </c>
-      <c r="F11" s="31"/>
-      <c r="G11" s="31"/>
-      <c r="H11" s="31"/>
-      <c r="I11" s="31"/>
-      <c r="J11" s="31"/>
-      <c r="K11" s="31"/>
-      <c r="L11" s="31"/>
-      <c r="M11" s="24" t="s">
+      <c r="F11" s="37"/>
+      <c r="G11" s="37"/>
+      <c r="H11" s="37"/>
+      <c r="I11" s="37"/>
+      <c r="J11" s="37"/>
+      <c r="K11" s="37"/>
+      <c r="L11" s="38"/>
+      <c r="M11" s="31" t="s">
         <v>169</v>
       </c>
-      <c r="N11" s="25"/>
-      <c r="O11" s="25"/>
-      <c r="P11" s="26"/>
-      <c r="Q11" s="27" t="s">
+      <c r="N11" s="32"/>
+      <c r="O11" s="32"/>
+      <c r="P11" s="33"/>
+      <c r="Q11" s="30" t="s">
         <v>46</v>
       </c>
-      <c r="R11" s="27"/>
-      <c r="S11" s="27"/>
-      <c r="T11" s="27"/>
-      <c r="U11" s="54" t="s">
+      <c r="R11" s="30"/>
+      <c r="S11" s="30"/>
+      <c r="T11" s="30"/>
+      <c r="U11" s="57" t="s">
         <v>178</v>
       </c>
-      <c r="V11" s="27"/>
-      <c r="W11" s="27"/>
-      <c r="X11" s="27"/>
-      <c r="Y11" s="27"/>
-      <c r="Z11" s="27"/>
-      <c r="AA11" s="27"/>
-      <c r="AB11" s="27"/>
-      <c r="AC11" s="27"/>
-      <c r="AD11" s="27"/>
-      <c r="AE11" s="27"/>
-      <c r="AF11" s="27"/>
-      <c r="AG11" s="27"/>
-      <c r="AH11" s="27"/>
-      <c r="AI11" s="27"/>
+      <c r="V11" s="30"/>
+      <c r="W11" s="30"/>
+      <c r="X11" s="30"/>
+      <c r="Y11" s="30"/>
+      <c r="Z11" s="30"/>
+      <c r="AA11" s="30"/>
+      <c r="AB11" s="30"/>
+      <c r="AC11" s="30"/>
+      <c r="AD11" s="30"/>
+      <c r="AE11" s="30"/>
+      <c r="AF11" s="30"/>
+      <c r="AG11" s="30"/>
+      <c r="AH11" s="30"/>
+      <c r="AI11" s="30"/>
       <c r="AJ11" s="8" t="s">
         <v>170</v>
       </c>
-      <c r="AK11" s="37" t="s">
+      <c r="AK11" s="45" t="s">
         <v>122</v>
       </c>
-      <c r="AL11" s="37" t="s">
+      <c r="AL11" s="45" t="s">
         <v>123</v>
       </c>
       <c r="AM11" s="9" t="s">
@@ -9581,49 +9603,49 @@
       </c>
     </row>
     <row r="12" spans="3:41" ht="93" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C12" s="37"/>
-      <c r="D12" s="37"/>
-      <c r="E12" s="31"/>
-      <c r="F12" s="31"/>
-      <c r="G12" s="31"/>
-      <c r="H12" s="31"/>
-      <c r="I12" s="31"/>
-      <c r="J12" s="31"/>
-      <c r="K12" s="31"/>
-      <c r="L12" s="31"/>
-      <c r="M12" s="24" t="s">
+      <c r="C12" s="45"/>
+      <c r="D12" s="45"/>
+      <c r="E12" s="39"/>
+      <c r="F12" s="40"/>
+      <c r="G12" s="40"/>
+      <c r="H12" s="40"/>
+      <c r="I12" s="40"/>
+      <c r="J12" s="40"/>
+      <c r="K12" s="40"/>
+      <c r="L12" s="41"/>
+      <c r="M12" s="31" t="s">
         <v>169</v>
       </c>
-      <c r="N12" s="25"/>
-      <c r="O12" s="25"/>
-      <c r="P12" s="26"/>
-      <c r="Q12" s="27" t="s">
+      <c r="N12" s="32"/>
+      <c r="O12" s="32"/>
+      <c r="P12" s="33"/>
+      <c r="Q12" s="30" t="s">
         <v>52</v>
       </c>
-      <c r="R12" s="27"/>
-      <c r="S12" s="27"/>
-      <c r="T12" s="27"/>
+      <c r="R12" s="30"/>
+      <c r="S12" s="30"/>
+      <c r="T12" s="30"/>
       <c r="U12" s="58" t="s">
         <v>178</v>
       </c>
-      <c r="V12" s="29"/>
-      <c r="W12" s="29"/>
-      <c r="X12" s="29"/>
-      <c r="Y12" s="29"/>
-      <c r="Z12" s="29"/>
-      <c r="AA12" s="29"/>
-      <c r="AB12" s="29"/>
-      <c r="AC12" s="29"/>
-      <c r="AD12" s="29"/>
-      <c r="AE12" s="29"/>
-      <c r="AF12" s="29"/>
-      <c r="AG12" s="29"/>
-      <c r="AH12" s="29"/>
-      <c r="AI12" s="29"/>
-      <c r="AJ12" s="30"/>
-      <c r="AK12" s="37"/>
-      <c r="AL12" s="37"/>
-      <c r="AM12" s="56" t="s">
+      <c r="V12" s="27"/>
+      <c r="W12" s="27"/>
+      <c r="X12" s="27"/>
+      <c r="Y12" s="27"/>
+      <c r="Z12" s="27"/>
+      <c r="AA12" s="27"/>
+      <c r="AB12" s="27"/>
+      <c r="AC12" s="27"/>
+      <c r="AD12" s="27"/>
+      <c r="AE12" s="27"/>
+      <c r="AF12" s="27"/>
+      <c r="AG12" s="27"/>
+      <c r="AH12" s="27"/>
+      <c r="AI12" s="27"/>
+      <c r="AJ12" s="28"/>
+      <c r="AK12" s="45"/>
+      <c r="AL12" s="45"/>
+      <c r="AM12" s="24" t="s">
         <v>182</v>
       </c>
       <c r="AN12" s="10" t="s">
@@ -9634,78 +9656,120 @@
       </c>
     </row>
     <row r="13" spans="3:41" ht="93" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C13" s="37"/>
-      <c r="D13" s="37"/>
-      <c r="E13" s="31"/>
-      <c r="F13" s="31"/>
-      <c r="G13" s="31"/>
-      <c r="H13" s="31"/>
-      <c r="I13" s="31"/>
-      <c r="J13" s="31"/>
-      <c r="K13" s="31"/>
-      <c r="L13" s="31"/>
-      <c r="M13" s="55" t="s">
+      <c r="C13" s="45"/>
+      <c r="D13" s="45"/>
+      <c r="E13" s="42"/>
+      <c r="F13" s="43"/>
+      <c r="G13" s="43"/>
+      <c r="H13" s="43"/>
+      <c r="I13" s="43"/>
+      <c r="J13" s="43"/>
+      <c r="K13" s="43"/>
+      <c r="L13" s="44"/>
+      <c r="M13" s="56" t="s">
         <v>176</v>
       </c>
-      <c r="N13" s="25"/>
-      <c r="O13" s="25"/>
-      <c r="P13" s="26"/>
-      <c r="Q13" s="54" t="s">
+      <c r="N13" s="32"/>
+      <c r="O13" s="32"/>
+      <c r="P13" s="33"/>
+      <c r="Q13" s="57" t="s">
         <v>175</v>
       </c>
-      <c r="R13" s="27"/>
-      <c r="S13" s="27"/>
-      <c r="T13" s="27"/>
+      <c r="R13" s="30"/>
+      <c r="S13" s="30"/>
+      <c r="T13" s="30"/>
       <c r="U13" s="58" t="s">
         <v>178</v>
       </c>
-      <c r="V13" s="29"/>
-      <c r="W13" s="29"/>
-      <c r="X13" s="29"/>
-      <c r="Y13" s="29"/>
-      <c r="Z13" s="29"/>
-      <c r="AA13" s="29"/>
-      <c r="AB13" s="29"/>
-      <c r="AC13" s="29"/>
-      <c r="AD13" s="29"/>
-      <c r="AE13" s="29"/>
-      <c r="AF13" s="29"/>
-      <c r="AG13" s="29"/>
-      <c r="AH13" s="30"/>
-      <c r="AI13" s="54" t="s">
+      <c r="V13" s="27"/>
+      <c r="W13" s="27"/>
+      <c r="X13" s="27"/>
+      <c r="Y13" s="27"/>
+      <c r="Z13" s="27"/>
+      <c r="AA13" s="27"/>
+      <c r="AB13" s="27"/>
+      <c r="AC13" s="27"/>
+      <c r="AD13" s="27"/>
+      <c r="AE13" s="27"/>
+      <c r="AF13" s="27"/>
+      <c r="AG13" s="27"/>
+      <c r="AH13" s="28"/>
+      <c r="AI13" s="57" t="s">
         <v>179</v>
       </c>
-      <c r="AJ13" s="27"/>
-      <c r="AK13" s="37"/>
-      <c r="AL13" s="37"/>
-      <c r="AM13" s="56" t="s">
+      <c r="AJ13" s="30"/>
+      <c r="AK13" s="45"/>
+      <c r="AL13" s="45"/>
+      <c r="AM13" s="24" t="s">
         <v>177</v>
       </c>
-      <c r="AN13" s="57" t="s">
+      <c r="AN13" s="25" t="s">
         <v>180</v>
       </c>
-      <c r="AO13" s="57" t="s">
+      <c r="AO13" s="25" t="s">
         <v>181</v>
       </c>
+    </row>
+    <row r="14" spans="3:41" ht="93" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C14" s="45"/>
+      <c r="D14" s="45"/>
+      <c r="E14" s="56" t="s">
+        <v>185</v>
+      </c>
+      <c r="F14" s="32"/>
+      <c r="G14" s="32"/>
+      <c r="H14" s="32"/>
+      <c r="I14" s="32"/>
+      <c r="J14" s="32"/>
+      <c r="K14" s="32"/>
+      <c r="L14" s="32"/>
+      <c r="M14" s="32"/>
+      <c r="N14" s="32"/>
+      <c r="O14" s="32"/>
+      <c r="P14" s="33"/>
+      <c r="Q14" s="57" t="s">
+        <v>183</v>
+      </c>
+      <c r="R14" s="30"/>
+      <c r="S14" s="30"/>
+      <c r="T14" s="30"/>
+      <c r="U14" s="58"/>
+      <c r="V14" s="59"/>
+      <c r="W14" s="59"/>
+      <c r="X14" s="59"/>
+      <c r="Y14" s="59"/>
+      <c r="Z14" s="59"/>
+      <c r="AA14" s="59"/>
+      <c r="AB14" s="60"/>
+      <c r="AC14" s="57" t="s">
+        <v>184</v>
+      </c>
+      <c r="AD14" s="57"/>
+      <c r="AE14" s="57"/>
+      <c r="AF14" s="57"/>
+      <c r="AG14" s="57"/>
+      <c r="AH14" s="57"/>
+      <c r="AI14" s="57"/>
+      <c r="AJ14" s="57"/>
+      <c r="AK14" s="45"/>
+      <c r="AL14" s="45"/>
+      <c r="AM14" s="24" t="s">
+        <v>186</v>
+      </c>
+      <c r="AN14" s="25"/>
+      <c r="AO14" s="25"/>
     </row>
   </sheetData>
-  <mergeCells count="24">
-    <mergeCell ref="AN9:AN10"/>
-    <mergeCell ref="AO9:AO10"/>
+  <mergeCells count="28">
+    <mergeCell ref="E14:P14"/>
+    <mergeCell ref="AC14:AJ14"/>
+    <mergeCell ref="U14:AB14"/>
+    <mergeCell ref="C10:D10"/>
     <mergeCell ref="M13:P13"/>
     <mergeCell ref="Q13:T13"/>
-    <mergeCell ref="C11:C13"/>
-    <mergeCell ref="D11:D13"/>
-    <mergeCell ref="AM9:AM10"/>
+    <mergeCell ref="U13:AH13"/>
+    <mergeCell ref="AI13:AJ13"/>
     <mergeCell ref="E11:L13"/>
-    <mergeCell ref="AK11:AK13"/>
-    <mergeCell ref="AL11:AL13"/>
-    <mergeCell ref="AI13:AJ13"/>
-    <mergeCell ref="U13:AH13"/>
-    <mergeCell ref="U11:AI11"/>
-    <mergeCell ref="AK10:AL10"/>
-    <mergeCell ref="M11:P11"/>
-    <mergeCell ref="Q11:T11"/>
     <mergeCell ref="M12:P12"/>
     <mergeCell ref="Q12:T12"/>
     <mergeCell ref="U12:AJ12"/>
@@ -9713,7 +9777,18 @@
     <mergeCell ref="M9:T9"/>
     <mergeCell ref="U9:AB9"/>
     <mergeCell ref="AC9:AJ9"/>
-    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="AN9:AN10"/>
+    <mergeCell ref="AO9:AO10"/>
+    <mergeCell ref="Q14:T14"/>
+    <mergeCell ref="C11:C14"/>
+    <mergeCell ref="D11:D14"/>
+    <mergeCell ref="AM9:AM10"/>
+    <mergeCell ref="AK11:AK14"/>
+    <mergeCell ref="AL11:AL14"/>
+    <mergeCell ref="U11:AI11"/>
+    <mergeCell ref="AK10:AL10"/>
+    <mergeCell ref="M11:P11"/>
+    <mergeCell ref="Q11:T11"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/eMIMO阵面数据帧格式.xlsx
+++ b/eMIMO阵面数据帧格式.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\202409_EMIMO\EMIMO-Software\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD664498-E34F-4F54-BEAC-D432A4C42AD0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B25C0301-2A63-4176-8F51-93FF19EF2BC6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -589,18 +589,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>SYSREF_PLSR_CNT</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>当sysref_mode=0时，控制LMK04832发送连续的SYSREF波形（这也是上电初始化之后的默认状态）；当sysref_mode=1时，改为发送SYSREF脉冲，脉冲个数由SYSREF_PLSR_CNT决定。从连续波切换到脉冲模式时，需要STM32方面短暂延时，以便于RFSoC PL端的sysref_detector回到idle状态。</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>SYSREF_PLSR_CNT即LMK04832的Reg318(0x13E)的值，它为00,01,10,11分别表示发送1,2,4,8个脉冲。这个字段只有在sysref_mode=1时才有效。</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>发送trig正脉冲</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -618,6 +606,18 @@
   </si>
   <si>
     <t>即时写入24bit控制字</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>SYSREF_PLSR</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>当sysref_mode=0时，控制LMK04832发送连续的SYSREF波形（这也是上电初始化之后的默认状态）；当sysref_mode=1时，改为发送SYSREF脉冲，脉冲个数由SYSREF_PLSR_CNT决定。从连续波切换到脉冲模式时，需要STM32方面短暂延时，以便于RFSoC PL端的sysref_detector回到idle状态。其他值无效。</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>当sysref_mode=0时，SYSREF_PLSR表示要切换的模式：SYSREF_PLSR=3为连续模式，SYSREF_PLSR=2为Pulser模式，此时SYSREF_PLSR的值会写到SYSREF_MUX寄存器处。sysref_mode=1时表示SYSREF_PLSR_CNT，即LMK04832的Reg318(0x13E)的值，它为00,01,10,11分别表示发送1,2,4,8个脉冲。</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -1049,6 +1049,18 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1060,17 +1072,29 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1105,31 +1129,7 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="13" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -6399,53 +6399,53 @@
       </c>
     </row>
     <row r="18" spans="4:40" ht="63" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D18" s="29" t="s">
+      <c r="D18" s="33" t="s">
         <v>36</v>
       </c>
-      <c r="E18" s="29" t="s">
+      <c r="E18" s="33" t="s">
         <v>37</v>
       </c>
-      <c r="F18" s="29"/>
-      <c r="G18" s="29"/>
-      <c r="H18" s="29"/>
-      <c r="I18" s="29" t="s">
+      <c r="F18" s="33"/>
+      <c r="G18" s="33"/>
+      <c r="H18" s="33"/>
+      <c r="I18" s="33" t="s">
         <v>38</v>
       </c>
-      <c r="J18" s="29"/>
-      <c r="K18" s="29"/>
-      <c r="L18" s="29"/>
-      <c r="M18" s="31" t="s">
+      <c r="J18" s="33"/>
+      <c r="K18" s="33"/>
+      <c r="L18" s="33"/>
+      <c r="M18" s="26" t="s">
         <v>39</v>
       </c>
-      <c r="N18" s="32"/>
-      <c r="O18" s="32"/>
-      <c r="P18" s="33"/>
-      <c r="Q18" s="30" t="s">
+      <c r="N18" s="27"/>
+      <c r="O18" s="27"/>
+      <c r="P18" s="28"/>
+      <c r="Q18" s="29" t="s">
         <v>40</v>
       </c>
-      <c r="R18" s="30"/>
-      <c r="S18" s="30"/>
-      <c r="T18" s="30"/>
-      <c r="U18" s="30" t="s">
+      <c r="R18" s="29"/>
+      <c r="S18" s="29"/>
+      <c r="T18" s="29"/>
+      <c r="U18" s="29" t="s">
         <v>41</v>
       </c>
-      <c r="V18" s="30"/>
-      <c r="W18" s="30"/>
-      <c r="X18" s="30"/>
-      <c r="Y18" s="30"/>
-      <c r="Z18" s="30"/>
-      <c r="AA18" s="30"/>
-      <c r="AB18" s="30"/>
-      <c r="AC18" s="30" t="s">
+      <c r="V18" s="29"/>
+      <c r="W18" s="29"/>
+      <c r="X18" s="29"/>
+      <c r="Y18" s="29"/>
+      <c r="Z18" s="29"/>
+      <c r="AA18" s="29"/>
+      <c r="AB18" s="29"/>
+      <c r="AC18" s="29" t="s">
         <v>42</v>
       </c>
-      <c r="AD18" s="30"/>
-      <c r="AE18" s="30"/>
-      <c r="AF18" s="30"/>
-      <c r="AG18" s="30"/>
-      <c r="AH18" s="30"/>
-      <c r="AI18" s="30"/>
-      <c r="AJ18" s="30"/>
+      <c r="AD18" s="29"/>
+      <c r="AE18" s="29"/>
+      <c r="AF18" s="29"/>
+      <c r="AG18" s="29"/>
+      <c r="AH18" s="29"/>
+      <c r="AI18" s="29"/>
+      <c r="AJ18" s="29"/>
       <c r="AK18" s="16" t="s">
         <v>43</v>
       </c>
@@ -6458,45 +6458,45 @@
       <c r="AN18" s="22"/>
     </row>
     <row r="19" spans="4:40" ht="63" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D19" s="29"/>
-      <c r="E19" s="29"/>
-      <c r="F19" s="29"/>
-      <c r="G19" s="29"/>
-      <c r="H19" s="29"/>
-      <c r="I19" s="29"/>
-      <c r="J19" s="29"/>
-      <c r="K19" s="29"/>
-      <c r="L19" s="29"/>
-      <c r="M19" s="31" t="s">
+      <c r="D19" s="33"/>
+      <c r="E19" s="33"/>
+      <c r="F19" s="33"/>
+      <c r="G19" s="33"/>
+      <c r="H19" s="33"/>
+      <c r="I19" s="33"/>
+      <c r="J19" s="33"/>
+      <c r="K19" s="33"/>
+      <c r="L19" s="33"/>
+      <c r="M19" s="26" t="s">
         <v>39</v>
       </c>
-      <c r="N19" s="32"/>
-      <c r="O19" s="32"/>
-      <c r="P19" s="33"/>
-      <c r="Q19" s="30" t="s">
+      <c r="N19" s="27"/>
+      <c r="O19" s="27"/>
+      <c r="P19" s="28"/>
+      <c r="Q19" s="29" t="s">
         <v>46</v>
       </c>
-      <c r="R19" s="30"/>
-      <c r="S19" s="30"/>
-      <c r="T19" s="30"/>
-      <c r="U19" s="30" t="s">
+      <c r="R19" s="29"/>
+      <c r="S19" s="29"/>
+      <c r="T19" s="29"/>
+      <c r="U19" s="29" t="s">
         <v>39</v>
       </c>
-      <c r="V19" s="30"/>
-      <c r="W19" s="30"/>
-      <c r="X19" s="30"/>
-      <c r="Y19" s="30"/>
-      <c r="Z19" s="30"/>
-      <c r="AA19" s="30"/>
-      <c r="AB19" s="30"/>
-      <c r="AC19" s="30"/>
-      <c r="AD19" s="30"/>
-      <c r="AE19" s="30"/>
-      <c r="AF19" s="30"/>
-      <c r="AG19" s="30"/>
-      <c r="AH19" s="30"/>
-      <c r="AI19" s="30"/>
-      <c r="AJ19" s="30"/>
+      <c r="V19" s="29"/>
+      <c r="W19" s="29"/>
+      <c r="X19" s="29"/>
+      <c r="Y19" s="29"/>
+      <c r="Z19" s="29"/>
+      <c r="AA19" s="29"/>
+      <c r="AB19" s="29"/>
+      <c r="AC19" s="29"/>
+      <c r="AD19" s="29"/>
+      <c r="AE19" s="29"/>
+      <c r="AF19" s="29"/>
+      <c r="AG19" s="29"/>
+      <c r="AH19" s="29"/>
+      <c r="AI19" s="29"/>
+      <c r="AJ19" s="29"/>
       <c r="AK19" s="16" t="s">
         <v>47</v>
       </c>
@@ -6511,51 +6511,51 @@
       </c>
     </row>
     <row r="20" spans="4:40" ht="63" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D20" s="29"/>
-      <c r="E20" s="29"/>
-      <c r="F20" s="29"/>
-      <c r="G20" s="29"/>
-      <c r="H20" s="29"/>
-      <c r="I20" s="29"/>
-      <c r="J20" s="29"/>
-      <c r="K20" s="29"/>
-      <c r="L20" s="29"/>
-      <c r="M20" s="29" t="s">
+      <c r="D20" s="33"/>
+      <c r="E20" s="33"/>
+      <c r="F20" s="33"/>
+      <c r="G20" s="33"/>
+      <c r="H20" s="33"/>
+      <c r="I20" s="33"/>
+      <c r="J20" s="33"/>
+      <c r="K20" s="33"/>
+      <c r="L20" s="33"/>
+      <c r="M20" s="33" t="s">
         <v>51</v>
       </c>
-      <c r="N20" s="29"/>
-      <c r="O20" s="29"/>
-      <c r="P20" s="29"/>
-      <c r="Q20" s="30" t="s">
+      <c r="N20" s="33"/>
+      <c r="O20" s="33"/>
+      <c r="P20" s="33"/>
+      <c r="Q20" s="29" t="s">
         <v>52</v>
       </c>
-      <c r="R20" s="30"/>
-      <c r="S20" s="30"/>
-      <c r="T20" s="30"/>
-      <c r="U20" s="26" t="s">
+      <c r="R20" s="29"/>
+      <c r="S20" s="29"/>
+      <c r="T20" s="29"/>
+      <c r="U20" s="30" t="s">
         <v>39</v>
       </c>
-      <c r="V20" s="27"/>
-      <c r="W20" s="27"/>
-      <c r="X20" s="27"/>
-      <c r="Y20" s="27"/>
-      <c r="Z20" s="28"/>
+      <c r="V20" s="31"/>
+      <c r="W20" s="31"/>
+      <c r="X20" s="31"/>
+      <c r="Y20" s="31"/>
+      <c r="Z20" s="32"/>
       <c r="AA20" s="11" t="s">
         <v>53</v>
       </c>
       <c r="AB20" s="11" t="s">
         <v>54</v>
       </c>
-      <c r="AC20" s="30" t="s">
+      <c r="AC20" s="29" t="s">
         <v>55</v>
       </c>
-      <c r="AD20" s="30"/>
-      <c r="AE20" s="30"/>
-      <c r="AF20" s="30"/>
-      <c r="AG20" s="30"/>
-      <c r="AH20" s="30"/>
-      <c r="AI20" s="30"/>
-      <c r="AJ20" s="30"/>
+      <c r="AD20" s="29"/>
+      <c r="AE20" s="29"/>
+      <c r="AF20" s="29"/>
+      <c r="AG20" s="29"/>
+      <c r="AH20" s="29"/>
+      <c r="AI20" s="29"/>
+      <c r="AJ20" s="29"/>
       <c r="AK20" s="16" t="s">
         <v>56</v>
       </c>
@@ -6568,49 +6568,49 @@
       <c r="AN20" s="22"/>
     </row>
     <row r="21" spans="4:40" ht="63" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D21" s="29"/>
-      <c r="E21" s="29"/>
-      <c r="F21" s="29"/>
-      <c r="G21" s="29"/>
-      <c r="H21" s="29"/>
-      <c r="I21" s="29"/>
-      <c r="J21" s="29"/>
-      <c r="K21" s="29"/>
-      <c r="L21" s="29"/>
-      <c r="M21" s="29"/>
-      <c r="N21" s="29"/>
-      <c r="O21" s="29"/>
-      <c r="P21" s="29"/>
-      <c r="Q21" s="30" t="s">
+      <c r="D21" s="33"/>
+      <c r="E21" s="33"/>
+      <c r="F21" s="33"/>
+      <c r="G21" s="33"/>
+      <c r="H21" s="33"/>
+      <c r="I21" s="33"/>
+      <c r="J21" s="33"/>
+      <c r="K21" s="33"/>
+      <c r="L21" s="33"/>
+      <c r="M21" s="33"/>
+      <c r="N21" s="33"/>
+      <c r="O21" s="33"/>
+      <c r="P21" s="33"/>
+      <c r="Q21" s="29" t="s">
         <v>59</v>
       </c>
-      <c r="R21" s="30"/>
-      <c r="S21" s="30"/>
-      <c r="T21" s="30"/>
-      <c r="U21" s="31" t="s">
+      <c r="R21" s="29"/>
+      <c r="S21" s="29"/>
+      <c r="T21" s="29"/>
+      <c r="U21" s="26" t="s">
         <v>39</v>
       </c>
-      <c r="V21" s="32"/>
-      <c r="W21" s="32"/>
-      <c r="X21" s="32"/>
-      <c r="Y21" s="32"/>
-      <c r="Z21" s="32"/>
-      <c r="AA21" s="33"/>
+      <c r="V21" s="27"/>
+      <c r="W21" s="27"/>
+      <c r="X21" s="27"/>
+      <c r="Y21" s="27"/>
+      <c r="Z21" s="27"/>
+      <c r="AA21" s="28"/>
       <c r="AB21" s="11" t="s">
         <v>54</v>
       </c>
       <c r="AC21" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="AD21" s="26" t="s">
+      <c r="AD21" s="30" t="s">
         <v>60</v>
       </c>
-      <c r="AE21" s="27"/>
-      <c r="AF21" s="27"/>
-      <c r="AG21" s="27"/>
-      <c r="AH21" s="27"/>
-      <c r="AI21" s="27"/>
-      <c r="AJ21" s="28"/>
+      <c r="AE21" s="31"/>
+      <c r="AF21" s="31"/>
+      <c r="AG21" s="31"/>
+      <c r="AH21" s="31"/>
+      <c r="AI21" s="31"/>
+      <c r="AJ21" s="32"/>
       <c r="AK21" s="9" t="s">
         <v>61</v>
       </c>
@@ -6623,51 +6623,51 @@
       <c r="AN21" s="22"/>
     </row>
     <row r="22" spans="4:40" ht="63" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D22" s="29"/>
-      <c r="E22" s="29"/>
-      <c r="F22" s="29"/>
-      <c r="G22" s="29"/>
-      <c r="H22" s="29"/>
-      <c r="I22" s="29"/>
-      <c r="J22" s="29"/>
-      <c r="K22" s="29"/>
-      <c r="L22" s="29"/>
-      <c r="M22" s="29" t="s">
+      <c r="D22" s="33"/>
+      <c r="E22" s="33"/>
+      <c r="F22" s="33"/>
+      <c r="G22" s="33"/>
+      <c r="H22" s="33"/>
+      <c r="I22" s="33"/>
+      <c r="J22" s="33"/>
+      <c r="K22" s="33"/>
+      <c r="L22" s="33"/>
+      <c r="M22" s="33" t="s">
         <v>64</v>
       </c>
-      <c r="N22" s="29"/>
-      <c r="O22" s="29"/>
-      <c r="P22" s="29"/>
-      <c r="Q22" s="30" t="s">
+      <c r="N22" s="33"/>
+      <c r="O22" s="33"/>
+      <c r="P22" s="33"/>
+      <c r="Q22" s="29" t="s">
         <v>65</v>
       </c>
-      <c r="R22" s="30"/>
-      <c r="S22" s="30"/>
-      <c r="T22" s="30"/>
-      <c r="U22" s="26" t="s">
+      <c r="R22" s="29"/>
+      <c r="S22" s="29"/>
+      <c r="T22" s="29"/>
+      <c r="U22" s="30" t="s">
         <v>39</v>
       </c>
-      <c r="V22" s="27"/>
-      <c r="W22" s="27"/>
-      <c r="X22" s="27"/>
-      <c r="Y22" s="27"/>
-      <c r="Z22" s="28"/>
+      <c r="V22" s="31"/>
+      <c r="W22" s="31"/>
+      <c r="X22" s="31"/>
+      <c r="Y22" s="31"/>
+      <c r="Z22" s="32"/>
       <c r="AA22" s="11" t="s">
         <v>66</v>
       </c>
       <c r="AB22" s="11" t="s">
         <v>67</v>
       </c>
-      <c r="AC22" s="26" t="s">
+      <c r="AC22" s="30" t="s">
         <v>39</v>
       </c>
-      <c r="AD22" s="27"/>
-      <c r="AE22" s="27"/>
-      <c r="AF22" s="27"/>
-      <c r="AG22" s="27"/>
-      <c r="AH22" s="27"/>
-      <c r="AI22" s="27"/>
-      <c r="AJ22" s="28"/>
+      <c r="AD22" s="31"/>
+      <c r="AE22" s="31"/>
+      <c r="AF22" s="31"/>
+      <c r="AG22" s="31"/>
+      <c r="AH22" s="31"/>
+      <c r="AI22" s="31"/>
+      <c r="AJ22" s="32"/>
       <c r="AK22" s="9" t="s">
         <v>68</v>
       </c>
@@ -6680,45 +6680,45 @@
       <c r="AN22" s="22"/>
     </row>
     <row r="23" spans="4:40" ht="63" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D23" s="29"/>
-      <c r="E23" s="29"/>
-      <c r="F23" s="29"/>
-      <c r="G23" s="29"/>
-      <c r="H23" s="29"/>
-      <c r="I23" s="29"/>
-      <c r="J23" s="29"/>
-      <c r="K23" s="29"/>
-      <c r="L23" s="29"/>
-      <c r="M23" s="31" t="s">
+      <c r="D23" s="33"/>
+      <c r="E23" s="33"/>
+      <c r="F23" s="33"/>
+      <c r="G23" s="33"/>
+      <c r="H23" s="33"/>
+      <c r="I23" s="33"/>
+      <c r="J23" s="33"/>
+      <c r="K23" s="33"/>
+      <c r="L23" s="33"/>
+      <c r="M23" s="26" t="s">
         <v>39</v>
       </c>
-      <c r="N23" s="32"/>
-      <c r="O23" s="32"/>
-      <c r="P23" s="33"/>
-      <c r="Q23" s="30" t="s">
+      <c r="N23" s="27"/>
+      <c r="O23" s="27"/>
+      <c r="P23" s="28"/>
+      <c r="Q23" s="29" t="s">
         <v>71</v>
       </c>
-      <c r="R23" s="30"/>
-      <c r="S23" s="30"/>
-      <c r="T23" s="30"/>
-      <c r="U23" s="26" t="s">
+      <c r="R23" s="29"/>
+      <c r="S23" s="29"/>
+      <c r="T23" s="29"/>
+      <c r="U23" s="30" t="s">
         <v>39</v>
       </c>
-      <c r="V23" s="27"/>
-      <c r="W23" s="27"/>
-      <c r="X23" s="27"/>
-      <c r="Y23" s="27"/>
-      <c r="Z23" s="27"/>
-      <c r="AA23" s="27"/>
-      <c r="AB23" s="27"/>
-      <c r="AC23" s="27"/>
-      <c r="AD23" s="27"/>
-      <c r="AE23" s="27"/>
-      <c r="AF23" s="27"/>
-      <c r="AG23" s="27"/>
-      <c r="AH23" s="27"/>
-      <c r="AI23" s="27"/>
-      <c r="AJ23" s="28"/>
+      <c r="V23" s="31"/>
+      <c r="W23" s="31"/>
+      <c r="X23" s="31"/>
+      <c r="Y23" s="31"/>
+      <c r="Z23" s="31"/>
+      <c r="AA23" s="31"/>
+      <c r="AB23" s="31"/>
+      <c r="AC23" s="31"/>
+      <c r="AD23" s="31"/>
+      <c r="AE23" s="31"/>
+      <c r="AF23" s="31"/>
+      <c r="AG23" s="31"/>
+      <c r="AH23" s="31"/>
+      <c r="AI23" s="31"/>
+      <c r="AJ23" s="32"/>
       <c r="AK23" s="9" t="s">
         <v>72</v>
       </c>
@@ -6731,45 +6731,45 @@
       <c r="AN23" s="22"/>
     </row>
     <row r="24" spans="4:40" ht="63" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D24" s="29"/>
-      <c r="E24" s="29"/>
-      <c r="F24" s="29"/>
-      <c r="G24" s="29"/>
-      <c r="H24" s="29"/>
-      <c r="I24" s="29"/>
-      <c r="J24" s="29"/>
-      <c r="K24" s="29"/>
-      <c r="L24" s="29"/>
-      <c r="M24" s="31" t="s">
+      <c r="D24" s="33"/>
+      <c r="E24" s="33"/>
+      <c r="F24" s="33"/>
+      <c r="G24" s="33"/>
+      <c r="H24" s="33"/>
+      <c r="I24" s="33"/>
+      <c r="J24" s="33"/>
+      <c r="K24" s="33"/>
+      <c r="L24" s="33"/>
+      <c r="M24" s="26" t="s">
         <v>39</v>
       </c>
-      <c r="N24" s="32"/>
-      <c r="O24" s="32"/>
-      <c r="P24" s="33"/>
-      <c r="Q24" s="30" t="s">
+      <c r="N24" s="27"/>
+      <c r="O24" s="27"/>
+      <c r="P24" s="28"/>
+      <c r="Q24" s="29" t="s">
         <v>74</v>
       </c>
-      <c r="R24" s="30"/>
-      <c r="S24" s="30"/>
-      <c r="T24" s="30"/>
-      <c r="U24" s="26" t="s">
+      <c r="R24" s="29"/>
+      <c r="S24" s="29"/>
+      <c r="T24" s="29"/>
+      <c r="U24" s="30" t="s">
         <v>39</v>
       </c>
-      <c r="V24" s="27"/>
-      <c r="W24" s="27"/>
-      <c r="X24" s="27"/>
-      <c r="Y24" s="27"/>
-      <c r="Z24" s="27"/>
-      <c r="AA24" s="27"/>
-      <c r="AB24" s="27"/>
-      <c r="AC24" s="27"/>
-      <c r="AD24" s="27"/>
-      <c r="AE24" s="27"/>
-      <c r="AF24" s="27"/>
-      <c r="AG24" s="27"/>
-      <c r="AH24" s="27"/>
-      <c r="AI24" s="27"/>
-      <c r="AJ24" s="28"/>
+      <c r="V24" s="31"/>
+      <c r="W24" s="31"/>
+      <c r="X24" s="31"/>
+      <c r="Y24" s="31"/>
+      <c r="Z24" s="31"/>
+      <c r="AA24" s="31"/>
+      <c r="AB24" s="31"/>
+      <c r="AC24" s="31"/>
+      <c r="AD24" s="31"/>
+      <c r="AE24" s="31"/>
+      <c r="AF24" s="31"/>
+      <c r="AG24" s="31"/>
+      <c r="AH24" s="31"/>
+      <c r="AI24" s="31"/>
+      <c r="AJ24" s="32"/>
       <c r="AK24" s="9" t="s">
         <v>75</v>
       </c>
@@ -6782,49 +6782,49 @@
       <c r="AN24" s="22"/>
     </row>
     <row r="25" spans="4:40" ht="63" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D25" s="29"/>
-      <c r="E25" s="29"/>
-      <c r="F25" s="29"/>
-      <c r="G25" s="29"/>
-      <c r="H25" s="29"/>
-      <c r="I25" s="29"/>
-      <c r="J25" s="29"/>
-      <c r="K25" s="29"/>
-      <c r="L25" s="29"/>
-      <c r="M25" s="31" t="s">
+      <c r="D25" s="33"/>
+      <c r="E25" s="33"/>
+      <c r="F25" s="33"/>
+      <c r="G25" s="33"/>
+      <c r="H25" s="33"/>
+      <c r="I25" s="33"/>
+      <c r="J25" s="33"/>
+      <c r="K25" s="33"/>
+      <c r="L25" s="33"/>
+      <c r="M25" s="26" t="s">
         <v>39</v>
       </c>
-      <c r="N25" s="32"/>
-      <c r="O25" s="32"/>
-      <c r="P25" s="33"/>
-      <c r="Q25" s="30" t="s">
+      <c r="N25" s="27"/>
+      <c r="O25" s="27"/>
+      <c r="P25" s="28"/>
+      <c r="Q25" s="29" t="s">
         <v>77</v>
       </c>
-      <c r="R25" s="30"/>
-      <c r="S25" s="30"/>
-      <c r="T25" s="30"/>
-      <c r="U25" s="26" t="s">
+      <c r="R25" s="29"/>
+      <c r="S25" s="29"/>
+      <c r="T25" s="29"/>
+      <c r="U25" s="30" t="s">
         <v>39</v>
       </c>
-      <c r="V25" s="27"/>
-      <c r="W25" s="27"/>
-      <c r="X25" s="27"/>
-      <c r="Y25" s="27"/>
-      <c r="Z25" s="27"/>
-      <c r="AA25" s="27"/>
-      <c r="AB25" s="27"/>
-      <c r="AC25" s="30" t="s">
+      <c r="V25" s="31"/>
+      <c r="W25" s="31"/>
+      <c r="X25" s="31"/>
+      <c r="Y25" s="31"/>
+      <c r="Z25" s="31"/>
+      <c r="AA25" s="31"/>
+      <c r="AB25" s="31"/>
+      <c r="AC25" s="29" t="s">
         <v>37</v>
       </c>
-      <c r="AD25" s="30"/>
-      <c r="AE25" s="30"/>
-      <c r="AF25" s="30"/>
-      <c r="AG25" s="26" t="s">
+      <c r="AD25" s="29"/>
+      <c r="AE25" s="29"/>
+      <c r="AF25" s="29"/>
+      <c r="AG25" s="30" t="s">
         <v>38</v>
       </c>
-      <c r="AH25" s="27"/>
-      <c r="AI25" s="27"/>
-      <c r="AJ25" s="28"/>
+      <c r="AH25" s="31"/>
+      <c r="AI25" s="31"/>
+      <c r="AJ25" s="32"/>
       <c r="AK25" s="9" t="s">
         <v>78</v>
       </c>
@@ -6837,49 +6837,49 @@
       <c r="AN25" s="22"/>
     </row>
     <row r="26" spans="4:40" ht="63" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D26" s="29"/>
-      <c r="E26" s="29"/>
-      <c r="F26" s="29"/>
-      <c r="G26" s="29"/>
-      <c r="H26" s="29"/>
-      <c r="I26" s="29"/>
-      <c r="J26" s="29"/>
-      <c r="K26" s="29"/>
-      <c r="L26" s="29"/>
-      <c r="M26" s="29" t="s">
+      <c r="D26" s="33"/>
+      <c r="E26" s="33"/>
+      <c r="F26" s="33"/>
+      <c r="G26" s="33"/>
+      <c r="H26" s="33"/>
+      <c r="I26" s="33"/>
+      <c r="J26" s="33"/>
+      <c r="K26" s="33"/>
+      <c r="L26" s="33"/>
+      <c r="M26" s="33" t="s">
         <v>51</v>
       </c>
-      <c r="N26" s="29"/>
-      <c r="O26" s="29"/>
-      <c r="P26" s="29"/>
-      <c r="Q26" s="30" t="s">
+      <c r="N26" s="33"/>
+      <c r="O26" s="33"/>
+      <c r="P26" s="33"/>
+      <c r="Q26" s="29" t="s">
         <v>81</v>
       </c>
-      <c r="R26" s="30"/>
-      <c r="S26" s="30"/>
-      <c r="T26" s="30"/>
-      <c r="U26" s="26" t="s">
+      <c r="R26" s="29"/>
+      <c r="S26" s="29"/>
+      <c r="T26" s="29"/>
+      <c r="U26" s="30" t="s">
         <v>39</v>
       </c>
-      <c r="V26" s="27"/>
-      <c r="W26" s="27"/>
-      <c r="X26" s="27"/>
-      <c r="Y26" s="27"/>
-      <c r="Z26" s="27"/>
-      <c r="AA26" s="28"/>
+      <c r="V26" s="31"/>
+      <c r="W26" s="31"/>
+      <c r="X26" s="31"/>
+      <c r="Y26" s="31"/>
+      <c r="Z26" s="31"/>
+      <c r="AA26" s="32"/>
       <c r="AB26" s="11" t="s">
         <v>54</v>
       </c>
-      <c r="AC26" s="30" t="s">
+      <c r="AC26" s="29" t="s">
         <v>55</v>
       </c>
-      <c r="AD26" s="30"/>
-      <c r="AE26" s="30"/>
-      <c r="AF26" s="30"/>
-      <c r="AG26" s="30"/>
-      <c r="AH26" s="30"/>
-      <c r="AI26" s="30"/>
-      <c r="AJ26" s="30"/>
+      <c r="AD26" s="29"/>
+      <c r="AE26" s="29"/>
+      <c r="AF26" s="29"/>
+      <c r="AG26" s="29"/>
+      <c r="AH26" s="29"/>
+      <c r="AI26" s="29"/>
+      <c r="AJ26" s="29"/>
       <c r="AK26" s="16" t="s">
         <v>82</v>
       </c>
@@ -6892,49 +6892,49 @@
       <c r="AN26" s="22"/>
     </row>
     <row r="27" spans="4:40" ht="63" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D27" s="29"/>
-      <c r="E27" s="29"/>
-      <c r="F27" s="29"/>
-      <c r="G27" s="29"/>
-      <c r="H27" s="29"/>
-      <c r="I27" s="29"/>
-      <c r="J27" s="29"/>
-      <c r="K27" s="29"/>
-      <c r="L27" s="29"/>
-      <c r="M27" s="29"/>
-      <c r="N27" s="29"/>
-      <c r="O27" s="29"/>
-      <c r="P27" s="29"/>
-      <c r="Q27" s="30" t="s">
+      <c r="D27" s="33"/>
+      <c r="E27" s="33"/>
+      <c r="F27" s="33"/>
+      <c r="G27" s="33"/>
+      <c r="H27" s="33"/>
+      <c r="I27" s="33"/>
+      <c r="J27" s="33"/>
+      <c r="K27" s="33"/>
+      <c r="L27" s="33"/>
+      <c r="M27" s="33"/>
+      <c r="N27" s="33"/>
+      <c r="O27" s="33"/>
+      <c r="P27" s="33"/>
+      <c r="Q27" s="29" t="s">
         <v>84</v>
       </c>
-      <c r="R27" s="30"/>
-      <c r="S27" s="30"/>
-      <c r="T27" s="30"/>
-      <c r="U27" s="26" t="s">
+      <c r="R27" s="29"/>
+      <c r="S27" s="29"/>
+      <c r="T27" s="29"/>
+      <c r="U27" s="30" t="s">
         <v>39</v>
       </c>
-      <c r="V27" s="27"/>
-      <c r="W27" s="27"/>
-      <c r="X27" s="27"/>
-      <c r="Y27" s="27"/>
-      <c r="Z27" s="27"/>
-      <c r="AA27" s="28"/>
+      <c r="V27" s="31"/>
+      <c r="W27" s="31"/>
+      <c r="X27" s="31"/>
+      <c r="Y27" s="31"/>
+      <c r="Z27" s="31"/>
+      <c r="AA27" s="32"/>
       <c r="AB27" s="11" t="s">
         <v>54</v>
       </c>
       <c r="AC27" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="AD27" s="26" t="s">
+      <c r="AD27" s="30" t="s">
         <v>60</v>
       </c>
-      <c r="AE27" s="27"/>
-      <c r="AF27" s="27"/>
-      <c r="AG27" s="27"/>
-      <c r="AH27" s="27"/>
-      <c r="AI27" s="27"/>
-      <c r="AJ27" s="28"/>
+      <c r="AE27" s="31"/>
+      <c r="AF27" s="31"/>
+      <c r="AG27" s="31"/>
+      <c r="AH27" s="31"/>
+      <c r="AI27" s="31"/>
+      <c r="AJ27" s="32"/>
       <c r="AK27" s="9" t="s">
         <v>85</v>
       </c>
@@ -6947,53 +6947,53 @@
       <c r="AN27" s="22"/>
     </row>
     <row r="28" spans="4:40" ht="63" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D28" s="29"/>
-      <c r="E28" s="29"/>
-      <c r="F28" s="29"/>
-      <c r="G28" s="29"/>
-      <c r="H28" s="29"/>
-      <c r="I28" s="29"/>
-      <c r="J28" s="29"/>
-      <c r="K28" s="29"/>
-      <c r="L28" s="29"/>
-      <c r="M28" s="29" t="s">
+      <c r="D28" s="33"/>
+      <c r="E28" s="33"/>
+      <c r="F28" s="33"/>
+      <c r="G28" s="33"/>
+      <c r="H28" s="33"/>
+      <c r="I28" s="33"/>
+      <c r="J28" s="33"/>
+      <c r="K28" s="33"/>
+      <c r="L28" s="33"/>
+      <c r="M28" s="33" t="s">
         <v>39</v>
       </c>
-      <c r="N28" s="29"/>
-      <c r="O28" s="29" t="s">
+      <c r="N28" s="33"/>
+      <c r="O28" s="33" t="s">
         <v>87</v>
       </c>
-      <c r="P28" s="29"/>
-      <c r="Q28" s="30" t="s">
+      <c r="P28" s="33"/>
+      <c r="Q28" s="29" t="s">
         <v>88</v>
       </c>
-      <c r="R28" s="30"/>
-      <c r="S28" s="30"/>
-      <c r="T28" s="30"/>
-      <c r="U28" s="26" t="s">
+      <c r="R28" s="29"/>
+      <c r="S28" s="29"/>
+      <c r="T28" s="29"/>
+      <c r="U28" s="30" t="s">
         <v>39</v>
       </c>
-      <c r="V28" s="27"/>
-      <c r="W28" s="27"/>
-      <c r="X28" s="27"/>
-      <c r="Y28" s="27"/>
-      <c r="Z28" s="27"/>
-      <c r="AA28" s="28"/>
+      <c r="V28" s="31"/>
+      <c r="W28" s="31"/>
+      <c r="X28" s="31"/>
+      <c r="Y28" s="31"/>
+      <c r="Z28" s="31"/>
+      <c r="AA28" s="32"/>
       <c r="AB28" s="5" t="s">
         <v>89</v>
       </c>
-      <c r="AC28" s="30" t="s">
+      <c r="AC28" s="29" t="s">
         <v>39</v>
       </c>
-      <c r="AD28" s="30"/>
-      <c r="AE28" s="26" t="s">
+      <c r="AD28" s="29"/>
+      <c r="AE28" s="30" t="s">
         <v>60</v>
       </c>
-      <c r="AF28" s="27"/>
-      <c r="AG28" s="27"/>
-      <c r="AH28" s="27"/>
-      <c r="AI28" s="27"/>
-      <c r="AJ28" s="28"/>
+      <c r="AF28" s="31"/>
+      <c r="AG28" s="31"/>
+      <c r="AH28" s="31"/>
+      <c r="AI28" s="31"/>
+      <c r="AJ28" s="32"/>
       <c r="AK28" s="9" t="s">
         <v>90</v>
       </c>
@@ -7599,35 +7599,6 @@
     </row>
   </sheetData>
   <mergeCells count="45">
-    <mergeCell ref="M18:P18"/>
-    <mergeCell ref="Q18:T18"/>
-    <mergeCell ref="U18:AB18"/>
-    <mergeCell ref="AC18:AJ18"/>
-    <mergeCell ref="M19:P19"/>
-    <mergeCell ref="Q19:T19"/>
-    <mergeCell ref="U19:AJ19"/>
-    <mergeCell ref="Q20:T20"/>
-    <mergeCell ref="U20:Z20"/>
-    <mergeCell ref="AC20:AJ20"/>
-    <mergeCell ref="Q21:T21"/>
-    <mergeCell ref="U21:AA21"/>
-    <mergeCell ref="AD21:AJ21"/>
-    <mergeCell ref="M22:P22"/>
-    <mergeCell ref="Q22:T22"/>
-    <mergeCell ref="U22:Z22"/>
-    <mergeCell ref="AC22:AJ22"/>
-    <mergeCell ref="M23:P23"/>
-    <mergeCell ref="Q23:T23"/>
-    <mergeCell ref="U23:AJ23"/>
-    <mergeCell ref="AD27:AJ27"/>
-    <mergeCell ref="M24:P24"/>
-    <mergeCell ref="Q24:T24"/>
-    <mergeCell ref="U24:AJ24"/>
-    <mergeCell ref="M25:P25"/>
-    <mergeCell ref="Q25:T25"/>
-    <mergeCell ref="U25:AB25"/>
-    <mergeCell ref="AC25:AF25"/>
-    <mergeCell ref="AG25:AJ25"/>
     <mergeCell ref="AE28:AJ28"/>
     <mergeCell ref="D18:D28"/>
     <mergeCell ref="E18:H28"/>
@@ -7644,6 +7615,35 @@
     <mergeCell ref="AC26:AJ26"/>
     <mergeCell ref="Q27:T27"/>
     <mergeCell ref="U27:AA27"/>
+    <mergeCell ref="AD27:AJ27"/>
+    <mergeCell ref="M24:P24"/>
+    <mergeCell ref="Q24:T24"/>
+    <mergeCell ref="U24:AJ24"/>
+    <mergeCell ref="M25:P25"/>
+    <mergeCell ref="Q25:T25"/>
+    <mergeCell ref="U25:AB25"/>
+    <mergeCell ref="AC25:AF25"/>
+    <mergeCell ref="AG25:AJ25"/>
+    <mergeCell ref="M22:P22"/>
+    <mergeCell ref="Q22:T22"/>
+    <mergeCell ref="U22:Z22"/>
+    <mergeCell ref="AC22:AJ22"/>
+    <mergeCell ref="M23:P23"/>
+    <mergeCell ref="Q23:T23"/>
+    <mergeCell ref="U23:AJ23"/>
+    <mergeCell ref="Q20:T20"/>
+    <mergeCell ref="U20:Z20"/>
+    <mergeCell ref="AC20:AJ20"/>
+    <mergeCell ref="Q21:T21"/>
+    <mergeCell ref="U21:AA21"/>
+    <mergeCell ref="AD21:AJ21"/>
+    <mergeCell ref="M18:P18"/>
+    <mergeCell ref="Q18:T18"/>
+    <mergeCell ref="U18:AB18"/>
+    <mergeCell ref="AC18:AJ18"/>
+    <mergeCell ref="M19:P19"/>
+    <mergeCell ref="Q19:T19"/>
+    <mergeCell ref="U19:AJ19"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7680,74 +7680,74 @@
       <c r="F21" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="G21" s="51" t="s">
+      <c r="G21" s="35" t="s">
         <v>95</v>
       </c>
-      <c r="H21" s="52"/>
-      <c r="I21" s="52"/>
-      <c r="J21" s="52"/>
-      <c r="K21" s="52"/>
-      <c r="L21" s="52"/>
-      <c r="M21" s="52"/>
-      <c r="N21" s="53"/>
-      <c r="O21" s="51" t="s">
+      <c r="H21" s="36"/>
+      <c r="I21" s="36"/>
+      <c r="J21" s="36"/>
+      <c r="K21" s="36"/>
+      <c r="L21" s="36"/>
+      <c r="M21" s="36"/>
+      <c r="N21" s="37"/>
+      <c r="O21" s="35" t="s">
         <v>96</v>
       </c>
-      <c r="P21" s="52" t="s">
+      <c r="P21" s="36" t="s">
         <v>97</v>
       </c>
-      <c r="Q21" s="52" t="s">
+      <c r="Q21" s="36" t="s">
         <v>98</v>
       </c>
-      <c r="R21" s="52"/>
-      <c r="S21" s="52"/>
-      <c r="T21" s="52"/>
-      <c r="U21" s="52"/>
-      <c r="V21" s="53"/>
-      <c r="W21" s="51" t="s">
+      <c r="R21" s="36"/>
+      <c r="S21" s="36"/>
+      <c r="T21" s="36"/>
+      <c r="U21" s="36"/>
+      <c r="V21" s="37"/>
+      <c r="W21" s="35" t="s">
         <v>97</v>
       </c>
-      <c r="X21" s="52"/>
-      <c r="Y21" s="52"/>
-      <c r="Z21" s="52"/>
-      <c r="AA21" s="52"/>
-      <c r="AB21" s="52"/>
-      <c r="AC21" s="52"/>
-      <c r="AD21" s="53"/>
-      <c r="AE21" s="51" t="s">
+      <c r="X21" s="36"/>
+      <c r="Y21" s="36"/>
+      <c r="Z21" s="36"/>
+      <c r="AA21" s="36"/>
+      <c r="AB21" s="36"/>
+      <c r="AC21" s="36"/>
+      <c r="AD21" s="37"/>
+      <c r="AE21" s="35" t="s">
         <v>98</v>
       </c>
-      <c r="AF21" s="52"/>
-      <c r="AG21" s="52"/>
-      <c r="AH21" s="52"/>
-      <c r="AI21" s="52"/>
-      <c r="AJ21" s="52"/>
-      <c r="AK21" s="52"/>
-      <c r="AL21" s="53"/>
+      <c r="AF21" s="36"/>
+      <c r="AG21" s="36"/>
+      <c r="AH21" s="36"/>
+      <c r="AI21" s="36"/>
+      <c r="AJ21" s="36"/>
+      <c r="AK21" s="36"/>
+      <c r="AL21" s="37"/>
       <c r="AM21" s="1" t="s">
         <v>99</v>
       </c>
       <c r="AN21" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="AO21" s="34" t="s">
+      <c r="AO21" s="42" t="s">
         <v>32</v>
       </c>
-      <c r="AP21" s="34" t="s">
+      <c r="AP21" s="42" t="s">
         <v>33</v>
       </c>
-      <c r="AQ21" s="34" t="s">
+      <c r="AQ21" s="42" t="s">
         <v>34</v>
       </c>
-      <c r="AR21" s="35" t="s">
+      <c r="AR21" s="43" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="22" spans="5:44" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E22" s="49" t="s">
+      <c r="E22" s="34" t="s">
         <v>101</v>
       </c>
-      <c r="F22" s="49"/>
+      <c r="F22" s="34"/>
       <c r="G22" s="3" t="s">
         <v>102</v>
       </c>
@@ -7844,56 +7844,56 @@
       <c r="AL22" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="AM22" s="49" t="s">
+      <c r="AM22" s="34" t="s">
         <v>118</v>
       </c>
-      <c r="AN22" s="50"/>
-      <c r="AO22" s="34"/>
-      <c r="AP22" s="34"/>
-      <c r="AQ22" s="34"/>
-      <c r="AR22" s="35"/>
+      <c r="AN22" s="53"/>
+      <c r="AO22" s="42"/>
+      <c r="AP22" s="42"/>
+      <c r="AQ22" s="42"/>
+      <c r="AR22" s="43"/>
     </row>
     <row r="23" spans="5:44" ht="64.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E23" s="45" t="s">
+      <c r="E23" s="38" t="s">
         <v>119</v>
       </c>
-      <c r="F23" s="45" t="s">
+      <c r="F23" s="38" t="s">
         <v>120</v>
       </c>
-      <c r="G23" s="28" t="s">
+      <c r="G23" s="32" t="s">
         <v>121</v>
       </c>
-      <c r="H23" s="30"/>
-      <c r="I23" s="30"/>
-      <c r="J23" s="30"/>
-      <c r="K23" s="30"/>
-      <c r="L23" s="30"/>
-      <c r="M23" s="30"/>
-      <c r="N23" s="30"/>
-      <c r="O23" s="30"/>
-      <c r="P23" s="30"/>
-      <c r="Q23" s="30"/>
-      <c r="R23" s="30"/>
-      <c r="S23" s="30"/>
-      <c r="T23" s="30"/>
-      <c r="U23" s="30"/>
-      <c r="V23" s="30"/>
-      <c r="W23" s="30"/>
-      <c r="X23" s="30"/>
-      <c r="Y23" s="30"/>
-      <c r="Z23" s="30"/>
-      <c r="AA23" s="30"/>
-      <c r="AB23" s="30"/>
-      <c r="AC23" s="30"/>
-      <c r="AD23" s="30"/>
-      <c r="AE23" s="30"/>
-      <c r="AF23" s="30"/>
-      <c r="AG23" s="30"/>
-      <c r="AH23" s="30"/>
-      <c r="AI23" s="30"/>
-      <c r="AJ23" s="30"/>
-      <c r="AK23" s="30"/>
-      <c r="AL23" s="30"/>
+      <c r="H23" s="29"/>
+      <c r="I23" s="29"/>
+      <c r="J23" s="29"/>
+      <c r="K23" s="29"/>
+      <c r="L23" s="29"/>
+      <c r="M23" s="29"/>
+      <c r="N23" s="29"/>
+      <c r="O23" s="29"/>
+      <c r="P23" s="29"/>
+      <c r="Q23" s="29"/>
+      <c r="R23" s="29"/>
+      <c r="S23" s="29"/>
+      <c r="T23" s="29"/>
+      <c r="U23" s="29"/>
+      <c r="V23" s="29"/>
+      <c r="W23" s="29"/>
+      <c r="X23" s="29"/>
+      <c r="Y23" s="29"/>
+      <c r="Z23" s="29"/>
+      <c r="AA23" s="29"/>
+      <c r="AB23" s="29"/>
+      <c r="AC23" s="29"/>
+      <c r="AD23" s="29"/>
+      <c r="AE23" s="29"/>
+      <c r="AF23" s="29"/>
+      <c r="AG23" s="29"/>
+      <c r="AH23" s="29"/>
+      <c r="AI23" s="29"/>
+      <c r="AJ23" s="29"/>
+      <c r="AK23" s="29"/>
+      <c r="AL23" s="29"/>
       <c r="AM23" s="4" t="s">
         <v>122</v>
       </c>
@@ -7911,56 +7911,56 @@
       </c>
     </row>
     <row r="24" spans="5:44" ht="64.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E24" s="45"/>
-      <c r="F24" s="45"/>
-      <c r="G24" s="36" t="s">
+      <c r="E24" s="38"/>
+      <c r="F24" s="38"/>
+      <c r="G24" s="44" t="s">
         <v>37</v>
       </c>
-      <c r="H24" s="37"/>
-      <c r="I24" s="37"/>
-      <c r="J24" s="38"/>
-      <c r="K24" s="36" t="s">
+      <c r="H24" s="45"/>
+      <c r="I24" s="45"/>
+      <c r="J24" s="46"/>
+      <c r="K24" s="44" t="s">
         <v>38</v>
       </c>
-      <c r="L24" s="37"/>
-      <c r="M24" s="37"/>
-      <c r="N24" s="38"/>
-      <c r="O24" s="26" t="s">
+      <c r="L24" s="45"/>
+      <c r="M24" s="45"/>
+      <c r="N24" s="46"/>
+      <c r="O24" s="30" t="s">
         <v>39</v>
       </c>
-      <c r="P24" s="27"/>
-      <c r="Q24" s="27"/>
-      <c r="R24" s="28"/>
-      <c r="S24" s="26" t="s">
+      <c r="P24" s="31"/>
+      <c r="Q24" s="31"/>
+      <c r="R24" s="32"/>
+      <c r="S24" s="30" t="s">
         <v>40</v>
       </c>
-      <c r="T24" s="27"/>
-      <c r="U24" s="27"/>
-      <c r="V24" s="28"/>
-      <c r="W24" s="30" t="s">
+      <c r="T24" s="31"/>
+      <c r="U24" s="31"/>
+      <c r="V24" s="32"/>
+      <c r="W24" s="29" t="s">
         <v>39</v>
       </c>
-      <c r="X24" s="30"/>
-      <c r="Y24" s="30"/>
-      <c r="Z24" s="30"/>
-      <c r="AA24" s="30"/>
-      <c r="AB24" s="30"/>
-      <c r="AC24" s="30"/>
-      <c r="AD24" s="30"/>
-      <c r="AE24" s="30"/>
-      <c r="AF24" s="30"/>
-      <c r="AG24" s="30"/>
-      <c r="AH24" s="30"/>
-      <c r="AI24" s="30"/>
-      <c r="AJ24" s="30"/>
-      <c r="AK24" s="30"/>
+      <c r="X24" s="29"/>
+      <c r="Y24" s="29"/>
+      <c r="Z24" s="29"/>
+      <c r="AA24" s="29"/>
+      <c r="AB24" s="29"/>
+      <c r="AC24" s="29"/>
+      <c r="AD24" s="29"/>
+      <c r="AE24" s="29"/>
+      <c r="AF24" s="29"/>
+      <c r="AG24" s="29"/>
+      <c r="AH24" s="29"/>
+      <c r="AI24" s="29"/>
+      <c r="AJ24" s="29"/>
+      <c r="AK24" s="29"/>
       <c r="AL24" s="14" t="s">
         <v>127</v>
       </c>
-      <c r="AM24" s="46" t="s">
+      <c r="AM24" s="39" t="s">
         <v>123</v>
       </c>
-      <c r="AN24" s="46" t="s">
+      <c r="AN24" s="39" t="s">
         <v>122</v>
       </c>
       <c r="AO24" s="16" t="s">
@@ -7974,48 +7974,48 @@
       </c>
     </row>
     <row r="25" spans="5:44" ht="64.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E25" s="45"/>
-      <c r="F25" s="45"/>
-      <c r="G25" s="39"/>
-      <c r="H25" s="40"/>
-      <c r="I25" s="40"/>
-      <c r="J25" s="41"/>
-      <c r="K25" s="39"/>
-      <c r="L25" s="40"/>
-      <c r="M25" s="40"/>
-      <c r="N25" s="41"/>
-      <c r="O25" s="26" t="s">
+      <c r="E25" s="38"/>
+      <c r="F25" s="38"/>
+      <c r="G25" s="47"/>
+      <c r="H25" s="48"/>
+      <c r="I25" s="48"/>
+      <c r="J25" s="49"/>
+      <c r="K25" s="47"/>
+      <c r="L25" s="48"/>
+      <c r="M25" s="48"/>
+      <c r="N25" s="49"/>
+      <c r="O25" s="30" t="s">
         <v>39</v>
       </c>
-      <c r="P25" s="27"/>
-      <c r="Q25" s="27"/>
-      <c r="R25" s="28"/>
-      <c r="S25" s="26" t="s">
+      <c r="P25" s="31"/>
+      <c r="Q25" s="31"/>
+      <c r="R25" s="32"/>
+      <c r="S25" s="30" t="s">
         <v>46</v>
       </c>
-      <c r="T25" s="27"/>
-      <c r="U25" s="27"/>
-      <c r="V25" s="28"/>
-      <c r="W25" s="26" t="s">
+      <c r="T25" s="31"/>
+      <c r="U25" s="31"/>
+      <c r="V25" s="32"/>
+      <c r="W25" s="30" t="s">
         <v>39</v>
       </c>
-      <c r="X25" s="27"/>
-      <c r="Y25" s="27"/>
-      <c r="Z25" s="27"/>
-      <c r="AA25" s="27"/>
-      <c r="AB25" s="27"/>
-      <c r="AC25" s="27"/>
-      <c r="AD25" s="27"/>
-      <c r="AE25" s="27"/>
-      <c r="AF25" s="27"/>
-      <c r="AG25" s="27"/>
-      <c r="AH25" s="27"/>
-      <c r="AI25" s="27"/>
-      <c r="AJ25" s="27"/>
-      <c r="AK25" s="27"/>
-      <c r="AL25" s="28"/>
-      <c r="AM25" s="47"/>
-      <c r="AN25" s="47"/>
+      <c r="X25" s="31"/>
+      <c r="Y25" s="31"/>
+      <c r="Z25" s="31"/>
+      <c r="AA25" s="31"/>
+      <c r="AB25" s="31"/>
+      <c r="AC25" s="31"/>
+      <c r="AD25" s="31"/>
+      <c r="AE25" s="31"/>
+      <c r="AF25" s="31"/>
+      <c r="AG25" s="31"/>
+      <c r="AH25" s="31"/>
+      <c r="AI25" s="31"/>
+      <c r="AJ25" s="31"/>
+      <c r="AK25" s="31"/>
+      <c r="AL25" s="32"/>
+      <c r="AM25" s="40"/>
+      <c r="AN25" s="40"/>
       <c r="AO25" s="16" t="s">
         <v>130</v>
       </c>
@@ -8027,48 +8027,48 @@
       </c>
     </row>
     <row r="26" spans="5:44" ht="64.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E26" s="45"/>
-      <c r="F26" s="45"/>
-      <c r="G26" s="39"/>
-      <c r="H26" s="40"/>
-      <c r="I26" s="40"/>
-      <c r="J26" s="41"/>
-      <c r="K26" s="39"/>
-      <c r="L26" s="40"/>
-      <c r="M26" s="40"/>
-      <c r="N26" s="41"/>
-      <c r="O26" s="26" t="s">
+      <c r="E26" s="38"/>
+      <c r="F26" s="38"/>
+      <c r="G26" s="47"/>
+      <c r="H26" s="48"/>
+      <c r="I26" s="48"/>
+      <c r="J26" s="49"/>
+      <c r="K26" s="47"/>
+      <c r="L26" s="48"/>
+      <c r="M26" s="48"/>
+      <c r="N26" s="49"/>
+      <c r="O26" s="30" t="s">
         <v>132</v>
       </c>
-      <c r="P26" s="27"/>
-      <c r="Q26" s="27"/>
-      <c r="R26" s="28"/>
-      <c r="S26" s="26" t="s">
+      <c r="P26" s="31"/>
+      <c r="Q26" s="31"/>
+      <c r="R26" s="32"/>
+      <c r="S26" s="30" t="s">
         <v>52</v>
       </c>
-      <c r="T26" s="27"/>
-      <c r="U26" s="27"/>
-      <c r="V26" s="28"/>
-      <c r="W26" s="26" t="s">
+      <c r="T26" s="31"/>
+      <c r="U26" s="31"/>
+      <c r="V26" s="32"/>
+      <c r="W26" s="30" t="s">
         <v>39</v>
       </c>
-      <c r="X26" s="27"/>
-      <c r="Y26" s="27"/>
-      <c r="Z26" s="27"/>
-      <c r="AA26" s="27"/>
-      <c r="AB26" s="27"/>
-      <c r="AC26" s="27"/>
-      <c r="AD26" s="27"/>
-      <c r="AE26" s="27"/>
-      <c r="AF26" s="27"/>
-      <c r="AG26" s="27"/>
-      <c r="AH26" s="27"/>
-      <c r="AI26" s="27"/>
-      <c r="AJ26" s="27"/>
-      <c r="AK26" s="27"/>
-      <c r="AL26" s="28"/>
-      <c r="AM26" s="47"/>
-      <c r="AN26" s="47"/>
+      <c r="X26" s="31"/>
+      <c r="Y26" s="31"/>
+      <c r="Z26" s="31"/>
+      <c r="AA26" s="31"/>
+      <c r="AB26" s="31"/>
+      <c r="AC26" s="31"/>
+      <c r="AD26" s="31"/>
+      <c r="AE26" s="31"/>
+      <c r="AF26" s="31"/>
+      <c r="AG26" s="31"/>
+      <c r="AH26" s="31"/>
+      <c r="AI26" s="31"/>
+      <c r="AJ26" s="31"/>
+      <c r="AK26" s="31"/>
+      <c r="AL26" s="32"/>
+      <c r="AM26" s="40"/>
+      <c r="AN26" s="40"/>
       <c r="AO26" s="16" t="s">
         <v>133</v>
       </c>
@@ -8083,52 +8083,52 @@
       </c>
     </row>
     <row r="27" spans="5:44" ht="64.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E27" s="45"/>
-      <c r="F27" s="45"/>
-      <c r="G27" s="39"/>
-      <c r="H27" s="40"/>
-      <c r="I27" s="40"/>
-      <c r="J27" s="41"/>
-      <c r="K27" s="39"/>
-      <c r="L27" s="40"/>
-      <c r="M27" s="40"/>
-      <c r="N27" s="41"/>
-      <c r="O27" s="26" t="s">
+      <c r="E27" s="38"/>
+      <c r="F27" s="38"/>
+      <c r="G27" s="47"/>
+      <c r="H27" s="48"/>
+      <c r="I27" s="48"/>
+      <c r="J27" s="49"/>
+      <c r="K27" s="47"/>
+      <c r="L27" s="48"/>
+      <c r="M27" s="48"/>
+      <c r="N27" s="49"/>
+      <c r="O27" s="30" t="s">
         <v>39</v>
       </c>
-      <c r="P27" s="27"/>
-      <c r="Q27" s="27"/>
-      <c r="R27" s="28"/>
-      <c r="S27" s="26" t="s">
+      <c r="P27" s="31"/>
+      <c r="Q27" s="31"/>
+      <c r="R27" s="32"/>
+      <c r="S27" s="30" t="s">
         <v>77</v>
       </c>
-      <c r="T27" s="27"/>
-      <c r="U27" s="27"/>
-      <c r="V27" s="28"/>
-      <c r="W27" s="26" t="s">
+      <c r="T27" s="31"/>
+      <c r="U27" s="31"/>
+      <c r="V27" s="32"/>
+      <c r="W27" s="30" t="s">
         <v>39</v>
       </c>
-      <c r="X27" s="27"/>
-      <c r="Y27" s="27"/>
-      <c r="Z27" s="27"/>
-      <c r="AA27" s="27"/>
-      <c r="AB27" s="27"/>
-      <c r="AC27" s="27"/>
-      <c r="AD27" s="28"/>
-      <c r="AE27" s="30" t="s">
+      <c r="X27" s="31"/>
+      <c r="Y27" s="31"/>
+      <c r="Z27" s="31"/>
+      <c r="AA27" s="31"/>
+      <c r="AB27" s="31"/>
+      <c r="AC27" s="31"/>
+      <c r="AD27" s="32"/>
+      <c r="AE27" s="29" t="s">
         <v>37</v>
       </c>
-      <c r="AF27" s="30"/>
-      <c r="AG27" s="30"/>
-      <c r="AH27" s="30"/>
-      <c r="AI27" s="30" t="s">
+      <c r="AF27" s="29"/>
+      <c r="AG27" s="29"/>
+      <c r="AH27" s="29"/>
+      <c r="AI27" s="29" t="s">
         <v>38</v>
       </c>
-      <c r="AJ27" s="30"/>
-      <c r="AK27" s="30"/>
-      <c r="AL27" s="30"/>
-      <c r="AM27" s="47"/>
-      <c r="AN27" s="47"/>
+      <c r="AJ27" s="29"/>
+      <c r="AK27" s="29"/>
+      <c r="AL27" s="29"/>
+      <c r="AM27" s="40"/>
+      <c r="AN27" s="40"/>
       <c r="AO27" s="16" t="s">
         <v>137</v>
       </c>
@@ -8140,52 +8140,52 @@
       </c>
     </row>
     <row r="28" spans="5:44" ht="64.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E28" s="45"/>
-      <c r="F28" s="45"/>
-      <c r="G28" s="39"/>
-      <c r="H28" s="40"/>
-      <c r="I28" s="40"/>
-      <c r="J28" s="41"/>
-      <c r="K28" s="39"/>
-      <c r="L28" s="40"/>
-      <c r="M28" s="40"/>
-      <c r="N28" s="41"/>
-      <c r="O28" s="26" t="s">
+      <c r="E28" s="38"/>
+      <c r="F28" s="38"/>
+      <c r="G28" s="47"/>
+      <c r="H28" s="48"/>
+      <c r="I28" s="48"/>
+      <c r="J28" s="49"/>
+      <c r="K28" s="47"/>
+      <c r="L28" s="48"/>
+      <c r="M28" s="48"/>
+      <c r="N28" s="49"/>
+      <c r="O28" s="30" t="s">
         <v>140</v>
       </c>
-      <c r="P28" s="27"/>
-      <c r="Q28" s="27"/>
-      <c r="R28" s="28"/>
-      <c r="S28" s="26" t="s">
+      <c r="P28" s="31"/>
+      <c r="Q28" s="31"/>
+      <c r="R28" s="32"/>
+      <c r="S28" s="30" t="s">
         <v>81</v>
       </c>
-      <c r="T28" s="27"/>
-      <c r="U28" s="27"/>
-      <c r="V28" s="28"/>
-      <c r="W28" s="26" t="s">
+      <c r="T28" s="31"/>
+      <c r="U28" s="31"/>
+      <c r="V28" s="32"/>
+      <c r="W28" s="30" t="s">
         <v>39</v>
       </c>
-      <c r="X28" s="27"/>
-      <c r="Y28" s="27"/>
-      <c r="Z28" s="27"/>
-      <c r="AA28" s="27"/>
-      <c r="AB28" s="27"/>
-      <c r="AC28" s="28"/>
+      <c r="X28" s="31"/>
+      <c r="Y28" s="31"/>
+      <c r="Z28" s="31"/>
+      <c r="AA28" s="31"/>
+      <c r="AB28" s="31"/>
+      <c r="AC28" s="32"/>
       <c r="AD28" s="5" t="s">
         <v>141</v>
       </c>
-      <c r="AE28" s="26" t="s">
+      <c r="AE28" s="30" t="s">
         <v>55</v>
       </c>
-      <c r="AF28" s="27"/>
-      <c r="AG28" s="27"/>
-      <c r="AH28" s="27"/>
-      <c r="AI28" s="27"/>
-      <c r="AJ28" s="27"/>
-      <c r="AK28" s="27"/>
-      <c r="AL28" s="28"/>
-      <c r="AM28" s="47"/>
-      <c r="AN28" s="47"/>
+      <c r="AF28" s="31"/>
+      <c r="AG28" s="31"/>
+      <c r="AH28" s="31"/>
+      <c r="AI28" s="31"/>
+      <c r="AJ28" s="31"/>
+      <c r="AK28" s="31"/>
+      <c r="AL28" s="32"/>
+      <c r="AM28" s="40"/>
+      <c r="AN28" s="40"/>
       <c r="AO28" s="16" t="s">
         <v>142</v>
       </c>
@@ -8197,54 +8197,54 @@
       </c>
     </row>
     <row r="29" spans="5:44" ht="64.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E29" s="45"/>
-      <c r="F29" s="45"/>
-      <c r="G29" s="42"/>
-      <c r="H29" s="43"/>
-      <c r="I29" s="43"/>
-      <c r="J29" s="44"/>
-      <c r="K29" s="42"/>
-      <c r="L29" s="43"/>
-      <c r="M29" s="43"/>
-      <c r="N29" s="44"/>
-      <c r="O29" s="26" t="s">
+      <c r="E29" s="38"/>
+      <c r="F29" s="38"/>
+      <c r="G29" s="50"/>
+      <c r="H29" s="51"/>
+      <c r="I29" s="51"/>
+      <c r="J29" s="52"/>
+      <c r="K29" s="50"/>
+      <c r="L29" s="51"/>
+      <c r="M29" s="51"/>
+      <c r="N29" s="52"/>
+      <c r="O29" s="30" t="s">
         <v>140</v>
       </c>
-      <c r="P29" s="27"/>
-      <c r="Q29" s="27"/>
-      <c r="R29" s="28"/>
-      <c r="S29" s="26" t="s">
+      <c r="P29" s="31"/>
+      <c r="Q29" s="31"/>
+      <c r="R29" s="32"/>
+      <c r="S29" s="30" t="s">
         <v>84</v>
       </c>
-      <c r="T29" s="27"/>
-      <c r="U29" s="27"/>
-      <c r="V29" s="28"/>
-      <c r="W29" s="26" t="s">
+      <c r="T29" s="31"/>
+      <c r="U29" s="31"/>
+      <c r="V29" s="32"/>
+      <c r="W29" s="30" t="s">
         <v>39</v>
       </c>
-      <c r="X29" s="27"/>
-      <c r="Y29" s="27"/>
-      <c r="Z29" s="27"/>
-      <c r="AA29" s="27"/>
-      <c r="AB29" s="27"/>
-      <c r="AC29" s="28"/>
+      <c r="X29" s="31"/>
+      <c r="Y29" s="31"/>
+      <c r="Z29" s="31"/>
+      <c r="AA29" s="31"/>
+      <c r="AB29" s="31"/>
+      <c r="AC29" s="32"/>
       <c r="AD29" s="5" t="s">
         <v>141</v>
       </c>
       <c r="AE29" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="AF29" s="26" t="s">
+      <c r="AF29" s="30" t="s">
         <v>60</v>
       </c>
-      <c r="AG29" s="27"/>
-      <c r="AH29" s="27"/>
-      <c r="AI29" s="27"/>
-      <c r="AJ29" s="27"/>
-      <c r="AK29" s="27"/>
-      <c r="AL29" s="28"/>
-      <c r="AM29" s="48"/>
-      <c r="AN29" s="48"/>
+      <c r="AG29" s="31"/>
+      <c r="AH29" s="31"/>
+      <c r="AI29" s="31"/>
+      <c r="AJ29" s="31"/>
+      <c r="AK29" s="31"/>
+      <c r="AL29" s="32"/>
+      <c r="AM29" s="41"/>
+      <c r="AN29" s="41"/>
       <c r="AO29" s="16" t="s">
         <v>144</v>
       </c>
@@ -8257,29 +8257,6 @@
     </row>
   </sheetData>
   <mergeCells count="39">
-    <mergeCell ref="E22:F22"/>
-    <mergeCell ref="S24:V24"/>
-    <mergeCell ref="W24:AK24"/>
-    <mergeCell ref="G21:N21"/>
-    <mergeCell ref="O21:V21"/>
-    <mergeCell ref="W21:AD21"/>
-    <mergeCell ref="AE21:AL21"/>
-    <mergeCell ref="E23:E29"/>
-    <mergeCell ref="F23:F29"/>
-    <mergeCell ref="AM24:AM29"/>
-    <mergeCell ref="AN24:AN29"/>
-    <mergeCell ref="AO21:AO22"/>
-    <mergeCell ref="O28:R28"/>
-    <mergeCell ref="S28:V28"/>
-    <mergeCell ref="W28:AC28"/>
-    <mergeCell ref="AE28:AL28"/>
-    <mergeCell ref="O29:R29"/>
-    <mergeCell ref="S29:V29"/>
-    <mergeCell ref="W29:AC29"/>
-    <mergeCell ref="AF29:AL29"/>
-    <mergeCell ref="O27:R27"/>
-    <mergeCell ref="S27:V27"/>
-    <mergeCell ref="W27:AD27"/>
     <mergeCell ref="AP21:AP22"/>
     <mergeCell ref="AQ21:AQ22"/>
     <mergeCell ref="AR21:AR22"/>
@@ -8296,6 +8273,29 @@
     <mergeCell ref="AM22:AN22"/>
     <mergeCell ref="G23:AL23"/>
     <mergeCell ref="O24:R24"/>
+    <mergeCell ref="AM24:AM29"/>
+    <mergeCell ref="AN24:AN29"/>
+    <mergeCell ref="AO21:AO22"/>
+    <mergeCell ref="O28:R28"/>
+    <mergeCell ref="S28:V28"/>
+    <mergeCell ref="W28:AC28"/>
+    <mergeCell ref="AE28:AL28"/>
+    <mergeCell ref="O29:R29"/>
+    <mergeCell ref="S29:V29"/>
+    <mergeCell ref="W29:AC29"/>
+    <mergeCell ref="AF29:AL29"/>
+    <mergeCell ref="O27:R27"/>
+    <mergeCell ref="S27:V27"/>
+    <mergeCell ref="W27:AD27"/>
+    <mergeCell ref="E22:F22"/>
+    <mergeCell ref="S24:V24"/>
+    <mergeCell ref="W24:AK24"/>
+    <mergeCell ref="G21:N21"/>
+    <mergeCell ref="O21:V21"/>
+    <mergeCell ref="W21:AD21"/>
+    <mergeCell ref="AE21:AL21"/>
+    <mergeCell ref="E23:E29"/>
+    <mergeCell ref="F23:F29"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -8327,65 +8327,65 @@
       <c r="D13" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="E13" s="51" t="s">
+      <c r="E13" s="35" t="s">
         <v>95</v>
       </c>
-      <c r="F13" s="52"/>
-      <c r="G13" s="52"/>
-      <c r="H13" s="52"/>
-      <c r="I13" s="52"/>
-      <c r="J13" s="52"/>
-      <c r="K13" s="52"/>
-      <c r="L13" s="53"/>
-      <c r="M13" s="51" t="s">
+      <c r="F13" s="36"/>
+      <c r="G13" s="36"/>
+      <c r="H13" s="36"/>
+      <c r="I13" s="36"/>
+      <c r="J13" s="36"/>
+      <c r="K13" s="36"/>
+      <c r="L13" s="37"/>
+      <c r="M13" s="35" t="s">
         <v>96</v>
       </c>
-      <c r="N13" s="52" t="s">
+      <c r="N13" s="36" t="s">
         <v>97</v>
       </c>
-      <c r="O13" s="52" t="s">
+      <c r="O13" s="36" t="s">
         <v>98</v>
       </c>
-      <c r="P13" s="52"/>
-      <c r="Q13" s="52"/>
-      <c r="R13" s="52"/>
-      <c r="S13" s="52"/>
-      <c r="T13" s="53"/>
-      <c r="U13" s="51" t="s">
+      <c r="P13" s="36"/>
+      <c r="Q13" s="36"/>
+      <c r="R13" s="36"/>
+      <c r="S13" s="36"/>
+      <c r="T13" s="37"/>
+      <c r="U13" s="35" t="s">
         <v>97</v>
       </c>
-      <c r="V13" s="52"/>
-      <c r="W13" s="52"/>
-      <c r="X13" s="52"/>
-      <c r="Y13" s="52"/>
-      <c r="Z13" s="52"/>
-      <c r="AA13" s="52"/>
-      <c r="AB13" s="53"/>
-      <c r="AC13" s="51" t="s">
+      <c r="V13" s="36"/>
+      <c r="W13" s="36"/>
+      <c r="X13" s="36"/>
+      <c r="Y13" s="36"/>
+      <c r="Z13" s="36"/>
+      <c r="AA13" s="36"/>
+      <c r="AB13" s="37"/>
+      <c r="AC13" s="35" t="s">
         <v>98</v>
       </c>
-      <c r="AD13" s="52"/>
-      <c r="AE13" s="52"/>
-      <c r="AF13" s="52"/>
-      <c r="AG13" s="52"/>
-      <c r="AH13" s="52"/>
-      <c r="AI13" s="52"/>
-      <c r="AJ13" s="53"/>
+      <c r="AD13" s="36"/>
+      <c r="AE13" s="36"/>
+      <c r="AF13" s="36"/>
+      <c r="AG13" s="36"/>
+      <c r="AH13" s="36"/>
+      <c r="AI13" s="36"/>
+      <c r="AJ13" s="37"/>
       <c r="AK13" s="54" t="s">
         <v>32</v>
       </c>
-      <c r="AL13" s="34" t="s">
+      <c r="AL13" s="42" t="s">
         <v>33</v>
       </c>
-      <c r="AM13" s="34" t="s">
+      <c r="AM13" s="42" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="14" spans="3:39" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C14" s="49" t="s">
+      <c r="C14" s="34" t="s">
         <v>101</v>
       </c>
-      <c r="D14" s="49"/>
+      <c r="D14" s="34"/>
       <c r="E14" s="3" t="s">
         <v>102</v>
       </c>
@@ -8483,66 +8483,66 @@
         <v>31</v>
       </c>
       <c r="AK14" s="55"/>
-      <c r="AL14" s="34"/>
-      <c r="AM14" s="34"/>
+      <c r="AL14" s="42"/>
+      <c r="AM14" s="42"/>
     </row>
     <row r="15" spans="3:39" ht="95.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C15" s="45" t="s">
+      <c r="C15" s="38" t="s">
         <v>119</v>
       </c>
-      <c r="D15" s="45" t="s">
+      <c r="D15" s="38" t="s">
         <v>120</v>
       </c>
-      <c r="E15" s="29" t="s">
+      <c r="E15" s="33" t="s">
         <v>38</v>
       </c>
-      <c r="F15" s="29"/>
-      <c r="G15" s="29"/>
-      <c r="H15" s="29"/>
-      <c r="I15" s="28" t="s">
+      <c r="F15" s="33"/>
+      <c r="G15" s="33"/>
+      <c r="H15" s="33"/>
+      <c r="I15" s="32" t="s">
         <v>39</v>
       </c>
-      <c r="J15" s="30"/>
-      <c r="K15" s="31" t="s">
+      <c r="J15" s="29"/>
+      <c r="K15" s="26" t="s">
         <v>146</v>
       </c>
-      <c r="L15" s="33"/>
-      <c r="M15" s="31" t="s">
+      <c r="L15" s="28"/>
+      <c r="M15" s="26" t="s">
         <v>39</v>
       </c>
-      <c r="N15" s="32"/>
-      <c r="O15" s="32"/>
-      <c r="P15" s="33"/>
-      <c r="Q15" s="30" t="s">
+      <c r="N15" s="27"/>
+      <c r="O15" s="27"/>
+      <c r="P15" s="28"/>
+      <c r="Q15" s="29" t="s">
         <v>65</v>
       </c>
-      <c r="R15" s="30"/>
-      <c r="S15" s="30"/>
-      <c r="T15" s="30"/>
-      <c r="U15" s="26" t="s">
+      <c r="R15" s="29"/>
+      <c r="S15" s="29"/>
+      <c r="T15" s="29"/>
+      <c r="U15" s="30" t="s">
         <v>39</v>
       </c>
-      <c r="V15" s="27"/>
-      <c r="W15" s="27"/>
-      <c r="X15" s="27"/>
-      <c r="Y15" s="27"/>
-      <c r="Z15" s="28"/>
+      <c r="V15" s="31"/>
+      <c r="W15" s="31"/>
+      <c r="X15" s="31"/>
+      <c r="Y15" s="31"/>
+      <c r="Z15" s="32"/>
       <c r="AA15" s="11" t="s">
         <v>66</v>
       </c>
       <c r="AB15" s="11" t="s">
         <v>67</v>
       </c>
-      <c r="AC15" s="26" t="s">
+      <c r="AC15" s="30" t="s">
         <v>39</v>
       </c>
-      <c r="AD15" s="27"/>
-      <c r="AE15" s="27"/>
-      <c r="AF15" s="27"/>
-      <c r="AG15" s="27"/>
-      <c r="AH15" s="27"/>
-      <c r="AI15" s="27"/>
-      <c r="AJ15" s="28"/>
+      <c r="AD15" s="31"/>
+      <c r="AE15" s="31"/>
+      <c r="AF15" s="31"/>
+      <c r="AG15" s="31"/>
+      <c r="AH15" s="31"/>
+      <c r="AI15" s="31"/>
+      <c r="AJ15" s="32"/>
       <c r="AK15" s="9" t="s">
         <v>147</v>
       </c>
@@ -8554,48 +8554,48 @@
       </c>
     </row>
     <row r="16" spans="3:39" ht="95.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C16" s="45"/>
-      <c r="D16" s="45"/>
-      <c r="E16" s="29"/>
-      <c r="F16" s="29"/>
-      <c r="G16" s="29"/>
-      <c r="H16" s="29"/>
-      <c r="I16" s="32" t="s">
+      <c r="C16" s="38"/>
+      <c r="D16" s="38"/>
+      <c r="E16" s="33"/>
+      <c r="F16" s="33"/>
+      <c r="G16" s="33"/>
+      <c r="H16" s="33"/>
+      <c r="I16" s="27" t="s">
         <v>39</v>
       </c>
-      <c r="J16" s="32"/>
-      <c r="K16" s="32"/>
-      <c r="L16" s="33"/>
-      <c r="M16" s="31" t="s">
+      <c r="J16" s="27"/>
+      <c r="K16" s="27"/>
+      <c r="L16" s="28"/>
+      <c r="M16" s="26" t="s">
         <v>39</v>
       </c>
-      <c r="N16" s="32"/>
-      <c r="O16" s="32"/>
-      <c r="P16" s="33"/>
-      <c r="Q16" s="30" t="s">
+      <c r="N16" s="27"/>
+      <c r="O16" s="27"/>
+      <c r="P16" s="28"/>
+      <c r="Q16" s="29" t="s">
         <v>74</v>
       </c>
-      <c r="R16" s="30"/>
-      <c r="S16" s="30"/>
-      <c r="T16" s="30"/>
-      <c r="U16" s="26" t="s">
+      <c r="R16" s="29"/>
+      <c r="S16" s="29"/>
+      <c r="T16" s="29"/>
+      <c r="U16" s="30" t="s">
         <v>39</v>
       </c>
-      <c r="V16" s="27"/>
-      <c r="W16" s="27"/>
-      <c r="X16" s="27"/>
-      <c r="Y16" s="27"/>
-      <c r="Z16" s="27"/>
-      <c r="AA16" s="27"/>
-      <c r="AB16" s="27"/>
-      <c r="AC16" s="27"/>
-      <c r="AD16" s="27"/>
-      <c r="AE16" s="27"/>
-      <c r="AF16" s="27"/>
-      <c r="AG16" s="27"/>
-      <c r="AH16" s="27"/>
-      <c r="AI16" s="27"/>
-      <c r="AJ16" s="28"/>
+      <c r="V16" s="31"/>
+      <c r="W16" s="31"/>
+      <c r="X16" s="31"/>
+      <c r="Y16" s="31"/>
+      <c r="Z16" s="31"/>
+      <c r="AA16" s="31"/>
+      <c r="AB16" s="31"/>
+      <c r="AC16" s="31"/>
+      <c r="AD16" s="31"/>
+      <c r="AE16" s="31"/>
+      <c r="AF16" s="31"/>
+      <c r="AG16" s="31"/>
+      <c r="AH16" s="31"/>
+      <c r="AI16" s="31"/>
+      <c r="AJ16" s="32"/>
       <c r="AK16" s="9" t="s">
         <v>75</v>
       </c>
@@ -8607,50 +8607,50 @@
       </c>
     </row>
     <row r="17" spans="3:39" ht="95.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C17" s="45"/>
-      <c r="D17" s="45"/>
-      <c r="E17" s="29"/>
-      <c r="F17" s="29"/>
-      <c r="G17" s="29"/>
-      <c r="H17" s="29"/>
-      <c r="I17" s="32" t="s">
+      <c r="C17" s="38"/>
+      <c r="D17" s="38"/>
+      <c r="E17" s="33"/>
+      <c r="F17" s="33"/>
+      <c r="G17" s="33"/>
+      <c r="H17" s="33"/>
+      <c r="I17" s="27" t="s">
         <v>39</v>
       </c>
-      <c r="J17" s="32"/>
-      <c r="K17" s="32"/>
-      <c r="L17" s="33"/>
-      <c r="M17" s="31" t="s">
+      <c r="J17" s="27"/>
+      <c r="K17" s="27"/>
+      <c r="L17" s="28"/>
+      <c r="M17" s="26" t="s">
         <v>39</v>
       </c>
-      <c r="N17" s="32"/>
-      <c r="O17" s="32"/>
-      <c r="P17" s="33"/>
-      <c r="Q17" s="30" t="s">
+      <c r="N17" s="27"/>
+      <c r="O17" s="27"/>
+      <c r="P17" s="28"/>
+      <c r="Q17" s="29" t="s">
         <v>77</v>
       </c>
-      <c r="R17" s="30"/>
-      <c r="S17" s="30"/>
-      <c r="T17" s="30"/>
-      <c r="U17" s="26" t="s">
+      <c r="R17" s="29"/>
+      <c r="S17" s="29"/>
+      <c r="T17" s="29"/>
+      <c r="U17" s="30" t="s">
         <v>39</v>
       </c>
-      <c r="V17" s="27"/>
-      <c r="W17" s="27"/>
-      <c r="X17" s="27"/>
-      <c r="Y17" s="27"/>
-      <c r="Z17" s="27"/>
-      <c r="AA17" s="27"/>
-      <c r="AB17" s="27"/>
-      <c r="AC17" s="27"/>
-      <c r="AD17" s="27"/>
-      <c r="AE17" s="27"/>
-      <c r="AF17" s="28"/>
-      <c r="AG17" s="26" t="s">
+      <c r="V17" s="31"/>
+      <c r="W17" s="31"/>
+      <c r="X17" s="31"/>
+      <c r="Y17" s="31"/>
+      <c r="Z17" s="31"/>
+      <c r="AA17" s="31"/>
+      <c r="AB17" s="31"/>
+      <c r="AC17" s="31"/>
+      <c r="AD17" s="31"/>
+      <c r="AE17" s="31"/>
+      <c r="AF17" s="32"/>
+      <c r="AG17" s="30" t="s">
         <v>38</v>
       </c>
-      <c r="AH17" s="27"/>
-      <c r="AI17" s="27"/>
-      <c r="AJ17" s="28"/>
+      <c r="AH17" s="31"/>
+      <c r="AI17" s="31"/>
+      <c r="AJ17" s="32"/>
       <c r="AK17" s="9" t="s">
         <v>78</v>
       </c>
@@ -8662,56 +8662,56 @@
       </c>
     </row>
     <row r="18" spans="3:39" ht="95.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C18" s="45"/>
-      <c r="D18" s="45"/>
-      <c r="E18" s="29"/>
-      <c r="F18" s="29"/>
-      <c r="G18" s="29"/>
-      <c r="H18" s="29"/>
-      <c r="I18" s="28" t="s">
+      <c r="C18" s="38"/>
+      <c r="D18" s="38"/>
+      <c r="E18" s="33"/>
+      <c r="F18" s="33"/>
+      <c r="G18" s="33"/>
+      <c r="H18" s="33"/>
+      <c r="I18" s="32" t="s">
         <v>39</v>
       </c>
-      <c r="J18" s="30"/>
-      <c r="K18" s="31" t="s">
+      <c r="J18" s="29"/>
+      <c r="K18" s="26" t="s">
         <v>146</v>
       </c>
-      <c r="L18" s="33"/>
-      <c r="M18" s="29" t="s">
+      <c r="L18" s="28"/>
+      <c r="M18" s="33" t="s">
         <v>152</v>
       </c>
-      <c r="N18" s="29"/>
-      <c r="O18" s="29"/>
-      <c r="P18" s="29"/>
-      <c r="Q18" s="30" t="s">
+      <c r="N18" s="33"/>
+      <c r="O18" s="33"/>
+      <c r="P18" s="33"/>
+      <c r="Q18" s="29" t="s">
         <v>88</v>
       </c>
-      <c r="R18" s="30"/>
-      <c r="S18" s="30"/>
-      <c r="T18" s="30"/>
-      <c r="U18" s="26" t="s">
+      <c r="R18" s="29"/>
+      <c r="S18" s="29"/>
+      <c r="T18" s="29"/>
+      <c r="U18" s="30" t="s">
         <v>39</v>
       </c>
-      <c r="V18" s="27"/>
-      <c r="W18" s="27"/>
-      <c r="X18" s="27"/>
-      <c r="Y18" s="27"/>
-      <c r="Z18" s="28"/>
-      <c r="AA18" s="30" t="s">
+      <c r="V18" s="31"/>
+      <c r="W18" s="31"/>
+      <c r="X18" s="31"/>
+      <c r="Y18" s="31"/>
+      <c r="Z18" s="32"/>
+      <c r="AA18" s="29" t="s">
         <v>153</v>
       </c>
-      <c r="AB18" s="30"/>
-      <c r="AC18" s="30" t="s">
+      <c r="AB18" s="29"/>
+      <c r="AC18" s="29" t="s">
         <v>39</v>
       </c>
-      <c r="AD18" s="30"/>
-      <c r="AE18" s="26" t="s">
+      <c r="AD18" s="29"/>
+      <c r="AE18" s="30" t="s">
         <v>60</v>
       </c>
-      <c r="AF18" s="27"/>
-      <c r="AG18" s="27"/>
-      <c r="AH18" s="27"/>
-      <c r="AI18" s="27"/>
-      <c r="AJ18" s="28"/>
+      <c r="AF18" s="31"/>
+      <c r="AG18" s="31"/>
+      <c r="AH18" s="31"/>
+      <c r="AI18" s="31"/>
+      <c r="AJ18" s="32"/>
       <c r="AK18" s="9" t="s">
         <v>154</v>
       </c>
@@ -8723,55 +8723,55 @@
       </c>
     </row>
     <row r="19" spans="3:39" ht="95.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C19" s="45"/>
-      <c r="D19" s="45"/>
-      <c r="E19" s="29"/>
-      <c r="F19" s="29"/>
-      <c r="G19" s="29"/>
-      <c r="H19" s="29"/>
-      <c r="I19" s="28" t="s">
+      <c r="C19" s="38"/>
+      <c r="D19" s="38"/>
+      <c r="E19" s="33"/>
+      <c r="F19" s="33"/>
+      <c r="G19" s="33"/>
+      <c r="H19" s="33"/>
+      <c r="I19" s="32" t="s">
         <v>39</v>
       </c>
-      <c r="J19" s="30"/>
-      <c r="K19" s="31" t="s">
+      <c r="J19" s="29"/>
+      <c r="K19" s="26" t="s">
         <v>146</v>
       </c>
-      <c r="L19" s="33"/>
+      <c r="L19" s="28"/>
       <c r="M19" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="N19" s="31" t="s">
+      <c r="N19" s="26" t="s">
         <v>157</v>
       </c>
-      <c r="O19" s="32"/>
-      <c r="P19" s="33"/>
-      <c r="Q19" s="30" t="s">
+      <c r="O19" s="27"/>
+      <c r="P19" s="28"/>
+      <c r="Q19" s="29" t="s">
         <v>158</v>
       </c>
-      <c r="R19" s="30"/>
-      <c r="S19" s="30"/>
-      <c r="T19" s="30"/>
-      <c r="U19" s="26" t="s">
+      <c r="R19" s="29"/>
+      <c r="S19" s="29"/>
+      <c r="T19" s="29"/>
+      <c r="U19" s="30" t="s">
         <v>39</v>
       </c>
-      <c r="V19" s="27"/>
-      <c r="W19" s="27"/>
-      <c r="X19" s="27"/>
-      <c r="Y19" s="27"/>
-      <c r="Z19" s="27"/>
-      <c r="AA19" s="28"/>
+      <c r="V19" s="31"/>
+      <c r="W19" s="31"/>
+      <c r="X19" s="31"/>
+      <c r="Y19" s="31"/>
+      <c r="Z19" s="31"/>
+      <c r="AA19" s="32"/>
       <c r="AB19" s="5" t="s">
         <v>159</v>
       </c>
-      <c r="AC19" s="30" t="s">
+      <c r="AC19" s="29" t="s">
         <v>39</v>
       </c>
-      <c r="AD19" s="30"/>
-      <c r="AE19" s="30"/>
-      <c r="AF19" s="30"/>
-      <c r="AG19" s="30"/>
-      <c r="AH19" s="30"/>
-      <c r="AI19" s="30"/>
+      <c r="AD19" s="29"/>
+      <c r="AE19" s="29"/>
+      <c r="AF19" s="29"/>
+      <c r="AG19" s="29"/>
+      <c r="AH19" s="29"/>
+      <c r="AI19" s="29"/>
       <c r="AJ19" s="12" t="s">
         <v>160</v>
       </c>
@@ -8787,30 +8787,6 @@
     </row>
   </sheetData>
   <mergeCells count="40">
-    <mergeCell ref="E13:L13"/>
-    <mergeCell ref="M13:T13"/>
-    <mergeCell ref="U13:AB13"/>
-    <mergeCell ref="AC13:AJ13"/>
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="AG17:AJ17"/>
-    <mergeCell ref="AC15:AJ15"/>
-    <mergeCell ref="I16:L16"/>
-    <mergeCell ref="M16:P16"/>
-    <mergeCell ref="Q16:T16"/>
-    <mergeCell ref="U16:AJ16"/>
-    <mergeCell ref="I15:J15"/>
-    <mergeCell ref="K15:L15"/>
-    <mergeCell ref="M15:P15"/>
-    <mergeCell ref="Q15:T15"/>
-    <mergeCell ref="U15:Z15"/>
-    <mergeCell ref="K18:L18"/>
-    <mergeCell ref="M18:P18"/>
-    <mergeCell ref="Q18:T18"/>
-    <mergeCell ref="U18:Z18"/>
-    <mergeCell ref="I17:L17"/>
-    <mergeCell ref="M17:P17"/>
-    <mergeCell ref="Q17:T17"/>
-    <mergeCell ref="U17:AF17"/>
     <mergeCell ref="C15:C19"/>
     <mergeCell ref="D15:D19"/>
     <mergeCell ref="AK13:AK14"/>
@@ -8827,6 +8803,30 @@
     <mergeCell ref="U19:AA19"/>
     <mergeCell ref="AC19:AI19"/>
     <mergeCell ref="I18:J18"/>
+    <mergeCell ref="K18:L18"/>
+    <mergeCell ref="M18:P18"/>
+    <mergeCell ref="Q18:T18"/>
+    <mergeCell ref="U18:Z18"/>
+    <mergeCell ref="I17:L17"/>
+    <mergeCell ref="M17:P17"/>
+    <mergeCell ref="Q17:T17"/>
+    <mergeCell ref="U17:AF17"/>
+    <mergeCell ref="AG17:AJ17"/>
+    <mergeCell ref="AC15:AJ15"/>
+    <mergeCell ref="I16:L16"/>
+    <mergeCell ref="M16:P16"/>
+    <mergeCell ref="Q16:T16"/>
+    <mergeCell ref="U16:AJ16"/>
+    <mergeCell ref="I15:J15"/>
+    <mergeCell ref="K15:L15"/>
+    <mergeCell ref="M15:P15"/>
+    <mergeCell ref="Q15:T15"/>
+    <mergeCell ref="U15:Z15"/>
+    <mergeCell ref="E13:L13"/>
+    <mergeCell ref="M13:T13"/>
+    <mergeCell ref="U13:AB13"/>
+    <mergeCell ref="AC13:AJ13"/>
+    <mergeCell ref="C14:D14"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -8858,65 +8858,65 @@
       <c r="D13" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="E13" s="51" t="s">
+      <c r="E13" s="35" t="s">
         <v>95</v>
       </c>
-      <c r="F13" s="52"/>
-      <c r="G13" s="52"/>
-      <c r="H13" s="52"/>
-      <c r="I13" s="52"/>
-      <c r="J13" s="52"/>
-      <c r="K13" s="52"/>
-      <c r="L13" s="53"/>
-      <c r="M13" s="51" t="s">
+      <c r="F13" s="36"/>
+      <c r="G13" s="36"/>
+      <c r="H13" s="36"/>
+      <c r="I13" s="36"/>
+      <c r="J13" s="36"/>
+      <c r="K13" s="36"/>
+      <c r="L13" s="37"/>
+      <c r="M13" s="35" t="s">
         <v>96</v>
       </c>
-      <c r="N13" s="52" t="s">
+      <c r="N13" s="36" t="s">
         <v>97</v>
       </c>
-      <c r="O13" s="52" t="s">
+      <c r="O13" s="36" t="s">
         <v>98</v>
       </c>
-      <c r="P13" s="52"/>
-      <c r="Q13" s="52"/>
-      <c r="R13" s="52"/>
-      <c r="S13" s="52"/>
-      <c r="T13" s="53"/>
-      <c r="U13" s="51" t="s">
+      <c r="P13" s="36"/>
+      <c r="Q13" s="36"/>
+      <c r="R13" s="36"/>
+      <c r="S13" s="36"/>
+      <c r="T13" s="37"/>
+      <c r="U13" s="35" t="s">
         <v>97</v>
       </c>
-      <c r="V13" s="52"/>
-      <c r="W13" s="52"/>
-      <c r="X13" s="52"/>
-      <c r="Y13" s="52"/>
-      <c r="Z13" s="52"/>
-      <c r="AA13" s="52"/>
-      <c r="AB13" s="53"/>
-      <c r="AC13" s="51" t="s">
+      <c r="V13" s="36"/>
+      <c r="W13" s="36"/>
+      <c r="X13" s="36"/>
+      <c r="Y13" s="36"/>
+      <c r="Z13" s="36"/>
+      <c r="AA13" s="36"/>
+      <c r="AB13" s="37"/>
+      <c r="AC13" s="35" t="s">
         <v>98</v>
       </c>
-      <c r="AD13" s="52"/>
-      <c r="AE13" s="52"/>
-      <c r="AF13" s="52"/>
-      <c r="AG13" s="52"/>
-      <c r="AH13" s="52"/>
-      <c r="AI13" s="52"/>
-      <c r="AJ13" s="53"/>
+      <c r="AD13" s="36"/>
+      <c r="AE13" s="36"/>
+      <c r="AF13" s="36"/>
+      <c r="AG13" s="36"/>
+      <c r="AH13" s="36"/>
+      <c r="AI13" s="36"/>
+      <c r="AJ13" s="37"/>
       <c r="AK13" s="54" t="s">
         <v>32</v>
       </c>
-      <c r="AL13" s="34" t="s">
+      <c r="AL13" s="42" t="s">
         <v>33</v>
       </c>
-      <c r="AM13" s="34" t="s">
+      <c r="AM13" s="42" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="14" spans="3:39" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C14" s="49" t="s">
+      <c r="C14" s="34" t="s">
         <v>101</v>
       </c>
-      <c r="D14" s="49"/>
+      <c r="D14" s="34"/>
       <c r="E14" s="3" t="s">
         <v>102</v>
       </c>
@@ -9014,62 +9014,62 @@
         <v>31</v>
       </c>
       <c r="AK14" s="55"/>
-      <c r="AL14" s="34"/>
-      <c r="AM14" s="34"/>
+      <c r="AL14" s="42"/>
+      <c r="AM14" s="42"/>
     </row>
     <row r="15" spans="3:39" ht="95.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C15" s="45" t="s">
+      <c r="C15" s="38" t="s">
         <v>119</v>
       </c>
-      <c r="D15" s="45" t="s">
+      <c r="D15" s="38" t="s">
         <v>120</v>
       </c>
-      <c r="E15" s="36" t="s">
+      <c r="E15" s="44" t="s">
         <v>38</v>
       </c>
-      <c r="F15" s="37"/>
-      <c r="G15" s="37"/>
-      <c r="H15" s="37"/>
-      <c r="I15" s="37"/>
-      <c r="J15" s="37"/>
-      <c r="K15" s="37"/>
-      <c r="L15" s="38"/>
-      <c r="M15" s="31" t="s">
+      <c r="F15" s="45"/>
+      <c r="G15" s="45"/>
+      <c r="H15" s="45"/>
+      <c r="I15" s="45"/>
+      <c r="J15" s="45"/>
+      <c r="K15" s="45"/>
+      <c r="L15" s="46"/>
+      <c r="M15" s="26" t="s">
         <v>39</v>
       </c>
-      <c r="N15" s="32"/>
-      <c r="O15" s="32"/>
-      <c r="P15" s="33"/>
-      <c r="Q15" s="30" t="s">
+      <c r="N15" s="27"/>
+      <c r="O15" s="27"/>
+      <c r="P15" s="28"/>
+      <c r="Q15" s="29" t="s">
         <v>65</v>
       </c>
-      <c r="R15" s="30"/>
-      <c r="S15" s="30"/>
-      <c r="T15" s="30"/>
-      <c r="U15" s="26" t="s">
+      <c r="R15" s="29"/>
+      <c r="S15" s="29"/>
+      <c r="T15" s="29"/>
+      <c r="U15" s="30" t="s">
         <v>39</v>
       </c>
-      <c r="V15" s="27"/>
-      <c r="W15" s="27"/>
-      <c r="X15" s="27"/>
-      <c r="Y15" s="27"/>
-      <c r="Z15" s="28"/>
+      <c r="V15" s="31"/>
+      <c r="W15" s="31"/>
+      <c r="X15" s="31"/>
+      <c r="Y15" s="31"/>
+      <c r="Z15" s="32"/>
       <c r="AA15" s="11" t="s">
         <v>66</v>
       </c>
       <c r="AB15" s="11" t="s">
         <v>67</v>
       </c>
-      <c r="AC15" s="26" t="s">
+      <c r="AC15" s="30" t="s">
         <v>39</v>
       </c>
-      <c r="AD15" s="27"/>
-      <c r="AE15" s="27"/>
-      <c r="AF15" s="27"/>
-      <c r="AG15" s="27"/>
-      <c r="AH15" s="27"/>
-      <c r="AI15" s="27"/>
-      <c r="AJ15" s="28"/>
+      <c r="AD15" s="31"/>
+      <c r="AE15" s="31"/>
+      <c r="AF15" s="31"/>
+      <c r="AG15" s="31"/>
+      <c r="AH15" s="31"/>
+      <c r="AI15" s="31"/>
+      <c r="AJ15" s="32"/>
       <c r="AK15" s="9" t="s">
         <v>147</v>
       </c>
@@ -9081,46 +9081,46 @@
       </c>
     </row>
     <row r="16" spans="3:39" ht="95.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C16" s="45"/>
-      <c r="D16" s="45"/>
-      <c r="E16" s="39"/>
-      <c r="F16" s="40"/>
-      <c r="G16" s="40"/>
-      <c r="H16" s="40"/>
-      <c r="I16" s="40"/>
-      <c r="J16" s="40"/>
-      <c r="K16" s="40"/>
-      <c r="L16" s="41"/>
-      <c r="M16" s="31" t="s">
+      <c r="C16" s="38"/>
+      <c r="D16" s="38"/>
+      <c r="E16" s="47"/>
+      <c r="F16" s="48"/>
+      <c r="G16" s="48"/>
+      <c r="H16" s="48"/>
+      <c r="I16" s="48"/>
+      <c r="J16" s="48"/>
+      <c r="K16" s="48"/>
+      <c r="L16" s="49"/>
+      <c r="M16" s="26" t="s">
         <v>39</v>
       </c>
-      <c r="N16" s="32"/>
-      <c r="O16" s="32"/>
-      <c r="P16" s="33"/>
-      <c r="Q16" s="30" t="s">
+      <c r="N16" s="27"/>
+      <c r="O16" s="27"/>
+      <c r="P16" s="28"/>
+      <c r="Q16" s="29" t="s">
         <v>74</v>
       </c>
-      <c r="R16" s="30"/>
-      <c r="S16" s="30"/>
-      <c r="T16" s="30"/>
-      <c r="U16" s="26" t="s">
+      <c r="R16" s="29"/>
+      <c r="S16" s="29"/>
+      <c r="T16" s="29"/>
+      <c r="U16" s="30" t="s">
         <v>39</v>
       </c>
-      <c r="V16" s="27"/>
-      <c r="W16" s="27"/>
-      <c r="X16" s="27"/>
-      <c r="Y16" s="27"/>
-      <c r="Z16" s="27"/>
-      <c r="AA16" s="27"/>
-      <c r="AB16" s="27"/>
-      <c r="AC16" s="27"/>
-      <c r="AD16" s="27"/>
-      <c r="AE16" s="27"/>
-      <c r="AF16" s="27"/>
-      <c r="AG16" s="27"/>
-      <c r="AH16" s="27"/>
-      <c r="AI16" s="27"/>
-      <c r="AJ16" s="28"/>
+      <c r="V16" s="31"/>
+      <c r="W16" s="31"/>
+      <c r="X16" s="31"/>
+      <c r="Y16" s="31"/>
+      <c r="Z16" s="31"/>
+      <c r="AA16" s="31"/>
+      <c r="AB16" s="31"/>
+      <c r="AC16" s="31"/>
+      <c r="AD16" s="31"/>
+      <c r="AE16" s="31"/>
+      <c r="AF16" s="31"/>
+      <c r="AG16" s="31"/>
+      <c r="AH16" s="31"/>
+      <c r="AI16" s="31"/>
+      <c r="AJ16" s="32"/>
       <c r="AK16" s="9" t="s">
         <v>75</v>
       </c>
@@ -9132,48 +9132,48 @@
       </c>
     </row>
     <row r="17" spans="3:39" ht="95.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C17" s="45"/>
-      <c r="D17" s="45"/>
-      <c r="E17" s="39"/>
-      <c r="F17" s="40"/>
-      <c r="G17" s="40"/>
-      <c r="H17" s="40"/>
-      <c r="I17" s="40"/>
-      <c r="J17" s="40"/>
-      <c r="K17" s="40"/>
-      <c r="L17" s="41"/>
-      <c r="M17" s="31" t="s">
+      <c r="C17" s="38"/>
+      <c r="D17" s="38"/>
+      <c r="E17" s="47"/>
+      <c r="F17" s="48"/>
+      <c r="G17" s="48"/>
+      <c r="H17" s="48"/>
+      <c r="I17" s="48"/>
+      <c r="J17" s="48"/>
+      <c r="K17" s="48"/>
+      <c r="L17" s="49"/>
+      <c r="M17" s="26" t="s">
         <v>39</v>
       </c>
-      <c r="N17" s="32"/>
-      <c r="O17" s="32"/>
-      <c r="P17" s="33"/>
-      <c r="Q17" s="30" t="s">
+      <c r="N17" s="27"/>
+      <c r="O17" s="27"/>
+      <c r="P17" s="28"/>
+      <c r="Q17" s="29" t="s">
         <v>77</v>
       </c>
-      <c r="R17" s="30"/>
-      <c r="S17" s="30"/>
-      <c r="T17" s="30"/>
-      <c r="U17" s="26" t="s">
+      <c r="R17" s="29"/>
+      <c r="S17" s="29"/>
+      <c r="T17" s="29"/>
+      <c r="U17" s="30" t="s">
         <v>39</v>
       </c>
-      <c r="V17" s="27"/>
-      <c r="W17" s="27"/>
-      <c r="X17" s="27"/>
-      <c r="Y17" s="27"/>
-      <c r="Z17" s="27"/>
-      <c r="AA17" s="27"/>
-      <c r="AB17" s="28"/>
-      <c r="AC17" s="30" t="s">
+      <c r="V17" s="31"/>
+      <c r="W17" s="31"/>
+      <c r="X17" s="31"/>
+      <c r="Y17" s="31"/>
+      <c r="Z17" s="31"/>
+      <c r="AA17" s="31"/>
+      <c r="AB17" s="32"/>
+      <c r="AC17" s="29" t="s">
         <v>38</v>
       </c>
-      <c r="AD17" s="30"/>
-      <c r="AE17" s="30"/>
-      <c r="AF17" s="30"/>
-      <c r="AG17" s="30"/>
-      <c r="AH17" s="30"/>
-      <c r="AI17" s="30"/>
-      <c r="AJ17" s="30"/>
+      <c r="AD17" s="29"/>
+      <c r="AE17" s="29"/>
+      <c r="AF17" s="29"/>
+      <c r="AG17" s="29"/>
+      <c r="AH17" s="29"/>
+      <c r="AI17" s="29"/>
+      <c r="AJ17" s="29"/>
       <c r="AK17" s="9" t="s">
         <v>78</v>
       </c>
@@ -9185,54 +9185,54 @@
       </c>
     </row>
     <row r="18" spans="3:39" ht="95.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C18" s="45"/>
-      <c r="D18" s="45"/>
-      <c r="E18" s="39"/>
-      <c r="F18" s="40"/>
-      <c r="G18" s="40"/>
-      <c r="H18" s="40"/>
-      <c r="I18" s="40"/>
-      <c r="J18" s="40"/>
-      <c r="K18" s="40"/>
-      <c r="L18" s="41"/>
+      <c r="C18" s="38"/>
+      <c r="D18" s="38"/>
+      <c r="E18" s="47"/>
+      <c r="F18" s="48"/>
+      <c r="G18" s="48"/>
+      <c r="H18" s="48"/>
+      <c r="I18" s="48"/>
+      <c r="J18" s="48"/>
+      <c r="K18" s="48"/>
+      <c r="L18" s="49"/>
       <c r="M18" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="N18" s="31" t="s">
+      <c r="N18" s="26" t="s">
         <v>152</v>
       </c>
-      <c r="O18" s="32"/>
-      <c r="P18" s="33"/>
-      <c r="Q18" s="30" t="s">
+      <c r="O18" s="27"/>
+      <c r="P18" s="28"/>
+      <c r="Q18" s="29" t="s">
         <v>88</v>
       </c>
-      <c r="R18" s="30"/>
-      <c r="S18" s="30"/>
-      <c r="T18" s="30"/>
-      <c r="U18" s="26" t="s">
+      <c r="R18" s="29"/>
+      <c r="S18" s="29"/>
+      <c r="T18" s="29"/>
+      <c r="U18" s="30" t="s">
         <v>39</v>
       </c>
-      <c r="V18" s="27"/>
-      <c r="W18" s="27"/>
-      <c r="X18" s="27"/>
-      <c r="Y18" s="27"/>
-      <c r="Z18" s="28"/>
-      <c r="AA18" s="30" t="s">
+      <c r="V18" s="31"/>
+      <c r="W18" s="31"/>
+      <c r="X18" s="31"/>
+      <c r="Y18" s="31"/>
+      <c r="Z18" s="32"/>
+      <c r="AA18" s="29" t="s">
         <v>153</v>
       </c>
-      <c r="AB18" s="30"/>
-      <c r="AC18" s="30" t="s">
+      <c r="AB18" s="29"/>
+      <c r="AC18" s="29" t="s">
         <v>39</v>
       </c>
-      <c r="AD18" s="30"/>
-      <c r="AE18" s="26" t="s">
+      <c r="AD18" s="29"/>
+      <c r="AE18" s="30" t="s">
         <v>60</v>
       </c>
-      <c r="AF18" s="27"/>
-      <c r="AG18" s="27"/>
-      <c r="AH18" s="27"/>
-      <c r="AI18" s="27"/>
-      <c r="AJ18" s="28"/>
+      <c r="AF18" s="31"/>
+      <c r="AG18" s="31"/>
+      <c r="AH18" s="31"/>
+      <c r="AI18" s="31"/>
+      <c r="AJ18" s="32"/>
       <c r="AK18" s="9" t="s">
         <v>154</v>
       </c>
@@ -9244,51 +9244,51 @@
       </c>
     </row>
     <row r="19" spans="3:39" ht="95.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C19" s="45"/>
-      <c r="D19" s="45"/>
-      <c r="E19" s="42"/>
-      <c r="F19" s="43"/>
-      <c r="G19" s="43"/>
-      <c r="H19" s="43"/>
-      <c r="I19" s="43"/>
-      <c r="J19" s="43"/>
-      <c r="K19" s="43"/>
-      <c r="L19" s="44"/>
-      <c r="M19" s="29" t="s">
+      <c r="C19" s="38"/>
+      <c r="D19" s="38"/>
+      <c r="E19" s="50"/>
+      <c r="F19" s="51"/>
+      <c r="G19" s="51"/>
+      <c r="H19" s="51"/>
+      <c r="I19" s="51"/>
+      <c r="J19" s="51"/>
+      <c r="K19" s="51"/>
+      <c r="L19" s="52"/>
+      <c r="M19" s="33" t="s">
         <v>39</v>
       </c>
-      <c r="N19" s="29"/>
-      <c r="O19" s="32" t="s">
+      <c r="N19" s="33"/>
+      <c r="O19" s="27" t="s">
         <v>157</v>
       </c>
-      <c r="P19" s="33"/>
-      <c r="Q19" s="30" t="s">
+      <c r="P19" s="28"/>
+      <c r="Q19" s="29" t="s">
         <v>158</v>
       </c>
-      <c r="R19" s="30"/>
-      <c r="S19" s="30"/>
-      <c r="T19" s="30"/>
-      <c r="U19" s="26" t="s">
+      <c r="R19" s="29"/>
+      <c r="S19" s="29"/>
+      <c r="T19" s="29"/>
+      <c r="U19" s="30" t="s">
         <v>39</v>
       </c>
-      <c r="V19" s="27"/>
-      <c r="W19" s="27"/>
-      <c r="X19" s="27"/>
-      <c r="Y19" s="27"/>
-      <c r="Z19" s="27"/>
-      <c r="AA19" s="28"/>
+      <c r="V19" s="31"/>
+      <c r="W19" s="31"/>
+      <c r="X19" s="31"/>
+      <c r="Y19" s="31"/>
+      <c r="Z19" s="31"/>
+      <c r="AA19" s="32"/>
       <c r="AB19" s="5" t="s">
         <v>159</v>
       </c>
-      <c r="AC19" s="30" t="s">
+      <c r="AC19" s="29" t="s">
         <v>39</v>
       </c>
-      <c r="AD19" s="30"/>
-      <c r="AE19" s="30"/>
-      <c r="AF19" s="30"/>
-      <c r="AG19" s="30"/>
-      <c r="AH19" s="30"/>
-      <c r="AI19" s="30"/>
+      <c r="AD19" s="29"/>
+      <c r="AE19" s="29"/>
+      <c r="AF19" s="29"/>
+      <c r="AG19" s="29"/>
+      <c r="AH19" s="29"/>
+      <c r="AI19" s="29"/>
       <c r="AJ19" s="12" t="s">
         <v>160</v>
       </c>
@@ -9304,23 +9304,6 @@
     </row>
   </sheetData>
   <mergeCells count="33">
-    <mergeCell ref="E13:L13"/>
-    <mergeCell ref="M13:T13"/>
-    <mergeCell ref="U13:AB13"/>
-    <mergeCell ref="AC13:AJ13"/>
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="M15:P15"/>
-    <mergeCell ref="Q15:T15"/>
-    <mergeCell ref="U15:Z15"/>
-    <mergeCell ref="AC15:AJ15"/>
-    <mergeCell ref="M16:P16"/>
-    <mergeCell ref="Q16:T16"/>
-    <mergeCell ref="U16:AJ16"/>
-    <mergeCell ref="Q18:T18"/>
-    <mergeCell ref="U18:Z18"/>
-    <mergeCell ref="AA18:AB18"/>
-    <mergeCell ref="AC18:AD18"/>
-    <mergeCell ref="AE18:AJ18"/>
     <mergeCell ref="C15:C19"/>
     <mergeCell ref="D15:D19"/>
     <mergeCell ref="AK13:AK14"/>
@@ -9337,6 +9320,23 @@
     <mergeCell ref="U17:AB17"/>
     <mergeCell ref="AC17:AJ17"/>
     <mergeCell ref="N18:P18"/>
+    <mergeCell ref="Q18:T18"/>
+    <mergeCell ref="U18:Z18"/>
+    <mergeCell ref="AA18:AB18"/>
+    <mergeCell ref="AC18:AD18"/>
+    <mergeCell ref="AE18:AJ18"/>
+    <mergeCell ref="M15:P15"/>
+    <mergeCell ref="Q15:T15"/>
+    <mergeCell ref="U15:Z15"/>
+    <mergeCell ref="AC15:AJ15"/>
+    <mergeCell ref="M16:P16"/>
+    <mergeCell ref="Q16:T16"/>
+    <mergeCell ref="U16:AJ16"/>
+    <mergeCell ref="E13:L13"/>
+    <mergeCell ref="M13:T13"/>
+    <mergeCell ref="U13:AB13"/>
+    <mergeCell ref="AC13:AJ13"/>
+    <mergeCell ref="C14:D14"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -9348,8 +9348,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="C9:AO14"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="Y3" workbookViewId="0">
-      <selection activeCell="AO14" sqref="AO14"/>
+    <sheetView tabSelected="1" topLeftCell="U3" workbookViewId="0">
+      <selection activeCell="AO13" sqref="AO13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -9368,50 +9368,50 @@
       <c r="D9" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="E9" s="51" t="s">
+      <c r="E9" s="35" t="s">
         <v>95</v>
       </c>
-      <c r="F9" s="52"/>
-      <c r="G9" s="52"/>
-      <c r="H9" s="52"/>
-      <c r="I9" s="52"/>
-      <c r="J9" s="52"/>
-      <c r="K9" s="52"/>
-      <c r="L9" s="53"/>
-      <c r="M9" s="51" t="s">
+      <c r="F9" s="36"/>
+      <c r="G9" s="36"/>
+      <c r="H9" s="36"/>
+      <c r="I9" s="36"/>
+      <c r="J9" s="36"/>
+      <c r="K9" s="36"/>
+      <c r="L9" s="37"/>
+      <c r="M9" s="35" t="s">
         <v>96</v>
       </c>
-      <c r="N9" s="52" t="s">
+      <c r="N9" s="36" t="s">
         <v>97</v>
       </c>
-      <c r="O9" s="52" t="s">
+      <c r="O9" s="36" t="s">
         <v>98</v>
       </c>
-      <c r="P9" s="52"/>
-      <c r="Q9" s="52"/>
-      <c r="R9" s="52"/>
-      <c r="S9" s="52"/>
-      <c r="T9" s="53"/>
-      <c r="U9" s="51" t="s">
+      <c r="P9" s="36"/>
+      <c r="Q9" s="36"/>
+      <c r="R9" s="36"/>
+      <c r="S9" s="36"/>
+      <c r="T9" s="37"/>
+      <c r="U9" s="35" t="s">
         <v>97</v>
       </c>
-      <c r="V9" s="52"/>
-      <c r="W9" s="52"/>
-      <c r="X9" s="52"/>
-      <c r="Y9" s="52"/>
-      <c r="Z9" s="52"/>
-      <c r="AA9" s="52"/>
-      <c r="AB9" s="53"/>
-      <c r="AC9" s="51" t="s">
+      <c r="V9" s="36"/>
+      <c r="W9" s="36"/>
+      <c r="X9" s="36"/>
+      <c r="Y9" s="36"/>
+      <c r="Z9" s="36"/>
+      <c r="AA9" s="36"/>
+      <c r="AB9" s="37"/>
+      <c r="AC9" s="35" t="s">
         <v>98</v>
       </c>
-      <c r="AD9" s="52"/>
-      <c r="AE9" s="52"/>
-      <c r="AF9" s="52"/>
-      <c r="AG9" s="52"/>
-      <c r="AH9" s="52"/>
-      <c r="AI9" s="52"/>
-      <c r="AJ9" s="53"/>
+      <c r="AD9" s="36"/>
+      <c r="AE9" s="36"/>
+      <c r="AF9" s="36"/>
+      <c r="AG9" s="36"/>
+      <c r="AH9" s="36"/>
+      <c r="AI9" s="36"/>
+      <c r="AJ9" s="37"/>
       <c r="AK9" s="1" t="s">
         <v>99</v>
       </c>
@@ -9421,18 +9421,18 @@
       <c r="AM9" s="54" t="s">
         <v>32</v>
       </c>
-      <c r="AN9" s="34" t="s">
+      <c r="AN9" s="42" t="s">
         <v>33</v>
       </c>
-      <c r="AO9" s="34" t="s">
+      <c r="AO9" s="42" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="10" spans="3:41" x14ac:dyDescent="0.2">
-      <c r="C10" s="49" t="s">
+      <c r="C10" s="34" t="s">
         <v>101</v>
       </c>
-      <c r="D10" s="49"/>
+      <c r="D10" s="34"/>
       <c r="E10" s="3" t="s">
         <v>102</v>
       </c>
@@ -9529,67 +9529,67 @@
       <c r="AJ10" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="AK10" s="49" t="s">
+      <c r="AK10" s="34" t="s">
         <v>118</v>
       </c>
-      <c r="AL10" s="50"/>
+      <c r="AL10" s="53"/>
       <c r="AM10" s="55"/>
-      <c r="AN10" s="34"/>
-      <c r="AO10" s="34"/>
+      <c r="AN10" s="42"/>
+      <c r="AO10" s="42"/>
     </row>
     <row r="11" spans="3:41" ht="93" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C11" s="45" t="s">
+      <c r="C11" s="38" t="s">
         <v>119</v>
       </c>
-      <c r="D11" s="45" t="s">
+      <c r="D11" s="38" t="s">
         <v>120</v>
       </c>
-      <c r="E11" s="36" t="s">
+      <c r="E11" s="44" t="s">
         <v>39</v>
       </c>
-      <c r="F11" s="37"/>
-      <c r="G11" s="37"/>
-      <c r="H11" s="37"/>
-      <c r="I11" s="37"/>
-      <c r="J11" s="37"/>
-      <c r="K11" s="37"/>
-      <c r="L11" s="38"/>
-      <c r="M11" s="31" t="s">
+      <c r="F11" s="45"/>
+      <c r="G11" s="45"/>
+      <c r="H11" s="45"/>
+      <c r="I11" s="45"/>
+      <c r="J11" s="45"/>
+      <c r="K11" s="45"/>
+      <c r="L11" s="46"/>
+      <c r="M11" s="26" t="s">
         <v>169</v>
       </c>
-      <c r="N11" s="32"/>
-      <c r="O11" s="32"/>
-      <c r="P11" s="33"/>
-      <c r="Q11" s="30" t="s">
+      <c r="N11" s="27"/>
+      <c r="O11" s="27"/>
+      <c r="P11" s="28"/>
+      <c r="Q11" s="29" t="s">
         <v>46</v>
       </c>
-      <c r="R11" s="30"/>
-      <c r="S11" s="30"/>
-      <c r="T11" s="30"/>
+      <c r="R11" s="29"/>
+      <c r="S11" s="29"/>
+      <c r="T11" s="29"/>
       <c r="U11" s="57" t="s">
         <v>178</v>
       </c>
-      <c r="V11" s="30"/>
-      <c r="W11" s="30"/>
-      <c r="X11" s="30"/>
-      <c r="Y11" s="30"/>
-      <c r="Z11" s="30"/>
-      <c r="AA11" s="30"/>
-      <c r="AB11" s="30"/>
-      <c r="AC11" s="30"/>
-      <c r="AD11" s="30"/>
-      <c r="AE11" s="30"/>
-      <c r="AF11" s="30"/>
-      <c r="AG11" s="30"/>
-      <c r="AH11" s="30"/>
-      <c r="AI11" s="30"/>
+      <c r="V11" s="29"/>
+      <c r="W11" s="29"/>
+      <c r="X11" s="29"/>
+      <c r="Y11" s="29"/>
+      <c r="Z11" s="29"/>
+      <c r="AA11" s="29"/>
+      <c r="AB11" s="29"/>
+      <c r="AC11" s="29"/>
+      <c r="AD11" s="29"/>
+      <c r="AE11" s="29"/>
+      <c r="AF11" s="29"/>
+      <c r="AG11" s="29"/>
+      <c r="AH11" s="29"/>
+      <c r="AI11" s="29"/>
       <c r="AJ11" s="8" t="s">
         <v>170</v>
       </c>
-      <c r="AK11" s="45" t="s">
+      <c r="AK11" s="38" t="s">
         <v>122</v>
       </c>
-      <c r="AL11" s="45" t="s">
+      <c r="AL11" s="38" t="s">
         <v>123</v>
       </c>
       <c r="AM11" s="9" t="s">
@@ -9603,50 +9603,50 @@
       </c>
     </row>
     <row r="12" spans="3:41" ht="93" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C12" s="45"/>
-      <c r="D12" s="45"/>
-      <c r="E12" s="39"/>
-      <c r="F12" s="40"/>
-      <c r="G12" s="40"/>
-      <c r="H12" s="40"/>
-      <c r="I12" s="40"/>
-      <c r="J12" s="40"/>
-      <c r="K12" s="40"/>
-      <c r="L12" s="41"/>
-      <c r="M12" s="31" t="s">
+      <c r="C12" s="38"/>
+      <c r="D12" s="38"/>
+      <c r="E12" s="47"/>
+      <c r="F12" s="48"/>
+      <c r="G12" s="48"/>
+      <c r="H12" s="48"/>
+      <c r="I12" s="48"/>
+      <c r="J12" s="48"/>
+      <c r="K12" s="48"/>
+      <c r="L12" s="49"/>
+      <c r="M12" s="26" t="s">
         <v>169</v>
       </c>
-      <c r="N12" s="32"/>
-      <c r="O12" s="32"/>
-      <c r="P12" s="33"/>
-      <c r="Q12" s="30" t="s">
+      <c r="N12" s="27"/>
+      <c r="O12" s="27"/>
+      <c r="P12" s="28"/>
+      <c r="Q12" s="29" t="s">
         <v>52</v>
       </c>
-      <c r="R12" s="30"/>
-      <c r="S12" s="30"/>
-      <c r="T12" s="30"/>
+      <c r="R12" s="29"/>
+      <c r="S12" s="29"/>
+      <c r="T12" s="29"/>
       <c r="U12" s="58" t="s">
         <v>178</v>
       </c>
-      <c r="V12" s="27"/>
-      <c r="W12" s="27"/>
-      <c r="X12" s="27"/>
-      <c r="Y12" s="27"/>
-      <c r="Z12" s="27"/>
-      <c r="AA12" s="27"/>
-      <c r="AB12" s="27"/>
-      <c r="AC12" s="27"/>
-      <c r="AD12" s="27"/>
-      <c r="AE12" s="27"/>
-      <c r="AF12" s="27"/>
-      <c r="AG12" s="27"/>
-      <c r="AH12" s="27"/>
-      <c r="AI12" s="27"/>
-      <c r="AJ12" s="28"/>
-      <c r="AK12" s="45"/>
-      <c r="AL12" s="45"/>
+      <c r="V12" s="31"/>
+      <c r="W12" s="31"/>
+      <c r="X12" s="31"/>
+      <c r="Y12" s="31"/>
+      <c r="Z12" s="31"/>
+      <c r="AA12" s="31"/>
+      <c r="AB12" s="31"/>
+      <c r="AC12" s="31"/>
+      <c r="AD12" s="31"/>
+      <c r="AE12" s="31"/>
+      <c r="AF12" s="31"/>
+      <c r="AG12" s="31"/>
+      <c r="AH12" s="31"/>
+      <c r="AI12" s="31"/>
+      <c r="AJ12" s="32"/>
+      <c r="AK12" s="38"/>
+      <c r="AL12" s="38"/>
       <c r="AM12" s="24" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="AN12" s="10" t="s">
         <v>174</v>
@@ -9656,83 +9656,83 @@
       </c>
     </row>
     <row r="13" spans="3:41" ht="93" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C13" s="45"/>
-      <c r="D13" s="45"/>
-      <c r="E13" s="42"/>
-      <c r="F13" s="43"/>
-      <c r="G13" s="43"/>
-      <c r="H13" s="43"/>
-      <c r="I13" s="43"/>
-      <c r="J13" s="43"/>
-      <c r="K13" s="43"/>
-      <c r="L13" s="44"/>
+      <c r="C13" s="38"/>
+      <c r="D13" s="38"/>
+      <c r="E13" s="50"/>
+      <c r="F13" s="51"/>
+      <c r="G13" s="51"/>
+      <c r="H13" s="51"/>
+      <c r="I13" s="51"/>
+      <c r="J13" s="51"/>
+      <c r="K13" s="51"/>
+      <c r="L13" s="52"/>
       <c r="M13" s="56" t="s">
         <v>176</v>
       </c>
-      <c r="N13" s="32"/>
-      <c r="O13" s="32"/>
-      <c r="P13" s="33"/>
+      <c r="N13" s="27"/>
+      <c r="O13" s="27"/>
+      <c r="P13" s="28"/>
       <c r="Q13" s="57" t="s">
         <v>175</v>
       </c>
-      <c r="R13" s="30"/>
-      <c r="S13" s="30"/>
-      <c r="T13" s="30"/>
+      <c r="R13" s="29"/>
+      <c r="S13" s="29"/>
+      <c r="T13" s="29"/>
       <c r="U13" s="58" t="s">
         <v>178</v>
       </c>
-      <c r="V13" s="27"/>
-      <c r="W13" s="27"/>
-      <c r="X13" s="27"/>
-      <c r="Y13" s="27"/>
-      <c r="Z13" s="27"/>
-      <c r="AA13" s="27"/>
-      <c r="AB13" s="27"/>
-      <c r="AC13" s="27"/>
-      <c r="AD13" s="27"/>
-      <c r="AE13" s="27"/>
-      <c r="AF13" s="27"/>
-      <c r="AG13" s="27"/>
-      <c r="AH13" s="28"/>
+      <c r="V13" s="31"/>
+      <c r="W13" s="31"/>
+      <c r="X13" s="31"/>
+      <c r="Y13" s="31"/>
+      <c r="Z13" s="31"/>
+      <c r="AA13" s="31"/>
+      <c r="AB13" s="31"/>
+      <c r="AC13" s="31"/>
+      <c r="AD13" s="31"/>
+      <c r="AE13" s="31"/>
+      <c r="AF13" s="31"/>
+      <c r="AG13" s="31"/>
+      <c r="AH13" s="32"/>
       <c r="AI13" s="57" t="s">
-        <v>179</v>
-      </c>
-      <c r="AJ13" s="30"/>
-      <c r="AK13" s="45"/>
-      <c r="AL13" s="45"/>
+        <v>184</v>
+      </c>
+      <c r="AJ13" s="29"/>
+      <c r="AK13" s="38"/>
+      <c r="AL13" s="38"/>
       <c r="AM13" s="24" t="s">
         <v>177</v>
       </c>
       <c r="AN13" s="25" t="s">
-        <v>180</v>
+        <v>185</v>
       </c>
       <c r="AO13" s="25" t="s">
-        <v>181</v>
+        <v>186</v>
       </c>
     </row>
     <row r="14" spans="3:41" ht="93" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C14" s="45"/>
-      <c r="D14" s="45"/>
+      <c r="C14" s="38"/>
+      <c r="D14" s="38"/>
       <c r="E14" s="56" t="s">
-        <v>185</v>
-      </c>
-      <c r="F14" s="32"/>
-      <c r="G14" s="32"/>
-      <c r="H14" s="32"/>
-      <c r="I14" s="32"/>
-      <c r="J14" s="32"/>
-      <c r="K14" s="32"/>
-      <c r="L14" s="32"/>
-      <c r="M14" s="32"/>
-      <c r="N14" s="32"/>
-      <c r="O14" s="32"/>
-      <c r="P14" s="33"/>
+        <v>182</v>
+      </c>
+      <c r="F14" s="27"/>
+      <c r="G14" s="27"/>
+      <c r="H14" s="27"/>
+      <c r="I14" s="27"/>
+      <c r="J14" s="27"/>
+      <c r="K14" s="27"/>
+      <c r="L14" s="27"/>
+      <c r="M14" s="27"/>
+      <c r="N14" s="27"/>
+      <c r="O14" s="27"/>
+      <c r="P14" s="28"/>
       <c r="Q14" s="57" t="s">
-        <v>183</v>
-      </c>
-      <c r="R14" s="30"/>
-      <c r="S14" s="30"/>
-      <c r="T14" s="30"/>
+        <v>180</v>
+      </c>
+      <c r="R14" s="29"/>
+      <c r="S14" s="29"/>
+      <c r="T14" s="29"/>
       <c r="U14" s="58"/>
       <c r="V14" s="59"/>
       <c r="W14" s="59"/>
@@ -9742,7 +9742,7 @@
       <c r="AA14" s="59"/>
       <c r="AB14" s="60"/>
       <c r="AC14" s="57" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="AD14" s="57"/>
       <c r="AE14" s="57"/>
@@ -9751,16 +9751,32 @@
       <c r="AH14" s="57"/>
       <c r="AI14" s="57"/>
       <c r="AJ14" s="57"/>
-      <c r="AK14" s="45"/>
-      <c r="AL14" s="45"/>
+      <c r="AK14" s="38"/>
+      <c r="AL14" s="38"/>
       <c r="AM14" s="24" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="AN14" s="25"/>
       <c r="AO14" s="25"/>
     </row>
   </sheetData>
   <mergeCells count="28">
+    <mergeCell ref="AO9:AO10"/>
+    <mergeCell ref="Q14:T14"/>
+    <mergeCell ref="C11:C14"/>
+    <mergeCell ref="D11:D14"/>
+    <mergeCell ref="AM9:AM10"/>
+    <mergeCell ref="AK11:AK14"/>
+    <mergeCell ref="AL11:AL14"/>
+    <mergeCell ref="U11:AI11"/>
+    <mergeCell ref="AK10:AL10"/>
+    <mergeCell ref="M11:P11"/>
+    <mergeCell ref="Q11:T11"/>
+    <mergeCell ref="E9:L9"/>
+    <mergeCell ref="M9:T9"/>
+    <mergeCell ref="U9:AB9"/>
+    <mergeCell ref="AC9:AJ9"/>
+    <mergeCell ref="AN9:AN10"/>
     <mergeCell ref="E14:P14"/>
     <mergeCell ref="AC14:AJ14"/>
     <mergeCell ref="U14:AB14"/>
@@ -9773,22 +9789,6 @@
     <mergeCell ref="M12:P12"/>
     <mergeCell ref="Q12:T12"/>
     <mergeCell ref="U12:AJ12"/>
-    <mergeCell ref="E9:L9"/>
-    <mergeCell ref="M9:T9"/>
-    <mergeCell ref="U9:AB9"/>
-    <mergeCell ref="AC9:AJ9"/>
-    <mergeCell ref="AN9:AN10"/>
-    <mergeCell ref="AO9:AO10"/>
-    <mergeCell ref="Q14:T14"/>
-    <mergeCell ref="C11:C14"/>
-    <mergeCell ref="D11:D14"/>
-    <mergeCell ref="AM9:AM10"/>
-    <mergeCell ref="AK11:AK14"/>
-    <mergeCell ref="AL11:AL14"/>
-    <mergeCell ref="U11:AI11"/>
-    <mergeCell ref="AK10:AL10"/>
-    <mergeCell ref="M11:P11"/>
-    <mergeCell ref="Q11:T11"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
